--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A3B24F-D3C3-4FAD-BA0C-CAAEDF7B05EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A896AB-D22A-40A8-9D8E-92034CB2B45E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,6 +425,9 @@
                 <c:pt idx="49">
                   <c:v>49</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -511,6 +514,15 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,6 +1149,9 @@
                 <c:pt idx="49">
                   <c:v>49</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1223,6 +1238,15 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,6 +1873,9 @@
                 <c:pt idx="49">
                   <c:v>49</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1935,6 +1962,15 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2560,6 +2596,9 @@
                 <c:pt idx="49">
                   <c:v>49</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2646,6 +2685,15 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5593,10 +5641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5647,23 +5695,23 @@
         <v>3</v>
       </c>
       <c r="D2" s="2">
-        <f>1.5638*B2+3</f>
+        <f>1.7932*B2+3</f>
         <v>3</v>
       </c>
       <c r="E2" s="2">
-        <f>0.0837*B2^2-0.0362*B2+3</f>
+        <f>0.0913*B2^2-0.1586*B2+3</f>
         <v>3</v>
       </c>
       <c r="F2" s="2">
-        <f>0.0014*B2^3 + 0.0367*B2^2 + 0.3231*B2 + 3</f>
+        <f>0.0016*B2^3 + 0.0305*B2^2 + 0.3612*B2 + 3</f>
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <f>3*EXP(0.1234*B2)</f>
+        <f>3*EXP(0.121*B2)</f>
         <v>3</v>
       </c>
       <c r="H2" s="1">
-        <v>43654</v>
+        <v>43655</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5671,27 +5719,27 @@
         <v>43626</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B51" si="0">B2+1</f>
+        <f t="shared" ref="B3:B58" si="0">B2+1</f>
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>4</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D51" si="1">1.5638*B3+3</f>
-        <v>4.5638000000000005</v>
+        <f t="shared" ref="D3:D58" si="1">1.7932*B3+3</f>
+        <v>4.7931999999999997</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E51" si="2">0.0837*B3^2-0.0362*B3+3</f>
-        <v>3.0474999999999999</v>
+        <f t="shared" ref="E3:E58" si="2">0.0913*B3^2-0.1586*B3+3</f>
+        <v>2.9327000000000001</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F51" si="3">0.0014*B3^3 + 0.0367*B3^2 + 0.3231*B3 + 3</f>
-        <v>3.3612000000000002</v>
+        <f t="shared" ref="F3:F58" si="3">0.0016*B3^3 + 0.0305*B3^2 + 0.3612*B3 + 3</f>
+        <v>3.3933</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G51" si="4">3*EXP(0.1234*B3)</f>
-        <v>3.3940105955960576</v>
+        <f t="shared" ref="G3:G58" si="4">3*EXP(0.121*B3)</f>
+        <v>3.3858747371020321</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5707,19 +5755,19 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>6.1276000000000002</v>
+        <v>6.5863999999999994</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="2"/>
-        <v>3.2624</v>
+        <v>3.048</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="3"/>
-        <v>3.8041999999999998</v>
+        <v>3.8572000000000002</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="4"/>
-        <v>3.839769307672769</v>
+        <v>3.8213825784485849</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5735,19 +5783,19 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>7.6913999999999998</v>
+        <v>8.3795999999999999</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="2"/>
-        <v>3.6446999999999998</v>
+        <v>3.3459000000000003</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="3"/>
-        <v>4.3374000000000006</v>
+        <v>4.4013</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="4"/>
-        <v>4.3440725716286401</v>
+        <v>4.3129075777236281</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5763,19 +5811,19 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>9.2552000000000003</v>
+        <v>10.172799999999999</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="2"/>
-        <v>4.1943999999999999</v>
+        <v>3.8264</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="3"/>
-        <v>4.9691999999999998</v>
+        <v>5.0351999999999997</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="4"/>
-        <v>4.9146094453819389</v>
+        <v>4.8676549369567841</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5791,19 +5839,19 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>10.819000000000001</v>
+        <v>11.965999999999999</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="2"/>
-        <v>4.9115000000000002</v>
+        <v>4.4895000000000005</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="3"/>
-        <v>5.7080000000000002</v>
+        <v>5.7684999999999995</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="4"/>
-        <v>5.5600788436142556</v>
+        <v>5.4937566266573192</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5819,19 +5867,19 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>12.3828</v>
+        <v>13.7592</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="2"/>
-        <v>5.7959999999999994</v>
+        <v>5.3352000000000004</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="3"/>
-        <v>6.5622000000000007</v>
+        <v>6.6108000000000002</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="4"/>
-        <v>6.2903221691920868</v>
+        <v>6.2003905913286319</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5847,19 +5895,19 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>13.9466</v>
+        <v>15.552399999999999</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="2"/>
-        <v>6.8479000000000001</v>
+        <v>6.3635000000000002</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="3"/>
-        <v>7.5402000000000005</v>
+        <v>7.5716999999999999</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="4"/>
-        <v>7.1164733639835749</v>
+        <v>6.9979152877815824</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5875,19 +5923,19 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>15.510400000000001</v>
+        <v>17.345599999999997</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>8.0671999999999997</v>
+        <v>7.5744000000000007</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="3"/>
-        <v>8.6504000000000012</v>
+        <v>8.6608000000000001</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="4"/>
-        <v>8.0511286668791229</v>
+        <v>7.8980215284265842</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5903,19 +5951,19 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>17.074200000000001</v>
+        <v>19.1388</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>9.4539000000000009</v>
+        <v>8.9679000000000002</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="3"/>
-        <v>9.9011999999999993</v>
+        <v>9.8877000000000006</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="4"/>
-        <v>9.1085386672983049</v>
+        <v>8.9139038553958496</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5931,19 +5979,19 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>18.638000000000002</v>
+        <v>20.931999999999999</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>11.007999999999999</v>
+        <v>10.544</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="3"/>
-        <v>11.301</v>
+        <v>11.262</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="4"/>
-        <v>10.30482558240228</v>
+        <v>10.06045395764707</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5959,19 +6007,19 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>20.201800000000002</v>
+        <v>22.725199999999997</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>12.7295</v>
+        <v>12.3027</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="3"/>
-        <v>12.8582</v>
+        <v>12.7933</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="4"/>
-        <v>11.658229070814217</v>
+        <v>11.354478966325123</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5987,19 +6035,19 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>21.765599999999999</v>
+        <v>24.5184</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>14.618399999999999</v>
+        <v>14.244000000000002</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="3"/>
-        <v>14.581200000000001</v>
+        <v>14.491199999999999</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="4"/>
-        <v>13.189384330743145</v>
+        <v>12.814947828345545</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -6015,19 +6063,19 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>23.3294</v>
+        <v>26.311599999999999</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>16.674700000000001</v>
+        <v>16.367899999999999</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="3"/>
-        <v>16.478400000000001</v>
+        <v>16.365299999999998</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="4"/>
-        <v>14.921636722643619</v>
+        <v>14.463269369758573</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -6043,19 +6091,19 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>24.8932</v>
+        <v>28.104799999999997</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
-        <v>18.898400000000002</v>
+        <v>18.674399999999999</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="3"/>
-        <v>18.558199999999999</v>
+        <v>18.4252</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="4"/>
-        <v>16.88139771342923</v>
+        <v>16.323606124989062</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6071,19 +6119,19 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>26.457000000000001</v>
+        <v>29.898</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>21.2895</v>
+        <v>21.163499999999999</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="3"/>
-        <v>20.829000000000001</v>
+        <v>20.680499999999999</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="4"/>
-        <v>19.098547569283287</v>
+        <v>18.423228532334818</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6099,19 +6147,19 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>28.020800000000001</v>
+        <v>31.691199999999998</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
-        <v>23.847999999999999</v>
+        <v>23.8352</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="3"/>
-        <v>23.299199999999999</v>
+        <v>23.140799999999999</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="4"/>
-        <v>21.606890936880941</v>
+        <v>20.792914687829935</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -6127,19 +6175,19 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>29.584600000000002</v>
+        <v>33.484399999999994</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
-        <v>26.573899999999998</v>
+        <v>26.689500000000002</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="3"/>
-        <v>25.9772</v>
+        <v>25.8157</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="4"/>
-        <v>24.444672259220781</v>
+        <v>23.46740151741372</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6155,19 +6203,19 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>31.148400000000002</v>
+        <v>35.2776</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
-        <v>29.467200000000002</v>
+        <v>29.726400000000002</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="3"/>
-        <v>28.871399999999998</v>
+        <v>28.7148</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="4"/>
-        <v>27.655158884556123</v>
+        <v>26.485893981080331</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -6183,19 +6231,19 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>32.712200000000003</v>
+        <v>37.070799999999998</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
-        <v>32.527900000000002</v>
+        <v>32.945899999999995</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="3"/>
-        <v>31.990200000000002</v>
+        <v>31.847700000000003</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="4"/>
-        <v>31.2873007590253</v>
+        <v>29.892639773367556</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -6211,19 +6259,19 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>34.276000000000003</v>
+        <v>38.863999999999997</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
-        <v>35.756</v>
+        <v>36.348000000000006</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="3"/>
-        <v>35.341999999999999</v>
+        <v>35.224000000000004</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="4"/>
-        <v>35.396476761244159</v>
+        <v>33.737577944645537</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6239,19 +6287,19 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>35.839800000000004</v>
+        <v>40.657199999999996</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="2"/>
-        <v>39.151499999999999</v>
+        <v>39.932700000000004</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="3"/>
-        <v>38.935200000000002</v>
+        <v>38.853300000000004</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="4"/>
-        <v>40.045339058144094</v>
+        <v>38.077070951262002</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6267,19 +6315,19 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>37.403600000000004</v>
+        <v>42.450399999999995</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="2"/>
-        <v>42.714399999999998</v>
+        <v>43.7</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="3"/>
-        <v>42.778199999999998</v>
+        <v>42.745199999999997</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="4"/>
-        <v>45.304768355859252</v>
+        <v>42.974730865573214</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6295,19 +6343,19 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" si="1"/>
-        <v>38.967400000000005</v>
+        <v>44.243600000000001</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="2"/>
-        <v>46.444699999999997</v>
+        <v>47.649900000000009</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="3"/>
-        <v>46.879399999999997</v>
+        <v>46.909300000000002</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="4"/>
-        <v>51.254954610270438</v>
+        <v>48.50235185716776</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6323,19 +6371,19 @@
       </c>
       <c r="D26" s="2">
         <f t="shared" si="1"/>
-        <v>40.531199999999998</v>
+        <v>46.036799999999999</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="2"/>
-        <v>50.342399999999998</v>
+        <v>51.78240000000001</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="3"/>
-        <v>51.247200000000007</v>
+        <v>51.355199999999996</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="4"/>
-        <v>57.986619674684277</v>
+        <v>54.740962614406051</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6351,19 +6399,19 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" si="1"/>
-        <v>42.094999999999999</v>
+        <v>47.83</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="2"/>
-        <v>54.407499999999999</v>
+        <v>56.097500000000011</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="3"/>
-        <v>55.89</v>
+        <v>56.092500000000001</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="4"/>
-        <v>65.602400526225765</v>
+        <v>61.782014133588085</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6374,22 +6422,24 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28">
+        <v>63</v>
+      </c>
       <c r="D28" s="2">
         <f t="shared" si="1"/>
-        <v>43.658799999999999</v>
+        <v>49.623199999999997</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="2"/>
-        <v>58.639999999999993</v>
+        <v>60.595200000000006</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="3"/>
-        <v>60.816199999999995</v>
+        <v>61.130799999999994</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="4"/>
-        <v>74.21841416084888</v>
+        <v>69.728720287398858</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -6400,22 +6450,24 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29">
+        <v>66</v>
+      </c>
       <c r="D29" s="2">
         <f t="shared" si="1"/>
-        <v>45.2226</v>
+        <v>51.416399999999996</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="2"/>
-        <v>63.039899999999996</v>
+        <v>65.275500000000008</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="3"/>
-        <v>66.034199999999998</v>
+        <v>66.479700000000008</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="4"/>
-        <v>83.966028016752531</v>
+        <v>78.697570823852573</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6426,22 +6478,24 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30">
+        <v>72</v>
+      </c>
       <c r="D30" s="2">
         <f t="shared" si="1"/>
-        <v>46.7864</v>
+        <v>53.209599999999995</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="2"/>
-        <v>67.607200000000006</v>
+        <v>70.138400000000004</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="3"/>
-        <v>71.552400000000006</v>
+        <v>72.148800000000008</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="4"/>
-        <v>94.993862919657886</v>
+        <v>88.820038974593459</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6455,19 +6509,19 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f t="shared" si="1"/>
-        <v>48.350200000000001</v>
+        <v>55.002800000000001</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="2"/>
-        <v>72.341899999999995</v>
+        <v>75.183900000000008</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="3"/>
-        <v>77.379199999999997</v>
+        <v>78.1477</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="4"/>
-        <v>107.4700590886394</v>
+        <v>100.24450870416462</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6481,19 +6535,19 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f t="shared" si="1"/>
-        <v>49.914000000000001</v>
+        <v>56.795999999999999</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="2"/>
-        <v>77.244</v>
+        <v>80.412000000000006</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="3"/>
-        <v>83.522999999999996</v>
+        <v>84.486000000000004</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="4"/>
-        <v>121.58483975205888</v>
+        <v>113.13844985154523</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6507,19 +6561,19 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2">
         <f t="shared" si="1"/>
-        <v>51.477800000000002</v>
+        <v>58.589199999999998</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="2"/>
-        <v>82.313499999999991</v>
+        <v>85.822699999999998</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="3"/>
-        <v>89.992199999999997</v>
+        <v>91.173299999999998</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="4"/>
-        <v>137.55341146077882</v>
+        <v>127.69087304907738</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -6533,19 +6587,19 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2">
         <f t="shared" si="1"/>
-        <v>53.041600000000003</v>
+        <v>60.382399999999997</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="2"/>
-        <v>87.550399999999996</v>
+        <v>91.416000000000011</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="3"/>
-        <v>96.795200000000008</v>
+        <v>98.219200000000001</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="4"/>
-        <v>155.61924531942256</v>
+        <v>144.11510040512459</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -6559,19 +6613,19 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2">
         <f t="shared" si="1"/>
-        <v>54.605400000000003</v>
+        <v>62.175599999999996</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="2"/>
-        <v>92.954700000000003</v>
+        <v>97.191900000000004</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="3"/>
-        <v>103.9404</v>
+        <v>105.63330000000001</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="4"/>
-        <v>176.05778916426075</v>
+        <v>162.65189256554473</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6585,19 +6639,19 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <f t="shared" si="1"/>
-        <v>56.169200000000004</v>
+        <v>63.968799999999995</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="2"/>
-        <v>98.526399999999995</v>
+        <v>103.15040000000002</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="3"/>
-        <v>111.4362</v>
+        <v>113.4252</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="4"/>
-        <v>199.18066728690596</v>
+        <v>183.57297799317055</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -6611,19 +6665,19 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2">
         <f t="shared" si="1"/>
-        <v>57.733000000000004</v>
+        <v>65.762</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="2"/>
-        <v>104.2655</v>
+        <v>109.2915</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="3"/>
-        <v>119.291</v>
+        <v>121.6045</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="4"/>
-        <v>225.34043173655073</v>
+        <v>207.18503620055441</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6637,19 +6691,19 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2">
         <f t="shared" si="1"/>
-        <v>59.296800000000005</v>
+        <v>67.555199999999999</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="2"/>
-        <v>110.172</v>
+        <v>115.61520000000002</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="3"/>
-        <v>127.5132</v>
+        <v>130.18080000000003</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="4"/>
-        <v>254.93593764334781</v>
+        <v>233.83419332567581</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6663,19 +6717,19 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2">
         <f t="shared" si="1"/>
-        <v>60.860600000000005</v>
+        <v>69.348399999999998</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="2"/>
-        <v>116.24589999999999</v>
+        <v>122.12150000000001</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="3"/>
-        <v>136.1112</v>
+        <v>139.16370000000001</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="4"/>
-        <v>288.41842451991261</v>
+        <v>263.91109595067951</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -6689,19 +6743,19 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2">
         <f t="shared" si="1"/>
-        <v>62.424400000000006</v>
+        <v>71.141599999999997</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="2"/>
-        <v>122.48719999999999</v>
+        <v>128.81040000000002</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="3"/>
-        <v>145.09340000000003</v>
+        <v>148.56279999999998</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="4"/>
-        <v>326.29839626190176</v>
+        <v>297.85663754010523</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6715,19 +6769,19 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2">
         <f t="shared" si="1"/>
-        <v>63.988200000000006</v>
+        <v>72.934799999999996</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="2"/>
-        <v>128.89589999999998</v>
+        <v>135.68190000000001</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="3"/>
-        <v>154.4682</v>
+        <v>158.38770000000002</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="4"/>
-        <v>369.15340474629863</v>
+        <v>336.1684214417329</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -6741,19 +6795,19 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2">
         <f t="shared" si="1"/>
-        <v>65.552000000000007</v>
+        <v>74.727999999999994</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="2"/>
-        <v>135.47199999999998</v>
+        <v>142.73600000000002</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="3"/>
-        <v>164.244</v>
+        <v>168.648</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="4"/>
-        <v>417.63685570309934</v>
+        <v>379.40805519034427</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -6767,19 +6821,19 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2">
         <f t="shared" si="1"/>
-        <v>67.115800000000007</v>
+        <v>76.521199999999993</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="2"/>
-        <v>142.21550000000002</v>
+        <v>149.9727</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="3"/>
-        <v>174.42920000000001</v>
+        <v>179.35330000000002</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="4"/>
-        <v>472.4879711225804</v>
+        <v>428.20938304066692</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -6793,19 +6847,19 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2">
         <f t="shared" si="1"/>
-        <v>68.679600000000008</v>
+        <v>78.314399999999992</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="2"/>
-        <v>149.12639999999999</v>
+        <v>157.392</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="3"/>
-        <v>185.03220000000002</v>
+        <v>190.51320000000001</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="4"/>
-        <v>534.543060093907</v>
+        <v>483.28777740914688</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -6819,19 +6873,19 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2">
         <f t="shared" si="1"/>
-        <v>70.243400000000008</v>
+        <v>80.107599999999991</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="2"/>
-        <v>156.2047</v>
+        <v>164.99390000000002</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="3"/>
-        <v>196.06139999999999</v>
+        <v>202.13730000000001</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="4"/>
-        <v>604.74826992035378</v>
+        <v>545.45062542660662</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -6845,19 +6899,19 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2">
         <f t="shared" si="1"/>
-        <v>71.807200000000009</v>
+        <v>81.90079999999999</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="2"/>
-        <v>163.45039999999997</v>
+        <v>172.7784</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" si="3"/>
-        <v>207.52520000000001</v>
+        <v>214.23519999999999</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="4"/>
-        <v>684.17401192602188</v>
+        <v>615.60916432281715</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -6871,19 +6925,19 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2">
         <f t="shared" si="1"/>
-        <v>73.371000000000009</v>
+        <v>83.694000000000003</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="2"/>
-        <v>170.86350000000002</v>
+        <v>180.74550000000002</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="3"/>
-        <v>219.43200000000002</v>
+        <v>226.81649999999999</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="4"/>
-        <v>774.03128190279415</v>
+        <v>694.79183913637371</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -6897,19 +6951,19 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2">
         <f t="shared" si="1"/>
-        <v>74.93480000000001</v>
+        <v>85.487200000000001</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="2"/>
-        <v>178.44399999999999</v>
+        <v>188.89520000000002</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" si="3"/>
-        <v>231.79019999999997</v>
+        <v>239.89080000000001</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="4"/>
-        <v>875.69012403362763</v>
+        <v>784.15937855883521</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -6923,19 +6977,19 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2">
         <f t="shared" si="1"/>
-        <v>76.49860000000001</v>
+        <v>87.2804</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="2"/>
-        <v>186.19189999999998</v>
+        <v>197.22750000000002</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="3"/>
-        <v>244.60820000000001</v>
+        <v>253.46770000000004</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="4"/>
-        <v>990.70051980965195</v>
+        <v>885.02180990799593</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -6949,19 +7003,19 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2">
         <f t="shared" si="1"/>
-        <v>78.062399999999997</v>
+        <v>89.073599999999999</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="2"/>
-        <v>194.10720000000001</v>
+        <v>205.74240000000003</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="3"/>
-        <v>257.89440000000002</v>
+        <v>267.55680000000001</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="4"/>
-        <v>1120.8160204321607</v>
+        <v>998.85766265060033</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -6975,19 +7029,194 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2">
         <f t="shared" si="1"/>
-        <v>79.626199999999997</v>
+        <v>90.866799999999998</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="2"/>
-        <v>202.18989999999999</v>
+        <v>214.43990000000002</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="3"/>
-        <v>271.65719999999999</v>
+        <v>282.16770000000002</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="4"/>
-        <v>1268.0204830201872</v>
+        <v>1127.3356419764843</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43675</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="1"/>
+        <v>92.66</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="2"/>
+        <v>223.32000000000002</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="3"/>
+        <v>297.31</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="4"/>
+        <v>1272.3390901342925</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43676</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="1"/>
+        <v>94.453199999999995</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="2"/>
+        <v>232.3827</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="3"/>
+        <v>312.99329999999998</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="4"/>
+        <v>1435.9935941043614</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="1"/>
+        <v>96.246399999999994</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="2"/>
+        <v>241.62800000000001</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="3"/>
+        <v>329.22719999999998</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="4"/>
+        <v>1620.6981443061027</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="1"/>
+        <v>98.039599999999993</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="2"/>
+        <v>251.05590000000001</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="3"/>
+        <v>346.0213</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="4"/>
+        <v>1829.1603010913932</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43679</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="1"/>
+        <v>99.832799999999992</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="2"/>
+        <v>260.66640000000007</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="3"/>
+        <v>363.3852</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="4"/>
+        <v>2064.4358845250972</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43680</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="1"/>
+        <v>101.62599999999999</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="2"/>
+        <v>270.45949999999999</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="3"/>
+        <v>381.32849999999996</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="4"/>
+        <v>2329.973769260137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43681</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="1"/>
+        <v>103.41919999999999</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="2"/>
+        <v>280.43520000000001</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="3"/>
+        <v>399.86079999999998</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="4"/>
+        <v>2629.6664411494335</v>
       </c>
     </row>
   </sheetData>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A896AB-D22A-40A8-9D8E-92034CB2B45E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3478EB8-EEC2-45F3-9A57-29948944021E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,43 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -235,8 +271,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.18488167104111985"/>
-                  <c:y val="-1.232137649460484E-4"/>
+                  <c:x val="-0.36004811898512684"/>
+                  <c:y val="9.243183143773695E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -523,6 +559,24 @@
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,6 +1302,24 @@
                 <c:pt idx="28" formatCode="General">
                   <c:v>72</c:v>
                 </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>206</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1972,6 +2044,24 @@
                 <c:pt idx="28" formatCode="General">
                   <c:v>72</c:v>
                 </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>206</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2694,6 +2784,24 @@
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5644,7 +5752,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5695,19 +5803,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="2">
-        <f>1.7932*B2+3</f>
+        <f>3.5486*B2+3</f>
         <v>3</v>
       </c>
       <c r="E2" s="2">
-        <f>0.0913*B2^2-0.1586*B2+3</f>
+        <f>0.2709*B2^2-3.4582*B2+3</f>
         <v>3</v>
       </c>
       <c r="F2" s="2">
-        <f>0.0016*B2^3 + 0.0305*B2^2 + 0.3612*B2 + 3</f>
+        <f>0.0143*B2^3 -0.3857*B2^2 + 3.3325*B2 + 3</f>
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <f>3*EXP(0.121*B2)</f>
+        <f>3*EXP(0.1251*B2)</f>
         <v>3</v>
       </c>
       <c r="H2" s="1">
@@ -5726,20 +5834,20 @@
         <v>4</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D58" si="1">1.7932*B3+3</f>
-        <v>4.7931999999999997</v>
+        <f t="shared" ref="D3:D58" si="1">3.5486*B3+3</f>
+        <v>6.5486000000000004</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E58" si="2">0.0913*B3^2-0.1586*B3+3</f>
-        <v>2.9327000000000001</v>
+        <f t="shared" ref="E3:E58" si="2">0.2709*B3^2-3.4582*B3+3</f>
+        <v>-0.18730000000000002</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F58" si="3">0.0016*B3^3 + 0.0305*B3^2 + 0.3612*B3 + 3</f>
-        <v>3.3933</v>
+        <f t="shared" ref="F3:F58" si="3">0.0143*B3^3 -0.3857*B3^2 + 3.3325*B3 + 3</f>
+        <v>5.9611000000000001</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G58" si="4">3*EXP(0.121*B3)</f>
-        <v>3.3858747371020321</v>
+        <f t="shared" ref="G3:G58" si="4">3*EXP(0.1251*B3)</f>
+        <v>3.3997853207341926</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5755,19 +5863,19 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>6.5863999999999994</v>
+        <v>10.097200000000001</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="2"/>
-        <v>3.048</v>
+        <v>-2.8328000000000007</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="3"/>
-        <v>3.8572000000000002</v>
+        <v>8.2365999999999993</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="4"/>
-        <v>3.8213825784485849</v>
+        <v>3.8528467423598984</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5783,19 +5891,19 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>8.3795999999999999</v>
+        <v>13.645799999999999</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="2"/>
-        <v>3.3459000000000003</v>
+        <v>-4.9365000000000006</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="3"/>
-        <v>4.4013</v>
+        <v>9.9123000000000001</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="4"/>
-        <v>4.3129075777236281</v>
+        <v>4.3662839325712453</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5811,19 +5919,19 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>10.172799999999999</v>
+        <v>17.194400000000002</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="2"/>
-        <v>3.8264</v>
+        <v>-6.4984000000000002</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="3"/>
-        <v>5.0351999999999997</v>
+        <v>11.074</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="4"/>
-        <v>4.8676549369567841</v>
+        <v>4.9481426733710929</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5839,19 +5947,19 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>11.965999999999999</v>
+        <v>20.742999999999999</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="2"/>
-        <v>4.4895000000000005</v>
+        <v>-7.5185000000000013</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="3"/>
-        <v>5.7684999999999995</v>
+        <v>11.807500000000001</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="4"/>
-        <v>5.4937566266573192</v>
+        <v>5.6075409419418296</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5867,19 +5975,19 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>13.7592</v>
+        <v>24.291599999999999</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="2"/>
-        <v>5.3352000000000004</v>
+        <v>-7.9968000000000021</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="3"/>
-        <v>6.6108000000000002</v>
+        <v>12.198600000000003</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="4"/>
-        <v>6.2003905913286319</v>
+        <v>6.3548117932766051</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5895,19 +6003,19 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>15.552399999999999</v>
+        <v>27.840199999999999</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="2"/>
-        <v>6.3635000000000002</v>
+        <v>-7.9333000000000009</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="3"/>
-        <v>7.5716999999999999</v>
+        <v>12.333100000000002</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="4"/>
-        <v>6.9979152877815824</v>
+        <v>7.201665283603444</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5923,19 +6031,19 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>17.345599999999997</v>
+        <v>31.3888</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>7.5744000000000007</v>
+        <v>-7.328000000000003</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="3"/>
-        <v>8.6608000000000001</v>
+        <v>12.296800000000001</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="4"/>
-        <v>7.8980215284265842</v>
+        <v>8.1613719720120113</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5951,19 +6059,19 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>19.1388</v>
+        <v>34.937399999999997</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>8.9679000000000002</v>
+        <v>-6.1809000000000047</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="3"/>
-        <v>9.8877000000000006</v>
+        <v>12.1755</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="4"/>
-        <v>8.9139038553958496</v>
+        <v>9.2489708758326348</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5979,19 +6087,19 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>20.931999999999999</v>
+        <v>38.485999999999997</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>10.544</v>
+        <v>-4.4920000000000044</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="3"/>
-        <v>11.262</v>
+        <v>12.055000000000003</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="4"/>
-        <v>10.06045395764707</v>
+        <v>10.481505138517953</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -6007,19 +6115,19 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>22.725199999999997</v>
+        <v>42.034599999999998</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>12.3027</v>
+        <v>-2.2612999999999985</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="3"/>
-        <v>12.7933</v>
+        <v>12.021100000000001</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="4"/>
-        <v>11.354478966325123</v>
+        <v>11.878289103044446</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -6035,19 +6143,19 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>24.5184</v>
+        <v>45.583199999999998</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>14.244000000000002</v>
+        <v>0.51119999999999521</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="3"/>
-        <v>14.491199999999999</v>
+        <v>12.159600000000005</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="4"/>
-        <v>12.814947828345545</v>
+        <v>13.461210975989143</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -6063,19 +6171,19 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>26.311599999999999</v>
+        <v>49.131799999999998</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>16.367899999999999</v>
+        <v>3.825499999999991</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="3"/>
-        <v>16.365299999999998</v>
+        <v>12.5563</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="4"/>
-        <v>14.463269369758573</v>
+        <v>15.255075825157959</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -6091,19 +6199,19 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>28.104799999999997</v>
+        <v>52.680399999999999</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
-        <v>18.674399999999999</v>
+        <v>7.681599999999996</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="3"/>
-        <v>18.4252</v>
+        <v>13.297000000000004</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="4"/>
-        <v>16.323606124989062</v>
+        <v>17.287994285686359</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6119,19 +6227,19 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>29.898</v>
+        <v>56.228999999999999</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>21.163499999999999</v>
+        <v>12.079499999999989</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="3"/>
-        <v>20.680499999999999</v>
+        <v>14.467500000000001</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="4"/>
-        <v>18.423228532334818</v>
+        <v>19.591823065804363</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6147,19 +6255,19 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>31.691199999999998</v>
+        <v>59.7776</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
-        <v>23.8352</v>
+        <v>17.019199999999991</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="3"/>
-        <v>23.140799999999999</v>
+        <v>16.153600000000004</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="4"/>
-        <v>20.792914687829935</v>
+        <v>22.202664155181076</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -6175,19 +6283,19 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>33.484399999999994</v>
+        <v>63.3262</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
-        <v>26.689500000000002</v>
+        <v>22.500699999999995</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="3"/>
-        <v>25.8157</v>
+        <v>18.441100000000006</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="4"/>
-        <v>23.46740151741372</v>
+        <v>25.161430558658608</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6203,19 +6311,19 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>35.2776</v>
+        <v>66.874799999999993</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
-        <v>29.726400000000002</v>
+        <v>28.523999999999987</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="3"/>
-        <v>28.7148</v>
+        <v>21.415800000000004</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="4"/>
-        <v>26.485893981080331</v>
+        <v>28.514487420666761</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -6231,19 +6339,19 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>37.070799999999998</v>
+        <v>70.423400000000001</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
-        <v>32.945899999999995</v>
+        <v>35.089099999999988</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="3"/>
-        <v>31.847700000000003</v>
+        <v>25.16350000000002</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="4"/>
-        <v>29.892639773367556</v>
+        <v>32.314378587014218</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -6259,19 +6367,19 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>38.863999999999997</v>
+        <v>73.971999999999994</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
-        <v>36.348000000000006</v>
+        <v>42.195999999999984</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="3"/>
-        <v>35.224000000000004</v>
+        <v>29.77000000000001</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="4"/>
-        <v>33.737577944645537</v>
+        <v>36.620649989592749</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6287,19 +6395,19 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>40.657199999999996</v>
+        <v>77.520600000000002</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="2"/>
-        <v>39.932700000000004</v>
+        <v>49.844699999999989</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="3"/>
-        <v>38.853300000000004</v>
+        <v>35.321100000000015</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="4"/>
-        <v>38.077070951262002</v>
+        <v>41.500782756787387</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6315,19 +6423,19 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>42.450399999999995</v>
+        <v>81.069199999999995</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="2"/>
-        <v>43.7</v>
+        <v>58.035200000000003</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="3"/>
-        <v>42.745199999999997</v>
+        <v>41.902600000000007</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="4"/>
-        <v>42.974730865573214</v>
+        <v>47.031250671834826</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6343,19 +6451,19 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" si="1"/>
-        <v>44.243600000000001</v>
+        <v>84.617800000000003</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="2"/>
-        <v>47.649900000000009</v>
+        <v>66.767499999999984</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="3"/>
-        <v>46.909300000000002</v>
+        <v>49.60029999999999</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="4"/>
-        <v>48.50235185716776</v>
+        <v>53.298718549958053</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6371,19 +6479,19 @@
       </c>
       <c r="D26" s="2">
         <f t="shared" si="1"/>
-        <v>46.036799999999999</v>
+        <v>88.166399999999996</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="2"/>
-        <v>51.78240000000001</v>
+        <v>76.041599999999988</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="3"/>
-        <v>51.355199999999996</v>
+        <v>58.500000000000014</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="4"/>
-        <v>54.740962614406051</v>
+        <v>60.401400313363524</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6399,19 +6507,19 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" si="1"/>
-        <v>47.83</v>
+        <v>91.715000000000003</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="2"/>
-        <v>56.097500000000011</v>
+        <v>85.857499999999973</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="3"/>
-        <v>56.092500000000001</v>
+        <v>68.6875</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="4"/>
-        <v>61.782014133588085</v>
+        <v>68.450598045720966</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6427,19 +6535,19 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" si="1"/>
-        <v>49.623199999999997</v>
+        <v>95.263599999999997</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="2"/>
-        <v>60.595200000000006</v>
+        <v>96.215199999999967</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="3"/>
-        <v>61.130799999999994</v>
+        <v>80.248599999999996</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="4"/>
-        <v>69.728720287398858</v>
+        <v>77.572446143772936</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -6455,19 +6563,19 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" si="1"/>
-        <v>51.416399999999996</v>
+        <v>98.812200000000004</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="2"/>
-        <v>65.275500000000008</v>
+        <v>107.11469999999998</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="3"/>
-        <v>66.479700000000008</v>
+        <v>93.269100000000023</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="4"/>
-        <v>78.697570823852573</v>
+        <v>87.909887897680989</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6483,19 +6591,19 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" si="1"/>
-        <v>53.209599999999995</v>
+        <v>102.3608</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="2"/>
-        <v>70.138400000000004</v>
+        <v>118.55599999999998</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="3"/>
-        <v>72.148800000000008</v>
+        <v>107.83480000000003</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="4"/>
-        <v>88.820038974593459</v>
+        <v>99.624915473974738</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6506,22 +6614,24 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31">
+        <v>127</v>
+      </c>
       <c r="D31" s="2">
         <f t="shared" si="1"/>
-        <v>55.002800000000001</v>
+        <v>105.90940000000001</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="2"/>
-        <v>75.183900000000008</v>
+        <v>130.53909999999996</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="3"/>
-        <v>78.1477</v>
+        <v>124.03150000000001</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="4"/>
-        <v>100.24450870416462</v>
+        <v>112.90110840260132</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6532,22 +6642,24 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32">
+        <v>183</v>
+      </c>
       <c r="D32" s="2">
         <f t="shared" si="1"/>
-        <v>56.795999999999999</v>
+        <v>109.458</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="2"/>
-        <v>80.412000000000006</v>
+        <v>143.06399999999996</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="3"/>
-        <v>84.486000000000004</v>
+        <v>141.94500000000002</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="4"/>
-        <v>113.13844985154523</v>
+        <v>127.94651034726127</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6558,22 +6670,24 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33">
+        <v>195</v>
+      </c>
       <c r="D33" s="2">
         <f t="shared" si="1"/>
-        <v>58.589199999999998</v>
+        <v>113.00660000000001</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="2"/>
-        <v>85.822699999999998</v>
+        <v>156.13069999999993</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="3"/>
-        <v>91.173299999999998</v>
+        <v>161.66110000000003</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="4"/>
-        <v>127.69087304907738</v>
+        <v>144.99688923926146</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -6584,22 +6698,24 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34">
+        <v>191</v>
+      </c>
       <c r="D34" s="2">
         <f t="shared" si="1"/>
-        <v>60.382399999999997</v>
+        <v>116.5552</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="2"/>
-        <v>91.416000000000011</v>
+        <v>169.73919999999998</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="3"/>
-        <v>98.219200000000001</v>
+        <v>183.26560000000001</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="4"/>
-        <v>144.11510040512459</v>
+        <v>164.31943186258752</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -6610,22 +6726,24 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35">
+        <v>211</v>
+      </c>
       <c r="D35" s="2">
         <f t="shared" si="1"/>
-        <v>62.175599999999996</v>
+        <v>120.10379999999999</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="2"/>
-        <v>97.191900000000004</v>
+        <v>183.88949999999994</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="3"/>
-        <v>105.63330000000001</v>
+        <v>206.8443</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="4"/>
-        <v>162.65189256554473</v>
+        <v>186.21693078593574</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6636,22 +6754,24 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36">
+        <v>206</v>
+      </c>
       <c r="D36" s="2">
         <f t="shared" si="1"/>
-        <v>63.968799999999995</v>
+        <v>123.6524</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="2"/>
-        <v>103.15040000000002</v>
+        <v>198.58159999999998</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="3"/>
-        <v>113.4252</v>
+        <v>232.483</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="4"/>
-        <v>183.57297799317055</v>
+        <v>211.03252925273313</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -6665,19 +6785,19 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2">
         <f t="shared" si="1"/>
-        <v>65.762</v>
+        <v>127.20099999999999</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="2"/>
-        <v>109.2915</v>
+        <v>213.81549999999996</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="3"/>
-        <v>121.6045</v>
+        <v>260.26749999999998</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="4"/>
-        <v>207.18503620055441</v>
+        <v>239.1550983836172</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6691,19 +6811,19 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2">
         <f t="shared" si="1"/>
-        <v>67.555199999999999</v>
+        <v>130.74959999999999</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="2"/>
-        <v>115.61520000000002</v>
+        <v>229.59119999999996</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="3"/>
-        <v>130.18080000000003</v>
+        <v>290.28359999999998</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="4"/>
-        <v>233.83419332567581</v>
+        <v>271.02533095445438</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6717,19 +6837,19 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2">
         <f t="shared" si="1"/>
-        <v>69.348399999999998</v>
+        <v>134.29820000000001</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="2"/>
-        <v>122.12150000000001</v>
+        <v>245.90869999999995</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="3"/>
-        <v>139.16370000000001</v>
+        <v>322.61710000000005</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="4"/>
-        <v>263.91109595067951</v>
+        <v>307.14264724202667</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -6743,19 +6863,19 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2">
         <f t="shared" si="1"/>
-        <v>71.141599999999997</v>
+        <v>137.8468</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="2"/>
-        <v>128.81040000000002</v>
+        <v>262.76799999999992</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="3"/>
-        <v>148.56279999999998</v>
+        <v>357.35380000000009</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="4"/>
-        <v>297.85663754010523</v>
+        <v>348.07302115496111</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6769,19 +6889,19 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2">
         <f t="shared" si="1"/>
-        <v>72.934799999999996</v>
+        <v>141.3954</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="2"/>
-        <v>135.68190000000001</v>
+        <v>280.16909999999996</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="3"/>
-        <v>158.38770000000002</v>
+        <v>394.57950000000005</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="4"/>
-        <v>336.1684214417329</v>
+        <v>394.45784928874616</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -6795,19 +6915,19 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2">
         <f t="shared" si="1"/>
-        <v>74.727999999999994</v>
+        <v>144.94399999999999</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="2"/>
-        <v>142.73600000000002</v>
+        <v>298.11199999999997</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="3"/>
-        <v>168.648</v>
+        <v>434.38000000000005</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="4"/>
-        <v>379.40805519034427</v>
+        <v>447.02400188675313</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -6821,19 +6941,19 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2">
         <f t="shared" si="1"/>
-        <v>76.521199999999993</v>
+        <v>148.49260000000001</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="2"/>
-        <v>149.9727</v>
+        <v>316.59669999999994</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="3"/>
-        <v>179.35330000000002</v>
+        <v>476.84110000000004</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="4"/>
-        <v>428.20938304066692</v>
+        <v>506.59521321014563</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -6847,19 +6967,19 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2">
         <f t="shared" si="1"/>
-        <v>78.314399999999992</v>
+        <v>152.0412</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="2"/>
-        <v>157.392</v>
+        <v>335.6232</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="3"/>
-        <v>190.51320000000001</v>
+        <v>522.04860000000008</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="4"/>
-        <v>483.28777740914688</v>
+        <v>574.10498980868704</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -6873,19 +6993,19 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2">
         <f t="shared" si="1"/>
-        <v>80.107599999999991</v>
+        <v>155.5898</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="2"/>
-        <v>164.99390000000002</v>
+        <v>355.19149999999996</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="3"/>
-        <v>202.13730000000001</v>
+        <v>570.0883</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="4"/>
-        <v>545.45062542660662</v>
+        <v>650.61123897060952</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -6899,19 +7019,19 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2">
         <f t="shared" si="1"/>
-        <v>81.90079999999999</v>
+        <v>159.13839999999999</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="2"/>
-        <v>172.7784</v>
+        <v>375.30160000000001</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" si="3"/>
-        <v>214.23519999999999</v>
+        <v>621.04600000000005</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="4"/>
-        <v>615.60916432281715</v>
+        <v>737.31284658565448</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -6925,19 +7045,19 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2">
         <f t="shared" si="1"/>
-        <v>83.694000000000003</v>
+        <v>162.68700000000001</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="2"/>
-        <v>180.74550000000002</v>
+        <v>395.95349999999996</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="3"/>
-        <v>226.81649999999999</v>
+        <v>675.00750000000005</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="4"/>
-        <v>694.79183913637371</v>
+        <v>835.56846420354975</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -6951,19 +7071,19 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2">
         <f t="shared" si="1"/>
-        <v>85.487200000000001</v>
+        <v>166.23560000000001</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="2"/>
-        <v>188.89520000000002</v>
+        <v>417.14719999999994</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" si="3"/>
-        <v>239.89080000000001</v>
+        <v>732.05859999999996</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="4"/>
-        <v>784.15937855883521</v>
+        <v>946.91779968921446</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -6977,19 +7097,19 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2">
         <f t="shared" si="1"/>
-        <v>87.2804</v>
+        <v>169.7842</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="2"/>
-        <v>197.22750000000002</v>
+        <v>438.8827</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="3"/>
-        <v>253.46770000000004</v>
+        <v>792.28510000000006</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="4"/>
-        <v>885.02180990799593</v>
+        <v>1073.1057451084371</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -7003,19 +7123,19 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2">
         <f t="shared" si="1"/>
-        <v>89.073599999999999</v>
+        <v>173.33279999999999</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="2"/>
-        <v>205.74240000000003</v>
+        <v>461.15999999999997</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="3"/>
-        <v>267.55680000000001</v>
+        <v>855.77280000000007</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="4"/>
-        <v>998.85766265060033</v>
+        <v>1216.1097199383971</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -7029,19 +7149,19 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2">
         <f t="shared" si="1"/>
-        <v>90.866799999999998</v>
+        <v>176.88139999999999</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="2"/>
-        <v>214.43990000000002</v>
+        <v>483.9790999999999</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="3"/>
-        <v>282.16770000000002</v>
+        <v>922.60749999999996</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="4"/>
-        <v>1127.3356419764843</v>
+        <v>1378.1706580829104</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -7054,19 +7174,19 @@
       </c>
       <c r="D52" s="2">
         <f t="shared" si="1"/>
-        <v>92.66</v>
+        <v>180.43</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="2"/>
-        <v>223.32000000000002</v>
+        <v>507.33999999999992</v>
       </c>
       <c r="F52" s="2">
         <f t="shared" si="3"/>
-        <v>297.31</v>
+        <v>992.875</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" si="4"/>
-        <v>1272.3390901342925</v>
+        <v>1561.8281242722865</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -7079,19 +7199,19 @@
       </c>
       <c r="D53" s="2">
         <f t="shared" si="1"/>
-        <v>94.453199999999995</v>
+        <v>183.9786</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="2"/>
-        <v>232.3827</v>
+        <v>531.2426999999999</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" si="3"/>
-        <v>312.99329999999998</v>
+        <v>1066.6611</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="4"/>
-        <v>1435.9935941043614</v>
+        <v>1769.9601101369137</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -7104,19 +7224,19 @@
       </c>
       <c r="D54" s="2">
         <f t="shared" si="1"/>
-        <v>96.246399999999994</v>
+        <v>187.52719999999999</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="2"/>
-        <v>241.62800000000001</v>
+        <v>555.68719999999985</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" si="3"/>
-        <v>329.22719999999998</v>
+        <v>1144.0516</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="4"/>
-        <v>1620.6981443061027</v>
+        <v>2005.8281335761842</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -7129,19 +7249,19 @@
       </c>
       <c r="D55" s="2">
         <f t="shared" si="1"/>
-        <v>98.039599999999993</v>
+        <v>191.07579999999999</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="2"/>
-        <v>251.05590000000001</v>
+        <v>580.67349999999988</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="3"/>
-        <v>346.0213</v>
+        <v>1225.1323</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="4"/>
-        <v>1829.1603010913932</v>
+        <v>2273.1283481493238</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -7154,19 +7274,19 @@
       </c>
       <c r="D56" s="2">
         <f t="shared" si="1"/>
-        <v>99.832799999999992</v>
+        <v>194.62440000000001</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="2"/>
-        <v>260.66640000000007</v>
+        <v>606.20159999999998</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" si="3"/>
-        <v>363.3852</v>
+        <v>1309.989</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="4"/>
-        <v>2064.4358845250972</v>
+        <v>2576.0494633942799</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -7179,19 +7299,19 @@
       </c>
       <c r="D57" s="2">
         <f t="shared" si="1"/>
-        <v>101.62599999999999</v>
+        <v>198.173</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="2"/>
-        <v>270.45949999999999</v>
+        <v>632.27149999999995</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" si="3"/>
-        <v>381.32849999999996</v>
+        <v>1398.7074999999998</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" si="4"/>
-        <v>2329.973769260137</v>
+        <v>2919.3383837110214</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -7204,22 +7324,34 @@
       </c>
       <c r="D58" s="2">
         <f t="shared" si="1"/>
-        <v>103.41919999999999</v>
+        <v>201.7216</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" si="2"/>
-        <v>280.43520000000001</v>
+        <v>658.88319999999999</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" si="3"/>
-        <v>399.86079999999998</v>
+        <v>1491.3736000000004</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" si="4"/>
-        <v>2629.6664411494335</v>
+        <v>3308.3745943988702</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:G1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>$C1*0.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>$C1*0.75</formula>
+      <formula>$C1*1.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$C1*1.25</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3478EB8-EEC2-45F3-9A57-29948944021E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368963CB-D3B4-4426-8A5B-6FD571269196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Days Since Release</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Last Updated</t>
   </si>
 </sst>
 </file>
@@ -92,7 +89,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -104,20 +101,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -577,6 +560,12 @@
                 </c:pt>
                 <c:pt idx="34" formatCode="General">
                   <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,6 +1309,12 @@
                 <c:pt idx="34" formatCode="General">
                   <c:v>206</c:v>
                 </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>227</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2062,6 +2057,12 @@
                 <c:pt idx="34" formatCode="General">
                   <c:v>206</c:v>
                 </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>227</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2802,6 +2803,12 @@
                 </c:pt>
                 <c:pt idx="34" formatCode="General">
                   <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5372,15 +5379,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5752,7 +5759,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5787,9 +5794,6 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -5818,9 +5822,7 @@
         <f>3*EXP(0.1251*B2)</f>
         <v>3</v>
       </c>
-      <c r="H2" s="1">
-        <v>43655</v>
-      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -6782,7 +6784,9 @@
         <f>B36+1</f>
         <v>35</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37">
+        <v>219</v>
+      </c>
       <c r="D37" s="2">
         <f t="shared" si="1"/>
         <v>127.20099999999999</v>
@@ -6808,7 +6812,9 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38">
+        <v>227</v>
+      </c>
       <c r="D38" s="2">
         <f t="shared" si="1"/>
         <v>130.74959999999999</v>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368963CB-D3B4-4426-8A5B-6FD571269196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114607C8-774C-496B-AA89-DE0488F62EAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,6 +566,21 @@
                 </c:pt>
                 <c:pt idx="36" formatCode="General">
                   <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1315,6 +1330,21 @@
                 <c:pt idx="36" formatCode="General">
                   <c:v>227</c:v>
                 </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>287</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2063,6 +2093,21 @@
                 <c:pt idx="36" formatCode="General">
                   <c:v>227</c:v>
                 </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>287</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2809,6 +2854,21 @@
                 </c:pt>
                 <c:pt idx="36" formatCode="General">
                   <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5759,7 +5819,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5807,19 +5867,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="2">
-        <f>3.5486*B2+3</f>
+        <f>4.813*B2+3</f>
         <v>3</v>
       </c>
       <c r="E2" s="2">
-        <f>0.2709*B2^2-3.4582*B2+3</f>
+        <f>0.2496*B2^2-2.9533*B2+3</f>
         <v>3</v>
       </c>
       <c r="F2" s="2">
-        <f>0.0143*B2^3 -0.3857*B2^2 + 3.3325*B2 + 3</f>
+        <f>0.0019*B2^3 +0.1453*B2^2 -1.6563*B2 + 3</f>
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <f>3*EXP(0.1251*B2)</f>
+        <f>3*EXP(0.1213*B2)</f>
         <v>3</v>
       </c>
       <c r="H2" s="1"/>
@@ -5836,20 +5896,20 @@
         <v>4</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D58" si="1">3.5486*B3+3</f>
-        <v>6.5486000000000004</v>
+        <f t="shared" ref="D3:D58" si="1">4.813*B3+3</f>
+        <v>7.8129999999999997</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E58" si="2">0.2709*B3^2-3.4582*B3+3</f>
-        <v>-0.18730000000000002</v>
+        <f t="shared" ref="E3:E58" si="2">0.2496*B3^2-2.9533*B3+3</f>
+        <v>0.29630000000000001</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F58" si="3">0.0143*B3^3 -0.3857*B3^2 + 3.3325*B3 + 3</f>
-        <v>5.9611000000000001</v>
+        <f t="shared" ref="F3:F58" si="3">0.0019*B3^3 +0.1453*B3^2 -1.6563*B3 + 3</f>
+        <v>1.4908999999999999</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G58" si="4">3*EXP(0.1251*B3)</f>
-        <v>3.3997853207341926</v>
+        <f t="shared" ref="G3:G58" si="4">3*EXP(0.1213*B3)</f>
+        <v>3.3868906519027631</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5865,19 +5925,19 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>10.097200000000001</v>
+        <v>12.625999999999999</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="2"/>
-        <v>-2.8328000000000007</v>
+        <v>-1.9081999999999999</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="3"/>
-        <v>8.2365999999999993</v>
+        <v>0.28379999999999983</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="4"/>
-        <v>3.8528467423598984</v>
+        <v>3.8236760959821083</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5893,19 +5953,19 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>13.645799999999999</v>
+        <v>17.439</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="2"/>
-        <v>-4.9365000000000006</v>
+        <v>-3.6135000000000002</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="3"/>
-        <v>9.9123000000000001</v>
+        <v>-0.60990000000000055</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="4"/>
-        <v>4.3662839325712453</v>
+        <v>4.3167909417952854</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5921,19 +5981,19 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>17.194400000000002</v>
+        <v>22.251999999999999</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="2"/>
-        <v>-6.4984000000000002</v>
+        <v>-4.8196000000000003</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="3"/>
-        <v>11.074</v>
+        <v>-1.1788000000000007</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="4"/>
-        <v>4.9481426733710929</v>
+        <v>4.8734996289949919</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5949,19 +6009,19 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>20.742999999999999</v>
+        <v>27.064999999999998</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="2"/>
-        <v>-7.5185000000000013</v>
+        <v>-5.5265000000000022</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="3"/>
-        <v>11.807500000000001</v>
+        <v>-1.4115000000000011</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="4"/>
-        <v>5.6075409419418296</v>
+        <v>5.5020034451649078</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5977,19 +6037,19 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>24.291599999999999</v>
+        <v>31.878</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="2"/>
-        <v>-7.9968000000000021</v>
+        <v>-5.7341999999999995</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="3"/>
-        <v>12.198600000000003</v>
+        <v>-1.2966000000000006</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="4"/>
-        <v>6.3548117932766051</v>
+        <v>6.2115613450552747</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -6005,19 +6065,19 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>27.840199999999999</v>
+        <v>36.690999999999995</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="2"/>
-        <v>-7.9333000000000009</v>
+        <v>-5.4427000000000021</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="3"/>
-        <v>12.333100000000002</v>
+        <v>-0.82270000000000021</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="4"/>
-        <v>7.201665283603444</v>
+        <v>7.0126263510960882</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -6033,19 +6093,19 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>31.3888</v>
+        <v>41.503999999999998</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>-7.328000000000003</v>
+        <v>-4.652000000000001</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="3"/>
-        <v>12.296800000000001</v>
+        <v>2.1599999999999397E-2</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="4"/>
-        <v>8.1613719720120113</v>
+        <v>7.9169995446047752</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -6061,19 +6121,19 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>34.937399999999997</v>
+        <v>46.317</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>-6.1809000000000047</v>
+        <v>-3.3621000000000016</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="3"/>
-        <v>12.1755</v>
+        <v>1.2477</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="4"/>
-        <v>9.2489708758326348</v>
+        <v>8.9380039162467835</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -6089,19 +6149,19 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>38.485999999999997</v>
+        <v>51.129999999999995</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>-4.4920000000000044</v>
+        <v>-1.573000000000004</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="3"/>
-        <v>12.055000000000003</v>
+        <v>2.8669999999999973</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="4"/>
-        <v>10.481505138517953</v>
+        <v>10.090680636868839</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -6117,19 +6177,19 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>42.034599999999998</v>
+        <v>55.942999999999998</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>-2.2612999999999985</v>
+        <v>0.71529999999999916</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="3"/>
-        <v>12.021100000000001</v>
+        <v>4.890900000000002</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="4"/>
-        <v>11.878289103044446</v>
+        <v>11.392010640115764</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -6145,19 +6205,19 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>45.583199999999998</v>
+        <v>60.756</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>0.51119999999999521</v>
+        <v>3.5028000000000006</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="3"/>
-        <v>12.159600000000005</v>
+        <v>7.3308</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="4"/>
-        <v>13.461210975989143</v>
+        <v>12.861164781128299</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -6173,19 +6233,19 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>49.131799999999998</v>
+        <v>65.568999999999988</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>3.825499999999991</v>
+        <v>6.7895000000000039</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="3"/>
-        <v>12.5563</v>
+        <v>10.1981</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="4"/>
-        <v>15.255075825157959</v>
+        <v>14.519786256594827</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -6201,19 +6261,19 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>52.680399999999999</v>
+        <v>70.381999999999991</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
-        <v>7.681599999999996</v>
+        <v>10.575399999999995</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="3"/>
-        <v>13.297000000000004</v>
+        <v>13.504200000000004</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="4"/>
-        <v>17.287994285686359</v>
+        <v>16.392309446695748</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6229,19 +6289,19 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>56.228999999999999</v>
+        <v>75.194999999999993</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>12.079499999999989</v>
+        <v>14.860499999999995</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="3"/>
-        <v>14.467500000000001</v>
+        <v>17.260500000000004</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="4"/>
-        <v>19.591823065804363</v>
+        <v>18.506319876037061</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6257,19 +6317,19 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>59.7776</v>
+        <v>80.007999999999996</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
-        <v>17.019199999999991</v>
+        <v>19.644799999999996</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="3"/>
-        <v>16.153600000000004</v>
+        <v>21.478400000000004</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="4"/>
-        <v>22.202664155181076</v>
+        <v>20.892960596424075</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -6285,19 +6345,19 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>63.3262</v>
+        <v>84.820999999999998</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
-        <v>22.500699999999995</v>
+        <v>24.9283</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="3"/>
-        <v>18.441100000000006</v>
+        <v>26.169299999999996</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="4"/>
-        <v>25.161430558658608</v>
+        <v>23.587390978200496</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6313,19 +6373,19 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>66.874799999999993</v>
+        <v>89.634</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
-        <v>28.523999999999987</v>
+        <v>30.710999999999991</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="3"/>
-        <v>21.415800000000004</v>
+        <v>31.3446</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="4"/>
-        <v>28.514487420666761</v>
+        <v>26.629304668947611</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -6341,19 +6401,19 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>70.423400000000001</v>
+        <v>94.446999999999989</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
-        <v>35.089099999999988</v>
+        <v>36.992899999999992</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="3"/>
-        <v>25.16350000000002</v>
+        <v>37.015699999999995</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="4"/>
-        <v>32.314378587014218</v>
+        <v>30.063514349976423</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -6369,19 +6429,19 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>73.971999999999994</v>
+        <v>99.259999999999991</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
-        <v>42.195999999999984</v>
+        <v>43.773999999999987</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="3"/>
-        <v>29.77000000000001</v>
+        <v>43.194000000000003</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="4"/>
-        <v>36.620649989592749</v>
+        <v>33.940611905093242</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6397,19 +6457,19 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>77.520600000000002</v>
+        <v>104.07299999999999</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="2"/>
-        <v>49.844699999999989</v>
+        <v>51.054299999999998</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="3"/>
-        <v>35.321100000000015</v>
+        <v>49.890900000000009</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="4"/>
-        <v>41.500782756787387</v>
+        <v>38.317713727073304</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6425,19 +6485,19 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>81.069199999999995</v>
+        <v>108.886</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="2"/>
-        <v>58.035200000000003</v>
+        <v>58.833799999999997</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="3"/>
-        <v>41.902600000000007</v>
+        <v>57.11780000000001</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="4"/>
-        <v>47.031250671834826</v>
+        <v>43.259302141503596</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6453,19 +6513,19 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" si="1"/>
-        <v>84.617800000000003</v>
+        <v>113.699</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="2"/>
-        <v>66.767499999999984</v>
+        <v>67.112499999999997</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="3"/>
-        <v>49.60029999999999</v>
+        <v>64.886099999999999</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="4"/>
-        <v>53.298718549958053</v>
+        <v>48.838175343631917</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6481,19 +6541,19 @@
       </c>
       <c r="D26" s="2">
         <f t="shared" si="1"/>
-        <v>88.166399999999996</v>
+        <v>118.512</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="2"/>
-        <v>76.041599999999988</v>
+        <v>75.8904</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="3"/>
-        <v>58.500000000000014</v>
+        <v>73.2072</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="4"/>
-        <v>60.401400313363524</v>
+        <v>55.136519842444976</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6509,19 +6569,19 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" si="1"/>
-        <v>91.715000000000003</v>
+        <v>123.32499999999999</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="2"/>
-        <v>85.857499999999973</v>
+        <v>85.167500000000004</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="3"/>
-        <v>68.6875</v>
+        <v>82.092500000000001</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="4"/>
-        <v>68.450598045720966</v>
+        <v>62.247121210942709</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6537,19 +6597,19 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" si="1"/>
-        <v>95.263599999999997</v>
+        <v>128.13799999999998</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="2"/>
-        <v>96.215199999999967</v>
+        <v>94.94380000000001</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="3"/>
-        <v>80.248599999999996</v>
+        <v>91.553399999999996</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="4"/>
-        <v>77.572446143772936</v>
+        <v>70.274730979066675</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -6565,19 +6625,19 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" si="1"/>
-        <v>98.812200000000004</v>
+        <v>132.95099999999999</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="2"/>
-        <v>107.11469999999998</v>
+        <v>105.21929999999998</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="3"/>
-        <v>93.269100000000023</v>
+        <v>101.60130000000001</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="4"/>
-        <v>87.909887897680989</v>
+        <v>79.337609805994163</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6593,19 +6653,19 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" si="1"/>
-        <v>102.3608</v>
+        <v>137.76399999999998</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="2"/>
-        <v>118.55599999999998</v>
+        <v>115.99399999999999</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="3"/>
-        <v>107.83480000000003</v>
+        <v>112.24760000000002</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="4"/>
-        <v>99.624915473974738</v>
+        <v>89.569269665410218</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6621,19 +6681,19 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" si="1"/>
-        <v>105.90940000000001</v>
+        <v>142.577</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="2"/>
-        <v>130.53909999999996</v>
+        <v>127.2679</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="3"/>
-        <v>124.03150000000001</v>
+        <v>123.50370000000001</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="4"/>
-        <v>112.90110840260132</v>
+        <v>101.12044070917852</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6649,19 +6709,19 @@
       </c>
       <c r="D32" s="2">
         <f t="shared" si="1"/>
-        <v>109.458</v>
+        <v>147.38999999999999</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="2"/>
-        <v>143.06399999999996</v>
+        <v>139.041</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="3"/>
-        <v>141.94500000000002</v>
+        <v>135.381</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="4"/>
-        <v>127.94651034726127</v>
+        <v>114.1612917847348</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6677,19 +6737,19 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" si="1"/>
-        <v>113.00660000000001</v>
+        <v>152.203</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="2"/>
-        <v>156.13069999999993</v>
+        <v>151.3133</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="3"/>
-        <v>161.66110000000003</v>
+        <v>147.89090000000002</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="4"/>
-        <v>144.99688923926146</v>
+        <v>128.88393731828734</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -6705,19 +6765,19 @@
       </c>
       <c r="D34" s="2">
         <f t="shared" si="1"/>
-        <v>116.5552</v>
+        <v>157.01599999999999</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="2"/>
-        <v>169.73919999999998</v>
+        <v>164.08479999999997</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="3"/>
-        <v>183.26560000000001</v>
+        <v>161.04480000000001</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="4"/>
-        <v>164.31943186258752</v>
+        <v>145.50526749457634</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -6733,19 +6793,19 @@
       </c>
       <c r="D35" s="2">
         <f t="shared" si="1"/>
-        <v>120.10379999999999</v>
+        <v>161.82899999999998</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="2"/>
-        <v>183.88949999999994</v>
+        <v>177.35549999999998</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="3"/>
-        <v>206.8443</v>
+        <v>174.85409999999999</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="4"/>
-        <v>186.21693078593574</v>
+        <v>164.27014342666391</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6761,19 +6821,19 @@
       </c>
       <c r="D36" s="2">
         <f t="shared" si="1"/>
-        <v>123.6524</v>
+        <v>166.642</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="2"/>
-        <v>198.58159999999998</v>
+        <v>191.12540000000001</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="3"/>
-        <v>232.483</v>
+        <v>189.33020000000002</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="4"/>
-        <v>211.03252925273313</v>
+        <v>185.45500438616466</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -6789,19 +6849,19 @@
       </c>
       <c r="D37" s="2">
         <f t="shared" si="1"/>
-        <v>127.20099999999999</v>
+        <v>171.45499999999998</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="2"/>
-        <v>213.81549999999996</v>
+        <v>205.39449999999999</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="3"/>
-        <v>260.26749999999998</v>
+        <v>204.48450000000003</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="4"/>
-        <v>239.1550983836172</v>
+        <v>209.37194023469567</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6817,19 +6877,19 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" si="1"/>
-        <v>130.74959999999999</v>
+        <v>176.268</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="2"/>
-        <v>229.59119999999996</v>
+        <v>220.16279999999995</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="3"/>
-        <v>290.28359999999998</v>
+        <v>220.32839999999999</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="4"/>
-        <v>271.02533095445438</v>
+        <v>236.37328905054505</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6840,22 +6900,24 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39">
+        <v>238</v>
+      </c>
       <c r="D39" s="2">
         <f t="shared" si="1"/>
-        <v>134.29820000000001</v>
+        <v>181.08099999999999</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="2"/>
-        <v>245.90869999999995</v>
+        <v>235.43030000000002</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="3"/>
-        <v>322.61710000000005</v>
+        <v>236.87330000000003</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="4"/>
-        <v>307.14264724202667</v>
+        <v>266.85682768160024</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -6866,22 +6928,24 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40">
+        <v>252</v>
+      </c>
       <c r="D40" s="2">
         <f t="shared" si="1"/>
-        <v>137.8468</v>
+        <v>185.89399999999998</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="2"/>
-        <v>262.76799999999992</v>
+        <v>251.19699999999997</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="3"/>
-        <v>357.35380000000009</v>
+        <v>254.13060000000004</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="4"/>
-        <v>348.07302115496111</v>
+        <v>301.27163169041268</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6892,22 +6956,24 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41">
+        <v>261</v>
+      </c>
       <c r="D41" s="2">
         <f t="shared" si="1"/>
-        <v>141.3954</v>
+        <v>190.70699999999999</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="2"/>
-        <v>280.16909999999996</v>
+        <v>267.46289999999999</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="3"/>
-        <v>394.57950000000005</v>
+        <v>272.11169999999998</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="4"/>
-        <v>394.45784928874616</v>
+        <v>340.12469101858392</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -6918,22 +6984,24 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42">
+        <v>268</v>
+      </c>
       <c r="D42" s="2">
         <f t="shared" si="1"/>
-        <v>144.94399999999999</v>
+        <v>195.51999999999998</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="2"/>
-        <v>298.11199999999997</v>
+        <v>284.22799999999995</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="3"/>
-        <v>434.38000000000005</v>
+        <v>290.82800000000003</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="4"/>
-        <v>447.02400188675313</v>
+        <v>383.98837883071911</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -6944,22 +7012,24 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43">
+        <v>287</v>
+      </c>
       <c r="D43" s="2">
         <f t="shared" si="1"/>
-        <v>148.49260000000001</v>
+        <v>200.333</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="2"/>
-        <v>316.59669999999994</v>
+        <v>301.49229999999994</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="3"/>
-        <v>476.84110000000004</v>
+        <v>310.29090000000002</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="4"/>
-        <v>506.59521321014563</v>
+        <v>433.50888356701967</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -6973,19 +7043,19 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2">
         <f t="shared" si="1"/>
-        <v>152.0412</v>
+        <v>205.14599999999999</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="2"/>
-        <v>335.6232</v>
+        <v>319.25580000000002</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="3"/>
-        <v>522.04860000000008</v>
+        <v>330.51180000000005</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="4"/>
-        <v>574.10498980868704</v>
+        <v>489.41572842331402</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -6999,19 +7069,19 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2">
         <f t="shared" si="1"/>
-        <v>155.5898</v>
+        <v>209.95899999999997</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="2"/>
-        <v>355.19149999999996</v>
+        <v>337.51850000000002</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="3"/>
-        <v>570.0883</v>
+        <v>351.50210000000004</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="4"/>
-        <v>650.61123897060952</v>
+        <v>552.53251849703486</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -7025,19 +7095,19 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2">
         <f t="shared" si="1"/>
-        <v>159.13839999999999</v>
+        <v>214.77199999999999</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="2"/>
-        <v>375.30160000000001</v>
+        <v>356.28039999999999</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" si="3"/>
-        <v>621.04600000000005</v>
+        <v>373.27320000000003</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="4"/>
-        <v>737.31284658565448</v>
+        <v>623.78907392329916</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -7051,19 +7121,19 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2">
         <f t="shared" si="1"/>
-        <v>162.68700000000001</v>
+        <v>219.58499999999998</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="2"/>
-        <v>395.95349999999996</v>
+        <v>375.54149999999998</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="3"/>
-        <v>675.00750000000005</v>
+        <v>395.8365</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="4"/>
-        <v>835.56846420354975</v>
+        <v>704.23512774330106</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -7077,19 +7147,19 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2">
         <f t="shared" si="1"/>
-        <v>166.23560000000001</v>
+        <v>224.398</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="2"/>
-        <v>417.14719999999994</v>
+        <v>395.30179999999996</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" si="3"/>
-        <v>732.05859999999996</v>
+        <v>419.20340000000004</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="4"/>
-        <v>946.91779968921446</v>
+        <v>795.05579029844557</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -7103,19 +7173,19 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2">
         <f t="shared" si="1"/>
-        <v>169.7842</v>
+        <v>229.21099999999998</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="2"/>
-        <v>438.8827</v>
+        <v>415.56129999999996</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="3"/>
-        <v>792.28510000000006</v>
+        <v>443.38530000000003</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="4"/>
-        <v>1073.1057451084371</v>
+        <v>897.58900796765602</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -7129,19 +7199,19 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2">
         <f t="shared" si="1"/>
-        <v>173.33279999999999</v>
+        <v>234.024</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="2"/>
-        <v>461.15999999999997</v>
+        <v>436.32</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="3"/>
-        <v>855.77280000000007</v>
+        <v>468.39359999999994</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="4"/>
-        <v>1216.1097199383971</v>
+        <v>1013.3452734454427</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -7155,19 +7225,19 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2">
         <f t="shared" si="1"/>
-        <v>176.88139999999999</v>
+        <v>238.83699999999999</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="2"/>
-        <v>483.9790999999999</v>
+        <v>457.57789999999994</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="3"/>
-        <v>922.60749999999996</v>
+        <v>494.23970000000003</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="4"/>
-        <v>1378.1706580829104</v>
+        <v>1144.0298779274071</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -7180,19 +7250,19 @@
       </c>
       <c r="D52" s="2">
         <f t="shared" si="1"/>
-        <v>180.43</v>
+        <v>243.64999999999998</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="2"/>
-        <v>507.33999999999992</v>
+        <v>479.33500000000004</v>
       </c>
       <c r="F52" s="2">
         <f t="shared" si="3"/>
-        <v>992.875</v>
+        <v>520.93499999999995</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" si="4"/>
-        <v>1561.8281242722865</v>
+        <v>1291.5680330165978</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -7205,19 +7275,19 @@
       </c>
       <c r="D53" s="2">
         <f t="shared" si="1"/>
-        <v>183.9786</v>
+        <v>248.46299999999999</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="2"/>
-        <v>531.2426999999999</v>
+        <v>501.59130000000005</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" si="3"/>
-        <v>1066.6611</v>
+        <v>548.49090000000001</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="4"/>
-        <v>1769.9601101369137</v>
+        <v>1458.1332324401178</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -7230,19 +7300,19 @@
       </c>
       <c r="D54" s="2">
         <f t="shared" si="1"/>
-        <v>187.52719999999999</v>
+        <v>253.27599999999998</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="2"/>
-        <v>555.68719999999985</v>
+        <v>524.34680000000003</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" si="3"/>
-        <v>1144.0516</v>
+        <v>576.91879999999992</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="4"/>
-        <v>2005.8281335761842</v>
+        <v>1646.1792713933978</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -7255,19 +7325,19 @@
       </c>
       <c r="D55" s="2">
         <f t="shared" si="1"/>
-        <v>191.07579999999999</v>
+        <v>258.089</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="2"/>
-        <v>580.67349999999988</v>
+        <v>547.60149999999999</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="3"/>
-        <v>1225.1323</v>
+        <v>606.23010000000011</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="4"/>
-        <v>2273.1283481493238</v>
+        <v>1858.4763952128014</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -7280,19 +7350,19 @@
       </c>
       <c r="D56" s="2">
         <f t="shared" si="1"/>
-        <v>194.62440000000001</v>
+        <v>262.90199999999999</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="2"/>
-        <v>606.20159999999998</v>
+        <v>571.35539999999992</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" si="3"/>
-        <v>1309.989</v>
+        <v>636.4362000000001</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="4"/>
-        <v>2576.0494633942799</v>
+        <v>2098.1521099093934</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -7305,19 +7375,19 @@
       </c>
       <c r="D57" s="2">
         <f t="shared" si="1"/>
-        <v>198.173</v>
+        <v>267.71499999999997</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="2"/>
-        <v>632.27149999999995</v>
+        <v>595.60849999999994</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" si="3"/>
-        <v>1398.7074999999998</v>
+        <v>667.54849999999999</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" si="4"/>
-        <v>2919.3383837110214</v>
+        <v>2368.7372557740609</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -7330,19 +7400,19 @@
       </c>
       <c r="D58" s="2">
         <f t="shared" si="1"/>
-        <v>201.7216</v>
+        <v>272.52799999999996</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" si="2"/>
-        <v>658.88319999999999</v>
+        <v>620.36079999999993</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" si="3"/>
-        <v>1491.3736000000004</v>
+        <v>699.5784000000001</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" si="4"/>
-        <v>3308.3745943988702</v>
+        <v>2674.2180227983254</v>
       </c>
     </row>
   </sheetData>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114607C8-774C-496B-AA89-DE0488F62EAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D761890-44E8-4438-8EA0-AF9E6026709C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Days Since Release</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Growth/Day from Last Week</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -107,7 +110,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -581,6 +584,15 @@
                 </c:pt>
                 <c:pt idx="41" formatCode="General">
                   <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,6 +1357,15 @@
                 <c:pt idx="41" formatCode="General">
                   <c:v>287</c:v>
                 </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>315</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2108,6 +2129,15 @@
                 <c:pt idx="41" formatCode="General">
                   <c:v>287</c:v>
                 </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>315</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2870,6 +2900,15 @@
                 <c:pt idx="41" formatCode="General">
                   <c:v>287</c:v>
                 </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>315</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3174,6 +3213,734 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Growth</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> per day from Weekly Growth</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.1428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B72-4D1D-974A-0F662C90EDC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="670983080"/>
+        <c:axId val="670979472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="670983080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> since Release</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670979472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="670979472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Daily Growth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670983080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3334,6 +4101,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5398,17 +6205,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
@@ -5438,13 +6761,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -5476,13 +6799,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -5514,13 +6837,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -5545,6 +6868,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC737D75-4491-49EB-A1A0-031CECB31D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5816,10 +7175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5827,12 +7186,13 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -5843,19 +7203,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43625</v>
       </c>
@@ -5867,24 +7230,27 @@
         <v>3</v>
       </c>
       <c r="D2" s="2">
-        <f>4.813*B2+3</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E2" s="2">
+        <f>5.2163*B2+3</f>
         <v>3</v>
       </c>
-      <c r="E2" s="2">
-        <f>0.2496*B2^2-2.9533*B2+3</f>
+      <c r="F2" s="2">
+        <f>0.2288*B2^2-2.4179*B2+3</f>
         <v>3</v>
       </c>
-      <c r="F2" s="2">
-        <f>0.0019*B2^3 +0.1453*B2^2 -1.6563*B2 + 3</f>
+      <c r="G2" s="2">
+        <f>-0.0008*B2^3 +0.2785*B2^2 -3.0818*B2 + 3</f>
         <v>3</v>
       </c>
-      <c r="G2" s="2">
-        <f>3*EXP(0.1213*B2)</f>
+      <c r="H2" s="2">
+        <f>3*EXP(0.1186*B2)</f>
         <v>3</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43626</v>
       </c>
@@ -5896,23 +7262,27 @@
         <v>4</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D58" si="1">4.813*B3+3</f>
-        <v>7.8129999999999997</v>
+        <f>(C3-C2)/7</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E58" si="2">0.2496*B3^2-2.9533*B3+3</f>
-        <v>0.29630000000000001</v>
+        <f t="shared" ref="E3:E58" si="1">5.2163*B3+3</f>
+        <v>8.2163000000000004</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F58" si="3">0.0019*B3^3 +0.1453*B3^2 -1.6563*B3 + 3</f>
-        <v>1.4908999999999999</v>
+        <f t="shared" ref="F3:F58" si="2">0.2288*B3^2-2.4179*B3+3</f>
+        <v>0.81090000000000018</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G58" si="4">3*EXP(0.1213*B3)</f>
-        <v>3.3868906519027631</v>
+        <f t="shared" ref="G3:G58" si="3">-0.0008*B3^3 +0.2785*B3^2 -3.0818*B3 + 3</f>
+        <v>0.19589999999999996</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H58" si="4">3*EXP(0.1186*B3)</f>
+        <v>3.3777583812558527</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43627</v>
       </c>
@@ -5924,23 +7294,27 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
+        <f>(C4-C2)/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>12.625999999999999</v>
-      </c>
-      <c r="E4" s="2">
+        <v>13.432600000000001</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" si="2"/>
-        <v>-1.9081999999999999</v>
-      </c>
-      <c r="F4" s="2">
+        <v>-0.92059999999999986</v>
+      </c>
+      <c r="G4" s="2">
         <f t="shared" si="3"/>
-        <v>0.28379999999999983</v>
-      </c>
-      <c r="G4" s="2">
+        <v>-2.0559999999999992</v>
+      </c>
+      <c r="H4" s="2">
         <f t="shared" si="4"/>
-        <v>3.8236760959821083</v>
+        <v>3.8030838940480534</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43628</v>
       </c>
@@ -5952,23 +7326,27 @@
         <v>5</v>
       </c>
       <c r="D5" s="2">
+        <f>(C5-C2)/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>17.439</v>
-      </c>
-      <c r="E5" s="2">
+        <v>18.648900000000001</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="2"/>
-        <v>-3.6135000000000002</v>
-      </c>
-      <c r="F5" s="2">
+        <v>-2.1944999999999997</v>
+      </c>
+      <c r="G5" s="2">
         <f t="shared" si="3"/>
-        <v>-0.60990000000000055</v>
-      </c>
-      <c r="G5" s="2">
+        <v>-3.7604999999999995</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="4"/>
-        <v>4.3167909417952854</v>
+        <v>4.2819661659133192</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43629</v>
       </c>
@@ -5980,23 +7358,27 @@
         <v>5</v>
       </c>
       <c r="D6" s="2">
+        <f>(C6-C2)/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>22.251999999999999</v>
-      </c>
-      <c r="E6" s="2">
+        <v>23.865200000000002</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="2"/>
-        <v>-4.8196000000000003</v>
-      </c>
-      <c r="F6" s="2">
+        <v>-3.0107999999999997</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="3"/>
-        <v>-1.1788000000000007</v>
-      </c>
-      <c r="G6" s="2">
+        <v>-4.9223999999999988</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="4"/>
-        <v>4.8734996289949919</v>
+        <v>4.8211490350559014</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43630</v>
       </c>
@@ -6008,23 +7390,27 @@
         <v>7</v>
       </c>
       <c r="D7" s="2">
+        <f>(C7-C2)/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>27.064999999999998</v>
-      </c>
-      <c r="E7" s="2">
+        <v>29.081500000000002</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="2"/>
-        <v>-5.5265000000000022</v>
-      </c>
-      <c r="F7" s="2">
+        <v>-3.3694999999999995</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="3"/>
-        <v>-1.4115000000000011</v>
-      </c>
-      <c r="G7" s="2">
+        <v>-5.5464999999999982</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="4"/>
-        <v>5.5020034451649078</v>
+        <v>5.4282255201478797</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43631</v>
       </c>
@@ -6036,23 +7422,27 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
+        <f>(C8-C2)/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>31.878</v>
-      </c>
-      <c r="E8" s="2">
+        <v>34.297800000000002</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="2"/>
-        <v>-5.7341999999999995</v>
-      </c>
-      <c r="F8" s="2">
+        <v>-3.2706</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="3"/>
-        <v>-1.2966000000000006</v>
-      </c>
-      <c r="G8" s="2">
+        <v>-5.6375999999999991</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="4"/>
-        <v>6.2115613450552747</v>
+        <v>6.1117447486754708</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43632</v>
       </c>
@@ -6064,23 +7454,27 @@
         <v>7</v>
       </c>
       <c r="D9" s="2">
+        <f>(C9-C2)/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>36.690999999999995</v>
-      </c>
-      <c r="E9" s="2">
+        <v>39.514099999999999</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="2"/>
-        <v>-5.4427000000000021</v>
-      </c>
-      <c r="F9" s="2">
+        <v>-2.7141000000000002</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="3"/>
-        <v>-0.82270000000000021</v>
-      </c>
-      <c r="G9" s="2">
+        <v>-5.2004999999999963</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="4"/>
-        <v>7.0126263510960882</v>
+        <v>6.881332349645005</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43633</v>
       </c>
@@ -6092,23 +7486,27 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
+        <f t="shared" ref="D10:D58" si="5">(C10-C3)/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>41.503999999999998</v>
-      </c>
-      <c r="E10" s="2">
+        <v>44.730400000000003</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" si="2"/>
-        <v>-4.652000000000001</v>
-      </c>
-      <c r="F10" s="2">
+        <v>-1.6999999999999993</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" si="3"/>
-        <v>2.1599999999999397E-2</v>
-      </c>
-      <c r="G10" s="2">
+        <v>-4.2399999999999984</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="4"/>
-        <v>7.9169995446047752</v>
+        <v>7.747826006073482</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43634</v>
       </c>
@@ -6120,23 +7518,27 @@
         <v>10</v>
       </c>
       <c r="D11" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>46.317</v>
-      </c>
-      <c r="E11" s="2">
+        <v>49.946700000000007</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="2"/>
-        <v>-3.3621000000000016</v>
-      </c>
-      <c r="F11" s="2">
+        <v>-0.22829999999999728</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="3"/>
-        <v>1.2477</v>
-      </c>
-      <c r="G11" s="2">
+        <v>-2.7608999999999995</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="4"/>
-        <v>8.9380039162467835</v>
+        <v>8.7234280761755887</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43635</v>
       </c>
@@ -6148,23 +7550,27 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>51.129999999999995</v>
-      </c>
-      <c r="E12" s="2">
+        <v>55.163000000000004</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>-1.573000000000004</v>
-      </c>
-      <c r="F12" s="2">
+        <v>1.7010000000000005</v>
+      </c>
+      <c r="G12" s="2">
         <f t="shared" si="3"/>
-        <v>2.8669999999999973</v>
-      </c>
-      <c r="G12" s="2">
+        <v>-0.76799999999999713</v>
+      </c>
+      <c r="H12" s="2">
         <f t="shared" si="4"/>
-        <v>10.090680636868839</v>
+        <v>9.8218774325282379</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43636</v>
       </c>
@@ -6176,23 +7582,27 @@
         <v>13</v>
       </c>
       <c r="D13" s="2">
+        <f t="shared" si="5"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>55.942999999999998</v>
-      </c>
-      <c r="E13" s="2">
+        <v>60.379300000000001</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>0.71529999999999916</v>
-      </c>
-      <c r="F13" s="2">
+        <v>4.0879000000000012</v>
+      </c>
+      <c r="G13" s="2">
         <f t="shared" si="3"/>
-        <v>4.890900000000002</v>
-      </c>
-      <c r="G13" s="2">
+        <v>1.7339000000000055</v>
+      </c>
+      <c r="H13" s="2">
         <f t="shared" si="4"/>
-        <v>11.392010640115764</v>
+        <v>11.058642939129992</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43637</v>
       </c>
@@ -6204,23 +7614,27 @@
         <v>15</v>
       </c>
       <c r="D14" s="2">
+        <f t="shared" si="5"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>60.756</v>
-      </c>
-      <c r="E14" s="2">
+        <v>65.595600000000005</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="2"/>
-        <v>3.5028000000000006</v>
-      </c>
-      <c r="F14" s="2">
+        <v>6.9324000000000012</v>
+      </c>
+      <c r="G14" s="2">
         <f t="shared" si="3"/>
-        <v>7.3308</v>
-      </c>
-      <c r="G14" s="2">
+        <v>4.7400000000000091</v>
+      </c>
+      <c r="H14" s="2">
         <f t="shared" si="4"/>
-        <v>12.861164781128299</v>
+        <v>12.451141290987398</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43638</v>
       </c>
@@ -6232,23 +7646,27 @@
         <v>18</v>
       </c>
       <c r="D15" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>65.568999999999988</v>
-      </c>
-      <c r="E15" s="2">
+        <v>70.811900000000009</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" si="2"/>
-        <v>6.7895000000000039</v>
-      </c>
-      <c r="F15" s="2">
+        <v>10.234500000000001</v>
+      </c>
+      <c r="G15" s="2">
         <f t="shared" si="3"/>
-        <v>10.1981</v>
-      </c>
-      <c r="G15" s="2">
+        <v>8.2455000000000069</v>
+      </c>
+      <c r="H15" s="2">
         <f t="shared" si="4"/>
-        <v>14.519786256594827</v>
+        <v>14.018982283944499</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43639</v>
       </c>
@@ -6260,23 +7678,27 @@
         <v>20</v>
       </c>
       <c r="D16" s="2">
+        <f t="shared" si="5"/>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>70.381999999999991</v>
-      </c>
-      <c r="E16" s="2">
+        <v>76.028199999999998</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="2"/>
-        <v>10.575399999999995</v>
-      </c>
-      <c r="F16" s="2">
+        <v>13.994199999999999</v>
+      </c>
+      <c r="G16" s="2">
         <f t="shared" si="3"/>
-        <v>13.504200000000004</v>
-      </c>
-      <c r="G16" s="2">
+        <v>12.24560000000001</v>
+      </c>
+      <c r="H16" s="2">
         <f t="shared" si="4"/>
-        <v>16.392309446695748</v>
+        <v>15.784244968756948</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43640</v>
       </c>
@@ -6288,23 +7710,27 @@
         <v>18</v>
       </c>
       <c r="D17" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>75.194999999999993</v>
-      </c>
-      <c r="E17" s="2">
+        <v>81.244500000000002</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>14.860499999999995</v>
-      </c>
-      <c r="F17" s="2">
+        <v>18.211500000000008</v>
+      </c>
+      <c r="G17" s="2">
         <f t="shared" si="3"/>
-        <v>17.260500000000004</v>
-      </c>
-      <c r="G17" s="2">
+        <v>16.735500000000009</v>
+      </c>
+      <c r="H17" s="2">
         <f t="shared" si="4"/>
-        <v>18.506319876037061</v>
+        <v>17.771788578338104</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43641</v>
       </c>
@@ -6316,23 +7742,27 @@
         <v>23</v>
       </c>
       <c r="D18" s="2">
+        <f t="shared" si="5"/>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>80.007999999999996</v>
-      </c>
-      <c r="E18" s="2">
+        <v>86.460800000000006</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="2"/>
-        <v>19.644799999999996</v>
-      </c>
-      <c r="F18" s="2">
+        <v>22.886400000000002</v>
+      </c>
+      <c r="G18" s="2">
         <f t="shared" si="3"/>
-        <v>21.478400000000004</v>
-      </c>
-      <c r="G18" s="2">
+        <v>21.710400000000014</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="4"/>
-        <v>20.892960596424075</v>
+        <v>20.009602606796189</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43642</v>
       </c>
@@ -6344,23 +7774,27 @@
         <v>27</v>
       </c>
       <c r="D19" s="2">
+        <f t="shared" si="5"/>
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>84.820999999999998</v>
-      </c>
-      <c r="E19" s="2">
+        <v>91.67710000000001</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>24.9283</v>
-      </c>
-      <c r="F19" s="2">
+        <v>28.018899999999995</v>
+      </c>
+      <c r="G19" s="2">
         <f t="shared" si="3"/>
-        <v>26.169299999999996</v>
-      </c>
-      <c r="G19" s="2">
+        <v>27.165500000000002</v>
+      </c>
+      <c r="H19" s="2">
         <f t="shared" si="4"/>
-        <v>23.587390978200496</v>
+        <v>22.529200970234932</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43643</v>
       </c>
@@ -6372,23 +7806,27 @@
         <v>27</v>
       </c>
       <c r="D20" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>89.634</v>
-      </c>
-      <c r="E20" s="2">
+        <v>96.893400000000014</v>
+      </c>
+      <c r="F20" s="2">
         <f t="shared" si="2"/>
-        <v>30.710999999999991</v>
-      </c>
-      <c r="F20" s="2">
+        <v>33.609000000000009</v>
+      </c>
+      <c r="G20" s="2">
         <f t="shared" si="3"/>
-        <v>31.3446</v>
-      </c>
-      <c r="G20" s="2">
+        <v>33.096000000000011</v>
+      </c>
+      <c r="H20" s="2">
         <f t="shared" si="4"/>
-        <v>26.629304668947611</v>
+        <v>25.366065800069507</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43644</v>
       </c>
@@ -6400,23 +7838,27 @@
         <v>31</v>
       </c>
       <c r="D21" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>94.446999999999989</v>
-      </c>
-      <c r="E21" s="2">
+        <v>102.1097</v>
+      </c>
+      <c r="F21" s="2">
         <f t="shared" si="2"/>
-        <v>36.992899999999992</v>
-      </c>
-      <c r="F21" s="2">
+        <v>39.656700000000001</v>
+      </c>
+      <c r="G21" s="2">
         <f t="shared" si="3"/>
-        <v>37.015699999999995</v>
-      </c>
-      <c r="G21" s="2">
+        <v>39.497100000000017</v>
+      </c>
+      <c r="H21" s="2">
         <f t="shared" si="4"/>
-        <v>30.063514349976423</v>
+        <v>28.560147118557417</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43645</v>
       </c>
@@ -6428,23 +7870,27 @@
         <v>34</v>
       </c>
       <c r="D22" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>99.259999999999991</v>
-      </c>
-      <c r="E22" s="2">
+        <v>107.32600000000001</v>
+      </c>
+      <c r="F22" s="2">
         <f t="shared" si="2"/>
-        <v>43.773999999999987</v>
-      </c>
-      <c r="F22" s="2">
+        <v>46.161999999999999</v>
+      </c>
+      <c r="G22" s="2">
         <f t="shared" si="3"/>
-        <v>43.194000000000003</v>
-      </c>
-      <c r="G22" s="2">
+        <v>46.364000000000004</v>
+      </c>
+      <c r="H22" s="2">
         <f t="shared" si="4"/>
-        <v>33.940611905093242</v>
+        <v>32.1564254332025</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43646</v>
       </c>
@@ -6456,23 +7902,27 @@
         <v>43</v>
       </c>
       <c r="D23" s="2">
+        <f t="shared" si="5"/>
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>104.07299999999999</v>
-      </c>
-      <c r="E23" s="2">
+        <v>112.54230000000001</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" si="2"/>
-        <v>51.054299999999998</v>
-      </c>
-      <c r="F23" s="2">
+        <v>53.124900000000004</v>
+      </c>
+      <c r="G23" s="2">
         <f t="shared" si="3"/>
-        <v>49.890900000000009</v>
-      </c>
-      <c r="G23" s="2">
+        <v>53.691900000000018</v>
+      </c>
+      <c r="H23" s="2">
         <f t="shared" si="4"/>
-        <v>38.317713727073304</v>
+        <v>36.205545172742873</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43647</v>
       </c>
@@ -6484,23 +7934,27 @@
         <v>44</v>
       </c>
       <c r="D24" s="2">
+        <f t="shared" si="5"/>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>108.886</v>
-      </c>
-      <c r="E24" s="2">
+        <v>117.7586</v>
+      </c>
+      <c r="F24" s="2">
         <f t="shared" si="2"/>
-        <v>58.833799999999997</v>
-      </c>
-      <c r="F24" s="2">
+        <v>60.545400000000001</v>
+      </c>
+      <c r="G24" s="2">
         <f t="shared" si="3"/>
-        <v>57.11780000000001</v>
-      </c>
-      <c r="G24" s="2">
+        <v>61.476000000000013</v>
+      </c>
+      <c r="H24" s="2">
         <f t="shared" si="4"/>
-        <v>43.259302141503596</v>
+        <v>40.764527885056538</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43648</v>
       </c>
@@ -6512,23 +7966,27 @@
         <v>47</v>
       </c>
       <c r="D25" s="2">
+        <f t="shared" si="5"/>
+        <v>3.4285714285714284</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>113.699</v>
-      </c>
-      <c r="E25" s="2">
+        <v>122.97490000000001</v>
+      </c>
+      <c r="F25" s="2">
         <f t="shared" si="2"/>
-        <v>67.112499999999997</v>
-      </c>
-      <c r="F25" s="2">
+        <v>68.423500000000004</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="3"/>
-        <v>64.886099999999999</v>
-      </c>
-      <c r="G25" s="2">
+        <v>69.711500000000015</v>
+      </c>
+      <c r="H25" s="2">
         <f t="shared" si="4"/>
-        <v>48.838175343631917</v>
+        <v>45.897575240562546</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43649</v>
       </c>
@@ -6540,23 +7998,27 @@
         <v>47</v>
       </c>
       <c r="D26" s="2">
+        <f t="shared" si="5"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>118.512</v>
-      </c>
-      <c r="E26" s="2">
+        <v>128.19120000000001</v>
+      </c>
+      <c r="F26" s="2">
         <f t="shared" si="2"/>
-        <v>75.8904</v>
-      </c>
-      <c r="F26" s="2">
+        <v>76.759200000000007</v>
+      </c>
+      <c r="G26" s="2">
         <f t="shared" si="3"/>
-        <v>73.2072</v>
-      </c>
-      <c r="G26" s="2">
+        <v>78.393600000000021</v>
+      </c>
+      <c r="H26" s="2">
         <f t="shared" si="4"/>
-        <v>55.136519842444976</v>
+        <v>51.676973149377098</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43650</v>
       </c>
@@ -6568,23 +8030,27 @@
         <v>57</v>
       </c>
       <c r="D27" s="2">
+        <f t="shared" si="5"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="1"/>
-        <v>123.32499999999999</v>
-      </c>
-      <c r="E27" s="2">
+        <v>133.4075</v>
+      </c>
+      <c r="F27" s="2">
         <f t="shared" si="2"/>
-        <v>85.167500000000004</v>
-      </c>
-      <c r="F27" s="2">
+        <v>85.552500000000009</v>
+      </c>
+      <c r="G27" s="2">
         <f t="shared" si="3"/>
-        <v>82.092500000000001</v>
-      </c>
-      <c r="G27" s="2">
+        <v>87.517500000000027</v>
+      </c>
+      <c r="H27" s="2">
         <f t="shared" si="4"/>
-        <v>62.247121210942709</v>
+        <v>58.184109724414043</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43651</v>
       </c>
@@ -6596,23 +8062,27 @@
         <v>63</v>
       </c>
       <c r="D28" s="2">
+        <f t="shared" si="5"/>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>128.13799999999998</v>
-      </c>
-      <c r="E28" s="2">
+        <v>138.62380000000002</v>
+      </c>
+      <c r="F28" s="2">
         <f t="shared" si="2"/>
-        <v>94.94380000000001</v>
-      </c>
-      <c r="F28" s="2">
+        <v>94.803400000000011</v>
+      </c>
+      <c r="G28" s="2">
         <f t="shared" si="3"/>
-        <v>91.553399999999996</v>
-      </c>
-      <c r="G28" s="2">
+        <v>97.078400000000016</v>
+      </c>
+      <c r="H28" s="2">
         <f t="shared" si="4"/>
-        <v>70.274730979066675</v>
+        <v>65.510621425849905</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43652</v>
       </c>
@@ -6624,23 +8094,27 @@
         <v>66</v>
       </c>
       <c r="D29" s="2">
+        <f t="shared" si="5"/>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>132.95099999999999</v>
-      </c>
-      <c r="E29" s="2">
+        <v>143.84010000000001</v>
+      </c>
+      <c r="F29" s="2">
         <f t="shared" si="2"/>
-        <v>105.21929999999998</v>
-      </c>
-      <c r="F29" s="2">
+        <v>104.5119</v>
+      </c>
+      <c r="G29" s="2">
         <f t="shared" si="3"/>
-        <v>101.60130000000001</v>
-      </c>
-      <c r="G29" s="2">
+        <v>107.07150000000004</v>
+      </c>
+      <c r="H29" s="2">
         <f t="shared" si="4"/>
-        <v>79.337609805994163</v>
+        <v>73.759683527481258</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43653</v>
       </c>
@@ -6652,23 +8126,27 @@
         <v>72</v>
       </c>
       <c r="D30" s="2">
+        <f t="shared" si="5"/>
+        <v>4.1428571428571432</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="1"/>
-        <v>137.76399999999998</v>
-      </c>
-      <c r="E30" s="2">
+        <v>149.0564</v>
+      </c>
+      <c r="F30" s="2">
         <f t="shared" si="2"/>
-        <v>115.99399999999999</v>
-      </c>
-      <c r="F30" s="2">
+        <v>114.678</v>
+      </c>
+      <c r="G30" s="2">
         <f t="shared" si="3"/>
-        <v>112.24760000000002</v>
-      </c>
-      <c r="G30" s="2">
+        <v>117.49200000000003</v>
+      </c>
+      <c r="H30" s="2">
         <f t="shared" si="4"/>
-        <v>89.569269665410218</v>
+        <v>83.047463077909683</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43654</v>
       </c>
@@ -6680,23 +8158,27 @@
         <v>127</v>
       </c>
       <c r="D31" s="2">
+        <f t="shared" si="5"/>
+        <v>11.857142857142858</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="1"/>
-        <v>142.577</v>
-      </c>
-      <c r="E31" s="2">
+        <v>154.27270000000001</v>
+      </c>
+      <c r="F31" s="2">
         <f t="shared" si="2"/>
-        <v>127.2679</v>
-      </c>
-      <c r="F31" s="2">
+        <v>125.30170000000001</v>
+      </c>
+      <c r="G31" s="2">
         <f t="shared" si="3"/>
-        <v>123.50370000000001</v>
-      </c>
-      <c r="G31" s="2">
+        <v>128.33510000000004</v>
+      </c>
+      <c r="H31" s="2">
         <f t="shared" si="4"/>
-        <v>101.12044070917852</v>
+        <v>93.504754817815154</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43655</v>
       </c>
@@ -6708,23 +8190,27 @@
         <v>183</v>
       </c>
       <c r="D32" s="2">
+        <f t="shared" si="5"/>
+        <v>19.428571428571427</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="1"/>
-        <v>147.38999999999999</v>
-      </c>
-      <c r="E32" s="2">
+        <v>159.489</v>
+      </c>
+      <c r="F32" s="2">
         <f t="shared" si="2"/>
-        <v>139.041</v>
-      </c>
-      <c r="F32" s="2">
+        <v>136.38300000000004</v>
+      </c>
+      <c r="G32" s="2">
         <f t="shared" si="3"/>
-        <v>135.381</v>
-      </c>
-      <c r="G32" s="2">
+        <v>139.59600000000006</v>
+      </c>
+      <c r="H32" s="2">
         <f t="shared" si="4"/>
-        <v>114.1612917847348</v>
+        <v>105.27882309104956</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43656</v>
       </c>
@@ -6736,23 +8222,27 @@
         <v>195</v>
       </c>
       <c r="D33" s="2">
+        <f t="shared" si="5"/>
+        <v>21.142857142857142</v>
+      </c>
+      <c r="E33" s="2">
         <f t="shared" si="1"/>
-        <v>152.203</v>
-      </c>
-      <c r="E33" s="2">
+        <v>164.70530000000002</v>
+      </c>
+      <c r="F33" s="2">
         <f t="shared" si="2"/>
-        <v>151.3133</v>
-      </c>
-      <c r="F33" s="2">
+        <v>147.92189999999999</v>
+      </c>
+      <c r="G33" s="2">
         <f t="shared" si="3"/>
-        <v>147.89090000000002</v>
-      </c>
-      <c r="G33" s="2">
+        <v>151.26990000000004</v>
+      </c>
+      <c r="H33" s="2">
         <f t="shared" si="4"/>
-        <v>128.88393731828734</v>
+        <v>118.53547568818166</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43657</v>
       </c>
@@ -6764,23 +8254,27 @@
         <v>191</v>
       </c>
       <c r="D34" s="2">
+        <f t="shared" si="5"/>
+        <v>19.142857142857142</v>
+      </c>
+      <c r="E34" s="2">
         <f t="shared" si="1"/>
-        <v>157.01599999999999</v>
-      </c>
-      <c r="E34" s="2">
+        <v>169.92160000000001</v>
+      </c>
+      <c r="F34" s="2">
         <f t="shared" si="2"/>
-        <v>164.08479999999997</v>
-      </c>
-      <c r="F34" s="2">
+        <v>159.91840000000002</v>
+      </c>
+      <c r="G34" s="2">
         <f t="shared" si="3"/>
-        <v>161.04480000000001</v>
-      </c>
-      <c r="G34" s="2">
+        <v>163.35200000000003</v>
+      </c>
+      <c r="H34" s="2">
         <f t="shared" si="4"/>
-        <v>145.50526749457634</v>
+        <v>133.46139882730162</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43658</v>
       </c>
@@ -6792,23 +8286,27 @@
         <v>211</v>
       </c>
       <c r="D35" s="2">
+        <f t="shared" si="5"/>
+        <v>21.142857142857142</v>
+      </c>
+      <c r="E35" s="2">
         <f t="shared" si="1"/>
-        <v>161.82899999999998</v>
-      </c>
-      <c r="E35" s="2">
+        <v>175.1379</v>
+      </c>
+      <c r="F35" s="2">
         <f t="shared" si="2"/>
-        <v>177.35549999999998</v>
-      </c>
-      <c r="F35" s="2">
+        <v>172.3725</v>
+      </c>
+      <c r="G35" s="2">
         <f t="shared" si="3"/>
-        <v>174.85409999999999</v>
-      </c>
-      <c r="G35" s="2">
+        <v>175.83750000000006</v>
+      </c>
+      <c r="H35" s="2">
         <f t="shared" si="4"/>
-        <v>164.27014342666391</v>
+        <v>150.26678615434935</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43659</v>
       </c>
@@ -6820,23 +8318,27 @@
         <v>206</v>
       </c>
       <c r="D36" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="E36" s="2">
         <f t="shared" si="1"/>
-        <v>166.642</v>
-      </c>
-      <c r="E36" s="2">
+        <v>180.35420000000002</v>
+      </c>
+      <c r="F36" s="2">
         <f t="shared" si="2"/>
-        <v>191.12540000000001</v>
-      </c>
-      <c r="F36" s="2">
+        <v>185.2842</v>
+      </c>
+      <c r="G36" s="2">
         <f t="shared" si="3"/>
-        <v>189.33020000000002</v>
-      </c>
-      <c r="G36" s="2">
+        <v>188.72160000000002</v>
+      </c>
+      <c r="H36" s="2">
         <f t="shared" si="4"/>
-        <v>185.45500438616466</v>
+        <v>169.18829878574485</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43660</v>
       </c>
@@ -6848,23 +8350,27 @@
         <v>219</v>
       </c>
       <c r="D37" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="E37" s="2">
         <f t="shared" si="1"/>
-        <v>171.45499999999998</v>
-      </c>
-      <c r="E37" s="2">
+        <v>185.57050000000001</v>
+      </c>
+      <c r="F37" s="2">
         <f t="shared" si="2"/>
-        <v>205.39449999999999</v>
-      </c>
-      <c r="F37" s="2">
+        <v>198.65350000000004</v>
+      </c>
+      <c r="G37" s="2">
         <f t="shared" si="3"/>
-        <v>204.48450000000003</v>
-      </c>
-      <c r="G37" s="2">
+        <v>201.99950000000001</v>
+      </c>
+      <c r="H37" s="2">
         <f t="shared" si="4"/>
-        <v>209.37194023469567</v>
+        <v>190.49239807798966</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43661</v>
       </c>
@@ -6876,23 +8382,27 @@
         <v>227</v>
       </c>
       <c r="D38" s="2">
+        <f t="shared" si="5"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="E38" s="2">
         <f t="shared" si="1"/>
-        <v>176.268</v>
-      </c>
-      <c r="E38" s="2">
+        <v>190.78680000000003</v>
+      </c>
+      <c r="F38" s="2">
         <f t="shared" si="2"/>
-        <v>220.16279999999995</v>
-      </c>
-      <c r="F38" s="2">
+        <v>212.48040000000003</v>
+      </c>
+      <c r="G38" s="2">
         <f t="shared" si="3"/>
-        <v>220.32839999999999</v>
-      </c>
-      <c r="G38" s="2">
+        <v>215.66640000000007</v>
+      </c>
+      <c r="H38" s="2">
         <f t="shared" si="4"/>
-        <v>236.37328905054505</v>
+        <v>214.47909805781862</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43662</v>
       </c>
@@ -6904,23 +8414,27 @@
         <v>238</v>
       </c>
       <c r="D39" s="2">
+        <f t="shared" si="5"/>
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="E39" s="2">
         <f t="shared" si="1"/>
-        <v>181.08099999999999</v>
-      </c>
-      <c r="E39" s="2">
+        <v>196.00310000000002</v>
+      </c>
+      <c r="F39" s="2">
         <f t="shared" si="2"/>
-        <v>235.43030000000002</v>
-      </c>
-      <c r="F39" s="2">
+        <v>226.76489999999998</v>
+      </c>
+      <c r="G39" s="2">
         <f t="shared" si="3"/>
-        <v>236.87330000000003</v>
-      </c>
-      <c r="G39" s="2">
+        <v>229.7175</v>
+      </c>
+      <c r="H39" s="2">
         <f t="shared" si="4"/>
-        <v>266.85682768160024</v>
+        <v>241.48619035633106</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43663</v>
       </c>
@@ -6932,23 +8446,27 @@
         <v>252</v>
       </c>
       <c r="D40" s="2">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
+      </c>
+      <c r="E40" s="2">
         <f t="shared" si="1"/>
-        <v>185.89399999999998</v>
-      </c>
-      <c r="E40" s="2">
+        <v>201.21940000000001</v>
+      </c>
+      <c r="F40" s="2">
         <f t="shared" si="2"/>
-        <v>251.19699999999997</v>
-      </c>
-      <c r="F40" s="2">
+        <v>241.50700000000001</v>
+      </c>
+      <c r="G40" s="2">
         <f t="shared" si="3"/>
-        <v>254.13060000000004</v>
-      </c>
-      <c r="G40" s="2">
+        <v>244.14800000000005</v>
+      </c>
+      <c r="H40" s="2">
         <f t="shared" si="4"/>
-        <v>301.27163169041268</v>
+        <v>271.89400114454781</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43664</v>
       </c>
@@ -6960,23 +8478,27 @@
         <v>261</v>
       </c>
       <c r="D41" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E41" s="2">
         <f t="shared" si="1"/>
-        <v>190.70699999999999</v>
-      </c>
-      <c r="E41" s="2">
+        <v>206.43570000000003</v>
+      </c>
+      <c r="F41" s="2">
         <f t="shared" si="2"/>
-        <v>267.46289999999999</v>
-      </c>
-      <c r="F41" s="2">
+        <v>256.70670000000001</v>
+      </c>
+      <c r="G41" s="2">
         <f t="shared" si="3"/>
-        <v>272.11169999999998</v>
-      </c>
-      <c r="G41" s="2">
+        <v>258.95310000000006</v>
+      </c>
+      <c r="H41" s="2">
         <f t="shared" si="4"/>
-        <v>340.12469101858392</v>
+        <v>306.13074705972821</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43665</v>
       </c>
@@ -6988,23 +8510,27 @@
         <v>268</v>
       </c>
       <c r="D42" s="2">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
+      </c>
+      <c r="E42" s="2">
         <f t="shared" si="1"/>
-        <v>195.51999999999998</v>
-      </c>
-      <c r="E42" s="2">
+        <v>211.65200000000002</v>
+      </c>
+      <c r="F42" s="2">
         <f t="shared" si="2"/>
-        <v>284.22799999999995</v>
-      </c>
-      <c r="F42" s="2">
+        <v>272.36399999999998</v>
+      </c>
+      <c r="G42" s="2">
         <f t="shared" si="3"/>
-        <v>290.82800000000003</v>
-      </c>
-      <c r="G42" s="2">
+        <v>274.12800000000004</v>
+      </c>
+      <c r="H42" s="2">
         <f t="shared" si="4"/>
-        <v>383.98837883071911</v>
+        <v>344.67856554703746</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43666</v>
       </c>
@@ -7016,23 +8542,27 @@
         <v>287</v>
       </c>
       <c r="D43" s="2">
+        <f t="shared" si="5"/>
+        <v>11.571428571428571</v>
+      </c>
+      <c r="E43" s="2">
         <f t="shared" si="1"/>
-        <v>200.333</v>
-      </c>
-      <c r="E43" s="2">
+        <v>216.8683</v>
+      </c>
+      <c r="F43" s="2">
         <f t="shared" si="2"/>
-        <v>301.49229999999994</v>
-      </c>
-      <c r="F43" s="2">
+        <v>288.47890000000001</v>
+      </c>
+      <c r="G43" s="2">
         <f t="shared" si="3"/>
-        <v>310.29090000000002</v>
-      </c>
-      <c r="G43" s="2">
+        <v>289.66790000000009</v>
+      </c>
+      <c r="H43" s="2">
         <f t="shared" si="4"/>
-        <v>433.50888356701967</v>
+        <v>388.08030453858345</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43667</v>
       </c>
@@ -7040,25 +8570,31 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44">
+        <v>289</v>
+      </c>
       <c r="D44" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E44" s="2">
         <f t="shared" si="1"/>
-        <v>205.14599999999999</v>
-      </c>
-      <c r="E44" s="2">
+        <v>222.08460000000002</v>
+      </c>
+      <c r="F44" s="2">
         <f t="shared" si="2"/>
-        <v>319.25580000000002</v>
-      </c>
-      <c r="F44" s="2">
+        <v>305.0514</v>
+      </c>
+      <c r="G44" s="2">
         <f t="shared" si="3"/>
-        <v>330.51180000000005</v>
-      </c>
-      <c r="G44" s="2">
+        <v>305.5680000000001</v>
+      </c>
+      <c r="H44" s="2">
         <f t="shared" si="4"/>
-        <v>489.41572842331402</v>
+        <v>436.94716708517501</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43668</v>
       </c>
@@ -7066,25 +8602,31 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45">
+        <v>301</v>
+      </c>
       <c r="D45" s="2">
+        <f t="shared" si="5"/>
+        <v>10.571428571428571</v>
+      </c>
+      <c r="E45" s="2">
         <f t="shared" si="1"/>
-        <v>209.95899999999997</v>
-      </c>
-      <c r="E45" s="2">
+        <v>227.30090000000001</v>
+      </c>
+      <c r="F45" s="2">
         <f t="shared" si="2"/>
-        <v>337.51850000000002</v>
-      </c>
-      <c r="F45" s="2">
+        <v>322.08150000000001</v>
+      </c>
+      <c r="G45" s="2">
         <f t="shared" si="3"/>
-        <v>351.50210000000004</v>
-      </c>
-      <c r="G45" s="2">
+        <v>321.82350000000008</v>
+      </c>
+      <c r="H45" s="2">
         <f t="shared" si="4"/>
-        <v>552.53251849703486</v>
+        <v>491.96731859598367</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43669</v>
       </c>
@@ -7092,25 +8634,31 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46">
+        <v>315</v>
+      </c>
       <c r="D46" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="E46" s="2">
         <f t="shared" si="1"/>
-        <v>214.77199999999999</v>
-      </c>
-      <c r="E46" s="2">
+        <v>232.5172</v>
+      </c>
+      <c r="F46" s="2">
         <f t="shared" si="2"/>
-        <v>356.28039999999999</v>
-      </c>
-      <c r="F46" s="2">
+        <v>339.56920000000002</v>
+      </c>
+      <c r="G46" s="2">
         <f t="shared" si="3"/>
-        <v>373.27320000000003</v>
-      </c>
-      <c r="G46" s="2">
+        <v>338.42960000000005</v>
+      </c>
+      <c r="H46" s="2">
         <f t="shared" si="4"/>
-        <v>623.78907392329916</v>
+        <v>553.91557789718399</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43670</v>
       </c>
@@ -7119,24 +8667,25 @@
         <v>45</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
         <f t="shared" si="1"/>
-        <v>219.58499999999998</v>
-      </c>
-      <c r="E47" s="2">
+        <v>237.73350000000002</v>
+      </c>
+      <c r="F47" s="2">
         <f t="shared" si="2"/>
-        <v>375.54149999999998</v>
-      </c>
-      <c r="F47" s="2">
+        <v>357.5145</v>
+      </c>
+      <c r="G47" s="2">
         <f t="shared" si="3"/>
-        <v>395.8365</v>
-      </c>
-      <c r="G47" s="2">
+        <v>355.38150000000013</v>
+      </c>
+      <c r="H47" s="2">
         <f t="shared" si="4"/>
-        <v>704.23512774330106</v>
+        <v>623.66432858346411</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43671</v>
       </c>
@@ -7145,24 +8694,25 @@
         <v>46</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="2">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
         <f t="shared" si="1"/>
-        <v>224.398</v>
-      </c>
-      <c r="E48" s="2">
+        <v>242.94980000000001</v>
+      </c>
+      <c r="F48" s="2">
         <f t="shared" si="2"/>
-        <v>395.30179999999996</v>
-      </c>
-      <c r="F48" s="2">
+        <v>375.91740000000004</v>
+      </c>
+      <c r="G48" s="2">
         <f t="shared" si="3"/>
-        <v>419.20340000000004</v>
-      </c>
-      <c r="G48" s="2">
+        <v>372.67439999999999</v>
+      </c>
+      <c r="H48" s="2">
         <f t="shared" si="4"/>
-        <v>795.05579029844557</v>
+        <v>702.19580432103317</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43672</v>
       </c>
@@ -7171,24 +8721,25 @@
         <v>47</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="2">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2">
         <f t="shared" si="1"/>
-        <v>229.21099999999998</v>
-      </c>
-      <c r="E49" s="2">
+        <v>248.16610000000003</v>
+      </c>
+      <c r="F49" s="2">
         <f t="shared" si="2"/>
-        <v>415.56129999999996</v>
-      </c>
-      <c r="F49" s="2">
+        <v>394.77789999999999</v>
+      </c>
+      <c r="G49" s="2">
         <f t="shared" si="3"/>
-        <v>443.38530000000003</v>
-      </c>
-      <c r="G49" s="2">
+        <v>390.30349999999999</v>
+      </c>
+      <c r="H49" s="2">
         <f t="shared" si="4"/>
-        <v>897.58900796765602</v>
+        <v>790.61592110935555</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43673</v>
       </c>
@@ -7197,24 +8748,25 @@
         <v>48</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
         <f t="shared" si="1"/>
-        <v>234.024</v>
-      </c>
-      <c r="E50" s="2">
+        <v>253.38240000000002</v>
+      </c>
+      <c r="F50" s="2">
         <f t="shared" si="2"/>
-        <v>436.32</v>
-      </c>
-      <c r="F50" s="2">
+        <v>414.096</v>
+      </c>
+      <c r="G50" s="2">
         <f t="shared" si="3"/>
-        <v>468.39359999999994</v>
-      </c>
-      <c r="G50" s="2">
+        <v>408.26400000000007</v>
+      </c>
+      <c r="H50" s="2">
         <f t="shared" si="4"/>
-        <v>1013.3452734454427</v>
+        <v>890.16985129381374</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43674</v>
       </c>
@@ -7223,24 +8775,25 @@
         <v>49</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
         <f t="shared" si="1"/>
-        <v>238.83699999999999</v>
-      </c>
-      <c r="E51" s="2">
+        <v>258.59870000000001</v>
+      </c>
+      <c r="F51" s="2">
         <f t="shared" si="2"/>
-        <v>457.57789999999994</v>
-      </c>
-      <c r="F51" s="2">
+        <v>433.87169999999998</v>
+      </c>
+      <c r="G51" s="2">
         <f t="shared" si="3"/>
-        <v>494.23970000000003</v>
-      </c>
-      <c r="G51" s="2">
+        <v>426.55110000000013</v>
+      </c>
+      <c r="H51" s="2">
         <f t="shared" si="4"/>
-        <v>1144.0298779274071</v>
+        <v>1002.2595586496516</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43675</v>
       </c>
@@ -7248,24 +8801,25 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2">
         <f t="shared" si="1"/>
-        <v>243.64999999999998</v>
-      </c>
-      <c r="E52" s="2">
+        <v>263.815</v>
+      </c>
+      <c r="F52" s="2">
         <f t="shared" si="2"/>
-        <v>479.33500000000004</v>
-      </c>
-      <c r="F52" s="2">
+        <v>454.10500000000002</v>
+      </c>
+      <c r="G52" s="2">
         <f t="shared" si="3"/>
-        <v>520.93499999999995</v>
-      </c>
-      <c r="G52" s="2">
+        <v>445.16000000000008</v>
+      </c>
+      <c r="H52" s="2">
         <f t="shared" si="4"/>
-        <v>1291.5680330165978</v>
+        <v>1128.4635414742174</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43676</v>
       </c>
@@ -7273,24 +8827,25 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2">
         <f t="shared" si="1"/>
-        <v>248.46299999999999</v>
-      </c>
-      <c r="E53" s="2">
+        <v>269.03130000000004</v>
+      </c>
+      <c r="F53" s="2">
         <f t="shared" si="2"/>
-        <v>501.59130000000005</v>
-      </c>
-      <c r="F53" s="2">
+        <v>474.79589999999996</v>
+      </c>
+      <c r="G53" s="2">
         <f t="shared" si="3"/>
-        <v>548.49090000000001</v>
-      </c>
-      <c r="G53" s="2">
+        <v>464.08590000000004</v>
+      </c>
+      <c r="H53" s="2">
         <f t="shared" si="4"/>
-        <v>1458.1332324401178</v>
+        <v>1270.5590617187329</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43677</v>
       </c>
@@ -7298,24 +8853,25 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2">
         <f t="shared" si="1"/>
-        <v>253.27599999999998</v>
-      </c>
-      <c r="E54" s="2">
+        <v>274.24760000000003</v>
+      </c>
+      <c r="F54" s="2">
         <f t="shared" si="2"/>
-        <v>524.34680000000003</v>
-      </c>
-      <c r="F54" s="2">
+        <v>495.94440000000003</v>
+      </c>
+      <c r="G54" s="2">
         <f t="shared" si="3"/>
-        <v>576.91879999999992</v>
-      </c>
-      <c r="G54" s="2">
+        <v>483.32400000000007</v>
+      </c>
+      <c r="H54" s="2">
         <f t="shared" si="4"/>
-        <v>1646.1792713933978</v>
+        <v>1430.5471732003418</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43678</v>
       </c>
@@ -7323,24 +8879,25 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2">
         <f t="shared" si="1"/>
-        <v>258.089</v>
-      </c>
-      <c r="E55" s="2">
+        <v>279.46390000000002</v>
+      </c>
+      <c r="F55" s="2">
         <f t="shared" si="2"/>
-        <v>547.60149999999999</v>
-      </c>
-      <c r="F55" s="2">
+        <v>517.55050000000006</v>
+      </c>
+      <c r="G55" s="2">
         <f t="shared" si="3"/>
-        <v>606.23010000000011</v>
-      </c>
-      <c r="G55" s="2">
+        <v>502.86950000000007</v>
+      </c>
+      <c r="H55" s="2">
         <f t="shared" si="4"/>
-        <v>1858.4763952128014</v>
+        <v>1610.6809013531074</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43679</v>
       </c>
@@ -7348,24 +8905,25 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2">
         <f t="shared" si="1"/>
-        <v>262.90199999999999</v>
-      </c>
-      <c r="E56" s="2">
+        <v>284.68020000000001</v>
+      </c>
+      <c r="F56" s="2">
         <f t="shared" si="2"/>
-        <v>571.35539999999992</v>
-      </c>
-      <c r="F56" s="2">
+        <v>539.61419999999998</v>
+      </c>
+      <c r="G56" s="2">
         <f t="shared" si="3"/>
-        <v>636.4362000000001</v>
-      </c>
-      <c r="G56" s="2">
+        <v>522.71760000000006</v>
+      </c>
+      <c r="H56" s="2">
         <f t="shared" si="4"/>
-        <v>2098.1521099093934</v>
+        <v>1813.4969713580631</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43680</v>
       </c>
@@ -7373,24 +8931,25 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2">
         <f t="shared" si="1"/>
-        <v>267.71499999999997</v>
-      </c>
-      <c r="E57" s="2">
+        <v>289.8965</v>
+      </c>
+      <c r="F57" s="2">
         <f t="shared" si="2"/>
-        <v>595.60849999999994</v>
-      </c>
-      <c r="F57" s="2">
+        <v>562.13549999999998</v>
+      </c>
+      <c r="G57" s="2">
         <f t="shared" si="3"/>
-        <v>667.54849999999999</v>
-      </c>
-      <c r="G57" s="2">
+        <v>542.86350000000004</v>
+      </c>
+      <c r="H57" s="2">
         <f t="shared" si="4"/>
-        <v>2368.7372557740609</v>
+        <v>2041.8515314622673</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43681</v>
       </c>
@@ -7398,34 +8957,35 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2">
         <f t="shared" si="1"/>
-        <v>272.52799999999996</v>
-      </c>
-      <c r="E58" s="2">
+        <v>295.11279999999999</v>
+      </c>
+      <c r="F58" s="2">
         <f t="shared" si="2"/>
-        <v>620.36079999999993</v>
-      </c>
-      <c r="F58" s="2">
+        <v>585.11439999999993</v>
+      </c>
+      <c r="G58" s="2">
         <f t="shared" si="3"/>
-        <v>699.5784000000001</v>
-      </c>
-      <c r="G58" s="2">
+        <v>563.30240000000015</v>
+      </c>
+      <c r="H58" s="2">
         <f t="shared" si="4"/>
-        <v>2674.2180227983254</v>
+        <v>2298.9603745589238</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:G1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>$C1*0.75</formula>
+  <conditionalFormatting sqref="E1:H1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>$C1*1.25</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>$C1*0.75</formula>
       <formula>$C1*1.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>$C1*1.25</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>$C1*0.75</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D761890-44E8-4438-8EA0-AF9E6026709C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1935073B-E73C-402B-B768-084905AEF88E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,6 +593,18 @@
                 </c:pt>
                 <c:pt idx="44" formatCode="General">
                   <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,6 +1378,18 @@
                 <c:pt idx="44" formatCode="General">
                   <c:v>315</c:v>
                 </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>386</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2138,6 +2162,18 @@
                 <c:pt idx="44" formatCode="General">
                   <c:v>315</c:v>
                 </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>386</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2908,6 +2944,18 @@
                 </c:pt>
                 <c:pt idx="44" formatCode="General">
                   <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3333,6 +3381,86 @@
             <c:trendlineType val="log"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.37881430446194225"/>
+                  <c:y val="-4.6180373286672502E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -7177,8 +7305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8666,8 +8794,13 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="C47">
+        <v>334</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="5"/>
+        <v>11.714285714285714</v>
+      </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
         <v>237.73350000000002</v>
@@ -8693,8 +8826,13 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="C48">
+        <v>331</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
         <v>242.94980000000001</v>
@@ -8720,8 +8858,13 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="C49">
+        <v>356</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="5"/>
+        <v>12.571428571428571</v>
+      </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
         <v>248.16610000000003</v>
@@ -8747,8 +8890,13 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="C50">
+        <v>386</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="5"/>
+        <v>14.142857142857142</v>
+      </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
         <v>253.38240000000002</v>
@@ -8775,7 +8923,10 @@
         <v>49</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2">
+        <f t="shared" si="5"/>
+        <v>-41.285714285714285</v>
+      </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
         <v>258.59870000000001</v>
@@ -8801,7 +8952,10 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2">
+        <f t="shared" si="5"/>
+        <v>-43</v>
+      </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
         <v>263.815</v>
@@ -8827,7 +8981,10 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2">
+        <f t="shared" si="5"/>
+        <v>-45</v>
+      </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
         <v>269.03130000000004</v>
@@ -8853,7 +9010,10 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2">
+        <f t="shared" si="5"/>
+        <v>-47.714285714285715</v>
+      </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
         <v>274.24760000000003</v>
@@ -8879,7 +9039,10 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2">
+        <f t="shared" si="5"/>
+        <v>-47.285714285714285</v>
+      </c>
       <c r="E55" s="2">
         <f t="shared" si="1"/>
         <v>279.46390000000002</v>
@@ -8905,7 +9068,10 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2">
+        <f t="shared" si="5"/>
+        <v>-50.857142857142854</v>
+      </c>
       <c r="E56" s="2">
         <f t="shared" si="1"/>
         <v>284.68020000000001</v>
@@ -8931,7 +9097,10 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2">
+        <f t="shared" si="5"/>
+        <v>-55.142857142857146</v>
+      </c>
       <c r="E57" s="2">
         <f t="shared" si="1"/>
         <v>289.8965</v>
@@ -8957,7 +9126,10 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="E58" s="2">
         <f t="shared" si="1"/>
         <v>295.11279999999999</v>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1935073B-E73C-402B-B768-084905AEF88E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD876A9-986E-4270-B10C-9937847584F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Days Since Release</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Poly-3</t>
-  </si>
-  <si>
-    <t>Exponential</t>
   </si>
   <si>
     <t>Date</t>
@@ -92,7 +89,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -293,10 +311,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$52</c:f>
+              <c:f>Sheet1!$B$2:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -449,16 +467,109 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$52</c:f>
+              <c:f>Sheet1!$C$2:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -605,6 +716,27 @@
                 </c:pt>
                 <c:pt idx="48" formatCode="General">
                   <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,10 +1209,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$52</c:f>
+              <c:f>Sheet1!$B$2:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1233,16 +1365,109 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$52</c:f>
+              <c:f>Sheet1!$C$2:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1389,6 +1614,27 @@
                 </c:pt>
                 <c:pt idx="48" formatCode="General">
                   <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,10 +2107,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$52</c:f>
+              <c:f>Sheet1!$B$2:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2017,16 +2263,109 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$52</c:f>
+              <c:f>Sheet1!$C$2:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2173,6 +2512,27 @@
                 </c:pt>
                 <c:pt idx="48" formatCode="General">
                   <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,789 +2873,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Exponential Estimation</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:intercept val="3"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.14743241469816273"/>
-                  <c:y val="0.14310185185185181"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$52</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$52</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>386</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2A69-4D00-BFB7-F384862BE8AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="681995608"/>
-        <c:axId val="681994296"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="681995608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Days</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Since Release</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="681994296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="681994296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Users</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="681995608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Average Growth</a:t>
             </a:r>
             <a:r>
@@ -3306,6 +2883,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16509711286089238"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3464,10 +3049,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$52</c:f>
+              <c:f>Sheet1!$B$2:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3620,16 +3205,109 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$46</c:f>
+              <c:f>Sheet1!$D$2:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0.42857142857142855</c:v>
                 </c:pt>
@@ -3764,6 +3442,39 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.428571428571427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4229,46 +3940,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5818,522 +5489,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6966,53 +6121,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E828278C-9F4E-4B3F-B127-F4E599352600}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7031,7 +6148,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7303,10 +6420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7322,7 +6439,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7331,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -7341,9 +6458,6 @@
       </c>
       <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -7361,21 +6475,18 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="E2" s="2">
-        <f>5.2163*B2+3</f>
+        <f>6.6304*B2+3</f>
         <v>3</v>
       </c>
       <c r="F2" s="2">
-        <f>0.2288*B2^2-2.4179*B2+3</f>
+        <f>0.1914*B2^2-1.3354*B2+3</f>
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <f>-0.0008*B2^3 +0.2785*B2^2 -3.0818*B2 + 3</f>
+        <f>-0.0018*B2^3 +0.3216*B2^2 -3.5021*B2 + 3</f>
         <v>3</v>
       </c>
-      <c r="H2" s="2">
-        <f>3*EXP(0.1186*B2)</f>
-        <v>3</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -7383,7 +6494,7 @@
         <v>43626</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B58" si="0">B2+1</f>
+        <f t="shared" ref="B3:B66" si="0">B2+1</f>
         <v>1</v>
       </c>
       <c r="C3" s="2">
@@ -7394,21 +6505,18 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E58" si="1">5.2163*B3+3</f>
-        <v>8.2163000000000004</v>
+        <f t="shared" ref="E3:E66" si="1">6.6304*B3+3</f>
+        <v>9.6303999999999998</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F58" si="2">0.2288*B3^2-2.4179*B3+3</f>
-        <v>0.81090000000000018</v>
+        <f t="shared" ref="F3:F66" si="2">0.1914*B3^2-1.3354*B3+3</f>
+        <v>1.8560000000000001</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G58" si="3">-0.0008*B3^3 +0.2785*B3^2 -3.0818*B3 + 3</f>
-        <v>0.19589999999999996</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H58" si="4">3*EXP(0.1186*B3)</f>
-        <v>3.3777583812558527</v>
-      </c>
+        <f t="shared" ref="G3:G66" si="3">-0.0018*B3^3 +0.3216*B3^2 -3.5021*B3 + 3</f>
+        <v>-0.18230000000000013</v>
+      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -7427,20 +6535,17 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>13.432600000000001</v>
+        <v>16.2608</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="2"/>
-        <v>-0.92059999999999986</v>
+        <v>1.0948000000000002</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="3"/>
-        <v>-2.0559999999999992</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="4"/>
-        <v>3.8030838940480534</v>
-      </c>
+        <v>-2.7321999999999997</v>
+      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -7459,20 +6564,17 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>18.648900000000001</v>
+        <v>22.891199999999998</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1944999999999997</v>
+        <v>0.71640000000000015</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="3"/>
-        <v>-3.7604999999999995</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="4"/>
-        <v>4.2819661659133192</v>
-      </c>
+        <v>-4.660499999999999</v>
+      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -7491,20 +6593,17 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>23.865200000000002</v>
+        <v>29.521599999999999</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="2"/>
-        <v>-3.0107999999999997</v>
+        <v>0.72080000000000011</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="3"/>
-        <v>-4.9223999999999988</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="4"/>
-        <v>4.8211490350559014</v>
-      </c>
+        <v>-5.9779999999999998</v>
+      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -7523,20 +6622,17 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>29.081500000000002</v>
+        <v>36.152000000000001</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="2"/>
-        <v>-3.3694999999999995</v>
+        <v>1.1079999999999997</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="3"/>
-        <v>-5.5464999999999982</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="4"/>
-        <v>5.4282255201478797</v>
-      </c>
+        <v>-6.6955000000000009</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -7555,20 +6651,17 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>34.297800000000002</v>
+        <v>42.782399999999996</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="2"/>
-        <v>-3.2706</v>
+        <v>1.8780000000000001</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="3"/>
-        <v>-5.6375999999999991</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="4"/>
-        <v>6.1117447486754708</v>
-      </c>
+        <v>-6.8237999999999985</v>
+      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -7587,20 +6680,17 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>39.514099999999999</v>
+        <v>49.412799999999997</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7141000000000002</v>
+        <v>3.0307999999999993</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="3"/>
-        <v>-5.2004999999999963</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="4"/>
-        <v>6.881332349645005</v>
-      </c>
+        <v>-6.3737000000000013</v>
+      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -7614,25 +6704,22 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D58" si="5">(C10-C3)/7</f>
+        <f t="shared" ref="D10:D73" si="4">(C10-C3)/7</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>44.730400000000003</v>
+        <v>56.043199999999999</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6999999999999993</v>
+        <v>4.5663999999999998</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="3"/>
-        <v>-4.2399999999999984</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="4"/>
-        <v>7.747826006073482</v>
-      </c>
+        <v>-5.3560000000000016</v>
+      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -7646,25 +6733,22 @@
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>49.946700000000007</v>
+        <v>62.6736</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="2"/>
-        <v>-0.22829999999999728</v>
+        <v>6.4847999999999999</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="3"/>
-        <v>-2.7608999999999995</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="4"/>
-        <v>8.7234280761755887</v>
-      </c>
+        <v>-3.7815000000000012</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -7678,25 +6762,22 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>55.163000000000004</v>
+        <v>69.304000000000002</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>1.7010000000000005</v>
+        <v>8.7859999999999978</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="3"/>
-        <v>-0.76799999999999713</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="4"/>
-        <v>9.8218774325282379</v>
-      </c>
+        <v>-1.6610000000000049</v>
+      </c>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -7710,25 +6791,22 @@
         <v>13</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>60.379300000000001</v>
+        <v>75.934399999999997</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>4.0879000000000012</v>
+        <v>11.469999999999999</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="3"/>
-        <v>1.7339000000000055</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="4"/>
-        <v>11.058642939129992</v>
-      </c>
+        <v>0.99470000000000169</v>
+      </c>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -7742,25 +6820,22 @@
         <v>15</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>65.595600000000005</v>
+        <v>82.564799999999991</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="2"/>
-        <v>6.9324000000000012</v>
+        <v>14.536799999999999</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="3"/>
-        <v>4.7400000000000091</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="4"/>
-        <v>12.451141290987398</v>
-      </c>
+        <v>4.1748000000000047</v>
+      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -7774,25 +6849,22 @@
         <v>18</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>70.811900000000009</v>
+        <v>89.1952</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="2"/>
-        <v>10.234500000000001</v>
+        <v>17.986399999999996</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="3"/>
-        <v>8.2455000000000069</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="4"/>
-        <v>14.018982283944499</v>
-      </c>
+        <v>7.8685000000000045</v>
+      </c>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -7806,25 +6878,22 @@
         <v>20</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.8571428571428572</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>76.028199999999998</v>
+        <v>95.825599999999994</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
-        <v>13.994199999999999</v>
+        <v>21.818799999999996</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="3"/>
-        <v>12.24560000000001</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="4"/>
-        <v>15.784244968756948</v>
-      </c>
+        <v>12.064999999999998</v>
+      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -7838,25 +6907,22 @@
         <v>18</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>81.244500000000002</v>
+        <v>102.456</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>18.211500000000008</v>
+        <v>26.033999999999999</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="3"/>
-        <v>16.735500000000009</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="4"/>
-        <v>17.771788578338104</v>
-      </c>
+        <v>16.753499999999995</v>
+      </c>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -7870,25 +6936,22 @@
         <v>23</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.8571428571428572</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>86.460800000000006</v>
+        <v>109.0864</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="2"/>
-        <v>22.886400000000002</v>
+        <v>30.631999999999998</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="3"/>
-        <v>21.710400000000014</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="4"/>
-        <v>20.009602606796189</v>
-      </c>
+        <v>21.923200000000001</v>
+      </c>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -7902,25 +6965,22 @@
         <v>27</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.4285714285714284</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>91.67710000000001</v>
+        <v>115.71679999999999</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>28.018899999999995</v>
+        <v>35.6128</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="3"/>
-        <v>27.165500000000002</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="4"/>
-        <v>22.529200970234932</v>
-      </c>
+        <v>27.563299999999991</v>
+      </c>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -7934,25 +6994,22 @@
         <v>27</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>96.893400000000014</v>
+        <v>122.3472</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="2"/>
-        <v>33.609000000000009</v>
+        <v>40.976399999999998</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="3"/>
-        <v>33.096000000000011</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="4"/>
-        <v>25.366065800069507</v>
-      </c>
+        <v>33.66299999999999</v>
+      </c>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -7966,25 +7023,22 @@
         <v>31</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.2857142857142856</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>102.1097</v>
+        <v>128.9776</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="2"/>
-        <v>39.656700000000001</v>
+        <v>46.722799999999999</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="3"/>
-        <v>39.497100000000017</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="4"/>
-        <v>28.560147118557417</v>
-      </c>
+        <v>40.211500000000001</v>
+      </c>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -7998,25 +7052,22 @@
         <v>34</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.2857142857142856</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>107.32600000000001</v>
+        <v>135.608</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="2"/>
-        <v>46.161999999999999</v>
+        <v>52.85199999999999</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="3"/>
-        <v>46.364000000000004</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="4"/>
-        <v>32.1564254332025</v>
-      </c>
+        <v>47.197999999999979</v>
+      </c>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -8030,25 +7081,22 @@
         <v>43</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2857142857142856</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>112.54230000000001</v>
+        <v>142.23839999999998</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="2"/>
-        <v>53.124900000000004</v>
+        <v>59.363999999999997</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="3"/>
-        <v>53.691900000000018</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="4"/>
-        <v>36.205545172742873</v>
-      </c>
+        <v>54.611700000000013</v>
+      </c>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -8062,25 +7110,22 @@
         <v>44</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.7142857142857144</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>117.7586</v>
+        <v>148.86879999999999</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="2"/>
-        <v>60.545400000000001</v>
+        <v>66.258799999999994</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="3"/>
-        <v>61.476000000000013</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="4"/>
-        <v>40.764527885056538</v>
-      </c>
+        <v>62.441800000000001</v>
+      </c>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -8094,25 +7139,22 @@
         <v>47</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.4285714285714284</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>122.97490000000001</v>
+        <v>155.4992</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="2"/>
-        <v>68.423500000000004</v>
+        <v>73.536399999999986</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="3"/>
-        <v>69.711500000000015</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="4"/>
-        <v>45.897575240562546</v>
-      </c>
+        <v>70.677499999999995</v>
+      </c>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -8126,25 +7168,22 @@
         <v>47</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>128.19120000000001</v>
+        <v>162.12959999999998</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="2"/>
-        <v>76.759200000000007</v>
+        <v>81.196799999999996</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="3"/>
-        <v>78.393600000000021</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="4"/>
-        <v>51.676973149377098</v>
-      </c>
+        <v>79.308000000000021</v>
+      </c>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -8158,25 +7197,22 @@
         <v>57</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.2857142857142856</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
-        <v>133.4075</v>
+        <v>168.76</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="2"/>
-        <v>85.552500000000009</v>
+        <v>89.239999999999981</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="3"/>
-        <v>87.517500000000027</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="4"/>
-        <v>58.184109724414043</v>
-      </c>
+        <v>88.322500000000005</v>
+      </c>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -8190,25 +7226,22 @@
         <v>63</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.5714285714285712</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>138.62380000000002</v>
+        <v>175.3904</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="2"/>
-        <v>94.803400000000011</v>
+        <v>97.665999999999983</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="3"/>
-        <v>97.078400000000016</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="4"/>
-        <v>65.510621425849905</v>
-      </c>
+        <v>97.710200000000015</v>
+      </c>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -8222,25 +7255,22 @@
         <v>66</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.5714285714285712</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>143.84010000000001</v>
+        <v>182.02080000000001</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="2"/>
-        <v>104.5119</v>
+        <v>106.47479999999999</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="3"/>
-        <v>107.07150000000004</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="4"/>
-        <v>73.759683527481258</v>
-      </c>
+        <v>107.46029999999999</v>
+      </c>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -8254,25 +7284,22 @@
         <v>72</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.1428571428571432</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
-        <v>149.0564</v>
+        <v>188.65119999999999</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="2"/>
-        <v>114.678</v>
+        <v>115.66639999999998</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="3"/>
-        <v>117.49200000000003</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="4"/>
-        <v>83.047463077909683</v>
-      </c>
+        <v>117.562</v>
+      </c>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -8286,25 +7313,22 @@
         <v>127</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11.857142857142858</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
-        <v>154.27270000000001</v>
+        <v>195.2816</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="2"/>
-        <v>125.30170000000001</v>
+        <v>125.24080000000001</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="3"/>
-        <v>128.33510000000004</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="4"/>
-        <v>93.504754817815154</v>
-      </c>
+        <v>128.00450000000001</v>
+      </c>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -8318,25 +7342,22 @@
         <v>183</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19.428571428571427</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
-        <v>159.489</v>
+        <v>201.91200000000001</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="2"/>
-        <v>136.38300000000004</v>
+        <v>135.19799999999998</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="3"/>
-        <v>139.59600000000006</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="4"/>
-        <v>105.27882309104956</v>
-      </c>
+        <v>138.77699999999999</v>
+      </c>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -8350,25 +7371,22 @@
         <v>195</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21.142857142857142</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
-        <v>164.70530000000002</v>
+        <v>208.54239999999999</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="2"/>
-        <v>147.92189999999999</v>
+        <v>145.53799999999998</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="3"/>
-        <v>151.26990000000004</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="4"/>
-        <v>118.53547568818166</v>
-      </c>
+        <v>149.86869999999999</v>
+      </c>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -8382,25 +7400,22 @@
         <v>191</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19.142857142857142</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
-        <v>169.92160000000001</v>
+        <v>215.1728</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="2"/>
-        <v>159.91840000000002</v>
+        <v>156.26079999999999</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="3"/>
-        <v>163.35200000000003</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="4"/>
-        <v>133.46139882730162</v>
-      </c>
+        <v>161.2688</v>
+      </c>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -8414,25 +7429,22 @@
         <v>211</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21.142857142857142</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
-        <v>175.1379</v>
+        <v>221.8032</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="2"/>
-        <v>172.3725</v>
+        <v>167.3664</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="3"/>
-        <v>175.83750000000006</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="4"/>
-        <v>150.26678615434935</v>
-      </c>
+        <v>172.9665</v>
+      </c>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -8446,25 +7458,22 @@
         <v>206</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
-        <v>180.35420000000002</v>
+        <v>228.43359999999998</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="2"/>
-        <v>185.2842</v>
+        <v>178.85480000000001</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="3"/>
-        <v>188.72160000000002</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="4"/>
-        <v>169.18829878574485</v>
-      </c>
+        <v>184.95099999999996</v>
+      </c>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -8478,25 +7487,22 @@
         <v>219</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
-        <v>185.57050000000001</v>
+        <v>235.06399999999999</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="2"/>
-        <v>198.65350000000004</v>
+        <v>190.72599999999997</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="3"/>
-        <v>201.99950000000001</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="4"/>
-        <v>190.49239807798966</v>
-      </c>
+        <v>197.21149999999997</v>
+      </c>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -8510,25 +7516,22 @@
         <v>227</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.285714285714286</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
-        <v>190.78680000000003</v>
+        <v>241.6944</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="2"/>
-        <v>212.48040000000003</v>
+        <v>202.98</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="3"/>
-        <v>215.66640000000007</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="4"/>
-        <v>214.47909805781862</v>
-      </c>
+        <v>209.73719999999997</v>
+      </c>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -8542,25 +7545,22 @@
         <v>238</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.8571428571428568</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
-        <v>196.00310000000002</v>
+        <v>248.32479999999998</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="2"/>
-        <v>226.76489999999998</v>
+        <v>215.61679999999998</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="3"/>
-        <v>229.7175</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="4"/>
-        <v>241.48619035633106</v>
-      </c>
+        <v>222.51730000000003</v>
+      </c>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -8574,25 +7574,22 @@
         <v>252</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.1428571428571423</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
-        <v>201.21940000000001</v>
+        <v>254.95519999999999</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="2"/>
-        <v>241.50700000000001</v>
+        <v>228.63639999999998</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="3"/>
-        <v>244.14800000000005</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="4"/>
-        <v>271.89400114454781</v>
-      </c>
+        <v>235.54100000000003</v>
+      </c>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -8606,25 +7603,22 @@
         <v>261</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
-        <v>206.43570000000003</v>
+        <v>261.5856</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="2"/>
-        <v>256.70670000000001</v>
+        <v>242.03879999999998</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="3"/>
-        <v>258.95310000000006</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" si="4"/>
-        <v>306.13074705972821</v>
-      </c>
+        <v>248.79749999999999</v>
+      </c>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -8638,25 +7632,22 @@
         <v>268</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.1428571428571423</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
-        <v>211.65200000000002</v>
+        <v>268.21600000000001</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="2"/>
-        <v>272.36399999999998</v>
+        <v>255.82399999999996</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="3"/>
-        <v>274.12800000000004</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="4"/>
-        <v>344.67856554703746</v>
-      </c>
+        <v>262.27599999999995</v>
+      </c>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -8670,25 +7661,22 @@
         <v>287</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11.571428571428571</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
-        <v>216.8683</v>
+        <v>274.84640000000002</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="2"/>
-        <v>288.47890000000001</v>
+        <v>269.99199999999996</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="3"/>
-        <v>289.66790000000009</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" si="4"/>
-        <v>388.08030453858345</v>
-      </c>
+        <v>275.96570000000003</v>
+      </c>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -8702,25 +7690,22 @@
         <v>289</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
-        <v>222.08460000000002</v>
+        <v>281.47679999999997</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="2"/>
-        <v>305.0514</v>
+        <v>284.5428</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="3"/>
-        <v>305.5680000000001</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="4"/>
-        <v>436.94716708517501</v>
-      </c>
+        <v>289.85580000000004</v>
+      </c>
+      <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -8734,25 +7719,22 @@
         <v>301</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10.571428571428571</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
-        <v>227.30090000000001</v>
+        <v>288.10719999999998</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="2"/>
-        <v>322.08150000000001</v>
+        <v>299.47640000000001</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="3"/>
-        <v>321.82350000000008</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" si="4"/>
-        <v>491.96731859598367</v>
-      </c>
+        <v>303.93550000000005</v>
+      </c>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -8766,25 +7748,22 @@
         <v>315</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
-        <v>232.5172</v>
+        <v>294.73759999999999</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" si="2"/>
-        <v>339.56920000000002</v>
+        <v>314.79279999999994</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="3"/>
-        <v>338.42960000000005</v>
-      </c>
-      <c r="H46" s="2">
-        <f t="shared" si="4"/>
-        <v>553.91557789718399</v>
-      </c>
+        <v>318.19400000000007</v>
+      </c>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -8798,25 +7777,22 @@
         <v>334</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11.714285714285714</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
-        <v>237.73350000000002</v>
+        <v>301.36799999999999</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="2"/>
-        <v>357.5145</v>
+        <v>330.49199999999996</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="3"/>
-        <v>355.38150000000013</v>
-      </c>
-      <c r="H47" s="2">
-        <f t="shared" si="4"/>
-        <v>623.66432858346411</v>
-      </c>
+        <v>332.62049999999999</v>
+      </c>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -8830,25 +7806,22 @@
         <v>331</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
-        <v>242.94980000000001</v>
+        <v>307.9984</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" si="2"/>
-        <v>375.91740000000004</v>
+        <v>346.57399999999996</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="3"/>
-        <v>372.67439999999999</v>
-      </c>
-      <c r="H48" s="2">
-        <f t="shared" si="4"/>
-        <v>702.19580432103317</v>
-      </c>
+        <v>347.20420000000001</v>
+      </c>
+      <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -8862,25 +7835,22 @@
         <v>356</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12.571428571428571</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
-        <v>248.16610000000003</v>
+        <v>314.62880000000001</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="2"/>
-        <v>394.77789999999999</v>
+        <v>363.03879999999998</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="3"/>
-        <v>390.30349999999999</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" si="4"/>
-        <v>790.61592110935555</v>
-      </c>
+        <v>361.93430000000001</v>
+      </c>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -8894,25 +7864,22 @@
         <v>386</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.142857142857142</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
-        <v>253.38240000000002</v>
+        <v>321.25919999999996</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="2"/>
-        <v>414.096</v>
+        <v>379.88639999999998</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="3"/>
-        <v>408.26400000000007</v>
-      </c>
-      <c r="H50" s="2">
-        <f t="shared" si="4"/>
-        <v>890.16985129381374</v>
-      </c>
+        <v>376.8</v>
+      </c>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -8922,27 +7889,26 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51">
+        <v>385</v>
+      </c>
       <c r="D51" s="2">
-        <f t="shared" si="5"/>
-        <v>-41.285714285714285</v>
+        <f t="shared" si="4"/>
+        <v>13.714285714285714</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
-        <v>258.59870000000001</v>
+        <v>327.88959999999997</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="2"/>
-        <v>433.87169999999998</v>
+        <v>397.11679999999996</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="3"/>
-        <v>426.55110000000013</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="4"/>
-        <v>1002.2595586496516</v>
-      </c>
+        <v>391.79050000000007</v>
+      </c>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
@@ -8952,26 +7918,26 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
+      <c r="C52">
+        <v>398</v>
+      </c>
       <c r="D52" s="2">
-        <f t="shared" si="5"/>
-        <v>-43</v>
+        <f t="shared" si="4"/>
+        <v>13.857142857142858</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
-        <v>263.815</v>
+        <v>334.52</v>
       </c>
       <c r="F52" s="2">
         <f t="shared" si="2"/>
-        <v>454.10500000000002</v>
+        <v>414.72999999999996</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" si="3"/>
-        <v>445.16000000000008</v>
-      </c>
-      <c r="H52" s="2">
-        <f t="shared" si="4"/>
-        <v>1128.4635414742174</v>
-      </c>
+        <v>406.89499999999998</v>
+      </c>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -8981,26 +7947,26 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
+      <c r="C53">
+        <v>414</v>
+      </c>
       <c r="D53" s="2">
-        <f t="shared" si="5"/>
-        <v>-45</v>
+        <f t="shared" si="4"/>
+        <v>14.142857142857142</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
-        <v>269.03130000000004</v>
+        <v>341.15039999999999</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" si="2"/>
-        <v>474.79589999999996</v>
+        <v>432.726</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="3"/>
-        <v>464.08590000000004</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="4"/>
-        <v>1270.5590617187329</v>
-      </c>
+        <v>422.10269999999997</v>
+      </c>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -9010,26 +7976,26 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
+      <c r="C54">
+        <v>423</v>
+      </c>
       <c r="D54" s="2">
-        <f t="shared" si="5"/>
-        <v>-47.714285714285715</v>
+        <f t="shared" si="4"/>
+        <v>12.714285714285714</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
-        <v>274.24760000000003</v>
+        <v>347.7808</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" si="2"/>
-        <v>495.94440000000003</v>
+        <v>451.10479999999995</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="3"/>
-        <v>483.32400000000007</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" si="4"/>
-        <v>1430.5471732003418</v>
-      </c>
+        <v>437.40280000000007</v>
+      </c>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
@@ -9039,26 +8005,26 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
+      <c r="C55">
+        <v>453</v>
+      </c>
       <c r="D55" s="2">
-        <f t="shared" si="5"/>
-        <v>-47.285714285714285</v>
+        <f t="shared" si="4"/>
+        <v>17.428571428571427</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="1"/>
-        <v>279.46390000000002</v>
+        <v>354.41120000000001</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="2"/>
-        <v>517.55050000000006</v>
+        <v>469.8664</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="3"/>
-        <v>502.86950000000007</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="4"/>
-        <v>1610.6809013531074</v>
-      </c>
+        <v>452.78449999999998</v>
+      </c>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -9068,26 +8034,26 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
+      <c r="C56">
+        <v>484</v>
+      </c>
       <c r="D56" s="2">
-        <f t="shared" si="5"/>
-        <v>-50.857142857142854</v>
+        <f t="shared" si="4"/>
+        <v>18.285714285714285</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="1"/>
-        <v>284.68020000000001</v>
+        <v>361.04160000000002</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" si="2"/>
-        <v>539.61419999999998</v>
+        <v>489.01079999999996</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="3"/>
-        <v>522.71760000000006</v>
-      </c>
-      <c r="H56" s="2">
-        <f t="shared" si="4"/>
-        <v>1813.4969713580631</v>
-      </c>
+        <v>468.23700000000002</v>
+      </c>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -9097,26 +8063,26 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
+      <c r="C57">
+        <v>522</v>
+      </c>
       <c r="D57" s="2">
-        <f t="shared" si="5"/>
-        <v>-55.142857142857146</v>
+        <f t="shared" si="4"/>
+        <v>19.428571428571427</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="1"/>
-        <v>289.8965</v>
+        <v>367.67199999999997</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" si="2"/>
-        <v>562.13549999999998</v>
+        <v>508.53800000000001</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" si="3"/>
-        <v>542.86350000000004</v>
-      </c>
-      <c r="H57" s="2">
-        <f t="shared" si="4"/>
-        <v>2041.8515314622673</v>
-      </c>
+        <v>483.74950000000001</v>
+      </c>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -9126,37 +8092,1285 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D58" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="2">
         <f t="shared" si="1"/>
-        <v>295.11279999999999</v>
+        <v>374.30239999999998</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" si="2"/>
-        <v>585.11439999999993</v>
+        <v>528.44799999999987</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" si="3"/>
-        <v>563.30240000000015</v>
-      </c>
-      <c r="H58" s="2">
-        <f t="shared" si="4"/>
-        <v>2298.9603745589238</v>
+        <v>499.31119999999999</v>
+      </c>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43682</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2">
+        <f t="shared" si="1"/>
+        <v>380.93279999999999</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="2"/>
+        <v>548.74079999999992</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="3"/>
+        <v>514.9113000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43683</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2">
+        <f t="shared" si="1"/>
+        <v>387.56319999999999</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="2"/>
+        <v>569.41639999999995</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="3"/>
+        <v>530.53899999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43684</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
+        <f t="shared" si="1"/>
+        <v>394.1936</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="2"/>
+        <v>590.47479999999996</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="3"/>
+        <v>546.18349999999987</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43685</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2">
+        <f t="shared" si="1"/>
+        <v>400.82400000000001</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="2"/>
+        <v>611.91599999999994</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="3"/>
+        <v>561.83400000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43686</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2">
+        <f t="shared" si="1"/>
+        <v>407.45439999999996</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="2"/>
+        <v>633.74</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="3"/>
+        <v>577.47970000000009</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43687</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2">
+        <f t="shared" si="1"/>
+        <v>414.08479999999997</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="2"/>
+        <v>655.94679999999994</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="3"/>
+        <v>593.10979999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43688</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2">
+        <f t="shared" si="1"/>
+        <v>420.71519999999998</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="2"/>
+        <v>678.53639999999996</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="3"/>
+        <v>608.71350000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43689</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2">
+        <f t="shared" si="1"/>
+        <v>427.34559999999999</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="2"/>
+        <v>701.50879999999995</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="3"/>
+        <v>624.28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43690</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" ref="B67:B115" si="5">B66+1</f>
+        <v>65</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2">
+        <f t="shared" ref="E67:E115" si="6">6.6304*B67+3</f>
+        <v>433.976</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" ref="F67:F115" si="7">0.1914*B67^2-1.3354*B67+3</f>
+        <v>724.86400000000003</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" ref="G67:G115" si="8">-0.0018*B67^3 +0.3216*B67^2 -3.5021*B67 + 3</f>
+        <v>639.79849999999988</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43691</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2">
+        <f t="shared" si="6"/>
+        <v>440.60640000000001</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="7"/>
+        <v>748.60199999999998</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="8"/>
+        <v>655.25819999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43692</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2">
+        <f t="shared" si="6"/>
+        <v>447.23680000000002</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="7"/>
+        <v>772.72279999999989</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="8"/>
+        <v>670.64829999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43693</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2">
+        <f t="shared" si="6"/>
+        <v>453.86719999999997</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="7"/>
+        <v>797.22640000000001</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="8"/>
+        <v>685.95799999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43694</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2">
+        <f t="shared" si="6"/>
+        <v>460.49759999999998</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="7"/>
+        <v>822.11279999999988</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="8"/>
+        <v>701.17650000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2">
+        <f t="shared" si="6"/>
+        <v>467.12799999999999</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="7"/>
+        <v>847.38199999999995</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="8"/>
+        <v>716.29299999999989</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2">
+        <f t="shared" si="6"/>
+        <v>473.75839999999999</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="7"/>
+        <v>873.03399999999988</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="8"/>
+        <v>731.2967000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43697</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2">
+        <f t="shared" si="6"/>
+        <v>480.3888</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="7"/>
+        <v>899.06880000000001</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="8"/>
+        <v>746.17679999999984</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2">
+        <f t="shared" si="6"/>
+        <v>487.01920000000001</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="7"/>
+        <v>925.48639999999989</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="8"/>
+        <v>760.9224999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43699</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2">
+        <f t="shared" si="6"/>
+        <v>493.64959999999996</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="7"/>
+        <v>952.28679999999986</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="8"/>
+        <v>775.52300000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>43700</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2">
+        <f t="shared" si="6"/>
+        <v>500.28</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="7"/>
+        <v>979.47</v>
+      </c>
+      <c r="G77" s="2">
+        <f t="shared" si="8"/>
+        <v>789.96749999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43701</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2">
+        <f t="shared" si="6"/>
+        <v>506.91039999999998</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="7"/>
+        <v>1007.0359999999999</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" si="8"/>
+        <v>804.24520000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>43702</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2">
+        <f t="shared" si="6"/>
+        <v>513.54079999999999</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="7"/>
+        <v>1034.9848</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="8"/>
+        <v>818.34530000000007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>43703</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2">
+        <f t="shared" si="6"/>
+        <v>520.1712</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="7"/>
+        <v>1063.3163999999999</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="8"/>
+        <v>832.25699999999983</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>43704</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2">
+        <f t="shared" si="6"/>
+        <v>526.80160000000001</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="7"/>
+        <v>1092.0308</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="8"/>
+        <v>845.96949999999993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>43705</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2">
+        <f t="shared" si="6"/>
+        <v>533.43200000000002</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="7"/>
+        <v>1121.1279999999997</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="8"/>
+        <v>859.47199999999987</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>43706</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2">
+        <f t="shared" si="6"/>
+        <v>540.06240000000003</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="7"/>
+        <v>1150.6079999999999</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="8"/>
+        <v>872.75369999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>43707</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2">
+        <f t="shared" si="6"/>
+        <v>546.69280000000003</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="7"/>
+        <v>1180.4707999999998</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="8"/>
+        <v>885.80380000000014</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2">
+        <f t="shared" si="6"/>
+        <v>553.32320000000004</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="7"/>
+        <v>1210.7164</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="8"/>
+        <v>898.61149999999986</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2">
+        <f t="shared" si="6"/>
+        <v>559.95359999999994</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="7"/>
+        <v>1241.3447999999999</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="8"/>
+        <v>911.16600000000017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>43710</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2">
+        <f t="shared" si="6"/>
+        <v>566.58399999999995</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="7"/>
+        <v>1272.356</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="8"/>
+        <v>923.45650000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>43711</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2">
+        <f t="shared" si="6"/>
+        <v>573.21439999999996</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="7"/>
+        <v>1303.75</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="8"/>
+        <v>935.47220000000027</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>43712</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2">
+        <f t="shared" si="6"/>
+        <v>579.84479999999996</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="7"/>
+        <v>1335.5268000000001</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="8"/>
+        <v>947.20229999999992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>43713</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2">
+        <f t="shared" si="6"/>
+        <v>586.47519999999997</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="7"/>
+        <v>1367.6863999999998</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="8"/>
+        <v>958.63600000000019</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>43714</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2">
+        <f t="shared" si="6"/>
+        <v>593.10559999999998</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="7"/>
+        <v>1400.2287999999999</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="8"/>
+        <v>969.76250000000005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>43715</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2">
+        <f t="shared" si="6"/>
+        <v>599.73599999999999</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="7"/>
+        <v>1433.154</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" si="8"/>
+        <v>980.57099999999991</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>43716</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2">
+        <f t="shared" si="6"/>
+        <v>606.3664</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="7"/>
+        <v>1466.4619999999998</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="8"/>
+        <v>991.05070000000023</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>43717</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2">
+        <f t="shared" si="6"/>
+        <v>612.99680000000001</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="7"/>
+        <v>1500.1527999999998</v>
+      </c>
+      <c r="G94" s="2">
+        <f t="shared" si="8"/>
+        <v>1001.1907999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>43718</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2">
+        <f t="shared" si="6"/>
+        <v>619.62720000000002</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="7"/>
+        <v>1534.2264</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="8"/>
+        <v>1010.9805</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>43719</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2">
+        <f t="shared" si="6"/>
+        <v>626.25760000000002</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="7"/>
+        <v>1568.6828</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" si="8"/>
+        <v>1020.4090000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>43720</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2">
+        <f t="shared" si="6"/>
+        <v>632.88800000000003</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="7"/>
+        <v>1603.5219999999999</v>
+      </c>
+      <c r="G97" s="2">
+        <f t="shared" si="8"/>
+        <v>1029.4655000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>43721</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2">
+        <f t="shared" si="6"/>
+        <v>639.51839999999993</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="7"/>
+        <v>1638.7439999999999</v>
+      </c>
+      <c r="G98" s="2">
+        <f t="shared" si="8"/>
+        <v>1038.1392000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>43722</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2">
+        <f t="shared" si="6"/>
+        <v>646.14879999999994</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="7"/>
+        <v>1674.3488</v>
+      </c>
+      <c r="G99" s="2">
+        <f t="shared" si="8"/>
+        <v>1046.4193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>43723</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2">
+        <f t="shared" si="6"/>
+        <v>652.77919999999995</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="7"/>
+        <v>1710.3363999999997</v>
+      </c>
+      <c r="G100" s="2">
+        <f t="shared" si="8"/>
+        <v>1054.2950000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>43724</v>
+      </c>
+      <c r="B101" s="2">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2">
+        <f t="shared" si="6"/>
+        <v>659.40959999999995</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="7"/>
+        <v>1746.7067999999999</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="8"/>
+        <v>1061.7555000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43725</v>
+      </c>
+      <c r="B102" s="2">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2">
+        <f t="shared" si="6"/>
+        <v>666.04</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="7"/>
+        <v>1783.4599999999998</v>
+      </c>
+      <c r="G102" s="2">
+        <f t="shared" si="8"/>
+        <v>1068.79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43726</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2">
+        <f t="shared" si="6"/>
+        <v>672.67039999999997</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="7"/>
+        <v>1820.596</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" si="8"/>
+        <v>1075.3877</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>43727</v>
+      </c>
+      <c r="B104" s="2">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2">
+        <f t="shared" si="6"/>
+        <v>679.30079999999998</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="7"/>
+        <v>1858.1147999999998</v>
+      </c>
+      <c r="G104" s="2">
+        <f t="shared" si="8"/>
+        <v>1081.5378000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>43728</v>
+      </c>
+      <c r="B105" s="2">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2">
+        <f t="shared" si="6"/>
+        <v>685.93119999999999</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="7"/>
+        <v>1896.0163999999997</v>
+      </c>
+      <c r="G105" s="2">
+        <f t="shared" si="8"/>
+        <v>1087.2295000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B106" s="2">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2">
+        <f t="shared" si="6"/>
+        <v>692.5616</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="7"/>
+        <v>1934.3007999999998</v>
+      </c>
+      <c r="G106" s="2">
+        <f t="shared" si="8"/>
+        <v>1092.4520000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>43730</v>
+      </c>
+      <c r="B107" s="2">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2">
+        <f t="shared" si="6"/>
+        <v>699.19200000000001</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="7"/>
+        <v>1972.9679999999998</v>
+      </c>
+      <c r="G107" s="2">
+        <f t="shared" si="8"/>
+        <v>1097.1945000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>43731</v>
+      </c>
+      <c r="B108" s="2">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2">
+        <f t="shared" si="6"/>
+        <v>705.82240000000002</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="7"/>
+        <v>2012.018</v>
+      </c>
+      <c r="G108" s="2">
+        <f t="shared" si="8"/>
+        <v>1101.4462000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>43732</v>
+      </c>
+      <c r="B109" s="2">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2">
+        <f t="shared" si="6"/>
+        <v>712.45280000000002</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="7"/>
+        <v>2051.4508000000001</v>
+      </c>
+      <c r="G109" s="2">
+        <f t="shared" si="8"/>
+        <v>1105.1962999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>43733</v>
+      </c>
+      <c r="B110" s="2">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2">
+        <f t="shared" si="6"/>
+        <v>719.08320000000003</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="7"/>
+        <v>2091.2664</v>
+      </c>
+      <c r="G110" s="2">
+        <f t="shared" si="8"/>
+        <v>1108.4340000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>43734</v>
+      </c>
+      <c r="B111" s="2">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2">
+        <f t="shared" si="6"/>
+        <v>725.71359999999993</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="7"/>
+        <v>2131.4648000000002</v>
+      </c>
+      <c r="G111" s="2">
+        <f t="shared" si="8"/>
+        <v>1111.1484999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>43735</v>
+      </c>
+      <c r="B112" s="2">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2">
+        <f t="shared" si="6"/>
+        <v>732.34399999999994</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="7"/>
+        <v>2172.0460000000003</v>
+      </c>
+      <c r="G112" s="2">
+        <f t="shared" si="8"/>
+        <v>1113.3290000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B113" s="2">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2">
+        <f t="shared" si="6"/>
+        <v>738.97439999999995</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="7"/>
+        <v>2213.0099999999998</v>
+      </c>
+      <c r="G113" s="2">
+        <f t="shared" si="8"/>
+        <v>1114.9647</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B114" s="2">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2">
+        <f t="shared" si="6"/>
+        <v>745.60479999999995</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" si="7"/>
+        <v>2254.3567999999996</v>
+      </c>
+      <c r="G114" s="2">
+        <f t="shared" si="8"/>
+        <v>1116.0448000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B115" s="2">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2">
+        <f t="shared" si="6"/>
+        <v>752.23519999999996</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="7"/>
+        <v>2296.0863999999997</v>
+      </c>
+      <c r="G115" s="2">
+        <f t="shared" si="8"/>
+        <v>1116.5585000000003</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:H1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="E1:G1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>$C1*1.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
       <formula>$C1*0.75</formula>
       <formula>$C1*1.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>$C1*0.75</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD876A9-986E-4270-B10C-9937847584F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62978B7-3A4D-4144-AAAE-5CEBCFEE5E06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,28 +89,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -737,6 +716,15 @@
                 </c:pt>
                 <c:pt idx="55" formatCode="General">
                   <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1636,6 +1624,15 @@
                 <c:pt idx="55" formatCode="General">
                   <c:v>522</c:v>
                 </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>592</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2533,6 +2530,15 @@
                 </c:pt>
                 <c:pt idx="55" formatCode="General">
                   <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3476,6 +3482,15 @@
                 <c:pt idx="55">
                   <c:v>19.428571428571427</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.428571428571427</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6423,7 +6438,7 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8092,7 +8107,13 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="C58">
+        <v>546</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
       <c r="E58" s="2">
         <f t="shared" si="1"/>
         <v>374.30239999999998</v>
@@ -8115,7 +8136,13 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="C59">
+        <v>573</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
       <c r="E59" s="2">
         <f t="shared" si="1"/>
         <v>380.93279999999999</v>
@@ -8137,7 +8164,13 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="C60">
+        <v>592</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="4"/>
+        <v>25.428571428571427</v>
+      </c>
       <c r="E60" s="2">
         <f t="shared" si="1"/>
         <v>387.56319999999999</v>
@@ -9363,14 +9396,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:G1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>$C1*1.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>$C1*0.75</formula>
       <formula>$C1*1.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>$C1*0.75</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62978B7-3A4D-4144-AAAE-5CEBCFEE5E06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6804322C-F87E-4F35-8077-DBDE31388D2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,7 +724,19 @@
                   <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="General">
-                  <c:v>592</c:v>
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,7 +1643,19 @@
                   <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="General">
-                  <c:v>592</c:v>
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2538,7 +2562,19 @@
                   <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="General">
-                  <c:v>592</c:v>
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3014,7 +3050,7 @@
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:intercept val="0"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -3315,7 +3351,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="82"/>
                 <c:pt idx="0">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.14285714285714285</c:v>
@@ -3489,7 +3525,19 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>25.428571428571427</c:v>
+                  <c:v>25.571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>29.571428571428573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6438,7 +6486,7 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6487,18 +6535,18 @@
         <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>0.42857142857142855</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f>6.6304*B2+3</f>
+        <f>7.8126*B2+3</f>
         <v>3</v>
       </c>
       <c r="F2" s="2">
-        <f>0.1914*B2^2-1.3354*B2+3</f>
+        <f>0.2073*B2^2-1.9062*B2+3</f>
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <f>-0.0018*B2^3 +0.3216*B2^2 -3.5021*B2 + 3</f>
+        <f>0.0003*B2^3+0.1854*B2^2-1.4945*B2+3</f>
         <v>3</v>
       </c>
       <c r="H2" s="2"/>
@@ -6520,16 +6568,16 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E66" si="1">6.6304*B3+3</f>
-        <v>9.6303999999999998</v>
+        <f t="shared" ref="E3:E66" si="1">7.8126*B3+3</f>
+        <v>10.8126</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="2">0.1914*B3^2-1.3354*B3+3</f>
-        <v>1.8560000000000001</v>
+        <f t="shared" ref="F3:F66" si="2">0.2073*B3^2-1.9062*B3+3</f>
+        <v>1.3011000000000001</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="3">-0.0018*B3^3 +0.3216*B3^2 -3.5021*B3 + 3</f>
-        <v>-0.18230000000000013</v>
+        <f t="shared" ref="G3:G66" si="3">0.0003*B3^3+0.1854*B3^2-1.4945*B3+3</f>
+        <v>1.6912</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -6550,15 +6598,15 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>16.2608</v>
+        <v>18.6252</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="2"/>
-        <v>1.0948000000000002</v>
+        <v>1.680000000000037E-2</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="3"/>
-        <v>-2.7321999999999997</v>
+        <v>0.75499999999999989</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -6579,15 +6627,15 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>22.891199999999998</v>
+        <v>26.437799999999999</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="2"/>
-        <v>0.71640000000000015</v>
+        <v>-0.8528999999999991</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="3"/>
-        <v>-4.660499999999999</v>
+        <v>0.19320000000000093</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -6608,15 +6656,15 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>29.521599999999999</v>
+        <v>34.250399999999999</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="2"/>
-        <v>0.72080000000000011</v>
+        <v>-1.3079999999999998</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="3"/>
-        <v>-5.9779999999999998</v>
+        <v>7.6000000000004952E-3</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -6637,15 +6685,15 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>36.152000000000001</v>
+        <v>42.063000000000002</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="2"/>
-        <v>1.1079999999999997</v>
+        <v>-1.3484999999999987</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="3"/>
-        <v>-6.6955000000000009</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -6666,15 +6714,15 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>42.782399999999996</v>
+        <v>49.875599999999999</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="2"/>
-        <v>1.8780000000000001</v>
+        <v>-0.97439999999999838</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="3"/>
-        <v>-6.8237999999999985</v>
+        <v>0.77220000000000155</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -6695,15 +6743,15 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>49.412799999999997</v>
+        <v>57.688199999999995</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="2"/>
-        <v>3.0307999999999993</v>
+        <v>-0.18569999999999887</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="3"/>
-        <v>-6.3737000000000013</v>
+        <v>1.7260000000000009</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -6719,20 +6767,20 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D73" si="4">(C10-C3)/7</f>
+        <f t="shared" ref="D10:D64" si="4">(C10-C3)/7</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>56.043199999999999</v>
+        <v>65.500799999999998</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="2"/>
-        <v>4.5663999999999998</v>
+        <v>1.0176000000000016</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="3"/>
-        <v>-5.3560000000000016</v>
+        <v>3.0632000000000019</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -6753,15 +6801,15 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>62.6736</v>
+        <v>73.313400000000001</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="2"/>
-        <v>6.4847999999999999</v>
+        <v>2.6355000000000004</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="3"/>
-        <v>-3.7815000000000012</v>
+        <v>4.7856000000000005</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -6782,15 +6830,15 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>69.304000000000002</v>
+        <v>81.126000000000005</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>8.7859999999999978</v>
+        <v>4.6680000000000028</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="3"/>
-        <v>-1.6610000000000049</v>
+        <v>6.8949999999999996</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -6811,15 +6859,15 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>75.934399999999997</v>
+        <v>88.938599999999994</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>11.469999999999999</v>
+        <v>7.1151000000000018</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="3"/>
-        <v>0.99470000000000169</v>
+        <v>9.3932000000000038</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -6840,15 +6888,15 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>82.564799999999991</v>
+        <v>96.751199999999997</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="2"/>
-        <v>14.536799999999999</v>
+        <v>9.9768000000000043</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="3"/>
-        <v>4.1748000000000047</v>
+        <v>12.282000000000004</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -6869,15 +6917,15 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>89.1952</v>
+        <v>104.5638</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="2"/>
-        <v>17.986399999999996</v>
+        <v>13.253100000000003</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="3"/>
-        <v>7.8685000000000045</v>
+        <v>15.563200000000002</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -6898,15 +6946,15 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>95.825599999999994</v>
+        <v>112.37639999999999</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
-        <v>21.818799999999996</v>
+        <v>16.944000000000003</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="3"/>
-        <v>12.064999999999998</v>
+        <v>19.238600000000002</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -6927,15 +6975,15 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>102.456</v>
+        <v>120.18899999999999</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>26.033999999999999</v>
+        <v>21.049500000000005</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="3"/>
-        <v>16.753499999999995</v>
+        <v>23.310000000000006</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -6956,15 +7004,15 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>109.0864</v>
+        <v>128.0016</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="2"/>
-        <v>30.631999999999998</v>
+        <v>25.569600000000005</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="3"/>
-        <v>21.923200000000001</v>
+        <v>27.779200000000003</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -6985,15 +7033,15 @@
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>115.71679999999999</v>
+        <v>135.8142</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>35.6128</v>
+        <v>30.504300000000001</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="3"/>
-        <v>27.563299999999991</v>
+        <v>32.64800000000001</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -7014,15 +7062,15 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>122.3472</v>
+        <v>143.6268</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="2"/>
-        <v>40.976399999999998</v>
+        <v>35.8536</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="3"/>
-        <v>33.66299999999999</v>
+        <v>37.918199999999999</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -7043,15 +7091,15 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>128.9776</v>
+        <v>151.43940000000001</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="2"/>
-        <v>46.722799999999999</v>
+        <v>41.617500000000007</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="3"/>
-        <v>40.211500000000001</v>
+        <v>43.5916</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -7072,15 +7120,15 @@
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>135.608</v>
+        <v>159.25200000000001</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="2"/>
-        <v>52.85199999999999</v>
+        <v>47.796000000000006</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="3"/>
-        <v>47.197999999999979</v>
+        <v>49.67</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -7101,15 +7149,15 @@
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>142.23839999999998</v>
+        <v>167.06459999999998</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="2"/>
-        <v>59.363999999999997</v>
+        <v>54.389100000000006</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="3"/>
-        <v>54.611700000000013</v>
+        <v>56.155200000000008</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -7130,15 +7178,15 @@
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>148.86879999999999</v>
+        <v>174.87719999999999</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="2"/>
-        <v>66.258799999999994</v>
+        <v>61.396800000000006</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="3"/>
-        <v>62.441800000000001</v>
+        <v>63.049000000000014</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -7159,15 +7207,15 @@
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>155.4992</v>
+        <v>182.68979999999999</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="2"/>
-        <v>73.536399999999986</v>
+        <v>68.81910000000002</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="3"/>
-        <v>70.677499999999995</v>
+        <v>70.353199999999987</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -7188,15 +7236,15 @@
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>162.12959999999998</v>
+        <v>190.50239999999999</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="2"/>
-        <v>81.196799999999996</v>
+        <v>76.656000000000006</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="3"/>
-        <v>79.308000000000021</v>
+        <v>78.069600000000008</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -7217,15 +7265,15 @@
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
-        <v>168.76</v>
+        <v>198.315</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="2"/>
-        <v>89.239999999999981</v>
+        <v>84.907499999999999</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="3"/>
-        <v>88.322500000000005</v>
+        <v>86.2</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -7246,15 +7294,15 @@
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>175.3904</v>
+        <v>206.1276</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="2"/>
-        <v>97.665999999999983</v>
+        <v>93.573600000000013</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="3"/>
-        <v>97.710200000000015</v>
+        <v>94.746200000000016</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -7275,15 +7323,15 @@
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>182.02080000000001</v>
+        <v>213.9402</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="2"/>
-        <v>106.47479999999999</v>
+        <v>102.65430000000001</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="3"/>
-        <v>107.46029999999999</v>
+        <v>103.71</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -7304,15 +7352,15 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
-        <v>188.65119999999999</v>
+        <v>221.75279999999998</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="2"/>
-        <v>115.66639999999998</v>
+        <v>112.14960000000001</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="3"/>
-        <v>117.562</v>
+        <v>113.0932</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -7333,15 +7381,15 @@
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
-        <v>195.2816</v>
+        <v>229.56539999999998</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="2"/>
-        <v>125.24080000000001</v>
+        <v>122.05950000000001</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="3"/>
-        <v>128.00450000000001</v>
+        <v>122.89760000000001</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -7362,15 +7410,15 @@
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
-        <v>201.91200000000001</v>
+        <v>237.37799999999999</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="2"/>
-        <v>135.19799999999998</v>
+        <v>132.38400000000001</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="3"/>
-        <v>138.77699999999999</v>
+        <v>133.125</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -7391,15 +7439,15 @@
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
-        <v>208.54239999999999</v>
+        <v>245.19059999999999</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="2"/>
-        <v>145.53799999999998</v>
+        <v>143.12310000000002</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="3"/>
-        <v>149.86869999999999</v>
+        <v>143.77719999999999</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -7420,15 +7468,15 @@
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
-        <v>215.1728</v>
+        <v>253.00319999999999</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="2"/>
-        <v>156.26079999999999</v>
+        <v>154.27680000000001</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="3"/>
-        <v>161.2688</v>
+        <v>154.85599999999999</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -7449,15 +7497,15 @@
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
-        <v>221.8032</v>
+        <v>260.81579999999997</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="2"/>
-        <v>167.3664</v>
+        <v>165.84510000000003</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="3"/>
-        <v>172.9665</v>
+        <v>166.36320000000001</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -7478,15 +7526,15 @@
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
-        <v>228.43359999999998</v>
+        <v>268.6284</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="2"/>
-        <v>178.85480000000001</v>
+        <v>177.828</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="3"/>
-        <v>184.95099999999996</v>
+        <v>178.30060000000003</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -7507,15 +7555,15 @@
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
-        <v>235.06399999999999</v>
+        <v>276.44099999999997</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="2"/>
-        <v>190.72599999999997</v>
+        <v>190.22550000000001</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="3"/>
-        <v>197.21149999999997</v>
+        <v>190.67000000000002</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -7536,15 +7584,15 @@
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
-        <v>241.6944</v>
+        <v>284.25360000000001</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="2"/>
-        <v>202.98</v>
+        <v>203.0376</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="3"/>
-        <v>209.73719999999997</v>
+        <v>203.47320000000002</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -7565,15 +7613,15 @@
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
-        <v>248.32479999999998</v>
+        <v>292.06619999999998</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="2"/>
-        <v>215.61679999999998</v>
+        <v>216.26429999999999</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="3"/>
-        <v>222.51730000000003</v>
+        <v>216.71200000000005</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -7594,15 +7642,15 @@
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
-        <v>254.95519999999999</v>
+        <v>299.87880000000001</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="2"/>
-        <v>228.63639999999998</v>
+        <v>229.90560000000002</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="3"/>
-        <v>235.54100000000003</v>
+        <v>230.38819999999998</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -7623,15 +7671,15 @@
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
-        <v>261.5856</v>
+        <v>307.69139999999999</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="2"/>
-        <v>242.03879999999998</v>
+        <v>243.96150000000006</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="3"/>
-        <v>248.79749999999999</v>
+        <v>244.50360000000001</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -7652,15 +7700,15 @@
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
-        <v>268.21600000000001</v>
+        <v>315.50400000000002</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="2"/>
-        <v>255.82399999999996</v>
+        <v>258.43200000000002</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="3"/>
-        <v>262.27599999999995</v>
+        <v>259.05999999999995</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -7681,15 +7729,15 @@
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
-        <v>274.84640000000002</v>
+        <v>323.31659999999999</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="2"/>
-        <v>269.99199999999996</v>
+        <v>273.31710000000004</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="3"/>
-        <v>275.96570000000003</v>
+        <v>274.05920000000003</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -7710,15 +7758,15 @@
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
-        <v>281.47679999999997</v>
+        <v>331.12919999999997</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="2"/>
-        <v>284.5428</v>
+        <v>288.61680000000001</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="3"/>
-        <v>289.85580000000004</v>
+        <v>289.50300000000004</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -7739,15 +7787,15 @@
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
-        <v>288.10719999999998</v>
+        <v>338.9418</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="2"/>
-        <v>299.47640000000001</v>
+        <v>304.33109999999999</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="3"/>
-        <v>303.93550000000005</v>
+        <v>305.39319999999998</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -7768,15 +7816,15 @@
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
-        <v>294.73759999999999</v>
+        <v>346.75439999999998</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" si="2"/>
-        <v>314.79279999999994</v>
+        <v>320.46000000000004</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="3"/>
-        <v>318.19400000000007</v>
+        <v>321.73160000000007</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -7797,15 +7845,15 @@
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
-        <v>301.36799999999999</v>
+        <v>354.56700000000001</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="2"/>
-        <v>330.49199999999996</v>
+        <v>337.00350000000003</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="3"/>
-        <v>332.62049999999999</v>
+        <v>338.52</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -7826,15 +7874,15 @@
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
-        <v>307.9984</v>
+        <v>362.37959999999998</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" si="2"/>
-        <v>346.57399999999996</v>
+        <v>353.96160000000003</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="3"/>
-        <v>347.20420000000001</v>
+        <v>355.7602</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -7855,15 +7903,15 @@
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
-        <v>314.62880000000001</v>
+        <v>370.19220000000001</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="2"/>
-        <v>363.03879999999998</v>
+        <v>371.33429999999998</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="3"/>
-        <v>361.93430000000001</v>
+        <v>373.45400000000006</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -7884,15 +7932,15 @@
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
-        <v>321.25919999999996</v>
+        <v>378.00479999999999</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="2"/>
-        <v>379.88639999999998</v>
+        <v>389.12160000000006</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="3"/>
-        <v>376.8</v>
+        <v>391.60320000000002</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -7913,15 +7961,15 @@
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
-        <v>327.88959999999997</v>
+        <v>385.81739999999996</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="2"/>
-        <v>397.11679999999996</v>
+        <v>407.32350000000002</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="3"/>
-        <v>391.79050000000007</v>
+        <v>410.20959999999997</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -7942,15 +7990,15 @@
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
-        <v>334.52</v>
+        <v>393.63</v>
       </c>
       <c r="F52" s="2">
         <f t="shared" si="2"/>
-        <v>414.72999999999996</v>
+        <v>425.94</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" si="3"/>
-        <v>406.89499999999998</v>
+        <v>429.27499999999998</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -7971,15 +8019,15 @@
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
-        <v>341.15039999999999</v>
+        <v>401.44259999999997</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" si="2"/>
-        <v>432.726</v>
+        <v>444.97110000000004</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="3"/>
-        <v>422.10269999999997</v>
+        <v>448.80120000000005</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -8000,15 +8048,15 @@
       </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
-        <v>347.7808</v>
+        <v>409.2552</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" si="2"/>
-        <v>451.10479999999995</v>
+        <v>464.41680000000008</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="3"/>
-        <v>437.40280000000007</v>
+        <v>468.79</v>
       </c>
       <c r="H54" s="2"/>
     </row>
@@ -8029,15 +8077,15 @@
       </c>
       <c r="E55" s="2">
         <f t="shared" si="1"/>
-        <v>354.41120000000001</v>
+        <v>417.06779999999998</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="2"/>
-        <v>469.8664</v>
+        <v>484.27710000000002</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="3"/>
-        <v>452.78449999999998</v>
+        <v>489.24319999999994</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -8058,15 +8106,15 @@
       </c>
       <c r="E56" s="2">
         <f t="shared" si="1"/>
-        <v>361.04160000000002</v>
+        <v>424.88040000000001</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" si="2"/>
-        <v>489.01079999999996</v>
+        <v>504.55200000000002</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="3"/>
-        <v>468.23700000000002</v>
+        <v>510.1626</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -8087,15 +8135,15 @@
       </c>
       <c r="E57" s="2">
         <f t="shared" si="1"/>
-        <v>367.67199999999997</v>
+        <v>432.69299999999998</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" si="2"/>
-        <v>508.53800000000001</v>
+        <v>525.24149999999997</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" si="3"/>
-        <v>483.74950000000001</v>
+        <v>531.55000000000007</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -8116,15 +8164,15 @@
       </c>
       <c r="E58" s="2">
         <f t="shared" si="1"/>
-        <v>374.30239999999998</v>
+        <v>440.50559999999996</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" si="2"/>
-        <v>528.44799999999987</v>
+        <v>546.34559999999999</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" si="3"/>
-        <v>499.31119999999999</v>
+        <v>553.40719999999999</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -8145,15 +8193,15 @@
       </c>
       <c r="E59" s="2">
         <f t="shared" si="1"/>
-        <v>380.93279999999999</v>
+        <v>448.31819999999999</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" si="2"/>
-        <v>548.74079999999992</v>
+        <v>567.86429999999996</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" si="3"/>
-        <v>514.9113000000001</v>
+        <v>575.73599999999999</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -8165,23 +8213,23 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="4"/>
-        <v>25.428571428571427</v>
+        <v>25.571428571428573</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" si="1"/>
-        <v>387.56319999999999</v>
+        <v>456.13079999999997</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="2"/>
-        <v>569.41639999999995</v>
+        <v>589.7976000000001</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="3"/>
-        <v>530.53899999999999</v>
+        <v>598.53819999999996</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -8192,18 +8240,24 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="C61">
+        <v>604</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="4"/>
+        <v>25.857142857142858</v>
+      </c>
       <c r="E61" s="2">
         <f t="shared" si="1"/>
-        <v>394.1936</v>
+        <v>463.9434</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="2"/>
-        <v>590.47479999999996</v>
+        <v>612.14550000000008</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="3"/>
-        <v>546.18349999999987</v>
+        <v>621.81560000000013</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -8214,18 +8268,24 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="C62">
+        <v>647</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="4"/>
+        <v>27.714285714285715</v>
+      </c>
       <c r="E62" s="2">
         <f t="shared" si="1"/>
-        <v>400.82400000000001</v>
+        <v>471.75599999999997</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" si="2"/>
-        <v>611.91599999999994</v>
+        <v>634.90800000000013</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" si="3"/>
-        <v>561.83400000000006</v>
+        <v>645.57000000000005</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -8236,18 +8296,24 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="C63">
+        <v>687</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
       <c r="E63" s="2">
         <f t="shared" si="1"/>
-        <v>407.45439999999996</v>
+        <v>479.5686</v>
       </c>
       <c r="F63" s="2">
         <f t="shared" si="2"/>
-        <v>633.74</v>
+        <v>658.08510000000012</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" si="3"/>
-        <v>577.47970000000009</v>
+        <v>669.80320000000006</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -8258,18 +8324,24 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="C64">
+        <v>729</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="4"/>
+        <v>29.571428571428573</v>
+      </c>
       <c r="E64" s="2">
         <f t="shared" si="1"/>
-        <v>414.08479999999997</v>
+        <v>487.38119999999998</v>
       </c>
       <c r="F64" s="2">
         <f t="shared" si="2"/>
-        <v>655.94679999999994</v>
+        <v>681.67680000000007</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" si="3"/>
-        <v>593.10979999999995</v>
+        <v>694.51699999999994</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -8283,15 +8355,15 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2">
         <f t="shared" si="1"/>
-        <v>420.71519999999998</v>
+        <v>495.19380000000001</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" si="2"/>
-        <v>678.53639999999996</v>
+        <v>705.68310000000008</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" si="3"/>
-        <v>608.71350000000007</v>
+        <v>719.71320000000003</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -8305,15 +8377,15 @@
       <c r="D66" s="2"/>
       <c r="E66" s="2">
         <f t="shared" si="1"/>
-        <v>427.34559999999999</v>
+        <v>503.00639999999999</v>
       </c>
       <c r="F66" s="2">
         <f t="shared" si="2"/>
-        <v>701.50879999999995</v>
+        <v>730.10400000000004</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" si="3"/>
-        <v>624.28</v>
+        <v>745.39359999999999</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -8326,16 +8398,16 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E115" si="6">6.6304*B67+3</f>
-        <v>433.976</v>
+        <f t="shared" ref="E67:E115" si="6">7.8126*B67+3</f>
+        <v>510.81899999999996</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F115" si="7">0.1914*B67^2-1.3354*B67+3</f>
-        <v>724.86400000000003</v>
+        <f t="shared" ref="F67:F115" si="7">0.2073*B67^2-1.9062*B67+3</f>
+        <v>754.93950000000007</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G115" si="8">-0.0018*B67^3 +0.3216*B67^2 -3.5021*B67 + 3</f>
-        <v>639.79849999999988</v>
+        <f t="shared" ref="G67:G115" si="8">0.0003*B67^3+0.1854*B67^2-1.4945*B67+3</f>
+        <v>771.56000000000006</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -8349,15 +8421,15 @@
       <c r="D68" s="2"/>
       <c r="E68" s="2">
         <f t="shared" si="6"/>
-        <v>440.60640000000001</v>
+        <v>518.63159999999993</v>
       </c>
       <c r="F68" s="2">
         <f t="shared" si="7"/>
-        <v>748.60199999999998</v>
+        <v>780.18960000000004</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" si="8"/>
-        <v>655.25819999999999</v>
+        <v>798.21419999999989</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -8371,15 +8443,15 @@
       <c r="D69" s="2"/>
       <c r="E69" s="2">
         <f t="shared" si="6"/>
-        <v>447.23680000000002</v>
+        <v>526.44420000000002</v>
       </c>
       <c r="F69" s="2">
         <f t="shared" si="7"/>
-        <v>772.72279999999989</v>
+        <v>805.85429999999997</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" si="8"/>
-        <v>670.64829999999995</v>
+        <v>825.35800000000006</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -8393,15 +8465,15 @@
       <c r="D70" s="2"/>
       <c r="E70" s="2">
         <f t="shared" si="6"/>
-        <v>453.86719999999997</v>
+        <v>534.2568</v>
       </c>
       <c r="F70" s="2">
         <f t="shared" si="7"/>
-        <v>797.22640000000001</v>
+        <v>831.93360000000007</v>
       </c>
       <c r="G70" s="2">
         <f t="shared" si="8"/>
-        <v>685.95799999999997</v>
+        <v>852.99320000000012</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -8415,15 +8487,15 @@
       <c r="D71" s="2"/>
       <c r="E71" s="2">
         <f t="shared" si="6"/>
-        <v>460.49759999999998</v>
+        <v>542.06939999999997</v>
       </c>
       <c r="F71" s="2">
         <f t="shared" si="7"/>
-        <v>822.11279999999988</v>
+        <v>858.42750000000012</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" si="8"/>
-        <v>701.17650000000003</v>
+        <v>881.12160000000006</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -8437,15 +8509,15 @@
       <c r="D72" s="2"/>
       <c r="E72" s="2">
         <f t="shared" si="6"/>
-        <v>467.12799999999999</v>
+        <v>549.88199999999995</v>
       </c>
       <c r="F72" s="2">
         <f t="shared" si="7"/>
-        <v>847.38199999999995</v>
+        <v>885.33600000000013</v>
       </c>
       <c r="G72" s="2">
         <f t="shared" si="8"/>
-        <v>716.29299999999989</v>
+        <v>909.745</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -8459,15 +8531,15 @@
       <c r="D73" s="2"/>
       <c r="E73" s="2">
         <f t="shared" si="6"/>
-        <v>473.75839999999999</v>
+        <v>557.69460000000004</v>
       </c>
       <c r="F73" s="2">
         <f t="shared" si="7"/>
-        <v>873.03399999999988</v>
+        <v>912.65909999999997</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" si="8"/>
-        <v>731.2967000000001</v>
+        <v>938.86519999999996</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -8481,15 +8553,15 @@
       <c r="D74" s="2"/>
       <c r="E74" s="2">
         <f t="shared" si="6"/>
-        <v>480.3888</v>
+        <v>565.50720000000001</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" si="7"/>
-        <v>899.06880000000001</v>
+        <v>940.39679999999998</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" si="8"/>
-        <v>746.17679999999984</v>
+        <v>968.48399999999992</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -8503,15 +8575,15 @@
       <c r="D75" s="2"/>
       <c r="E75" s="2">
         <f t="shared" si="6"/>
-        <v>487.01920000000001</v>
+        <v>573.31979999999999</v>
       </c>
       <c r="F75" s="2">
         <f t="shared" si="7"/>
-        <v>925.48639999999989</v>
+        <v>968.54910000000007</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" si="8"/>
-        <v>760.9224999999999</v>
+        <v>998.60320000000002</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -8525,15 +8597,15 @@
       <c r="D76" s="2"/>
       <c r="E76" s="2">
         <f t="shared" si="6"/>
-        <v>493.64959999999996</v>
+        <v>581.13239999999996</v>
       </c>
       <c r="F76" s="2">
         <f t="shared" si="7"/>
-        <v>952.28679999999986</v>
+        <v>997.11599999999999</v>
       </c>
       <c r="G76" s="2">
         <f t="shared" si="8"/>
-        <v>775.52300000000002</v>
+        <v>1029.2246</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -8547,15 +8619,15 @@
       <c r="D77" s="2"/>
       <c r="E77" s="2">
         <f t="shared" si="6"/>
-        <v>500.28</v>
+        <v>588.94499999999994</v>
       </c>
       <c r="F77" s="2">
         <f t="shared" si="7"/>
-        <v>979.47</v>
+        <v>1026.0974999999999</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" si="8"/>
-        <v>789.96749999999997</v>
+        <v>1060.3499999999999</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -8569,15 +8641,15 @@
       <c r="D78" s="2"/>
       <c r="E78" s="2">
         <f t="shared" si="6"/>
-        <v>506.91039999999998</v>
+        <v>596.75760000000002</v>
       </c>
       <c r="F78" s="2">
         <f t="shared" si="7"/>
-        <v>1007.0359999999999</v>
+        <v>1055.4936</v>
       </c>
       <c r="G78" s="2">
         <f t="shared" si="8"/>
-        <v>804.24520000000007</v>
+        <v>1091.9812000000002</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -8591,15 +8663,15 @@
       <c r="D79" s="2"/>
       <c r="E79" s="2">
         <f t="shared" si="6"/>
-        <v>513.54079999999999</v>
+        <v>604.5702</v>
       </c>
       <c r="F79" s="2">
         <f t="shared" si="7"/>
-        <v>1034.9848</v>
+        <v>1085.3043000000002</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" si="8"/>
-        <v>818.34530000000007</v>
+        <v>1124.1200000000001</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -8613,15 +8685,15 @@
       <c r="D80" s="2"/>
       <c r="E80" s="2">
         <f t="shared" si="6"/>
-        <v>520.1712</v>
+        <v>612.38279999999997</v>
       </c>
       <c r="F80" s="2">
         <f t="shared" si="7"/>
-        <v>1063.3163999999999</v>
+        <v>1115.5296000000001</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" si="8"/>
-        <v>832.25699999999983</v>
+        <v>1156.7682000000002</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -8635,15 +8707,15 @@
       <c r="D81" s="2"/>
       <c r="E81" s="2">
         <f t="shared" si="6"/>
-        <v>526.80160000000001</v>
+        <v>620.19539999999995</v>
       </c>
       <c r="F81" s="2">
         <f t="shared" si="7"/>
-        <v>1092.0308</v>
+        <v>1146.1695000000002</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" si="8"/>
-        <v>845.96949999999993</v>
+        <v>1189.9276000000002</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -8657,15 +8729,15 @@
       <c r="D82" s="2"/>
       <c r="E82" s="2">
         <f t="shared" si="6"/>
-        <v>533.43200000000002</v>
+        <v>628.00800000000004</v>
       </c>
       <c r="F82" s="2">
         <f t="shared" si="7"/>
-        <v>1121.1279999999997</v>
+        <v>1177.2240000000002</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" si="8"/>
-        <v>859.47199999999987</v>
+        <v>1223.5999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -8679,15 +8751,15 @@
       <c r="D83" s="2"/>
       <c r="E83" s="2">
         <f t="shared" si="6"/>
-        <v>540.06240000000003</v>
+        <v>635.82060000000001</v>
       </c>
       <c r="F83" s="2">
         <f t="shared" si="7"/>
-        <v>1150.6079999999999</v>
+        <v>1208.6931000000002</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" si="8"/>
-        <v>872.75369999999998</v>
+        <v>1257.7872</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -8701,15 +8773,15 @@
       <c r="D84" s="2"/>
       <c r="E84" s="2">
         <f t="shared" si="6"/>
-        <v>546.69280000000003</v>
+        <v>643.63319999999999</v>
       </c>
       <c r="F84" s="2">
         <f t="shared" si="7"/>
-        <v>1180.4707999999998</v>
+        <v>1240.5768000000003</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" si="8"/>
-        <v>885.80380000000014</v>
+        <v>1292.491</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -8723,15 +8795,15 @@
       <c r="D85" s="2"/>
       <c r="E85" s="2">
         <f t="shared" si="6"/>
-        <v>553.32320000000004</v>
+        <v>651.44579999999996</v>
       </c>
       <c r="F85" s="2">
         <f t="shared" si="7"/>
-        <v>1210.7164</v>
+        <v>1272.8751</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" si="8"/>
-        <v>898.61149999999986</v>
+        <v>1327.7132000000001</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -8745,15 +8817,15 @@
       <c r="D86" s="2"/>
       <c r="E86" s="2">
         <f t="shared" si="6"/>
-        <v>559.95359999999994</v>
+        <v>659.25839999999994</v>
       </c>
       <c r="F86" s="2">
         <f t="shared" si="7"/>
-        <v>1241.3447999999999</v>
+        <v>1305.5880000000002</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" si="8"/>
-        <v>911.16600000000017</v>
+        <v>1363.4556000000002</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -8767,15 +8839,15 @@
       <c r="D87" s="2"/>
       <c r="E87" s="2">
         <f t="shared" si="6"/>
-        <v>566.58399999999995</v>
+        <v>667.07100000000003</v>
       </c>
       <c r="F87" s="2">
         <f t="shared" si="7"/>
-        <v>1272.356</v>
+        <v>1338.7155</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" si="8"/>
-        <v>923.45650000000001</v>
+        <v>1399.72</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -8789,15 +8861,15 @@
       <c r="D88" s="2"/>
       <c r="E88" s="2">
         <f t="shared" si="6"/>
-        <v>573.21439999999996</v>
+        <v>674.8836</v>
       </c>
       <c r="F88" s="2">
         <f t="shared" si="7"/>
-        <v>1303.75</v>
+        <v>1372.2576000000001</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" si="8"/>
-        <v>935.47220000000027</v>
+        <v>1436.5082</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -8811,15 +8883,15 @@
       <c r="D89" s="2"/>
       <c r="E89" s="2">
         <f t="shared" si="6"/>
-        <v>579.84479999999996</v>
+        <v>682.69619999999998</v>
       </c>
       <c r="F89" s="2">
         <f t="shared" si="7"/>
-        <v>1335.5268000000001</v>
+        <v>1406.2143000000001</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" si="8"/>
-        <v>947.20229999999992</v>
+        <v>1473.8219999999999</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -8833,15 +8905,15 @@
       <c r="D90" s="2"/>
       <c r="E90" s="2">
         <f t="shared" si="6"/>
-        <v>586.47519999999997</v>
+        <v>690.50879999999995</v>
       </c>
       <c r="F90" s="2">
         <f t="shared" si="7"/>
-        <v>1367.6863999999998</v>
+        <v>1440.5856000000001</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" si="8"/>
-        <v>958.63600000000019</v>
+        <v>1511.6632</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -8855,15 +8927,15 @@
       <c r="D91" s="2"/>
       <c r="E91" s="2">
         <f t="shared" si="6"/>
-        <v>593.10559999999998</v>
+        <v>698.32139999999993</v>
       </c>
       <c r="F91" s="2">
         <f t="shared" si="7"/>
-        <v>1400.2287999999999</v>
+        <v>1475.3715000000002</v>
       </c>
       <c r="G91" s="2">
         <f t="shared" si="8"/>
-        <v>969.76250000000005</v>
+        <v>1550.0336</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -8877,15 +8949,15 @@
       <c r="D92" s="2"/>
       <c r="E92" s="2">
         <f t="shared" si="6"/>
-        <v>599.73599999999999</v>
+        <v>706.13400000000001</v>
       </c>
       <c r="F92" s="2">
         <f t="shared" si="7"/>
-        <v>1433.154</v>
+        <v>1510.5720000000001</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" si="8"/>
-        <v>980.57099999999991</v>
+        <v>1588.9349999999999</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -8899,15 +8971,15 @@
       <c r="D93" s="2"/>
       <c r="E93" s="2">
         <f t="shared" si="6"/>
-        <v>606.3664</v>
+        <v>713.94659999999999</v>
       </c>
       <c r="F93" s="2">
         <f t="shared" si="7"/>
-        <v>1466.4619999999998</v>
+        <v>1546.1871000000001</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" si="8"/>
-        <v>991.05070000000023</v>
+        <v>1628.3692000000003</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -8921,15 +8993,15 @@
       <c r="D94" s="2"/>
       <c r="E94" s="2">
         <f t="shared" si="6"/>
-        <v>612.99680000000001</v>
+        <v>721.75919999999996</v>
       </c>
       <c r="F94" s="2">
         <f t="shared" si="7"/>
-        <v>1500.1527999999998</v>
+        <v>1582.2168000000001</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" si="8"/>
-        <v>1001.1907999999999</v>
+        <v>1668.338</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -8943,15 +9015,15 @@
       <c r="D95" s="2"/>
       <c r="E95" s="2">
         <f t="shared" si="6"/>
-        <v>619.62720000000002</v>
+        <v>729.57179999999994</v>
       </c>
       <c r="F95" s="2">
         <f t="shared" si="7"/>
-        <v>1534.2264</v>
+        <v>1618.6611000000003</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" si="8"/>
-        <v>1010.9805</v>
+        <v>1708.8432000000003</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -8965,15 +9037,15 @@
       <c r="D96" s="2"/>
       <c r="E96" s="2">
         <f t="shared" si="6"/>
-        <v>626.25760000000002</v>
+        <v>737.38440000000003</v>
       </c>
       <c r="F96" s="2">
         <f t="shared" si="7"/>
-        <v>1568.6828</v>
+        <v>1655.52</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" si="8"/>
-        <v>1020.4090000000001</v>
+        <v>1749.8866</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -8987,15 +9059,15 @@
       <c r="D97" s="2"/>
       <c r="E97" s="2">
         <f t="shared" si="6"/>
-        <v>632.88800000000003</v>
+        <v>745.197</v>
       </c>
       <c r="F97" s="2">
         <f t="shared" si="7"/>
-        <v>1603.5219999999999</v>
+        <v>1692.7935000000002</v>
       </c>
       <c r="G97" s="2">
         <f t="shared" si="8"/>
-        <v>1029.4655000000002</v>
+        <v>1791.4700000000003</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -9009,15 +9081,15 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2">
         <f t="shared" si="6"/>
-        <v>639.51839999999993</v>
+        <v>753.00959999999998</v>
       </c>
       <c r="F98" s="2">
         <f t="shared" si="7"/>
-        <v>1638.7439999999999</v>
+        <v>1730.4816000000001</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" si="8"/>
-        <v>1038.1392000000001</v>
+        <v>1833.5952</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -9031,15 +9103,15 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2">
         <f t="shared" si="6"/>
-        <v>646.14879999999994</v>
+        <v>760.82219999999995</v>
       </c>
       <c r="F99" s="2">
         <f t="shared" si="7"/>
-        <v>1674.3488</v>
+        <v>1768.5843000000002</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" si="8"/>
-        <v>1046.4193</v>
+        <v>1876.2640000000001</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -9053,15 +9125,15 @@
       <c r="D100" s="2"/>
       <c r="E100" s="2">
         <f t="shared" si="6"/>
-        <v>652.77919999999995</v>
+        <v>768.63479999999993</v>
       </c>
       <c r="F100" s="2">
         <f t="shared" si="7"/>
-        <v>1710.3363999999997</v>
+        <v>1807.1016</v>
       </c>
       <c r="G100" s="2">
         <f t="shared" si="8"/>
-        <v>1054.2950000000001</v>
+        <v>1919.4781999999998</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -9075,15 +9147,15 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2">
         <f t="shared" si="6"/>
-        <v>659.40959999999995</v>
+        <v>776.44740000000002</v>
       </c>
       <c r="F101" s="2">
         <f t="shared" si="7"/>
-        <v>1746.7067999999999</v>
+        <v>1846.0335000000002</v>
       </c>
       <c r="G101" s="2">
         <f t="shared" si="8"/>
-        <v>1061.7555000000002</v>
+        <v>1963.2395999999999</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -9097,15 +9169,15 @@
       <c r="D102" s="2"/>
       <c r="E102" s="2">
         <f t="shared" si="6"/>
-        <v>666.04</v>
+        <v>784.26</v>
       </c>
       <c r="F102" s="2">
         <f t="shared" si="7"/>
-        <v>1783.4599999999998</v>
+        <v>1885.38</v>
       </c>
       <c r="G102" s="2">
         <f t="shared" si="8"/>
-        <v>1068.79</v>
+        <v>2007.55</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -9119,15 +9191,15 @@
       <c r="D103" s="2"/>
       <c r="E103" s="2">
         <f t="shared" si="6"/>
-        <v>672.67039999999997</v>
+        <v>792.07259999999997</v>
       </c>
       <c r="F103" s="2">
         <f t="shared" si="7"/>
-        <v>1820.596</v>
+        <v>1925.1411000000001</v>
       </c>
       <c r="G103" s="2">
         <f t="shared" si="8"/>
-        <v>1075.3877</v>
+        <v>2052.4112</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -9141,15 +9213,15 @@
       <c r="D104" s="2"/>
       <c r="E104" s="2">
         <f t="shared" si="6"/>
-        <v>679.30079999999998</v>
+        <v>799.88519999999994</v>
       </c>
       <c r="F104" s="2">
         <f t="shared" si="7"/>
-        <v>1858.1147999999998</v>
+        <v>1965.3168000000003</v>
       </c>
       <c r="G104" s="2">
         <f t="shared" si="8"/>
-        <v>1081.5378000000001</v>
+        <v>2097.8250000000003</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -9163,15 +9235,15 @@
       <c r="D105" s="2"/>
       <c r="E105" s="2">
         <f t="shared" si="6"/>
-        <v>685.93119999999999</v>
+        <v>807.69780000000003</v>
       </c>
       <c r="F105" s="2">
         <f t="shared" si="7"/>
-        <v>1896.0163999999997</v>
+        <v>2005.9070999999999</v>
       </c>
       <c r="G105" s="2">
         <f t="shared" si="8"/>
-        <v>1087.2295000000001</v>
+        <v>2143.7932000000001</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -9185,15 +9257,15 @@
       <c r="D106" s="2"/>
       <c r="E106" s="2">
         <f t="shared" si="6"/>
-        <v>692.5616</v>
+        <v>815.5104</v>
       </c>
       <c r="F106" s="2">
         <f t="shared" si="7"/>
-        <v>1934.3007999999998</v>
+        <v>2046.9120000000003</v>
       </c>
       <c r="G106" s="2">
         <f t="shared" si="8"/>
-        <v>1092.4520000000002</v>
+        <v>2190.3176000000003</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -9207,15 +9279,15 @@
       <c r="D107" s="2"/>
       <c r="E107" s="2">
         <f t="shared" si="6"/>
-        <v>699.19200000000001</v>
+        <v>823.32299999999998</v>
       </c>
       <c r="F107" s="2">
         <f t="shared" si="7"/>
-        <v>1972.9679999999998</v>
+        <v>2088.3315000000002</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" si="8"/>
-        <v>1097.1945000000001</v>
+        <v>2237.4</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -9229,15 +9301,15 @@
       <c r="D108" s="2"/>
       <c r="E108" s="2">
         <f t="shared" si="6"/>
-        <v>705.82240000000002</v>
+        <v>831.13559999999995</v>
       </c>
       <c r="F108" s="2">
         <f t="shared" si="7"/>
-        <v>2012.018</v>
+        <v>2130.1655999999998</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" si="8"/>
-        <v>1101.4462000000003</v>
+        <v>2285.0421999999999</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -9251,15 +9323,15 @@
       <c r="D109" s="2"/>
       <c r="E109" s="2">
         <f t="shared" si="6"/>
-        <v>712.45280000000002</v>
+        <v>838.94819999999993</v>
       </c>
       <c r="F109" s="2">
         <f t="shared" si="7"/>
-        <v>2051.4508000000001</v>
+        <v>2172.4142999999999</v>
       </c>
       <c r="G109" s="2">
         <f t="shared" si="8"/>
-        <v>1105.1962999999998</v>
+        <v>2333.2460000000001</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -9273,15 +9345,15 @@
       <c r="D110" s="2"/>
       <c r="E110" s="2">
         <f t="shared" si="6"/>
-        <v>719.08320000000003</v>
+        <v>846.76080000000002</v>
       </c>
       <c r="F110" s="2">
         <f t="shared" si="7"/>
-        <v>2091.2664</v>
+        <v>2215.0776000000001</v>
       </c>
       <c r="G110" s="2">
         <f t="shared" si="8"/>
-        <v>1108.4340000000002</v>
+        <v>2382.0131999999999</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -9295,15 +9367,15 @@
       <c r="D111" s="2"/>
       <c r="E111" s="2">
         <f t="shared" si="6"/>
-        <v>725.71359999999993</v>
+        <v>854.57339999999999</v>
       </c>
       <c r="F111" s="2">
         <f t="shared" si="7"/>
-        <v>2131.4648000000002</v>
+        <v>2258.1555000000003</v>
       </c>
       <c r="G111" s="2">
         <f t="shared" si="8"/>
-        <v>1111.1484999999998</v>
+        <v>2431.3455999999996</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -9317,15 +9389,15 @@
       <c r="D112" s="2"/>
       <c r="E112" s="2">
         <f t="shared" si="6"/>
-        <v>732.34399999999994</v>
+        <v>862.38599999999997</v>
       </c>
       <c r="F112" s="2">
         <f t="shared" si="7"/>
-        <v>2172.0460000000003</v>
+        <v>2301.6480000000001</v>
       </c>
       <c r="G112" s="2">
         <f t="shared" si="8"/>
-        <v>1113.3290000000004</v>
+        <v>2481.2450000000003</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -9339,15 +9411,15 @@
       <c r="D113" s="2"/>
       <c r="E113" s="2">
         <f t="shared" si="6"/>
-        <v>738.97439999999995</v>
+        <v>870.19859999999994</v>
       </c>
       <c r="F113" s="2">
         <f t="shared" si="7"/>
-        <v>2213.0099999999998</v>
+        <v>2345.5551</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" si="8"/>
-        <v>1114.9647</v>
+        <v>2531.7132000000001</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -9361,15 +9433,15 @@
       <c r="D114" s="2"/>
       <c r="E114" s="2">
         <f t="shared" si="6"/>
-        <v>745.60479999999995</v>
+        <v>878.01119999999992</v>
       </c>
       <c r="F114" s="2">
         <f t="shared" si="7"/>
-        <v>2254.3567999999996</v>
+        <v>2389.8768</v>
       </c>
       <c r="G114" s="2">
         <f t="shared" si="8"/>
-        <v>1116.0448000000001</v>
+        <v>2582.752</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -9383,15 +9455,15 @@
       <c r="D115" s="2"/>
       <c r="E115" s="2">
         <f t="shared" si="6"/>
-        <v>752.23519999999996</v>
+        <v>885.82380000000001</v>
       </c>
       <c r="F115" s="2">
         <f t="shared" si="7"/>
-        <v>2296.0863999999997</v>
+        <v>2434.6131</v>
       </c>
       <c r="G115" s="2">
         <f t="shared" si="8"/>
-        <v>1116.5585000000003</v>
+        <v>2634.3632000000002</v>
       </c>
     </row>
   </sheetData>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6804322C-F87E-4F35-8077-DBDE31388D2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0155D129-358D-474C-839E-901E51422E5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,19 @@
                   <c:v>687</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>729</c:v>
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1655,7 +1667,19 @@
                   <c:v>687</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>729</c:v>
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2574,7 +2598,19 @@
                   <c:v>687</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>729</c:v>
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3537,7 +3573,19 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>29.571428571428573</c:v>
+                  <c:v>27.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>27.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>28.285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6486,7 +6534,7 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6767,7 +6815,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D64" si="4">(C10-C3)/7</f>
+        <f t="shared" ref="D10:D68" si="4">(C10-C3)/7</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="E10" s="2">
@@ -8325,11 +8373,11 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" si="4"/>
-        <v>29.571428571428573</v>
+        <v>27.857142857142858</v>
       </c>
       <c r="E64" s="2">
         <f t="shared" si="1"/>
@@ -8352,7 +8400,13 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="C65">
+        <v>775</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="4"/>
+        <v>32.714285714285715</v>
+      </c>
       <c r="E65" s="2">
         <f t="shared" si="1"/>
         <v>495.19380000000001</v>
@@ -8374,7 +8428,13 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="C66">
+        <v>768</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="4"/>
+        <v>27.857142857142858</v>
+      </c>
       <c r="E66" s="2">
         <f t="shared" si="1"/>
         <v>503.00639999999999</v>
@@ -8396,7 +8456,13 @@
         <f t="shared" ref="B67:B115" si="5">B66+1</f>
         <v>65</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="C67">
+        <v>785</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="4"/>
+        <v>27.428571428571427</v>
+      </c>
       <c r="E67" s="2">
         <f t="shared" ref="E67:E115" si="6">7.8126*B67+3</f>
         <v>510.81899999999996</v>
@@ -8418,7 +8484,13 @@
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="C68">
+        <v>802</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="4"/>
+        <v>28.285714285714285</v>
+      </c>
       <c r="E68" s="2">
         <f t="shared" si="6"/>
         <v>518.63159999999993</v>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0155D129-358D-474C-839E-901E51422E5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D1BA8F-371C-491E-B1FE-FC1A7A551A96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Days Since Release</t>
   </si>
   <si>
     <t>Actual</t>
-  </si>
-  <si>
-    <t>Linear</t>
   </si>
   <si>
     <t>Poly-2</t>
@@ -45,7 +42,16 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Growth/Day from Last Week</t>
+    <t>Daily Growth</t>
+  </si>
+  <si>
+    <t>Average Growth per day from last week</t>
+  </si>
+  <si>
+    <t>Poly2 Expected to hit 1.5k - 8/21/19</t>
+  </si>
+  <si>
+    <t>Poly3 Expected to hit 1.5k - 8/21/19</t>
   </si>
 </sst>
 </file>
@@ -81,10 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,7 +166,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Linear Estimation</a:t>
+              <a:t>Poly-2 Estimation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -247,15 +254,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:intercept val="3"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.36004811898512684"/>
-                  <c:y val="9.243183143773695E-2"/>
+                  <c:x val="-0.19300174978127735"/>
+                  <c:y val="0.1439847623213765"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -742,13 +750,22 @@
                   <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="General">
-                  <c:v>768</c:v>
+                  <c:v>791</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="General">
-                  <c:v>785</c:v>
+                  <c:v>849</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="General">
-                  <c:v>802</c:v>
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="#,##0">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="#,##0">
+                  <c:v>1096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,7 +773,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DC47-4C15-A6BB-08F9EAA23F42}"/>
+              <c16:uniqueId val="{00000001-5E7C-4492-A909-4D05524F6F8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1089,7 +1106,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Poly-2 Estimation</a:t>
+              <a:t>Poly-3 Estimation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1178,15 +1195,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="3"/>
             <c:intercept val="3"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.19300174978127735"/>
-                  <c:y val="0.1439847623213765"/>
+                  <c:x val="-0.14743241469816273"/>
+                  <c:y val="0.14310185185185181"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1673,13 +1690,22 @@
                   <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="General">
-                  <c:v>768</c:v>
+                  <c:v>791</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="General">
-                  <c:v>785</c:v>
+                  <c:v>849</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="General">
-                  <c:v>802</c:v>
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="#,##0">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="#,##0">
+                  <c:v>1096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1687,7 +1713,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5E7C-4492-A909-4D05524F6F8B}"/>
+              <c16:uniqueId val="{00000001-DF12-4893-9228-B5D142FFF844}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2020,937 +2046,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Poly-3 Estimation</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:intercept val="3"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.14743241469816273"/>
-                  <c:y val="0.14310185185185181"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$83</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$83</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="General">
-                  <c:v>414</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="General">
-                  <c:v>423</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="General">
-                  <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="General">
-                  <c:v>484</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="General">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="General">
-                  <c:v>546</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="General">
-                  <c:v>573</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="General">
-                  <c:v>593</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="General">
-                  <c:v>604</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="General">
-                  <c:v>647</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="General">
-                  <c:v>687</c:v>
-                </c:pt>
-                <c:pt idx="62" formatCode="General">
-                  <c:v>717</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="General">
-                  <c:v>775</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="General">
-                  <c:v>768</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="General">
-                  <c:v>785</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="General">
-                  <c:v>802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DF12-4893-9228-B5D142FFF844}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="681995608"/>
-        <c:axId val="681994296"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="681995608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Days</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Since Release</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="681994296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="681994296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Users</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="681995608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Average Growth</a:t>
             </a:r>
             <a:r>
@@ -3382,7 +2477,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$83</c:f>
+              <c:f>Sheet1!$E$2:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="82"/>
@@ -3579,13 +2674,22 @@
                   <c:v>32.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>27.857142857142858</c:v>
+                  <c:v>31.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>27.428571428571427</c:v>
+                  <c:v>36.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>28.285714285714285</c:v>
+                  <c:v>40.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>51.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>54.142857142857146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3891,6 +2995,1047 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Daily Growth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40949300087489071"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="15"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.40934142607174101"/>
+                  <c:y val="-3.3863006707494897E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="114"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$71</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E967-412B-8E2D-99A698D0CF4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="732007232"/>
+        <c:axId val="732012480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="732007232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> since Release</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="732012480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="732012480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Daily Growth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="732007232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6119,27 +6264,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80867FE4-5C2D-42B6-8F15-BD2870B1E7A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872F6A90-AB51-4135-9177-05354337068B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6155,23 +6302,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872F6A90-AB51-4135-9177-05354337068B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B70009B-AD6F-430C-8AF2-E82DB5C9A2EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6193,29 +6340,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B70009B-AD6F-430C-8AF2-E82DB5C9A2EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC737D75-4491-49EB-A1A0-031CECB31D56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6231,23 +6376,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC737D75-4491-49EB-A1A0-031CECB31D56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4C7806-35A6-4B66-B836-99A2757FD898}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6534,7 +6679,7 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6542,15 +6687,15 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6559,16 +6704,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6583,18 +6728,18 @@
         <v>3</v>
       </c>
       <c r="D2" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f>7.8126*B2+3</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f>0.2535*B2^2-3.7521*B2+3</f>
         <v>3</v>
       </c>
-      <c r="F2" s="2">
-        <f>0.2073*B2^2-1.9062*B2+3</f>
-        <v>3</v>
-      </c>
       <c r="G2" s="2">
-        <f>0.0003*B2^3+0.1854*B2^2-1.4945*B2+3</f>
+        <f>0.0029*B2^3-0.0127*B2^2+1.7972*B2+3</f>
         <v>3</v>
       </c>
       <c r="H2" s="2"/>
@@ -6612,20 +6757,20 @@
         <v>4</v>
       </c>
       <c r="D3" s="2">
+        <f>C3-C2</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <f>(C3-C2)/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E66" si="1">7.8126*B3+3</f>
-        <v>10.8126</v>
-      </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="2">0.2073*B3^2-1.9062*B3+3</f>
-        <v>1.3011000000000001</v>
+        <f t="shared" ref="F3:F66" si="1">0.2535*B3^2-3.7521*B3+3</f>
+        <v>-0.49860000000000015</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="3">0.0003*B3^3+0.1854*B3^2-1.4945*B3+3</f>
-        <v>1.6912</v>
+        <f t="shared" ref="G3:G66" si="2">0.0029*B3^3-0.0127*B3^2+1.7972*B3+3</f>
+        <v>4.7873999999999999</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -6641,20 +6786,20 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
+        <f t="shared" ref="D4:D67" si="3">C4-C3</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <f>(C4-C2)/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <f t="shared" si="1"/>
-        <v>18.6252</v>
-      </c>
-      <c r="F4" s="2">
+        <v>-3.4901999999999997</v>
+      </c>
+      <c r="G4" s="2">
         <f t="shared" si="2"/>
-        <v>1.680000000000037E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.75499999999999989</v>
+        <v>6.5667999999999997</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -6670,20 +6815,20 @@
         <v>5</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <f>(C5-C2)/7</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>26.437799999999999</v>
-      </c>
-      <c r="F5" s="2">
+        <v>-5.9748000000000001</v>
+      </c>
+      <c r="G5" s="2">
         <f t="shared" si="2"/>
-        <v>-0.8528999999999991</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="3"/>
-        <v>0.19320000000000093</v>
+        <v>8.355599999999999</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -6699,20 +6844,20 @@
         <v>5</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <f>(C6-C2)/7</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>34.250399999999999</v>
-      </c>
-      <c r="F6" s="2">
+        <v>-7.9524000000000008</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3079999999999998</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>7.6000000000004952E-3</v>
+        <v>10.171199999999999</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -6728,20 +6873,20 @@
         <v>7</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
         <f>(C7-C2)/7</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>42.063000000000002</v>
-      </c>
-      <c r="F7" s="2">
+        <v>-9.423</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3484999999999987</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="3"/>
-        <v>0.19999999999999929</v>
+        <v>12.030999999999999</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -6757,20 +6902,20 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="E8" s="2">
         <f>(C8-C2)/7</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>49.875599999999999</v>
-      </c>
-      <c r="F8" s="2">
+        <v>-10.3866</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="2"/>
-        <v>-0.97439999999999838</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.77220000000000155</v>
+        <v>13.952399999999999</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -6786,20 +6931,20 @@
         <v>7</v>
       </c>
       <c r="D9" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <f>(C9-C2)/7</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>57.688199999999995</v>
-      </c>
-      <c r="F9" s="2">
+        <v>-10.843200000000001</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="2"/>
-        <v>-0.18569999999999887</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="3"/>
-        <v>1.7260000000000009</v>
+        <v>15.9528</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -6815,20 +6960,20 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D68" si="4">(C10-C3)/7</f>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ref="E10:E71" si="4">(C10-C3)/7</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>65.500799999999998</v>
-      </c>
-      <c r="F10" s="2">
+        <v>-10.7928</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" si="2"/>
-        <v>1.0176000000000016</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="3"/>
-        <v>3.0632000000000019</v>
+        <v>18.049599999999998</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -6844,20 +6989,20 @@
         <v>10</v>
       </c>
       <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>73.313400000000001</v>
-      </c>
-      <c r="F11" s="2">
+        <v>-10.235400000000002</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="2"/>
-        <v>2.6355000000000004</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="3"/>
-        <v>4.7856000000000005</v>
+        <v>20.260199999999998</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -6873,20 +7018,20 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>81.126000000000005</v>
-      </c>
-      <c r="F12" s="2">
+        <v>-9.1709999999999994</v>
+      </c>
+      <c r="G12" s="2">
         <f t="shared" si="2"/>
-        <v>4.6680000000000028</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="3"/>
-        <v>6.8949999999999996</v>
+        <v>22.601999999999997</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -6902,20 +7047,20 @@
         <v>13</v>
       </c>
       <c r="D13" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="4"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>88.938599999999994</v>
-      </c>
-      <c r="F13" s="2">
+        <v>-7.5995999999999988</v>
+      </c>
+      <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>7.1151000000000018</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="3"/>
-        <v>9.3932000000000038</v>
+        <v>25.092399999999998</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -6931,20 +7076,20 @@
         <v>15</v>
       </c>
       <c r="D14" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="4"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>96.751199999999997</v>
-      </c>
-      <c r="F14" s="2">
+        <v>-5.5212000000000003</v>
+      </c>
+      <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>9.9768000000000043</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="3"/>
-        <v>12.282000000000004</v>
+        <v>27.748799999999996</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -6960,20 +7105,20 @@
         <v>18</v>
       </c>
       <c r="D15" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="4"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>104.5638</v>
-      </c>
-      <c r="F15" s="2">
+        <v>-2.9357999999999933</v>
+      </c>
+      <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>13.253100000000003</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="3"/>
-        <v>15.563200000000002</v>
+        <v>30.5886</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -6989,20 +7134,20 @@
         <v>20</v>
       </c>
       <c r="D16" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="4"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>112.37639999999999</v>
-      </c>
-      <c r="F16" s="2">
+        <v>0.15659999999999741</v>
+      </c>
+      <c r="G16" s="2">
         <f t="shared" si="2"/>
-        <v>16.944000000000003</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="3"/>
-        <v>19.238600000000002</v>
+        <v>33.629199999999997</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -7018,20 +7163,20 @@
         <v>18</v>
       </c>
       <c r="D17" s="2">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="4"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>120.18899999999999</v>
-      </c>
-      <c r="F17" s="2">
+        <v>3.7560000000000002</v>
+      </c>
+      <c r="G17" s="2">
         <f t="shared" si="2"/>
-        <v>21.049500000000005</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="3"/>
-        <v>23.310000000000006</v>
+        <v>36.887999999999998</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -7047,20 +7192,20 @@
         <v>23</v>
       </c>
       <c r="D18" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="4"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>128.0016</v>
-      </c>
-      <c r="F18" s="2">
+        <v>7.8624000000000009</v>
+      </c>
+      <c r="G18" s="2">
         <f t="shared" si="2"/>
-        <v>25.569600000000005</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="3"/>
-        <v>27.779200000000003</v>
+        <v>40.382399999999997</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -7076,20 +7221,20 @@
         <v>27</v>
       </c>
       <c r="D19" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="4"/>
         <v>2.4285714285714284</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>135.8142</v>
-      </c>
-      <c r="F19" s="2">
+        <v>12.4758</v>
+      </c>
+      <c r="G19" s="2">
         <f t="shared" si="2"/>
-        <v>30.504300000000001</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="3"/>
-        <v>32.64800000000001</v>
+        <v>44.129799999999996</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -7105,20 +7250,20 @@
         <v>27</v>
       </c>
       <c r="D20" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>143.6268</v>
-      </c>
-      <c r="F20" s="2">
+        <v>17.596199999999996</v>
+      </c>
+      <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>35.8536</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="3"/>
-        <v>37.918199999999999</v>
+        <v>48.147599999999997</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -7134,20 +7279,20 @@
         <v>31</v>
       </c>
       <c r="D21" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="4"/>
         <v>2.2857142857142856</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>151.43940000000001</v>
-      </c>
-      <c r="F21" s="2">
+        <v>23.223600000000005</v>
+      </c>
+      <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>41.617500000000007</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="3"/>
-        <v>43.5916</v>
+        <v>52.453199999999995</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -7163,20 +7308,20 @@
         <v>34</v>
       </c>
       <c r="D22" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="4"/>
         <v>2.2857142857142856</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>159.25200000000001</v>
-      </c>
-      <c r="F22" s="2">
+        <v>29.358000000000004</v>
+      </c>
+      <c r="G22" s="2">
         <f t="shared" si="2"/>
-        <v>47.796000000000006</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="3"/>
-        <v>49.67</v>
+        <v>57.063999999999993</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -7192,20 +7337,20 @@
         <v>43</v>
       </c>
       <c r="D23" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="4"/>
         <v>3.2857142857142856</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>167.06459999999998</v>
-      </c>
-      <c r="F23" s="2">
+        <v>35.999399999999994</v>
+      </c>
+      <c r="G23" s="2">
         <f t="shared" si="2"/>
-        <v>54.389100000000006</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="3"/>
-        <v>56.155200000000008</v>
+        <v>61.997399999999999</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -7221,20 +7366,20 @@
         <v>44</v>
       </c>
       <c r="D24" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="4"/>
         <v>3.7142857142857144</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>174.87719999999999</v>
-      </c>
-      <c r="F24" s="2">
+        <v>43.147800000000004</v>
+      </c>
+      <c r="G24" s="2">
         <f t="shared" si="2"/>
-        <v>61.396800000000006</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="3"/>
-        <v>63.049000000000014</v>
+        <v>67.270799999999994</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -7250,20 +7395,20 @@
         <v>47</v>
       </c>
       <c r="D25" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="4"/>
         <v>3.4285714285714284</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <f t="shared" si="1"/>
-        <v>182.68979999999999</v>
-      </c>
-      <c r="F25" s="2">
+        <v>50.803200000000018</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="2"/>
-        <v>68.81910000000002</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="3"/>
-        <v>70.353199999999987</v>
+        <v>72.901600000000002</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -7279,20 +7424,20 @@
         <v>47</v>
       </c>
       <c r="D26" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="4"/>
         <v>2.8571428571428572</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <f t="shared" si="1"/>
-        <v>190.50239999999999</v>
-      </c>
-      <c r="F26" s="2">
+        <v>58.965599999999995</v>
+      </c>
+      <c r="G26" s="2">
         <f t="shared" si="2"/>
-        <v>76.656000000000006</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="3"/>
-        <v>78.069600000000008</v>
+        <v>78.907199999999989</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -7308,20 +7453,20 @@
         <v>57</v>
       </c>
       <c r="D27" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="4"/>
         <v>4.2857142857142856</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <f t="shared" si="1"/>
-        <v>198.315</v>
-      </c>
-      <c r="F27" s="2">
+        <v>67.635000000000005</v>
+      </c>
+      <c r="G27" s="2">
         <f t="shared" si="2"/>
-        <v>84.907499999999999</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="3"/>
-        <v>86.2</v>
+        <v>85.305000000000007</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -7337,20 +7482,20 @@
         <v>63</v>
       </c>
       <c r="D28" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="4"/>
         <v>4.5714285714285712</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <f t="shared" si="1"/>
-        <v>206.1276</v>
-      </c>
-      <c r="F28" s="2">
+        <v>76.81140000000002</v>
+      </c>
+      <c r="G28" s="2">
         <f t="shared" si="2"/>
-        <v>93.573600000000013</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="3"/>
-        <v>94.746200000000016</v>
+        <v>92.112399999999994</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -7366,20 +7511,20 @@
         <v>66</v>
       </c>
       <c r="D29" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="4"/>
         <v>4.5714285714285712</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <f t="shared" si="1"/>
-        <v>213.9402</v>
-      </c>
-      <c r="F29" s="2">
+        <v>86.494799999999998</v>
+      </c>
+      <c r="G29" s="2">
         <f t="shared" si="2"/>
-        <v>102.65430000000001</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="3"/>
-        <v>103.71</v>
+        <v>99.346800000000002</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -7395,20 +7540,20 @@
         <v>72</v>
       </c>
       <c r="D30" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="4"/>
         <v>4.1428571428571432</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <f t="shared" si="1"/>
-        <v>221.75279999999998</v>
-      </c>
-      <c r="F30" s="2">
+        <v>96.685199999999995</v>
+      </c>
+      <c r="G30" s="2">
         <f t="shared" si="2"/>
-        <v>112.14960000000001</v>
-      </c>
-      <c r="G30" s="2">
-        <f t="shared" si="3"/>
-        <v>113.0932</v>
+        <v>107.0256</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -7424,20 +7569,20 @@
         <v>127</v>
       </c>
       <c r="D31" s="2">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="4"/>
         <v>11.857142857142858</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <f t="shared" si="1"/>
-        <v>229.56539999999998</v>
-      </c>
-      <c r="F31" s="2">
+        <v>107.3826</v>
+      </c>
+      <c r="G31" s="2">
         <f t="shared" si="2"/>
-        <v>122.05950000000001</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="3"/>
-        <v>122.89760000000001</v>
+        <v>115.1662</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -7453,20 +7598,20 @@
         <v>183</v>
       </c>
       <c r="D32" s="2">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="4"/>
         <v>19.428571428571427</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <f t="shared" si="1"/>
-        <v>237.37799999999999</v>
-      </c>
-      <c r="F32" s="2">
+        <v>118.587</v>
+      </c>
+      <c r="G32" s="2">
         <f t="shared" si="2"/>
-        <v>132.38400000000001</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" si="3"/>
-        <v>133.125</v>
+        <v>123.786</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -7482,20 +7627,20 @@
         <v>195</v>
       </c>
       <c r="D33" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E33" s="2">
         <f t="shared" si="4"/>
         <v>21.142857142857142</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <f t="shared" si="1"/>
-        <v>245.19059999999999</v>
-      </c>
-      <c r="F33" s="2">
+        <v>130.29840000000002</v>
+      </c>
+      <c r="G33" s="2">
         <f t="shared" si="2"/>
-        <v>143.12310000000002</v>
-      </c>
-      <c r="G33" s="2">
-        <f t="shared" si="3"/>
-        <v>143.77719999999999</v>
+        <v>132.9024</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -7511,20 +7656,20 @@
         <v>191</v>
       </c>
       <c r="D34" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="E34" s="2">
         <f t="shared" si="4"/>
         <v>19.142857142857142</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <f t="shared" si="1"/>
-        <v>253.00319999999999</v>
-      </c>
-      <c r="F34" s="2">
+        <v>142.51679999999999</v>
+      </c>
+      <c r="G34" s="2">
         <f t="shared" si="2"/>
-        <v>154.27680000000001</v>
-      </c>
-      <c r="G34" s="2">
-        <f t="shared" si="3"/>
-        <v>154.85599999999999</v>
+        <v>142.53279999999998</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -7540,20 +7685,20 @@
         <v>211</v>
       </c>
       <c r="D35" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="E35" s="2">
         <f t="shared" si="4"/>
         <v>21.142857142857142</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="2">
         <f t="shared" si="1"/>
-        <v>260.81579999999997</v>
-      </c>
-      <c r="F35" s="2">
+        <v>155.24220000000003</v>
+      </c>
+      <c r="G35" s="2">
         <f t="shared" si="2"/>
-        <v>165.84510000000003</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" si="3"/>
-        <v>166.36320000000001</v>
+        <v>152.69459999999998</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -7569,20 +7714,20 @@
         <v>206</v>
       </c>
       <c r="D36" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="E36" s="2">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="2">
         <f t="shared" si="1"/>
-        <v>268.6284</v>
-      </c>
-      <c r="F36" s="2">
+        <v>168.47460000000001</v>
+      </c>
+      <c r="G36" s="2">
         <f t="shared" si="2"/>
-        <v>177.828</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" si="3"/>
-        <v>178.30060000000003</v>
+        <v>163.40519999999998</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -7598,20 +7743,20 @@
         <v>219</v>
       </c>
       <c r="D37" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E37" s="2">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <f t="shared" si="1"/>
-        <v>276.44099999999997</v>
-      </c>
-      <c r="F37" s="2">
+        <v>182.21400000000003</v>
+      </c>
+      <c r="G37" s="2">
         <f t="shared" si="2"/>
-        <v>190.22550000000001</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="3"/>
-        <v>190.67000000000002</v>
+        <v>174.68199999999999</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -7627,20 +7772,20 @@
         <v>227</v>
       </c>
       <c r="D38" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
         <f t="shared" si="4"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <f t="shared" si="1"/>
-        <v>284.25360000000001</v>
-      </c>
-      <c r="F38" s="2">
+        <v>196.46039999999999</v>
+      </c>
+      <c r="G38" s="2">
         <f t="shared" si="2"/>
-        <v>203.0376</v>
-      </c>
-      <c r="G38" s="2">
-        <f t="shared" si="3"/>
-        <v>203.47320000000002</v>
+        <v>186.54239999999999</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -7656,20 +7801,20 @@
         <v>238</v>
       </c>
       <c r="D39" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E39" s="2">
         <f t="shared" si="4"/>
         <v>7.8571428571428568</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <f t="shared" si="1"/>
-        <v>292.06619999999998</v>
-      </c>
-      <c r="F39" s="2">
+        <v>211.21379999999999</v>
+      </c>
+      <c r="G39" s="2">
         <f t="shared" si="2"/>
-        <v>216.26429999999999</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="3"/>
-        <v>216.71200000000005</v>
+        <v>199.00379999999998</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -7685,20 +7830,20 @@
         <v>252</v>
       </c>
       <c r="D40" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E40" s="2">
         <f t="shared" si="4"/>
         <v>8.1428571428571423</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40" s="2">
         <f t="shared" si="1"/>
-        <v>299.87880000000001</v>
-      </c>
-      <c r="F40" s="2">
+        <v>226.47420000000002</v>
+      </c>
+      <c r="G40" s="2">
         <f t="shared" si="2"/>
-        <v>229.90560000000002</v>
-      </c>
-      <c r="G40" s="2">
-        <f t="shared" si="3"/>
-        <v>230.38819999999998</v>
+        <v>212.08359999999999</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -7714,20 +7859,20 @@
         <v>261</v>
       </c>
       <c r="D41" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E41" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="2">
         <f t="shared" si="1"/>
-        <v>307.69139999999999</v>
-      </c>
-      <c r="F41" s="2">
+        <v>242.24160000000003</v>
+      </c>
+      <c r="G41" s="2">
         <f t="shared" si="2"/>
-        <v>243.96150000000006</v>
-      </c>
-      <c r="G41" s="2">
-        <f t="shared" si="3"/>
-        <v>244.50360000000001</v>
+        <v>225.79919999999998</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -7743,20 +7888,20 @@
         <v>268</v>
       </c>
       <c r="D42" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E42" s="2">
         <f t="shared" si="4"/>
         <v>8.1428571428571423</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <f t="shared" si="1"/>
-        <v>315.50400000000002</v>
-      </c>
-      <c r="F42" s="2">
+        <v>258.51600000000002</v>
+      </c>
+      <c r="G42" s="2">
         <f t="shared" si="2"/>
-        <v>258.43200000000002</v>
-      </c>
-      <c r="G42" s="2">
-        <f t="shared" si="3"/>
-        <v>259.05999999999995</v>
+        <v>240.16800000000001</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -7772,20 +7917,20 @@
         <v>287</v>
       </c>
       <c r="D43" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="E43" s="2">
         <f t="shared" si="4"/>
         <v>11.571428571428571</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F43" s="2">
         <f t="shared" si="1"/>
-        <v>323.31659999999999</v>
-      </c>
-      <c r="F43" s="2">
+        <v>275.29740000000004</v>
+      </c>
+      <c r="G43" s="2">
         <f t="shared" si="2"/>
-        <v>273.31710000000004</v>
-      </c>
-      <c r="G43" s="2">
-        <f t="shared" si="3"/>
-        <v>274.05920000000003</v>
+        <v>255.20739999999995</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -7801,20 +7946,20 @@
         <v>289</v>
       </c>
       <c r="D44" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44" s="2">
         <f t="shared" si="1"/>
-        <v>331.12919999999997</v>
-      </c>
-      <c r="F44" s="2">
+        <v>292.58579999999995</v>
+      </c>
+      <c r="G44" s="2">
         <f t="shared" si="2"/>
-        <v>288.61680000000001</v>
-      </c>
-      <c r="G44" s="2">
-        <f t="shared" si="3"/>
-        <v>289.50300000000004</v>
+        <v>270.9348</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -7830,20 +7975,20 @@
         <v>301</v>
       </c>
       <c r="D45" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E45" s="2">
         <f t="shared" si="4"/>
         <v>10.571428571428571</v>
       </c>
-      <c r="E45" s="2">
+      <c r="F45" s="2">
         <f t="shared" si="1"/>
-        <v>338.9418</v>
-      </c>
-      <c r="F45" s="2">
+        <v>310.38119999999998</v>
+      </c>
+      <c r="G45" s="2">
         <f t="shared" si="2"/>
-        <v>304.33109999999999</v>
-      </c>
-      <c r="G45" s="2">
-        <f t="shared" si="3"/>
-        <v>305.39319999999998</v>
+        <v>287.36759999999998</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -7859,20 +8004,20 @@
         <v>315</v>
       </c>
       <c r="D46" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E46" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="E46" s="2">
+      <c r="F46" s="2">
         <f t="shared" si="1"/>
-        <v>346.75439999999998</v>
-      </c>
-      <c r="F46" s="2">
+        <v>328.68360000000001</v>
+      </c>
+      <c r="G46" s="2">
         <f t="shared" si="2"/>
-        <v>320.46000000000004</v>
-      </c>
-      <c r="G46" s="2">
-        <f t="shared" si="3"/>
-        <v>321.73160000000007</v>
+        <v>304.52319999999997</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -7888,20 +8033,20 @@
         <v>334</v>
       </c>
       <c r="D47" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="E47" s="2">
         <f t="shared" si="4"/>
         <v>11.714285714285714</v>
       </c>
-      <c r="E47" s="2">
+      <c r="F47" s="2">
         <f t="shared" si="1"/>
-        <v>354.56700000000001</v>
-      </c>
-      <c r="F47" s="2">
+        <v>347.49299999999994</v>
+      </c>
+      <c r="G47" s="2">
         <f t="shared" si="2"/>
-        <v>337.00350000000003</v>
-      </c>
-      <c r="G47" s="2">
-        <f t="shared" si="3"/>
-        <v>338.52</v>
+        <v>322.41899999999998</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -7917,20 +8062,20 @@
         <v>331</v>
       </c>
       <c r="D48" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="E48" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48" s="2">
         <f t="shared" si="1"/>
-        <v>362.37959999999998</v>
-      </c>
-      <c r="F48" s="2">
+        <v>366.8094000000001</v>
+      </c>
+      <c r="G48" s="2">
         <f t="shared" si="2"/>
-        <v>353.96160000000003</v>
-      </c>
-      <c r="G48" s="2">
-        <f t="shared" si="3"/>
-        <v>355.7602</v>
+        <v>341.07239999999996</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -7946,20 +8091,20 @@
         <v>356</v>
       </c>
       <c r="D49" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="E49" s="2">
         <f t="shared" si="4"/>
         <v>12.571428571428571</v>
       </c>
-      <c r="E49" s="2">
+      <c r="F49" s="2">
         <f t="shared" si="1"/>
-        <v>370.19220000000001</v>
-      </c>
-      <c r="F49" s="2">
+        <v>386.63279999999997</v>
+      </c>
+      <c r="G49" s="2">
         <f t="shared" si="2"/>
-        <v>371.33429999999998</v>
-      </c>
-      <c r="G49" s="2">
-        <f t="shared" si="3"/>
-        <v>373.45400000000006</v>
+        <v>360.50080000000003</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -7975,20 +8120,20 @@
         <v>386</v>
       </c>
       <c r="D50" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="E50" s="2">
         <f t="shared" si="4"/>
         <v>14.142857142857142</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F50" s="2">
         <f t="shared" si="1"/>
-        <v>378.00479999999999</v>
-      </c>
-      <c r="F50" s="2">
+        <v>406.96319999999997</v>
+      </c>
+      <c r="G50" s="2">
         <f t="shared" si="2"/>
-        <v>389.12160000000006</v>
-      </c>
-      <c r="G50" s="2">
-        <f t="shared" si="3"/>
-        <v>391.60320000000002</v>
+        <v>380.72159999999997</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -8004,20 +8149,20 @@
         <v>385</v>
       </c>
       <c r="D51" s="2">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="E51" s="2">
         <f t="shared" si="4"/>
         <v>13.714285714285714</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F51" s="2">
         <f t="shared" si="1"/>
-        <v>385.81739999999996</v>
-      </c>
-      <c r="F51" s="2">
+        <v>427.80060000000003</v>
+      </c>
+      <c r="G51" s="2">
         <f t="shared" si="2"/>
-        <v>407.32350000000002</v>
-      </c>
-      <c r="G51" s="2">
-        <f t="shared" si="3"/>
-        <v>410.20959999999997</v>
+        <v>401.75219999999996</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -8033,20 +8178,20 @@
         <v>398</v>
       </c>
       <c r="D52" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E52" s="2">
         <f t="shared" si="4"/>
         <v>13.857142857142858</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <f t="shared" si="1"/>
-        <v>393.63</v>
-      </c>
-      <c r="F52" s="2">
+        <v>449.14499999999998</v>
+      </c>
+      <c r="G52" s="2">
         <f t="shared" si="2"/>
-        <v>425.94</v>
-      </c>
-      <c r="G52" s="2">
-        <f t="shared" si="3"/>
-        <v>429.27499999999998</v>
+        <v>423.61</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -8062,20 +8207,20 @@
         <v>414</v>
       </c>
       <c r="D53" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E53" s="2">
         <f t="shared" si="4"/>
         <v>14.142857142857142</v>
       </c>
-      <c r="E53" s="2">
+      <c r="F53" s="2">
         <f t="shared" si="1"/>
-        <v>401.44259999999997</v>
-      </c>
-      <c r="F53" s="2">
+        <v>470.99640000000005</v>
+      </c>
+      <c r="G53" s="2">
         <f t="shared" si="2"/>
-        <v>444.97110000000004</v>
-      </c>
-      <c r="G53" s="2">
-        <f t="shared" si="3"/>
-        <v>448.80120000000005</v>
+        <v>446.31239999999997</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -8091,20 +8236,20 @@
         <v>423</v>
       </c>
       <c r="D54" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E54" s="2">
         <f t="shared" si="4"/>
         <v>12.714285714285714</v>
       </c>
-      <c r="E54" s="2">
+      <c r="F54" s="2">
         <f t="shared" si="1"/>
-        <v>409.2552</v>
-      </c>
-      <c r="F54" s="2">
+        <v>493.35480000000007</v>
+      </c>
+      <c r="G54" s="2">
         <f t="shared" si="2"/>
-        <v>464.41680000000008</v>
-      </c>
-      <c r="G54" s="2">
-        <f t="shared" si="3"/>
-        <v>468.79</v>
+        <v>469.8768</v>
       </c>
       <c r="H54" s="2"/>
     </row>
@@ -8120,20 +8265,20 @@
         <v>453</v>
       </c>
       <c r="D55" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="E55" s="2">
         <f t="shared" si="4"/>
         <v>17.428571428571427</v>
       </c>
-      <c r="E55" s="2">
+      <c r="F55" s="2">
         <f t="shared" si="1"/>
-        <v>417.06779999999998</v>
-      </c>
-      <c r="F55" s="2">
+        <v>516.22019999999998</v>
+      </c>
+      <c r="G55" s="2">
         <f t="shared" si="2"/>
-        <v>484.27710000000002</v>
-      </c>
-      <c r="G55" s="2">
-        <f t="shared" si="3"/>
-        <v>489.24319999999994</v>
+        <v>494.32059999999996</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -8149,20 +8294,20 @@
         <v>484</v>
       </c>
       <c r="D56" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="E56" s="2">
         <f t="shared" si="4"/>
         <v>18.285714285714285</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F56" s="2">
         <f t="shared" si="1"/>
-        <v>424.88040000000001</v>
-      </c>
-      <c r="F56" s="2">
+        <v>539.59259999999995</v>
+      </c>
+      <c r="G56" s="2">
         <f t="shared" si="2"/>
-        <v>504.55200000000002</v>
-      </c>
-      <c r="G56" s="2">
-        <f t="shared" si="3"/>
-        <v>510.1626</v>
+        <v>519.66119999999989</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -8178,20 +8323,20 @@
         <v>522</v>
       </c>
       <c r="D57" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="E57" s="2">
         <f t="shared" si="4"/>
         <v>19.428571428571427</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F57" s="2">
         <f t="shared" si="1"/>
-        <v>432.69299999999998</v>
-      </c>
-      <c r="F57" s="2">
+        <v>563.47199999999998</v>
+      </c>
+      <c r="G57" s="2">
         <f t="shared" si="2"/>
-        <v>525.24149999999997</v>
-      </c>
-      <c r="G57" s="2">
-        <f t="shared" si="3"/>
-        <v>531.55000000000007</v>
+        <v>545.91599999999994</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -8207,20 +8352,20 @@
         <v>546</v>
       </c>
       <c r="D58" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="E58" s="2">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F58" s="2">
         <f t="shared" si="1"/>
-        <v>440.50559999999996</v>
-      </c>
-      <c r="F58" s="2">
+        <v>587.85839999999996</v>
+      </c>
+      <c r="G58" s="2">
         <f t="shared" si="2"/>
-        <v>546.34559999999999</v>
-      </c>
-      <c r="G58" s="2">
-        <f t="shared" si="3"/>
-        <v>553.40719999999999</v>
+        <v>573.10239999999999</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -8236,20 +8381,20 @@
         <v>573</v>
       </c>
       <c r="D59" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="E59" s="2">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="E59" s="2">
+      <c r="F59" s="2">
         <f t="shared" si="1"/>
-        <v>448.31819999999999</v>
-      </c>
-      <c r="F59" s="2">
+        <v>612.7518</v>
+      </c>
+      <c r="G59" s="2">
         <f t="shared" si="2"/>
-        <v>567.86429999999996</v>
-      </c>
-      <c r="G59" s="2">
-        <f t="shared" si="3"/>
-        <v>575.73599999999999</v>
+        <v>601.23779999999988</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -8264,20 +8409,20 @@
         <v>593</v>
       </c>
       <c r="D60" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="E60" s="2">
         <f t="shared" si="4"/>
         <v>25.571428571428573</v>
       </c>
-      <c r="E60" s="2">
+      <c r="F60" s="2">
         <f t="shared" si="1"/>
-        <v>456.13079999999997</v>
-      </c>
-      <c r="F60" s="2">
+        <v>638.15219999999999</v>
+      </c>
+      <c r="G60" s="2">
         <f t="shared" si="2"/>
-        <v>589.7976000000001</v>
-      </c>
-      <c r="G60" s="2">
-        <f t="shared" si="3"/>
-        <v>598.53819999999996</v>
+        <v>630.33960000000002</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -8292,20 +8437,20 @@
         <v>604</v>
       </c>
       <c r="D61" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E61" s="2">
         <f t="shared" si="4"/>
         <v>25.857142857142858</v>
       </c>
-      <c r="E61" s="2">
+      <c r="F61" s="2">
         <f t="shared" si="1"/>
-        <v>463.9434</v>
-      </c>
-      <c r="F61" s="2">
+        <v>664.05960000000005</v>
+      </c>
+      <c r="G61" s="2">
         <f t="shared" si="2"/>
-        <v>612.14550000000008</v>
-      </c>
-      <c r="G61" s="2">
-        <f t="shared" si="3"/>
-        <v>621.81560000000013</v>
+        <v>660.4251999999999</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -8320,20 +8465,20 @@
         <v>647</v>
       </c>
       <c r="D62" s="2">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="E62" s="2">
         <f t="shared" si="4"/>
         <v>27.714285714285715</v>
       </c>
-      <c r="E62" s="2">
+      <c r="F62" s="2">
         <f t="shared" si="1"/>
-        <v>471.75599999999997</v>
-      </c>
-      <c r="F62" s="2">
+        <v>690.47400000000005</v>
+      </c>
+      <c r="G62" s="2">
         <f t="shared" si="2"/>
-        <v>634.90800000000013</v>
-      </c>
-      <c r="G62" s="2">
-        <f t="shared" si="3"/>
-        <v>645.57000000000005</v>
+        <v>691.51199999999994</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -8348,20 +8493,20 @@
         <v>687</v>
       </c>
       <c r="D63" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="E63" s="2">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="E63" s="2">
+      <c r="F63" s="2">
         <f t="shared" si="1"/>
-        <v>479.5686</v>
-      </c>
-      <c r="F63" s="2">
+        <v>717.3954</v>
+      </c>
+      <c r="G63" s="2">
         <f t="shared" si="2"/>
-        <v>658.08510000000012</v>
-      </c>
-      <c r="G63" s="2">
-        <f t="shared" si="3"/>
-        <v>669.80320000000006</v>
+        <v>723.61739999999986</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -8376,20 +8521,20 @@
         <v>717</v>
       </c>
       <c r="D64" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="E64" s="2">
         <f t="shared" si="4"/>
         <v>27.857142857142858</v>
       </c>
-      <c r="E64" s="2">
+      <c r="F64" s="2">
         <f t="shared" si="1"/>
-        <v>487.38119999999998</v>
-      </c>
-      <c r="F64" s="2">
+        <v>744.82380000000012</v>
+      </c>
+      <c r="G64" s="2">
         <f t="shared" si="2"/>
-        <v>681.67680000000007</v>
-      </c>
-      <c r="G64" s="2">
-        <f t="shared" si="3"/>
-        <v>694.51699999999994</v>
+        <v>756.75879999999984</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -8404,20 +8549,20 @@
         <v>775</v>
       </c>
       <c r="D65" s="2">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="E65" s="2">
         <f t="shared" si="4"/>
         <v>32.714285714285715</v>
       </c>
-      <c r="E65" s="2">
+      <c r="F65" s="2">
         <f t="shared" si="1"/>
-        <v>495.19380000000001</v>
-      </c>
-      <c r="F65" s="2">
+        <v>772.75920000000008</v>
+      </c>
+      <c r="G65" s="2">
         <f t="shared" si="2"/>
-        <v>705.68310000000008</v>
-      </c>
-      <c r="G65" s="2">
-        <f t="shared" si="3"/>
-        <v>719.71320000000003</v>
+        <v>790.95360000000005</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -8429,23 +8574,23 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>768</v>
+        <v>791</v>
       </c>
       <c r="D66" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E66" s="2">
         <f t="shared" si="4"/>
-        <v>27.857142857142858</v>
-      </c>
-      <c r="E66" s="2">
+        <v>31.142857142857142</v>
+      </c>
+      <c r="F66" s="2">
         <f t="shared" si="1"/>
-        <v>503.00639999999999</v>
-      </c>
-      <c r="F66" s="2">
+        <v>801.20159999999998</v>
+      </c>
+      <c r="G66" s="2">
         <f t="shared" si="2"/>
-        <v>730.10400000000004</v>
-      </c>
-      <c r="G66" s="2">
-        <f t="shared" si="3"/>
-        <v>745.39359999999999</v>
+        <v>826.2192</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -8457,23 +8602,23 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>785</v>
+        <v>849</v>
       </c>
       <c r="D67" s="2">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="E67" s="2">
         <f t="shared" si="4"/>
-        <v>27.428571428571427</v>
-      </c>
-      <c r="E67" s="2">
-        <f t="shared" ref="E67:E115" si="6">7.8126*B67+3</f>
-        <v>510.81899999999996</v>
+        <v>36.571428571428569</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F115" si="7">0.2073*B67^2-1.9062*B67+3</f>
-        <v>754.93950000000007</v>
+        <f t="shared" ref="F67:F115" si="6">0.2535*B67^2-3.7521*B67+3</f>
+        <v>830.15099999999984</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G115" si="8">0.0003*B67^3+0.1854*B67^2-1.4945*B67+3</f>
-        <v>771.56000000000006</v>
+        <f t="shared" ref="G67:G115" si="7">0.0029*B67^3-0.0127*B67^2+1.7972*B67+3</f>
+        <v>862.57299999999987</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -8485,23 +8630,23 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>802</v>
+        <v>885</v>
       </c>
       <c r="D68" s="2">
+        <f t="shared" ref="D68:D71" si="8">C68-C67</f>
+        <v>36</v>
+      </c>
+      <c r="E68" s="2">
         <f t="shared" si="4"/>
-        <v>28.285714285714285</v>
-      </c>
-      <c r="E68" s="2">
+        <v>40.142857142857146</v>
+      </c>
+      <c r="F68" s="2">
         <f t="shared" si="6"/>
-        <v>518.63159999999993</v>
-      </c>
-      <c r="F68" s="2">
+        <v>859.6074000000001</v>
+      </c>
+      <c r="G68" s="2">
         <f t="shared" si="7"/>
-        <v>780.18960000000004</v>
-      </c>
-      <c r="G68" s="2">
-        <f t="shared" si="8"/>
-        <v>798.21419999999989</v>
+        <v>900.03239999999994</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -8512,18 +8657,24 @@
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="C69">
+        <v>974</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
       <c r="E69" s="2">
+        <f t="shared" si="4"/>
+        <v>46.714285714285715</v>
+      </c>
+      <c r="F69" s="2">
         <f t="shared" si="6"/>
-        <v>526.44420000000002</v>
-      </c>
-      <c r="F69" s="2">
+        <v>889.57080000000008</v>
+      </c>
+      <c r="G69" s="2">
         <f t="shared" si="7"/>
-        <v>805.85429999999997</v>
-      </c>
-      <c r="G69" s="2">
-        <f t="shared" si="8"/>
-        <v>825.35800000000006</v>
+        <v>938.61479999999983</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -8534,18 +8685,24 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="C70" s="3">
+        <v>1046</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
       <c r="E70" s="2">
+        <f t="shared" si="4"/>
+        <v>51.285714285714285</v>
+      </c>
+      <c r="F70" s="2">
         <f t="shared" si="6"/>
-        <v>534.2568</v>
-      </c>
-      <c r="F70" s="2">
+        <v>920.0412</v>
+      </c>
+      <c r="G70" s="2">
         <f t="shared" si="7"/>
-        <v>831.93360000000007</v>
-      </c>
-      <c r="G70" s="2">
-        <f t="shared" si="8"/>
-        <v>852.99320000000012</v>
+        <v>978.33759999999995</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -8556,18 +8713,24 @@
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="C71" s="3">
+        <v>1096</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
       <c r="E71" s="2">
+        <f t="shared" si="4"/>
+        <v>54.142857142857146</v>
+      </c>
+      <c r="F71" s="2">
         <f t="shared" si="6"/>
-        <v>542.06939999999997</v>
-      </c>
-      <c r="F71" s="2">
+        <v>951.01860000000011</v>
+      </c>
+      <c r="G71" s="2">
         <f t="shared" si="7"/>
-        <v>858.42750000000012</v>
-      </c>
-      <c r="G71" s="2">
-        <f t="shared" si="8"/>
-        <v>881.12160000000006</v>
+        <v>1019.2181999999999</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -8578,18 +8741,14 @@
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2">
+      <c r="E72" s="2"/>
+      <c r="F72" s="2">
         <f t="shared" si="6"/>
-        <v>549.88199999999995</v>
-      </c>
-      <c r="F72" s="2">
+        <v>982.50300000000016</v>
+      </c>
+      <c r="G72" s="2">
         <f t="shared" si="7"/>
-        <v>885.33600000000013</v>
-      </c>
-      <c r="G72" s="2">
-        <f t="shared" si="8"/>
-        <v>909.745</v>
+        <v>1061.2739999999999</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -8600,18 +8759,14 @@
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2">
         <f t="shared" si="6"/>
-        <v>557.69460000000004</v>
-      </c>
-      <c r="F73" s="2">
+        <v>1014.4943999999999</v>
+      </c>
+      <c r="G73" s="2">
         <f t="shared" si="7"/>
-        <v>912.65909999999997</v>
-      </c>
-      <c r="G73" s="2">
-        <f t="shared" si="8"/>
-        <v>938.86519999999996</v>
+        <v>1104.5224000000001</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -8622,18 +8777,14 @@
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2">
+      <c r="E74" s="2"/>
+      <c r="F74" s="2">
         <f t="shared" si="6"/>
-        <v>565.50720000000001</v>
-      </c>
-      <c r="F74" s="2">
+        <v>1046.9928</v>
+      </c>
+      <c r="G74" s="2">
         <f t="shared" si="7"/>
-        <v>940.39679999999998</v>
-      </c>
-      <c r="G74" s="2">
-        <f t="shared" si="8"/>
-        <v>968.48399999999992</v>
+        <v>1148.9807999999998</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -8644,18 +8795,14 @@
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2">
         <f t="shared" si="6"/>
-        <v>573.31979999999999</v>
-      </c>
-      <c r="F75" s="2">
+        <v>1079.9982</v>
+      </c>
+      <c r="G75" s="2">
         <f t="shared" si="7"/>
-        <v>968.54910000000007</v>
-      </c>
-      <c r="G75" s="2">
-        <f t="shared" si="8"/>
-        <v>998.60320000000002</v>
+        <v>1194.6665999999998</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -8666,18 +8813,14 @@
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2">
         <f t="shared" si="6"/>
-        <v>581.13239999999996</v>
-      </c>
-      <c r="F76" s="2">
+        <v>1113.5106000000001</v>
+      </c>
+      <c r="G76" s="2">
         <f t="shared" si="7"/>
-        <v>997.11599999999999</v>
-      </c>
-      <c r="G76" s="2">
-        <f t="shared" si="8"/>
-        <v>1029.2246</v>
+        <v>1241.5971999999999</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -8688,18 +8831,14 @@
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2">
         <f t="shared" si="6"/>
-        <v>588.94499999999994</v>
-      </c>
-      <c r="F77" s="2">
+        <v>1147.53</v>
+      </c>
+      <c r="G77" s="2">
         <f t="shared" si="7"/>
-        <v>1026.0974999999999</v>
-      </c>
-      <c r="G77" s="2">
-        <f t="shared" si="8"/>
-        <v>1060.3499999999999</v>
+        <v>1289.79</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -8710,18 +8849,14 @@
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2">
         <f t="shared" si="6"/>
-        <v>596.75760000000002</v>
-      </c>
-      <c r="F78" s="2">
+        <v>1182.0564000000002</v>
+      </c>
+      <c r="G78" s="2">
         <f t="shared" si="7"/>
-        <v>1055.4936</v>
-      </c>
-      <c r="G78" s="2">
-        <f t="shared" si="8"/>
-        <v>1091.9812000000002</v>
+        <v>1339.2623999999998</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -8732,18 +8867,14 @@
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2">
         <f t="shared" si="6"/>
-        <v>604.5702</v>
-      </c>
-      <c r="F79" s="2">
+        <v>1217.0898000000002</v>
+      </c>
+      <c r="G79" s="2">
         <f t="shared" si="7"/>
-        <v>1085.3043000000002</v>
-      </c>
-      <c r="G79" s="2">
-        <f t="shared" si="8"/>
-        <v>1124.1200000000001</v>
+        <v>1390.0318</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -8754,21 +8885,17 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2">
         <f t="shared" si="6"/>
-        <v>612.38279999999997</v>
-      </c>
-      <c r="F80" s="2">
+        <v>1252.6302000000001</v>
+      </c>
+      <c r="G80" s="2">
         <f t="shared" si="7"/>
-        <v>1115.5296000000001</v>
-      </c>
-      <c r="G80" s="2">
-        <f t="shared" si="8"/>
-        <v>1156.7682000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1442.1155999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43704</v>
       </c>
@@ -8776,21 +8903,17 @@
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2">
         <f t="shared" si="6"/>
-        <v>620.19539999999995</v>
-      </c>
-      <c r="F81" s="2">
+        <v>1288.6776</v>
+      </c>
+      <c r="G81" s="2">
         <f t="shared" si="7"/>
-        <v>1146.1695000000002</v>
-      </c>
-      <c r="G81" s="2">
-        <f t="shared" si="8"/>
-        <v>1189.9276000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1495.5311999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43705</v>
       </c>
@@ -8798,21 +8921,20 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2">
+      <c r="E82" s="2"/>
+      <c r="F82" s="2">
         <f t="shared" si="6"/>
-        <v>628.00800000000004</v>
-      </c>
-      <c r="F82" s="2">
+        <v>1325.232</v>
+      </c>
+      <c r="G82" s="2">
         <f t="shared" si="7"/>
-        <v>1177.2240000000002</v>
-      </c>
-      <c r="G82" s="2">
-        <f t="shared" si="8"/>
-        <v>1223.5999999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1550.296</v>
+      </c>
+      <c r="H82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43706</v>
       </c>
@@ -8820,21 +8942,17 @@
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2">
         <f t="shared" si="6"/>
-        <v>635.82060000000001</v>
-      </c>
-      <c r="F83" s="2">
+        <v>1362.2934</v>
+      </c>
+      <c r="G83" s="2">
         <f t="shared" si="7"/>
-        <v>1208.6931000000002</v>
-      </c>
-      <c r="G83" s="2">
-        <f t="shared" si="8"/>
-        <v>1257.7872</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1606.4274</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43707</v>
       </c>
@@ -8842,21 +8960,17 @@
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2">
         <f t="shared" si="6"/>
-        <v>643.63319999999999</v>
-      </c>
-      <c r="F84" s="2">
+        <v>1399.8618000000001</v>
+      </c>
+      <c r="G84" s="2">
         <f t="shared" si="7"/>
-        <v>1240.5768000000003</v>
-      </c>
-      <c r="G84" s="2">
-        <f t="shared" si="8"/>
-        <v>1292.491</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1663.9427999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43708</v>
       </c>
@@ -8864,21 +8978,17 @@
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2">
         <f t="shared" si="6"/>
-        <v>651.44579999999996</v>
-      </c>
-      <c r="F85" s="2">
+        <v>1437.9371999999998</v>
+      </c>
+      <c r="G85" s="2">
         <f t="shared" si="7"/>
-        <v>1272.8751</v>
-      </c>
-      <c r="G85" s="2">
-        <f t="shared" si="8"/>
-        <v>1327.7132000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1722.8596</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43709</v>
       </c>
@@ -8886,21 +8996,17 @@
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2">
         <f t="shared" si="6"/>
-        <v>659.25839999999994</v>
-      </c>
-      <c r="F86" s="2">
+        <v>1476.5195999999999</v>
+      </c>
+      <c r="G86" s="2">
         <f t="shared" si="7"/>
-        <v>1305.5880000000002</v>
-      </c>
-      <c r="G86" s="2">
-        <f t="shared" si="8"/>
-        <v>1363.4556000000002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1783.1951999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43710</v>
       </c>
@@ -8908,21 +9014,20 @@
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2">
+      <c r="E87" s="2"/>
+      <c r="F87" s="2">
         <f t="shared" si="6"/>
-        <v>667.07100000000003</v>
-      </c>
-      <c r="F87" s="2">
+        <v>1515.6089999999999</v>
+      </c>
+      <c r="G87" s="2">
         <f t="shared" si="7"/>
-        <v>1338.7155</v>
-      </c>
-      <c r="G87" s="2">
-        <f t="shared" si="8"/>
-        <v>1399.72</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1844.9669999999999</v>
+      </c>
+      <c r="H87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43711</v>
       </c>
@@ -8930,21 +9035,17 @@
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2">
         <f t="shared" si="6"/>
-        <v>674.8836</v>
-      </c>
-      <c r="F88" s="2">
+        <v>1555.2053999999998</v>
+      </c>
+      <c r="G88" s="2">
         <f t="shared" si="7"/>
-        <v>1372.2576000000001</v>
-      </c>
-      <c r="G88" s="2">
-        <f t="shared" si="8"/>
-        <v>1436.5082</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1908.1923999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43712</v>
       </c>
@@ -8952,21 +9053,17 @@
         <f t="shared" si="5"/>
         <v>87</v>
       </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2">
+      <c r="E89" s="2"/>
+      <c r="F89" s="2">
         <f t="shared" si="6"/>
-        <v>682.69619999999998</v>
-      </c>
-      <c r="F89" s="2">
+        <v>1595.3088</v>
+      </c>
+      <c r="G89" s="2">
         <f t="shared" si="7"/>
-        <v>1406.2143000000001</v>
-      </c>
-      <c r="G89" s="2">
-        <f t="shared" si="8"/>
-        <v>1473.8219999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1972.8887999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43713</v>
       </c>
@@ -8974,21 +9071,17 @@
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2">
         <f t="shared" si="6"/>
-        <v>690.50879999999995</v>
-      </c>
-      <c r="F90" s="2">
+        <v>1635.9192</v>
+      </c>
+      <c r="G90" s="2">
         <f t="shared" si="7"/>
-        <v>1440.5856000000001</v>
-      </c>
-      <c r="G90" s="2">
-        <f t="shared" si="8"/>
-        <v>1511.6632</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2039.0735999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43714</v>
       </c>
@@ -8996,21 +9089,17 @@
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2">
+      <c r="E91" s="2"/>
+      <c r="F91" s="2">
         <f t="shared" si="6"/>
-        <v>698.32139999999993</v>
-      </c>
-      <c r="F91" s="2">
+        <v>1677.0366000000001</v>
+      </c>
+      <c r="G91" s="2">
         <f t="shared" si="7"/>
-        <v>1475.3715000000002</v>
-      </c>
-      <c r="G91" s="2">
-        <f t="shared" si="8"/>
-        <v>1550.0336</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2106.7641999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43715</v>
       </c>
@@ -9018,21 +9107,17 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2">
+      <c r="E92" s="2"/>
+      <c r="F92" s="2">
         <f t="shared" si="6"/>
-        <v>706.13400000000001</v>
-      </c>
-      <c r="F92" s="2">
+        <v>1718.6609999999998</v>
+      </c>
+      <c r="G92" s="2">
         <f t="shared" si="7"/>
-        <v>1510.5720000000001</v>
-      </c>
-      <c r="G92" s="2">
-        <f t="shared" si="8"/>
-        <v>1588.9349999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2175.9780000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43716</v>
       </c>
@@ -9040,21 +9125,17 @@
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2">
         <f t="shared" si="6"/>
-        <v>713.94659999999999</v>
-      </c>
-      <c r="F93" s="2">
+        <v>1760.7923999999998</v>
+      </c>
+      <c r="G93" s="2">
         <f t="shared" si="7"/>
-        <v>1546.1871000000001</v>
-      </c>
-      <c r="G93" s="2">
-        <f t="shared" si="8"/>
-        <v>1628.3692000000003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2246.7323999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43717</v>
       </c>
@@ -9062,21 +9143,17 @@
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2">
+      <c r="E94" s="2"/>
+      <c r="F94" s="2">
         <f t="shared" si="6"/>
-        <v>721.75919999999996</v>
-      </c>
-      <c r="F94" s="2">
+        <v>1803.4308000000003</v>
+      </c>
+      <c r="G94" s="2">
         <f t="shared" si="7"/>
-        <v>1582.2168000000001</v>
-      </c>
-      <c r="G94" s="2">
-        <f t="shared" si="8"/>
-        <v>1668.338</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2319.0447999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43718</v>
       </c>
@@ -9084,21 +9161,17 @@
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2">
         <f t="shared" si="6"/>
-        <v>729.57179999999994</v>
-      </c>
-      <c r="F95" s="2">
+        <v>1846.5762</v>
+      </c>
+      <c r="G95" s="2">
         <f t="shared" si="7"/>
-        <v>1618.6611000000003</v>
-      </c>
-      <c r="G95" s="2">
-        <f t="shared" si="8"/>
-        <v>1708.8432000000003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2392.9326000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43719</v>
       </c>
@@ -9106,18 +9179,14 @@
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2">
         <f t="shared" si="6"/>
-        <v>737.38440000000003</v>
-      </c>
-      <c r="F96" s="2">
+        <v>1890.2285999999999</v>
+      </c>
+      <c r="G96" s="2">
         <f t="shared" si="7"/>
-        <v>1655.52</v>
-      </c>
-      <c r="G96" s="2">
-        <f t="shared" si="8"/>
-        <v>1749.8866</v>
+        <v>2468.4132</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -9128,18 +9197,14 @@
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2">
+      <c r="E97" s="2"/>
+      <c r="F97" s="2">
         <f t="shared" si="6"/>
-        <v>745.197</v>
-      </c>
-      <c r="F97" s="2">
+        <v>1934.3880000000001</v>
+      </c>
+      <c r="G97" s="2">
         <f t="shared" si="7"/>
-        <v>1692.7935000000002</v>
-      </c>
-      <c r="G97" s="2">
-        <f t="shared" si="8"/>
-        <v>1791.4700000000003</v>
+        <v>2545.5039999999999</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -9150,18 +9215,14 @@
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2">
+      <c r="E98" s="2"/>
+      <c r="F98" s="2">
         <f t="shared" si="6"/>
-        <v>753.00959999999998</v>
-      </c>
-      <c r="F98" s="2">
+        <v>1979.0544</v>
+      </c>
+      <c r="G98" s="2">
         <f t="shared" si="7"/>
-        <v>1730.4816000000001</v>
-      </c>
-      <c r="G98" s="2">
-        <f t="shared" si="8"/>
-        <v>1833.5952</v>
+        <v>2624.2223999999997</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -9172,18 +9233,14 @@
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2">
+      <c r="E99" s="2"/>
+      <c r="F99" s="2">
         <f t="shared" si="6"/>
-        <v>760.82219999999995</v>
-      </c>
-      <c r="F99" s="2">
+        <v>2024.2278000000001</v>
+      </c>
+      <c r="G99" s="2">
         <f t="shared" si="7"/>
-        <v>1768.5843000000002</v>
-      </c>
-      <c r="G99" s="2">
-        <f t="shared" si="8"/>
-        <v>1876.2640000000001</v>
+        <v>2704.5857999999998</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -9194,18 +9251,14 @@
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2">
+      <c r="E100" s="2"/>
+      <c r="F100" s="2">
         <f t="shared" si="6"/>
-        <v>768.63479999999993</v>
-      </c>
-      <c r="F100" s="2">
+        <v>2069.9081999999999</v>
+      </c>
+      <c r="G100" s="2">
         <f t="shared" si="7"/>
-        <v>1807.1016</v>
-      </c>
-      <c r="G100" s="2">
-        <f t="shared" si="8"/>
-        <v>1919.4781999999998</v>
+        <v>2786.6115999999997</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -9216,18 +9269,14 @@
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2">
+      <c r="E101" s="2"/>
+      <c r="F101" s="2">
         <f t="shared" si="6"/>
-        <v>776.44740000000002</v>
-      </c>
-      <c r="F101" s="2">
+        <v>2116.0956000000001</v>
+      </c>
+      <c r="G101" s="2">
         <f t="shared" si="7"/>
-        <v>1846.0335000000002</v>
-      </c>
-      <c r="G101" s="2">
-        <f t="shared" si="8"/>
-        <v>1963.2395999999999</v>
+        <v>2870.3172</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -9238,18 +9287,14 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2">
+      <c r="E102" s="2"/>
+      <c r="F102" s="2">
         <f t="shared" si="6"/>
-        <v>784.26</v>
-      </c>
-      <c r="F102" s="2">
+        <v>2162.79</v>
+      </c>
+      <c r="G102" s="2">
         <f t="shared" si="7"/>
-        <v>1885.38</v>
-      </c>
-      <c r="G102" s="2">
-        <f t="shared" si="8"/>
-        <v>2007.55</v>
+        <v>2955.72</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -9260,18 +9305,14 @@
         <f t="shared" si="5"/>
         <v>101</v>
       </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2">
+      <c r="E103" s="2"/>
+      <c r="F103" s="2">
         <f t="shared" si="6"/>
-        <v>792.07259999999997</v>
-      </c>
-      <c r="F103" s="2">
+        <v>2209.9913999999999</v>
+      </c>
+      <c r="G103" s="2">
         <f t="shared" si="7"/>
-        <v>1925.1411000000001</v>
-      </c>
-      <c r="G103" s="2">
-        <f t="shared" si="8"/>
-        <v>2052.4112</v>
+        <v>3042.8373999999994</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -9282,18 +9323,14 @@
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2">
+      <c r="E104" s="2"/>
+      <c r="F104" s="2">
         <f t="shared" si="6"/>
-        <v>799.88519999999994</v>
-      </c>
-      <c r="F104" s="2">
+        <v>2257.6998000000003</v>
+      </c>
+      <c r="G104" s="2">
         <f t="shared" si="7"/>
-        <v>1965.3168000000003</v>
-      </c>
-      <c r="G104" s="2">
-        <f t="shared" si="8"/>
-        <v>2097.8250000000003</v>
+        <v>3131.6867999999995</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -9304,18 +9341,14 @@
         <f t="shared" si="5"/>
         <v>103</v>
       </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2">
+      <c r="E105" s="2"/>
+      <c r="F105" s="2">
         <f t="shared" si="6"/>
-        <v>807.69780000000003</v>
-      </c>
-      <c r="F105" s="2">
+        <v>2305.9151999999999</v>
+      </c>
+      <c r="G105" s="2">
         <f t="shared" si="7"/>
-        <v>2005.9070999999999</v>
-      </c>
-      <c r="G105" s="2">
-        <f t="shared" si="8"/>
-        <v>2143.7932000000001</v>
+        <v>3222.2855999999997</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -9326,18 +9359,14 @@
         <f t="shared" si="5"/>
         <v>104</v>
       </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2">
+      <c r="E106" s="2"/>
+      <c r="F106" s="2">
         <f t="shared" si="6"/>
-        <v>815.5104</v>
-      </c>
-      <c r="F106" s="2">
+        <v>2354.6376</v>
+      </c>
+      <c r="G106" s="2">
         <f t="shared" si="7"/>
-        <v>2046.9120000000003</v>
-      </c>
-      <c r="G106" s="2">
-        <f t="shared" si="8"/>
-        <v>2190.3176000000003</v>
+        <v>3314.6512000000002</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -9348,18 +9377,14 @@
         <f t="shared" si="5"/>
         <v>105</v>
       </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2">
+      <c r="E107" s="2"/>
+      <c r="F107" s="2">
         <f t="shared" si="6"/>
-        <v>823.32299999999998</v>
-      </c>
-      <c r="F107" s="2">
+        <v>2403.8670000000002</v>
+      </c>
+      <c r="G107" s="2">
         <f t="shared" si="7"/>
-        <v>2088.3315000000002</v>
-      </c>
-      <c r="G107" s="2">
-        <f t="shared" si="8"/>
-        <v>2237.4</v>
+        <v>3408.8009999999999</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -9370,18 +9395,14 @@
         <f t="shared" si="5"/>
         <v>106</v>
       </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2">
+      <c r="E108" s="2"/>
+      <c r="F108" s="2">
         <f t="shared" si="6"/>
-        <v>831.13559999999995</v>
-      </c>
-      <c r="F108" s="2">
+        <v>2453.6034</v>
+      </c>
+      <c r="G108" s="2">
         <f t="shared" si="7"/>
-        <v>2130.1655999999998</v>
-      </c>
-      <c r="G108" s="2">
-        <f t="shared" si="8"/>
-        <v>2285.0421999999999</v>
+        <v>3504.7523999999999</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -9392,18 +9413,14 @@
         <f t="shared" si="5"/>
         <v>107</v>
       </c>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2">
+      <c r="E109" s="2"/>
+      <c r="F109" s="2">
         <f t="shared" si="6"/>
-        <v>838.94819999999993</v>
-      </c>
-      <c r="F109" s="2">
+        <v>2503.8468000000003</v>
+      </c>
+      <c r="G109" s="2">
         <f t="shared" si="7"/>
-        <v>2172.4142999999999</v>
-      </c>
-      <c r="G109" s="2">
-        <f t="shared" si="8"/>
-        <v>2333.2460000000001</v>
+        <v>3602.5227999999997</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -9414,18 +9431,14 @@
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2">
+      <c r="E110" s="2"/>
+      <c r="F110" s="2">
         <f t="shared" si="6"/>
-        <v>846.76080000000002</v>
-      </c>
-      <c r="F110" s="2">
+        <v>2554.5972000000002</v>
+      </c>
+      <c r="G110" s="2">
         <f t="shared" si="7"/>
-        <v>2215.0776000000001</v>
-      </c>
-      <c r="G110" s="2">
-        <f t="shared" si="8"/>
-        <v>2382.0131999999999</v>
+        <v>3702.1295999999998</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -9436,18 +9449,14 @@
         <f t="shared" si="5"/>
         <v>109</v>
       </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2">
+      <c r="E111" s="2"/>
+      <c r="F111" s="2">
         <f t="shared" si="6"/>
-        <v>854.57339999999999</v>
-      </c>
-      <c r="F111" s="2">
+        <v>2605.8546000000001</v>
+      </c>
+      <c r="G111" s="2">
         <f t="shared" si="7"/>
-        <v>2258.1555000000003</v>
-      </c>
-      <c r="G111" s="2">
-        <f t="shared" si="8"/>
-        <v>2431.3455999999996</v>
+        <v>3803.5901999999996</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -9458,18 +9467,14 @@
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2">
+      <c r="E112" s="2"/>
+      <c r="F112" s="2">
         <f t="shared" si="6"/>
-        <v>862.38599999999997</v>
-      </c>
-      <c r="F112" s="2">
+        <v>2657.6189999999997</v>
+      </c>
+      <c r="G112" s="2">
         <f t="shared" si="7"/>
-        <v>2301.6480000000001</v>
-      </c>
-      <c r="G112" s="2">
-        <f t="shared" si="8"/>
-        <v>2481.2450000000003</v>
+        <v>3906.9219999999996</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -9480,18 +9485,14 @@
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2">
+      <c r="E113" s="2"/>
+      <c r="F113" s="2">
         <f t="shared" si="6"/>
-        <v>870.19859999999994</v>
-      </c>
-      <c r="F113" s="2">
+        <v>2709.8904000000002</v>
+      </c>
+      <c r="G113" s="2">
         <f t="shared" si="7"/>
-        <v>2345.5551</v>
-      </c>
-      <c r="G113" s="2">
-        <f t="shared" si="8"/>
-        <v>2531.7132000000001</v>
+        <v>4012.1423999999997</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -9502,18 +9503,14 @@
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2">
+      <c r="E114" s="2"/>
+      <c r="F114" s="2">
         <f t="shared" si="6"/>
-        <v>878.01119999999992</v>
-      </c>
-      <c r="F114" s="2">
+        <v>2762.6687999999999</v>
+      </c>
+      <c r="G114" s="2">
         <f t="shared" si="7"/>
-        <v>2389.8768</v>
-      </c>
-      <c r="G114" s="2">
-        <f t="shared" si="8"/>
-        <v>2582.752</v>
+        <v>4119.2687999999998</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -9524,22 +9521,18 @@
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2">
+      <c r="E115" s="2"/>
+      <c r="F115" s="2">
         <f t="shared" si="6"/>
-        <v>885.82380000000001</v>
-      </c>
-      <c r="F115" s="2">
+        <v>2815.9542000000001</v>
+      </c>
+      <c r="G115" s="2">
         <f t="shared" si="7"/>
-        <v>2434.6131</v>
-      </c>
-      <c r="G115" s="2">
-        <f t="shared" si="8"/>
-        <v>2634.3632000000002</v>
+        <v>4228.3185999999996</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:G1048576">
+  <conditionalFormatting sqref="F1:G1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>$C1*1.25</formula>
     </cfRule>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D1BA8F-371C-491E-B1FE-FC1A7A551A96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3999CE-3EFD-4A92-9775-59AABF06C8A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,6 +766,24 @@
                 </c:pt>
                 <c:pt idx="69" formatCode="#,##0">
                   <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="#,##0">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="#,##0">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="#,##0">
+                  <c:v>1246</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="#,##0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="#,##0">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="#,##0">
+                  <c:v>1365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,6 +1724,24 @@
                 </c:pt>
                 <c:pt idx="69" formatCode="#,##0">
                   <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="#,##0">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="#,##0">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="#,##0">
+                  <c:v>1246</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="#,##0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="#,##0">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="#,##0">
+                  <c:v>1365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2691,6 +2727,24 @@
                 <c:pt idx="69">
                   <c:v>54.142857142857146</c:v>
                 </c:pt>
+                <c:pt idx="70">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>60.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>56.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>59.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>49.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45.571428571428569</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6679,7 +6733,8 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6735,11 +6790,11 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>0.2535*B2^2-3.7521*B2+3</f>
+        <f>0.2998*B2^2-5.7535*B2+3</f>
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <f>0.0029*B2^3-0.0127*B2^2+1.7972*B2+3</f>
+        <f>0.0041*B2^3-0.1105*B2^2+3.5372*B2+3</f>
         <v>3</v>
       </c>
       <c r="H2" s="2"/>
@@ -6765,12 +6820,12 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="1">0.2535*B3^2-3.7521*B3+3</f>
-        <v>-0.49860000000000015</v>
+        <f t="shared" ref="F3:F66" si="1">0.2998*B3^2-5.7535*B3+3</f>
+        <v>-2.4536999999999995</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="2">0.0029*B3^3-0.0127*B3^2+1.7972*B3+3</f>
-        <v>4.7873999999999999</v>
+        <f t="shared" ref="G3:G66" si="2">0.0041*B3^3-0.1105*B3^2+3.5372*B3+3</f>
+        <v>6.4307999999999996</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -6795,11 +6850,11 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="1"/>
-        <v>-3.4901999999999997</v>
+        <v>-7.3078000000000003</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="2"/>
-        <v>6.5667999999999997</v>
+        <v>9.6651999999999987</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -6824,11 +6879,11 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>-5.9748000000000001</v>
+        <v>-11.5623</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="2"/>
-        <v>8.355599999999999</v>
+        <v>12.727799999999998</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -6853,11 +6908,11 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>-7.9524000000000008</v>
+        <v>-15.217199999999998</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>10.171199999999999</v>
+        <v>15.6432</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -6882,11 +6937,11 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>-9.423</v>
+        <v>-18.272499999999997</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="2"/>
-        <v>12.030999999999999</v>
+        <v>18.436</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -6911,11 +6966,11 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>-10.3866</v>
+        <v>-20.728200000000001</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="2"/>
-        <v>13.952399999999999</v>
+        <v>21.130799999999997</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -6940,11 +6995,11 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>-10.843200000000001</v>
+        <v>-22.584299999999995</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="2"/>
-        <v>15.9528</v>
+        <v>23.752200000000002</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -6964,16 +7019,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E71" si="4">(C10-C3)/7</f>
+        <f t="shared" ref="E10:E73" si="4">(C10-C3)/7</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>-10.7928</v>
+        <v>-23.840799999999998</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="2"/>
-        <v>18.049599999999998</v>
+        <v>26.3248</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -6998,11 +7053,11 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>-10.235400000000002</v>
+        <v>-24.497700000000002</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="2"/>
-        <v>20.260199999999998</v>
+        <v>28.873199999999997</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -7027,11 +7082,11 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>-9.1709999999999994</v>
+        <v>-24.554999999999996</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="2"/>
-        <v>22.601999999999997</v>
+        <v>31.422000000000001</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -7056,11 +7111,11 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>-7.5995999999999988</v>
+        <v>-24.012699999999995</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>25.092399999999998</v>
+        <v>33.995800000000003</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -7085,11 +7140,11 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>-5.5212000000000003</v>
+        <v>-22.870800000000003</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>27.748799999999996</v>
+        <v>36.619199999999992</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -7114,11 +7169,11 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9357999999999933</v>
+        <v>-21.129300000000001</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>30.5886</v>
+        <v>39.316799999999994</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -7143,11 +7198,11 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>0.15659999999999741</v>
+        <v>-18.788199999999989</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="2"/>
-        <v>33.629199999999997</v>
+        <v>42.113199999999999</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -7172,11 +7227,11 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>3.7560000000000002</v>
+        <v>-15.847499999999997</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="2"/>
-        <v>36.887999999999998</v>
+        <v>45.033000000000001</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -7201,11 +7256,11 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>7.8624000000000009</v>
+        <v>-12.307199999999995</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="2"/>
-        <v>40.382399999999997</v>
+        <v>48.1008</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -7230,11 +7285,11 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>12.4758</v>
+        <v>-8.1672999999999973</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="2"/>
-        <v>44.129799999999996</v>
+        <v>51.341200000000001</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -7259,11 +7314,11 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>17.596199999999996</v>
+        <v>-3.4278000000000048</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>48.147599999999997</v>
+        <v>54.778799999999997</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -7288,11 +7343,11 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>23.223600000000005</v>
+        <v>1.9113000000000113</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>52.453199999999995</v>
+        <v>58.438200000000002</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -7317,11 +7372,11 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>29.358000000000004</v>
+        <v>7.8500000000000085</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="2"/>
-        <v>57.063999999999993</v>
+        <v>62.344000000000001</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -7346,11 +7401,11 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>35.999399999999994</v>
+        <v>14.388300000000015</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="2"/>
-        <v>61.997399999999999</v>
+        <v>66.520800000000008</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -7375,11 +7430,11 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>43.147800000000004</v>
+        <v>21.526200000000017</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="2"/>
-        <v>67.270799999999994</v>
+        <v>70.993200000000002</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -7404,11 +7459,11 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="1"/>
-        <v>50.803200000000018</v>
+        <v>29.2637</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="2"/>
-        <v>72.901600000000002</v>
+        <v>75.785799999999995</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -7433,11 +7488,11 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="1"/>
-        <v>58.965599999999995</v>
+        <v>37.600799999999992</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="2"/>
-        <v>78.907199999999989</v>
+        <v>80.923199999999994</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -7462,11 +7517,11 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="1"/>
-        <v>67.635000000000005</v>
+        <v>46.537499999999994</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="2"/>
-        <v>85.305000000000007</v>
+        <v>86.429999999999993</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -7491,11 +7546,11 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" si="1"/>
-        <v>76.81140000000002</v>
+        <v>56.073800000000006</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="2"/>
-        <v>92.112399999999994</v>
+        <v>92.330799999999996</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -7520,11 +7575,11 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" si="1"/>
-        <v>86.494799999999998</v>
+        <v>66.209700000000026</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="2"/>
-        <v>99.346800000000002</v>
+        <v>98.650200000000012</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -7549,11 +7604,11 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" si="1"/>
-        <v>96.685199999999995</v>
+        <v>76.945200000000028</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="2"/>
-        <v>107.0256</v>
+        <v>105.4128</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -7578,11 +7633,11 @@
       </c>
       <c r="F31" s="2">
         <f t="shared" si="1"/>
-        <v>107.3826</v>
+        <v>88.280300000000011</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="2"/>
-        <v>115.1662</v>
+        <v>112.64320000000002</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -7607,11 +7662,11 @@
       </c>
       <c r="F32" s="2">
         <f t="shared" si="1"/>
-        <v>118.587</v>
+        <v>100.215</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="2"/>
-        <v>123.786</v>
+        <v>120.366</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -7636,11 +7691,11 @@
       </c>
       <c r="F33" s="2">
         <f t="shared" si="1"/>
-        <v>130.29840000000002</v>
+        <v>112.74930000000001</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="2"/>
-        <v>132.9024</v>
+        <v>128.60579999999999</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -7665,11 +7720,11 @@
       </c>
       <c r="F34" s="2">
         <f t="shared" si="1"/>
-        <v>142.51679999999999</v>
+        <v>125.88320000000002</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="2"/>
-        <v>142.53279999999998</v>
+        <v>137.38720000000001</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -7694,11 +7749,11 @@
       </c>
       <c r="F35" s="2">
         <f t="shared" si="1"/>
-        <v>155.24220000000003</v>
+        <v>139.61670000000004</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="2"/>
-        <v>152.69459999999998</v>
+        <v>146.73480000000001</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -7723,11 +7778,11 @@
       </c>
       <c r="F36" s="2">
         <f t="shared" si="1"/>
-        <v>168.47460000000001</v>
+        <v>153.94980000000001</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="2"/>
-        <v>163.40519999999998</v>
+        <v>156.67320000000001</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -7752,11 +7807,11 @@
       </c>
       <c r="F37" s="2">
         <f t="shared" si="1"/>
-        <v>182.21400000000003</v>
+        <v>168.88249999999999</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="2"/>
-        <v>174.68199999999999</v>
+        <v>167.227</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -7781,11 +7836,11 @@
       </c>
       <c r="F38" s="2">
         <f t="shared" si="1"/>
-        <v>196.46039999999999</v>
+        <v>184.41479999999999</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="2"/>
-        <v>186.54239999999999</v>
+        <v>178.42079999999999</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -7810,11 +7865,11 @@
       </c>
       <c r="F39" s="2">
         <f t="shared" si="1"/>
-        <v>211.21379999999999</v>
+        <v>200.54669999999999</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="2"/>
-        <v>199.00379999999998</v>
+        <v>190.27920000000003</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -7839,11 +7894,11 @@
       </c>
       <c r="F40" s="2">
         <f t="shared" si="1"/>
-        <v>226.47420000000002</v>
+        <v>217.27820000000003</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="2"/>
-        <v>212.08359999999999</v>
+        <v>202.82680000000002</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -7868,11 +7923,11 @@
       </c>
       <c r="F41" s="2">
         <f t="shared" si="1"/>
-        <v>242.24160000000003</v>
+        <v>234.60930000000005</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="2"/>
-        <v>225.79919999999998</v>
+        <v>216.0882</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -7897,11 +7952,11 @@
       </c>
       <c r="F42" s="2">
         <f t="shared" si="1"/>
-        <v>258.51600000000002</v>
+        <v>252.54000000000002</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="2"/>
-        <v>240.16800000000001</v>
+        <v>230.08800000000002</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -7926,11 +7981,11 @@
       </c>
       <c r="F43" s="2">
         <f t="shared" si="1"/>
-        <v>275.29740000000004</v>
+        <v>271.07029999999997</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="2"/>
-        <v>255.20739999999995</v>
+        <v>244.85079999999999</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -7955,11 +8010,11 @@
       </c>
       <c r="F44" s="2">
         <f t="shared" si="1"/>
-        <v>292.58579999999995</v>
+        <v>290.20020000000005</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="2"/>
-        <v>270.9348</v>
+        <v>260.40120000000002</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -7984,11 +8039,11 @@
       </c>
       <c r="F45" s="2">
         <f t="shared" si="1"/>
-        <v>310.38119999999998</v>
+        <v>309.92970000000003</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="2"/>
-        <v>287.36759999999998</v>
+        <v>276.7638</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -8013,11 +8068,11 @@
       </c>
       <c r="F46" s="2">
         <f t="shared" si="1"/>
-        <v>328.68360000000001</v>
+        <v>330.25880000000006</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="2"/>
-        <v>304.52319999999997</v>
+        <v>293.96320000000003</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -8042,11 +8097,11 @@
       </c>
       <c r="F47" s="2">
         <f t="shared" si="1"/>
-        <v>347.49299999999994</v>
+        <v>351.18750000000006</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="2"/>
-        <v>322.41899999999998</v>
+        <v>312.024</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -8071,11 +8126,11 @@
       </c>
       <c r="F48" s="2">
         <f t="shared" si="1"/>
-        <v>366.8094000000001</v>
+        <v>372.7158</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="2"/>
-        <v>341.07239999999996</v>
+        <v>330.9708</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -8100,11 +8155,11 @@
       </c>
       <c r="F49" s="2">
         <f t="shared" si="1"/>
-        <v>386.63279999999997</v>
+        <v>394.84370000000001</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="2"/>
-        <v>360.50080000000003</v>
+        <v>350.82820000000004</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -8129,11 +8184,11 @@
       </c>
       <c r="F50" s="2">
         <f t="shared" si="1"/>
-        <v>406.96319999999997</v>
+        <v>417.57119999999998</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="2"/>
-        <v>380.72159999999997</v>
+        <v>371.62080000000003</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -8158,11 +8213,11 @@
       </c>
       <c r="F51" s="2">
         <f t="shared" si="1"/>
-        <v>427.80060000000003</v>
+        <v>440.89830000000001</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="2"/>
-        <v>401.75219999999996</v>
+        <v>393.3732</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -8187,11 +8242,11 @@
       </c>
       <c r="F52" s="2">
         <f t="shared" si="1"/>
-        <v>449.14499999999998</v>
+        <v>464.82499999999999</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" si="2"/>
-        <v>423.61</v>
+        <v>416.11</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -8216,11 +8271,11 @@
       </c>
       <c r="F53" s="2">
         <f t="shared" si="1"/>
-        <v>470.99640000000005</v>
+        <v>489.35130000000004</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="2"/>
-        <v>446.31239999999997</v>
+        <v>439.85579999999999</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -8245,11 +8300,11 @@
       </c>
       <c r="F54" s="2">
         <f t="shared" si="1"/>
-        <v>493.35480000000007</v>
+        <v>514.47720000000004</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="2"/>
-        <v>469.8768</v>
+        <v>464.63520000000005</v>
       </c>
       <c r="H54" s="2"/>
     </row>
@@ -8274,11 +8329,11 @@
       </c>
       <c r="F55" s="2">
         <f t="shared" si="1"/>
-        <v>516.22019999999998</v>
+        <v>540.20270000000005</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="2"/>
-        <v>494.32059999999996</v>
+        <v>490.47280000000001</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -8303,11 +8358,11 @@
       </c>
       <c r="F56" s="2">
         <f t="shared" si="1"/>
-        <v>539.59259999999995</v>
+        <v>566.52780000000007</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="2"/>
-        <v>519.66119999999989</v>
+        <v>517.39320000000009</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -8332,11 +8387,11 @@
       </c>
       <c r="F57" s="2">
         <f t="shared" si="1"/>
-        <v>563.47199999999998</v>
+        <v>593.45249999999999</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" si="2"/>
-        <v>545.91599999999994</v>
+        <v>545.42100000000005</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -8361,11 +8416,11 @@
       </c>
       <c r="F58" s="2">
         <f t="shared" si="1"/>
-        <v>587.85839999999996</v>
+        <v>620.97680000000014</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" si="2"/>
-        <v>573.10239999999999</v>
+        <v>574.58080000000007</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -8390,11 +8445,11 @@
       </c>
       <c r="F59" s="2">
         <f t="shared" si="1"/>
-        <v>612.7518</v>
+        <v>649.10069999999996</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" si="2"/>
-        <v>601.23779999999988</v>
+        <v>604.89720000000011</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -8418,11 +8473,11 @@
       </c>
       <c r="F60" s="2">
         <f t="shared" si="1"/>
-        <v>638.15219999999999</v>
+        <v>677.82420000000002</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="2"/>
-        <v>630.33960000000002</v>
+        <v>636.39480000000015</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -8446,11 +8501,11 @@
       </c>
       <c r="F61" s="2">
         <f t="shared" si="1"/>
-        <v>664.05960000000005</v>
+        <v>707.14730000000009</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="2"/>
-        <v>660.4251999999999</v>
+        <v>669.09820000000013</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -8474,11 +8529,11 @@
       </c>
       <c r="F62" s="2">
         <f t="shared" si="1"/>
-        <v>690.47400000000005</v>
+        <v>737.06999999999994</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" si="2"/>
-        <v>691.51199999999994</v>
+        <v>703.03200000000004</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -8502,11 +8557,11 @@
       </c>
       <c r="F63" s="2">
         <f t="shared" si="1"/>
-        <v>717.3954</v>
+        <v>767.59230000000002</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" si="2"/>
-        <v>723.61739999999986</v>
+        <v>738.22080000000005</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -8530,11 +8585,11 @@
       </c>
       <c r="F64" s="2">
         <f t="shared" si="1"/>
-        <v>744.82380000000012</v>
+        <v>798.71420000000001</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" si="2"/>
-        <v>756.75879999999984</v>
+        <v>774.68920000000003</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -8558,11 +8613,11 @@
       </c>
       <c r="F65" s="2">
         <f t="shared" si="1"/>
-        <v>772.75920000000008</v>
+        <v>830.43570000000011</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" si="2"/>
-        <v>790.95360000000005</v>
+        <v>812.46180000000004</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -8586,11 +8641,11 @@
       </c>
       <c r="F66" s="2">
         <f t="shared" si="1"/>
-        <v>801.20159999999998</v>
+        <v>862.75680000000011</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" si="2"/>
-        <v>826.2192</v>
+        <v>851.56320000000017</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -8613,12 +8668,12 @@
         <v>36.571428571428569</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F115" si="6">0.2535*B67^2-3.7521*B67+3</f>
-        <v>830.15099999999984</v>
+        <f t="shared" ref="F67:F115" si="6">0.2998*B67^2-5.7535*B67+3</f>
+        <v>895.67750000000001</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G115" si="7">0.0029*B67^3-0.0127*B67^2+1.7972*B67+3</f>
-        <v>862.57299999999987</v>
+        <f t="shared" ref="G67:G115" si="7">0.0041*B67^3-0.1105*B67^2+3.5372*B67+3</f>
+        <v>892.01800000000014</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -8633,7 +8688,7 @@
         <v>885</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D71" si="8">C68-C67</f>
+        <f t="shared" ref="D68:D77" si="8">C68-C67</f>
         <v>36</v>
       </c>
       <c r="E68" s="2">
@@ -8642,11 +8697,11 @@
       </c>
       <c r="F68" s="2">
         <f t="shared" si="6"/>
-        <v>859.6074000000001</v>
+        <v>929.19780000000014</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" si="7"/>
-        <v>900.03239999999994</v>
+        <v>933.85080000000005</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -8670,11 +8725,11 @@
       </c>
       <c r="F69" s="2">
         <f t="shared" si="6"/>
-        <v>889.57080000000008</v>
+        <v>963.31770000000006</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" si="7"/>
-        <v>938.61479999999983</v>
+        <v>977.08620000000008</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -8698,11 +8753,11 @@
       </c>
       <c r="F70" s="2">
         <f t="shared" si="6"/>
-        <v>920.0412</v>
+        <v>998.03719999999998</v>
       </c>
       <c r="G70" s="2">
         <f t="shared" si="7"/>
-        <v>978.33759999999995</v>
+        <v>1021.7488</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -8726,11 +8781,11 @@
       </c>
       <c r="F71" s="2">
         <f t="shared" si="6"/>
-        <v>951.01860000000011</v>
+        <v>1033.3562999999999</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" si="7"/>
-        <v>1019.2181999999999</v>
+        <v>1067.8632000000002</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -8741,14 +8796,24 @@
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="E72" s="2"/>
+      <c r="C72" s="3">
+        <v>1160</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
       <c r="F72" s="2">
         <f t="shared" si="6"/>
-        <v>982.50300000000016</v>
+        <v>1069.2750000000001</v>
       </c>
       <c r="G72" s="2">
         <f t="shared" si="7"/>
-        <v>1061.2739999999999</v>
+        <v>1115.4540000000002</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -8759,14 +8824,24 @@
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="E73" s="2"/>
+      <c r="C73" s="3">
+        <v>1216</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="4"/>
+        <v>60.714285714285715</v>
+      </c>
       <c r="F73" s="2">
         <f t="shared" si="6"/>
-        <v>1014.4943999999999</v>
+        <v>1105.7933</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" si="7"/>
-        <v>1104.5224000000001</v>
+        <v>1164.5458000000001</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -8777,14 +8852,24 @@
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="C74" s="3">
+        <v>1246</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" ref="E74:E77" si="9">(C74-C67)/7</f>
+        <v>56.714285714285715</v>
+      </c>
       <c r="F74" s="2">
         <f t="shared" si="6"/>
-        <v>1046.9928</v>
+        <v>1142.9112</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" si="7"/>
-        <v>1148.9807999999998</v>
+        <v>1215.1632</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -8795,14 +8880,24 @@
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="E75" s="2"/>
+      <c r="C75" s="3">
+        <v>1300</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="9"/>
+        <v>59.285714285714285</v>
+      </c>
       <c r="F75" s="2">
         <f t="shared" si="6"/>
-        <v>1079.9982</v>
+        <v>1180.6287</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" si="7"/>
-        <v>1194.6665999999998</v>
+        <v>1267.3308000000002</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -8813,14 +8908,24 @@
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="E76" s="2"/>
+      <c r="C76" s="3">
+        <v>1318</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="9"/>
+        <v>49.142857142857146</v>
+      </c>
       <c r="F76" s="2">
         <f t="shared" si="6"/>
-        <v>1113.5106000000001</v>
+        <v>1218.9458</v>
       </c>
       <c r="G76" s="2">
         <f t="shared" si="7"/>
-        <v>1241.5971999999999</v>
+        <v>1321.0732000000003</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -8831,14 +8936,24 @@
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="E77" s="2"/>
+      <c r="C77" s="3">
+        <v>1365</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="9"/>
+        <v>45.571428571428569</v>
+      </c>
       <c r="F77" s="2">
         <f t="shared" si="6"/>
-        <v>1147.53</v>
+        <v>1257.8625</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" si="7"/>
-        <v>1289.79</v>
+        <v>1376.4150000000002</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -8852,11 +8967,11 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2">
         <f t="shared" si="6"/>
-        <v>1182.0564000000002</v>
+        <v>1297.3788</v>
       </c>
       <c r="G78" s="2">
         <f t="shared" si="7"/>
-        <v>1339.2623999999998</v>
+        <v>1433.3808000000001</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -8870,11 +8985,11 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2">
         <f t="shared" si="6"/>
-        <v>1217.0898000000002</v>
+        <v>1337.4947000000002</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" si="7"/>
-        <v>1390.0318</v>
+        <v>1491.9952000000003</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -8888,11 +9003,11 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2">
         <f t="shared" si="6"/>
-        <v>1252.6302000000001</v>
+        <v>1378.2102000000002</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" si="7"/>
-        <v>1442.1155999999996</v>
+        <v>1552.2828000000002</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -8906,11 +9021,11 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2">
         <f t="shared" si="6"/>
-        <v>1288.6776</v>
+        <v>1419.5253</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" si="7"/>
-        <v>1495.5311999999999</v>
+        <v>1614.2682</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -8924,11 +9039,11 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2">
         <f t="shared" si="6"/>
-        <v>1325.232</v>
+        <v>1461.44</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" si="7"/>
-        <v>1550.296</v>
+        <v>1677.9760000000001</v>
       </c>
       <c r="H82" t="s">
         <v>8</v>
@@ -8945,11 +9060,11 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2">
         <f t="shared" si="6"/>
-        <v>1362.2934</v>
+        <v>1503.9543000000001</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" si="7"/>
-        <v>1606.4274</v>
+        <v>1743.4308000000001</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -8963,11 +9078,11 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2">
         <f t="shared" si="6"/>
-        <v>1399.8618000000001</v>
+        <v>1547.0681999999999</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" si="7"/>
-        <v>1663.9427999999998</v>
+        <v>1810.6572000000001</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -8981,11 +9096,11 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2">
         <f t="shared" si="6"/>
-        <v>1437.9371999999998</v>
+        <v>1590.7817</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" si="7"/>
-        <v>1722.8596</v>
+        <v>1879.6798000000001</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -8999,11 +9114,11 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2">
         <f t="shared" si="6"/>
-        <v>1476.5195999999999</v>
+        <v>1635.0948000000003</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" si="7"/>
-        <v>1783.1951999999999</v>
+        <v>1950.5232000000001</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -9017,11 +9132,11 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2">
         <f t="shared" si="6"/>
-        <v>1515.6089999999999</v>
+        <v>1680.0075000000002</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" si="7"/>
-        <v>1844.9669999999999</v>
+        <v>2023.2120000000004</v>
       </c>
       <c r="H87" t="s">
         <v>7</v>
@@ -9038,11 +9153,11 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2">
         <f t="shared" si="6"/>
-        <v>1555.2053999999998</v>
+        <v>1725.5198</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" si="7"/>
-        <v>1908.1923999999997</v>
+        <v>2097.7708000000002</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -9056,11 +9171,11 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2">
         <f t="shared" si="6"/>
-        <v>1595.3088</v>
+        <v>1771.6317000000001</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" si="7"/>
-        <v>1972.8887999999999</v>
+        <v>2174.2242000000006</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -9074,11 +9189,11 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2">
         <f t="shared" si="6"/>
-        <v>1635.9192</v>
+        <v>1818.3432000000003</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" si="7"/>
-        <v>2039.0735999999997</v>
+        <v>2252.5968000000003</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -9092,11 +9207,11 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2">
         <f t="shared" si="6"/>
-        <v>1677.0366000000001</v>
+        <v>1865.6542999999999</v>
       </c>
       <c r="G91" s="2">
         <f t="shared" si="7"/>
-        <v>2106.7641999999996</v>
+        <v>2332.9132</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -9110,11 +9225,11 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2">
         <f t="shared" si="6"/>
-        <v>1718.6609999999998</v>
+        <v>1913.5650000000001</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" si="7"/>
-        <v>2175.9780000000001</v>
+        <v>2415.1980000000003</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -9128,11 +9243,11 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2">
         <f t="shared" si="6"/>
-        <v>1760.7923999999998</v>
+        <v>1962.0753000000004</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" si="7"/>
-        <v>2246.7323999999999</v>
+        <v>2499.4758000000006</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -9146,11 +9261,11 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2">
         <f t="shared" si="6"/>
-        <v>1803.4308000000003</v>
+        <v>2011.1851999999999</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" si="7"/>
-        <v>2319.0447999999997</v>
+        <v>2585.7712000000001</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -9164,11 +9279,11 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2">
         <f t="shared" si="6"/>
-        <v>1846.5762</v>
+        <v>2060.8947000000003</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" si="7"/>
-        <v>2392.9326000000001</v>
+        <v>2674.1088000000004</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -9182,11 +9297,11 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2">
         <f t="shared" si="6"/>
-        <v>1890.2285999999999</v>
+        <v>2111.2038000000002</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" si="7"/>
-        <v>2468.4132</v>
+        <v>2764.5131999999999</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -9200,11 +9315,11 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2">
         <f t="shared" si="6"/>
-        <v>1934.3880000000001</v>
+        <v>2162.1125000000002</v>
       </c>
       <c r="G97" s="2">
         <f t="shared" si="7"/>
-        <v>2545.5039999999999</v>
+        <v>2857.0090000000005</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -9218,11 +9333,11 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2">
         <f t="shared" si="6"/>
-        <v>1979.0544</v>
+        <v>2213.6207999999997</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" si="7"/>
-        <v>2624.2223999999997</v>
+        <v>2951.6208000000001</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -9236,11 +9351,11 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2">
         <f t="shared" si="6"/>
-        <v>2024.2278000000001</v>
+        <v>2265.7287000000001</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" si="7"/>
-        <v>2704.5857999999998</v>
+        <v>3048.3732000000005</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -9254,11 +9369,11 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2">
         <f t="shared" si="6"/>
-        <v>2069.9081999999999</v>
+        <v>2318.4362000000001</v>
       </c>
       <c r="G100" s="2">
         <f t="shared" si="7"/>
-        <v>2786.6115999999997</v>
+        <v>3147.2907999999998</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -9272,11 +9387,11 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2">
         <f t="shared" si="6"/>
-        <v>2116.0956000000001</v>
+        <v>2371.7433000000001</v>
       </c>
       <c r="G101" s="2">
         <f t="shared" si="7"/>
-        <v>2870.3172</v>
+        <v>3248.3982000000001</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -9290,11 +9405,11 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2">
         <f t="shared" si="6"/>
-        <v>2162.79</v>
+        <v>2425.65</v>
       </c>
       <c r="G102" s="2">
         <f t="shared" si="7"/>
-        <v>2955.72</v>
+        <v>3351.72</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -9308,11 +9423,11 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2">
         <f t="shared" si="6"/>
-        <v>2209.9913999999999</v>
+        <v>2480.1563000000006</v>
       </c>
       <c r="G103" s="2">
         <f t="shared" si="7"/>
-        <v>3042.8373999999994</v>
+        <v>3457.2808000000005</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -9326,11 +9441,11 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2">
         <f t="shared" si="6"/>
-        <v>2257.6998000000003</v>
+        <v>2535.2622000000001</v>
       </c>
       <c r="G104" s="2">
         <f t="shared" si="7"/>
-        <v>3131.6867999999995</v>
+        <v>3565.1052</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -9344,11 +9459,11 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2">
         <f t="shared" si="6"/>
-        <v>2305.9151999999999</v>
+        <v>2590.9677000000001</v>
       </c>
       <c r="G105" s="2">
         <f t="shared" si="7"/>
-        <v>3222.2855999999997</v>
+        <v>3675.2178000000008</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -9362,11 +9477,11 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2">
         <f t="shared" si="6"/>
-        <v>2354.6376</v>
+        <v>2647.2728000000002</v>
       </c>
       <c r="G106" s="2">
         <f t="shared" si="7"/>
-        <v>3314.6512000000002</v>
+        <v>3787.6432000000004</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -9380,11 +9495,11 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2">
         <f t="shared" si="6"/>
-        <v>2403.8670000000002</v>
+        <v>2704.1775000000002</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" si="7"/>
-        <v>3408.8009999999999</v>
+        <v>3902.4060000000009</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -9398,11 +9513,11 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2">
         <f t="shared" si="6"/>
-        <v>2453.6034</v>
+        <v>2761.6817999999998</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" si="7"/>
-        <v>3504.7523999999999</v>
+        <v>4019.5308000000005</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -9416,11 +9531,11 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2">
         <f t="shared" si="6"/>
-        <v>2503.8468000000003</v>
+        <v>2819.7857000000004</v>
       </c>
       <c r="G109" s="2">
         <f t="shared" si="7"/>
-        <v>3602.5227999999997</v>
+        <v>4139.0422000000008</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -9434,11 +9549,11 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2">
         <f t="shared" si="6"/>
-        <v>2554.5972000000002</v>
+        <v>2878.4892</v>
       </c>
       <c r="G110" s="2">
         <f t="shared" si="7"/>
-        <v>3702.1295999999998</v>
+        <v>4260.9648000000007</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -9452,11 +9567,11 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2">
         <f t="shared" si="6"/>
-        <v>2605.8546000000001</v>
+        <v>2937.7923000000001</v>
       </c>
       <c r="G111" s="2">
         <f t="shared" si="7"/>
-        <v>3803.5901999999996</v>
+        <v>4385.3232000000007</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -9470,11 +9585,11 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2">
         <f t="shared" si="6"/>
-        <v>2657.6189999999997</v>
+        <v>2997.6949999999997</v>
       </c>
       <c r="G112" s="2">
         <f t="shared" si="7"/>
-        <v>3906.9219999999996</v>
+        <v>4512.1419999999998</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -9488,11 +9603,11 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2">
         <f t="shared" si="6"/>
-        <v>2709.8904000000002</v>
+        <v>3058.1973000000003</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" si="7"/>
-        <v>4012.1423999999997</v>
+        <v>4641.4458000000004</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -9506,11 +9621,11 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2">
         <f t="shared" si="6"/>
-        <v>2762.6687999999999</v>
+        <v>3119.2992000000004</v>
       </c>
       <c r="G114" s="2">
         <f t="shared" si="7"/>
-        <v>4119.2687999999998</v>
+        <v>4773.2592000000004</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -9524,11 +9639,11 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2">
         <f t="shared" si="6"/>
-        <v>2815.9542000000001</v>
+        <v>3181.0007000000001</v>
       </c>
       <c r="G115" s="2">
         <f t="shared" si="7"/>
-        <v>4228.3185999999996</v>
+        <v>4907.6068000000005</v>
       </c>
     </row>
   </sheetData>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3999CE-3EFD-4A92-9775-59AABF06C8A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67F06FF-7DE6-4703-818C-DA045FF8C171}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,6 +784,9 @@
                 </c:pt>
                 <c:pt idx="75" formatCode="#,##0">
                   <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="#,##0">
+                  <c:v>1397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,6 +1745,9 @@
                 </c:pt>
                 <c:pt idx="75" formatCode="#,##0">
                   <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="#,##0">
+                  <c:v>1397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2745,6 +2751,9 @@
                 <c:pt idx="75">
                   <c:v>45.571428571428569</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>43</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6734,7 +6743,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8688,7 +8697,7 @@
         <v>885</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D77" si="8">C68-C67</f>
+        <f t="shared" ref="D68:D78" si="8">C68-C67</f>
         <v>36</v>
       </c>
       <c r="E68" s="2">
@@ -8860,7 +8869,7 @@
         <v>30</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ref="E74:E77" si="9">(C74-C67)/7</f>
+        <f t="shared" ref="E74:E78" si="9">(C74-C67)/7</f>
         <v>56.714285714285715</v>
       </c>
       <c r="F74" s="2">
@@ -8964,7 +8973,17 @@
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="E78" s="2"/>
+      <c r="C78" s="3">
+        <v>1397</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
       <c r="F78" s="2">
         <f t="shared" si="6"/>
         <v>1297.3788</v>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67F06FF-7DE6-4703-818C-DA045FF8C171}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5B7380-0C27-45E7-9BC5-D844A2BB78D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Days Since Release</t>
-  </si>
-  <si>
     <t>Actual</t>
   </si>
   <si>
@@ -42,16 +39,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Daily Growth</t>
+    <t>Daily</t>
   </si>
   <si>
-    <t>Average Growth per day from last week</t>
+    <t>Average</t>
   </si>
   <si>
-    <t>Poly2 Expected to hit 1.5k - 8/21/19</t>
+    <t>Days</t>
   </si>
   <si>
-    <t>Poly3 Expected to hit 1.5k - 8/21/19</t>
+    <t>Poly2 Expected to hit 2k - 8/30/19</t>
+  </si>
+  <si>
+    <t>Poly3 Expected to hit 2k - 8/30/19</t>
   </si>
 </sst>
 </file>
@@ -298,10 +298,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$83</c:f>
+              <c:f>Sheet1!$B$2:$B$115</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -547,16 +547,112 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$83</c:f>
+              <c:f>Sheet1!$C$2:$C$115</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -717,16 +813,16 @@
                   <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="General">
-                  <c:v>453</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="General">
-                  <c:v>484</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="General">
                   <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="General">
-                  <c:v>546</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="General">
                   <c:v>573</c:v>
@@ -738,7 +834,7 @@
                   <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="General">
-                  <c:v>647</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
                   <c:v>687</c:v>
@@ -750,43 +846,55 @@
                   <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="General">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
                   <c:v>791</c:v>
                 </c:pt>
-                <c:pt idx="65" formatCode="General">
-                  <c:v>849</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="General">
-                  <c:v>885</c:v>
-                </c:pt>
                 <c:pt idx="67" formatCode="General">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="#,##0">
-                  <c:v>1046</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="#,##0">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="#,##0">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="#,##0">
                   <c:v>1096</c:v>
                 </c:pt>
-                <c:pt idx="70" formatCode="#,##0">
+                <c:pt idx="72" formatCode="#,##0">
                   <c:v>1160</c:v>
                 </c:pt>
-                <c:pt idx="71" formatCode="#,##0">
+                <c:pt idx="73" formatCode="#,##0">
                   <c:v>1216</c:v>
                 </c:pt>
-                <c:pt idx="72" formatCode="#,##0">
+                <c:pt idx="74" formatCode="#,##0">
                   <c:v>1246</c:v>
                 </c:pt>
-                <c:pt idx="73" formatCode="#,##0">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="#,##0">
-                  <c:v>1318</c:v>
-                </c:pt>
                 <c:pt idx="75" formatCode="#,##0">
-                  <c:v>1365</c:v>
+                  <c:v>1299</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="#,##0">
+                  <c:v>1329</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="#,##0">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="#,##0">
                   <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="#,##0">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="#,##0">
+                  <c:v>1457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,10 +1367,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$83</c:f>
+              <c:f>Sheet1!$B$2:$B$115</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1508,16 +1616,112 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$83</c:f>
+              <c:f>Sheet1!$C$2:$C$115</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1678,16 +1882,16 @@
                   <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="General">
-                  <c:v>453</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="General">
-                  <c:v>484</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="General">
                   <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="General">
-                  <c:v>546</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="General">
                   <c:v>573</c:v>
@@ -1699,7 +1903,7 @@
                   <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="General">
-                  <c:v>647</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
                   <c:v>687</c:v>
@@ -1711,43 +1915,55 @@
                   <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="General">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
                   <c:v>791</c:v>
                 </c:pt>
-                <c:pt idx="65" formatCode="General">
-                  <c:v>849</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="General">
-                  <c:v>885</c:v>
-                </c:pt>
                 <c:pt idx="67" formatCode="General">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="#,##0">
-                  <c:v>1046</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="#,##0">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="#,##0">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="#,##0">
                   <c:v>1096</c:v>
                 </c:pt>
-                <c:pt idx="70" formatCode="#,##0">
+                <c:pt idx="72" formatCode="#,##0">
                   <c:v>1160</c:v>
                 </c:pt>
-                <c:pt idx="71" formatCode="#,##0">
+                <c:pt idx="73" formatCode="#,##0">
                   <c:v>1216</c:v>
                 </c:pt>
-                <c:pt idx="72" formatCode="#,##0">
+                <c:pt idx="74" formatCode="#,##0">
                   <c:v>1246</c:v>
                 </c:pt>
-                <c:pt idx="73" formatCode="#,##0">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="#,##0">
-                  <c:v>1318</c:v>
-                </c:pt>
                 <c:pt idx="75" formatCode="#,##0">
-                  <c:v>1365</c:v>
+                  <c:v>1299</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="#,##0">
+                  <c:v>1329</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="#,##0">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="#,##0">
                   <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="#,##0">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="#,##0">
+                  <c:v>1457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2264,10 +2480,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$83</c:f>
+              <c:f>Sheet1!$B$2:$B$115</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2513,16 +2729,112 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$83</c:f>
+              <c:f>Sheet1!$E$2:$E$115</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2683,16 +2995,16 @@
                   <c:v>12.714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17.428571428571427</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>18.285714285714285</c:v>
+                  <c:v>18.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>19.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>23</c:v>
+                  <c:v>22.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>25</c:v>
@@ -2704,55 +3016,67 @@
                   <c:v>25.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>27.714285714285715</c:v>
+                  <c:v>26.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29</c:v>
+                  <c:v>28.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>27.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>32.714285714285715</c:v>
+                  <c:v>33.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>28.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28.571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>31.142857142857142</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>36.571428571428569</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>40.142857142857146</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>46.714285714285715</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>51.285714285714285</c:v>
-                </c:pt>
                 <c:pt idx="69">
-                  <c:v>54.142857142857146</c:v>
+                  <c:v>37.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>60.714285714285715</c:v>
                 </c:pt>
-                <c:pt idx="72">
-                  <c:v>56.714285714285715</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>59.285714285714285</c:v>
-                </c:pt>
                 <c:pt idx="74">
-                  <c:v>49.142857142857146</c:v>
+                  <c:v>57.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>45.571428571428569</c:v>
+                  <c:v>56.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>50.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>38.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>34.428571428571431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3180,7 +3504,6 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:forward val="15"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
@@ -3574,10 +3897,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$71</c:f>
+              <c:f>Sheet1!$D$2:$D$115</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3738,19 +4061,19 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>20</c:v>
@@ -3759,10 +4082,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>40</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>30</c:v>
@@ -3771,22 +4094,55 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>36</c:v>
-                </c:pt>
                 <c:pt idx="67">
-                  <c:v>89</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>72</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>50</c:v>
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6739,45 +7095,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomLeft" activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6799,11 +7155,11 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>0.2998*B2^2-5.7535*B2+3</f>
+        <f>0.2844*B2^2-5.2502*B2+3</f>
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <f>0.0041*B2^3-0.1105*B2^2+3.5372*B2+3</f>
+        <f>0.0028*B2^3-0.0185*B2^2+2.0655*B2+3</f>
         <v>3</v>
       </c>
       <c r="H2" s="2"/>
@@ -6829,12 +7185,12 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="1">0.2998*B3^2-5.7535*B3+3</f>
-        <v>-2.4536999999999995</v>
+        <f t="shared" ref="F3:F66" si="1">0.2844*B3^2-5.2502*B3+3</f>
+        <v>-1.9658000000000007</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="2">0.0041*B3^3-0.1105*B3^2+3.5372*B3+3</f>
-        <v>6.4307999999999996</v>
+        <f t="shared" ref="G3:G66" si="2">0.0028*B3^3-0.0185*B3^2+2.0655*B3+3</f>
+        <v>5.0498000000000003</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -6859,11 +7215,11 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="1"/>
-        <v>-7.3078000000000003</v>
+        <v>-6.3628</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="2"/>
-        <v>9.6651999999999987</v>
+        <v>7.0794000000000006</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -6888,11 +7244,11 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>-11.5623</v>
+        <v>-10.191000000000003</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="2"/>
-        <v>12.727799999999998</v>
+        <v>9.1056000000000008</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -6917,11 +7273,11 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>-15.217199999999998</v>
+        <v>-13.450400000000002</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>15.6432</v>
+        <v>11.145200000000001</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -6946,11 +7302,11 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>-18.272499999999997</v>
+        <v>-16.141000000000002</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="2"/>
-        <v>18.436</v>
+        <v>13.215</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -6975,11 +7331,11 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>-20.728200000000001</v>
+        <v>-18.262800000000006</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="2"/>
-        <v>21.130799999999997</v>
+        <v>15.331800000000001</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -7004,11 +7360,11 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>-22.584299999999995</v>
+        <v>-19.815800000000003</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="2"/>
-        <v>23.752200000000002</v>
+        <v>17.5124</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -7033,11 +7389,11 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>-23.840799999999998</v>
+        <v>-20.800000000000004</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="2"/>
-        <v>26.3248</v>
+        <v>19.773600000000002</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -7062,11 +7418,11 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>-24.497700000000002</v>
+        <v>-21.215400000000002</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="2"/>
-        <v>28.873199999999997</v>
+        <v>22.132200000000001</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -7091,11 +7447,11 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>-24.554999999999996</v>
+        <v>-21.062000000000005</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="2"/>
-        <v>31.422000000000001</v>
+        <v>24.605</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -7120,11 +7476,11 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>-24.012699999999995</v>
+        <v>-20.339800000000004</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>33.995800000000003</v>
+        <v>27.2088</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -7149,11 +7505,11 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>-22.870800000000003</v>
+        <v>-19.048800000000014</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>36.619199999999992</v>
+        <v>29.9604</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -7178,11 +7534,11 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>-21.129300000000001</v>
+        <v>-17.189</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>39.316799999999994</v>
+        <v>32.876600000000003</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -7207,11 +7563,11 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>-18.788199999999989</v>
+        <v>-14.760400000000011</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="2"/>
-        <v>42.113199999999999</v>
+        <v>35.974200000000003</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -7236,11 +7592,11 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>-15.847499999999997</v>
+        <v>-11.763000000000005</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="2"/>
-        <v>45.033000000000001</v>
+        <v>39.270000000000003</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -7265,11 +7621,11 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>-12.307199999999995</v>
+        <v>-8.1968000000000103</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="2"/>
-        <v>48.1008</v>
+        <v>42.780799999999999</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -7294,11 +7650,11 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>-8.1672999999999973</v>
+        <v>-4.0618000000000194</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="2"/>
-        <v>51.341200000000001</v>
+        <v>46.523400000000002</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -7323,11 +7679,11 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>-3.4278000000000048</v>
+        <v>0.64199999999999591</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>54.778799999999997</v>
+        <v>50.514600000000002</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -7352,11 +7708,11 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>1.9113000000000113</v>
+        <v>5.9145999999999788</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>58.438200000000002</v>
+        <v>54.771200000000007</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -7381,11 +7737,11 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>7.8500000000000085</v>
+        <v>11.755999999999986</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="2"/>
-        <v>62.344000000000001</v>
+        <v>59.31</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -7410,11 +7766,11 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>14.388300000000015</v>
+        <v>18.166199999999989</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="2"/>
-        <v>66.520800000000008</v>
+        <v>64.147800000000004</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -7439,11 +7795,11 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>21.526200000000017</v>
+        <v>25.145199999999988</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="2"/>
-        <v>70.993200000000002</v>
+        <v>69.301400000000001</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -7468,11 +7824,11 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="1"/>
-        <v>29.2637</v>
+        <v>32.692999999999984</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="2"/>
-        <v>75.785799999999995</v>
+        <v>74.787599999999998</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -7497,11 +7853,11 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="1"/>
-        <v>37.600799999999992</v>
+        <v>40.809599999999961</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="2"/>
-        <v>80.923199999999994</v>
+        <v>80.623199999999997</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -7526,11 +7882,11 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="1"/>
-        <v>46.537499999999994</v>
+        <v>49.494999999999976</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="2"/>
-        <v>86.429999999999993</v>
+        <v>86.825000000000003</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -7555,11 +7911,11 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" si="1"/>
-        <v>56.073800000000006</v>
+        <v>58.749200000000002</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="2"/>
-        <v>92.330799999999996</v>
+        <v>93.409800000000004</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -7584,11 +7940,11 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" si="1"/>
-        <v>66.209700000000026</v>
+        <v>68.572199999999981</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="2"/>
-        <v>98.650200000000012</v>
+        <v>100.3944</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -7613,11 +7969,11 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" si="1"/>
-        <v>76.945200000000028</v>
+        <v>78.96399999999997</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="2"/>
-        <v>105.4128</v>
+        <v>107.79560000000001</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -7642,11 +7998,11 @@
       </c>
       <c r="F31" s="2">
         <f t="shared" si="1"/>
-        <v>88.280300000000011</v>
+        <v>89.92459999999997</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="2"/>
-        <v>112.64320000000002</v>
+        <v>115.6302</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -7671,11 +8027,11 @@
       </c>
       <c r="F32" s="2">
         <f t="shared" si="1"/>
-        <v>100.215</v>
+        <v>101.45399999999998</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="2"/>
-        <v>120.366</v>
+        <v>123.91499999999999</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -7700,11 +8056,11 @@
       </c>
       <c r="F33" s="2">
         <f t="shared" si="1"/>
-        <v>112.74930000000001</v>
+        <v>113.5522</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="2"/>
-        <v>128.60579999999999</v>
+        <v>132.66680000000002</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -7729,11 +8085,11 @@
       </c>
       <c r="F34" s="2">
         <f t="shared" si="1"/>
-        <v>125.88320000000002</v>
+        <v>126.21919999999997</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="2"/>
-        <v>137.38720000000001</v>
+        <v>141.9024</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -7758,11 +8114,11 @@
       </c>
       <c r="F35" s="2">
         <f t="shared" si="1"/>
-        <v>139.61670000000004</v>
+        <v>139.45499999999996</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="2"/>
-        <v>146.73480000000001</v>
+        <v>151.6386</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -7787,11 +8143,11 @@
       </c>
       <c r="F36" s="2">
         <f t="shared" si="1"/>
-        <v>153.94980000000001</v>
+        <v>153.25959999999995</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="2"/>
-        <v>156.67320000000001</v>
+        <v>161.8922</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -7816,11 +8172,11 @@
       </c>
       <c r="F37" s="2">
         <f t="shared" si="1"/>
-        <v>168.88249999999999</v>
+        <v>167.63299999999998</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="2"/>
-        <v>167.227</v>
+        <v>172.68</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -7845,11 +8201,11 @@
       </c>
       <c r="F38" s="2">
         <f t="shared" si="1"/>
-        <v>184.41479999999999</v>
+        <v>182.5752</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="2"/>
-        <v>178.42079999999999</v>
+        <v>184.0188</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -7874,11 +8230,11 @@
       </c>
       <c r="F39" s="2">
         <f t="shared" si="1"/>
-        <v>200.54669999999999</v>
+        <v>198.08619999999996</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="2"/>
-        <v>190.27920000000003</v>
+        <v>195.9254</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -7903,11 +8259,11 @@
       </c>
       <c r="F40" s="2">
         <f t="shared" si="1"/>
-        <v>217.27820000000003</v>
+        <v>214.16599999999994</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="2"/>
-        <v>202.82680000000002</v>
+        <v>208.41660000000002</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -7932,11 +8288,11 @@
       </c>
       <c r="F41" s="2">
         <f t="shared" si="1"/>
-        <v>234.60930000000005</v>
+        <v>230.81459999999996</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="2"/>
-        <v>216.0882</v>
+        <v>221.50920000000002</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -7961,11 +8317,11 @@
       </c>
       <c r="F42" s="2">
         <f t="shared" si="1"/>
-        <v>252.54000000000002</v>
+        <v>248.03199999999995</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="2"/>
-        <v>230.08800000000002</v>
+        <v>235.22</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -7990,11 +8346,11 @@
       </c>
       <c r="F43" s="2">
         <f t="shared" si="1"/>
-        <v>271.07029999999997</v>
+        <v>265.81819999999993</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="2"/>
-        <v>244.85079999999999</v>
+        <v>249.56580000000002</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -8019,11 +8375,11 @@
       </c>
       <c r="F44" s="2">
         <f t="shared" si="1"/>
-        <v>290.20020000000005</v>
+        <v>284.17319999999995</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="2"/>
-        <v>260.40120000000002</v>
+        <v>264.5634</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -8048,11 +8404,11 @@
       </c>
       <c r="F45" s="2">
         <f t="shared" si="1"/>
-        <v>309.92970000000003</v>
+        <v>303.09699999999998</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="2"/>
-        <v>276.7638</v>
+        <v>280.2296</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -8077,11 +8433,11 @@
       </c>
       <c r="F46" s="2">
         <f t="shared" si="1"/>
-        <v>330.25880000000006</v>
+        <v>322.58959999999996</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="2"/>
-        <v>293.96320000000003</v>
+        <v>296.58119999999997</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -8106,11 +8462,11 @@
       </c>
       <c r="F47" s="2">
         <f t="shared" si="1"/>
-        <v>351.18750000000006</v>
+        <v>342.65099999999995</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="2"/>
-        <v>312.024</v>
+        <v>313.63499999999999</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -8135,11 +8491,11 @@
       </c>
       <c r="F48" s="2">
         <f t="shared" si="1"/>
-        <v>372.7158</v>
+        <v>363.28119999999996</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="2"/>
-        <v>330.9708</v>
+        <v>331.40779999999995</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -8164,11 +8520,11 @@
       </c>
       <c r="F49" s="2">
         <f t="shared" si="1"/>
-        <v>394.84370000000001</v>
+        <v>384.48019999999997</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="2"/>
-        <v>350.82820000000004</v>
+        <v>349.91640000000001</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -8193,11 +8549,11 @@
       </c>
       <c r="F50" s="2">
         <f t="shared" si="1"/>
-        <v>417.57119999999998</v>
+        <v>406.24799999999988</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="2"/>
-        <v>371.62080000000003</v>
+        <v>369.17759999999998</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -8222,11 +8578,11 @@
       </c>
       <c r="F51" s="2">
         <f t="shared" si="1"/>
-        <v>440.89830000000001</v>
+        <v>428.58459999999991</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="2"/>
-        <v>393.3732</v>
+        <v>389.20819999999998</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -8251,11 +8607,11 @@
       </c>
       <c r="F52" s="2">
         <f t="shared" si="1"/>
-        <v>464.82499999999999</v>
+        <v>451.48999999999995</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" si="2"/>
-        <v>416.11</v>
+        <v>410.02499999999998</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -8280,11 +8636,11 @@
       </c>
       <c r="F53" s="2">
         <f t="shared" si="1"/>
-        <v>489.35130000000004</v>
+        <v>474.96419999999995</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="2"/>
-        <v>439.85579999999999</v>
+        <v>431.64480000000003</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -8309,11 +8665,11 @@
       </c>
       <c r="F54" s="2">
         <f t="shared" si="1"/>
-        <v>514.47720000000004</v>
+        <v>499.00720000000001</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="2"/>
-        <v>464.63520000000005</v>
+        <v>454.08440000000002</v>
       </c>
       <c r="H54" s="2"/>
     </row>
@@ -8326,23 +8682,23 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="4"/>
-        <v>17.428571428571427</v>
+        <v>18</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="1"/>
-        <v>540.20270000000005</v>
+        <v>523.61899999999991</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="2"/>
-        <v>490.47280000000001</v>
+        <v>477.36059999999998</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -8355,23 +8711,23 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="4"/>
-        <v>18.285714285714285</v>
+        <v>18.571428571428573</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" si="1"/>
-        <v>566.52780000000007</v>
+        <v>548.79959999999994</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="2"/>
-        <v>517.39320000000009</v>
+        <v>501.49020000000007</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -8388,7 +8744,7 @@
       </c>
       <c r="D57" s="2">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="4"/>
@@ -8396,11 +8752,11 @@
       </c>
       <c r="F57" s="2">
         <f t="shared" si="1"/>
-        <v>593.45249999999999</v>
+        <v>574.54899999999998</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" si="2"/>
-        <v>545.42100000000005</v>
+        <v>526.49</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -8413,23 +8769,23 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>22.571428571428573</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" si="1"/>
-        <v>620.97680000000014</v>
+        <v>600.86719999999991</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" si="2"/>
-        <v>574.58080000000007</v>
+        <v>552.3768</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -8446,7 +8802,7 @@
       </c>
       <c r="D59" s="2">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E59" s="2">
         <f t="shared" si="4"/>
@@ -8454,11 +8810,11 @@
       </c>
       <c r="F59" s="2">
         <f t="shared" si="1"/>
-        <v>649.10069999999996</v>
+        <v>627.75419999999986</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" si="2"/>
-        <v>604.89720000000011</v>
+        <v>579.16740000000004</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -8482,11 +8838,11 @@
       </c>
       <c r="F60" s="2">
         <f t="shared" si="1"/>
-        <v>677.82420000000002</v>
+        <v>655.20999999999992</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="2"/>
-        <v>636.39480000000015</v>
+        <v>606.87860000000001</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -8510,11 +8866,11 @@
       </c>
       <c r="F61" s="2">
         <f t="shared" si="1"/>
-        <v>707.14730000000009</v>
+        <v>683.2346</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="2"/>
-        <v>669.09820000000013</v>
+        <v>635.52719999999999</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -8526,23 +8882,23 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E62" s="2">
         <f t="shared" si="4"/>
-        <v>27.714285714285715</v>
+        <v>26.857142857142858</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" si="1"/>
-        <v>737.06999999999994</v>
+        <v>711.82799999999997</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" si="2"/>
-        <v>703.03200000000004</v>
+        <v>665.12999999999988</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -8558,19 +8914,19 @@
       </c>
       <c r="D63" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E63" s="2">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>28.714285714285715</v>
       </c>
       <c r="F63" s="2">
         <f t="shared" si="1"/>
-        <v>767.59230000000002</v>
+        <v>740.99019999999985</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" si="2"/>
-        <v>738.22080000000005</v>
+        <v>695.7038</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -8594,11 +8950,11 @@
       </c>
       <c r="F64" s="2">
         <f t="shared" si="1"/>
-        <v>798.71420000000001</v>
+        <v>770.72119999999995</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" si="2"/>
-        <v>774.68920000000003</v>
+        <v>727.2654</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -8618,15 +8974,15 @@
       </c>
       <c r="E65" s="2">
         <f t="shared" si="4"/>
-        <v>32.714285714285715</v>
+        <v>33.142857142857146</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" si="1"/>
-        <v>830.43570000000011</v>
+        <v>801.02099999999996</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" si="2"/>
-        <v>812.46180000000004</v>
+        <v>759.83159999999998</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -8638,23 +8994,23 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="E66" s="2">
         <f t="shared" si="4"/>
-        <v>31.142857142857142</v>
+        <v>28.142857142857142</v>
       </c>
       <c r="F66" s="2">
         <f t="shared" si="1"/>
-        <v>862.75680000000011</v>
+        <v>831.88959999999997</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" si="2"/>
-        <v>851.56320000000017</v>
+        <v>793.41920000000005</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -8662,27 +9018,27 @@
         <v>43690</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" ref="B67:B115" si="5">B66+1</f>
+        <f t="shared" ref="B67:B130" si="5">B66+1</f>
         <v>65</v>
       </c>
       <c r="C67">
-        <v>849</v>
+        <v>775</v>
       </c>
       <c r="D67" s="2">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="E67" s="2">
         <f t="shared" si="4"/>
-        <v>36.571428571428569</v>
+        <v>26</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F115" si="6">0.2998*B67^2-5.7535*B67+3</f>
-        <v>895.67750000000001</v>
+        <f t="shared" ref="F67:F130" si="6">0.2844*B67^2-5.2502*B67+3</f>
+        <v>863.32699999999988</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G115" si="7">0.0041*B67^3-0.1105*B67^2+3.5372*B67+3</f>
-        <v>892.01800000000014</v>
+        <f t="shared" ref="G67:G130" si="7">0.0028*B67^3-0.0185*B67^2+2.0655*B67+3</f>
+        <v>828.04500000000007</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -8694,23 +9050,23 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>885</v>
+        <v>791</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D78" si="8">C68-C67</f>
-        <v>36</v>
+        <f t="shared" ref="D68:D82" si="8">C68-C67</f>
+        <v>16</v>
       </c>
       <c r="E68" s="2">
         <f t="shared" si="4"/>
-        <v>40.142857142857146</v>
+        <v>26.714285714285715</v>
       </c>
       <c r="F68" s="2">
         <f t="shared" si="6"/>
-        <v>929.19780000000014</v>
+        <v>895.33319999999981</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" si="7"/>
-        <v>933.85080000000005</v>
+        <v>863.72579999999994</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -8722,23 +9078,23 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>974</v>
+        <v>845</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" si="8"/>
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E69" s="2">
         <f t="shared" si="4"/>
-        <v>46.714285714285715</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="F69" s="2">
         <f t="shared" si="6"/>
-        <v>963.31770000000006</v>
+        <v>927.90819999999985</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" si="7"/>
-        <v>977.08620000000008</v>
+        <v>900.47839999999997</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -8749,24 +9105,24 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="C70" s="3">
-        <v>1046</v>
+      <c r="C70">
+        <v>905</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" si="8"/>
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E70" s="2">
         <f t="shared" si="4"/>
-        <v>51.285714285714285</v>
+        <v>31.142857142857142</v>
       </c>
       <c r="F70" s="2">
         <f t="shared" si="6"/>
-        <v>998.03719999999998</v>
+        <v>961.05199999999991</v>
       </c>
       <c r="G70" s="2">
         <f t="shared" si="7"/>
-        <v>1021.7488</v>
+        <v>938.31960000000004</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -8777,24 +9133,24 @@
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="C71" s="3">
-        <v>1096</v>
+      <c r="C71">
+        <v>978</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E71" s="2">
         <f t="shared" si="4"/>
-        <v>54.142857142857146</v>
+        <v>37.285714285714285</v>
       </c>
       <c r="F71" s="2">
         <f t="shared" si="6"/>
-        <v>1033.3562999999999</v>
+        <v>994.76459999999997</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" si="7"/>
-        <v>1067.8632000000002</v>
+        <v>977.26620000000003</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -8806,23 +9162,23 @@
         <v>70</v>
       </c>
       <c r="C72" s="3">
-        <v>1160</v>
+        <v>1034</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E72" s="2">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F72" s="2">
         <f t="shared" si="6"/>
-        <v>1069.2750000000001</v>
+        <v>1029.0459999999998</v>
       </c>
       <c r="G72" s="2">
         <f t="shared" si="7"/>
-        <v>1115.4540000000002</v>
+        <v>1017.335</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -8834,23 +9190,23 @@
         <v>71</v>
       </c>
       <c r="C73" s="3">
-        <v>1216</v>
+        <v>1096</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" si="8"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E73" s="2">
         <f t="shared" si="4"/>
-        <v>60.714285714285715</v>
+        <v>46.571428571428569</v>
       </c>
       <c r="F73" s="2">
         <f t="shared" si="6"/>
-        <v>1105.7933</v>
+        <v>1063.8961999999999</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" si="7"/>
-        <v>1164.5458000000001</v>
+        <v>1058.5427999999999</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -8862,23 +9218,23 @@
         <v>72</v>
       </c>
       <c r="C74" s="3">
-        <v>1246</v>
+        <v>1160</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ref="E74:E78" si="9">(C74-C67)/7</f>
-        <v>56.714285714285715</v>
+        <f t="shared" ref="E74:E82" si="9">(C74-C67)/7</f>
+        <v>55</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" si="6"/>
-        <v>1142.9112</v>
+        <v>1099.3152</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" si="7"/>
-        <v>1215.1632</v>
+        <v>1100.9063999999998</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -8890,23 +9246,23 @@
         <v>73</v>
       </c>
       <c r="C75" s="3">
-        <v>1300</v>
+        <v>1216</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E75" s="2">
         <f t="shared" si="9"/>
-        <v>59.285714285714285</v>
+        <v>60.714285714285715</v>
       </c>
       <c r="F75" s="2">
         <f t="shared" si="6"/>
-        <v>1180.6287</v>
+        <v>1135.3029999999999</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" si="7"/>
-        <v>1267.3308000000002</v>
+        <v>1144.4425999999999</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -8918,23 +9274,23 @@
         <v>74</v>
       </c>
       <c r="C76" s="3">
-        <v>1318</v>
+        <v>1246</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E76" s="2">
         <f t="shared" si="9"/>
-        <v>49.142857142857146</v>
+        <v>57.285714285714285</v>
       </c>
       <c r="F76" s="2">
         <f t="shared" si="6"/>
-        <v>1218.9458</v>
+        <v>1171.8595999999998</v>
       </c>
       <c r="G76" s="2">
         <f t="shared" si="7"/>
-        <v>1321.0732000000003</v>
+        <v>1189.1681999999998</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -8946,23 +9302,23 @@
         <v>75</v>
       </c>
       <c r="C77" s="3">
-        <v>1365</v>
+        <v>1299</v>
       </c>
       <c r="D77" s="2">
         <f t="shared" si="8"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E77" s="2">
         <f t="shared" si="9"/>
-        <v>45.571428571428569</v>
+        <v>56.285714285714285</v>
       </c>
       <c r="F77" s="2">
         <f t="shared" si="6"/>
-        <v>1257.8625</v>
+        <v>1208.9849999999999</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" si="7"/>
-        <v>1376.4150000000002</v>
+        <v>1235.0999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -8974,23 +9330,23 @@
         <v>76</v>
       </c>
       <c r="C78" s="3">
-        <v>1397</v>
+        <v>1329</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" si="8"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E78" s="2">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>50.142857142857146</v>
       </c>
       <c r="F78" s="2">
         <f t="shared" si="6"/>
-        <v>1297.3788</v>
+        <v>1246.6791999999998</v>
       </c>
       <c r="G78" s="2">
         <f t="shared" si="7"/>
-        <v>1433.3808000000001</v>
+        <v>1282.2548000000002</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -9001,14 +9357,24 @@
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="E79" s="2"/>
+      <c r="C79" s="3">
+        <v>1351</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="9"/>
+        <v>45.285714285714285</v>
+      </c>
       <c r="F79" s="2">
         <f t="shared" si="6"/>
-        <v>1337.4947000000002</v>
+        <v>1284.9422</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" si="7"/>
-        <v>1491.9952000000003</v>
+        <v>1330.6494</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -9019,14 +9385,24 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="E80" s="2"/>
+      <c r="C80" s="3">
+        <v>1397</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
       <c r="F80" s="2">
         <f t="shared" si="6"/>
-        <v>1378.2102000000002</v>
+        <v>1323.7739999999999</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" si="7"/>
-        <v>1552.2828000000002</v>
+        <v>1380.3005999999998</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -9037,14 +9413,24 @@
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="E81" s="2"/>
+      <c r="C81" s="3">
+        <v>1427</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="9"/>
+        <v>38.142857142857146</v>
+      </c>
       <c r="F81" s="2">
         <f t="shared" si="6"/>
-        <v>1419.5253</v>
+        <v>1363.1745999999998</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" si="7"/>
-        <v>1614.2682</v>
+        <v>1431.2252000000001</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -9055,17 +9441,24 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="E82" s="2"/>
+      <c r="C82" s="3">
+        <v>1457</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="9"/>
+        <v>34.428571428571431</v>
+      </c>
       <c r="F82" s="2">
         <f t="shared" si="6"/>
-        <v>1461.44</v>
+        <v>1403.1439999999998</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" si="7"/>
-        <v>1677.9760000000001</v>
-      </c>
-      <c r="H82" t="s">
-        <v>8</v>
+        <v>1483.4399999999998</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -9079,11 +9472,11 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2">
         <f t="shared" si="6"/>
-        <v>1503.9543000000001</v>
+        <v>1443.6822</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" si="7"/>
-        <v>1743.4308000000001</v>
+        <v>1536.9617999999998</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -9097,11 +9490,11 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2">
         <f t="shared" si="6"/>
-        <v>1547.0681999999999</v>
+        <v>1484.7891999999999</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" si="7"/>
-        <v>1810.6572000000001</v>
+        <v>1591.8074000000001</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -9115,11 +9508,11 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2">
         <f t="shared" si="6"/>
-        <v>1590.7817</v>
+        <v>1526.4649999999997</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" si="7"/>
-        <v>1879.6798000000001</v>
+        <v>1647.9936</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -9133,11 +9526,11 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2">
         <f t="shared" si="6"/>
-        <v>1635.0948000000003</v>
+        <v>1568.7095999999999</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" si="7"/>
-        <v>1950.5232000000001</v>
+        <v>1705.5372</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -9151,14 +9544,11 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2">
         <f t="shared" si="6"/>
-        <v>1680.0075000000002</v>
+        <v>1611.5229999999999</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" si="7"/>
-        <v>2023.2120000000004</v>
-      </c>
-      <c r="H87" t="s">
-        <v>7</v>
+        <v>1764.4549999999999</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -9172,11 +9562,11 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2">
         <f t="shared" si="6"/>
-        <v>1725.5198</v>
+        <v>1654.9051999999999</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" si="7"/>
-        <v>2097.7708000000002</v>
+        <v>1824.7637999999999</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -9190,11 +9580,11 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2">
         <f t="shared" si="6"/>
-        <v>1771.6317000000001</v>
+        <v>1698.8561999999999</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" si="7"/>
-        <v>2174.2242000000006</v>
+        <v>1886.4803999999999</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -9208,11 +9598,11 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2">
         <f t="shared" si="6"/>
-        <v>1818.3432000000003</v>
+        <v>1743.3759999999997</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" si="7"/>
-        <v>2252.5968000000003</v>
+        <v>1949.6215999999999</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -9226,11 +9616,11 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2">
         <f t="shared" si="6"/>
-        <v>1865.6542999999999</v>
+        <v>1788.4645999999998</v>
       </c>
       <c r="G91" s="2">
         <f t="shared" si="7"/>
-        <v>2332.9132</v>
+        <v>2014.2041999999999</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -9244,11 +9634,14 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2">
         <f t="shared" si="6"/>
-        <v>1913.5650000000001</v>
+        <v>1834.1219999999998</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" si="7"/>
-        <v>2415.1980000000003</v>
+        <v>2080.2450000000003</v>
+      </c>
+      <c r="H92" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -9262,11 +9655,11 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2">
         <f t="shared" si="6"/>
-        <v>1962.0753000000004</v>
+        <v>1880.3481999999999</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" si="7"/>
-        <v>2499.4758000000006</v>
+        <v>2147.7608</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -9280,11 +9673,11 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2">
         <f t="shared" si="6"/>
-        <v>2011.1851999999999</v>
+        <v>1927.1432</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" si="7"/>
-        <v>2585.7712000000001</v>
+        <v>2216.7683999999999</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -9298,11 +9691,11 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2">
         <f t="shared" si="6"/>
-        <v>2060.8947000000003</v>
+        <v>1974.5069999999998</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" si="7"/>
-        <v>2674.1088000000004</v>
+        <v>2287.2846</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -9316,11 +9709,14 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2">
         <f t="shared" si="6"/>
-        <v>2111.2038000000002</v>
+        <v>2022.4395999999999</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" si="7"/>
-        <v>2764.5131999999999</v>
+        <v>2359.3262000000004</v>
+      </c>
+      <c r="H96" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -9334,11 +9730,11 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2">
         <f t="shared" si="6"/>
-        <v>2162.1125000000002</v>
+        <v>2070.9409999999998</v>
       </c>
       <c r="G97" s="2">
         <f t="shared" si="7"/>
-        <v>2857.0090000000005</v>
+        <v>2432.91</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -9352,11 +9748,11 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2">
         <f t="shared" si="6"/>
-        <v>2213.6207999999997</v>
+        <v>2120.0111999999995</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" si="7"/>
-        <v>2951.6208000000001</v>
+        <v>2508.0527999999999</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -9370,11 +9766,11 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2">
         <f t="shared" si="6"/>
-        <v>2265.7287000000001</v>
+        <v>2169.6501999999996</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" si="7"/>
-        <v>3048.3732000000005</v>
+        <v>2584.7714000000001</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -9388,11 +9784,11 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2">
         <f t="shared" si="6"/>
-        <v>2318.4362000000001</v>
+        <v>2219.8579999999997</v>
       </c>
       <c r="G100" s="2">
         <f t="shared" si="7"/>
-        <v>3147.2907999999998</v>
+        <v>2663.0825999999997</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -9406,11 +9802,11 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2">
         <f t="shared" si="6"/>
-        <v>2371.7433000000001</v>
+        <v>2270.6345999999999</v>
       </c>
       <c r="G101" s="2">
         <f t="shared" si="7"/>
-        <v>3248.3982000000001</v>
+        <v>2743.0032000000001</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -9424,11 +9820,11 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2">
         <f t="shared" si="6"/>
-        <v>2425.65</v>
+        <v>2321.98</v>
       </c>
       <c r="G102" s="2">
         <f t="shared" si="7"/>
-        <v>3351.72</v>
+        <v>2824.55</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -9442,11 +9838,11 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2">
         <f t="shared" si="6"/>
-        <v>2480.1563000000006</v>
+        <v>2373.8941999999997</v>
       </c>
       <c r="G103" s="2">
         <f t="shared" si="7"/>
-        <v>3457.2808000000005</v>
+        <v>2907.7397999999998</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -9460,11 +9856,11 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2">
         <f t="shared" si="6"/>
-        <v>2535.2622000000001</v>
+        <v>2426.3771999999999</v>
       </c>
       <c r="G104" s="2">
         <f t="shared" si="7"/>
-        <v>3565.1052</v>
+        <v>2992.5893999999998</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -9478,11 +9874,11 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2">
         <f t="shared" si="6"/>
-        <v>2590.9677000000001</v>
+        <v>2479.4290000000001</v>
       </c>
       <c r="G105" s="2">
         <f t="shared" si="7"/>
-        <v>3675.2178000000008</v>
+        <v>3079.1156000000001</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -9496,11 +9892,11 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2">
         <f t="shared" si="6"/>
-        <v>2647.2728000000002</v>
+        <v>2533.0496000000003</v>
       </c>
       <c r="G106" s="2">
         <f t="shared" si="7"/>
-        <v>3787.6432000000004</v>
+        <v>3167.3352</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -9514,11 +9910,11 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2">
         <f t="shared" si="6"/>
-        <v>2704.1775000000002</v>
+        <v>2587.2389999999996</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" si="7"/>
-        <v>3902.4060000000009</v>
+        <v>3257.2649999999999</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -9532,11 +9928,11 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2">
         <f t="shared" si="6"/>
-        <v>2761.6817999999998</v>
+        <v>2641.9971999999998</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" si="7"/>
-        <v>4019.5308000000005</v>
+        <v>3348.9218000000001</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -9550,11 +9946,11 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2">
         <f t="shared" si="6"/>
-        <v>2819.7857000000004</v>
+        <v>2697.3241999999996</v>
       </c>
       <c r="G109" s="2">
         <f t="shared" si="7"/>
-        <v>4139.0422000000008</v>
+        <v>3442.3223999999996</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -9568,11 +9964,11 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2">
         <f t="shared" si="6"/>
-        <v>2878.4892</v>
+        <v>2753.22</v>
       </c>
       <c r="G110" s="2">
         <f t="shared" si="7"/>
-        <v>4260.9648000000007</v>
+        <v>3537.4836</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -9586,11 +9982,11 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2">
         <f t="shared" si="6"/>
-        <v>2937.7923000000001</v>
+        <v>2809.6846</v>
       </c>
       <c r="G111" s="2">
         <f t="shared" si="7"/>
-        <v>4385.3232000000007</v>
+        <v>3634.4222</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -9604,11 +10000,11 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2">
         <f t="shared" si="6"/>
-        <v>2997.6949999999997</v>
+        <v>2866.7179999999998</v>
       </c>
       <c r="G112" s="2">
         <f t="shared" si="7"/>
-        <v>4512.1419999999998</v>
+        <v>3733.1550000000002</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -9622,11 +10018,11 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2">
         <f t="shared" si="6"/>
-        <v>3058.1973000000003</v>
+        <v>2924.3202000000001</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" si="7"/>
-        <v>4641.4458000000004</v>
+        <v>3833.6987999999997</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -9640,11 +10036,11 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2">
         <f t="shared" si="6"/>
-        <v>3119.2992000000004</v>
+        <v>2982.4911999999995</v>
       </c>
       <c r="G114" s="2">
         <f t="shared" si="7"/>
-        <v>4773.2592000000004</v>
+        <v>3936.0704000000005</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -9658,11 +10054,538 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2">
         <f t="shared" si="6"/>
-        <v>3181.0007000000001</v>
+        <v>3041.2309999999998</v>
       </c>
       <c r="G115" s="2">
         <f t="shared" si="7"/>
-        <v>4907.6068000000005</v>
+        <v>4040.2866000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B116" s="2">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="6"/>
+        <v>3100.5395999999996</v>
+      </c>
+      <c r="G116" s="2">
+        <f t="shared" si="7"/>
+        <v>4146.3642</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>43740</v>
+      </c>
+      <c r="B117" s="2">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+      <c r="F117" s="2">
+        <f t="shared" si="6"/>
+        <v>3160.4169999999995</v>
+      </c>
+      <c r="G117" s="2">
+        <f t="shared" si="7"/>
+        <v>4254.32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>43741</v>
+      </c>
+      <c r="B118" s="2">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" si="6"/>
+        <v>3220.8631999999998</v>
+      </c>
+      <c r="G118" s="2">
+        <f t="shared" si="7"/>
+        <v>4364.1707999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>43742</v>
+      </c>
+      <c r="B119" s="2">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="6"/>
+        <v>3281.8781999999997</v>
+      </c>
+      <c r="G119" s="2">
+        <f t="shared" si="7"/>
+        <v>4475.933399999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B120" s="2">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="6"/>
+        <v>3343.462</v>
+      </c>
+      <c r="G120" s="2">
+        <f t="shared" si="7"/>
+        <v>4589.6246000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>43744</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="F121" s="2">
+        <f t="shared" si="6"/>
+        <v>3405.6145999999999</v>
+      </c>
+      <c r="G121" s="2">
+        <f t="shared" si="7"/>
+        <v>4705.2611999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>43745</v>
+      </c>
+      <c r="B122" s="2">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" si="6"/>
+        <v>3468.3359999999998</v>
+      </c>
+      <c r="G122" s="2">
+        <f t="shared" si="7"/>
+        <v>4822.8599999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>43746</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="6"/>
+        <v>3531.6261999999997</v>
+      </c>
+      <c r="G123" s="2">
+        <f t="shared" si="7"/>
+        <v>4942.4377999999997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="5"/>
+        <v>122</v>
+      </c>
+      <c r="F124" s="2">
+        <f t="shared" si="6"/>
+        <v>3595.4851999999992</v>
+      </c>
+      <c r="G124" s="2">
+        <f t="shared" si="7"/>
+        <v>5064.0113999999994</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>43748</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" si="5"/>
+        <v>123</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" si="6"/>
+        <v>3659.913</v>
+      </c>
+      <c r="G125" s="2">
+        <f t="shared" si="7"/>
+        <v>5187.5976000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>43749</v>
+      </c>
+      <c r="B126" s="2">
+        <f t="shared" si="5"/>
+        <v>124</v>
+      </c>
+      <c r="F126" s="2">
+        <f t="shared" si="6"/>
+        <v>3724.9096</v>
+      </c>
+      <c r="G126" s="2">
+        <f t="shared" si="7"/>
+        <v>5313.2132000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B127" s="2">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="F127" s="2">
+        <f t="shared" si="6"/>
+        <v>3790.4749999999999</v>
+      </c>
+      <c r="G127" s="2">
+        <f t="shared" si="7"/>
+        <v>5440.875</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>43751</v>
+      </c>
+      <c r="B128" s="2">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+      <c r="F128" s="2">
+        <f t="shared" si="6"/>
+        <v>3856.6091999999999</v>
+      </c>
+      <c r="G128" s="2">
+        <f t="shared" si="7"/>
+        <v>5570.5998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>43752</v>
+      </c>
+      <c r="B129" s="2">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="F129" s="2">
+        <f t="shared" si="6"/>
+        <v>3923.3121999999998</v>
+      </c>
+      <c r="G129" s="2">
+        <f t="shared" si="7"/>
+        <v>5702.4044000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>43753</v>
+      </c>
+      <c r="B130" s="2">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="F130" s="2">
+        <f t="shared" si="6"/>
+        <v>3990.5839999999998</v>
+      </c>
+      <c r="G130" s="2">
+        <f t="shared" si="7"/>
+        <v>5836.3055999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>43754</v>
+      </c>
+      <c r="B131" s="2">
+        <f t="shared" ref="B131:B146" si="10">B130+1</f>
+        <v>129</v>
+      </c>
+      <c r="F131" s="2">
+        <f t="shared" ref="F131:F146" si="11">0.2844*B131^2-5.2502*B131+3</f>
+        <v>4058.4245999999998</v>
+      </c>
+      <c r="G131" s="2">
+        <f t="shared" ref="G131:G146" si="12">0.0028*B131^3-0.0185*B131^2+2.0655*B131+3</f>
+        <v>5972.3201999999992</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>43755</v>
+      </c>
+      <c r="B132" s="2">
+        <f t="shared" si="10"/>
+        <v>130</v>
+      </c>
+      <c r="F132" s="2">
+        <f t="shared" si="11"/>
+        <v>4126.8339999999998</v>
+      </c>
+      <c r="G132" s="2">
+        <f t="shared" si="12"/>
+        <v>6110.4650000000011</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>43756</v>
+      </c>
+      <c r="B133" s="2">
+        <f t="shared" si="10"/>
+        <v>131</v>
+      </c>
+      <c r="F133" s="2">
+        <f t="shared" si="11"/>
+        <v>4195.8121999999994</v>
+      </c>
+      <c r="G133" s="2">
+        <f t="shared" si="12"/>
+        <v>6250.7568000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>43757</v>
+      </c>
+      <c r="B134" s="2">
+        <f t="shared" si="10"/>
+        <v>132</v>
+      </c>
+      <c r="F134" s="2">
+        <f t="shared" si="11"/>
+        <v>4265.3591999999999</v>
+      </c>
+      <c r="G134" s="2">
+        <f t="shared" si="12"/>
+        <v>6393.2123999999994</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>43758</v>
+      </c>
+      <c r="B135" s="2">
+        <f t="shared" si="10"/>
+        <v>133</v>
+      </c>
+      <c r="F135" s="2">
+        <f t="shared" si="11"/>
+        <v>4335.4749999999995</v>
+      </c>
+      <c r="G135" s="2">
+        <f t="shared" si="12"/>
+        <v>6537.8486000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>43759</v>
+      </c>
+      <c r="B136" s="2">
+        <f t="shared" si="10"/>
+        <v>134</v>
+      </c>
+      <c r="F136" s="2">
+        <f t="shared" si="11"/>
+        <v>4406.159599999999</v>
+      </c>
+      <c r="G136" s="2">
+        <f t="shared" si="12"/>
+        <v>6684.6822000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>43760</v>
+      </c>
+      <c r="B137" s="2">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
+      <c r="F137" s="2">
+        <f t="shared" si="11"/>
+        <v>4477.4129999999996</v>
+      </c>
+      <c r="G137" s="2">
+        <f t="shared" si="12"/>
+        <v>6833.73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>43761</v>
+      </c>
+      <c r="B138" s="2">
+        <f t="shared" si="10"/>
+        <v>136</v>
+      </c>
+      <c r="F138" s="2">
+        <f t="shared" si="11"/>
+        <v>4549.2351999999992</v>
+      </c>
+      <c r="G138" s="2">
+        <f t="shared" si="12"/>
+        <v>6985.0087999999996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>43762</v>
+      </c>
+      <c r="B139" s="2">
+        <f t="shared" si="10"/>
+        <v>137</v>
+      </c>
+      <c r="F139" s="2">
+        <f t="shared" si="11"/>
+        <v>4621.6261999999997</v>
+      </c>
+      <c r="G139" s="2">
+        <f t="shared" si="12"/>
+        <v>7138.5354000000007</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B140" s="2">
+        <f t="shared" si="10"/>
+        <v>138</v>
+      </c>
+      <c r="F140" s="2">
+        <f t="shared" si="11"/>
+        <v>4694.5859999999993</v>
+      </c>
+      <c r="G140" s="2">
+        <f t="shared" si="12"/>
+        <v>7294.3265999999994</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B141" s="2">
+        <f t="shared" si="10"/>
+        <v>139</v>
+      </c>
+      <c r="F141" s="2">
+        <f t="shared" si="11"/>
+        <v>4768.1145999999999</v>
+      </c>
+      <c r="G141" s="2">
+        <f t="shared" si="12"/>
+        <v>7452.3991999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B142" s="2">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="F142" s="2">
+        <f t="shared" si="11"/>
+        <v>4842.2119999999995</v>
+      </c>
+      <c r="G142" s="2">
+        <f t="shared" si="12"/>
+        <v>7612.7699999999995</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>43766</v>
+      </c>
+      <c r="B143" s="2">
+        <f t="shared" si="10"/>
+        <v>141</v>
+      </c>
+      <c r="F143" s="2">
+        <f t="shared" si="11"/>
+        <v>4916.8782000000001</v>
+      </c>
+      <c r="G143" s="2">
+        <f t="shared" si="12"/>
+        <v>7775.4557999999997</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>43767</v>
+      </c>
+      <c r="B144" s="2">
+        <f t="shared" si="10"/>
+        <v>142</v>
+      </c>
+      <c r="F144" s="2">
+        <f t="shared" si="11"/>
+        <v>4992.1131999999998</v>
+      </c>
+      <c r="G144" s="2">
+        <f t="shared" si="12"/>
+        <v>7940.4734000000008</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>43768</v>
+      </c>
+      <c r="B145" s="2">
+        <f t="shared" si="10"/>
+        <v>143</v>
+      </c>
+      <c r="F145" s="2">
+        <f t="shared" si="11"/>
+        <v>5067.9169999999995</v>
+      </c>
+      <c r="G145" s="2">
+        <f t="shared" si="12"/>
+        <v>8107.8396000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B146" s="2">
+        <f t="shared" si="10"/>
+        <v>144</v>
+      </c>
+      <c r="F146" s="2">
+        <f t="shared" si="11"/>
+        <v>5144.2896000000001</v>
+      </c>
+      <c r="G146" s="2">
+        <f t="shared" si="12"/>
+        <v>8277.5712000000003</v>
       </c>
     </row>
   </sheetData>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5B7380-0C27-45E7-9BC5-D844A2BB78D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26B371A-5C30-4F12-903C-EDE303D9DC5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -891,10 +891,22 @@
                   <c:v>1397</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="#,##0">
-                  <c:v>1427</c:v>
+                  <c:v>1435</c:v>
                 </c:pt>
                 <c:pt idx="80" formatCode="#,##0">
-                  <c:v>1457</c:v>
+                  <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="#,##0">
+                  <c:v>1455</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="#,##0">
+                  <c:v>1491</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="#,##0">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="#,##0">
+                  <c:v>1578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1960,10 +1972,22 @@
                   <c:v>1397</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="#,##0">
-                  <c:v>1427</c:v>
+                  <c:v>1435</c:v>
                 </c:pt>
                 <c:pt idx="80" formatCode="#,##0">
-                  <c:v>1457</c:v>
+                  <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="#,##0">
+                  <c:v>1455</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="#,##0">
+                  <c:v>1491</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="#,##0">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="#,##0">
+                  <c:v>1578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3073,10 +3097,22 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>38.142857142857146</c:v>
+                  <c:v>39.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>34.428571428571431</c:v>
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>29.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>29.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>32.428571428571431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4139,10 +4175,22 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>30</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>30</c:v>
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7098,8 +7146,8 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X20" sqref="X20"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9053,7 +9101,7 @@
         <v>791</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D82" si="8">C68-C67</f>
+        <f t="shared" ref="D68:D86" si="8">C68-C67</f>
         <v>16</v>
       </c>
       <c r="E68" s="2">
@@ -9225,7 +9273,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ref="E74:E82" si="9">(C74-C67)/7</f>
+        <f t="shared" ref="E74:E86" si="9">(C74-C67)/7</f>
         <v>55</v>
       </c>
       <c r="F74" s="2">
@@ -9414,15 +9462,15 @@
         <v>79</v>
       </c>
       <c r="C81" s="3">
-        <v>1427</v>
+        <v>1435</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E81" s="2">
         <f t="shared" si="9"/>
-        <v>38.142857142857146</v>
+        <v>39.285714285714285</v>
       </c>
       <c r="F81" s="2">
         <f t="shared" si="6"/>
@@ -9442,15 +9490,15 @@
         <v>80</v>
       </c>
       <c r="C82" s="3">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E82" s="2">
         <f t="shared" si="9"/>
-        <v>34.428571428571431</v>
+        <v>34</v>
       </c>
       <c r="F82" s="2">
         <f t="shared" si="6"/>
@@ -9469,7 +9517,17 @@
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="E83" s="2"/>
+      <c r="C83" s="3">
+        <v>1455</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="9"/>
+        <v>29.857142857142858</v>
+      </c>
       <c r="F83" s="2">
         <f t="shared" si="6"/>
         <v>1443.6822</v>
@@ -9487,7 +9545,17 @@
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="E84" s="2"/>
+      <c r="C84" s="3">
+        <v>1491</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="9"/>
+        <v>27.428571428571427</v>
+      </c>
       <c r="F84" s="2">
         <f t="shared" si="6"/>
         <v>1484.7891999999999</v>
@@ -9505,7 +9573,17 @@
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
-      <c r="E85" s="2"/>
+      <c r="C85" s="3">
+        <v>1535</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="9"/>
+        <v>29.428571428571427</v>
+      </c>
       <c r="F85" s="2">
         <f t="shared" si="6"/>
         <v>1526.4649999999997</v>
@@ -9523,7 +9601,17 @@
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="E86" s="2"/>
+      <c r="C86" s="3">
+        <v>1578</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="9"/>
+        <v>32.428571428571431</v>
+      </c>
       <c r="F86" s="2">
         <f t="shared" si="6"/>
         <v>1568.7095999999999</v>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26B371A-5C30-4F12-903C-EDE303D9DC5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC72F52-3B91-46B5-BFDD-281104FB8EEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -900,13 +900,22 @@
                   <c:v>1455</c:v>
                 </c:pt>
                 <c:pt idx="82" formatCode="#,##0">
-                  <c:v>1491</c:v>
+                  <c:v>1495</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="#,##0">
-                  <c:v>1535</c:v>
+                  <c:v>1541</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="#,##0">
-                  <c:v>1578</c:v>
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="#,##0">
+                  <c:v>1614</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="#,##0">
+                  <c:v>1643</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="#,##0">
+                  <c:v>1669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,13 +1990,22 @@
                   <c:v>1455</c:v>
                 </c:pt>
                 <c:pt idx="82" formatCode="#,##0">
-                  <c:v>1491</c:v>
+                  <c:v>1495</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="#,##0">
-                  <c:v>1535</c:v>
+                  <c:v>1541</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="#,##0">
-                  <c:v>1578</c:v>
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="#,##0">
+                  <c:v>1614</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="#,##0">
+                  <c:v>1643</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="#,##0">
+                  <c:v>1669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3106,13 +3124,22 @@
                   <c:v>29.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>27.428571428571427</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>29.428571428571427</c:v>
+                  <c:v>30.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>32.428571428571431</c:v>
+                  <c:v>32.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>30.714285714285715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4184,13 +4211,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>36</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43</c:v>
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7146,8 +7182,8 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9101,7 +9137,7 @@
         <v>791</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D86" si="8">C68-C67</f>
+        <f t="shared" ref="D68:D89" si="8">C68-C67</f>
         <v>16</v>
       </c>
       <c r="E68" s="2">
@@ -9273,7 +9309,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ref="E74:E86" si="9">(C74-C67)/7</f>
+        <f t="shared" ref="E74:E89" si="9">(C74-C67)/7</f>
         <v>55</v>
       </c>
       <c r="F74" s="2">
@@ -9546,15 +9582,15 @@
         <v>82</v>
       </c>
       <c r="C84" s="3">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" si="8"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E84" s="2">
         <f t="shared" si="9"/>
-        <v>27.428571428571427</v>
+        <v>28</v>
       </c>
       <c r="F84" s="2">
         <f t="shared" si="6"/>
@@ -9574,15 +9610,15 @@
         <v>83</v>
       </c>
       <c r="C85" s="3">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" si="8"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E85" s="2">
         <f t="shared" si="9"/>
-        <v>29.428571428571427</v>
+        <v>30.285714285714285</v>
       </c>
       <c r="F85" s="2">
         <f t="shared" si="6"/>
@@ -9602,15 +9638,15 @@
         <v>84</v>
       </c>
       <c r="C86" s="3">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" si="8"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E86" s="2">
         <f t="shared" si="9"/>
-        <v>32.428571428571431</v>
+        <v>32.714285714285715</v>
       </c>
       <c r="F86" s="2">
         <f t="shared" si="6"/>
@@ -9629,7 +9665,17 @@
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="E87" s="2"/>
+      <c r="C87" s="3">
+        <v>1614</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
       <c r="F87" s="2">
         <f t="shared" si="6"/>
         <v>1611.5229999999999</v>
@@ -9647,7 +9693,17 @@
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="E88" s="2"/>
+      <c r="C88" s="3">
+        <v>1643</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="9"/>
+        <v>29.714285714285715</v>
+      </c>
       <c r="F88" s="2">
         <f t="shared" si="6"/>
         <v>1654.9051999999999</v>
@@ -9665,7 +9721,17 @@
         <f t="shared" si="5"/>
         <v>87</v>
       </c>
-      <c r="E89" s="2"/>
+      <c r="C89" s="3">
+        <v>1669</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="9"/>
+        <v>30.714285714285715</v>
+      </c>
       <c r="F89" s="2">
         <f t="shared" si="6"/>
         <v>1698.8561999999999</v>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC72F52-3B91-46B5-BFDD-281104FB8EEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A079B91C-E178-4E28-8EDC-EBF2FB60A7CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -909,13 +909,22 @@
                   <c:v>1580</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="#,##0">
-                  <c:v>1614</c:v>
+                  <c:v>1608</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="#,##0">
-                  <c:v>1643</c:v>
+                  <c:v>1635</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="#,##0">
-                  <c:v>1669</c:v>
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="#,##0">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="#,##0">
+                  <c:v>1708</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="#,##0">
+                  <c:v>1730</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,13 +2008,22 @@
                   <c:v>1580</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="#,##0">
-                  <c:v>1614</c:v>
+                  <c:v>1608</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="#,##0">
-                  <c:v>1643</c:v>
+                  <c:v>1635</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="#,##0">
-                  <c:v>1669</c:v>
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="#,##0">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="#,##0">
+                  <c:v>1708</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="#,##0">
+                  <c:v>1730</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3133,13 +3151,22 @@
                   <c:v>32.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>31</c:v>
+                  <c:v>30.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>29.714285714285715</c:v>
+                  <c:v>28.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>30.714285714285715</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>32.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4220,13 +4247,22 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>34</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>26</c:v>
+                <c:pt idx="88">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7182,8 +7218,8 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V78" sqref="V78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9137,7 +9173,7 @@
         <v>791</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D89" si="8">C68-C67</f>
+        <f t="shared" ref="D68:D92" si="8">C68-C67</f>
         <v>16</v>
       </c>
       <c r="E68" s="2">
@@ -9309,7 +9345,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ref="E74:E89" si="9">(C74-C67)/7</f>
+        <f t="shared" ref="E74:E92" si="9">(C74-C67)/7</f>
         <v>55</v>
       </c>
       <c r="F74" s="2">
@@ -9666,15 +9702,15 @@
         <v>85</v>
       </c>
       <c r="C87" s="3">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" si="8"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E87" s="2">
         <f t="shared" si="9"/>
-        <v>31</v>
+        <v>30.142857142857142</v>
       </c>
       <c r="F87" s="2">
         <f t="shared" si="6"/>
@@ -9694,15 +9730,15 @@
         <v>86</v>
       </c>
       <c r="C88" s="3">
-        <v>1643</v>
+        <v>1635</v>
       </c>
       <c r="D88" s="2">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E88" s="2">
         <f t="shared" si="9"/>
-        <v>29.714285714285715</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="F88" s="2">
         <f t="shared" si="6"/>
@@ -9722,15 +9758,15 @@
         <v>87</v>
       </c>
       <c r="C89" s="3">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="D89" s="2">
         <f t="shared" si="8"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E89" s="2">
         <f t="shared" si="9"/>
-        <v>30.714285714285715</v>
+        <v>30</v>
       </c>
       <c r="F89" s="2">
         <f t="shared" si="6"/>
@@ -9749,7 +9785,17 @@
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="E90" s="2"/>
+      <c r="C90" s="3">
+        <v>1684</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="9"/>
+        <v>32.714285714285715</v>
+      </c>
       <c r="F90" s="2">
         <f t="shared" si="6"/>
         <v>1743.3759999999997</v>
@@ -9767,7 +9813,17 @@
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="E91" s="2"/>
+      <c r="C91" s="3">
+        <v>1708</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="9"/>
+        <v>30.428571428571427</v>
+      </c>
       <c r="F91" s="2">
         <f t="shared" si="6"/>
         <v>1788.4645999999998</v>
@@ -9785,7 +9841,17 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="E92" s="2"/>
+      <c r="C92" s="3">
+        <v>1730</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
       <c r="F92" s="2">
         <f t="shared" si="6"/>
         <v>1834.1219999999998</v>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A079B91C-E178-4E28-8EDC-EBF2FB60A7CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A32FD2-BEE8-49CC-9082-9B31E2D7F8C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Actual</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Poly3 Expected to hit 2k - 8/30/19</t>
+  </si>
+  <si>
+    <t>Poly2 Expected to hit 2.5k - 9/13/19</t>
+  </si>
+  <si>
+    <t>Poly3 Expected to hit 2.5k - 9/13/19</t>
   </si>
 </sst>
 </file>
@@ -918,13 +924,25 @@
                   <c:v>1664</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="#,##0">
-                  <c:v>1684</c:v>
+                  <c:v>1669</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="#,##0">
                   <c:v>1708</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="#,##0">
-                  <c:v>1730</c:v>
+                  <c:v>1735</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="#,##0">
+                  <c:v>1786</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="#,##0">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="#,##0">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="#,##0">
+                  <c:v>1903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,13 +2035,25 @@
                   <c:v>1664</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="#,##0">
-                  <c:v>1684</c:v>
+                  <c:v>1669</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="#,##0">
                   <c:v>1708</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="#,##0">
-                  <c:v>1730</c:v>
+                  <c:v>1735</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="#,##0">
+                  <c:v>1786</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="#,##0">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="#,##0">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="#,##0">
+                  <c:v>1903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3160,13 +3190,25 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>32.714285714285715</c:v>
+                  <c:v>30.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>30.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>27</c:v>
+                  <c:v>27.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>29.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>34.142857142857146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4256,13 +4298,25 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>24</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>22</c:v>
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7218,8 +7272,8 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V78" sqref="V78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7275,11 +7329,11 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>0.2844*B2^2-5.2502*B2+3</f>
+        <f>0.2706*B2^2-4.4943*B2+3</f>
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <f>0.0028*B2^3-0.0185*B2^2+2.0655*B2+3</f>
+        <f>0.0003*B2^3+0.2326*B2^2-3.4178*B2+3</f>
         <v>3</v>
       </c>
       <c r="H2" s="2"/>
@@ -7305,12 +7359,12 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="1">0.2844*B3^2-5.2502*B3+3</f>
-        <v>-1.9658000000000007</v>
+        <f t="shared" ref="F3:F66" si="1">0.2706*B3^2-4.4943*B3+3</f>
+        <v>-1.2237</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="2">0.0028*B3^3-0.0185*B3^2+2.0655*B3+3</f>
-        <v>5.0498000000000003</v>
+        <f t="shared" ref="G3:G66" si="2">0.0003*B3^3+0.2326*B3^2-3.4178*B3+3</f>
+        <v>-0.18490000000000029</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -7335,11 +7389,11 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="1"/>
-        <v>-6.3628</v>
+        <v>-4.9062000000000001</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="2"/>
-        <v>7.0794000000000006</v>
+        <v>-2.9028</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -7364,11 +7418,11 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>-10.191000000000003</v>
+        <v>-8.0475000000000012</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="2"/>
-        <v>9.1056000000000008</v>
+        <v>-5.1519000000000013</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -7393,11 +7447,11 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>-13.450400000000002</v>
+        <v>-10.647600000000001</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>11.145200000000001</v>
+        <v>-6.9304000000000006</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -7422,11 +7476,11 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>-16.141000000000002</v>
+        <v>-12.706499999999998</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="2"/>
-        <v>13.215</v>
+        <v>-8.236500000000003</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -7451,11 +7505,11 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>-18.262800000000006</v>
+        <v>-14.224200000000003</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="2"/>
-        <v>15.331800000000001</v>
+        <v>-9.0684000000000022</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -7480,11 +7534,11 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>-19.815800000000003</v>
+        <v>-15.200699999999998</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="2"/>
-        <v>17.5124</v>
+        <v>-9.4243000000000023</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -7509,11 +7563,11 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>-20.800000000000004</v>
+        <v>-15.635999999999999</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="2"/>
-        <v>19.773600000000002</v>
+        <v>-9.3024000000000004</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -7538,11 +7592,11 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>-21.215400000000002</v>
+        <v>-15.530100000000001</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="2"/>
-        <v>22.132200000000001</v>
+        <v>-8.7009000000000043</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -7567,11 +7621,11 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>-21.062000000000005</v>
+        <v>-14.882999999999996</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="2"/>
-        <v>24.605</v>
+        <v>-7.6180000000000021</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -7596,11 +7650,11 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>-20.339800000000004</v>
+        <v>-13.694699999999997</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>27.2088</v>
+        <v>-6.0519000000000034</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -7625,11 +7679,11 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>-19.048800000000014</v>
+        <v>-11.965200000000003</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>29.9604</v>
+        <v>-4.0008000000000052</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -7654,11 +7708,11 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>-17.189</v>
+        <v>-9.6944999999999979</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>32.876600000000003</v>
+        <v>-1.4628999999999976</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -7683,11 +7737,11 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>-14.760400000000011</v>
+        <v>-6.8825999999999965</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="2"/>
-        <v>35.974200000000003</v>
+        <v>1.5635999999999939</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -7712,11 +7766,11 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>-11.763000000000005</v>
+        <v>-3.5294999999999987</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="2"/>
-        <v>39.270000000000003</v>
+        <v>5.0805000000000007</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -7741,11 +7795,11 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>-8.1968000000000103</v>
+        <v>0.36480000000000246</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="2"/>
-        <v>42.780799999999999</v>
+        <v>9.0895999999999972</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -7770,11 +7824,11 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>-4.0618000000000194</v>
+        <v>4.8003000000000071</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="2"/>
-        <v>46.523400000000002</v>
+        <v>13.592700000000001</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -7799,11 +7853,11 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>0.64199999999999591</v>
+        <v>9.777000000000001</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>50.514600000000002</v>
+        <v>18.591599999999993</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -7828,11 +7882,11 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>5.9145999999999788</v>
+        <v>15.294899999999998</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>54.771200000000007</v>
+        <v>24.088099999999983</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -7857,11 +7911,11 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>11.755999999999986</v>
+        <v>21.354000000000013</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="2"/>
-        <v>59.31</v>
+        <v>30.084000000000003</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -7886,11 +7940,11 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>18.166199999999989</v>
+        <v>27.954300000000003</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="2"/>
-        <v>64.147800000000004</v>
+        <v>36.581099999999992</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -7915,11 +7969,11 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>25.145199999999988</v>
+        <v>35.095800000000011</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="2"/>
-        <v>69.301400000000001</v>
+        <v>43.581199999999995</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -7944,11 +7998,11 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="1"/>
-        <v>32.692999999999984</v>
+        <v>42.778500000000008</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="2"/>
-        <v>74.787599999999998</v>
+        <v>51.086099999999988</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -7973,11 +8027,11 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="1"/>
-        <v>40.809599999999961</v>
+        <v>51.002399999999994</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="2"/>
-        <v>80.623199999999997</v>
+        <v>59.097599999999986</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -8002,11 +8056,11 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="1"/>
-        <v>49.494999999999976</v>
+        <v>59.767499999999998</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="2"/>
-        <v>86.825000000000003</v>
+        <v>67.617499999999993</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -8031,11 +8085,11 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" si="1"/>
-        <v>58.749200000000002</v>
+        <v>69.073800000000006</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="2"/>
-        <v>93.409800000000004</v>
+        <v>76.647599999999997</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -8060,11 +8114,11 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" si="1"/>
-        <v>68.572199999999981</v>
+        <v>78.921300000000016</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="2"/>
-        <v>100.3944</v>
+        <v>86.189700000000002</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -8089,11 +8143,11 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" si="1"/>
-        <v>78.96399999999997</v>
+        <v>89.310000000000016</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="2"/>
-        <v>107.79560000000001</v>
+        <v>96.245599999999982</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -8118,11 +8172,11 @@
       </c>
       <c r="F31" s="2">
         <f t="shared" si="1"/>
-        <v>89.92459999999997</v>
+        <v>100.23990000000001</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="2"/>
-        <v>115.6302</v>
+        <v>106.8171</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -8147,11 +8201,11 @@
       </c>
       <c r="F32" s="2">
         <f t="shared" si="1"/>
-        <v>101.45399999999998</v>
+        <v>111.71100000000001</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="2"/>
-        <v>123.91499999999999</v>
+        <v>117.90599999999999</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -8176,11 +8230,11 @@
       </c>
       <c r="F33" s="2">
         <f t="shared" si="1"/>
-        <v>113.5522</v>
+        <v>123.72330000000002</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="2"/>
-        <v>132.66680000000002</v>
+        <v>129.51409999999998</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -8205,11 +8259,11 @@
       </c>
       <c r="F34" s="2">
         <f t="shared" si="1"/>
-        <v>126.21919999999997</v>
+        <v>136.27680000000001</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="2"/>
-        <v>141.9024</v>
+        <v>141.64319999999998</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -8234,11 +8288,11 @@
       </c>
       <c r="F35" s="2">
         <f t="shared" si="1"/>
-        <v>139.45499999999996</v>
+        <v>149.3715</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="2"/>
-        <v>151.6386</v>
+        <v>154.29509999999999</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -8263,11 +8317,11 @@
       </c>
       <c r="F36" s="2">
         <f t="shared" si="1"/>
-        <v>153.25959999999995</v>
+        <v>163.00740000000002</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="2"/>
-        <v>161.8922</v>
+        <v>167.47160000000002</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -8292,11 +8346,11 @@
       </c>
       <c r="F37" s="2">
         <f t="shared" si="1"/>
-        <v>167.63299999999998</v>
+        <v>177.18450000000001</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="2"/>
-        <v>172.68</v>
+        <v>181.17450000000002</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -8321,11 +8375,11 @@
       </c>
       <c r="F38" s="2">
         <f t="shared" si="1"/>
-        <v>182.5752</v>
+        <v>191.90280000000001</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="2"/>
-        <v>184.0188</v>
+        <v>195.40559999999999</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -8350,11 +8404,11 @@
       </c>
       <c r="F39" s="2">
         <f t="shared" si="1"/>
-        <v>198.08619999999996</v>
+        <v>207.16230000000004</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="2"/>
-        <v>195.9254</v>
+        <v>210.16669999999999</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -8379,11 +8433,11 @@
       </c>
       <c r="F40" s="2">
         <f t="shared" si="1"/>
-        <v>214.16599999999994</v>
+        <v>222.96299999999999</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="2"/>
-        <v>208.41660000000002</v>
+        <v>225.45959999999994</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -8408,11 +8462,11 @@
       </c>
       <c r="F41" s="2">
         <f t="shared" si="1"/>
-        <v>230.81459999999996</v>
+        <v>239.3049</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="2"/>
-        <v>221.50920000000002</v>
+        <v>241.2861</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -8437,11 +8491,11 @@
       </c>
       <c r="F42" s="2">
         <f t="shared" si="1"/>
-        <v>248.03199999999995</v>
+        <v>256.18800000000005</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="2"/>
-        <v>235.22</v>
+        <v>257.64800000000002</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -8466,11 +8520,11 @@
       </c>
       <c r="F43" s="2">
         <f t="shared" si="1"/>
-        <v>265.81819999999993</v>
+        <v>273.6123</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="2"/>
-        <v>249.56580000000002</v>
+        <v>274.5471</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -8495,11 +8549,11 @@
       </c>
       <c r="F44" s="2">
         <f t="shared" si="1"/>
-        <v>284.17319999999995</v>
+        <v>291.57780000000002</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="2"/>
-        <v>264.5634</v>
+        <v>291.98519999999996</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -8524,11 +8578,11 @@
       </c>
       <c r="F45" s="2">
         <f t="shared" si="1"/>
-        <v>303.09699999999998</v>
+        <v>310.08450000000005</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="2"/>
-        <v>280.2296</v>
+        <v>309.96410000000003</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -8553,11 +8607,11 @@
       </c>
       <c r="F46" s="2">
         <f t="shared" si="1"/>
-        <v>322.58959999999996</v>
+        <v>329.13240000000008</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="2"/>
-        <v>296.58119999999997</v>
+        <v>328.48559999999998</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -8582,11 +8636,11 @@
       </c>
       <c r="F47" s="2">
         <f t="shared" si="1"/>
-        <v>342.65099999999995</v>
+        <v>348.72149999999999</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="2"/>
-        <v>313.63499999999999</v>
+        <v>347.55149999999992</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -8611,11 +8665,11 @@
       </c>
       <c r="F48" s="2">
         <f t="shared" si="1"/>
-        <v>363.28119999999996</v>
+        <v>368.85180000000003</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="2"/>
-        <v>331.40779999999995</v>
+        <v>367.16359999999997</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -8640,11 +8694,11 @@
       </c>
       <c r="F49" s="2">
         <f t="shared" si="1"/>
-        <v>384.48019999999997</v>
+        <v>389.52330000000001</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="2"/>
-        <v>349.91640000000001</v>
+        <v>387.32369999999992</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -8669,11 +8723,11 @@
       </c>
       <c r="F50" s="2">
         <f t="shared" si="1"/>
-        <v>406.24799999999988</v>
+        <v>410.73599999999999</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="2"/>
-        <v>369.17759999999998</v>
+        <v>408.03359999999998</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -8698,11 +8752,11 @@
       </c>
       <c r="F51" s="2">
         <f t="shared" si="1"/>
-        <v>428.58459999999991</v>
+        <v>432.48990000000003</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="2"/>
-        <v>389.20819999999998</v>
+        <v>429.29510000000005</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -8727,11 +8781,11 @@
       </c>
       <c r="F52" s="2">
         <f t="shared" si="1"/>
-        <v>451.48999999999995</v>
+        <v>454.78499999999997</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" si="2"/>
-        <v>410.02499999999998</v>
+        <v>451.11</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -8756,11 +8810,11 @@
       </c>
       <c r="F53" s="2">
         <f t="shared" si="1"/>
-        <v>474.96419999999995</v>
+        <v>477.62130000000002</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="2"/>
-        <v>431.64480000000003</v>
+        <v>473.48009999999999</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -8785,11 +8839,11 @@
       </c>
       <c r="F54" s="2">
         <f t="shared" si="1"/>
-        <v>499.00720000000001</v>
+        <v>500.99880000000002</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="2"/>
-        <v>454.08440000000002</v>
+        <v>496.4072000000001</v>
       </c>
       <c r="H54" s="2"/>
     </row>
@@ -8814,11 +8868,11 @@
       </c>
       <c r="F55" s="2">
         <f t="shared" si="1"/>
-        <v>523.61899999999991</v>
+        <v>524.91750000000002</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="2"/>
-        <v>477.36059999999998</v>
+        <v>519.89309999999989</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -8843,11 +8897,11 @@
       </c>
       <c r="F56" s="2">
         <f t="shared" si="1"/>
-        <v>548.79959999999994</v>
+        <v>549.37740000000008</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="2"/>
-        <v>501.49020000000007</v>
+        <v>543.93960000000004</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -8872,11 +8926,11 @@
       </c>
       <c r="F57" s="2">
         <f t="shared" si="1"/>
-        <v>574.54899999999998</v>
+        <v>574.37850000000003</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" si="2"/>
-        <v>526.49</v>
+        <v>568.54849999999999</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -8901,11 +8955,11 @@
       </c>
       <c r="F58" s="2">
         <f t="shared" si="1"/>
-        <v>600.86719999999991</v>
+        <v>599.9208000000001</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" si="2"/>
-        <v>552.3768</v>
+        <v>593.72159999999997</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -8930,11 +8984,11 @@
       </c>
       <c r="F59" s="2">
         <f t="shared" si="1"/>
-        <v>627.75419999999986</v>
+        <v>626.00430000000006</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" si="2"/>
-        <v>579.16740000000004</v>
+        <v>619.46069999999997</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -8958,11 +9012,11 @@
       </c>
       <c r="F60" s="2">
         <f t="shared" si="1"/>
-        <v>655.20999999999992</v>
+        <v>652.62900000000002</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="2"/>
-        <v>606.87860000000001</v>
+        <v>645.76760000000002</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -8986,11 +9040,11 @@
       </c>
       <c r="F61" s="2">
         <f t="shared" si="1"/>
-        <v>683.2346</v>
+        <v>679.7949000000001</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="2"/>
-        <v>635.52719999999999</v>
+        <v>672.64409999999998</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -9014,11 +9068,11 @@
       </c>
       <c r="F62" s="2">
         <f t="shared" si="1"/>
-        <v>711.82799999999997</v>
+        <v>707.50200000000007</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" si="2"/>
-        <v>665.12999999999988</v>
+        <v>700.09199999999998</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -9042,11 +9096,11 @@
       </c>
       <c r="F63" s="2">
         <f t="shared" si="1"/>
-        <v>740.99019999999985</v>
+        <v>735.75029999999992</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" si="2"/>
-        <v>695.7038</v>
+        <v>728.11309999999992</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -9070,11 +9124,11 @@
       </c>
       <c r="F64" s="2">
         <f t="shared" si="1"/>
-        <v>770.72119999999995</v>
+        <v>764.53980000000001</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" si="2"/>
-        <v>727.2654</v>
+        <v>756.70920000000001</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -9098,11 +9152,11 @@
       </c>
       <c r="F65" s="2">
         <f t="shared" si="1"/>
-        <v>801.02099999999996</v>
+        <v>793.87050000000011</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" si="2"/>
-        <v>759.83159999999998</v>
+        <v>785.88209999999992</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -9126,11 +9180,11 @@
       </c>
       <c r="F66" s="2">
         <f t="shared" si="1"/>
-        <v>831.88959999999997</v>
+        <v>823.74240000000009</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" si="2"/>
-        <v>793.41920000000005</v>
+        <v>815.63360000000011</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -9153,12 +9207,12 @@
         <v>26</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F130" si="6">0.2844*B67^2-5.2502*B67+3</f>
-        <v>863.32699999999988</v>
+        <f t="shared" ref="F67:F130" si="6">0.2706*B67^2-4.4943*B67+3</f>
+        <v>854.15550000000007</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G130" si="7">0.0028*B67^3-0.0185*B67^2+2.0655*B67+3</f>
-        <v>828.04500000000007</v>
+        <f t="shared" ref="G67:G130" si="7">0.0003*B67^3+0.2326*B67^2-3.4178*B67+3</f>
+        <v>845.96549999999991</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -9173,7 +9227,7 @@
         <v>791</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D92" si="8">C68-C67</f>
+        <f t="shared" ref="D68:D96" si="8">C68-C67</f>
         <v>16</v>
       </c>
       <c r="E68" s="2">
@@ -9182,11 +9236,11 @@
       </c>
       <c r="F68" s="2">
         <f t="shared" si="6"/>
-        <v>895.33319999999981</v>
+        <v>885.10979999999995</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" si="7"/>
-        <v>863.72579999999994</v>
+        <v>876.8796000000001</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -9210,11 +9264,11 @@
       </c>
       <c r="F69" s="2">
         <f t="shared" si="6"/>
-        <v>927.90819999999985</v>
+        <v>916.60530000000017</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" si="7"/>
-        <v>900.47839999999997</v>
+        <v>908.3777</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -9238,11 +9292,11 @@
       </c>
       <c r="F70" s="2">
         <f t="shared" si="6"/>
-        <v>961.05199999999991</v>
+        <v>948.64200000000005</v>
       </c>
       <c r="G70" s="2">
         <f t="shared" si="7"/>
-        <v>938.31960000000004</v>
+        <v>940.46160000000009</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -9266,11 +9320,11 @@
       </c>
       <c r="F71" s="2">
         <f t="shared" si="6"/>
-        <v>994.76459999999997</v>
+        <v>981.21990000000005</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" si="7"/>
-        <v>977.26620000000003</v>
+        <v>973.1330999999999</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -9294,11 +9348,11 @@
       </c>
       <c r="F72" s="2">
         <f t="shared" si="6"/>
-        <v>1029.0459999999998</v>
+        <v>1014.3390000000001</v>
       </c>
       <c r="G72" s="2">
         <f t="shared" si="7"/>
-        <v>1017.335</v>
+        <v>1006.3940000000001</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -9322,11 +9376,11 @@
       </c>
       <c r="F73" s="2">
         <f t="shared" si="6"/>
-        <v>1063.8961999999999</v>
+        <v>1047.9993000000002</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" si="7"/>
-        <v>1058.5427999999999</v>
+        <v>1040.2460999999998</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -9345,16 +9399,16 @@
         <v>64</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ref="E74:E92" si="9">(C74-C67)/7</f>
+        <f t="shared" ref="E74:E96" si="9">(C74-C67)/7</f>
         <v>55</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" si="6"/>
-        <v>1099.3152</v>
+        <v>1082.2008000000001</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" si="7"/>
-        <v>1100.9063999999998</v>
+        <v>1074.6912</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -9378,11 +9432,11 @@
       </c>
       <c r="F75" s="2">
         <f t="shared" si="6"/>
-        <v>1135.3029999999999</v>
+        <v>1116.9434999999999</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" si="7"/>
-        <v>1144.4425999999999</v>
+        <v>1109.7311</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -9406,11 +9460,11 @@
       </c>
       <c r="F76" s="2">
         <f t="shared" si="6"/>
-        <v>1171.8595999999998</v>
+        <v>1152.2274000000002</v>
       </c>
       <c r="G76" s="2">
         <f t="shared" si="7"/>
-        <v>1189.1681999999998</v>
+        <v>1145.3675999999998</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -9434,11 +9488,11 @@
       </c>
       <c r="F77" s="2">
         <f t="shared" si="6"/>
-        <v>1208.9849999999999</v>
+        <v>1188.0525</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" si="7"/>
-        <v>1235.0999999999999</v>
+        <v>1181.6025</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -9462,11 +9516,11 @@
       </c>
       <c r="F78" s="2">
         <f t="shared" si="6"/>
-        <v>1246.6791999999998</v>
+        <v>1224.4187999999999</v>
       </c>
       <c r="G78" s="2">
         <f t="shared" si="7"/>
-        <v>1282.2548000000002</v>
+        <v>1218.4376</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -9490,11 +9544,11 @@
       </c>
       <c r="F79" s="2">
         <f t="shared" si="6"/>
-        <v>1284.9422</v>
+        <v>1261.3263000000002</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" si="7"/>
-        <v>1330.6494</v>
+        <v>1255.8746999999998</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -9518,11 +9572,11 @@
       </c>
       <c r="F80" s="2">
         <f t="shared" si="6"/>
-        <v>1323.7739999999999</v>
+        <v>1298.7750000000001</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" si="7"/>
-        <v>1380.3005999999998</v>
+        <v>1293.9156</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -9546,11 +9600,11 @@
       </c>
       <c r="F81" s="2">
         <f t="shared" si="6"/>
-        <v>1363.1745999999998</v>
+        <v>1336.7649000000001</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" si="7"/>
-        <v>1431.2252000000001</v>
+        <v>1332.5620999999999</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -9574,11 +9628,11 @@
       </c>
       <c r="F82" s="2">
         <f t="shared" si="6"/>
-        <v>1403.1439999999998</v>
+        <v>1375.2960000000003</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" si="7"/>
-        <v>1483.4399999999998</v>
+        <v>1371.816</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -9602,11 +9656,11 @@
       </c>
       <c r="F83" s="2">
         <f t="shared" si="6"/>
-        <v>1443.6822</v>
+        <v>1414.3683000000001</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" si="7"/>
-        <v>1536.9617999999998</v>
+        <v>1411.6790999999998</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -9630,11 +9684,11 @@
       </c>
       <c r="F84" s="2">
         <f t="shared" si="6"/>
-        <v>1484.7891999999999</v>
+        <v>1453.9818</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" si="7"/>
-        <v>1591.8074000000001</v>
+        <v>1452.1532</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -9658,11 +9712,11 @@
       </c>
       <c r="F85" s="2">
         <f t="shared" si="6"/>
-        <v>1526.4649999999997</v>
+        <v>1494.1365000000001</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" si="7"/>
-        <v>1647.9936</v>
+        <v>1493.2401</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -9686,11 +9740,11 @@
       </c>
       <c r="F86" s="2">
         <f t="shared" si="6"/>
-        <v>1568.7095999999999</v>
+        <v>1534.8324000000002</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" si="7"/>
-        <v>1705.5372</v>
+        <v>1534.9415999999999</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -9714,11 +9768,11 @@
       </c>
       <c r="F87" s="2">
         <f t="shared" si="6"/>
-        <v>1611.5229999999999</v>
+        <v>1576.0695000000001</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" si="7"/>
-        <v>1764.4549999999999</v>
+        <v>1577.2595000000001</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -9742,11 +9796,11 @@
       </c>
       <c r="F88" s="2">
         <f t="shared" si="6"/>
-        <v>1654.9051999999999</v>
+        <v>1617.8478</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" si="7"/>
-        <v>1824.7637999999999</v>
+        <v>1620.1956</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -9770,11 +9824,11 @@
       </c>
       <c r="F89" s="2">
         <f t="shared" si="6"/>
-        <v>1698.8561999999999</v>
+        <v>1660.1673000000001</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" si="7"/>
-        <v>1886.4803999999999</v>
+        <v>1663.7517</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -9786,23 +9840,23 @@
         <v>88</v>
       </c>
       <c r="C90" s="3">
-        <v>1684</v>
+        <v>1669</v>
       </c>
       <c r="D90" s="2">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E90" s="2">
         <f t="shared" si="9"/>
-        <v>32.714285714285715</v>
+        <v>30.571428571428573</v>
       </c>
       <c r="F90" s="2">
         <f t="shared" si="6"/>
-        <v>1743.3759999999997</v>
+        <v>1703.0280000000002</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" si="7"/>
-        <v>1949.6215999999999</v>
+        <v>1707.9295999999999</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -9818,7 +9872,7 @@
       </c>
       <c r="D91" s="2">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E91" s="2">
         <f t="shared" si="9"/>
@@ -9826,11 +9880,11 @@
       </c>
       <c r="F91" s="2">
         <f t="shared" si="6"/>
-        <v>1788.4645999999998</v>
+        <v>1746.4298999999999</v>
       </c>
       <c r="G91" s="2">
         <f t="shared" si="7"/>
-        <v>2014.2041999999999</v>
+        <v>1752.7311</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -9842,23 +9896,23 @@
         <v>90</v>
       </c>
       <c r="C92" s="3">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="D92" s="2">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E92" s="2">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>27.714285714285715</v>
       </c>
       <c r="F92" s="2">
         <f t="shared" si="6"/>
-        <v>1834.1219999999998</v>
+        <v>1790.373</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" si="7"/>
-        <v>2080.2450000000003</v>
+        <v>1798.1579999999997</v>
       </c>
       <c r="H92" t="s">
         <v>8</v>
@@ -9872,14 +9926,24 @@
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="E93" s="2"/>
+      <c r="C93" s="3">
+        <v>1786</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="9"/>
+        <v>29.428571428571427</v>
+      </c>
       <c r="F93" s="2">
         <f t="shared" si="6"/>
-        <v>1880.3481999999999</v>
+        <v>1834.8573000000001</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" si="7"/>
-        <v>2147.7608</v>
+        <v>1844.2120999999997</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -9890,14 +9954,24 @@
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="E94" s="2"/>
+      <c r="C94" s="3">
+        <v>1825</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
       <c r="F94" s="2">
         <f t="shared" si="6"/>
-        <v>1927.1432</v>
+        <v>1879.8828000000001</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" si="7"/>
-        <v>2216.7683999999999</v>
+        <v>1890.8952000000002</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -9908,14 +9982,24 @@
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="E95" s="2"/>
+      <c r="C95" s="3">
+        <v>1866</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
       <c r="F95" s="2">
         <f t="shared" si="6"/>
-        <v>1974.5069999999998</v>
+        <v>1925.4495000000002</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" si="7"/>
-        <v>2287.2846</v>
+        <v>1938.2091</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -9926,20 +10010,30 @@
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="E96" s="2"/>
+      <c r="C96" s="3">
+        <v>1903</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="9"/>
+        <v>34.142857142857146</v>
+      </c>
       <c r="F96" s="2">
         <f t="shared" si="6"/>
-        <v>2022.4395999999999</v>
+        <v>1971.5574000000001</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" si="7"/>
-        <v>2359.3262000000004</v>
+        <v>1986.1556</v>
       </c>
       <c r="H96" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43720</v>
       </c>
@@ -9950,14 +10044,14 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2">
         <f t="shared" si="6"/>
-        <v>2070.9409999999998</v>
+        <v>2018.2065</v>
       </c>
       <c r="G97" s="2">
         <f t="shared" si="7"/>
-        <v>2432.91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2034.7365000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43721</v>
       </c>
@@ -9968,14 +10062,14 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2">
         <f t="shared" si="6"/>
-        <v>2120.0111999999995</v>
+        <v>2065.3968</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" si="7"/>
-        <v>2508.0527999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2083.9535999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43722</v>
       </c>
@@ -9986,14 +10080,14 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2">
         <f t="shared" si="6"/>
-        <v>2169.6501999999996</v>
+        <v>2113.1283000000003</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" si="7"/>
-        <v>2584.7714000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2133.8086999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43723</v>
       </c>
@@ -10004,14 +10098,14 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2">
         <f t="shared" si="6"/>
-        <v>2219.8579999999997</v>
+        <v>2161.4009999999998</v>
       </c>
       <c r="G100" s="2">
         <f t="shared" si="7"/>
-        <v>2663.0825999999997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2184.3036000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43724</v>
       </c>
@@ -10022,14 +10116,14 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2">
         <f t="shared" si="6"/>
-        <v>2270.6345999999999</v>
+        <v>2210.2148999999999</v>
       </c>
       <c r="G101" s="2">
         <f t="shared" si="7"/>
-        <v>2743.0032000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2235.4400999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43725</v>
       </c>
@@ -10040,14 +10134,14 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2">
         <f t="shared" si="6"/>
-        <v>2321.98</v>
+        <v>2259.5700000000002</v>
       </c>
       <c r="G102" s="2">
         <f t="shared" si="7"/>
-        <v>2824.55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2287.2199999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43726</v>
       </c>
@@ -10058,14 +10152,14 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2">
         <f t="shared" si="6"/>
-        <v>2373.8941999999997</v>
+        <v>2309.4663</v>
       </c>
       <c r="G103" s="2">
         <f t="shared" si="7"/>
-        <v>2907.7397999999998</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2339.6450999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43727</v>
       </c>
@@ -10076,14 +10170,14 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2">
         <f t="shared" si="6"/>
-        <v>2426.3771999999999</v>
+        <v>2359.9038</v>
       </c>
       <c r="G104" s="2">
         <f t="shared" si="7"/>
-        <v>2992.5893999999998</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2392.7172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43728</v>
       </c>
@@ -10094,14 +10188,14 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2">
         <f t="shared" si="6"/>
-        <v>2479.4290000000001</v>
+        <v>2410.8825000000002</v>
       </c>
       <c r="G105" s="2">
         <f t="shared" si="7"/>
-        <v>3079.1156000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2446.4381000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43729</v>
       </c>
@@ -10112,14 +10206,17 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2">
         <f t="shared" si="6"/>
-        <v>2533.0496000000003</v>
+        <v>2462.4023999999999</v>
       </c>
       <c r="G106" s="2">
         <f t="shared" si="7"/>
-        <v>3167.3352</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2500.8096</v>
+      </c>
+      <c r="H106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43730</v>
       </c>
@@ -10130,14 +10227,17 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2">
         <f t="shared" si="6"/>
-        <v>2587.2389999999996</v>
+        <v>2514.4635000000003</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" si="7"/>
-        <v>3257.2649999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2555.8334999999997</v>
+      </c>
+      <c r="H107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43731</v>
       </c>
@@ -10148,14 +10248,14 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2">
         <f t="shared" si="6"/>
-        <v>2641.9971999999998</v>
+        <v>2567.0658000000003</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" si="7"/>
-        <v>3348.9218000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2611.5115999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43732</v>
       </c>
@@ -10166,14 +10266,14 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2">
         <f t="shared" si="6"/>
-        <v>2697.3241999999996</v>
+        <v>2620.2093</v>
       </c>
       <c r="G109" s="2">
         <f t="shared" si="7"/>
-        <v>3442.3223999999996</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2667.8456999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43733</v>
       </c>
@@ -10184,14 +10284,14 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2">
         <f t="shared" si="6"/>
-        <v>2753.22</v>
+        <v>2673.8940000000002</v>
       </c>
       <c r="G110" s="2">
         <f t="shared" si="7"/>
-        <v>3537.4836</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2724.8375999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43734</v>
       </c>
@@ -10202,14 +10302,14 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2">
         <f t="shared" si="6"/>
-        <v>2809.6846</v>
+        <v>2728.1198999999997</v>
       </c>
       <c r="G111" s="2">
         <f t="shared" si="7"/>
-        <v>3634.4222</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2782.4890999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43735</v>
       </c>
@@ -10220,11 +10320,11 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2">
         <f t="shared" si="6"/>
-        <v>2866.7179999999998</v>
+        <v>2782.8870000000002</v>
       </c>
       <c r="G112" s="2">
         <f t="shared" si="7"/>
-        <v>3733.1550000000002</v>
+        <v>2840.8020000000001</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -10238,11 +10338,11 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2">
         <f t="shared" si="6"/>
-        <v>2924.3202000000001</v>
+        <v>2838.1953000000003</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" si="7"/>
-        <v>3833.6987999999997</v>
+        <v>2899.7780999999995</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -10256,11 +10356,11 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2">
         <f t="shared" si="6"/>
-        <v>2982.4911999999995</v>
+        <v>2894.0448000000001</v>
       </c>
       <c r="G114" s="2">
         <f t="shared" si="7"/>
-        <v>3936.0704000000005</v>
+        <v>2959.4191999999998</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -10274,11 +10374,11 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2">
         <f t="shared" si="6"/>
-        <v>3041.2309999999998</v>
+        <v>2950.4355</v>
       </c>
       <c r="G115" s="2">
         <f t="shared" si="7"/>
-        <v>4040.2866000000004</v>
+        <v>3019.7270999999996</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -10291,11 +10391,11 @@
       </c>
       <c r="F116" s="2">
         <f t="shared" si="6"/>
-        <v>3100.5395999999996</v>
+        <v>3007.3674000000001</v>
       </c>
       <c r="G116" s="2">
         <f t="shared" si="7"/>
-        <v>4146.3642</v>
+        <v>3080.7036000000003</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -10308,11 +10408,11 @@
       </c>
       <c r="F117" s="2">
         <f t="shared" si="6"/>
-        <v>3160.4169999999995</v>
+        <v>3064.8404999999998</v>
       </c>
       <c r="G117" s="2">
         <f t="shared" si="7"/>
-        <v>4254.32</v>
+        <v>3142.3505</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -10325,11 +10425,11 @@
       </c>
       <c r="F118" s="2">
         <f t="shared" si="6"/>
-        <v>3220.8631999999998</v>
+        <v>3122.8548000000001</v>
       </c>
       <c r="G118" s="2">
         <f t="shared" si="7"/>
-        <v>4364.1707999999999</v>
+        <v>3204.6695999999997</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -10342,11 +10442,11 @@
       </c>
       <c r="F119" s="2">
         <f t="shared" si="6"/>
-        <v>3281.8781999999997</v>
+        <v>3181.4103000000005</v>
       </c>
       <c r="G119" s="2">
         <f t="shared" si="7"/>
-        <v>4475.933399999999</v>
+        <v>3267.6626999999999</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -10359,11 +10459,11 @@
       </c>
       <c r="F120" s="2">
         <f t="shared" si="6"/>
-        <v>3343.462</v>
+        <v>3240.5070000000001</v>
       </c>
       <c r="G120" s="2">
         <f t="shared" si="7"/>
-        <v>4589.6246000000001</v>
+        <v>3331.3316</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -10376,11 +10476,11 @@
       </c>
       <c r="F121" s="2">
         <f t="shared" si="6"/>
-        <v>3405.6145999999999</v>
+        <v>3300.1449000000002</v>
       </c>
       <c r="G121" s="2">
         <f t="shared" si="7"/>
-        <v>4705.2611999999999</v>
+        <v>3395.6781000000001</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -10393,11 +10493,11 @@
       </c>
       <c r="F122" s="2">
         <f t="shared" si="6"/>
-        <v>3468.3359999999998</v>
+        <v>3360.3240000000005</v>
       </c>
       <c r="G122" s="2">
         <f t="shared" si="7"/>
-        <v>4822.8599999999997</v>
+        <v>3460.7040000000002</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -10410,11 +10510,11 @@
       </c>
       <c r="F123" s="2">
         <f t="shared" si="6"/>
-        <v>3531.6261999999997</v>
+        <v>3421.0443</v>
       </c>
       <c r="G123" s="2">
         <f t="shared" si="7"/>
-        <v>4942.4377999999997</v>
+        <v>3526.4110999999998</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -10427,11 +10527,11 @@
       </c>
       <c r="F124" s="2">
         <f t="shared" si="6"/>
-        <v>3595.4851999999992</v>
+        <v>3482.3058000000001</v>
       </c>
       <c r="G124" s="2">
         <f t="shared" si="7"/>
-        <v>5064.0113999999994</v>
+        <v>3592.8011999999999</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -10444,11 +10544,11 @@
       </c>
       <c r="F125" s="2">
         <f t="shared" si="6"/>
-        <v>3659.913</v>
+        <v>3544.1085000000003</v>
       </c>
       <c r="G125" s="2">
         <f t="shared" si="7"/>
-        <v>5187.5976000000001</v>
+        <v>3659.8761</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -10461,11 +10561,11 @@
       </c>
       <c r="F126" s="2">
         <f t="shared" si="6"/>
-        <v>3724.9096</v>
+        <v>3606.4524000000001</v>
       </c>
       <c r="G126" s="2">
         <f t="shared" si="7"/>
-        <v>5313.2132000000001</v>
+        <v>3727.6376</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -10478,11 +10578,11 @@
       </c>
       <c r="F127" s="2">
         <f t="shared" si="6"/>
-        <v>3790.4749999999999</v>
+        <v>3669.3375000000001</v>
       </c>
       <c r="G127" s="2">
         <f t="shared" si="7"/>
-        <v>5440.875</v>
+        <v>3796.0875000000001</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -10495,11 +10595,11 @@
       </c>
       <c r="F128" s="2">
         <f t="shared" si="6"/>
-        <v>3856.6091999999999</v>
+        <v>3732.7638000000006</v>
       </c>
       <c r="G128" s="2">
         <f t="shared" si="7"/>
-        <v>5570.5998</v>
+        <v>3865.2275999999997</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -10512,11 +10612,11 @@
       </c>
       <c r="F129" s="2">
         <f t="shared" si="6"/>
-        <v>3923.3121999999998</v>
+        <v>3796.7313000000004</v>
       </c>
       <c r="G129" s="2">
         <f t="shared" si="7"/>
-        <v>5702.4044000000004</v>
+        <v>3935.0596999999998</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -10529,11 +10629,11 @@
       </c>
       <c r="F130" s="2">
         <f t="shared" si="6"/>
-        <v>3990.5839999999998</v>
+        <v>3861.2400000000002</v>
       </c>
       <c r="G130" s="2">
         <f t="shared" si="7"/>
-        <v>5836.3055999999997</v>
+        <v>4005.5856000000003</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -10545,12 +10645,12 @@
         <v>129</v>
       </c>
       <c r="F131" s="2">
-        <f t="shared" ref="F131:F146" si="11">0.2844*B131^2-5.2502*B131+3</f>
-        <v>4058.4245999999998</v>
+        <f t="shared" ref="F131:F146" si="11">0.2706*B131^2-4.4943*B131+3</f>
+        <v>3926.2899000000007</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" ref="G131:G146" si="12">0.0028*B131^3-0.0185*B131^2+2.0655*B131+3</f>
-        <v>5972.3201999999992</v>
+        <f t="shared" ref="G131:G146" si="12">0.0003*B131^3+0.2326*B131^2-3.4178*B131+3</f>
+        <v>4076.8071</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -10563,11 +10663,11 @@
       </c>
       <c r="F132" s="2">
         <f t="shared" si="11"/>
-        <v>4126.8339999999998</v>
+        <v>3991.8810000000003</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" si="12"/>
-        <v>6110.4650000000011</v>
+        <v>4148.7259999999997</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -10580,11 +10680,11 @@
       </c>
       <c r="F133" s="2">
         <f t="shared" si="11"/>
-        <v>4195.8121999999994</v>
+        <v>4058.0133000000001</v>
       </c>
       <c r="G133" s="2">
         <f t="shared" si="12"/>
-        <v>6250.7568000000001</v>
+        <v>4221.3441000000003</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -10597,11 +10697,11 @@
       </c>
       <c r="F134" s="2">
         <f t="shared" si="11"/>
-        <v>4265.3591999999999</v>
+        <v>4124.6868000000004</v>
       </c>
       <c r="G134" s="2">
         <f t="shared" si="12"/>
-        <v>6393.2123999999994</v>
+        <v>4294.6632</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -10614,11 +10714,11 @@
       </c>
       <c r="F135" s="2">
         <f t="shared" si="11"/>
-        <v>4335.4749999999995</v>
+        <v>4191.9014999999999</v>
       </c>
       <c r="G135" s="2">
         <f t="shared" si="12"/>
-        <v>6537.8486000000003</v>
+        <v>4368.6851000000006</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -10631,11 +10731,11 @@
       </c>
       <c r="F136" s="2">
         <f t="shared" si="11"/>
-        <v>4406.159599999999</v>
+        <v>4259.6574000000001</v>
       </c>
       <c r="G136" s="2">
         <f t="shared" si="12"/>
-        <v>6684.6822000000002</v>
+        <v>4443.4115999999995</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -10648,11 +10748,11 @@
       </c>
       <c r="F137" s="2">
         <f t="shared" si="11"/>
-        <v>4477.4129999999996</v>
+        <v>4327.9545000000007</v>
       </c>
       <c r="G137" s="2">
         <f t="shared" si="12"/>
-        <v>6833.73</v>
+        <v>4518.8445000000002</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -10665,11 +10765,11 @@
       </c>
       <c r="F138" s="2">
         <f t="shared" si="11"/>
-        <v>4549.2351999999992</v>
+        <v>4396.7928000000002</v>
       </c>
       <c r="G138" s="2">
         <f t="shared" si="12"/>
-        <v>6985.0087999999996</v>
+        <v>4594.9856</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -10682,11 +10782,11 @@
       </c>
       <c r="F139" s="2">
         <f t="shared" si="11"/>
-        <v>4621.6261999999997</v>
+        <v>4466.1723000000002</v>
       </c>
       <c r="G139" s="2">
         <f t="shared" si="12"/>
-        <v>7138.5354000000007</v>
+        <v>4671.8366999999998</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -10699,11 +10799,11 @@
       </c>
       <c r="F140" s="2">
         <f t="shared" si="11"/>
-        <v>4694.5859999999993</v>
+        <v>4536.0930000000008</v>
       </c>
       <c r="G140" s="2">
         <f t="shared" si="12"/>
-        <v>7294.3265999999994</v>
+        <v>4749.3995999999997</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -10716,11 +10816,11 @@
       </c>
       <c r="F141" s="2">
         <f t="shared" si="11"/>
-        <v>4768.1145999999999</v>
+        <v>4606.5549000000001</v>
       </c>
       <c r="G141" s="2">
         <f t="shared" si="12"/>
-        <v>7452.3991999999998</v>
+        <v>4827.6760999999997</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -10733,11 +10833,11 @@
       </c>
       <c r="F142" s="2">
         <f t="shared" si="11"/>
-        <v>4842.2119999999995</v>
+        <v>4677.558</v>
       </c>
       <c r="G142" s="2">
         <f t="shared" si="12"/>
-        <v>7612.7699999999995</v>
+        <v>4906.6679999999997</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -10750,11 +10850,11 @@
       </c>
       <c r="F143" s="2">
         <f t="shared" si="11"/>
-        <v>4916.8782000000001</v>
+        <v>4749.1023000000005</v>
       </c>
       <c r="G143" s="2">
         <f t="shared" si="12"/>
-        <v>7775.4557999999997</v>
+        <v>4986.3770999999997</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -10767,11 +10867,11 @@
       </c>
       <c r="F144" s="2">
         <f t="shared" si="11"/>
-        <v>4992.1131999999998</v>
+        <v>4821.1878000000006</v>
       </c>
       <c r="G144" s="2">
         <f t="shared" si="12"/>
-        <v>7940.4734000000008</v>
+        <v>5066.8051999999998</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -10784,11 +10884,11 @@
       </c>
       <c r="F145" s="2">
         <f t="shared" si="11"/>
-        <v>5067.9169999999995</v>
+        <v>4893.8144999999995</v>
       </c>
       <c r="G145" s="2">
         <f t="shared" si="12"/>
-        <v>8107.8396000000002</v>
+        <v>5147.9540999999999</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -10801,11 +10901,11 @@
       </c>
       <c r="F146" s="2">
         <f t="shared" si="11"/>
-        <v>5144.2896000000001</v>
+        <v>4966.9824000000008</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" si="12"/>
-        <v>8277.5712000000003</v>
+        <v>5229.8255999999992</v>
       </c>
     </row>
   </sheetData>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A32FD2-BEE8-49CC-9082-9B31E2D7F8C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F31BDF0-A810-472B-A294-5721B6DD529D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -936,13 +936,19 @@
                   <c:v>1786</c:v>
                 </c:pt>
                 <c:pt idx="92" formatCode="#,##0">
-                  <c:v>1825</c:v>
+                  <c:v>1844</c:v>
                 </c:pt>
                 <c:pt idx="93" formatCode="#,##0">
-                  <c:v>1866</c:v>
+                  <c:v>1854</c:v>
                 </c:pt>
                 <c:pt idx="94" formatCode="#,##0">
                   <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="#,##0">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="#,##0">
+                  <c:v>1976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2047,13 +2053,19 @@
                   <c:v>1786</c:v>
                 </c:pt>
                 <c:pt idx="92" formatCode="#,##0">
-                  <c:v>1825</c:v>
+                  <c:v>1844</c:v>
                 </c:pt>
                 <c:pt idx="93" formatCode="#,##0">
-                  <c:v>1866</c:v>
+                  <c:v>1854</c:v>
                 </c:pt>
                 <c:pt idx="94" formatCode="#,##0">
                   <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="#,##0">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="#,##0">
+                  <c:v>1976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3202,13 +3214,19 @@
                   <c:v>29.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>31</c:v>
+                  <c:v>33.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>33</c:v>
+                  <c:v>31.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>34.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>37.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>38.285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4310,13 +4328,19 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>39</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>41</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>37</c:v>
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7272,8 +7296,8 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA13" sqref="AA13"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9227,7 +9251,7 @@
         <v>791</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D96" si="8">C68-C67</f>
+        <f t="shared" ref="D68:D98" si="8">C68-C67</f>
         <v>16</v>
       </c>
       <c r="E68" s="2">
@@ -9399,7 +9423,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ref="E74:E96" si="9">(C74-C67)/7</f>
+        <f t="shared" ref="E74:E98" si="9">(C74-C67)/7</f>
         <v>55</v>
       </c>
       <c r="F74" s="2">
@@ -9955,15 +9979,15 @@
         <v>92</v>
       </c>
       <c r="C94" s="3">
-        <v>1825</v>
+        <v>1844</v>
       </c>
       <c r="D94" s="2">
         <f t="shared" si="8"/>
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E94" s="2">
         <f t="shared" si="9"/>
-        <v>31</v>
+        <v>33.714285714285715</v>
       </c>
       <c r="F94" s="2">
         <f t="shared" si="6"/>
@@ -9983,15 +10007,15 @@
         <v>93</v>
       </c>
       <c r="C95" s="3">
-        <v>1866</v>
+        <v>1854</v>
       </c>
       <c r="D95" s="2">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E95" s="2">
         <f t="shared" si="9"/>
-        <v>33</v>
+        <v>31.285714285714285</v>
       </c>
       <c r="F95" s="2">
         <f t="shared" si="6"/>
@@ -10015,7 +10039,7 @@
       </c>
       <c r="D96" s="2">
         <f t="shared" si="8"/>
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E96" s="2">
         <f t="shared" si="9"/>
@@ -10041,7 +10065,17 @@
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="E97" s="2"/>
+      <c r="C97" s="3">
+        <v>1931</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="9"/>
+        <v>37.428571428571431</v>
+      </c>
       <c r="F97" s="2">
         <f t="shared" si="6"/>
         <v>2018.2065</v>
@@ -10059,7 +10093,17 @@
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="E98" s="2"/>
+      <c r="C98" s="3">
+        <v>1976</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="9"/>
+        <v>38.285714285714285</v>
+      </c>
       <c r="F98" s="2">
         <f t="shared" si="6"/>
         <v>2065.3968</v>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F31BDF0-A810-472B-A294-5721B6DD529D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747FB054-79BA-4199-AF43-2B9369A479F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -945,10 +945,22 @@
                   <c:v>1903</c:v>
                 </c:pt>
                 <c:pt idx="95" formatCode="#,##0">
-                  <c:v>1931</c:v>
+                  <c:v>1942</c:v>
                 </c:pt>
                 <c:pt idx="96" formatCode="#,##0">
-                  <c:v>1976</c:v>
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="#,##0">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="#,##0">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="#,##0">
+                  <c:v>2157</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="#,##0">
+                  <c:v>2213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2062,10 +2074,22 @@
                   <c:v>1903</c:v>
                 </c:pt>
                 <c:pt idx="95" formatCode="#,##0">
-                  <c:v>1931</c:v>
+                  <c:v>1942</c:v>
                 </c:pt>
                 <c:pt idx="96" formatCode="#,##0">
-                  <c:v>1976</c:v>
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="#,##0">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="#,##0">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="#,##0">
+                  <c:v>2157</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="#,##0">
+                  <c:v>2213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3223,10 +3247,22 @@
                   <c:v>34.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>37.428571428571431</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>38.285714285714285</c:v>
+                  <c:v>40.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>47.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>46.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>51.285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4337,10 +4373,22 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>28</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7296,8 +7344,8 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J99" sqref="J99"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9251,7 +9299,7 @@
         <v>791</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D98" si="8">C68-C67</f>
+        <f t="shared" ref="D68:D102" si="8">C68-C67</f>
         <v>16</v>
       </c>
       <c r="E68" s="2">
@@ -9423,7 +9471,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ref="E74:E98" si="9">(C74-C67)/7</f>
+        <f t="shared" ref="E74:E102" si="9">(C74-C67)/7</f>
         <v>55</v>
       </c>
       <c r="F74" s="2">
@@ -10066,15 +10114,15 @@
         <v>95</v>
       </c>
       <c r="C97" s="3">
-        <v>1931</v>
+        <v>1942</v>
       </c>
       <c r="D97" s="2">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E97" s="2">
         <f t="shared" si="9"/>
-        <v>37.428571428571431</v>
+        <v>39</v>
       </c>
       <c r="F97" s="2">
         <f t="shared" si="6"/>
@@ -10094,15 +10142,15 @@
         <v>96</v>
       </c>
       <c r="C98" s="3">
-        <v>1976</v>
+        <v>1992</v>
       </c>
       <c r="D98" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E98" s="2">
         <f t="shared" si="9"/>
-        <v>38.285714285714285</v>
+        <v>40.571428571428569</v>
       </c>
       <c r="F98" s="2">
         <f t="shared" si="6"/>
@@ -10121,7 +10169,17 @@
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="E99" s="2"/>
+      <c r="C99" s="3">
+        <v>2070</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="9"/>
+        <v>47.857142857142854</v>
+      </c>
       <c r="F99" s="2">
         <f t="shared" si="6"/>
         <v>2113.1283000000003</v>
@@ -10139,7 +10197,17 @@
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="E100" s="2"/>
+      <c r="C100" s="3">
+        <v>2113</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="9"/>
+        <v>46.714285714285715</v>
+      </c>
       <c r="F100" s="2">
         <f t="shared" si="6"/>
         <v>2161.4009999999998</v>
@@ -10157,7 +10225,17 @@
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="E101" s="2"/>
+      <c r="C101" s="3">
+        <v>2157</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" si="9"/>
+        <v>44.714285714285715</v>
+      </c>
       <c r="F101" s="2">
         <f t="shared" si="6"/>
         <v>2210.2148999999999</v>
@@ -10175,7 +10253,17 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="E102" s="2"/>
+      <c r="C102" s="3">
+        <v>2213</v>
+      </c>
+      <c r="D102" s="2">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" si="9"/>
+        <v>51.285714285714285</v>
+      </c>
       <c r="F102" s="2">
         <f t="shared" si="6"/>
         <v>2259.5700000000002</v>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747FB054-79BA-4199-AF43-2B9369A479F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C293D19-F7B9-47F6-A237-2C00DCC2F938}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Actual</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Poly3 Expected to hit 2.5k - 9/13/19</t>
+  </si>
+  <si>
+    <t>Poly2 Expected to hit 4k - 9/30/19</t>
+  </si>
+  <si>
+    <t>Poly3 Expected to hit 4k - 9/30/19</t>
   </si>
 </sst>
 </file>
@@ -304,10 +310,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$115</c:f>
+              <c:f>Sheet1!$B$2:$B$146</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="145"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -649,16 +655,109 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$115</c:f>
+              <c:f>Sheet1!$C$2:$C$146</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="145"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -954,13 +1053,46 @@
                   <c:v>2070</c:v>
                 </c:pt>
                 <c:pt idx="98" formatCode="#,##0">
-                  <c:v>2113</c:v>
+                  <c:v>2132</c:v>
                 </c:pt>
                 <c:pt idx="99" formatCode="#,##0">
-                  <c:v>2157</c:v>
+                  <c:v>2140</c:v>
                 </c:pt>
                 <c:pt idx="100" formatCode="#,##0">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="#,##0">
                   <c:v>2213</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="#,##0">
+                  <c:v>2238</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="#,##0">
+                  <c:v>2284</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="#,##0">
+                  <c:v>2371</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="#,##0">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="#,##0">
+                  <c:v>2442</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="#,##0">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="#,##0">
+                  <c:v>2557</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="#,##0">
+                  <c:v>2568</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="#,##0">
+                  <c:v>2654</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="#,##0">
+                  <c:v>2714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1433,10 +1565,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$115</c:f>
+              <c:f>Sheet1!$B$2:$B$146</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="145"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1778,16 +1910,109 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$115</c:f>
+              <c:f>Sheet1!$C$2:$C$146</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="145"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2083,13 +2308,46 @@
                   <c:v>2070</c:v>
                 </c:pt>
                 <c:pt idx="98" formatCode="#,##0">
-                  <c:v>2113</c:v>
+                  <c:v>2132</c:v>
                 </c:pt>
                 <c:pt idx="99" formatCode="#,##0">
-                  <c:v>2157</c:v>
+                  <c:v>2140</c:v>
                 </c:pt>
                 <c:pt idx="100" formatCode="#,##0">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="#,##0">
                   <c:v>2213</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="#,##0">
+                  <c:v>2238</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="#,##0">
+                  <c:v>2284</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="#,##0">
+                  <c:v>2371</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="#,##0">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="#,##0">
+                  <c:v>2442</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="#,##0">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="#,##0">
+                  <c:v>2557</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="#,##0">
+                  <c:v>2568</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="#,##0">
+                  <c:v>2654</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="#,##0">
+                  <c:v>2714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2606,10 +2864,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$115</c:f>
+              <c:f>Sheet1!$B$2:$B$146</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="145"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2951,16 +3209,109 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$115</c:f>
+              <c:f>Sheet1!$E$2:$E$146</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="145"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3256,13 +3607,46 @@
                   <c:v>47.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>46.714285714285715</c:v>
+                  <c:v>49.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>44.714285714285715</c:v>
+                  <c:v>42.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>51.285714285714285</c:v>
+                  <c:v>49.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>38.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>49.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>47.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>52.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3732,10 +4116,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$115</c:f>
+              <c:f>Sheet1!$B$2:$B$146</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="145"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4077,16 +4461,109 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$115</c:f>
+              <c:f>Sheet1!$D$2:$D$146</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="145"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4382,13 +4859,46 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>44</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6929,16 +7439,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6968,15 +7478,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7005,16 +7515,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7042,15 +7552,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
+      <xdr:colOff>538162</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7341,11 +7851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7401,11 +7911,11 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>0.2706*B2^2-4.4943*B2+3</f>
+        <f>0.2537*B2^2-3.4547*B2+3</f>
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <f>0.0003*B2^3+0.2326*B2^2-3.4178*B2+3</f>
+        <f>-0.0004*B2^3+0.3128*B2^2-5.4332*B2+3</f>
         <v>3</v>
       </c>
       <c r="H2" s="2"/>
@@ -7431,12 +7941,12 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="1">0.2706*B3^2-4.4943*B3+3</f>
-        <v>-1.2237</v>
+        <f t="shared" ref="F3:F66" si="1">0.2537*B3^2-3.4547*B3+3</f>
+        <v>-0.20100000000000007</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="2">0.0003*B3^3+0.2326*B3^2-3.4178*B3+3</f>
-        <v>-0.18490000000000029</v>
+        <f t="shared" ref="G3:G66" si="2">-0.0004*B3^3+0.3128*B3^2-5.4332*B3+3</f>
+        <v>-2.1208</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -7461,11 +7971,11 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="1"/>
-        <v>-4.9062000000000001</v>
+        <v>-2.8945999999999996</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="2"/>
-        <v>-2.9028</v>
+        <v>-6.6184000000000012</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -7490,11 +8000,11 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>-8.0475000000000012</v>
+        <v>-5.0808</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="2"/>
-        <v>-5.1519000000000013</v>
+        <v>-10.495200000000001</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -7519,11 +8029,11 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>-10.647600000000001</v>
+        <v>-6.7595999999999989</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>-6.9304000000000006</v>
+        <v>-13.753599999999999</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -7548,11 +8058,11 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>-12.706499999999998</v>
+        <v>-7.9309999999999992</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="2"/>
-        <v>-8.236500000000003</v>
+        <v>-16.396000000000001</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -7577,11 +8087,11 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>-14.224200000000003</v>
+        <v>-8.5950000000000024</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="2"/>
-        <v>-9.0684000000000022</v>
+        <v>-18.424800000000001</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -7606,11 +8116,11 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>-15.200699999999998</v>
+        <v>-8.7516000000000016</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="2"/>
-        <v>-9.4243000000000023</v>
+        <v>-19.842400000000001</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -7635,11 +8145,11 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>-15.635999999999999</v>
+        <v>-8.4008000000000003</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="2"/>
-        <v>-9.3024000000000004</v>
+        <v>-20.651199999999999</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -7664,11 +8174,11 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>-15.530100000000001</v>
+        <v>-7.5426000000000002</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="2"/>
-        <v>-8.7009000000000043</v>
+        <v>-20.8536</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -7693,11 +8203,11 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>-14.882999999999996</v>
+        <v>-6.1769999999999996</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="2"/>
-        <v>-7.6180000000000021</v>
+        <v>-20.451999999999998</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -7722,11 +8232,11 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>-13.694699999999997</v>
+        <v>-4.304000000000002</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>-6.0519000000000034</v>
+        <v>-19.448799999999999</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -7751,11 +8261,11 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>-11.965200000000003</v>
+        <v>-1.9236000000000075</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>-4.0008000000000052</v>
+        <v>-17.846400000000003</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -7780,11 +8290,11 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>-9.6944999999999979</v>
+        <v>0.96419999999999817</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4628999999999976</v>
+        <v>-15.647199999999998</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -7809,11 +8319,11 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>-6.8825999999999965</v>
+        <v>4.3593999999999937</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="2"/>
-        <v>1.5635999999999939</v>
+        <v>-12.8536</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -7838,11 +8348,11 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5294999999999987</v>
+        <v>8.2620000000000005</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="2"/>
-        <v>5.0805000000000007</v>
+        <v>-9.4679999999999893</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -7867,11 +8377,11 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>0.36480000000000246</v>
+        <v>12.671999999999997</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="2"/>
-        <v>9.0895999999999972</v>
+        <v>-5.4928000000000026</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -7896,11 +8406,11 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>4.8003000000000071</v>
+        <v>17.589399999999998</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="2"/>
-        <v>13.592700000000001</v>
+        <v>-0.93039999999999168</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -7925,11 +8435,11 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>9.777000000000001</v>
+        <v>23.014199999999995</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>18.591599999999993</v>
+        <v>4.2167999999999921</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -7954,11 +8464,11 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>15.294899999999998</v>
+        <v>28.946399999999997</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>24.088099999999983</v>
+        <v>9.9464000000000112</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -7983,11 +8493,11 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>21.354000000000013</v>
+        <v>35.385999999999996</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="2"/>
-        <v>30.084000000000003</v>
+        <v>16.256</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -8012,11 +8522,11 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>27.954300000000003</v>
+        <v>42.332999999999998</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="2"/>
-        <v>36.581099999999992</v>
+        <v>23.143200000000022</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -8041,11 +8551,11 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>35.095800000000011</v>
+        <v>49.787399999999991</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="2"/>
-        <v>43.581199999999995</v>
+        <v>30.605600000000024</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -8070,11 +8580,11 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="1"/>
-        <v>42.778500000000008</v>
+        <v>57.749200000000002</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="2"/>
-        <v>51.086099999999988</v>
+        <v>38.640799999999999</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -8099,11 +8609,11 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="1"/>
-        <v>51.002399999999994</v>
+        <v>66.218399999999974</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="2"/>
-        <v>59.097599999999986</v>
+        <v>47.246400000000023</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -8128,11 +8638,11 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="1"/>
-        <v>59.767499999999998</v>
+        <v>75.195000000000007</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="2"/>
-        <v>67.617499999999993</v>
+        <v>56.419999999999987</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -8157,11 +8667,11 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" si="1"/>
-        <v>69.073800000000006</v>
+        <v>84.678999999999988</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="2"/>
-        <v>76.647599999999997</v>
+        <v>66.159200000000027</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -8186,11 +8696,11 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" si="1"/>
-        <v>78.921300000000016</v>
+        <v>94.670399999999987</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="2"/>
-        <v>86.189700000000002</v>
+        <v>76.461600000000004</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -8215,11 +8725,11 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" si="1"/>
-        <v>89.310000000000016</v>
+        <v>105.16919999999998</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="2"/>
-        <v>96.245599999999982</v>
+        <v>87.32480000000001</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -8244,11 +8754,11 @@
       </c>
       <c r="F31" s="2">
         <f t="shared" si="1"/>
-        <v>100.23990000000001</v>
+        <v>116.17539999999998</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="2"/>
-        <v>106.8171</v>
+        <v>98.746399999999966</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -8273,11 +8783,11 @@
       </c>
       <c r="F32" s="2">
         <f t="shared" si="1"/>
-        <v>111.71100000000001</v>
+        <v>127.68899999999999</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="2"/>
-        <v>117.90599999999999</v>
+        <v>110.72400000000002</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -8302,11 +8812,11 @@
       </c>
       <c r="F33" s="2">
         <f t="shared" si="1"/>
-        <v>123.72330000000002</v>
+        <v>139.70999999999998</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="2"/>
-        <v>129.51409999999998</v>
+        <v>123.25520000000003</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -8331,11 +8841,11 @@
       </c>
       <c r="F34" s="2">
         <f t="shared" si="1"/>
-        <v>136.27680000000001</v>
+        <v>152.23839999999998</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="2"/>
-        <v>141.64319999999998</v>
+        <v>136.33760000000004</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -8360,11 +8870,11 @@
       </c>
       <c r="F35" s="2">
         <f t="shared" si="1"/>
-        <v>149.3715</v>
+        <v>165.27419999999998</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="2"/>
-        <v>154.29509999999999</v>
+        <v>149.96880000000002</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -8389,11 +8899,11 @@
       </c>
       <c r="F36" s="2">
         <f t="shared" si="1"/>
-        <v>163.00740000000002</v>
+        <v>178.81739999999999</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="2"/>
-        <v>167.47160000000002</v>
+        <v>164.1464</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -8418,11 +8928,11 @@
       </c>
       <c r="F37" s="2">
         <f t="shared" si="1"/>
-        <v>177.18450000000001</v>
+        <v>192.86799999999999</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="2"/>
-        <v>181.17450000000002</v>
+        <v>178.86800000000002</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -8447,11 +8957,11 @@
       </c>
       <c r="F38" s="2">
         <f t="shared" si="1"/>
-        <v>191.90280000000001</v>
+        <v>207.42599999999999</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="2"/>
-        <v>195.40559999999999</v>
+        <v>194.13120000000001</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -8476,11 +8986,11 @@
       </c>
       <c r="F39" s="2">
         <f t="shared" si="1"/>
-        <v>207.16230000000004</v>
+        <v>222.4914</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="2"/>
-        <v>210.16669999999999</v>
+        <v>209.93359999999998</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -8505,11 +9015,11 @@
       </c>
       <c r="F40" s="2">
         <f t="shared" si="1"/>
-        <v>222.96299999999999</v>
+        <v>238.06419999999997</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="2"/>
-        <v>225.45959999999994</v>
+        <v>226.27280000000005</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -8534,11 +9044,11 @@
       </c>
       <c r="F41" s="2">
         <f t="shared" si="1"/>
-        <v>239.3049</v>
+        <v>254.14439999999996</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="2"/>
-        <v>241.2861</v>
+        <v>243.14640000000006</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -8563,11 +9073,11 @@
       </c>
       <c r="F42" s="2">
         <f t="shared" si="1"/>
-        <v>256.18800000000005</v>
+        <v>270.73199999999997</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="2"/>
-        <v>257.64800000000002</v>
+        <v>260.55200000000002</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -8592,11 +9102,11 @@
       </c>
       <c r="F43" s="2">
         <f t="shared" si="1"/>
-        <v>273.6123</v>
+        <v>287.827</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="2"/>
-        <v>274.5471</v>
+        <v>278.48720000000003</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -8621,11 +9131,11 @@
       </c>
       <c r="F44" s="2">
         <f t="shared" si="1"/>
-        <v>291.57780000000002</v>
+        <v>305.42939999999999</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="2"/>
-        <v>291.98519999999996</v>
+        <v>296.94960000000003</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -8650,11 +9160,11 @@
       </c>
       <c r="F45" s="2">
         <f t="shared" si="1"/>
-        <v>310.08450000000005</v>
+        <v>323.53919999999999</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="2"/>
-        <v>309.96410000000003</v>
+        <v>315.93679999999995</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -8679,11 +9189,11 @@
       </c>
       <c r="F46" s="2">
         <f t="shared" si="1"/>
-        <v>329.13240000000008</v>
+        <v>342.15639999999996</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="2"/>
-        <v>328.48559999999998</v>
+        <v>335.44640000000004</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -8708,11 +9218,11 @@
       </c>
       <c r="F47" s="2">
         <f t="shared" si="1"/>
-        <v>348.72149999999999</v>
+        <v>361.28099999999995</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="2"/>
-        <v>347.55149999999992</v>
+        <v>355.476</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -8737,11 +9247,11 @@
       </c>
       <c r="F48" s="2">
         <f t="shared" si="1"/>
-        <v>368.85180000000003</v>
+        <v>380.91300000000001</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="2"/>
-        <v>367.16359999999997</v>
+        <v>376.02320000000009</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -8766,11 +9276,11 @@
       </c>
       <c r="F49" s="2">
         <f t="shared" si="1"/>
-        <v>389.52330000000001</v>
+        <v>401.05239999999992</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="2"/>
-        <v>387.32369999999992</v>
+        <v>397.08560000000011</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -8795,11 +9305,11 @@
       </c>
       <c r="F50" s="2">
         <f t="shared" si="1"/>
-        <v>410.73599999999999</v>
+        <v>421.69919999999991</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="2"/>
-        <v>408.03359999999998</v>
+        <v>418.66080000000005</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -8824,11 +9334,11 @@
       </c>
       <c r="F51" s="2">
         <f t="shared" si="1"/>
-        <v>432.48990000000003</v>
+        <v>442.85339999999997</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="2"/>
-        <v>429.29510000000005</v>
+        <v>440.74639999999999</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -8853,11 +9363,11 @@
       </c>
       <c r="F52" s="2">
         <f t="shared" si="1"/>
-        <v>454.78499999999997</v>
+        <v>464.51499999999999</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" si="2"/>
-        <v>451.11</v>
+        <v>463.34</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -8882,11 +9392,11 @@
       </c>
       <c r="F53" s="2">
         <f t="shared" si="1"/>
-        <v>477.62130000000002</v>
+        <v>486.68399999999997</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="2"/>
-        <v>473.48009999999999</v>
+        <v>486.43920000000003</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -8911,11 +9421,11 @@
       </c>
       <c r="F54" s="2">
         <f t="shared" si="1"/>
-        <v>500.99880000000002</v>
+        <v>509.36039999999991</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="2"/>
-        <v>496.4072000000001</v>
+        <v>510.04160000000007</v>
       </c>
       <c r="H54" s="2"/>
     </row>
@@ -8940,11 +9450,11 @@
       </c>
       <c r="F55" s="2">
         <f t="shared" si="1"/>
-        <v>524.91750000000002</v>
+        <v>532.54419999999993</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="2"/>
-        <v>519.89309999999989</v>
+        <v>534.14480000000003</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -8969,11 +9479,11 @@
       </c>
       <c r="F56" s="2">
         <f t="shared" si="1"/>
-        <v>549.37740000000008</v>
+        <v>556.23539999999991</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="2"/>
-        <v>543.93960000000004</v>
+        <v>558.74639999999999</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -8998,11 +9508,11 @@
       </c>
       <c r="F57" s="2">
         <f t="shared" si="1"/>
-        <v>574.37850000000003</v>
+        <v>580.43399999999997</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" si="2"/>
-        <v>568.54849999999999</v>
+        <v>583.84400000000005</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -9027,11 +9537,11 @@
       </c>
       <c r="F58" s="2">
         <f t="shared" si="1"/>
-        <v>599.9208000000001</v>
+        <v>605.13999999999987</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" si="2"/>
-        <v>593.72159999999997</v>
+        <v>609.43520000000012</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -9056,11 +9566,11 @@
       </c>
       <c r="F59" s="2">
         <f t="shared" si="1"/>
-        <v>626.00430000000006</v>
+        <v>630.35339999999985</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" si="2"/>
-        <v>619.46069999999997</v>
+        <v>635.51760000000002</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -9084,11 +9594,11 @@
       </c>
       <c r="F60" s="2">
         <f t="shared" si="1"/>
-        <v>652.62900000000002</v>
+        <v>656.07419999999991</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="2"/>
-        <v>645.76760000000002</v>
+        <v>662.08879999999999</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -9112,11 +9622,11 @@
       </c>
       <c r="F61" s="2">
         <f t="shared" si="1"/>
-        <v>679.7949000000001</v>
+        <v>682.30240000000003</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="2"/>
-        <v>672.64409999999998</v>
+        <v>689.14639999999997</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -9140,11 +9650,11 @@
       </c>
       <c r="F62" s="2">
         <f t="shared" si="1"/>
-        <v>707.50200000000007</v>
+        <v>709.03800000000001</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" si="2"/>
-        <v>700.09199999999998</v>
+        <v>716.6880000000001</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -9168,11 +9678,11 @@
       </c>
       <c r="F63" s="2">
         <f t="shared" si="1"/>
-        <v>735.75029999999992</v>
+        <v>736.28099999999995</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" si="2"/>
-        <v>728.11309999999992</v>
+        <v>744.71120000000008</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -9196,11 +9706,11 @@
       </c>
       <c r="F64" s="2">
         <f t="shared" si="1"/>
-        <v>764.53980000000001</v>
+        <v>764.03139999999985</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" si="2"/>
-        <v>756.70920000000001</v>
+        <v>773.21360000000004</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -9224,11 +9734,11 @@
       </c>
       <c r="F65" s="2">
         <f t="shared" si="1"/>
-        <v>793.87050000000011</v>
+        <v>792.28919999999994</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" si="2"/>
-        <v>785.88209999999992</v>
+        <v>802.19280000000003</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -9252,11 +9762,11 @@
       </c>
       <c r="F66" s="2">
         <f t="shared" si="1"/>
-        <v>823.74240000000009</v>
+        <v>821.05439999999999</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" si="2"/>
-        <v>815.63360000000011</v>
+        <v>831.64640000000009</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -9279,12 +9789,12 @@
         <v>26</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F130" si="6">0.2706*B67^2-4.4943*B67+3</f>
-        <v>854.15550000000007</v>
+        <f t="shared" ref="F67:F130" si="6">0.2537*B67^2-3.4547*B67+3</f>
+        <v>850.327</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G130" si="7">0.0003*B67^3+0.2326*B67^2-3.4178*B67+3</f>
-        <v>845.96549999999991</v>
+        <f t="shared" ref="G67:G130" si="7">-0.0004*B67^3+0.3128*B67^2-5.4332*B67+3</f>
+        <v>861.57200000000023</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -9299,7 +9809,7 @@
         <v>791</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D102" si="8">C68-C67</f>
+        <f t="shared" ref="D68:D131" si="8">C68-C67</f>
         <v>16</v>
       </c>
       <c r="E68" s="2">
@@ -9308,11 +9818,11 @@
       </c>
       <c r="F68" s="2">
         <f t="shared" si="6"/>
-        <v>885.10979999999995</v>
+        <v>880.10699999999997</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" si="7"/>
-        <v>876.8796000000001</v>
+        <v>891.96720000000005</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -9336,11 +9846,11 @@
       </c>
       <c r="F69" s="2">
         <f t="shared" si="6"/>
-        <v>916.60530000000017</v>
+        <v>910.39439999999991</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" si="7"/>
-        <v>908.3777</v>
+        <v>922.82960000000003</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -9364,11 +9874,11 @@
       </c>
       <c r="F70" s="2">
         <f t="shared" si="6"/>
-        <v>948.64200000000005</v>
+        <v>941.18920000000003</v>
       </c>
       <c r="G70" s="2">
         <f t="shared" si="7"/>
-        <v>940.46160000000009</v>
+        <v>954.1568000000002</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -9392,11 +9902,11 @@
       </c>
       <c r="F71" s="2">
         <f t="shared" si="6"/>
-        <v>981.21990000000005</v>
+        <v>972.49139999999989</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" si="7"/>
-        <v>973.1330999999999</v>
+        <v>985.94639999999993</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -9420,11 +9930,11 @@
       </c>
       <c r="F72" s="2">
         <f t="shared" si="6"/>
-        <v>1014.3390000000001</v>
+        <v>1004.3009999999999</v>
       </c>
       <c r="G72" s="2">
         <f t="shared" si="7"/>
-        <v>1006.3940000000001</v>
+        <v>1018.1959999999999</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -9448,11 +9958,11 @@
       </c>
       <c r="F73" s="2">
         <f t="shared" si="6"/>
-        <v>1047.9993000000002</v>
+        <v>1036.6179999999999</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" si="7"/>
-        <v>1040.2460999999998</v>
+        <v>1050.9032000000002</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -9471,16 +9981,16 @@
         <v>64</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ref="E74:E102" si="9">(C74-C67)/7</f>
+        <f t="shared" ref="E74:E113" si="9">(C74-C67)/7</f>
         <v>55</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" si="6"/>
-        <v>1082.2008000000001</v>
+        <v>1069.4423999999999</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" si="7"/>
-        <v>1074.6912</v>
+        <v>1084.0656000000001</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -9504,11 +10014,11 @@
       </c>
       <c r="F75" s="2">
         <f t="shared" si="6"/>
-        <v>1116.9434999999999</v>
+        <v>1102.7741999999998</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" si="7"/>
-        <v>1109.7311</v>
+        <v>1117.6808000000001</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -9532,11 +10042,11 @@
       </c>
       <c r="F76" s="2">
         <f t="shared" si="6"/>
-        <v>1152.2274000000002</v>
+        <v>1136.6134</v>
       </c>
       <c r="G76" s="2">
         <f t="shared" si="7"/>
-        <v>1145.3675999999998</v>
+        <v>1151.7464</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -9560,11 +10070,11 @@
       </c>
       <c r="F77" s="2">
         <f t="shared" si="6"/>
-        <v>1188.0525</v>
+        <v>1170.96</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" si="7"/>
-        <v>1181.6025</v>
+        <v>1186.2600000000002</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -9588,11 +10098,11 @@
       </c>
       <c r="F78" s="2">
         <f t="shared" si="6"/>
-        <v>1224.4187999999999</v>
+        <v>1205.8139999999999</v>
       </c>
       <c r="G78" s="2">
         <f t="shared" si="7"/>
-        <v>1218.4376</v>
+        <v>1221.2192000000002</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -9616,11 +10126,11 @@
       </c>
       <c r="F79" s="2">
         <f t="shared" si="6"/>
-        <v>1261.3263000000002</v>
+        <v>1241.1753999999999</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" si="7"/>
-        <v>1255.8746999999998</v>
+        <v>1256.6215999999999</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -9644,11 +10154,11 @@
       </c>
       <c r="F80" s="2">
         <f t="shared" si="6"/>
-        <v>1298.7750000000001</v>
+        <v>1277.0441999999998</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" si="7"/>
-        <v>1293.9156</v>
+        <v>1292.4648000000002</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -9672,11 +10182,11 @@
       </c>
       <c r="F81" s="2">
         <f t="shared" si="6"/>
-        <v>1336.7649000000001</v>
+        <v>1313.4204</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" si="7"/>
-        <v>1332.5620999999999</v>
+        <v>1328.7464000000002</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -9700,11 +10210,11 @@
       </c>
       <c r="F82" s="2">
         <f t="shared" si="6"/>
-        <v>1375.2960000000003</v>
+        <v>1350.3039999999999</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" si="7"/>
-        <v>1371.816</v>
+        <v>1365.4640000000002</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -9728,11 +10238,11 @@
       </c>
       <c r="F83" s="2">
         <f t="shared" si="6"/>
-        <v>1414.3683000000001</v>
+        <v>1387.6949999999999</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" si="7"/>
-        <v>1411.6790999999998</v>
+        <v>1402.6152000000002</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -9756,11 +10266,11 @@
       </c>
       <c r="F84" s="2">
         <f t="shared" si="6"/>
-        <v>1453.9818</v>
+        <v>1425.5934</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" si="7"/>
-        <v>1452.1532</v>
+        <v>1440.1976000000002</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -9784,11 +10294,11 @@
       </c>
       <c r="F85" s="2">
         <f t="shared" si="6"/>
-        <v>1494.1365000000001</v>
+        <v>1463.9992</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" si="7"/>
-        <v>1493.2401</v>
+        <v>1478.2088000000003</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -9812,11 +10322,11 @@
       </c>
       <c r="F86" s="2">
         <f t="shared" si="6"/>
-        <v>1534.8324000000002</v>
+        <v>1502.9123999999999</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" si="7"/>
-        <v>1534.9415999999999</v>
+        <v>1516.6464000000003</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -9840,11 +10350,11 @@
       </c>
       <c r="F87" s="2">
         <f t="shared" si="6"/>
-        <v>1576.0695000000001</v>
+        <v>1542.3329999999999</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" si="7"/>
-        <v>1577.2595000000001</v>
+        <v>1555.5079999999998</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -9868,11 +10378,11 @@
       </c>
       <c r="F88" s="2">
         <f t="shared" si="6"/>
-        <v>1617.8478</v>
+        <v>1582.261</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" si="7"/>
-        <v>1620.1956</v>
+        <v>1594.7912000000001</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -9896,11 +10406,11 @@
       </c>
       <c r="F89" s="2">
         <f t="shared" si="6"/>
-        <v>1660.1673000000001</v>
+        <v>1622.6963999999998</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" si="7"/>
-        <v>1663.7517</v>
+        <v>1634.4935999999998</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -9924,11 +10434,11 @@
       </c>
       <c r="F90" s="2">
         <f t="shared" si="6"/>
-        <v>1703.0280000000002</v>
+        <v>1663.6391999999998</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" si="7"/>
-        <v>1707.9295999999999</v>
+        <v>1674.6128000000003</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -9952,11 +10462,11 @@
       </c>
       <c r="F91" s="2">
         <f t="shared" si="6"/>
-        <v>1746.4298999999999</v>
+        <v>1705.0893999999998</v>
       </c>
       <c r="G91" s="2">
         <f t="shared" si="7"/>
-        <v>1752.7311</v>
+        <v>1715.1464000000005</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -9980,11 +10490,11 @@
       </c>
       <c r="F92" s="2">
         <f t="shared" si="6"/>
-        <v>1790.373</v>
+        <v>1747.0469999999998</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" si="7"/>
-        <v>1798.1579999999997</v>
+        <v>1756.0920000000003</v>
       </c>
       <c r="H92" t="s">
         <v>8</v>
@@ -10011,11 +10521,11 @@
       </c>
       <c r="F93" s="2">
         <f t="shared" si="6"/>
-        <v>1834.8573000000001</v>
+        <v>1789.5119999999997</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" si="7"/>
-        <v>1844.2120999999997</v>
+        <v>1797.4472000000003</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -10039,11 +10549,11 @@
       </c>
       <c r="F94" s="2">
         <f t="shared" si="6"/>
-        <v>1879.8828000000001</v>
+        <v>1832.4844000000001</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" si="7"/>
-        <v>1890.8952000000002</v>
+        <v>1839.2096000000004</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -10067,11 +10577,11 @@
       </c>
       <c r="F95" s="2">
         <f t="shared" si="6"/>
-        <v>1925.4495000000002</v>
+        <v>1875.9641999999999</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" si="7"/>
-        <v>1938.2091</v>
+        <v>1881.3768</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -10095,11 +10605,11 @@
       </c>
       <c r="F96" s="2">
         <f t="shared" si="6"/>
-        <v>1971.5574000000001</v>
+        <v>1919.9513999999997</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" si="7"/>
-        <v>1986.1556</v>
+        <v>1923.9464000000003</v>
       </c>
       <c r="H96" t="s">
         <v>7</v>
@@ -10126,11 +10636,11 @@
       </c>
       <c r="F97" s="2">
         <f t="shared" si="6"/>
-        <v>2018.2065</v>
+        <v>1964.4459999999999</v>
       </c>
       <c r="G97" s="2">
         <f t="shared" si="7"/>
-        <v>2034.7365000000002</v>
+        <v>1966.9160000000002</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -10154,11 +10664,11 @@
       </c>
       <c r="F98" s="2">
         <f t="shared" si="6"/>
-        <v>2065.3968</v>
+        <v>2009.4479999999996</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" si="7"/>
-        <v>2083.9535999999998</v>
+        <v>2010.2832000000003</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -10182,11 +10692,11 @@
       </c>
       <c r="F99" s="2">
         <f t="shared" si="6"/>
-        <v>2113.1283000000003</v>
+        <v>2054.9573999999998</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" si="7"/>
-        <v>2133.8086999999996</v>
+        <v>2054.0456000000004</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -10198,23 +10708,23 @@
         <v>98</v>
       </c>
       <c r="C100" s="3">
-        <v>2113</v>
+        <v>2132</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" si="8"/>
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E100" s="2">
         <f t="shared" si="9"/>
-        <v>46.714285714285715</v>
+        <v>49.428571428571431</v>
       </c>
       <c r="F100" s="2">
         <f t="shared" si="6"/>
-        <v>2161.4009999999998</v>
+        <v>2100.9742000000001</v>
       </c>
       <c r="G100" s="2">
         <f t="shared" si="7"/>
-        <v>2184.3036000000002</v>
+        <v>2098.2008000000005</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -10226,23 +10736,23 @@
         <v>99</v>
       </c>
       <c r="C101" s="3">
-        <v>2157</v>
+        <v>2140</v>
       </c>
       <c r="D101" s="2">
         <f t="shared" si="8"/>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E101" s="2">
         <f t="shared" si="9"/>
-        <v>44.714285714285715</v>
+        <v>42.285714285714285</v>
       </c>
       <c r="F101" s="2">
         <f t="shared" si="6"/>
-        <v>2210.2148999999999</v>
+        <v>2147.4983999999999</v>
       </c>
       <c r="G101" s="2">
         <f t="shared" si="7"/>
-        <v>2235.4400999999998</v>
+        <v>2142.7464</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -10254,23 +10764,23 @@
         <v>100</v>
       </c>
       <c r="C102" s="3">
-        <v>2213</v>
+        <v>2200</v>
       </c>
       <c r="D102" s="2">
         <f t="shared" si="8"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E102" s="2">
         <f t="shared" si="9"/>
-        <v>51.285714285714285</v>
+        <v>49.428571428571431</v>
       </c>
       <c r="F102" s="2">
         <f t="shared" si="6"/>
-        <v>2259.5700000000002</v>
+        <v>2194.5300000000002</v>
       </c>
       <c r="G102" s="2">
         <f t="shared" si="7"/>
-        <v>2287.2199999999998</v>
+        <v>2187.6799999999998</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -10281,14 +10791,24 @@
         <f t="shared" si="5"/>
         <v>101</v>
       </c>
-      <c r="E103" s="2"/>
+      <c r="C103" s="3">
+        <v>2213</v>
+      </c>
+      <c r="D103" s="2">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" si="9"/>
+        <v>44.285714285714285</v>
+      </c>
       <c r="F103" s="2">
         <f t="shared" si="6"/>
-        <v>2309.4663</v>
+        <v>2242.069</v>
       </c>
       <c r="G103" s="2">
         <f t="shared" si="7"/>
-        <v>2339.6450999999997</v>
+        <v>2232.9992000000002</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -10299,14 +10819,24 @@
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="E104" s="2"/>
+      <c r="C104" s="3">
+        <v>2238</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="9"/>
+        <v>42.285714285714285</v>
+      </c>
       <c r="F104" s="2">
         <f t="shared" si="6"/>
-        <v>2359.9038</v>
+        <v>2290.1154000000001</v>
       </c>
       <c r="G104" s="2">
         <f t="shared" si="7"/>
-        <v>2392.7172</v>
+        <v>2278.7015999999999</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -10317,14 +10847,24 @@
         <f t="shared" si="5"/>
         <v>103</v>
       </c>
-      <c r="E105" s="2"/>
+      <c r="C105" s="3">
+        <v>2284</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="E105" s="2">
+        <f t="shared" si="9"/>
+        <v>41.714285714285715</v>
+      </c>
       <c r="F105" s="2">
         <f t="shared" si="6"/>
-        <v>2410.8825000000002</v>
+        <v>2338.6691999999998</v>
       </c>
       <c r="G105" s="2">
         <f t="shared" si="7"/>
-        <v>2446.4381000000003</v>
+        <v>2324.7848000000004</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -10335,14 +10875,24 @@
         <f t="shared" si="5"/>
         <v>104</v>
       </c>
-      <c r="E106" s="2"/>
+      <c r="C106" s="3">
+        <v>2371</v>
+      </c>
+      <c r="D106" s="2">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
       <c r="F106" s="2">
         <f t="shared" si="6"/>
-        <v>2462.4023999999999</v>
+        <v>2387.7303999999999</v>
       </c>
       <c r="G106" s="2">
         <f t="shared" si="7"/>
-        <v>2500.8096</v>
+        <v>2371.2464000000004</v>
       </c>
       <c r="H106" t="s">
         <v>10</v>
@@ -10356,14 +10906,24 @@
         <f t="shared" si="5"/>
         <v>105</v>
       </c>
-      <c r="E107" s="2"/>
+      <c r="C107" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E107" s="2">
+        <f t="shared" si="9"/>
+        <v>38.285714285714285</v>
+      </c>
       <c r="F107" s="2">
         <f t="shared" si="6"/>
-        <v>2514.4635000000003</v>
+        <v>2437.299</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" si="7"/>
-        <v>2555.8334999999997</v>
+        <v>2418.0840000000003</v>
       </c>
       <c r="H107" t="s">
         <v>9</v>
@@ -10377,14 +10937,24 @@
         <f t="shared" si="5"/>
         <v>106</v>
       </c>
-      <c r="E108" s="2"/>
+      <c r="C108" s="3">
+        <v>2442</v>
+      </c>
+      <c r="D108" s="2">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="E108" s="2">
+        <f t="shared" si="9"/>
+        <v>43.142857142857146</v>
+      </c>
       <c r="F108" s="2">
         <f t="shared" si="6"/>
-        <v>2567.0658000000003</v>
+        <v>2487.375</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" si="7"/>
-        <v>2611.5115999999998</v>
+        <v>2465.2952000000005</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -10395,14 +10965,24 @@
         <f t="shared" si="5"/>
         <v>107</v>
       </c>
-      <c r="E109" s="2"/>
+      <c r="C109" s="3">
+        <v>2510</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="E109" s="2">
+        <f t="shared" si="9"/>
+        <v>44.285714285714285</v>
+      </c>
       <c r="F109" s="2">
         <f t="shared" si="6"/>
-        <v>2620.2093</v>
+        <v>2537.9583999999995</v>
       </c>
       <c r="G109" s="2">
         <f t="shared" si="7"/>
-        <v>2667.8456999999999</v>
+        <v>2512.8776000000007</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -10413,14 +10993,24 @@
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
-      <c r="E110" s="2"/>
+      <c r="C110" s="3">
+        <v>2557</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="E110" s="2">
+        <f t="shared" si="9"/>
+        <v>49.142857142857146</v>
+      </c>
       <c r="F110" s="2">
         <f t="shared" si="6"/>
-        <v>2673.8940000000002</v>
+        <v>2589.0491999999999</v>
       </c>
       <c r="G110" s="2">
         <f t="shared" si="7"/>
-        <v>2724.8375999999998</v>
+        <v>2560.8288000000002</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -10431,14 +11021,24 @@
         <f t="shared" si="5"/>
         <v>109</v>
       </c>
-      <c r="E111" s="2"/>
+      <c r="C111" s="3">
+        <v>2568</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="E111" s="2">
+        <f t="shared" si="9"/>
+        <v>47.142857142857146</v>
+      </c>
       <c r="F111" s="2">
         <f t="shared" si="6"/>
-        <v>2728.1198999999997</v>
+        <v>2640.6473999999998</v>
       </c>
       <c r="G111" s="2">
         <f t="shared" si="7"/>
-        <v>2782.4890999999998</v>
+        <v>2609.1464000000001</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -10449,14 +11049,24 @@
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="E112" s="2"/>
+      <c r="C112" s="3">
+        <v>2654</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" si="8"/>
+        <v>86</v>
+      </c>
+      <c r="E112" s="2">
+        <f t="shared" si="9"/>
+        <v>52.857142857142854</v>
+      </c>
       <c r="F112" s="2">
         <f t="shared" si="6"/>
-        <v>2782.8870000000002</v>
+        <v>2692.7530000000002</v>
       </c>
       <c r="G112" s="2">
         <f t="shared" si="7"/>
-        <v>2840.8020000000001</v>
+        <v>2657.828</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -10467,14 +11077,24 @@
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
-      <c r="E113" s="2"/>
+      <c r="C113" s="3">
+        <v>2714</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="E113" s="2">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
       <c r="F113" s="2">
         <f t="shared" si="6"/>
-        <v>2838.1953000000003</v>
+        <v>2745.3659999999995</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" si="7"/>
-        <v>2899.7780999999995</v>
+        <v>2706.8712</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -10488,11 +11108,11 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2">
         <f t="shared" si="6"/>
-        <v>2894.0448000000001</v>
+        <v>2798.4863999999998</v>
       </c>
       <c r="G114" s="2">
         <f t="shared" si="7"/>
-        <v>2959.4191999999998</v>
+        <v>2756.2736000000004</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -10506,11 +11126,11 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2">
         <f t="shared" si="6"/>
-        <v>2950.4355</v>
+        <v>2852.1141999999995</v>
       </c>
       <c r="G115" s="2">
         <f t="shared" si="7"/>
-        <v>3019.7270999999996</v>
+        <v>2806.0328000000004</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -10523,11 +11143,11 @@
       </c>
       <c r="F116" s="2">
         <f t="shared" si="6"/>
-        <v>3007.3674000000001</v>
+        <v>2906.2493999999997</v>
       </c>
       <c r="G116" s="2">
         <f t="shared" si="7"/>
-        <v>3080.7036000000003</v>
+        <v>2856.1464000000005</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -10540,11 +11160,11 @@
       </c>
       <c r="F117" s="2">
         <f t="shared" si="6"/>
-        <v>3064.8404999999998</v>
+        <v>2960.8919999999998</v>
       </c>
       <c r="G117" s="2">
         <f t="shared" si="7"/>
-        <v>3142.3505</v>
+        <v>2906.612000000001</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -10557,11 +11177,11 @@
       </c>
       <c r="F118" s="2">
         <f t="shared" si="6"/>
-        <v>3122.8548000000001</v>
+        <v>3016.0419999999999</v>
       </c>
       <c r="G118" s="2">
         <f t="shared" si="7"/>
-        <v>3204.6695999999997</v>
+        <v>2957.4271999999996</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -10574,11 +11194,11 @@
       </c>
       <c r="F119" s="2">
         <f t="shared" si="6"/>
-        <v>3181.4103000000005</v>
+        <v>3071.6993999999995</v>
       </c>
       <c r="G119" s="2">
         <f t="shared" si="7"/>
-        <v>3267.6626999999999</v>
+        <v>3008.5896000000002</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -10591,11 +11211,11 @@
       </c>
       <c r="F120" s="2">
         <f t="shared" si="6"/>
-        <v>3240.5070000000001</v>
+        <v>3127.8642</v>
       </c>
       <c r="G120" s="2">
         <f t="shared" si="7"/>
-        <v>3331.3316</v>
+        <v>3060.0967999999998</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -10608,11 +11228,11 @@
       </c>
       <c r="F121" s="2">
         <f t="shared" si="6"/>
-        <v>3300.1449000000002</v>
+        <v>3184.5363999999995</v>
       </c>
       <c r="G121" s="2">
         <f t="shared" si="7"/>
-        <v>3395.6781000000001</v>
+        <v>3111.9464000000003</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -10625,11 +11245,11 @@
       </c>
       <c r="F122" s="2">
         <f t="shared" si="6"/>
-        <v>3360.3240000000005</v>
+        <v>3241.7159999999999</v>
       </c>
       <c r="G122" s="2">
         <f t="shared" si="7"/>
-        <v>3460.7040000000002</v>
+        <v>3164.1360000000009</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -10642,11 +11262,11 @@
       </c>
       <c r="F123" s="2">
         <f t="shared" si="6"/>
-        <v>3421.0443</v>
+        <v>3299.4029999999998</v>
       </c>
       <c r="G123" s="2">
         <f t="shared" si="7"/>
-        <v>3526.4110999999998</v>
+        <v>3216.6632000000004</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -10659,11 +11279,11 @@
       </c>
       <c r="F124" s="2">
         <f t="shared" si="6"/>
-        <v>3482.3058000000001</v>
+        <v>3357.5973999999997</v>
       </c>
       <c r="G124" s="2">
         <f t="shared" si="7"/>
-        <v>3592.8011999999999</v>
+        <v>3269.5256000000008</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -10676,11 +11296,11 @@
       </c>
       <c r="F125" s="2">
         <f t="shared" si="6"/>
-        <v>3544.1085000000003</v>
+        <v>3416.2991999999995</v>
       </c>
       <c r="G125" s="2">
         <f t="shared" si="7"/>
-        <v>3659.8761</v>
+        <v>3322.7208000000001</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -10693,11 +11313,11 @@
       </c>
       <c r="F126" s="2">
         <f t="shared" si="6"/>
-        <v>3606.4524000000001</v>
+        <v>3475.5083999999997</v>
       </c>
       <c r="G126" s="2">
         <f t="shared" si="7"/>
-        <v>3727.6376</v>
+        <v>3376.2464000000004</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -10710,11 +11330,11 @@
       </c>
       <c r="F127" s="2">
         <f t="shared" si="6"/>
-        <v>3669.3375000000001</v>
+        <v>3535.2249999999995</v>
       </c>
       <c r="G127" s="2">
         <f t="shared" si="7"/>
-        <v>3796.0875000000001</v>
+        <v>3430.1</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -10727,14 +11347,14 @@
       </c>
       <c r="F128" s="2">
         <f t="shared" si="6"/>
-        <v>3732.7638000000006</v>
+        <v>3595.4489999999996</v>
       </c>
       <c r="G128" s="2">
         <f t="shared" si="7"/>
-        <v>3865.2275999999997</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3484.2791999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43752</v>
       </c>
@@ -10744,14 +11364,14 @@
       </c>
       <c r="F129" s="2">
         <f t="shared" si="6"/>
-        <v>3796.7313000000004</v>
+        <v>3656.1803999999997</v>
       </c>
       <c r="G129" s="2">
         <f t="shared" si="7"/>
-        <v>3935.0596999999998</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3538.7816000000007</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43753</v>
       </c>
@@ -10761,31 +11381,31 @@
       </c>
       <c r="F130" s="2">
         <f t="shared" si="6"/>
-        <v>3861.2400000000002</v>
+        <v>3717.4191999999998</v>
       </c>
       <c r="G130" s="2">
         <f t="shared" si="7"/>
-        <v>4005.5856000000003</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3593.6048000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43754</v>
       </c>
       <c r="B131" s="2">
-        <f t="shared" ref="B131:B146" si="10">B130+1</f>
+        <f t="shared" ref="B131:B176" si="10">B130+1</f>
         <v>129</v>
       </c>
       <c r="F131" s="2">
-        <f t="shared" ref="F131:F146" si="11">0.2706*B131^2-4.4943*B131+3</f>
-        <v>3926.2899000000007</v>
+        <f t="shared" ref="F131:F176" si="11">0.2537*B131^2-3.4547*B131+3</f>
+        <v>3779.1653999999994</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" ref="G131:G146" si="12">0.0003*B131^3+0.2326*B131^2-3.4178*B131+3</f>
-        <v>4076.8071</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G131:G176" si="12">-0.0004*B131^3+0.3128*B131^2-5.4332*B131+3</f>
+        <v>3648.7464000000009</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43755</v>
       </c>
@@ -10795,14 +11415,14 @@
       </c>
       <c r="F132" s="2">
         <f t="shared" si="11"/>
-        <v>3991.8810000000003</v>
+        <v>3841.4189999999999</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" si="12"/>
-        <v>4148.7259999999997</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3704.2040000000006</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43756</v>
       </c>
@@ -10812,14 +11432,14 @@
       </c>
       <c r="F133" s="2">
         <f t="shared" si="11"/>
-        <v>4058.0133000000001</v>
+        <v>3904.1799999999994</v>
       </c>
       <c r="G133" s="2">
         <f t="shared" si="12"/>
-        <v>4221.3441000000003</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3759.9752000000008</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43757</v>
       </c>
@@ -10829,14 +11449,14 @@
       </c>
       <c r="F134" s="2">
         <f t="shared" si="11"/>
-        <v>4124.6868000000004</v>
+        <v>3967.4483999999998</v>
       </c>
       <c r="G134" s="2">
         <f t="shared" si="12"/>
-        <v>4294.6632</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3816.0575999999996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43758</v>
       </c>
@@ -10846,14 +11466,17 @@
       </c>
       <c r="F135" s="2">
         <f t="shared" si="11"/>
-        <v>4191.9014999999999</v>
+        <v>4031.2241999999992</v>
       </c>
       <c r="G135" s="2">
         <f t="shared" si="12"/>
-        <v>4368.6851000000006</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3872.4488000000001</v>
+      </c>
+      <c r="H135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43759</v>
       </c>
@@ -10863,14 +11486,14 @@
       </c>
       <c r="F136" s="2">
         <f t="shared" si="11"/>
-        <v>4259.6574000000001</v>
+        <v>4095.5073999999995</v>
       </c>
       <c r="G136" s="2">
         <f t="shared" si="12"/>
-        <v>4443.4115999999995</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3929.1464000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43760</v>
       </c>
@@ -10880,14 +11503,14 @@
       </c>
       <c r="F137" s="2">
         <f t="shared" si="11"/>
-        <v>4327.9545000000007</v>
+        <v>4160.2979999999998</v>
       </c>
       <c r="G137" s="2">
         <f t="shared" si="12"/>
-        <v>4518.8445000000002</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3986.148000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43761</v>
       </c>
@@ -10897,14 +11520,17 @@
       </c>
       <c r="F138" s="2">
         <f t="shared" si="11"/>
-        <v>4396.7928000000002</v>
+        <v>4225.5959999999995</v>
       </c>
       <c r="G138" s="2">
         <f t="shared" si="12"/>
-        <v>4594.9856</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4043.4512000000009</v>
+      </c>
+      <c r="H138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43762</v>
       </c>
@@ -10914,14 +11540,14 @@
       </c>
       <c r="F139" s="2">
         <f t="shared" si="11"/>
-        <v>4466.1723000000002</v>
+        <v>4291.4013999999997</v>
       </c>
       <c r="G139" s="2">
         <f t="shared" si="12"/>
-        <v>4671.8366999999998</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4101.0536000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43763</v>
       </c>
@@ -10931,14 +11557,14 @@
       </c>
       <c r="F140" s="2">
         <f t="shared" si="11"/>
-        <v>4536.0930000000008</v>
+        <v>4357.7141999999994</v>
       </c>
       <c r="G140" s="2">
         <f t="shared" si="12"/>
-        <v>4749.3995999999997</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4158.9528</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43764</v>
       </c>
@@ -10948,14 +11574,14 @@
       </c>
       <c r="F141" s="2">
         <f t="shared" si="11"/>
-        <v>4606.5549000000001</v>
+        <v>4424.5343999999996</v>
       </c>
       <c r="G141" s="2">
         <f t="shared" si="12"/>
-        <v>4827.6760999999997</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4217.1464000000014</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43765</v>
       </c>
@@ -10965,14 +11591,14 @@
       </c>
       <c r="F142" s="2">
         <f t="shared" si="11"/>
-        <v>4677.558</v>
+        <v>4491.8619999999992</v>
       </c>
       <c r="G142" s="2">
         <f t="shared" si="12"/>
-        <v>4906.6679999999997</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4275.6319999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43766</v>
       </c>
@@ -10982,14 +11608,14 @@
       </c>
       <c r="F143" s="2">
         <f t="shared" si="11"/>
-        <v>4749.1023000000005</v>
+        <v>4559.6970000000001</v>
       </c>
       <c r="G143" s="2">
         <f t="shared" si="12"/>
-        <v>4986.3770999999997</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4334.4071999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43767</v>
       </c>
@@ -10999,11 +11625,11 @@
       </c>
       <c r="F144" s="2">
         <f t="shared" si="11"/>
-        <v>4821.1878000000006</v>
+        <v>4628.0393999999997</v>
       </c>
       <c r="G144" s="2">
         <f t="shared" si="12"/>
-        <v>5066.8051999999998</v>
+        <v>4393.4696000000004</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -11016,11 +11642,11 @@
       </c>
       <c r="F145" s="2">
         <f t="shared" si="11"/>
-        <v>4893.8144999999995</v>
+        <v>4696.8891999999996</v>
       </c>
       <c r="G145" s="2">
         <f t="shared" si="12"/>
-        <v>5147.9540999999999</v>
+        <v>4452.8167999999996</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -11033,11 +11659,521 @@
       </c>
       <c r="F146" s="2">
         <f t="shared" si="11"/>
-        <v>4966.9824000000008</v>
+        <v>4766.2463999999991</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" si="12"/>
-        <v>5229.8255999999992</v>
+        <v>4512.4463999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B147" s="2">
+        <f t="shared" si="10"/>
+        <v>145</v>
+      </c>
+      <c r="F147" s="2">
+        <f t="shared" si="11"/>
+        <v>4836.1109999999999</v>
+      </c>
+      <c r="G147" s="2">
+        <f t="shared" si="12"/>
+        <v>4572.3560000000007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>43771</v>
+      </c>
+      <c r="B148" s="2">
+        <f t="shared" si="10"/>
+        <v>146</v>
+      </c>
+      <c r="F148" s="2">
+        <f t="shared" si="11"/>
+        <v>4906.4829999999993</v>
+      </c>
+      <c r="G148" s="2">
+        <f t="shared" si="12"/>
+        <v>4632.5432000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>43772</v>
+      </c>
+      <c r="B149" s="2">
+        <f t="shared" si="10"/>
+        <v>147</v>
+      </c>
+      <c r="F149" s="2">
+        <f t="shared" si="11"/>
+        <v>4977.3623999999991</v>
+      </c>
+      <c r="G149" s="2">
+        <f t="shared" si="12"/>
+        <v>4693.0056000000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>43773</v>
+      </c>
+      <c r="B150" s="2">
+        <f t="shared" si="10"/>
+        <v>148</v>
+      </c>
+      <c r="F150" s="2">
+        <f t="shared" si="11"/>
+        <v>5048.7491999999993</v>
+      </c>
+      <c r="G150" s="2">
+        <f t="shared" si="12"/>
+        <v>4753.7408000000005</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>43774</v>
+      </c>
+      <c r="B151" s="2">
+        <f t="shared" si="10"/>
+        <v>149</v>
+      </c>
+      <c r="F151" s="2">
+        <f t="shared" si="11"/>
+        <v>5120.6433999999999</v>
+      </c>
+      <c r="G151" s="2">
+        <f t="shared" si="12"/>
+        <v>4814.7464</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B152" s="2">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="F152" s="2">
+        <f t="shared" si="11"/>
+        <v>5193.0450000000001</v>
+      </c>
+      <c r="G152" s="2">
+        <f t="shared" si="12"/>
+        <v>4876.0200000000004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>43776</v>
+      </c>
+      <c r="B153" s="2">
+        <f t="shared" si="10"/>
+        <v>151</v>
+      </c>
+      <c r="F153" s="2">
+        <f t="shared" si="11"/>
+        <v>5265.9539999999997</v>
+      </c>
+      <c r="G153" s="2">
+        <f t="shared" si="12"/>
+        <v>4937.5592000000006</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>43777</v>
+      </c>
+      <c r="B154" s="2">
+        <f t="shared" si="10"/>
+        <v>152</v>
+      </c>
+      <c r="F154" s="2">
+        <f t="shared" si="11"/>
+        <v>5339.3703999999998</v>
+      </c>
+      <c r="G154" s="2">
+        <f t="shared" si="12"/>
+        <v>4999.3616000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B155" s="2">
+        <f t="shared" si="10"/>
+        <v>153</v>
+      </c>
+      <c r="F155" s="2">
+        <f t="shared" si="11"/>
+        <v>5413.2942000000003</v>
+      </c>
+      <c r="G155" s="2">
+        <f t="shared" si="12"/>
+        <v>5061.4248000000007</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B156" s="2">
+        <f t="shared" si="10"/>
+        <v>154</v>
+      </c>
+      <c r="F156" s="2">
+        <f t="shared" si="11"/>
+        <v>5487.7253999999994</v>
+      </c>
+      <c r="G156" s="2">
+        <f t="shared" si="12"/>
+        <v>5123.7464</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>43780</v>
+      </c>
+      <c r="B157" s="2">
+        <f t="shared" si="10"/>
+        <v>155</v>
+      </c>
+      <c r="F157" s="2">
+        <f t="shared" si="11"/>
+        <v>5562.6639999999998</v>
+      </c>
+      <c r="G157" s="2">
+        <f t="shared" si="12"/>
+        <v>5186.3240000000005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B158" s="2">
+        <f t="shared" si="10"/>
+        <v>156</v>
+      </c>
+      <c r="F158" s="2">
+        <f t="shared" si="11"/>
+        <v>5638.1099999999988</v>
+      </c>
+      <c r="G158" s="2">
+        <f t="shared" si="12"/>
+        <v>5249.1552000000011</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>43782</v>
+      </c>
+      <c r="B159" s="2">
+        <f t="shared" si="10"/>
+        <v>157</v>
+      </c>
+      <c r="F159" s="2">
+        <f t="shared" si="11"/>
+        <v>5714.0634</v>
+      </c>
+      <c r="G159" s="2">
+        <f t="shared" si="12"/>
+        <v>5312.2376000000004</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B160" s="2">
+        <f t="shared" si="10"/>
+        <v>158</v>
+      </c>
+      <c r="F160" s="2">
+        <f t="shared" si="11"/>
+        <v>5790.5241999999998</v>
+      </c>
+      <c r="G160" s="2">
+        <f t="shared" si="12"/>
+        <v>5375.5688000000009</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>43784</v>
+      </c>
+      <c r="B161" s="2">
+        <f t="shared" si="10"/>
+        <v>159</v>
+      </c>
+      <c r="F161" s="2">
+        <f t="shared" si="11"/>
+        <v>5867.4923999999992</v>
+      </c>
+      <c r="G161" s="2">
+        <f t="shared" si="12"/>
+        <v>5439.1463999999996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>43785</v>
+      </c>
+      <c r="B162" s="2">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="F162" s="2">
+        <f t="shared" si="11"/>
+        <v>5944.9679999999989</v>
+      </c>
+      <c r="G162" s="2">
+        <f t="shared" si="12"/>
+        <v>5502.9680000000008</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>43786</v>
+      </c>
+      <c r="B163" s="2">
+        <f t="shared" si="10"/>
+        <v>161</v>
+      </c>
+      <c r="F163" s="2">
+        <f t="shared" si="11"/>
+        <v>6022.951</v>
+      </c>
+      <c r="G163" s="2">
+        <f t="shared" si="12"/>
+        <v>5567.0312000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>43787</v>
+      </c>
+      <c r="B164" s="2">
+        <f t="shared" si="10"/>
+        <v>162</v>
+      </c>
+      <c r="F164" s="2">
+        <f t="shared" si="11"/>
+        <v>6101.4413999999997</v>
+      </c>
+      <c r="G164" s="2">
+        <f t="shared" si="12"/>
+        <v>5631.3335999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>43788</v>
+      </c>
+      <c r="B165" s="2">
+        <f t="shared" si="10"/>
+        <v>163</v>
+      </c>
+      <c r="F165" s="2">
+        <f t="shared" si="11"/>
+        <v>6180.4391999999989</v>
+      </c>
+      <c r="G165" s="2">
+        <f t="shared" si="12"/>
+        <v>5695.8727999999992</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>43789</v>
+      </c>
+      <c r="B166" s="2">
+        <f t="shared" si="10"/>
+        <v>164</v>
+      </c>
+      <c r="F166" s="2">
+        <f t="shared" si="11"/>
+        <v>6259.9444000000003</v>
+      </c>
+      <c r="G166" s="2">
+        <f t="shared" si="12"/>
+        <v>5760.6464000000014</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>43790</v>
+      </c>
+      <c r="B167" s="2">
+        <f t="shared" si="10"/>
+        <v>165</v>
+      </c>
+      <c r="F167" s="2">
+        <f t="shared" si="11"/>
+        <v>6339.9569999999994</v>
+      </c>
+      <c r="G167" s="2">
+        <f t="shared" si="12"/>
+        <v>5825.652000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>43791</v>
+      </c>
+      <c r="B168" s="2">
+        <f t="shared" si="10"/>
+        <v>166</v>
+      </c>
+      <c r="F168" s="2">
+        <f t="shared" si="11"/>
+        <v>6420.4769999999999</v>
+      </c>
+      <c r="G168" s="2">
+        <f t="shared" si="12"/>
+        <v>5890.887200000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B169" s="2">
+        <f t="shared" si="10"/>
+        <v>167</v>
+      </c>
+      <c r="F169" s="2">
+        <f t="shared" si="11"/>
+        <v>6501.5043999999989</v>
+      </c>
+      <c r="G169" s="2">
+        <f t="shared" si="12"/>
+        <v>5956.3496000000005</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>43793</v>
+      </c>
+      <c r="B170" s="2">
+        <f t="shared" si="10"/>
+        <v>168</v>
+      </c>
+      <c r="F170" s="2">
+        <f t="shared" si="11"/>
+        <v>6583.0391999999993</v>
+      </c>
+      <c r="G170" s="2">
+        <f t="shared" si="12"/>
+        <v>6022.0368000000008</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>43794</v>
+      </c>
+      <c r="B171" s="2">
+        <f t="shared" si="10"/>
+        <v>169</v>
+      </c>
+      <c r="F171" s="2">
+        <f t="shared" si="11"/>
+        <v>6665.0814</v>
+      </c>
+      <c r="G171" s="2">
+        <f t="shared" si="12"/>
+        <v>6087.9464000000007</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>43795</v>
+      </c>
+      <c r="B172" s="2">
+        <f t="shared" si="10"/>
+        <v>170</v>
+      </c>
+      <c r="F172" s="2">
+        <f t="shared" si="11"/>
+        <v>6747.6309999999994</v>
+      </c>
+      <c r="G172" s="2">
+        <f t="shared" si="12"/>
+        <v>6154.076</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>43796</v>
+      </c>
+      <c r="B173" s="2">
+        <f t="shared" si="10"/>
+        <v>171</v>
+      </c>
+      <c r="F173" s="2">
+        <f t="shared" si="11"/>
+        <v>6830.6879999999992</v>
+      </c>
+      <c r="G173" s="2">
+        <f t="shared" si="12"/>
+        <v>6220.4232000000011</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>43797</v>
+      </c>
+      <c r="B174" s="2">
+        <f t="shared" si="10"/>
+        <v>172</v>
+      </c>
+      <c r="F174" s="2">
+        <f t="shared" si="11"/>
+        <v>6914.2523999999994</v>
+      </c>
+      <c r="G174" s="2">
+        <f t="shared" si="12"/>
+        <v>6286.9856</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>43798</v>
+      </c>
+      <c r="B175" s="2">
+        <f t="shared" si="10"/>
+        <v>173</v>
+      </c>
+      <c r="F175" s="2">
+        <f t="shared" si="11"/>
+        <v>6998.3242</v>
+      </c>
+      <c r="G175" s="2">
+        <f t="shared" si="12"/>
+        <v>6353.7608000000018</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B176" s="2">
+        <f t="shared" si="10"/>
+        <v>174</v>
+      </c>
+      <c r="F176" s="2">
+        <f t="shared" si="11"/>
+        <v>7082.9033999999992</v>
+      </c>
+      <c r="G176" s="2">
+        <f t="shared" si="12"/>
+        <v>6420.7464</v>
       </c>
     </row>
   </sheetData>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C293D19-F7B9-47F6-A237-2C00DCC2F938}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4430E79-5A05-4B92-B3D5-5445A13E572F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1086,13 +1086,34 @@
                   <c:v>2557</c:v>
                 </c:pt>
                 <c:pt idx="109" formatCode="#,##0">
-                  <c:v>2568</c:v>
+                  <c:v>2584</c:v>
                 </c:pt>
                 <c:pt idx="110" formatCode="#,##0">
-                  <c:v>2654</c:v>
+                  <c:v>2633</c:v>
                 </c:pt>
                 <c:pt idx="111" formatCode="#,##0">
-                  <c:v>2714</c:v>
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="#,##0">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="#,##0">
+                  <c:v>2809</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="#,##0">
+                  <c:v>2838</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="#,##0">
+                  <c:v>2886</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="#,##0">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="#,##0">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="#,##0">
+                  <c:v>3149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2341,13 +2362,34 @@
                   <c:v>2557</c:v>
                 </c:pt>
                 <c:pt idx="109" formatCode="#,##0">
-                  <c:v>2568</c:v>
+                  <c:v>2584</c:v>
                 </c:pt>
                 <c:pt idx="110" formatCode="#,##0">
-                  <c:v>2654</c:v>
+                  <c:v>2633</c:v>
                 </c:pt>
                 <c:pt idx="111" formatCode="#,##0">
-                  <c:v>2714</c:v>
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="#,##0">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="#,##0">
+                  <c:v>2809</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="#,##0">
+                  <c:v>2838</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="#,##0">
+                  <c:v>2886</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="#,##0">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="#,##0">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="#,##0">
+                  <c:v>3149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3640,13 +3682,34 @@
                   <c:v>49.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>47.142857142857146</c:v>
+                  <c:v>49.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>52.857142857142854</c:v>
+                  <c:v>49.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>49</c:v>
+                  <c:v>47.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>54.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>52.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>46.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>52.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>63.857142857142854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4892,13 +4955,34 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>11</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>86</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>60</c:v>
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7854,22 +7938,22 @@
   <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H101" sqref="H101"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7892,7 +7976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>43625</v>
       </c>
@@ -7921,7 +8005,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>43626</v>
       </c>
@@ -7950,7 +8034,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>43627</v>
       </c>
@@ -7979,7 +8063,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>43628</v>
       </c>
@@ -8008,7 +8092,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>43629</v>
       </c>
@@ -8037,7 +8121,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>43630</v>
       </c>
@@ -8066,7 +8150,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>43631</v>
       </c>
@@ -8095,7 +8179,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>43632</v>
       </c>
@@ -8124,7 +8208,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>43633</v>
       </c>
@@ -8153,7 +8237,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>43634</v>
       </c>
@@ -8182,7 +8266,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>43635</v>
       </c>
@@ -8211,7 +8295,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>43636</v>
       </c>
@@ -8240,7 +8324,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>43637</v>
       </c>
@@ -8269,7 +8353,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>43638</v>
       </c>
@@ -8298,7 +8382,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>43639</v>
       </c>
@@ -8327,7 +8411,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>43640</v>
       </c>
@@ -8356,7 +8440,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>43641</v>
       </c>
@@ -8385,7 +8469,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>43642</v>
       </c>
@@ -8414,7 +8498,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>43643</v>
       </c>
@@ -8443,7 +8527,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>43644</v>
       </c>
@@ -8472,7 +8556,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>43645</v>
       </c>
@@ -8501,7 +8585,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>43646</v>
       </c>
@@ -8530,7 +8614,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>43647</v>
       </c>
@@ -8559,7 +8643,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>43648</v>
       </c>
@@ -8588,7 +8672,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>43649</v>
       </c>
@@ -8617,7 +8701,7 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>43650</v>
       </c>
@@ -8646,7 +8730,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>43651</v>
       </c>
@@ -8675,7 +8759,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>43652</v>
       </c>
@@ -8704,7 +8788,7 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>43653</v>
       </c>
@@ -8733,7 +8817,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>43654</v>
       </c>
@@ -8762,7 +8846,7 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>43655</v>
       </c>
@@ -8791,7 +8875,7 @@
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>43656</v>
       </c>
@@ -8820,7 +8904,7 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>43657</v>
       </c>
@@ -8849,7 +8933,7 @@
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>43658</v>
       </c>
@@ -8878,7 +8962,7 @@
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>43659</v>
       </c>
@@ -8907,7 +8991,7 @@
       </c>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>43660</v>
       </c>
@@ -8936,7 +9020,7 @@
       </c>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>43661</v>
       </c>
@@ -8965,7 +9049,7 @@
       </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>43662</v>
       </c>
@@ -8994,7 +9078,7 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>43663</v>
       </c>
@@ -9023,7 +9107,7 @@
       </c>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>43664</v>
       </c>
@@ -9052,7 +9136,7 @@
       </c>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>43665</v>
       </c>
@@ -9081,7 +9165,7 @@
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>43666</v>
       </c>
@@ -9110,7 +9194,7 @@
       </c>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>43667</v>
       </c>
@@ -9139,7 +9223,7 @@
       </c>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43668</v>
       </c>
@@ -9168,7 +9252,7 @@
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>43669</v>
       </c>
@@ -9197,7 +9281,7 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>43670</v>
       </c>
@@ -9226,7 +9310,7 @@
       </c>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>43671</v>
       </c>
@@ -9255,7 +9339,7 @@
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>43672</v>
       </c>
@@ -9284,7 +9368,7 @@
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>43673</v>
       </c>
@@ -9313,7 +9397,7 @@
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>43674</v>
       </c>
@@ -9342,7 +9426,7 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>43675</v>
       </c>
@@ -9371,7 +9455,7 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>43676</v>
       </c>
@@ -9400,7 +9484,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>43677</v>
       </c>
@@ -9429,7 +9513,7 @@
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>43678</v>
       </c>
@@ -9458,7 +9542,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>43679</v>
       </c>
@@ -9487,7 +9571,7 @@
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>43680</v>
       </c>
@@ -9516,7 +9600,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>43681</v>
       </c>
@@ -9545,7 +9629,7 @@
       </c>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>43682</v>
       </c>
@@ -9573,7 +9657,7 @@
         <v>635.51760000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>43683</v>
       </c>
@@ -9601,7 +9685,7 @@
         <v>662.08879999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>43684</v>
       </c>
@@ -9629,7 +9713,7 @@
         <v>689.14639999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>43685</v>
       </c>
@@ -9657,7 +9741,7 @@
         <v>716.6880000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>43686</v>
       </c>
@@ -9685,7 +9769,7 @@
         <v>744.71120000000008</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>43687</v>
       </c>
@@ -9713,7 +9797,7 @@
         <v>773.21360000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>43688</v>
       </c>
@@ -9741,7 +9825,7 @@
         <v>802.19280000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>43689</v>
       </c>
@@ -9769,7 +9853,7 @@
         <v>831.64640000000009</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>43690</v>
       </c>
@@ -9797,7 +9881,7 @@
         <v>861.57200000000023</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>43691</v>
       </c>
@@ -9809,7 +9893,7 @@
         <v>791</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D131" si="8">C68-C67</f>
+        <f t="shared" ref="D68:D120" si="8">C68-C67</f>
         <v>16</v>
       </c>
       <c r="E68" s="2">
@@ -9825,7 +9909,7 @@
         <v>891.96720000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>43692</v>
       </c>
@@ -9853,7 +9937,7 @@
         <v>922.82960000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>43693</v>
       </c>
@@ -9881,7 +9965,7 @@
         <v>954.1568000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>43694</v>
       </c>
@@ -9909,7 +9993,7 @@
         <v>985.94639999999993</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>43695</v>
       </c>
@@ -9937,7 +10021,7 @@
         <v>1018.1959999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>43696</v>
       </c>
@@ -9965,7 +10049,7 @@
         <v>1050.9032000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>43697</v>
       </c>
@@ -9981,7 +10065,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ref="E74:E113" si="9">(C74-C67)/7</f>
+        <f t="shared" ref="E74:E120" si="9">(C74-C67)/7</f>
         <v>55</v>
       </c>
       <c r="F74" s="2">
@@ -9993,7 +10077,7 @@
         <v>1084.0656000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>43698</v>
       </c>
@@ -10021,7 +10105,7 @@
         <v>1117.6808000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>43699</v>
       </c>
@@ -10049,7 +10133,7 @@
         <v>1151.7464</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>43700</v>
       </c>
@@ -10077,7 +10161,7 @@
         <v>1186.2600000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>43701</v>
       </c>
@@ -10105,7 +10189,7 @@
         <v>1221.2192000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>43702</v>
       </c>
@@ -10133,7 +10217,7 @@
         <v>1256.6215999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>43703</v>
       </c>
@@ -10161,7 +10245,7 @@
         <v>1292.4648000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>43704</v>
       </c>
@@ -10189,7 +10273,7 @@
         <v>1328.7464000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>43705</v>
       </c>
@@ -10217,7 +10301,7 @@
         <v>1365.4640000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>43706</v>
       </c>
@@ -10245,7 +10329,7 @@
         <v>1402.6152000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>43707</v>
       </c>
@@ -10273,7 +10357,7 @@
         <v>1440.1976000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>43708</v>
       </c>
@@ -10301,7 +10385,7 @@
         <v>1478.2088000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>43709</v>
       </c>
@@ -10329,7 +10413,7 @@
         <v>1516.6464000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>43710</v>
       </c>
@@ -10357,7 +10441,7 @@
         <v>1555.5079999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>43711</v>
       </c>
@@ -10385,7 +10469,7 @@
         <v>1594.7912000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>43712</v>
       </c>
@@ -10413,7 +10497,7 @@
         <v>1634.4935999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>43713</v>
       </c>
@@ -10441,7 +10525,7 @@
         <v>1674.6128000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>43714</v>
       </c>
@@ -10469,7 +10553,7 @@
         <v>1715.1464000000005</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>43715</v>
       </c>
@@ -10500,7 +10584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>43716</v>
       </c>
@@ -10528,7 +10612,7 @@
         <v>1797.4472000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>43717</v>
       </c>
@@ -10556,7 +10640,7 @@
         <v>1839.2096000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>43718</v>
       </c>
@@ -10584,7 +10668,7 @@
         <v>1881.3768</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>43719</v>
       </c>
@@ -10615,7 +10699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>43720</v>
       </c>
@@ -10643,7 +10727,7 @@
         <v>1966.9160000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>43721</v>
       </c>
@@ -10671,7 +10755,7 @@
         <v>2010.2832000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>43722</v>
       </c>
@@ -10699,7 +10783,7 @@
         <v>2054.0456000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>43723</v>
       </c>
@@ -10727,7 +10811,7 @@
         <v>2098.2008000000005</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>43724</v>
       </c>
@@ -10755,7 +10839,7 @@
         <v>2142.7464</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>43725</v>
       </c>
@@ -10783,7 +10867,7 @@
         <v>2187.6799999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>43726</v>
       </c>
@@ -10811,7 +10895,7 @@
         <v>2232.9992000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>43727</v>
       </c>
@@ -10839,7 +10923,7 @@
         <v>2278.7015999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>43728</v>
       </c>
@@ -10867,7 +10951,7 @@
         <v>2324.7848000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>43729</v>
       </c>
@@ -10898,7 +10982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>43730</v>
       </c>
@@ -10929,7 +11013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>43731</v>
       </c>
@@ -10957,7 +11041,7 @@
         <v>2465.2952000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>43732</v>
       </c>
@@ -10985,7 +11069,7 @@
         <v>2512.8776000000007</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>43733</v>
       </c>
@@ -11013,7 +11097,7 @@
         <v>2560.8288000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>43734</v>
       </c>
@@ -11022,15 +11106,15 @@
         <v>109</v>
       </c>
       <c r="C111" s="3">
-        <v>2568</v>
+        <v>2584</v>
       </c>
       <c r="D111" s="2">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E111" s="2">
         <f t="shared" si="9"/>
-        <v>47.142857142857146</v>
+        <v>49.428571428571431</v>
       </c>
       <c r="F111" s="2">
         <f t="shared" si="6"/>
@@ -11041,7 +11125,7 @@
         <v>2609.1464000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>43735</v>
       </c>
@@ -11050,15 +11134,15 @@
         <v>110</v>
       </c>
       <c r="C112" s="3">
-        <v>2654</v>
+        <v>2633</v>
       </c>
       <c r="D112" s="2">
         <f t="shared" si="8"/>
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E112" s="2">
         <f t="shared" si="9"/>
-        <v>52.857142857142854</v>
+        <v>49.857142857142854</v>
       </c>
       <c r="F112" s="2">
         <f t="shared" si="6"/>
@@ -11069,7 +11153,7 @@
         <v>2657.828</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>43736</v>
       </c>
@@ -11078,15 +11162,15 @@
         <v>111</v>
       </c>
       <c r="C113" s="3">
-        <v>2714</v>
+        <v>2702</v>
       </c>
       <c r="D113" s="2">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E113" s="2">
         <f t="shared" si="9"/>
-        <v>49</v>
+        <v>47.285714285714285</v>
       </c>
       <c r="F113" s="2">
         <f t="shared" si="6"/>
@@ -11097,7 +11181,7 @@
         <v>2706.8712</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>43737</v>
       </c>
@@ -11105,7 +11189,17 @@
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="E114" s="2"/>
+      <c r="C114" s="3">
+        <v>2781</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="E114" s="2">
+        <f t="shared" si="9"/>
+        <v>54.428571428571431</v>
+      </c>
       <c r="F114" s="2">
         <f t="shared" si="6"/>
         <v>2798.4863999999998</v>
@@ -11115,7 +11209,7 @@
         <v>2756.2736000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>43738</v>
       </c>
@@ -11123,7 +11217,17 @@
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="E115" s="2"/>
+      <c r="C115" s="3">
+        <v>2809</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E115" s="2">
+        <f t="shared" si="9"/>
+        <v>52.428571428571431</v>
+      </c>
       <c r="F115" s="2">
         <f t="shared" si="6"/>
         <v>2852.1141999999995</v>
@@ -11133,7 +11237,7 @@
         <v>2806.0328000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>43739</v>
       </c>
@@ -11141,6 +11245,17 @@
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
+      <c r="C116" s="3">
+        <v>2838</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E116" s="2">
+        <f t="shared" si="9"/>
+        <v>46.857142857142854</v>
+      </c>
       <c r="F116" s="2">
         <f t="shared" si="6"/>
         <v>2906.2493999999997</v>
@@ -11150,7 +11265,7 @@
         <v>2856.1464000000005</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>43740</v>
       </c>
@@ -11158,6 +11273,17 @@
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
+      <c r="C117" s="3">
+        <v>2886</v>
+      </c>
+      <c r="D117" s="2">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="E117" s="2">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
       <c r="F117" s="2">
         <f t="shared" si="6"/>
         <v>2960.8919999999998</v>
@@ -11167,7 +11293,7 @@
         <v>2906.612000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>43741</v>
       </c>
@@ -11175,6 +11301,17 @@
         <f t="shared" si="5"/>
         <v>116</v>
       </c>
+      <c r="C118" s="3">
+        <v>2950</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <f t="shared" si="9"/>
+        <v>52.285714285714285</v>
+      </c>
       <c r="F118" s="2">
         <f t="shared" si="6"/>
         <v>3016.0419999999999</v>
@@ -11184,7 +11321,7 @@
         <v>2957.4271999999996</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>43742</v>
       </c>
@@ -11192,6 +11329,17 @@
         <f t="shared" si="5"/>
         <v>117</v>
       </c>
+      <c r="C119" s="3">
+        <v>2990</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="E119" s="2">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
       <c r="F119" s="2">
         <f t="shared" si="6"/>
         <v>3071.6993999999995</v>
@@ -11201,7 +11349,7 @@
         <v>3008.5896000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>43743</v>
       </c>
@@ -11209,6 +11357,17 @@
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
+      <c r="C120" s="3">
+        <v>3149</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="8"/>
+        <v>159</v>
+      </c>
+      <c r="E120" s="2">
+        <f t="shared" si="9"/>
+        <v>63.857142857142854</v>
+      </c>
       <c r="F120" s="2">
         <f t="shared" si="6"/>
         <v>3127.8642</v>
@@ -11218,7 +11377,7 @@
         <v>3060.0967999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>43744</v>
       </c>
@@ -11235,7 +11394,7 @@
         <v>3111.9464000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>43745</v>
       </c>
@@ -11252,7 +11411,7 @@
         <v>3164.1360000000009</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>43746</v>
       </c>
@@ -11269,7 +11428,7 @@
         <v>3216.6632000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>43747</v>
       </c>
@@ -11286,7 +11445,7 @@
         <v>3269.5256000000008</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>43748</v>
       </c>
@@ -11303,7 +11462,7 @@
         <v>3322.7208000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>43749</v>
       </c>
@@ -11320,7 +11479,7 @@
         <v>3376.2464000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>43750</v>
       </c>
@@ -11337,7 +11496,7 @@
         <v>3430.1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>43751</v>
       </c>
@@ -11354,7 +11513,7 @@
         <v>3484.2791999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>43752</v>
       </c>
@@ -11371,7 +11530,7 @@
         <v>3538.7816000000007</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>43753</v>
       </c>
@@ -11388,7 +11547,7 @@
         <v>3593.6048000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>43754</v>
       </c>
@@ -11405,7 +11564,7 @@
         <v>3648.7464000000009</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>43755</v>
       </c>
@@ -11422,7 +11581,7 @@
         <v>3704.2040000000006</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>43756</v>
       </c>
@@ -11439,7 +11598,7 @@
         <v>3759.9752000000008</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>43757</v>
       </c>
@@ -11456,7 +11615,7 @@
         <v>3816.0575999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>43758</v>
       </c>
@@ -11476,7 +11635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>43759</v>
       </c>
@@ -11493,7 +11652,7 @@
         <v>3929.1464000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>43760</v>
       </c>
@@ -11510,7 +11669,7 @@
         <v>3986.148000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>43761</v>
       </c>
@@ -11530,7 +11689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>43762</v>
       </c>
@@ -11547,7 +11706,7 @@
         <v>4101.0536000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>43763</v>
       </c>
@@ -11564,7 +11723,7 @@
         <v>4158.9528</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>43764</v>
       </c>
@@ -11581,7 +11740,7 @@
         <v>4217.1464000000014</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>43765</v>
       </c>
@@ -11598,7 +11757,7 @@
         <v>4275.6319999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>43766</v>
       </c>
@@ -11615,7 +11774,7 @@
         <v>4334.4071999999996</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>43767</v>
       </c>
@@ -11632,7 +11791,7 @@
         <v>4393.4696000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>43768</v>
       </c>
@@ -11649,7 +11808,7 @@
         <v>4452.8167999999996</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>43769</v>
       </c>
@@ -11666,7 +11825,7 @@
         <v>4512.4463999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>43770</v>
       </c>
@@ -11683,7 +11842,7 @@
         <v>4572.3560000000007</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>43771</v>
       </c>
@@ -11700,7 +11859,7 @@
         <v>4632.5432000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>43772</v>
       </c>
@@ -11717,7 +11876,7 @@
         <v>4693.0056000000004</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>43773</v>
       </c>
@@ -11734,7 +11893,7 @@
         <v>4753.7408000000005</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>43774</v>
       </c>
@@ -11751,7 +11910,7 @@
         <v>4814.7464</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>43775</v>
       </c>
@@ -11768,7 +11927,7 @@
         <v>4876.0200000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>43776</v>
       </c>
@@ -11785,7 +11944,7 @@
         <v>4937.5592000000006</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>43777</v>
       </c>
@@ -11802,7 +11961,7 @@
         <v>4999.3616000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>43778</v>
       </c>
@@ -11819,7 +11978,7 @@
         <v>5061.4248000000007</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>43779</v>
       </c>
@@ -11836,7 +11995,7 @@
         <v>5123.7464</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>43780</v>
       </c>
@@ -11853,7 +12012,7 @@
         <v>5186.3240000000005</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>43781</v>
       </c>
@@ -11870,7 +12029,7 @@
         <v>5249.1552000000011</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>43782</v>
       </c>
@@ -11887,7 +12046,7 @@
         <v>5312.2376000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>43783</v>
       </c>
@@ -11904,7 +12063,7 @@
         <v>5375.5688000000009</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>43784</v>
       </c>
@@ -11921,7 +12080,7 @@
         <v>5439.1463999999996</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>43785</v>
       </c>
@@ -11938,7 +12097,7 @@
         <v>5502.9680000000008</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>43786</v>
       </c>
@@ -11955,7 +12114,7 @@
         <v>5567.0312000000004</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>43787</v>
       </c>
@@ -11972,7 +12131,7 @@
         <v>5631.3335999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>43788</v>
       </c>
@@ -11989,7 +12148,7 @@
         <v>5695.8727999999992</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>43789</v>
       </c>
@@ -12006,7 +12165,7 @@
         <v>5760.6464000000014</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>43790</v>
       </c>
@@ -12023,7 +12182,7 @@
         <v>5825.652000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>43791</v>
       </c>
@@ -12040,7 +12199,7 @@
         <v>5890.887200000001</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>43792</v>
       </c>
@@ -12057,7 +12216,7 @@
         <v>5956.3496000000005</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>43793</v>
       </c>
@@ -12074,7 +12233,7 @@
         <v>6022.0368000000008</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>43794</v>
       </c>
@@ -12091,7 +12250,7 @@
         <v>6087.9464000000007</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>43795</v>
       </c>
@@ -12108,7 +12267,7 @@
         <v>6154.076</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>43796</v>
       </c>
@@ -12125,7 +12284,7 @@
         <v>6220.4232000000011</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>43797</v>
       </c>
@@ -12142,7 +12301,7 @@
         <v>6286.9856</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>43798</v>
       </c>
@@ -12159,7 +12318,7 @@
         <v>6353.7608000000018</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>43799</v>
       </c>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4430E79-5A05-4B92-B3D5-5445A13E572F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7383E8-39A8-4A1A-9D9B-08AC0E5586A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Actual</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Daily</t>
-  </si>
-  <si>
-    <t>Average</t>
   </si>
   <si>
     <t>Days</t>
@@ -64,6 +61,12 @@
   </si>
   <si>
     <t>Poly3 Expected to hit 4k - 9/30/19</t>
+  </si>
+  <si>
+    <t>Average/Week</t>
+  </si>
+  <si>
+    <t>Average/Ever</t>
   </si>
 </sst>
 </file>
@@ -99,16 +102,514 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="74">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1107,13 +1608,22 @@
                   <c:v>2886</c:v>
                 </c:pt>
                 <c:pt idx="116" formatCode="#,##0">
-                  <c:v>2950</c:v>
+                  <c:v>2941</c:v>
                 </c:pt>
                 <c:pt idx="117" formatCode="#,##0">
-                  <c:v>2990</c:v>
+                  <c:v>3021</c:v>
                 </c:pt>
                 <c:pt idx="118" formatCode="#,##0">
-                  <c:v>3149</c:v>
+                  <c:v>3105</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="#,##0">
+                  <c:v>3216</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="#,##0">
+                  <c:v>3258</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="#,##0">
+                  <c:v>3300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2383,13 +2893,22 @@
                   <c:v>2886</c:v>
                 </c:pt>
                 <c:pt idx="116" formatCode="#,##0">
-                  <c:v>2950</c:v>
+                  <c:v>2941</c:v>
                 </c:pt>
                 <c:pt idx="117" formatCode="#,##0">
-                  <c:v>2990</c:v>
+                  <c:v>3021</c:v>
                 </c:pt>
                 <c:pt idx="118" formatCode="#,##0">
-                  <c:v>3149</c:v>
+                  <c:v>3105</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="#,##0">
+                  <c:v>3216</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="#,##0">
+                  <c:v>3258</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="#,##0">
+                  <c:v>3300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3703,13 +4222,22 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>52.285714285714285</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>51</c:v>
+                  <c:v>55.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>63.857142857142854</c:v>
+                  <c:v>57.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>62.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>64.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4976,13 +5504,22 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>64</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>40</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>159</c:v>
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5295,6 +5832,1334 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Growth</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> per day from Beginning</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16509711286089238"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.37881430446194225"/>
+                  <c:y val="-4.6180373286672502E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$146</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$146</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4761904761904763</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8181818181818181</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7826086956521738</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3793103448275863</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.1333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.806451612903226</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.6969696969696972</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.117647058823529</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.0540540540540544</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.1842105263157894</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.45</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.4634146341463419</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.7619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.6511627906976747</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.7727272727272725</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.9333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.1956521739130439</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.9787234042553195</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.354166666666667</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.8163265306122449</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.64</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.7450980392156863</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.9038461538461542</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.9245283018867925</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.4074074074074066</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.7818181818181813</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.2678571428571423</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.473684210526315</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.8275862068965516</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10.016666666666667</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10.524590163934427</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.03225806451613</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.0625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.696969696969697</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.761194029850746</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.382352941176471</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.072463768115941</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.928571428571429</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14.52112676056338</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.180555555555555</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15.849315068493151</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.391891891891891</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16.573333333333334</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.05263157894737</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17.220779220779221</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>17.282051282051281</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17.645569620253166</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17.913580246913579</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>17.707317073170731</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>17.975903614457831</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18.30952380952381</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>18.55294117647059</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>18.662790697674417</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18.758620689655171</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>18.875</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>18.719101123595507</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>18.944444444444443</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>19.032967032967033</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19.380434782608695</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>19.795698924731184</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>19.691489361702128</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20.197916666666668</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>20.505154639175259</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>21.091836734693878</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>21.505050505050505</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>21.37</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>21.752475247524753</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>21.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>21.699029126213592</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>21.932692307692307</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>22.552380952380954</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>22.613207547169811</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>22.794392523364486</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>23.212962962962962</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>23.431192660550458</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>23.463636363636365</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>23.693693693693692</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>24.098214285714285</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>24.584070796460178</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>24.614035087719298</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>24.652173913043477</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>24.853448275862068</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>25.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>25.576271186440678</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>26.067226890756302</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>26.774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>26.900826446280991</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>27.024590163934427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-070E-4AB4-97B8-847FB35277CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="670983080"/>
+        <c:axId val="670979472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="670983080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> since Release</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670979472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="670979472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Daily Growth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670983080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5416,6 +7281,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7519,17 +9424,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -7561,13 +9982,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -7599,13 +10020,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
@@ -7635,13 +10056,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>538162</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>233362</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
@@ -7664,6 +10085,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>370115</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D8733F-F5A6-4523-A60D-FD9BD91E9B96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7935,11 +10394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z12" sqref="Z12"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7949,16 +10408,17 @@
     <col min="3" max="3" width="6.53515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.3828125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -7967,16 +10427,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>43625</v>
       </c>
@@ -7991,21 +10454,25 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>0.2537*B2^2-3.4547*B2+3</f>
+        <f>SUM($D$2:$D2)/COUNT($D$2:$D2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <f>0.2511*B2^2-3.2838*B2+3</f>
         <v>3</v>
       </c>
-      <c r="G2" s="2">
-        <f>-0.0004*B2^3+0.3128*B2^2-5.4332*B2+3</f>
+      <c r="H2" s="2">
+        <f>-0.0003*B2^3+0.2972*B2^2-4.9611*B2+3</f>
         <v>3</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>43626</v>
       </c>
@@ -8020,21 +10487,25 @@
         <f>C3-C2</f>
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <f>(C3-C2)/7</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="1">0.2537*B3^2-3.4547*B3+3</f>
-        <v>-0.20100000000000007</v>
+        <f>SUM($D$2:$D3)/COUNT($D$2:$D3)</f>
+        <v>0.5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="2">-0.0004*B3^3+0.3128*B3^2-5.4332*B3+3</f>
-        <v>-2.1208</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <f t="shared" ref="G3:G66" si="1">0.2511*B3^2-3.2838*B3+3</f>
+        <v>-3.2699999999999729E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H66" si="2">-0.0003*B3^3+0.2972*B3^2-4.9611*B3+3</f>
+        <v>-1.6642000000000001</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>43627</v>
       </c>
@@ -8049,21 +10520,25 @@
         <f t="shared" ref="D4:D67" si="3">C4-C3</f>
         <v>0</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <f>(C4-C2)/7</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="F4" s="2">
+        <f>SUM($D$2:$D4)/COUNT($D$2:$D4)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
-        <v>-2.8945999999999996</v>
-      </c>
-      <c r="G4" s="2">
+        <v>-2.5632000000000001</v>
+      </c>
+      <c r="H4" s="2">
         <f t="shared" si="2"/>
-        <v>-6.6184000000000012</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-5.7357999999999993</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>43628</v>
       </c>
@@ -8078,21 +10553,25 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <f>(C5-C2)/7</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="F5" s="2">
+        <f>SUM($D$2:$D5)/COUNT($D$2:$D5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>-5.0808</v>
-      </c>
-      <c r="G5" s="2">
+        <v>-4.5914999999999999</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>-10.495200000000001</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-9.2165999999999997</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>43629</v>
       </c>
@@ -8107,21 +10586,25 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <f>(C6-C2)/7</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="F6" s="2">
+        <f>SUM($D$2:$D6)/COUNT($D$2:$D6)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>-6.7595999999999989</v>
-      </c>
-      <c r="G6" s="2">
+        <v>-6.1175999999999995</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>-13.753599999999999</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-12.1084</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>43630</v>
       </c>
@@ -8136,21 +10619,25 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <f>(C7-C2)/7</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="F7" s="2">
+        <f>SUM($D$2:$D7)/COUNT($D$2:$D7)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>-7.9309999999999992</v>
-      </c>
-      <c r="G7" s="2">
+        <v>-7.1415000000000006</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
-        <v>-16.396000000000001</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-14.413</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>43631</v>
       </c>
@@ -8165,21 +10652,25 @@
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <f>(C8-C2)/7</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="F8" s="2">
+        <f>SUM($D$2:$D8)/COUNT($D$2:$D8)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>-8.5950000000000024</v>
-      </c>
-      <c r="G8" s="2">
+        <v>-7.6631999999999998</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>-18.424800000000001</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-16.132199999999997</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>43632</v>
       </c>
@@ -8199,16 +10690,20 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="F9" s="2">
+        <f>SUM($D$2:$D9)/COUNT($D$2:$D9)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>-8.7516000000000016</v>
-      </c>
-      <c r="G9" s="2">
+        <v>-7.6827000000000005</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>-19.842400000000001</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-17.267799999999998</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>43633</v>
       </c>
@@ -8228,16 +10723,20 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="F10" s="2">
+        <f>SUM($D$2:$D10)/COUNT($D$2:$D10)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>-8.4008000000000003</v>
-      </c>
-      <c r="G10" s="2">
+        <v>-7.1999999999999993</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="2"/>
-        <v>-20.651199999999999</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-17.8216</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>43634</v>
       </c>
@@ -8257,16 +10756,20 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="F11" s="2">
+        <f>SUM($D$2:$D11)/COUNT($D$2:$D11)</f>
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>-7.5426000000000002</v>
-      </c>
-      <c r="G11" s="2">
+        <v>-6.2150999999999996</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="2"/>
-        <v>-20.8536</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-17.795400000000001</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>43635</v>
       </c>
@@ -8286,16 +10789,20 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F12" s="2">
+        <f>SUM($D$2:$D12)/COUNT($D$2:$D12)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>-6.1769999999999996</v>
-      </c>
-      <c r="G12" s="2">
+        <v>-4.7280000000000015</v>
+      </c>
+      <c r="H12" s="2">
         <f t="shared" si="2"/>
-        <v>-20.451999999999998</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-17.191000000000003</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>43636</v>
       </c>
@@ -8315,16 +10822,20 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="F13" s="2">
+        <f>SUM($D$2:$D13)/COUNT($D$2:$D13)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>-4.304000000000002</v>
-      </c>
-      <c r="G13" s="2">
+        <v>-2.7387000000000015</v>
+      </c>
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
-        <v>-19.448799999999999</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-16.01019999999999</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>43637</v>
       </c>
@@ -8344,16 +10855,20 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="F14" s="2">
+        <f>SUM($D$2:$D14)/COUNT($D$2:$D14)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>-1.9236000000000075</v>
-      </c>
-      <c r="G14" s="2">
+        <v>-0.24719999999999942</v>
+      </c>
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
-        <v>-17.846400000000003</v>
-      </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-14.254799999999996</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>43638</v>
       </c>
@@ -8373,16 +10888,20 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="F15" s="2">
+        <f>SUM($D$2:$D15)/COUNT($D$2:$D15)</f>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.96419999999999817</v>
-      </c>
-      <c r="G15" s="2">
+        <v>2.7464999999999975</v>
+      </c>
+      <c r="H15" s="2">
         <f t="shared" si="2"/>
-        <v>-15.647199999999998</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-11.926599999999993</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>43639</v>
       </c>
@@ -8402,16 +10921,20 @@
         <v>1.8571428571428572</v>
       </c>
       <c r="F16" s="2">
+        <f>SUM($D$2:$D16)/COUNT($D$2:$D16)</f>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>4.3593999999999937</v>
-      </c>
-      <c r="G16" s="2">
+        <v>6.2423999999999964</v>
+      </c>
+      <c r="H16" s="2">
         <f t="shared" si="2"/>
-        <v>-12.8536</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-9.027399999999993</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>43640</v>
       </c>
@@ -8431,16 +10954,20 @@
         <v>1.4285714285714286</v>
       </c>
       <c r="F17" s="2">
+        <f>SUM($D$2:$D17)/COUNT($D$2:$D17)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>8.2620000000000005</v>
-      </c>
-      <c r="G17" s="2">
+        <v>10.240499999999997</v>
+      </c>
+      <c r="H17" s="2">
         <f t="shared" si="2"/>
-        <v>-9.4679999999999893</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-5.5589999999999975</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>43641</v>
       </c>
@@ -8460,16 +10987,20 @@
         <v>1.8571428571428572</v>
       </c>
       <c r="F18" s="2">
+        <f>SUM($D$2:$D18)/COUNT($D$2:$D18)</f>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>12.671999999999997</v>
-      </c>
-      <c r="G18" s="2">
+        <v>14.7408</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="2"/>
-        <v>-5.4928000000000026</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-1.5232000000000028</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>43642</v>
       </c>
@@ -8489,16 +11020,20 @@
         <v>2.4285714285714284</v>
       </c>
       <c r="F19" s="2">
+        <f>SUM($D$2:$D19)/COUNT($D$2:$D19)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>17.589399999999998</v>
-      </c>
-      <c r="G19" s="2">
+        <v>19.743299999999998</v>
+      </c>
+      <c r="H19" s="2">
         <f t="shared" si="2"/>
-        <v>-0.93039999999999168</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+        <v>3.0781999999999954</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>43643</v>
       </c>
@@ -8518,16 +11053,20 @@
         <v>2</v>
       </c>
       <c r="F20" s="2">
+        <f>SUM($D$2:$D20)/COUNT($D$2:$D20)</f>
+        <v>1.263157894736842</v>
+      </c>
+      <c r="G20" s="2">
         <f t="shared" si="1"/>
-        <v>23.014199999999995</v>
-      </c>
-      <c r="G20" s="2">
+        <v>25.247999999999998</v>
+      </c>
+      <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>4.2167999999999921</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+        <v>8.2433999999999941</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>43644</v>
       </c>
@@ -8547,16 +11086,20 @@
         <v>2.2857142857142856</v>
       </c>
       <c r="F21" s="2">
+        <f>SUM($D$2:$D21)/COUNT($D$2:$D21)</f>
+        <v>1.4</v>
+      </c>
+      <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>28.946399999999997</v>
-      </c>
-      <c r="G21" s="2">
+        <v>31.254899999999999</v>
+      </c>
+      <c r="H21" s="2">
         <f t="shared" si="2"/>
-        <v>9.9464000000000112</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+        <v>13.970600000000005</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>43645</v>
       </c>
@@ -8576,16 +11119,20 @@
         <v>2.2857142857142856</v>
       </c>
       <c r="F22" s="2">
+        <f>SUM($D$2:$D22)/COUNT($D$2:$D22)</f>
+        <v>1.4761904761904763</v>
+      </c>
+      <c r="G22" s="2">
         <f t="shared" si="1"/>
-        <v>35.385999999999996</v>
-      </c>
-      <c r="G22" s="2">
+        <v>37.763999999999996</v>
+      </c>
+      <c r="H22" s="2">
         <f t="shared" si="2"/>
-        <v>16.256</v>
-      </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+        <v>20.257999999999996</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>43646</v>
       </c>
@@ -8605,16 +11152,20 @@
         <v>3.2857142857142856</v>
       </c>
       <c r="F23" s="2">
+        <f>SUM($D$2:$D23)/COUNT($D$2:$D23)</f>
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="G23" s="2">
         <f t="shared" si="1"/>
-        <v>42.332999999999998</v>
-      </c>
-      <c r="G23" s="2">
+        <v>44.775299999999987</v>
+      </c>
+      <c r="H23" s="2">
         <f t="shared" si="2"/>
-        <v>23.143200000000022</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+        <v>27.103800000000007</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>43647</v>
       </c>
@@ -8634,16 +11185,20 @@
         <v>3.7142857142857144</v>
       </c>
       <c r="F24" s="2">
+        <f>SUM($D$2:$D24)/COUNT($D$2:$D24)</f>
+        <v>1.7826086956521738</v>
+      </c>
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
-        <v>49.787399999999991</v>
-      </c>
-      <c r="G24" s="2">
+        <v>52.288799999999995</v>
+      </c>
+      <c r="H24" s="2">
         <f t="shared" si="2"/>
-        <v>30.605600000000024</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+        <v>34.506200000000021</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>43648</v>
       </c>
@@ -8663,16 +11218,20 @@
         <v>3.4285714285714284</v>
       </c>
       <c r="F25" s="2">
+        <f>SUM($D$2:$D25)/COUNT($D$2:$D25)</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="1"/>
-        <v>57.749200000000002</v>
-      </c>
-      <c r="G25" s="2">
+        <v>60.30449999999999</v>
+      </c>
+      <c r="H25" s="2">
         <f t="shared" si="2"/>
-        <v>38.640799999999999</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+        <v>42.463400000000007</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>43649</v>
       </c>
@@ -8692,16 +11251,20 @@
         <v>2.8571428571428572</v>
       </c>
       <c r="F26" s="2">
+        <f>SUM($D$2:$D26)/COUNT($D$2:$D26)</f>
+        <v>1.76</v>
+      </c>
+      <c r="G26" s="2">
         <f t="shared" si="1"/>
-        <v>66.218399999999974</v>
-      </c>
-      <c r="G26" s="2">
+        <v>68.822400000000002</v>
+      </c>
+      <c r="H26" s="2">
         <f t="shared" si="2"/>
-        <v>47.246400000000023</v>
-      </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+        <v>50.973600000000019</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>43650</v>
       </c>
@@ -8721,16 +11284,20 @@
         <v>4.2857142857142856</v>
       </c>
       <c r="F27" s="2">
+        <f>SUM($D$2:$D27)/COUNT($D$2:$D27)</f>
+        <v>2.0769230769230771</v>
+      </c>
+      <c r="G27" s="2">
         <f t="shared" si="1"/>
-        <v>75.195000000000007</v>
-      </c>
-      <c r="G27" s="2">
+        <v>77.842500000000001</v>
+      </c>
+      <c r="H27" s="2">
         <f t="shared" si="2"/>
-        <v>56.419999999999987</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+        <v>60.034999999999997</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>43651</v>
       </c>
@@ -8750,16 +11317,20 @@
         <v>4.5714285714285712</v>
       </c>
       <c r="F28" s="2">
+        <f>SUM($D$2:$D28)/COUNT($D$2:$D28)</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G28" s="2">
         <f t="shared" si="1"/>
-        <v>84.678999999999988</v>
-      </c>
-      <c r="G28" s="2">
+        <v>87.364799999999988</v>
+      </c>
+      <c r="H28" s="2">
         <f t="shared" si="2"/>
-        <v>66.159200000000027</v>
-      </c>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+        <v>69.645800000000037</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>43652</v>
       </c>
@@ -8779,16 +11350,20 @@
         <v>4.5714285714285712</v>
       </c>
       <c r="F29" s="2">
+        <f>SUM($D$2:$D29)/COUNT($D$2:$D29)</f>
+        <v>2.25</v>
+      </c>
+      <c r="G29" s="2">
         <f t="shared" si="1"/>
-        <v>94.670399999999987</v>
-      </c>
-      <c r="G29" s="2">
+        <v>97.389299999999992</v>
+      </c>
+      <c r="H29" s="2">
         <f t="shared" si="2"/>
-        <v>76.461600000000004</v>
-      </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+        <v>79.804200000000009</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>43653</v>
       </c>
@@ -8808,16 +11383,20 @@
         <v>4.1428571428571432</v>
       </c>
       <c r="F30" s="2">
+        <f>SUM($D$2:$D30)/COUNT($D$2:$D30)</f>
+        <v>2.3793103448275863</v>
+      </c>
+      <c r="G30" s="2">
         <f t="shared" si="1"/>
-        <v>105.16919999999998</v>
-      </c>
-      <c r="G30" s="2">
+        <v>107.91599999999998</v>
+      </c>
+      <c r="H30" s="2">
         <f t="shared" si="2"/>
-        <v>87.32480000000001</v>
-      </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+        <v>90.508400000000023</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>43654</v>
       </c>
@@ -8837,16 +11416,20 @@
         <v>11.857142857142858</v>
       </c>
       <c r="F31" s="2">
+        <f>SUM($D$2:$D31)/COUNT($D$2:$D31)</f>
+        <v>4.1333333333333337</v>
+      </c>
+      <c r="G31" s="2">
         <f t="shared" si="1"/>
-        <v>116.17539999999998</v>
-      </c>
-      <c r="G31" s="2">
+        <v>118.94489999999999</v>
+      </c>
+      <c r="H31" s="2">
         <f t="shared" si="2"/>
-        <v>98.746399999999966</v>
-      </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+        <v>101.75660000000002</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>43655</v>
       </c>
@@ -8866,16 +11449,20 @@
         <v>19.428571428571427</v>
       </c>
       <c r="F32" s="2">
+        <f>SUM($D$2:$D32)/COUNT($D$2:$D32)</f>
+        <v>5.806451612903226</v>
+      </c>
+      <c r="G32" s="2">
         <f t="shared" si="1"/>
-        <v>127.68899999999999</v>
-      </c>
-      <c r="G32" s="2">
+        <v>130.476</v>
+      </c>
+      <c r="H32" s="2">
         <f t="shared" si="2"/>
-        <v>110.72400000000002</v>
-      </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+        <v>113.547</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>43656</v>
       </c>
@@ -8895,16 +11482,20 @@
         <v>21.142857142857142</v>
       </c>
       <c r="F33" s="2">
+        <f>SUM($D$2:$D33)/COUNT($D$2:$D33)</f>
+        <v>6</v>
+      </c>
+      <c r="G33" s="2">
         <f t="shared" si="1"/>
-        <v>139.70999999999998</v>
-      </c>
-      <c r="G33" s="2">
+        <v>142.5093</v>
+      </c>
+      <c r="H33" s="2">
         <f t="shared" si="2"/>
-        <v>123.25520000000003</v>
-      </c>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+        <v>125.87780000000004</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>43657</v>
       </c>
@@ -8924,16 +11515,20 @@
         <v>19.142857142857142</v>
       </c>
       <c r="F34" s="2">
+        <f>SUM($D$2:$D34)/COUNT($D$2:$D34)</f>
+        <v>5.6969696969696972</v>
+      </c>
+      <c r="G34" s="2">
         <f t="shared" si="1"/>
-        <v>152.23839999999998</v>
-      </c>
-      <c r="G34" s="2">
+        <v>155.04480000000001</v>
+      </c>
+      <c r="H34" s="2">
         <f t="shared" si="2"/>
-        <v>136.33760000000004</v>
-      </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+        <v>138.74720000000002</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>43658</v>
       </c>
@@ -8953,16 +11548,20 @@
         <v>21.142857142857142</v>
       </c>
       <c r="F35" s="2">
+        <f>SUM($D$2:$D35)/COUNT($D$2:$D35)</f>
+        <v>6.117647058823529</v>
+      </c>
+      <c r="G35" s="2">
         <f t="shared" si="1"/>
-        <v>165.27419999999998</v>
-      </c>
-      <c r="G35" s="2">
+        <v>168.08250000000001</v>
+      </c>
+      <c r="H35" s="2">
         <f t="shared" si="2"/>
-        <v>149.96880000000002</v>
-      </c>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+        <v>152.15340000000003</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>43659</v>
       </c>
@@ -8982,16 +11581,20 @@
         <v>20</v>
       </c>
       <c r="F36" s="2">
+        <f>SUM($D$2:$D36)/COUNT($D$2:$D36)</f>
+        <v>5.8</v>
+      </c>
+      <c r="G36" s="2">
         <f t="shared" si="1"/>
-        <v>178.81739999999999</v>
-      </c>
-      <c r="G36" s="2">
+        <v>181.62239999999997</v>
+      </c>
+      <c r="H36" s="2">
         <f t="shared" si="2"/>
-        <v>164.1464</v>
-      </c>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+        <v>166.09459999999999</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>43660</v>
       </c>
@@ -9011,16 +11614,20 @@
         <v>21</v>
       </c>
       <c r="F37" s="2">
+        <f>SUM($D$2:$D37)/COUNT($D$2:$D37)</f>
+        <v>6</v>
+      </c>
+      <c r="G37" s="2">
         <f t="shared" si="1"/>
-        <v>192.86799999999999</v>
-      </c>
-      <c r="G37" s="2">
+        <v>195.66449999999998</v>
+      </c>
+      <c r="H37" s="2">
         <f t="shared" si="2"/>
-        <v>178.86800000000002</v>
-      </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+        <v>180.56900000000005</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>43661</v>
       </c>
@@ -9040,16 +11647,20 @@
         <v>14.285714285714286</v>
       </c>
       <c r="F38" s="2">
+        <f>SUM($D$2:$D38)/COUNT($D$2:$D38)</f>
+        <v>6.0540540540540544</v>
+      </c>
+      <c r="G38" s="2">
         <f t="shared" si="1"/>
-        <v>207.42599999999999</v>
-      </c>
-      <c r="G38" s="2">
+        <v>210.2088</v>
+      </c>
+      <c r="H38" s="2">
         <f t="shared" si="2"/>
-        <v>194.13120000000001</v>
-      </c>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+        <v>195.57479999999998</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>43662</v>
       </c>
@@ -9069,16 +11680,20 @@
         <v>7.8571428571428568</v>
       </c>
       <c r="F39" s="2">
+        <f>SUM($D$2:$D39)/COUNT($D$2:$D39)</f>
+        <v>6.1842105263157894</v>
+      </c>
+      <c r="G39" s="2">
         <f t="shared" si="1"/>
-        <v>222.4914</v>
-      </c>
-      <c r="G39" s="2">
+        <v>225.25530000000001</v>
+      </c>
+      <c r="H39" s="2">
         <f t="shared" si="2"/>
-        <v>209.93359999999998</v>
-      </c>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+        <v>211.11020000000002</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>43663</v>
       </c>
@@ -9098,16 +11713,20 @@
         <v>8.1428571428571423</v>
       </c>
       <c r="F40" s="2">
+        <f>SUM($D$2:$D40)/COUNT($D$2:$D40)</f>
+        <v>6.384615384615385</v>
+      </c>
+      <c r="G40" s="2">
         <f t="shared" si="1"/>
-        <v>238.06419999999997</v>
-      </c>
-      <c r="G40" s="2">
+        <v>240.80399999999997</v>
+      </c>
+      <c r="H40" s="2">
         <f t="shared" si="2"/>
-        <v>226.27280000000005</v>
-      </c>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+        <v>227.17340000000004</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>43664</v>
       </c>
@@ -9127,16 +11746,20 @@
         <v>10</v>
       </c>
       <c r="F41" s="2">
+        <f>SUM($D$2:$D41)/COUNT($D$2:$D41)</f>
+        <v>6.45</v>
+      </c>
+      <c r="G41" s="2">
         <f t="shared" si="1"/>
-        <v>254.14439999999996</v>
-      </c>
-      <c r="G41" s="2">
+        <v>256.85489999999999</v>
+      </c>
+      <c r="H41" s="2">
         <f t="shared" si="2"/>
-        <v>243.14640000000006</v>
-      </c>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+        <v>243.76259999999999</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>43665</v>
       </c>
@@ -9156,16 +11779,20 @@
         <v>8.1428571428571423</v>
       </c>
       <c r="F42" s="2">
+        <f>SUM($D$2:$D42)/COUNT($D$2:$D42)</f>
+        <v>6.4634146341463419</v>
+      </c>
+      <c r="G42" s="2">
         <f t="shared" si="1"/>
-        <v>270.73199999999997</v>
-      </c>
-      <c r="G42" s="2">
+        <v>273.40800000000002</v>
+      </c>
+      <c r="H42" s="2">
         <f t="shared" si="2"/>
-        <v>260.55200000000002</v>
-      </c>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+        <v>260.87600000000003</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>43666</v>
       </c>
@@ -9185,16 +11812,20 @@
         <v>11.571428571428571</v>
       </c>
       <c r="F43" s="2">
+        <f>SUM($D$2:$D43)/COUNT($D$2:$D43)</f>
+        <v>6.7619047619047619</v>
+      </c>
+      <c r="G43" s="2">
         <f t="shared" si="1"/>
-        <v>287.827</v>
-      </c>
-      <c r="G43" s="2">
+        <v>290.4633</v>
+      </c>
+      <c r="H43" s="2">
         <f t="shared" si="2"/>
-        <v>278.48720000000003</v>
-      </c>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+        <v>278.51180000000005</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>43667</v>
       </c>
@@ -9214,16 +11845,20 @@
         <v>10</v>
       </c>
       <c r="F44" s="2">
+        <f>SUM($D$2:$D44)/COUNT($D$2:$D44)</f>
+        <v>6.6511627906976747</v>
+      </c>
+      <c r="G44" s="2">
         <f t="shared" si="1"/>
-        <v>305.42939999999999</v>
-      </c>
-      <c r="G44" s="2">
+        <v>308.02079999999995</v>
+      </c>
+      <c r="H44" s="2">
         <f t="shared" si="2"/>
-        <v>296.94960000000003</v>
-      </c>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+        <v>296.66820000000001</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43668</v>
       </c>
@@ -9243,16 +11878,20 @@
         <v>10.571428571428571</v>
       </c>
       <c r="F45" s="2">
+        <f>SUM($D$2:$D45)/COUNT($D$2:$D45)</f>
+        <v>6.7727272727272725</v>
+      </c>
+      <c r="G45" s="2">
         <f t="shared" si="1"/>
-        <v>323.53919999999999</v>
-      </c>
-      <c r="G45" s="2">
+        <v>326.08049999999997</v>
+      </c>
+      <c r="H45" s="2">
         <f t="shared" si="2"/>
-        <v>315.93679999999995</v>
-      </c>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+        <v>315.34340000000009</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>43669</v>
       </c>
@@ -9272,16 +11911,20 @@
         <v>11</v>
       </c>
       <c r="F46" s="2">
+        <f>SUM($D$2:$D46)/COUNT($D$2:$D46)</f>
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="G46" s="2">
         <f t="shared" si="1"/>
-        <v>342.15639999999996</v>
-      </c>
-      <c r="G46" s="2">
+        <v>344.64239999999995</v>
+      </c>
+      <c r="H46" s="2">
         <f t="shared" si="2"/>
-        <v>335.44640000000004</v>
-      </c>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+        <v>334.53560000000004</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>43670</v>
       </c>
@@ -9301,16 +11944,20 @@
         <v>11.714285714285714</v>
       </c>
       <c r="F47" s="2">
+        <f>SUM($D$2:$D47)/COUNT($D$2:$D47)</f>
+        <v>7.1956521739130439</v>
+      </c>
+      <c r="G47" s="2">
         <f t="shared" si="1"/>
-        <v>361.28099999999995</v>
-      </c>
-      <c r="G47" s="2">
+        <v>363.70650000000001</v>
+      </c>
+      <c r="H47" s="2">
         <f t="shared" si="2"/>
-        <v>355.476</v>
-      </c>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+        <v>354.24300000000005</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>43671</v>
       </c>
@@ -9330,16 +11977,20 @@
         <v>10</v>
       </c>
       <c r="F48" s="2">
+        <f>SUM($D$2:$D48)/COUNT($D$2:$D48)</f>
+        <v>6.9787234042553195</v>
+      </c>
+      <c r="G48" s="2">
         <f t="shared" si="1"/>
-        <v>380.91300000000001</v>
-      </c>
-      <c r="G48" s="2">
+        <v>383.27279999999996</v>
+      </c>
+      <c r="H48" s="2">
         <f t="shared" si="2"/>
-        <v>376.02320000000009</v>
-      </c>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+        <v>374.46380000000011</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>43672</v>
       </c>
@@ -9359,16 +12010,20 @@
         <v>12.571428571428571</v>
       </c>
       <c r="F49" s="2">
+        <f>SUM($D$2:$D49)/COUNT($D$2:$D49)</f>
+        <v>7.354166666666667</v>
+      </c>
+      <c r="G49" s="2">
         <f t="shared" si="1"/>
-        <v>401.05239999999992</v>
-      </c>
-      <c r="G49" s="2">
+        <v>403.34129999999999</v>
+      </c>
+      <c r="H49" s="2">
         <f t="shared" si="2"/>
-        <v>397.08560000000011</v>
-      </c>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+        <v>395.19620000000009</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>43673</v>
       </c>
@@ -9388,16 +12043,20 @@
         <v>14.142857142857142</v>
       </c>
       <c r="F50" s="2">
+        <f>SUM($D$2:$D50)/COUNT($D$2:$D50)</f>
+        <v>7.8163265306122449</v>
+      </c>
+      <c r="G50" s="2">
         <f t="shared" si="1"/>
-        <v>421.69919999999991</v>
-      </c>
-      <c r="G50" s="2">
+        <v>423.91200000000003</v>
+      </c>
+      <c r="H50" s="2">
         <f t="shared" si="2"/>
-        <v>418.66080000000005</v>
-      </c>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+        <v>416.43840000000012</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>43674</v>
       </c>
@@ -9417,16 +12076,20 @@
         <v>13.714285714285714</v>
       </c>
       <c r="F51" s="2">
+        <f>SUM($D$2:$D51)/COUNT($D$2:$D51)</f>
+        <v>7.64</v>
+      </c>
+      <c r="G51" s="2">
         <f t="shared" si="1"/>
-        <v>442.85339999999997</v>
-      </c>
-      <c r="G51" s="2">
+        <v>444.98489999999993</v>
+      </c>
+      <c r="H51" s="2">
         <f t="shared" si="2"/>
-        <v>440.74639999999999</v>
-      </c>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+        <v>438.18860000000006</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>43675</v>
       </c>
@@ -9446,16 +12109,20 @@
         <v>13.857142857142858</v>
       </c>
       <c r="F52" s="2">
+        <f>SUM($D$2:$D52)/COUNT($D$2:$D52)</f>
+        <v>7.7450980392156863</v>
+      </c>
+      <c r="G52" s="2">
         <f t="shared" si="1"/>
-        <v>464.51499999999999</v>
-      </c>
-      <c r="G52" s="2">
+        <v>466.56</v>
+      </c>
+      <c r="H52" s="2">
         <f t="shared" si="2"/>
-        <v>463.34</v>
-      </c>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+        <v>460.44499999999999</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>43676</v>
       </c>
@@ -9475,16 +12142,20 @@
         <v>14.142857142857142</v>
       </c>
       <c r="F53" s="2">
+        <f>SUM($D$2:$D53)/COUNT($D$2:$D53)</f>
+        <v>7.9038461538461542</v>
+      </c>
+      <c r="G53" s="2">
         <f t="shared" si="1"/>
-        <v>486.68399999999997</v>
-      </c>
-      <c r="G53" s="2">
+        <v>488.63729999999998</v>
+      </c>
+      <c r="H53" s="2">
         <f t="shared" si="2"/>
-        <v>486.43920000000003</v>
-      </c>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+        <v>483.20580000000001</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>43677</v>
       </c>
@@ -9504,16 +12175,20 @@
         <v>12.714285714285714</v>
       </c>
       <c r="F54" s="2">
+        <f>SUM($D$2:$D54)/COUNT($D$2:$D54)</f>
+        <v>7.9245283018867925</v>
+      </c>
+      <c r="G54" s="2">
         <f t="shared" si="1"/>
-        <v>509.36039999999991</v>
-      </c>
-      <c r="G54" s="2">
+        <v>511.21679999999992</v>
+      </c>
+      <c r="H54" s="2">
         <f t="shared" si="2"/>
-        <v>510.04160000000007</v>
-      </c>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+        <v>506.46920000000006</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>43678</v>
       </c>
@@ -9533,16 +12208,20 @@
         <v>18</v>
       </c>
       <c r="F55" s="2">
+        <f>SUM($D$2:$D55)/COUNT($D$2:$D55)</f>
+        <v>8.4074074074074066</v>
+      </c>
+      <c r="G55" s="2">
         <f t="shared" si="1"/>
-        <v>532.54419999999993</v>
-      </c>
-      <c r="G55" s="2">
+        <v>534.29849999999999</v>
+      </c>
+      <c r="H55" s="2">
         <f t="shared" si="2"/>
-        <v>534.14480000000003</v>
-      </c>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+        <v>530.23340000000007</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>43679</v>
       </c>
@@ -9562,16 +12241,20 @@
         <v>18.571428571428573</v>
       </c>
       <c r="F56" s="2">
+        <f>SUM($D$2:$D56)/COUNT($D$2:$D56)</f>
+        <v>8.7818181818181813</v>
+      </c>
+      <c r="G56" s="2">
         <f t="shared" si="1"/>
-        <v>556.23539999999991</v>
-      </c>
-      <c r="G56" s="2">
+        <v>557.88239999999996</v>
+      </c>
+      <c r="H56" s="2">
         <f t="shared" si="2"/>
-        <v>558.74639999999999</v>
-      </c>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+        <v>554.49660000000006</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>43680</v>
       </c>
@@ -9591,16 +12274,20 @@
         <v>19.428571428571427</v>
       </c>
       <c r="F57" s="2">
+        <f>SUM($D$2:$D57)/COUNT($D$2:$D57)</f>
+        <v>9.2678571428571423</v>
+      </c>
+      <c r="G57" s="2">
         <f t="shared" si="1"/>
-        <v>580.43399999999997</v>
-      </c>
-      <c r="G57" s="2">
+        <v>581.96849999999995</v>
+      </c>
+      <c r="H57" s="2">
         <f t="shared" si="2"/>
-        <v>583.84400000000005</v>
-      </c>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+        <v>579.25700000000006</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>43681</v>
       </c>
@@ -9620,16 +12307,20 @@
         <v>22.571428571428573</v>
       </c>
       <c r="F58" s="2">
+        <f>SUM($D$2:$D58)/COUNT($D$2:$D58)</f>
+        <v>9.473684210526315</v>
+      </c>
+      <c r="G58" s="2">
         <f t="shared" si="1"/>
-        <v>605.13999999999987</v>
-      </c>
-      <c r="G58" s="2">
+        <v>606.55679999999995</v>
+      </c>
+      <c r="H58" s="2">
         <f t="shared" si="2"/>
-        <v>609.43520000000012</v>
-      </c>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+        <v>604.51280000000008</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>43682</v>
       </c>
@@ -9649,15 +12340,20 @@
         <v>25</v>
       </c>
       <c r="F59" s="2">
+        <f>SUM($D$2:$D59)/COUNT($D$2:$D59)</f>
+        <v>9.8275862068965516</v>
+      </c>
+      <c r="G59" s="2">
         <f t="shared" si="1"/>
-        <v>630.35339999999985</v>
-      </c>
-      <c r="G59" s="2">
+        <v>631.64729999999997</v>
+      </c>
+      <c r="H59" s="2">
         <f t="shared" si="2"/>
-        <v>635.51760000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+        <v>630.26220000000012</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>43683</v>
       </c>
@@ -9677,15 +12373,20 @@
         <v>25.571428571428573</v>
       </c>
       <c r="F60" s="2">
+        <f>SUM($D$2:$D60)/COUNT($D$2:$D60)</f>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2">
         <f t="shared" si="1"/>
-        <v>656.07419999999991</v>
-      </c>
-      <c r="G60" s="2">
+        <v>657.24</v>
+      </c>
+      <c r="H60" s="2">
         <f t="shared" si="2"/>
-        <v>662.08879999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+        <v>656.50340000000006</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>43684</v>
       </c>
@@ -9705,15 +12406,20 @@
         <v>25.857142857142858</v>
       </c>
       <c r="F61" s="2">
+        <f>SUM($D$2:$D61)/COUNT($D$2:$D61)</f>
+        <v>10.016666666666667</v>
+      </c>
+      <c r="G61" s="2">
         <f t="shared" si="1"/>
-        <v>682.30240000000003</v>
-      </c>
-      <c r="G61" s="2">
+        <v>683.33489999999995</v>
+      </c>
+      <c r="H61" s="2">
         <f t="shared" si="2"/>
-        <v>689.14639999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+        <v>683.2346</v>
+      </c>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>43685</v>
       </c>
@@ -9733,15 +12439,20 @@
         <v>26.857142857142858</v>
       </c>
       <c r="F62" s="2">
+        <f>SUM($D$2:$D62)/COUNT($D$2:$D62)</f>
+        <v>10.524590163934427</v>
+      </c>
+      <c r="G62" s="2">
         <f t="shared" si="1"/>
-        <v>709.03800000000001</v>
-      </c>
-      <c r="G62" s="2">
+        <v>709.9319999999999</v>
+      </c>
+      <c r="H62" s="2">
         <f t="shared" si="2"/>
-        <v>716.6880000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+        <v>710.45400000000018</v>
+      </c>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>43686</v>
       </c>
@@ -9761,15 +12472,20 @@
         <v>28.714285714285715</v>
       </c>
       <c r="F63" s="2">
+        <f>SUM($D$2:$D63)/COUNT($D$2:$D63)</f>
+        <v>11.03225806451613</v>
+      </c>
+      <c r="G63" s="2">
         <f t="shared" si="1"/>
-        <v>736.28099999999995</v>
-      </c>
-      <c r="G63" s="2">
+        <v>737.03129999999999</v>
+      </c>
+      <c r="H63" s="2">
         <f t="shared" si="2"/>
-        <v>744.71120000000008</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+        <v>738.15980000000013</v>
+      </c>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>43687</v>
       </c>
@@ -9789,15 +12505,20 @@
         <v>27.857142857142858</v>
       </c>
       <c r="F64" s="2">
+        <f>SUM($D$2:$D64)/COUNT($D$2:$D64)</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="G64" s="2">
         <f t="shared" si="1"/>
-        <v>764.03139999999985</v>
-      </c>
-      <c r="G64" s="2">
+        <v>764.63279999999997</v>
+      </c>
+      <c r="H64" s="2">
         <f t="shared" si="2"/>
-        <v>773.21360000000004</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+        <v>766.3502000000002</v>
+      </c>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>43688</v>
       </c>
@@ -9817,15 +12538,20 @@
         <v>33.142857142857146</v>
       </c>
       <c r="F65" s="2">
+        <f>SUM($D$2:$D65)/COUNT($D$2:$D65)</f>
+        <v>12.0625</v>
+      </c>
+      <c r="G65" s="2">
         <f t="shared" si="1"/>
-        <v>792.28919999999994</v>
-      </c>
-      <c r="G65" s="2">
+        <v>792.73649999999998</v>
+      </c>
+      <c r="H65" s="2">
         <f t="shared" si="2"/>
-        <v>802.19280000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+        <v>795.02339999999992</v>
+      </c>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>43689</v>
       </c>
@@ -9845,15 +12571,20 @@
         <v>28.142857142857142</v>
       </c>
       <c r="F66" s="2">
+        <f>SUM($D$2:$D66)/COUNT($D$2:$D66)</f>
+        <v>11.8</v>
+      </c>
+      <c r="G66" s="2">
         <f t="shared" si="1"/>
-        <v>821.05439999999999</v>
-      </c>
-      <c r="G66" s="2">
+        <v>821.3424</v>
+      </c>
+      <c r="H66" s="2">
         <f t="shared" si="2"/>
-        <v>831.64640000000009</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+        <v>824.1776000000001</v>
+      </c>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>43690</v>
       </c>
@@ -9873,15 +12604,20 @@
         <v>26</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F130" si="6">0.2537*B67^2-3.4547*B67+3</f>
-        <v>850.327</v>
+        <f>SUM($D$2:$D67)/COUNT($D$2:$D67)</f>
+        <v>11.696969696969697</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G130" si="7">-0.0004*B67^3+0.3128*B67^2-5.4332*B67+3</f>
-        <v>861.57200000000023</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" ref="G67:G130" si="6">0.2511*B67^2-3.2838*B67+3</f>
+        <v>850.45050000000003</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" ref="H67:H130" si="7">-0.0003*B67^3+0.2972*B67^2-4.9611*B67+3</f>
+        <v>853.81100000000004</v>
+      </c>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>43691</v>
       </c>
@@ -9893,7 +12629,7 @@
         <v>791</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D120" si="8">C68-C67</f>
+        <f t="shared" ref="D68:D123" si="8">C68-C67</f>
         <v>16</v>
       </c>
       <c r="E68" s="2">
@@ -9901,15 +12637,20 @@
         <v>26.714285714285715</v>
       </c>
       <c r="F68" s="2">
+        <f>SUM($D$2:$D68)/COUNT($D$2:$D68)</f>
+        <v>11.761194029850746</v>
+      </c>
+      <c r="G68" s="2">
         <f t="shared" si="6"/>
-        <v>880.10699999999997</v>
-      </c>
-      <c r="G68" s="2">
+        <v>880.06079999999997</v>
+      </c>
+      <c r="H68" s="2">
         <f t="shared" si="7"/>
-        <v>891.96720000000005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+        <v>883.92179999999996</v>
+      </c>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>43692</v>
       </c>
@@ -9929,15 +12670,20 @@
         <v>28.571428571428573</v>
       </c>
       <c r="F69" s="2">
+        <f>SUM($D$2:$D69)/COUNT($D$2:$D69)</f>
+        <v>12.382352941176471</v>
+      </c>
+      <c r="G69" s="2">
         <f t="shared" si="6"/>
-        <v>910.39439999999991</v>
-      </c>
-      <c r="G69" s="2">
+        <v>910.17329999999993</v>
+      </c>
+      <c r="H69" s="2">
         <f t="shared" si="7"/>
-        <v>922.82960000000003</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+        <v>914.50819999999999</v>
+      </c>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>43693</v>
       </c>
@@ -9957,15 +12703,20 @@
         <v>31.142857142857142</v>
       </c>
       <c r="F70" s="2">
+        <f>SUM($D$2:$D70)/COUNT($D$2:$D70)</f>
+        <v>13.072463768115941</v>
+      </c>
+      <c r="G70" s="2">
         <f t="shared" si="6"/>
-        <v>941.18920000000003</v>
-      </c>
-      <c r="G70" s="2">
+        <v>940.7879999999999</v>
+      </c>
+      <c r="H70" s="2">
         <f t="shared" si="7"/>
-        <v>954.1568000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+        <v>945.56839999999988</v>
+      </c>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>43694</v>
       </c>
@@ -9985,15 +12736,20 @@
         <v>37.285714285714285</v>
       </c>
       <c r="F71" s="2">
+        <f>SUM($D$2:$D71)/COUNT($D$2:$D71)</f>
+        <v>13.928571428571429</v>
+      </c>
+      <c r="G71" s="2">
         <f t="shared" si="6"/>
-        <v>972.49139999999989</v>
-      </c>
-      <c r="G71" s="2">
+        <v>971.9049</v>
+      </c>
+      <c r="H71" s="2">
         <f t="shared" si="7"/>
-        <v>985.94639999999993</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+        <v>977.10059999999999</v>
+      </c>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>43695</v>
       </c>
@@ -10013,15 +12769,20 @@
         <v>37</v>
       </c>
       <c r="F72" s="2">
+        <f>SUM($D$2:$D72)/COUNT($D$2:$D72)</f>
+        <v>14.52112676056338</v>
+      </c>
+      <c r="G72" s="2">
         <f t="shared" si="6"/>
-        <v>1004.3009999999999</v>
-      </c>
-      <c r="G72" s="2">
+        <v>1003.5239999999999</v>
+      </c>
+      <c r="H72" s="2">
         <f t="shared" si="7"/>
-        <v>1018.1959999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1009.1030000000001</v>
+      </c>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>43696</v>
       </c>
@@ -10041,15 +12802,20 @@
         <v>46.571428571428569</v>
       </c>
       <c r="F73" s="2">
+        <f>SUM($D$2:$D73)/COUNT($D$2:$D73)</f>
+        <v>15.180555555555555</v>
+      </c>
+      <c r="G73" s="2">
         <f t="shared" si="6"/>
-        <v>1036.6179999999999</v>
-      </c>
-      <c r="G73" s="2">
+        <v>1035.6453000000001</v>
+      </c>
+      <c r="H73" s="2">
         <f t="shared" si="7"/>
-        <v>1050.9032000000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1041.5738000000001</v>
+      </c>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>43697</v>
       </c>
@@ -10065,19 +12831,24 @@
         <v>64</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ref="E74:E120" si="9">(C74-C67)/7</f>
+        <f t="shared" ref="E74:E123" si="9">(C74-C67)/7</f>
         <v>55</v>
       </c>
       <c r="F74" s="2">
+        <f>SUM($D$2:$D74)/COUNT($D$2:$D74)</f>
+        <v>15.849315068493151</v>
+      </c>
+      <c r="G74" s="2">
         <f t="shared" si="6"/>
-        <v>1069.4423999999999</v>
-      </c>
-      <c r="G74" s="2">
+        <v>1068.2687999999998</v>
+      </c>
+      <c r="H74" s="2">
         <f t="shared" si="7"/>
-        <v>1084.0656000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1074.5111999999999</v>
+      </c>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>43698</v>
       </c>
@@ -10097,15 +12868,20 @@
         <v>60.714285714285715</v>
       </c>
       <c r="F75" s="2">
+        <f>SUM($D$2:$D75)/COUNT($D$2:$D75)</f>
+        <v>16.391891891891891</v>
+      </c>
+      <c r="G75" s="2">
         <f t="shared" si="6"/>
-        <v>1102.7741999999998</v>
-      </c>
-      <c r="G75" s="2">
+        <v>1101.3944999999999</v>
+      </c>
+      <c r="H75" s="2">
         <f t="shared" si="7"/>
-        <v>1117.6808000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1107.9134000000001</v>
+      </c>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>43699</v>
       </c>
@@ -10125,15 +12901,20 @@
         <v>57.285714285714285</v>
       </c>
       <c r="F76" s="2">
+        <f>SUM($D$2:$D76)/COUNT($D$2:$D76)</f>
+        <v>16.573333333333334</v>
+      </c>
+      <c r="G76" s="2">
         <f t="shared" si="6"/>
-        <v>1136.6134</v>
-      </c>
-      <c r="G76" s="2">
+        <v>1135.0224000000001</v>
+      </c>
+      <c r="H76" s="2">
         <f t="shared" si="7"/>
-        <v>1151.7464</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1141.7786000000001</v>
+      </c>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>43700</v>
       </c>
@@ -10153,15 +12934,20 @@
         <v>56.285714285714285</v>
       </c>
       <c r="F77" s="2">
+        <f>SUM($D$2:$D77)/COUNT($D$2:$D77)</f>
+        <v>17.05263157894737</v>
+      </c>
+      <c r="G77" s="2">
         <f t="shared" si="6"/>
-        <v>1170.96</v>
-      </c>
-      <c r="G77" s="2">
+        <v>1169.1524999999999</v>
+      </c>
+      <c r="H77" s="2">
         <f t="shared" si="7"/>
-        <v>1186.2600000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1176.105</v>
+      </c>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>43701</v>
       </c>
@@ -10181,15 +12967,20 @@
         <v>50.142857142857146</v>
       </c>
       <c r="F78" s="2">
+        <f>SUM($D$2:$D78)/COUNT($D$2:$D78)</f>
+        <v>17.220779220779221</v>
+      </c>
+      <c r="G78" s="2">
         <f t="shared" si="6"/>
-        <v>1205.8139999999999</v>
-      </c>
-      <c r="G78" s="2">
+        <v>1203.7847999999999</v>
+      </c>
+      <c r="H78" s="2">
         <f t="shared" si="7"/>
-        <v>1221.2192000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1210.8908000000001</v>
+      </c>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>43702</v>
       </c>
@@ -10209,15 +13000,20 @@
         <v>45.285714285714285</v>
       </c>
       <c r="F79" s="2">
+        <f>SUM($D$2:$D79)/COUNT($D$2:$D79)</f>
+        <v>17.282051282051281</v>
+      </c>
+      <c r="G79" s="2">
         <f t="shared" si="6"/>
-        <v>1241.1753999999999</v>
-      </c>
-      <c r="G79" s="2">
+        <v>1238.9193</v>
+      </c>
+      <c r="H79" s="2">
         <f t="shared" si="7"/>
-        <v>1256.6215999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1246.1342000000002</v>
+      </c>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>43703</v>
       </c>
@@ -10237,15 +13033,20 @@
         <v>43</v>
       </c>
       <c r="F80" s="2">
+        <f>SUM($D$2:$D80)/COUNT($D$2:$D80)</f>
+        <v>17.645569620253166</v>
+      </c>
+      <c r="G80" s="2">
         <f t="shared" si="6"/>
-        <v>1277.0441999999998</v>
-      </c>
-      <c r="G80" s="2">
+        <v>1274.556</v>
+      </c>
+      <c r="H80" s="2">
         <f t="shared" si="7"/>
-        <v>1292.4648000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1281.8334</v>
+      </c>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>43704</v>
       </c>
@@ -10265,15 +13066,20 @@
         <v>39.285714285714285</v>
       </c>
       <c r="F81" s="2">
+        <f>SUM($D$2:$D81)/COUNT($D$2:$D81)</f>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G81" s="2">
         <f t="shared" si="6"/>
-        <v>1313.4204</v>
-      </c>
-      <c r="G81" s="2">
+        <v>1310.6949</v>
+      </c>
+      <c r="H81" s="2">
         <f t="shared" si="7"/>
-        <v>1328.7464000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1317.9866000000002</v>
+      </c>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>43705</v>
       </c>
@@ -10293,15 +13099,20 @@
         <v>34</v>
       </c>
       <c r="F82" s="2">
+        <f>SUM($D$2:$D82)/COUNT($D$2:$D82)</f>
+        <v>17.913580246913579</v>
+      </c>
+      <c r="G82" s="2">
         <f t="shared" si="6"/>
-        <v>1350.3039999999999</v>
-      </c>
-      <c r="G82" s="2">
+        <v>1347.336</v>
+      </c>
+      <c r="H82" s="2">
         <f t="shared" si="7"/>
-        <v>1365.4640000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1354.5920000000001</v>
+      </c>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>43706</v>
       </c>
@@ -10321,15 +13132,20 @@
         <v>29.857142857142858</v>
       </c>
       <c r="F83" s="2">
+        <f>SUM($D$2:$D83)/COUNT($D$2:$D83)</f>
+        <v>17.707317073170731</v>
+      </c>
+      <c r="G83" s="2">
         <f t="shared" si="6"/>
-        <v>1387.6949999999999</v>
-      </c>
-      <c r="G83" s="2">
+        <v>1384.4793</v>
+      </c>
+      <c r="H83" s="2">
         <f t="shared" si="7"/>
-        <v>1402.6152000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1391.6478000000002</v>
+      </c>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>43707</v>
       </c>
@@ -10349,15 +13165,20 @@
         <v>28</v>
       </c>
       <c r="F84" s="2">
+        <f>SUM($D$2:$D84)/COUNT($D$2:$D84)</f>
+        <v>17.975903614457831</v>
+      </c>
+      <c r="G84" s="2">
         <f t="shared" si="6"/>
-        <v>1425.5934</v>
-      </c>
-      <c r="G84" s="2">
+        <v>1422.1247999999998</v>
+      </c>
+      <c r="H84" s="2">
         <f t="shared" si="7"/>
-        <v>1440.1976000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1429.1522</v>
+      </c>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>43708</v>
       </c>
@@ -10377,15 +13198,20 @@
         <v>30.285714285714285</v>
       </c>
       <c r="F85" s="2">
+        <f>SUM($D$2:$D85)/COUNT($D$2:$D85)</f>
+        <v>18.30952380952381</v>
+      </c>
+      <c r="G85" s="2">
         <f t="shared" si="6"/>
-        <v>1463.9992</v>
-      </c>
-      <c r="G85" s="2">
+        <v>1460.2725</v>
+      </c>
+      <c r="H85" s="2">
         <f t="shared" si="7"/>
-        <v>1478.2088000000003</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1467.1034</v>
+      </c>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>43709</v>
       </c>
@@ -10405,15 +13231,20 @@
         <v>32.714285714285715</v>
       </c>
       <c r="F86" s="2">
+        <f>SUM($D$2:$D86)/COUNT($D$2:$D86)</f>
+        <v>18.55294117647059</v>
+      </c>
+      <c r="G86" s="2">
         <f t="shared" si="6"/>
-        <v>1502.9123999999999</v>
-      </c>
-      <c r="G86" s="2">
+        <v>1498.9223999999999</v>
+      </c>
+      <c r="H86" s="2">
         <f t="shared" si="7"/>
-        <v>1516.6464000000003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1505.4996000000001</v>
+      </c>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>43710</v>
       </c>
@@ -10433,15 +13264,20 @@
         <v>30.142857142857142</v>
       </c>
       <c r="F87" s="2">
+        <f>SUM($D$2:$D87)/COUNT($D$2:$D87)</f>
+        <v>18.662790697674417</v>
+      </c>
+      <c r="G87" s="2">
         <f t="shared" si="6"/>
-        <v>1542.3329999999999</v>
-      </c>
-      <c r="G87" s="2">
+        <v>1538.0744999999999</v>
+      </c>
+      <c r="H87" s="2">
         <f t="shared" si="7"/>
-        <v>1555.5079999999998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1544.3389999999999</v>
+      </c>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>43711</v>
       </c>
@@ -10461,15 +13297,20 @@
         <v>28.571428571428573</v>
       </c>
       <c r="F88" s="2">
+        <f>SUM($D$2:$D88)/COUNT($D$2:$D88)</f>
+        <v>18.758620689655171</v>
+      </c>
+      <c r="G88" s="2">
         <f t="shared" si="6"/>
-        <v>1582.261</v>
-      </c>
-      <c r="G88" s="2">
+        <v>1577.7287999999999</v>
+      </c>
+      <c r="H88" s="2">
         <f t="shared" si="7"/>
-        <v>1594.7912000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1583.6198000000002</v>
+      </c>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>43712</v>
       </c>
@@ -10489,15 +13330,20 @@
         <v>30</v>
       </c>
       <c r="F89" s="2">
+        <f>SUM($D$2:$D89)/COUNT($D$2:$D89)</f>
+        <v>18.875</v>
+      </c>
+      <c r="G89" s="2">
         <f t="shared" si="6"/>
-        <v>1622.6963999999998</v>
-      </c>
-      <c r="G89" s="2">
+        <v>1617.8852999999999</v>
+      </c>
+      <c r="H89" s="2">
         <f t="shared" si="7"/>
-        <v>1634.4935999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1623.3401999999999</v>
+      </c>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>43713</v>
       </c>
@@ -10517,15 +13363,20 @@
         <v>30.571428571428573</v>
       </c>
       <c r="F90" s="2">
+        <f>SUM($D$2:$D90)/COUNT($D$2:$D90)</f>
+        <v>18.719101123595507</v>
+      </c>
+      <c r="G90" s="2">
         <f t="shared" si="6"/>
-        <v>1663.6391999999998</v>
-      </c>
-      <c r="G90" s="2">
+        <v>1658.5439999999999</v>
+      </c>
+      <c r="H90" s="2">
         <f t="shared" si="7"/>
-        <v>1674.6128000000003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1663.4984000000002</v>
+      </c>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>43714</v>
       </c>
@@ -10545,15 +13396,20 @@
         <v>30.428571428571427</v>
       </c>
       <c r="F91" s="2">
+        <f>SUM($D$2:$D91)/COUNT($D$2:$D91)</f>
+        <v>18.944444444444443</v>
+      </c>
+      <c r="G91" s="2">
         <f t="shared" si="6"/>
-        <v>1705.0893999999998</v>
-      </c>
-      <c r="G91" s="2">
+        <v>1699.7049</v>
+      </c>
+      <c r="H91" s="2">
         <f t="shared" si="7"/>
-        <v>1715.1464000000005</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1704.0926000000002</v>
+      </c>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>43715</v>
       </c>
@@ -10573,18 +13429,22 @@
         <v>27.714285714285715</v>
       </c>
       <c r="F92" s="2">
+        <f>SUM($D$2:$D92)/COUNT($D$2:$D92)</f>
+        <v>19.032967032967033</v>
+      </c>
+      <c r="G92" s="2">
         <f t="shared" si="6"/>
-        <v>1747.0469999999998</v>
-      </c>
-      <c r="G92" s="2">
+        <v>1741.3679999999999</v>
+      </c>
+      <c r="H92" s="2">
         <f t="shared" si="7"/>
-        <v>1756.0920000000003</v>
-      </c>
-      <c r="H92" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1745.1210000000003</v>
+      </c>
+      <c r="I92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>43716</v>
       </c>
@@ -10604,15 +13464,19 @@
         <v>29.428571428571427</v>
       </c>
       <c r="F93" s="2">
+        <f>SUM($D$2:$D93)/COUNT($D$2:$D93)</f>
+        <v>19.380434782608695</v>
+      </c>
+      <c r="G93" s="2">
         <f t="shared" si="6"/>
-        <v>1789.5119999999997</v>
-      </c>
-      <c r="G93" s="2">
+        <v>1783.5333000000001</v>
+      </c>
+      <c r="H93" s="2">
         <f t="shared" si="7"/>
-        <v>1797.4472000000003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1786.5818000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>43717</v>
       </c>
@@ -10632,15 +13496,19 @@
         <v>33.714285714285715</v>
       </c>
       <c r="F94" s="2">
+        <f>SUM($D$2:$D94)/COUNT($D$2:$D94)</f>
+        <v>19.795698924731184</v>
+      </c>
+      <c r="G94" s="2">
         <f t="shared" si="6"/>
-        <v>1832.4844000000001</v>
-      </c>
-      <c r="G94" s="2">
+        <v>1826.2007999999998</v>
+      </c>
+      <c r="H94" s="2">
         <f t="shared" si="7"/>
-        <v>1839.2096000000004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1828.4732000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>43718</v>
       </c>
@@ -10660,15 +13528,19 @@
         <v>31.285714285714285</v>
       </c>
       <c r="F95" s="2">
+        <f>SUM($D$2:$D95)/COUNT($D$2:$D95)</f>
+        <v>19.691489361702128</v>
+      </c>
+      <c r="G95" s="2">
         <f t="shared" si="6"/>
-        <v>1875.9641999999999</v>
-      </c>
-      <c r="G95" s="2">
+        <v>1869.3705</v>
+      </c>
+      <c r="H95" s="2">
         <f t="shared" si="7"/>
-        <v>1881.3768</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1870.7934000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>43719</v>
       </c>
@@ -10688,18 +13560,22 @@
         <v>34.142857142857146</v>
       </c>
       <c r="F96" s="2">
+        <f>SUM($D$2:$D96)/COUNT($D$2:$D96)</f>
+        <v>20</v>
+      </c>
+      <c r="G96" s="2">
         <f t="shared" si="6"/>
-        <v>1919.9513999999997</v>
-      </c>
-      <c r="G96" s="2">
+        <v>1913.0423999999998</v>
+      </c>
+      <c r="H96" s="2">
         <f t="shared" si="7"/>
-        <v>1923.9464000000003</v>
-      </c>
-      <c r="H96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1913.5406</v>
+      </c>
+      <c r="I96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>43720</v>
       </c>
@@ -10719,15 +13595,19 @@
         <v>39</v>
       </c>
       <c r="F97" s="2">
+        <f>SUM($D$2:$D97)/COUNT($D$2:$D97)</f>
+        <v>20.197916666666668</v>
+      </c>
+      <c r="G97" s="2">
         <f t="shared" si="6"/>
-        <v>1964.4459999999999</v>
-      </c>
-      <c r="G97" s="2">
+        <v>1957.2164999999998</v>
+      </c>
+      <c r="H97" s="2">
         <f t="shared" si="7"/>
-        <v>1966.9160000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1956.713</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>43721</v>
       </c>
@@ -10747,15 +13627,19 @@
         <v>40.571428571428569</v>
       </c>
       <c r="F98" s="2">
+        <f>SUM($D$2:$D98)/COUNT($D$2:$D98)</f>
+        <v>20.505154639175259</v>
+      </c>
+      <c r="G98" s="2">
         <f t="shared" si="6"/>
-        <v>2009.4479999999996</v>
-      </c>
-      <c r="G98" s="2">
+        <v>2001.8928000000001</v>
+      </c>
+      <c r="H98" s="2">
         <f t="shared" si="7"/>
-        <v>2010.2832000000003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+        <v>2000.3088000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>43722</v>
       </c>
@@ -10775,15 +13659,19 @@
         <v>47.857142857142854</v>
       </c>
       <c r="F99" s="2">
+        <f>SUM($D$2:$D99)/COUNT($D$2:$D99)</f>
+        <v>21.091836734693878</v>
+      </c>
+      <c r="G99" s="2">
         <f t="shared" si="6"/>
-        <v>2054.9573999999998</v>
-      </c>
-      <c r="G99" s="2">
+        <v>2047.0712999999996</v>
+      </c>
+      <c r="H99" s="2">
         <f t="shared" si="7"/>
-        <v>2054.0456000000004</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+        <v>2044.3262000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>43723</v>
       </c>
@@ -10803,15 +13691,19 @@
         <v>49.428571428571431</v>
       </c>
       <c r="F100" s="2">
+        <f>SUM($D$2:$D100)/COUNT($D$2:$D100)</f>
+        <v>21.505050505050505</v>
+      </c>
+      <c r="G100" s="2">
         <f t="shared" si="6"/>
-        <v>2100.9742000000001</v>
-      </c>
-      <c r="G100" s="2">
+        <v>2092.752</v>
+      </c>
+      <c r="H100" s="2">
         <f t="shared" si="7"/>
-        <v>2098.2008000000005</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+        <v>2088.7634000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>43724</v>
       </c>
@@ -10831,15 +13723,19 @@
         <v>42.285714285714285</v>
       </c>
       <c r="F101" s="2">
+        <f>SUM($D$2:$D101)/COUNT($D$2:$D101)</f>
+        <v>21.37</v>
+      </c>
+      <c r="G101" s="2">
         <f t="shared" si="6"/>
-        <v>2147.4983999999999</v>
-      </c>
-      <c r="G101" s="2">
+        <v>2138.9348999999997</v>
+      </c>
+      <c r="H101" s="2">
         <f t="shared" si="7"/>
-        <v>2142.7464</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+        <v>2133.6186000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>43725</v>
       </c>
@@ -10859,15 +13755,19 @@
         <v>49.428571428571431</v>
       </c>
       <c r="F102" s="2">
+        <f>SUM($D$2:$D102)/COUNT($D$2:$D102)</f>
+        <v>21.752475247524753</v>
+      </c>
+      <c r="G102" s="2">
         <f t="shared" si="6"/>
-        <v>2194.5300000000002</v>
-      </c>
-      <c r="G102" s="2">
+        <v>2185.62</v>
+      </c>
+      <c r="H102" s="2">
         <f t="shared" si="7"/>
-        <v>2187.6799999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+        <v>2178.89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>43726</v>
       </c>
@@ -10887,15 +13787,19 @@
         <v>44.285714285714285</v>
       </c>
       <c r="F103" s="2">
+        <f>SUM($D$2:$D103)/COUNT($D$2:$D103)</f>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="G103" s="2">
         <f t="shared" si="6"/>
-        <v>2242.069</v>
-      </c>
-      <c r="G103" s="2">
+        <v>2232.8072999999999</v>
+      </c>
+      <c r="H103" s="2">
         <f t="shared" si="7"/>
-        <v>2232.9992000000002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+        <v>2224.5758000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>43727</v>
       </c>
@@ -10915,15 +13819,19 @@
         <v>42.285714285714285</v>
       </c>
       <c r="F104" s="2">
+        <f>SUM($D$2:$D104)/COUNT($D$2:$D104)</f>
+        <v>21.699029126213592</v>
+      </c>
+      <c r="G104" s="2">
         <f t="shared" si="6"/>
-        <v>2290.1154000000001</v>
-      </c>
-      <c r="G104" s="2">
+        <v>2280.4967999999999</v>
+      </c>
+      <c r="H104" s="2">
         <f t="shared" si="7"/>
-        <v>2278.7015999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+        <v>2270.6741999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>43728</v>
       </c>
@@ -10943,15 +13851,19 @@
         <v>41.714285714285715</v>
       </c>
       <c r="F105" s="2">
+        <f>SUM($D$2:$D105)/COUNT($D$2:$D105)</f>
+        <v>21.932692307692307</v>
+      </c>
+      <c r="G105" s="2">
         <f t="shared" si="6"/>
-        <v>2338.6691999999998</v>
-      </c>
-      <c r="G105" s="2">
+        <v>2328.6884999999997</v>
+      </c>
+      <c r="H105" s="2">
         <f t="shared" si="7"/>
-        <v>2324.7848000000004</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+        <v>2317.1834000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>43729</v>
       </c>
@@ -10971,18 +13883,22 @@
         <v>43</v>
       </c>
       <c r="F106" s="2">
+        <f>SUM($D$2:$D106)/COUNT($D$2:$D106)</f>
+        <v>22.552380952380954</v>
+      </c>
+      <c r="G106" s="2">
         <f t="shared" si="6"/>
-        <v>2387.7303999999999</v>
-      </c>
-      <c r="G106" s="2">
+        <v>2377.3824</v>
+      </c>
+      <c r="H106" s="2">
         <f t="shared" si="7"/>
-        <v>2371.2464000000004</v>
-      </c>
-      <c r="H106" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+        <v>2364.1016000000004</v>
+      </c>
+      <c r="I106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>43730</v>
       </c>
@@ -11002,18 +13918,22 @@
         <v>38.285714285714285</v>
       </c>
       <c r="F107" s="2">
+        <f>SUM($D$2:$D107)/COUNT($D$2:$D107)</f>
+        <v>22.613207547169811</v>
+      </c>
+      <c r="G107" s="2">
         <f t="shared" si="6"/>
-        <v>2437.299</v>
-      </c>
-      <c r="G107" s="2">
+        <v>2426.5785000000001</v>
+      </c>
+      <c r="H107" s="2">
         <f t="shared" si="7"/>
-        <v>2418.0840000000003</v>
-      </c>
-      <c r="H107" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+        <v>2411.4270000000001</v>
+      </c>
+      <c r="I107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>43731</v>
       </c>
@@ -11033,15 +13953,19 @@
         <v>43.142857142857146</v>
       </c>
       <c r="F108" s="2">
+        <f>SUM($D$2:$D108)/COUNT($D$2:$D108)</f>
+        <v>22.794392523364486</v>
+      </c>
+      <c r="G108" s="2">
         <f t="shared" si="6"/>
-        <v>2487.375</v>
-      </c>
-      <c r="G108" s="2">
+        <v>2476.2767999999996</v>
+      </c>
+      <c r="H108" s="2">
         <f t="shared" si="7"/>
-        <v>2465.2952000000005</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+        <v>2459.1578000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>43732</v>
       </c>
@@ -11061,15 +13985,19 @@
         <v>44.285714285714285</v>
       </c>
       <c r="F109" s="2">
+        <f>SUM($D$2:$D109)/COUNT($D$2:$D109)</f>
+        <v>23.212962962962962</v>
+      </c>
+      <c r="G109" s="2">
         <f t="shared" si="6"/>
-        <v>2537.9583999999995</v>
-      </c>
-      <c r="G109" s="2">
+        <v>2526.4773</v>
+      </c>
+      <c r="H109" s="2">
         <f t="shared" si="7"/>
-        <v>2512.8776000000007</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+        <v>2507.2921999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>43733</v>
       </c>
@@ -11089,15 +14017,19 @@
         <v>49.142857142857146</v>
       </c>
       <c r="F110" s="2">
+        <f>SUM($D$2:$D110)/COUNT($D$2:$D110)</f>
+        <v>23.431192660550458</v>
+      </c>
+      <c r="G110" s="2">
         <f t="shared" si="6"/>
-        <v>2589.0491999999999</v>
-      </c>
-      <c r="G110" s="2">
+        <v>2577.1799999999998</v>
+      </c>
+      <c r="H110" s="2">
         <f t="shared" si="7"/>
-        <v>2560.8288000000002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+        <v>2555.8284000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>43734</v>
       </c>
@@ -11117,15 +14049,19 @@
         <v>49.428571428571431</v>
       </c>
       <c r="F111" s="2">
+        <f>SUM($D$2:$D111)/COUNT($D$2:$D111)</f>
+        <v>23.463636363636365</v>
+      </c>
+      <c r="G111" s="2">
         <f t="shared" si="6"/>
-        <v>2640.6473999999998</v>
-      </c>
-      <c r="G111" s="2">
+        <v>2628.3848999999996</v>
+      </c>
+      <c r="H111" s="2">
         <f t="shared" si="7"/>
-        <v>2609.1464000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+        <v>2604.7646000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>43735</v>
       </c>
@@ -11145,15 +14081,19 @@
         <v>49.857142857142854</v>
       </c>
       <c r="F112" s="2">
+        <f>SUM($D$2:$D112)/COUNT($D$2:$D112)</f>
+        <v>23.693693693693692</v>
+      </c>
+      <c r="G112" s="2">
         <f t="shared" si="6"/>
-        <v>2692.7530000000002</v>
-      </c>
-      <c r="G112" s="2">
+        <v>2680.0920000000001</v>
+      </c>
+      <c r="H112" s="2">
         <f t="shared" si="7"/>
-        <v>2657.828</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2654.0990000000006</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>43736</v>
       </c>
@@ -11173,15 +14113,19 @@
         <v>47.285714285714285</v>
       </c>
       <c r="F113" s="2">
+        <f>SUM($D$2:$D113)/COUNT($D$2:$D113)</f>
+        <v>24.098214285714285</v>
+      </c>
+      <c r="G113" s="2">
         <f t="shared" si="6"/>
-        <v>2745.3659999999995</v>
-      </c>
-      <c r="G113" s="2">
+        <v>2732.3013000000001</v>
+      </c>
+      <c r="H113" s="2">
         <f t="shared" si="7"/>
-        <v>2706.8712</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2703.8298000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>43737</v>
       </c>
@@ -11201,15 +14145,19 @@
         <v>54.428571428571431</v>
       </c>
       <c r="F114" s="2">
+        <f>SUM($D$2:$D114)/COUNT($D$2:$D114)</f>
+        <v>24.584070796460178</v>
+      </c>
+      <c r="G114" s="2">
         <f t="shared" si="6"/>
-        <v>2798.4863999999998</v>
-      </c>
-      <c r="G114" s="2">
+        <v>2785.0127999999995</v>
+      </c>
+      <c r="H114" s="2">
         <f t="shared" si="7"/>
-        <v>2756.2736000000004</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2753.9552000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>43738</v>
       </c>
@@ -11229,15 +14177,19 @@
         <v>52.428571428571431</v>
       </c>
       <c r="F115" s="2">
+        <f>SUM($D$2:$D115)/COUNT($D$2:$D115)</f>
+        <v>24.614035087719298</v>
+      </c>
+      <c r="G115" s="2">
         <f t="shared" si="6"/>
-        <v>2852.1141999999995</v>
-      </c>
-      <c r="G115" s="2">
+        <v>2838.2265000000002</v>
+      </c>
+      <c r="H115" s="2">
         <f t="shared" si="7"/>
-        <v>2806.0328000000004</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2804.4734000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>43739</v>
       </c>
@@ -11257,15 +14209,19 @@
         <v>46.857142857142854</v>
       </c>
       <c r="F116" s="2">
+        <f>SUM($D$2:$D116)/COUNT($D$2:$D116)</f>
+        <v>24.652173913043477</v>
+      </c>
+      <c r="G116" s="2">
         <f t="shared" si="6"/>
-        <v>2906.2493999999997</v>
-      </c>
-      <c r="G116" s="2">
+        <v>2891.9423999999999</v>
+      </c>
+      <c r="H116" s="2">
         <f t="shared" si="7"/>
-        <v>2856.1464000000005</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2855.3826000000004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>43740</v>
       </c>
@@ -11285,15 +14241,19 @@
         <v>47</v>
       </c>
       <c r="F117" s="2">
+        <f>SUM($D$2:$D117)/COUNT($D$2:$D117)</f>
+        <v>24.853448275862068</v>
+      </c>
+      <c r="G117" s="2">
         <f t="shared" si="6"/>
-        <v>2960.8919999999998</v>
-      </c>
-      <c r="G117" s="2">
+        <v>2946.1604999999995</v>
+      </c>
+      <c r="H117" s="2">
         <f t="shared" si="7"/>
-        <v>2906.612000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2906.6810000000005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>43741</v>
       </c>
@@ -11302,26 +14262,30 @@
         <v>116</v>
       </c>
       <c r="C118" s="3">
-        <v>2950</v>
+        <v>2941</v>
       </c>
       <c r="D118" s="2">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E118" s="2">
         <f t="shared" si="9"/>
-        <v>52.285714285714285</v>
+        <v>51</v>
       </c>
       <c r="F118" s="2">
+        <f>SUM($D$2:$D118)/COUNT($D$2:$D118)</f>
+        <v>25.111111111111111</v>
+      </c>
+      <c r="G118" s="2">
         <f t="shared" si="6"/>
-        <v>3016.0419999999999</v>
-      </c>
-      <c r="G118" s="2">
+        <v>3000.8807999999999</v>
+      </c>
+      <c r="H118" s="2">
         <f t="shared" si="7"/>
-        <v>2957.4271999999996</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2958.3668000000007</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>43742</v>
       </c>
@@ -11330,26 +14294,30 @@
         <v>117</v>
       </c>
       <c r="C119" s="3">
-        <v>2990</v>
+        <v>3021</v>
       </c>
       <c r="D119" s="2">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E119" s="2">
         <f t="shared" si="9"/>
-        <v>51</v>
+        <v>55.428571428571431</v>
       </c>
       <c r="F119" s="2">
+        <f>SUM($D$2:$D119)/COUNT($D$2:$D119)</f>
+        <v>25.576271186440678</v>
+      </c>
+      <c r="G119" s="2">
         <f t="shared" si="6"/>
-        <v>3071.6993999999995</v>
-      </c>
-      <c r="G119" s="2">
+        <v>3056.1032999999998</v>
+      </c>
+      <c r="H119" s="2">
         <f t="shared" si="7"/>
-        <v>3008.5896000000002</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3010.4382000000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>43743</v>
       </c>
@@ -11358,26 +14326,30 @@
         <v>118</v>
       </c>
       <c r="C120" s="3">
-        <v>3149</v>
+        <v>3105</v>
       </c>
       <c r="D120" s="2">
         <f t="shared" si="8"/>
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="E120" s="2">
         <f t="shared" si="9"/>
-        <v>63.857142857142854</v>
+        <v>57.571428571428569</v>
       </c>
       <c r="F120" s="2">
+        <f>SUM($D$2:$D120)/COUNT($D$2:$D120)</f>
+        <v>26.067226890756302</v>
+      </c>
+      <c r="G120" s="2">
         <f t="shared" si="6"/>
-        <v>3127.8642</v>
-      </c>
-      <c r="G120" s="2">
+        <v>3111.8279999999995</v>
+      </c>
+      <c r="H120" s="2">
         <f t="shared" si="7"/>
-        <v>3060.0967999999998</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3062.8934000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>43744</v>
       </c>
@@ -11385,16 +14357,31 @@
         <f t="shared" si="5"/>
         <v>119</v>
       </c>
+      <c r="C121" s="3">
+        <v>3216</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="8"/>
+        <v>111</v>
+      </c>
+      <c r="E121" s="2">
+        <f t="shared" si="9"/>
+        <v>62.142857142857146</v>
+      </c>
       <c r="F121" s="2">
+        <f>SUM($D$2:$D121)/COUNT($D$2:$D121)</f>
+        <v>26.774999999999999</v>
+      </c>
+      <c r="G121" s="2">
         <f t="shared" si="6"/>
-        <v>3184.5363999999995</v>
-      </c>
-      <c r="G121" s="2">
+        <v>3168.0549000000001</v>
+      </c>
+      <c r="H121" s="2">
         <f t="shared" si="7"/>
-        <v>3111.9464000000003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3115.7305999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>43745</v>
       </c>
@@ -11402,16 +14389,31 @@
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
+      <c r="C122" s="3">
+        <v>3258</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="E122" s="2">
+        <f t="shared" si="9"/>
+        <v>64.142857142857139</v>
+      </c>
       <c r="F122" s="2">
+        <f>SUM($D$2:$D122)/COUNT($D$2:$D122)</f>
+        <v>26.900826446280991</v>
+      </c>
+      <c r="G122" s="2">
         <f t="shared" si="6"/>
-        <v>3241.7159999999999</v>
-      </c>
-      <c r="G122" s="2">
+        <v>3224.7839999999997</v>
+      </c>
+      <c r="H122" s="2">
         <f t="shared" si="7"/>
-        <v>3164.1360000000009</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3168.9480000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>43746</v>
       </c>
@@ -11419,16 +14421,31 @@
         <f t="shared" si="5"/>
         <v>121</v>
       </c>
+      <c r="C123" s="3">
+        <v>3300</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="E123" s="2">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
       <c r="F123" s="2">
+        <f>SUM($D$2:$D123)/COUNT($D$2:$D123)</f>
+        <v>27.024590163934427</v>
+      </c>
+      <c r="G123" s="2">
         <f t="shared" si="6"/>
-        <v>3299.4029999999998</v>
-      </c>
-      <c r="G123" s="2">
+        <v>3282.0153</v>
+      </c>
+      <c r="H123" s="2">
         <f t="shared" si="7"/>
-        <v>3216.6632000000004</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3222.5438000000008</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>43747</v>
       </c>
@@ -11436,16 +14453,16 @@
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="F124" s="2">
+      <c r="G124" s="2">
         <f t="shared" si="6"/>
-        <v>3357.5973999999997</v>
-      </c>
-      <c r="G124" s="2">
+        <v>3339.7487999999998</v>
+      </c>
+      <c r="H124" s="2">
         <f t="shared" si="7"/>
-        <v>3269.5256000000008</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3276.5162000000005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>43748</v>
       </c>
@@ -11453,16 +14470,16 @@
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="F125" s="2">
+      <c r="G125" s="2">
         <f t="shared" si="6"/>
-        <v>3416.2991999999995</v>
-      </c>
-      <c r="G125" s="2">
+        <v>3397.9844999999996</v>
+      </c>
+      <c r="H125" s="2">
         <f t="shared" si="7"/>
-        <v>3322.7208000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3330.8634000000006</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>43749</v>
       </c>
@@ -11470,16 +14487,16 @@
         <f t="shared" si="5"/>
         <v>124</v>
       </c>
-      <c r="F126" s="2">
+      <c r="G126" s="2">
         <f t="shared" si="6"/>
-        <v>3475.5083999999997</v>
-      </c>
-      <c r="G126" s="2">
+        <v>3456.7223999999997</v>
+      </c>
+      <c r="H126" s="2">
         <f t="shared" si="7"/>
-        <v>3376.2464000000004</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3385.5836000000008</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>43750</v>
       </c>
@@ -11487,16 +14504,16 @@
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="F127" s="2">
+      <c r="G127" s="2">
         <f t="shared" si="6"/>
-        <v>3535.2249999999995</v>
-      </c>
-      <c r="G127" s="2">
+        <v>3515.9625000000001</v>
+      </c>
+      <c r="H127" s="2">
         <f t="shared" si="7"/>
-        <v>3430.1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3440.6750000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>43751</v>
       </c>
@@ -11504,16 +14521,16 @@
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
-      <c r="F128" s="2">
+      <c r="G128" s="2">
         <f t="shared" si="6"/>
-        <v>3595.4489999999996</v>
-      </c>
-      <c r="G128" s="2">
+        <v>3575.7048</v>
+      </c>
+      <c r="H128" s="2">
         <f t="shared" si="7"/>
-        <v>3484.2791999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+        <v>3496.1358</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>43752</v>
       </c>
@@ -11521,16 +14538,16 @@
         <f t="shared" si="5"/>
         <v>127</v>
       </c>
-      <c r="F129" s="2">
+      <c r="G129" s="2">
         <f t="shared" si="6"/>
-        <v>3656.1803999999997</v>
-      </c>
-      <c r="G129" s="2">
+        <v>3635.9493000000002</v>
+      </c>
+      <c r="H129" s="2">
         <f t="shared" si="7"/>
-        <v>3538.7816000000007</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+        <v>3551.9642000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>43753</v>
       </c>
@@ -11538,16 +14555,16 @@
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="F130" s="2">
+      <c r="G130" s="2">
         <f t="shared" si="6"/>
-        <v>3717.4191999999998</v>
-      </c>
-      <c r="G130" s="2">
+        <v>3696.6959999999999</v>
+      </c>
+      <c r="H130" s="2">
         <f t="shared" si="7"/>
-        <v>3593.6048000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+        <v>3608.1584000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>43754</v>
       </c>
@@ -11555,16 +14572,16 @@
         <f t="shared" ref="B131:B176" si="10">B130+1</f>
         <v>129</v>
       </c>
-      <c r="F131" s="2">
-        <f t="shared" ref="F131:F176" si="11">0.2537*B131^2-3.4547*B131+3</f>
-        <v>3779.1653999999994</v>
-      </c>
       <c r="G131" s="2">
-        <f t="shared" ref="G131:G176" si="12">-0.0004*B131^3+0.3128*B131^2-5.4332*B131+3</f>
-        <v>3648.7464000000009</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+        <f t="shared" ref="G131:G176" si="11">0.2511*B131^2-3.2838*B131+3</f>
+        <v>3757.9448999999995</v>
+      </c>
+      <c r="H131" s="2">
+        <f t="shared" ref="H131:H176" si="12">-0.0003*B131^3+0.2972*B131^2-4.9611*B131+3</f>
+        <v>3664.7166000000007</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>43755</v>
       </c>
@@ -11572,16 +14589,16 @@
         <f t="shared" si="10"/>
         <v>130</v>
       </c>
-      <c r="F132" s="2">
+      <c r="G132" s="2">
         <f t="shared" si="11"/>
-        <v>3841.4189999999999</v>
-      </c>
-      <c r="G132" s="2">
+        <v>3819.6959999999999</v>
+      </c>
+      <c r="H132" s="2">
         <f t="shared" si="12"/>
-        <v>3704.2040000000006</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+        <v>3721.6369999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>43756</v>
       </c>
@@ -11589,16 +14606,16 @@
         <f t="shared" si="10"/>
         <v>131</v>
       </c>
-      <c r="F133" s="2">
+      <c r="G133" s="2">
         <f t="shared" si="11"/>
-        <v>3904.1799999999994</v>
-      </c>
-      <c r="G133" s="2">
+        <v>3881.9492999999998</v>
+      </c>
+      <c r="H133" s="2">
         <f t="shared" si="12"/>
-        <v>3759.9752000000008</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+        <v>3778.9178000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>43757</v>
       </c>
@@ -11606,16 +14623,16 @@
         <f t="shared" si="10"/>
         <v>132</v>
       </c>
-      <c r="F134" s="2">
+      <c r="G134" s="2">
         <f t="shared" si="11"/>
-        <v>3967.4483999999998</v>
-      </c>
-      <c r="G134" s="2">
+        <v>3944.7048</v>
+      </c>
+      <c r="H134" s="2">
         <f t="shared" si="12"/>
-        <v>3816.0575999999996</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+        <v>3836.5572000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>43758</v>
       </c>
@@ -11623,19 +14640,19 @@
         <f t="shared" si="10"/>
         <v>133</v>
       </c>
-      <c r="F135" s="2">
+      <c r="G135" s="2">
         <f t="shared" si="11"/>
-        <v>4031.2241999999992</v>
-      </c>
-      <c r="G135" s="2">
+        <v>4007.9624999999996</v>
+      </c>
+      <c r="H135" s="2">
         <f t="shared" si="12"/>
-        <v>3872.4488000000001</v>
-      </c>
-      <c r="H135" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+        <v>3894.5534000000011</v>
+      </c>
+      <c r="I135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>43759</v>
       </c>
@@ -11643,16 +14660,16 @@
         <f t="shared" si="10"/>
         <v>134</v>
       </c>
-      <c r="F136" s="2">
+      <c r="G136" s="2">
         <f t="shared" si="11"/>
-        <v>4095.5073999999995</v>
-      </c>
-      <c r="G136" s="2">
+        <v>4071.7223999999997</v>
+      </c>
+      <c r="H136" s="2">
         <f t="shared" si="12"/>
-        <v>3929.1464000000001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+        <v>3952.9046000000008</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>43760</v>
       </c>
@@ -11660,16 +14677,16 @@
         <f t="shared" si="10"/>
         <v>135</v>
       </c>
-      <c r="F137" s="2">
+      <c r="G137" s="2">
         <f t="shared" si="11"/>
-        <v>4160.2979999999998</v>
-      </c>
-      <c r="G137" s="2">
+        <v>4135.9844999999996</v>
+      </c>
+      <c r="H137" s="2">
         <f t="shared" si="12"/>
-        <v>3986.148000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4011.6089999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>43761</v>
       </c>
@@ -11677,19 +14694,19 @@
         <f t="shared" si="10"/>
         <v>136</v>
       </c>
-      <c r="F138" s="2">
+      <c r="G138" s="2">
         <f t="shared" si="11"/>
-        <v>4225.5959999999995</v>
-      </c>
-      <c r="G138" s="2">
+        <v>4200.7487999999994</v>
+      </c>
+      <c r="H138" s="2">
         <f t="shared" si="12"/>
-        <v>4043.4512000000009</v>
-      </c>
-      <c r="H138" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4070.6647999999996</v>
+      </c>
+      <c r="I138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>43762</v>
       </c>
@@ -11697,16 +14714,16 @@
         <f t="shared" si="10"/>
         <v>137</v>
       </c>
-      <c r="F139" s="2">
+      <c r="G139" s="2">
         <f t="shared" si="11"/>
-        <v>4291.4013999999997</v>
-      </c>
-      <c r="G139" s="2">
+        <v>4266.0152999999991</v>
+      </c>
+      <c r="H139" s="2">
         <f t="shared" si="12"/>
-        <v>4101.0536000000002</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4130.070200000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>43763</v>
       </c>
@@ -11714,16 +14731,16 @@
         <f t="shared" si="10"/>
         <v>138</v>
       </c>
-      <c r="F140" s="2">
+      <c r="G140" s="2">
         <f t="shared" si="11"/>
-        <v>4357.7141999999994</v>
-      </c>
-      <c r="G140" s="2">
+        <v>4331.7840000000006</v>
+      </c>
+      <c r="H140" s="2">
         <f t="shared" si="12"/>
-        <v>4158.9528</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4189.8234000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>43764</v>
       </c>
@@ -11731,16 +14748,16 @@
         <f t="shared" si="10"/>
         <v>139</v>
       </c>
-      <c r="F141" s="2">
+      <c r="G141" s="2">
         <f t="shared" si="11"/>
-        <v>4424.5343999999996</v>
-      </c>
-      <c r="G141" s="2">
+        <v>4398.0549000000001</v>
+      </c>
+      <c r="H141" s="2">
         <f t="shared" si="12"/>
-        <v>4217.1464000000014</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4249.9226000000008</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>43765</v>
       </c>
@@ -11748,16 +14765,16 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="F142" s="2">
+      <c r="G142" s="2">
         <f t="shared" si="11"/>
-        <v>4491.8619999999992</v>
-      </c>
-      <c r="G142" s="2">
+        <v>4464.8279999999995</v>
+      </c>
+      <c r="H142" s="2">
         <f t="shared" si="12"/>
-        <v>4275.6319999999996</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4310.3660000000009</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>43766</v>
       </c>
@@ -11765,16 +14782,16 @@
         <f t="shared" si="10"/>
         <v>141</v>
       </c>
-      <c r="F143" s="2">
+      <c r="G143" s="2">
         <f t="shared" si="11"/>
-        <v>4559.6970000000001</v>
-      </c>
-      <c r="G143" s="2">
+        <v>4532.1032999999998</v>
+      </c>
+      <c r="H143" s="2">
         <f t="shared" si="12"/>
-        <v>4334.4071999999996</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4371.1518000000005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>43767</v>
       </c>
@@ -11782,16 +14799,16 @@
         <f t="shared" si="10"/>
         <v>142</v>
       </c>
-      <c r="F144" s="2">
+      <c r="G144" s="2">
         <f t="shared" si="11"/>
-        <v>4628.0393999999997</v>
-      </c>
-      <c r="G144" s="2">
+        <v>4599.8807999999999</v>
+      </c>
+      <c r="H144" s="2">
         <f t="shared" si="12"/>
-        <v>4393.4696000000004</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4432.2782000000007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>43768</v>
       </c>
@@ -11799,16 +14816,16 @@
         <f t="shared" si="10"/>
         <v>143</v>
       </c>
-      <c r="F145" s="2">
+      <c r="G145" s="2">
         <f t="shared" si="11"/>
-        <v>4696.8891999999996</v>
-      </c>
-      <c r="G145" s="2">
+        <v>4668.1605</v>
+      </c>
+      <c r="H145" s="2">
         <f t="shared" si="12"/>
-        <v>4452.8167999999996</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4493.7434000000012</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>43769</v>
       </c>
@@ -11816,16 +14833,16 @@
         <f t="shared" si="10"/>
         <v>144</v>
       </c>
-      <c r="F146" s="2">
+      <c r="G146" s="2">
         <f t="shared" si="11"/>
-        <v>4766.2463999999991</v>
-      </c>
-      <c r="G146" s="2">
+        <v>4736.9423999999999</v>
+      </c>
+      <c r="H146" s="2">
         <f t="shared" si="12"/>
-        <v>4512.4463999999998</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4555.5456000000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>43770</v>
       </c>
@@ -11833,16 +14850,16 @@
         <f t="shared" si="10"/>
         <v>145</v>
       </c>
-      <c r="F147" s="2">
+      <c r="G147" s="2">
         <f t="shared" si="11"/>
-        <v>4836.1109999999999</v>
-      </c>
-      <c r="G147" s="2">
+        <v>4806.2264999999998</v>
+      </c>
+      <c r="H147" s="2">
         <f t="shared" si="12"/>
-        <v>4572.3560000000007</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4617.6830000000009</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>43771</v>
       </c>
@@ -11850,16 +14867,16 @@
         <f t="shared" si="10"/>
         <v>146</v>
       </c>
-      <c r="F148" s="2">
+      <c r="G148" s="2">
         <f t="shared" si="11"/>
-        <v>4906.4829999999993</v>
-      </c>
-      <c r="G148" s="2">
+        <v>4876.0127999999995</v>
+      </c>
+      <c r="H148" s="2">
         <f t="shared" si="12"/>
-        <v>4632.5432000000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4680.1538</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>43772</v>
       </c>
@@ -11867,16 +14884,16 @@
         <f t="shared" si="10"/>
         <v>147</v>
       </c>
-      <c r="F149" s="2">
+      <c r="G149" s="2">
         <f t="shared" si="11"/>
-        <v>4977.3623999999991</v>
-      </c>
-      <c r="G149" s="2">
+        <v>4946.3013000000001</v>
+      </c>
+      <c r="H149" s="2">
         <f t="shared" si="12"/>
-        <v>4693.0056000000004</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4742.9562000000005</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>43773</v>
       </c>
@@ -11884,16 +14901,16 @@
         <f t="shared" si="10"/>
         <v>148</v>
       </c>
-      <c r="F150" s="2">
+      <c r="G150" s="2">
         <f t="shared" si="11"/>
-        <v>5048.7491999999993</v>
-      </c>
-      <c r="G150" s="2">
+        <v>5017.0919999999996</v>
+      </c>
+      <c r="H150" s="2">
         <f t="shared" si="12"/>
-        <v>4753.7408000000005</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4806.0884000000005</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>43774</v>
       </c>
@@ -11901,16 +14918,16 @@
         <f t="shared" si="10"/>
         <v>149</v>
       </c>
-      <c r="F151" s="2">
+      <c r="G151" s="2">
         <f t="shared" si="11"/>
-        <v>5120.6433999999999</v>
-      </c>
-      <c r="G151" s="2">
+        <v>5088.3849</v>
+      </c>
+      <c r="H151" s="2">
         <f t="shared" si="12"/>
-        <v>4814.7464</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4869.5486000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>43775</v>
       </c>
@@ -11918,16 +14935,16 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="F152" s="2">
+      <c r="G152" s="2">
         <f t="shared" si="11"/>
-        <v>5193.0450000000001</v>
-      </c>
-      <c r="G152" s="2">
+        <v>5160.18</v>
+      </c>
+      <c r="H152" s="2">
         <f t="shared" si="12"/>
-        <v>4876.0200000000004</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4933.335</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>43776</v>
       </c>
@@ -11935,16 +14952,16 @@
         <f t="shared" si="10"/>
         <v>151</v>
       </c>
-      <c r="F153" s="2">
+      <c r="G153" s="2">
         <f t="shared" si="11"/>
-        <v>5265.9539999999997</v>
-      </c>
-      <c r="G153" s="2">
+        <v>5232.4772999999996</v>
+      </c>
+      <c r="H153" s="2">
         <f t="shared" si="12"/>
-        <v>4937.5592000000006</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4997.4458000000004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>43777</v>
       </c>
@@ -11952,16 +14969,16 @@
         <f t="shared" si="10"/>
         <v>152</v>
       </c>
-      <c r="F154" s="2">
+      <c r="G154" s="2">
         <f t="shared" si="11"/>
-        <v>5339.3703999999998</v>
-      </c>
-      <c r="G154" s="2">
+        <v>5305.2767999999996</v>
+      </c>
+      <c r="H154" s="2">
         <f t="shared" si="12"/>
-        <v>4999.3616000000002</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5061.8792000000012</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>43778</v>
       </c>
@@ -11969,16 +14986,16 @@
         <f t="shared" si="10"/>
         <v>153</v>
       </c>
-      <c r="F155" s="2">
+      <c r="G155" s="2">
         <f t="shared" si="11"/>
-        <v>5413.2942000000003</v>
-      </c>
-      <c r="G155" s="2">
+        <v>5378.5784999999996</v>
+      </c>
+      <c r="H155" s="2">
         <f t="shared" si="12"/>
-        <v>5061.4248000000007</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5126.6333999999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>43779</v>
       </c>
@@ -11986,16 +15003,16 @@
         <f t="shared" si="10"/>
         <v>154</v>
       </c>
-      <c r="F156" s="2">
+      <c r="G156" s="2">
         <f t="shared" si="11"/>
-        <v>5487.7253999999994</v>
-      </c>
-      <c r="G156" s="2">
+        <v>5452.3823999999995</v>
+      </c>
+      <c r="H156" s="2">
         <f t="shared" si="12"/>
-        <v>5123.7464</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5191.7066000000013</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>43780</v>
       </c>
@@ -12003,16 +15020,16 @@
         <f t="shared" si="10"/>
         <v>155</v>
       </c>
-      <c r="F157" s="2">
+      <c r="G157" s="2">
         <f t="shared" si="11"/>
-        <v>5562.6639999999998</v>
-      </c>
-      <c r="G157" s="2">
+        <v>5526.6885000000002</v>
+      </c>
+      <c r="H157" s="2">
         <f t="shared" si="12"/>
-        <v>5186.3240000000005</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5257.0970000000007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>43781</v>
       </c>
@@ -12020,16 +15037,16 @@
         <f t="shared" si="10"/>
         <v>156</v>
       </c>
-      <c r="F158" s="2">
+      <c r="G158" s="2">
         <f t="shared" si="11"/>
-        <v>5638.1099999999988</v>
-      </c>
-      <c r="G158" s="2">
+        <v>5601.4967999999999</v>
+      </c>
+      <c r="H158" s="2">
         <f t="shared" si="12"/>
-        <v>5249.1552000000011</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5322.8028000000004</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>43782</v>
       </c>
@@ -12037,16 +15054,16 @@
         <f t="shared" si="10"/>
         <v>157</v>
       </c>
-      <c r="F159" s="2">
+      <c r="G159" s="2">
         <f t="shared" si="11"/>
-        <v>5714.0634</v>
-      </c>
-      <c r="G159" s="2">
+        <v>5676.8072999999995</v>
+      </c>
+      <c r="H159" s="2">
         <f t="shared" si="12"/>
-        <v>5312.2376000000004</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5388.8222000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>43783</v>
       </c>
@@ -12054,16 +15071,16 @@
         <f t="shared" si="10"/>
         <v>158</v>
       </c>
-      <c r="F160" s="2">
+      <c r="G160" s="2">
         <f t="shared" si="11"/>
-        <v>5790.5241999999998</v>
-      </c>
-      <c r="G160" s="2">
+        <v>5752.62</v>
+      </c>
+      <c r="H160" s="2">
         <f t="shared" si="12"/>
-        <v>5375.5688000000009</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5455.1534000000011</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>43784</v>
       </c>
@@ -12071,16 +15088,16 @@
         <f t="shared" si="10"/>
         <v>159</v>
       </c>
-      <c r="F161" s="2">
+      <c r="G161" s="2">
         <f t="shared" si="11"/>
-        <v>5867.4923999999992</v>
-      </c>
-      <c r="G161" s="2">
+        <v>5828.9348999999993</v>
+      </c>
+      <c r="H161" s="2">
         <f t="shared" si="12"/>
-        <v>5439.1463999999996</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5521.7946000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>43785</v>
       </c>
@@ -12088,16 +15105,16 @@
         <f t="shared" si="10"/>
         <v>160</v>
       </c>
-      <c r="F162" s="2">
+      <c r="G162" s="2">
         <f t="shared" si="11"/>
-        <v>5944.9679999999989</v>
-      </c>
-      <c r="G162" s="2">
+        <v>5905.7519999999995</v>
+      </c>
+      <c r="H162" s="2">
         <f t="shared" si="12"/>
-        <v>5502.9680000000008</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5588.7440000000006</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>43786</v>
       </c>
@@ -12105,16 +15122,16 @@
         <f t="shared" si="10"/>
         <v>161</v>
       </c>
-      <c r="F163" s="2">
+      <c r="G163" s="2">
         <f t="shared" si="11"/>
-        <v>6022.951</v>
-      </c>
-      <c r="G163" s="2">
+        <v>5983.0713000000005</v>
+      </c>
+      <c r="H163" s="2">
         <f t="shared" si="12"/>
-        <v>5567.0312000000004</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5655.9998000000005</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>43787</v>
       </c>
@@ -12122,16 +15139,16 @@
         <f t="shared" si="10"/>
         <v>162</v>
       </c>
-      <c r="F164" s="2">
+      <c r="G164" s="2">
         <f t="shared" si="11"/>
-        <v>6101.4413999999997</v>
-      </c>
-      <c r="G164" s="2">
+        <v>6060.8927999999996</v>
+      </c>
+      <c r="H164" s="2">
         <f t="shared" si="12"/>
-        <v>5631.3335999999999</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5723.5602000000008</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>43788</v>
       </c>
@@ -12139,16 +15156,16 @@
         <f t="shared" si="10"/>
         <v>163</v>
       </c>
-      <c r="F165" s="2">
+      <c r="G165" s="2">
         <f t="shared" si="11"/>
-        <v>6180.4391999999989</v>
-      </c>
-      <c r="G165" s="2">
+        <v>6139.2164999999995</v>
+      </c>
+      <c r="H165" s="2">
         <f t="shared" si="12"/>
-        <v>5695.8727999999992</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5791.4234000000006</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>43789</v>
       </c>
@@ -12156,16 +15173,16 @@
         <f t="shared" si="10"/>
         <v>164</v>
       </c>
-      <c r="F166" s="2">
+      <c r="G166" s="2">
         <f t="shared" si="11"/>
-        <v>6259.9444000000003</v>
-      </c>
-      <c r="G166" s="2">
+        <v>6218.0423999999994</v>
+      </c>
+      <c r="H166" s="2">
         <f t="shared" si="12"/>
-        <v>5760.6464000000014</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5859.5876000000007</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>43790</v>
       </c>
@@ -12173,16 +15190,16 @@
         <f t="shared" si="10"/>
         <v>165</v>
       </c>
-      <c r="F167" s="2">
+      <c r="G167" s="2">
         <f t="shared" si="11"/>
-        <v>6339.9569999999994</v>
-      </c>
-      <c r="G167" s="2">
+        <v>6297.3704999999991</v>
+      </c>
+      <c r="H167" s="2">
         <f t="shared" si="12"/>
-        <v>5825.652000000001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5928.0510000000004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>43791</v>
       </c>
@@ -12190,16 +15207,16 @@
         <f t="shared" si="10"/>
         <v>166</v>
       </c>
-      <c r="F168" s="2">
+      <c r="G168" s="2">
         <f t="shared" si="11"/>
-        <v>6420.4769999999999</v>
-      </c>
-      <c r="G168" s="2">
+        <v>6377.2008000000005</v>
+      </c>
+      <c r="H168" s="2">
         <f t="shared" si="12"/>
-        <v>5890.887200000001</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5996.8118000000004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>43792</v>
       </c>
@@ -12207,16 +15224,16 @@
         <f t="shared" si="10"/>
         <v>167</v>
       </c>
-      <c r="F169" s="2">
+      <c r="G169" s="2">
         <f t="shared" si="11"/>
-        <v>6501.5043999999989</v>
-      </c>
-      <c r="G169" s="2">
+        <v>6457.5333000000001</v>
+      </c>
+      <c r="H169" s="2">
         <f t="shared" si="12"/>
-        <v>5956.3496000000005</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+        <v>6065.8681999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>43793</v>
       </c>
@@ -12224,16 +15241,16 @@
         <f t="shared" si="10"/>
         <v>168</v>
       </c>
-      <c r="F170" s="2">
+      <c r="G170" s="2">
         <f t="shared" si="11"/>
-        <v>6583.0391999999993</v>
-      </c>
-      <c r="G170" s="2">
+        <v>6538.3679999999995</v>
+      </c>
+      <c r="H170" s="2">
         <f t="shared" si="12"/>
-        <v>6022.0368000000008</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+        <v>6135.2184000000007</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>43794</v>
       </c>
@@ -12241,16 +15258,16 @@
         <f t="shared" si="10"/>
         <v>169</v>
       </c>
-      <c r="F171" s="2">
+      <c r="G171" s="2">
         <f t="shared" si="11"/>
-        <v>6665.0814</v>
-      </c>
-      <c r="G171" s="2">
+        <v>6619.7048999999997</v>
+      </c>
+      <c r="H171" s="2">
         <f t="shared" si="12"/>
-        <v>6087.9464000000007</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+        <v>6204.8606</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>43795</v>
       </c>
@@ -12258,16 +15275,16 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="F172" s="2">
+      <c r="G172" s="2">
         <f t="shared" si="11"/>
-        <v>6747.6309999999994</v>
-      </c>
-      <c r="G172" s="2">
+        <v>6701.5439999999999</v>
+      </c>
+      <c r="H172" s="2">
         <f t="shared" si="12"/>
-        <v>6154.076</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+        <v>6274.7930000000006</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>43796</v>
       </c>
@@ -12275,16 +15292,16 @@
         <f t="shared" si="10"/>
         <v>171</v>
       </c>
-      <c r="F173" s="2">
+      <c r="G173" s="2">
         <f t="shared" si="11"/>
-        <v>6830.6879999999992</v>
-      </c>
-      <c r="G173" s="2">
+        <v>6783.885299999999</v>
+      </c>
+      <c r="H173" s="2">
         <f t="shared" si="12"/>
-        <v>6220.4232000000011</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+        <v>6345.0137999999997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>43797</v>
       </c>
@@ -12292,16 +15309,16 @@
         <f t="shared" si="10"/>
         <v>172</v>
       </c>
-      <c r="F174" s="2">
+      <c r="G174" s="2">
         <f t="shared" si="11"/>
-        <v>6914.2523999999994</v>
-      </c>
-      <c r="G174" s="2">
+        <v>6866.728799999999</v>
+      </c>
+      <c r="H174" s="2">
         <f t="shared" si="12"/>
-        <v>6286.9856</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+        <v>6415.521200000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>43798</v>
       </c>
@@ -12309,16 +15326,16 @@
         <f t="shared" si="10"/>
         <v>173</v>
       </c>
-      <c r="F175" s="2">
+      <c r="G175" s="2">
         <f t="shared" si="11"/>
-        <v>6998.3242</v>
-      </c>
-      <c r="G175" s="2">
+        <v>6950.0744999999997</v>
+      </c>
+      <c r="H175" s="2">
         <f t="shared" si="12"/>
-        <v>6353.7608000000018</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+        <v>6486.3134000000009</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>43799</v>
       </c>
@@ -12326,25 +15343,37 @@
         <f t="shared" si="10"/>
         <v>174</v>
       </c>
-      <c r="F176" s="2">
+      <c r="G176" s="2">
         <f t="shared" si="11"/>
-        <v>7082.9033999999992</v>
-      </c>
-      <c r="G176" s="2">
+        <v>7033.9223999999995</v>
+      </c>
+      <c r="H176" s="2">
         <f t="shared" si="12"/>
-        <v>6420.7464</v>
+        <v>6557.3886000000011</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="G1:H1048576 I1">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="greaterThan">
       <formula>$C1*1.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="between">
       <formula>$C1*0.75</formula>
       <formula>$C1*1.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="lessThan">
+      <formula>$C1*0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+      <formula>$C1*1.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="between">
+      <formula>$C1*0.75</formula>
+      <formula>$C1*1.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThan">
       <formula>$C1*0.75</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7383E8-39A8-4A1A-9D9B-08AC0E5586A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E924F2D4-9F95-4249-A5D0-BEA327F503A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Actual</t>
   </si>
@@ -112,28 +112,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -173,419 +152,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1617,13 +1183,25 @@
                   <c:v>3105</c:v>
                 </c:pt>
                 <c:pt idx="119" formatCode="#,##0">
-                  <c:v>3216</c:v>
+                  <c:v>3189</c:v>
                 </c:pt>
                 <c:pt idx="120" formatCode="#,##0">
-                  <c:v>3258</c:v>
+                  <c:v>3224</c:v>
                 </c:pt>
                 <c:pt idx="121" formatCode="#,##0">
-                  <c:v>3300</c:v>
+                  <c:v>3271</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="#,##0">
+                  <c:v>3358</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="#,##0">
+                  <c:v>3398</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="#,##0">
+                  <c:v>3461</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="#,##0">
+                  <c:v>3486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2902,13 +2480,25 @@
                   <c:v>3105</c:v>
                 </c:pt>
                 <c:pt idx="119" formatCode="#,##0">
-                  <c:v>3216</c:v>
+                  <c:v>3189</c:v>
                 </c:pt>
                 <c:pt idx="120" formatCode="#,##0">
-                  <c:v>3258</c:v>
+                  <c:v>3224</c:v>
                 </c:pt>
                 <c:pt idx="121" formatCode="#,##0">
-                  <c:v>3300</c:v>
+                  <c:v>3271</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="#,##0">
+                  <c:v>3358</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="#,##0">
+                  <c:v>3398</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="#,##0">
+                  <c:v>3461</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="#,##0">
+                  <c:v>3486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4231,13 +3821,25 @@
                   <c:v>57.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>62.142857142857146</c:v>
+                  <c:v>58.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>64.142857142857139</c:v>
+                  <c:v>59.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>66</c:v>
+                  <c:v>61.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>67.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>65.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>62.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>54.428571428571431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5513,13 +5115,25 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>111</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>42</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>42</c:v>
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6848,13 +6462,25 @@
                   <c:v>26.067226890756302</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>26.774999999999999</c:v>
+                  <c:v>26.55</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>26.900826446280991</c:v>
+                  <c:v>26.619834710743802</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>27.024590163934427</c:v>
+                  <c:v>26.78688524590164</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>27.276422764227643</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>27.379032258064516</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>27.664000000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>27.642857142857142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10398,7 +10024,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -12629,7 +12255,7 @@
         <v>791</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D123" si="8">C68-C67</f>
+        <f t="shared" ref="D68:D127" si="8">C68-C67</f>
         <v>16</v>
       </c>
       <c r="E68" s="2">
@@ -12831,7 +12457,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ref="E74:E123" si="9">(C74-C67)/7</f>
+        <f t="shared" ref="E74:E127" si="9">(C74-C67)/7</f>
         <v>55</v>
       </c>
       <c r="F74" s="2">
@@ -14358,19 +13984,19 @@
         <v>119</v>
       </c>
       <c r="C121" s="3">
-        <v>3216</v>
+        <v>3189</v>
       </c>
       <c r="D121" s="2">
         <f t="shared" si="8"/>
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E121" s="2">
         <f t="shared" si="9"/>
-        <v>62.142857142857146</v>
+        <v>58.285714285714285</v>
       </c>
       <c r="F121" s="2">
         <f>SUM($D$2:$D121)/COUNT($D$2:$D121)</f>
-        <v>26.774999999999999</v>
+        <v>26.55</v>
       </c>
       <c r="G121" s="2">
         <f t="shared" si="6"/>
@@ -14390,19 +14016,19 @@
         <v>120</v>
       </c>
       <c r="C122" s="3">
-        <v>3258</v>
+        <v>3224</v>
       </c>
       <c r="D122" s="2">
         <f t="shared" si="8"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E122" s="2">
         <f t="shared" si="9"/>
-        <v>64.142857142857139</v>
+        <v>59.285714285714285</v>
       </c>
       <c r="F122" s="2">
         <f>SUM($D$2:$D122)/COUNT($D$2:$D122)</f>
-        <v>26.900826446280991</v>
+        <v>26.619834710743802</v>
       </c>
       <c r="G122" s="2">
         <f t="shared" si="6"/>
@@ -14422,19 +14048,19 @@
         <v>121</v>
       </c>
       <c r="C123" s="3">
-        <v>3300</v>
+        <v>3271</v>
       </c>
       <c r="D123" s="2">
         <f t="shared" si="8"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E123" s="2">
         <f t="shared" si="9"/>
-        <v>66</v>
+        <v>61.857142857142854</v>
       </c>
       <c r="F123" s="2">
         <f>SUM($D$2:$D123)/COUNT($D$2:$D123)</f>
-        <v>27.024590163934427</v>
+        <v>26.78688524590164</v>
       </c>
       <c r="G123" s="2">
         <f t="shared" si="6"/>
@@ -14453,6 +14079,21 @@
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
+      <c r="C124" s="3">
+        <v>3358</v>
+      </c>
+      <c r="D124" s="2">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="E124" s="2">
+        <f t="shared" si="9"/>
+        <v>67.428571428571431</v>
+      </c>
+      <c r="F124" s="2">
+        <f>SUM($D$2:$D124)/COUNT($D$2:$D124)</f>
+        <v>27.276422764227643</v>
+      </c>
       <c r="G124" s="2">
         <f t="shared" si="6"/>
         <v>3339.7487999999998</v>
@@ -14470,6 +14111,21 @@
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
+      <c r="C125" s="3">
+        <v>3398</v>
+      </c>
+      <c r="D125" s="2">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="E125" s="2">
+        <f t="shared" si="9"/>
+        <v>65.285714285714292</v>
+      </c>
+      <c r="F125" s="2">
+        <f>SUM($D$2:$D125)/COUNT($D$2:$D125)</f>
+        <v>27.379032258064516</v>
+      </c>
       <c r="G125" s="2">
         <f t="shared" si="6"/>
         <v>3397.9844999999996</v>
@@ -14487,6 +14143,21 @@
         <f t="shared" si="5"/>
         <v>124</v>
       </c>
+      <c r="C126" s="3">
+        <v>3461</v>
+      </c>
+      <c r="D126" s="2">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="E126" s="2">
+        <f t="shared" si="9"/>
+        <v>62.857142857142854</v>
+      </c>
+      <c r="F126" s="2">
+        <f>SUM($D$2:$D126)/COUNT($D$2:$D126)</f>
+        <v>27.664000000000001</v>
+      </c>
       <c r="G126" s="2">
         <f t="shared" si="6"/>
         <v>3456.7223999999997</v>
@@ -14504,6 +14175,21 @@
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
+      <c r="C127" s="3">
+        <v>3486</v>
+      </c>
+      <c r="D127" s="2">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="E127" s="2">
+        <f t="shared" si="9"/>
+        <v>54.428571428571431</v>
+      </c>
+      <c r="F127" s="2">
+        <f>SUM($D$2:$D127)/COUNT($D$2:$D127)</f>
+        <v>27.642857142857142</v>
+      </c>
       <c r="G127" s="2">
         <f t="shared" si="6"/>
         <v>3515.9625000000001</v>
@@ -15354,15 +15040,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1048576 I1">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="greaterThan">
-      <formula>$C1*1.25</formula>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+      <formula>$C1*1.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="between">
-      <formula>$C1*0.75</formula>
-      <formula>$C1*1.25</formula>
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="between">
+      <formula>$C1*0.9</formula>
+      <formula>$C1*1.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="lessThan">
-      <formula>$C1*0.75</formula>
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
+      <formula>$C1*0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E924F2D4-9F95-4249-A5D0-BEA327F503A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FF9FC8-43D6-4ED5-A547-5A8804DFE6E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,49 +112,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1195,13 +1153,22 @@
                   <c:v>3358</c:v>
                 </c:pt>
                 <c:pt idx="123" formatCode="#,##0">
-                  <c:v>3398</c:v>
+                  <c:v>3362</c:v>
                 </c:pt>
                 <c:pt idx="124" formatCode="#,##0">
-                  <c:v>3461</c:v>
+                  <c:v>3442</c:v>
                 </c:pt>
                 <c:pt idx="125" formatCode="#,##0">
-                  <c:v>3486</c:v>
+                  <c:v>3507</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="#,##0">
+                  <c:v>3561</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="#,##0">
+                  <c:v>3609</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="#,##0">
+                  <c:v>3632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2492,13 +2459,22 @@
                   <c:v>3358</c:v>
                 </c:pt>
                 <c:pt idx="123" formatCode="#,##0">
-                  <c:v>3398</c:v>
+                  <c:v>3362</c:v>
                 </c:pt>
                 <c:pt idx="124" formatCode="#,##0">
-                  <c:v>3461</c:v>
+                  <c:v>3442</c:v>
                 </c:pt>
                 <c:pt idx="125" formatCode="#,##0">
-                  <c:v>3486</c:v>
+                  <c:v>3507</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="#,##0">
+                  <c:v>3561</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="#,##0">
+                  <c:v>3609</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="#,##0">
+                  <c:v>3632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3833,13 +3809,22 @@
                   <c:v>67.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>65.285714285714292</c:v>
+                  <c:v>60.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>62.857142857142854</c:v>
+                  <c:v>60.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>54.428571428571431</c:v>
+                  <c:v>57.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>53.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>51.571428571428569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5127,13 +5112,22 @@
                   <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>40</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>63</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>25</c:v>
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6474,13 +6468,22 @@
                   <c:v>27.276422764227643</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>27.379032258064516</c:v>
+                  <c:v>27.088709677419356</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>27.664000000000001</c:v>
+                  <c:v>27.512</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>27.642857142857142</c:v>
+                  <c:v>27.80952380952381</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>28.015748031496063</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>28.171875</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>28.131782945736433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10024,7 +10027,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -12255,7 +12258,7 @@
         <v>791</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D127" si="8">C68-C67</f>
+        <f t="shared" ref="D68:D130" si="8">C68-C67</f>
         <v>16</v>
       </c>
       <c r="E68" s="2">
@@ -12457,7 +12460,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ref="E74:E127" si="9">(C74-C67)/7</f>
+        <f t="shared" ref="E74:E137" si="9">(C74-C67)/7</f>
         <v>55</v>
       </c>
       <c r="F74" s="2">
@@ -14112,19 +14115,19 @@
         <v>123</v>
       </c>
       <c r="C125" s="3">
-        <v>3398</v>
+        <v>3362</v>
       </c>
       <c r="D125" s="2">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E125" s="2">
         <f t="shared" si="9"/>
-        <v>65.285714285714292</v>
+        <v>60.142857142857146</v>
       </c>
       <c r="F125" s="2">
         <f>SUM($D$2:$D125)/COUNT($D$2:$D125)</f>
-        <v>27.379032258064516</v>
+        <v>27.088709677419356</v>
       </c>
       <c r="G125" s="2">
         <f t="shared" si="6"/>
@@ -14144,19 +14147,19 @@
         <v>124</v>
       </c>
       <c r="C126" s="3">
-        <v>3461</v>
+        <v>3442</v>
       </c>
       <c r="D126" s="2">
         <f t="shared" si="8"/>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E126" s="2">
         <f t="shared" si="9"/>
-        <v>62.857142857142854</v>
+        <v>60.142857142857146</v>
       </c>
       <c r="F126" s="2">
         <f>SUM($D$2:$D126)/COUNT($D$2:$D126)</f>
-        <v>27.664000000000001</v>
+        <v>27.512</v>
       </c>
       <c r="G126" s="2">
         <f t="shared" si="6"/>
@@ -14176,19 +14179,19 @@
         <v>125</v>
       </c>
       <c r="C127" s="3">
-        <v>3486</v>
+        <v>3507</v>
       </c>
       <c r="D127" s="2">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E127" s="2">
         <f t="shared" si="9"/>
-        <v>54.428571428571431</v>
+        <v>57.428571428571431</v>
       </c>
       <c r="F127" s="2">
         <f>SUM($D$2:$D127)/COUNT($D$2:$D127)</f>
-        <v>27.642857142857142</v>
+        <v>27.80952380952381</v>
       </c>
       <c r="G127" s="2">
         <f t="shared" si="6"/>
@@ -14207,6 +14210,21 @@
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
+      <c r="C128" s="3">
+        <v>3561</v>
+      </c>
+      <c r="D128" s="2">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="E128" s="2">
+        <f t="shared" si="9"/>
+        <v>53.142857142857146</v>
+      </c>
+      <c r="F128" s="2">
+        <f>SUM($D$2:$D128)/COUNT($D$2:$D128)</f>
+        <v>28.015748031496063</v>
+      </c>
       <c r="G128" s="2">
         <f t="shared" si="6"/>
         <v>3575.7048</v>
@@ -14224,6 +14242,21 @@
         <f t="shared" si="5"/>
         <v>127</v>
       </c>
+      <c r="C129" s="3">
+        <v>3609</v>
+      </c>
+      <c r="D129" s="2">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="E129" s="2">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="F129" s="2">
+        <f>SUM($D$2:$D129)/COUNT($D$2:$D129)</f>
+        <v>28.171875</v>
+      </c>
       <c r="G129" s="2">
         <f t="shared" si="6"/>
         <v>3635.9493000000002</v>
@@ -14241,6 +14274,21 @@
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
+      <c r="C130" s="3">
+        <v>3632</v>
+      </c>
+      <c r="D130" s="2">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="E130" s="2">
+        <f t="shared" si="9"/>
+        <v>51.571428571428569</v>
+      </c>
+      <c r="F130" s="2">
+        <f>SUM($D$2:$D130)/COUNT($D$2:$D130)</f>
+        <v>28.131782945736433</v>
+      </c>
       <c r="G130" s="2">
         <f t="shared" si="6"/>
         <v>3696.6959999999999</v>
@@ -14258,6 +14306,7 @@
         <f t="shared" ref="B131:B176" si="10">B130+1</f>
         <v>129</v>
       </c>
+      <c r="E131" s="2"/>
       <c r="G131" s="2">
         <f t="shared" ref="G131:G176" si="11">0.2511*B131^2-3.2838*B131+3</f>
         <v>3757.9448999999995</v>
@@ -14275,6 +14324,7 @@
         <f t="shared" si="10"/>
         <v>130</v>
       </c>
+      <c r="E132" s="2"/>
       <c r="G132" s="2">
         <f t="shared" si="11"/>
         <v>3819.6959999999999</v>
@@ -14292,6 +14342,7 @@
         <f t="shared" si="10"/>
         <v>131</v>
       </c>
+      <c r="E133" s="2"/>
       <c r="G133" s="2">
         <f t="shared" si="11"/>
         <v>3881.9492999999998</v>
@@ -14309,6 +14360,7 @@
         <f t="shared" si="10"/>
         <v>132</v>
       </c>
+      <c r="E134" s="2"/>
       <c r="G134" s="2">
         <f t="shared" si="11"/>
         <v>3944.7048</v>
@@ -14326,6 +14378,7 @@
         <f t="shared" si="10"/>
         <v>133</v>
       </c>
+      <c r="E135" s="2"/>
       <c r="G135" s="2">
         <f t="shared" si="11"/>
         <v>4007.9624999999996</v>
@@ -14346,6 +14399,7 @@
         <f t="shared" si="10"/>
         <v>134</v>
       </c>
+      <c r="E136" s="2"/>
       <c r="G136" s="2">
         <f t="shared" si="11"/>
         <v>4071.7223999999997</v>
@@ -14363,6 +14417,7 @@
         <f t="shared" si="10"/>
         <v>135</v>
       </c>
+      <c r="E137" s="2"/>
       <c r="G137" s="2">
         <f t="shared" si="11"/>
         <v>4135.9844999999996</v>
@@ -14380,6 +14435,7 @@
         <f t="shared" si="10"/>
         <v>136</v>
       </c>
+      <c r="E138" s="2"/>
       <c r="G138" s="2">
         <f t="shared" si="11"/>
         <v>4200.7487999999994</v>
@@ -14400,6 +14456,7 @@
         <f t="shared" si="10"/>
         <v>137</v>
       </c>
+      <c r="E139" s="2"/>
       <c r="G139" s="2">
         <f t="shared" si="11"/>
         <v>4266.0152999999991</v>
@@ -14417,6 +14474,7 @@
         <f t="shared" si="10"/>
         <v>138</v>
       </c>
+      <c r="E140" s="2"/>
       <c r="G140" s="2">
         <f t="shared" si="11"/>
         <v>4331.7840000000006</v>
@@ -14434,6 +14492,7 @@
         <f t="shared" si="10"/>
         <v>139</v>
       </c>
+      <c r="E141" s="2"/>
       <c r="G141" s="2">
         <f t="shared" si="11"/>
         <v>4398.0549000000001</v>
@@ -14451,6 +14510,7 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
+      <c r="E142" s="2"/>
       <c r="G142" s="2">
         <f t="shared" si="11"/>
         <v>4464.8279999999995</v>
@@ -14468,6 +14528,7 @@
         <f t="shared" si="10"/>
         <v>141</v>
       </c>
+      <c r="E143" s="2"/>
       <c r="G143" s="2">
         <f t="shared" si="11"/>
         <v>4532.1032999999998</v>
@@ -14485,6 +14546,7 @@
         <f t="shared" si="10"/>
         <v>142</v>
       </c>
+      <c r="E144" s="2"/>
       <c r="G144" s="2">
         <f t="shared" si="11"/>
         <v>4599.8807999999999</v>
@@ -14502,6 +14564,7 @@
         <f t="shared" si="10"/>
         <v>143</v>
       </c>
+      <c r="E145" s="2"/>
       <c r="G145" s="2">
         <f t="shared" si="11"/>
         <v>4668.1605</v>
@@ -14519,6 +14582,7 @@
         <f t="shared" si="10"/>
         <v>144</v>
       </c>
+      <c r="E146" s="2"/>
       <c r="G146" s="2">
         <f t="shared" si="11"/>
         <v>4736.9423999999999</v>
@@ -14536,6 +14600,7 @@
         <f t="shared" si="10"/>
         <v>145</v>
       </c>
+      <c r="E147" s="2"/>
       <c r="G147" s="2">
         <f t="shared" si="11"/>
         <v>4806.2264999999998</v>
@@ -14553,6 +14618,7 @@
         <f t="shared" si="10"/>
         <v>146</v>
       </c>
+      <c r="E148" s="2"/>
       <c r="G148" s="2">
         <f t="shared" si="11"/>
         <v>4876.0127999999995</v>
@@ -14570,6 +14636,7 @@
         <f t="shared" si="10"/>
         <v>147</v>
       </c>
+      <c r="E149" s="2"/>
       <c r="G149" s="2">
         <f t="shared" si="11"/>
         <v>4946.3013000000001</v>
@@ -14587,6 +14654,7 @@
         <f t="shared" si="10"/>
         <v>148</v>
       </c>
+      <c r="E150" s="2"/>
       <c r="G150" s="2">
         <f t="shared" si="11"/>
         <v>5017.0919999999996</v>
@@ -14604,6 +14672,7 @@
         <f t="shared" si="10"/>
         <v>149</v>
       </c>
+      <c r="E151" s="2"/>
       <c r="G151" s="2">
         <f t="shared" si="11"/>
         <v>5088.3849</v>
@@ -14621,6 +14690,7 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
+      <c r="E152" s="2"/>
       <c r="G152" s="2">
         <f t="shared" si="11"/>
         <v>5160.18</v>
@@ -14638,6 +14708,7 @@
         <f t="shared" si="10"/>
         <v>151</v>
       </c>
+      <c r="E153" s="2"/>
       <c r="G153" s="2">
         <f t="shared" si="11"/>
         <v>5232.4772999999996</v>
@@ -14655,6 +14726,7 @@
         <f t="shared" si="10"/>
         <v>152</v>
       </c>
+      <c r="E154" s="2"/>
       <c r="G154" s="2">
         <f t="shared" si="11"/>
         <v>5305.2767999999996</v>
@@ -14672,6 +14744,7 @@
         <f t="shared" si="10"/>
         <v>153</v>
       </c>
+      <c r="E155" s="2"/>
       <c r="G155" s="2">
         <f t="shared" si="11"/>
         <v>5378.5784999999996</v>
@@ -14689,6 +14762,7 @@
         <f t="shared" si="10"/>
         <v>154</v>
       </c>
+      <c r="E156" s="2"/>
       <c r="G156" s="2">
         <f t="shared" si="11"/>
         <v>5452.3823999999995</v>
@@ -14706,6 +14780,7 @@
         <f t="shared" si="10"/>
         <v>155</v>
       </c>
+      <c r="E157" s="2"/>
       <c r="G157" s="2">
         <f t="shared" si="11"/>
         <v>5526.6885000000002</v>
@@ -14723,6 +14798,7 @@
         <f t="shared" si="10"/>
         <v>156</v>
       </c>
+      <c r="E158" s="2"/>
       <c r="G158" s="2">
         <f t="shared" si="11"/>
         <v>5601.4967999999999</v>
@@ -14740,6 +14816,7 @@
         <f t="shared" si="10"/>
         <v>157</v>
       </c>
+      <c r="E159" s="2"/>
       <c r="G159" s="2">
         <f t="shared" si="11"/>
         <v>5676.8072999999995</v>
@@ -14757,6 +14834,7 @@
         <f t="shared" si="10"/>
         <v>158</v>
       </c>
+      <c r="E160" s="2"/>
       <c r="G160" s="2">
         <f t="shared" si="11"/>
         <v>5752.62</v>
@@ -14774,6 +14852,7 @@
         <f t="shared" si="10"/>
         <v>159</v>
       </c>
+      <c r="E161" s="2"/>
       <c r="G161" s="2">
         <f t="shared" si="11"/>
         <v>5828.9348999999993</v>
@@ -14791,6 +14870,7 @@
         <f t="shared" si="10"/>
         <v>160</v>
       </c>
+      <c r="E162" s="2"/>
       <c r="G162" s="2">
         <f t="shared" si="11"/>
         <v>5905.7519999999995</v>
@@ -14808,6 +14888,7 @@
         <f t="shared" si="10"/>
         <v>161</v>
       </c>
+      <c r="E163" s="2"/>
       <c r="G163" s="2">
         <f t="shared" si="11"/>
         <v>5983.0713000000005</v>
@@ -14825,6 +14906,7 @@
         <f t="shared" si="10"/>
         <v>162</v>
       </c>
+      <c r="E164" s="2"/>
       <c r="G164" s="2">
         <f t="shared" si="11"/>
         <v>6060.8927999999996</v>
@@ -14842,6 +14924,7 @@
         <f t="shared" si="10"/>
         <v>163</v>
       </c>
+      <c r="E165" s="2"/>
       <c r="G165" s="2">
         <f t="shared" si="11"/>
         <v>6139.2164999999995</v>
@@ -14859,6 +14942,7 @@
         <f t="shared" si="10"/>
         <v>164</v>
       </c>
+      <c r="E166" s="2"/>
       <c r="G166" s="2">
         <f t="shared" si="11"/>
         <v>6218.0423999999994</v>
@@ -14876,6 +14960,7 @@
         <f t="shared" si="10"/>
         <v>165</v>
       </c>
+      <c r="E167" s="2"/>
       <c r="G167" s="2">
         <f t="shared" si="11"/>
         <v>6297.3704999999991</v>
@@ -14893,6 +14978,7 @@
         <f t="shared" si="10"/>
         <v>166</v>
       </c>
+      <c r="E168" s="2"/>
       <c r="G168" s="2">
         <f t="shared" si="11"/>
         <v>6377.2008000000005</v>
@@ -14910,6 +14996,7 @@
         <f t="shared" si="10"/>
         <v>167</v>
       </c>
+      <c r="E169" s="2"/>
       <c r="G169" s="2">
         <f t="shared" si="11"/>
         <v>6457.5333000000001</v>
@@ -14927,6 +15014,7 @@
         <f t="shared" si="10"/>
         <v>168</v>
       </c>
+      <c r="E170" s="2"/>
       <c r="G170" s="2">
         <f t="shared" si="11"/>
         <v>6538.3679999999995</v>
@@ -14944,6 +15032,7 @@
         <f t="shared" si="10"/>
         <v>169</v>
       </c>
+      <c r="E171" s="2"/>
       <c r="G171" s="2">
         <f t="shared" si="11"/>
         <v>6619.7048999999997</v>
@@ -14961,6 +15050,7 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
+      <c r="E172" s="2"/>
       <c r="G172" s="2">
         <f t="shared" si="11"/>
         <v>6701.5439999999999</v>
@@ -14978,6 +15068,7 @@
         <f t="shared" si="10"/>
         <v>171</v>
       </c>
+      <c r="E173" s="2"/>
       <c r="G173" s="2">
         <f t="shared" si="11"/>
         <v>6783.885299999999</v>
@@ -14995,6 +15086,7 @@
         <f t="shared" si="10"/>
         <v>172</v>
       </c>
+      <c r="E174" s="2"/>
       <c r="G174" s="2">
         <f t="shared" si="11"/>
         <v>6866.728799999999</v>
@@ -15012,6 +15104,7 @@
         <f t="shared" si="10"/>
         <v>173</v>
       </c>
+      <c r="E175" s="2"/>
       <c r="G175" s="2">
         <f t="shared" si="11"/>
         <v>6950.0744999999997</v>
@@ -15029,6 +15122,7 @@
         <f t="shared" si="10"/>
         <v>174</v>
       </c>
+      <c r="E176" s="2"/>
       <c r="G176" s="2">
         <f t="shared" si="11"/>
         <v>7033.9223999999995</v>
@@ -15040,26 +15134,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1048576 I1">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
       <formula>$C1*1.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="between">
       <formula>$C1*0.9</formula>
       <formula>$C1*1.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="lessThan">
       <formula>$C1*0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>$C1*1.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
       <formula>$C1*0.75</formula>
       <formula>$C1*1.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="lessThan">
       <formula>$C1*0.75</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FF9FC8-43D6-4ED5-A547-5A8804DFE6E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5252BFB7-F318-4847-8652-24C86ABCEE59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Actual</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Average/Ever</t>
+  </si>
+  <si>
+    <t>Poly2 Expected to hit 5k - 10/25/19</t>
+  </si>
+  <si>
+    <t>Poly3 Expected to hit 5k - 10/25/19</t>
   </si>
 </sst>
 </file>
@@ -1162,13 +1168,37 @@
                   <c:v>3507</c:v>
                 </c:pt>
                 <c:pt idx="126" formatCode="#,##0">
-                  <c:v>3561</c:v>
+                  <c:v>3533</c:v>
                 </c:pt>
                 <c:pt idx="127" formatCode="#,##0">
-                  <c:v>3609</c:v>
+                  <c:v>3601</c:v>
                 </c:pt>
                 <c:pt idx="128" formatCode="#,##0">
-                  <c:v>3632</c:v>
+                  <c:v>3636</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="#,##0">
+                  <c:v>3705</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="#,##0">
+                  <c:v>3723</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="#,##0">
+                  <c:v>3806</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="#,##0">
+                  <c:v>3822</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="#,##0">
+                  <c:v>3873</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="#,##0">
+                  <c:v>3908</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="#,##0">
+                  <c:v>3961</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="#,##0">
+                  <c:v>4023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2468,13 +2498,37 @@
                   <c:v>3507</c:v>
                 </c:pt>
                 <c:pt idx="126" formatCode="#,##0">
-                  <c:v>3561</c:v>
+                  <c:v>3533</c:v>
                 </c:pt>
                 <c:pt idx="127" formatCode="#,##0">
-                  <c:v>3609</c:v>
+                  <c:v>3601</c:v>
                 </c:pt>
                 <c:pt idx="128" formatCode="#,##0">
-                  <c:v>3632</c:v>
+                  <c:v>3636</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="#,##0">
+                  <c:v>3705</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="#,##0">
+                  <c:v>3723</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="#,##0">
+                  <c:v>3806</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="#,##0">
+                  <c:v>3822</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="#,##0">
+                  <c:v>3873</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="#,##0">
+                  <c:v>3908</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="#,##0">
+                  <c:v>3961</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="#,##0">
+                  <c:v>4023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3818,13 +3872,37 @@
                   <c:v>57.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>53.142857142857146</c:v>
+                  <c:v>49.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>55</c:v>
+                  <c:v>53.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="128">
+                  <c:v>52.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>49.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>51.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>48.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>46.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>45.428571428571431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5121,13 +5199,37 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>54</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>48</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>23</c:v>
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6477,13 +6579,37 @@
                   <c:v>27.80952380952381</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>28.015748031496063</c:v>
+                  <c:v>27.795275590551181</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>28.171875</c:v>
+                  <c:v>28.109375</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>28.131782945736433</c:v>
+                  <c:v>28.162790697674417</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>28.476923076923075</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>28.396946564885496</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>28.810606060606062</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>28.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>28.880597014925375</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>28.925925925925927</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>29.102941176470587</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>29.343065693430656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10027,7 +10153,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S36" sqref="S36"/>
+      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -10091,11 +10217,11 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>0.2511*B2^2-3.2838*B2+3</f>
+        <f>0.2429*B2^2-2.6363*B2+3</f>
         <v>3</v>
       </c>
       <c r="H2" s="2">
-        <f>-0.0003*B2^3+0.2972*B2^2-4.9611*B2+3</f>
+        <f>-0.0004*B2^3+0.3111*B2^2-5.4294*B2+3</f>
         <v>3</v>
       </c>
       <c r="I2" s="2"/>
@@ -10125,12 +10251,12 @@
         <v>0.5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="1">0.2511*B3^2-3.2838*B3+3</f>
-        <v>-3.2699999999999729E-2</v>
+        <f t="shared" ref="G3:G66" si="1">0.2429*B3^2-2.6363*B3+3</f>
+        <v>0.60660000000000025</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H66" si="2">-0.0003*B3^3+0.2972*B3^2-4.9611*B3+3</f>
-        <v>-1.6642000000000001</v>
+        <f t="shared" ref="H3:H66" si="2">-0.0004*B3^3+0.3111*B3^2-5.4294*B3+3</f>
+        <v>-2.1187000000000005</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -10159,11 +10285,11 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" si="1"/>
-        <v>-2.5632000000000001</v>
+        <v>-1.3010000000000002</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="2"/>
-        <v>-5.7357999999999993</v>
+        <v>-6.6176000000000013</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -10192,11 +10318,11 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>-4.5914999999999999</v>
+        <v>-2.7227999999999994</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>-9.2165999999999997</v>
+        <v>-10.4991</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -10225,11 +10351,11 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>-6.1175999999999995</v>
+        <v>-3.6587999999999994</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>-12.1084</v>
+        <v>-13.765599999999999</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -10258,11 +10384,11 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>-7.1415000000000006</v>
+        <v>-4.109</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="2"/>
-        <v>-14.413</v>
+        <v>-16.419500000000003</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -10291,11 +10417,11 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>-7.6631999999999998</v>
+        <v>-4.0733999999999977</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>-16.132199999999997</v>
+        <v>-18.463200000000001</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -10324,11 +10450,11 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>-7.6827000000000005</v>
+        <v>-3.5519999999999996</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>-17.267799999999998</v>
+        <v>-19.899100000000001</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -10357,11 +10483,11 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>-7.1999999999999993</v>
+        <v>-2.5447999999999986</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="2"/>
-        <v>-17.8216</v>
+        <v>-20.729600000000001</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -10390,11 +10516,11 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>-6.2150999999999996</v>
+        <v>-1.0517999999999965</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="2"/>
-        <v>-17.795400000000001</v>
+        <v>-20.957100000000004</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -10423,11 +10549,11 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>-4.7280000000000015</v>
+        <v>0.9269999999999996</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="2"/>
-        <v>-17.191000000000003</v>
+        <v>-20.584000000000003</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -10456,11 +10582,11 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>-2.7387000000000015</v>
+        <v>3.3916000000000039</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
-        <v>-16.01019999999999</v>
+        <v>-19.612700000000011</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -10489,11 +10615,11 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>-0.24719999999999942</v>
+        <v>6.3420000000000059</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="2"/>
-        <v>-14.254799999999996</v>
+        <v>-18.0456</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -10522,11 +10648,11 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>2.7464999999999975</v>
+        <v>9.7782000000000053</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="2"/>
-        <v>-11.926599999999993</v>
+        <v>-15.885100000000001</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -10555,11 +10681,11 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>6.2423999999999964</v>
+        <v>13.700200000000002</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="2"/>
-        <v>-9.027399999999993</v>
+        <v>-13.133600000000001</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -10588,11 +10714,11 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>10.240499999999997</v>
+        <v>18.108000000000004</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="2"/>
-        <v>-5.5589999999999975</v>
+        <v>-9.7934999999999945</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -10621,11 +10747,11 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>14.7408</v>
+        <v>23.001600000000003</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5232000000000028</v>
+        <v>-5.8672000000000111</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -10654,11 +10780,11 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>19.743299999999998</v>
+        <v>28.381</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="2"/>
-        <v>3.0781999999999954</v>
+        <v>-1.3571000000000026</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -10687,11 +10813,11 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
-        <v>25.247999999999998</v>
+        <v>34.246200000000009</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>8.2433999999999941</v>
+        <v>3.7343999999999795</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -10720,11 +10846,11 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>31.254899999999999</v>
+        <v>40.597200000000008</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="2"/>
-        <v>13.970600000000005</v>
+        <v>9.4048999999999836</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -10753,11 +10879,11 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" si="1"/>
-        <v>37.763999999999996</v>
+        <v>47.433999999999997</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="2"/>
-        <v>20.257999999999996</v>
+        <v>15.651999999999987</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -10786,11 +10912,11 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" si="1"/>
-        <v>44.775299999999987</v>
+        <v>54.756599999999999</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="2"/>
-        <v>27.103800000000007</v>
+        <v>22.473299999999995</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -10819,11 +10945,11 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
-        <v>52.288799999999995</v>
+        <v>62.565000000000012</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="2"/>
-        <v>34.506200000000021</v>
+        <v>29.866399999999985</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -10852,11 +10978,11 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" si="1"/>
-        <v>60.30449999999999</v>
+        <v>70.859200000000016</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="2"/>
-        <v>42.463400000000007</v>
+        <v>37.828899999999976</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -10885,11 +11011,11 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" si="1"/>
-        <v>68.822400000000002</v>
+        <v>79.639200000000017</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="2"/>
-        <v>50.973600000000019</v>
+        <v>46.358400000000017</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -10918,11 +11044,11 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" si="1"/>
-        <v>77.842500000000001</v>
+        <v>88.905000000000001</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="2"/>
-        <v>60.034999999999997</v>
+        <v>55.452499999999986</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -10951,11 +11077,11 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" si="1"/>
-        <v>87.364799999999988</v>
+        <v>98.656600000000012</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="2"/>
-        <v>69.645800000000037</v>
+        <v>65.108799999999974</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -10984,11 +11110,11 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" si="1"/>
-        <v>97.389299999999992</v>
+        <v>108.89400000000002</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="2"/>
-        <v>79.804200000000009</v>
+        <v>75.324899999999985</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -11017,11 +11143,11 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" si="1"/>
-        <v>107.91599999999998</v>
+        <v>119.61720000000001</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="2"/>
-        <v>90.508400000000023</v>
+        <v>86.098399999999998</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -11050,11 +11176,11 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" si="1"/>
-        <v>118.94489999999999</v>
+        <v>130.8262</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="2"/>
-        <v>101.75660000000002</v>
+        <v>97.426899999999932</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -11083,11 +11209,11 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" si="1"/>
-        <v>130.476</v>
+        <v>142.52100000000002</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="2"/>
-        <v>113.547</v>
+        <v>109.30799999999999</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -11116,11 +11242,11 @@
       </c>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
-        <v>142.5093</v>
+        <v>154.70160000000004</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="2"/>
-        <v>125.87780000000004</v>
+        <v>121.73929999999999</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -11149,11 +11275,11 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
-        <v>155.04480000000001</v>
+        <v>167.36799999999999</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="2"/>
-        <v>138.74720000000002</v>
+        <v>134.7184</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -11182,11 +11308,11 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
-        <v>168.08250000000001</v>
+        <v>180.52019999999999</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="2"/>
-        <v>152.15340000000003</v>
+        <v>148.24289999999999</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -11215,11 +11341,11 @@
       </c>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
-        <v>181.62239999999997</v>
+        <v>194.15819999999999</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="2"/>
-        <v>166.09459999999999</v>
+        <v>162.31039999999996</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -11248,11 +11374,11 @@
       </c>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
-        <v>195.66449999999998</v>
+        <v>208.28200000000001</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="2"/>
-        <v>180.56900000000005</v>
+        <v>176.91849999999999</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -11281,11 +11407,11 @@
       </c>
       <c r="G38" s="2">
         <f t="shared" si="1"/>
-        <v>210.2088</v>
+        <v>222.89160000000004</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="2"/>
-        <v>195.57479999999998</v>
+        <v>192.06479999999996</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -11314,11 +11440,11 @@
       </c>
       <c r="G39" s="2">
         <f t="shared" si="1"/>
-        <v>225.25530000000001</v>
+        <v>237.98700000000002</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="2"/>
-        <v>211.11020000000002</v>
+        <v>207.74689999999995</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -11347,11 +11473,11 @@
       </c>
       <c r="G40" s="2">
         <f t="shared" si="1"/>
-        <v>240.80399999999997</v>
+        <v>253.56820000000005</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="2"/>
-        <v>227.17340000000004</v>
+        <v>223.96239999999995</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -11380,11 +11506,11 @@
       </c>
       <c r="G41" s="2">
         <f t="shared" si="1"/>
-        <v>256.85489999999999</v>
+        <v>269.6352</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" si="2"/>
-        <v>243.76259999999999</v>
+        <v>240.70889999999997</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -11413,11 +11539,11 @@
       </c>
       <c r="G42" s="2">
         <f t="shared" si="1"/>
-        <v>273.40800000000002</v>
+        <v>286.18799999999999</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="2"/>
-        <v>260.87600000000003</v>
+        <v>257.98399999999992</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -11446,11 +11572,11 @@
       </c>
       <c r="G43" s="2">
         <f t="shared" si="1"/>
-        <v>290.4633</v>
+        <v>303.22660000000002</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="2"/>
-        <v>278.51180000000005</v>
+        <v>275.78530000000001</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -11479,11 +11605,11 @@
       </c>
       <c r="G44" s="2">
         <f t="shared" si="1"/>
-        <v>308.02079999999995</v>
+        <v>320.75099999999998</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="2"/>
-        <v>296.66820000000001</v>
+        <v>294.11039999999991</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -11512,11 +11638,11 @@
       </c>
       <c r="G45" s="2">
         <f t="shared" si="1"/>
-        <v>326.08049999999997</v>
+        <v>338.76119999999997</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" si="2"/>
-        <v>315.34340000000009</v>
+        <v>312.95689999999991</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -11545,11 +11671,11 @@
       </c>
       <c r="G46" s="2">
         <f t="shared" si="1"/>
-        <v>344.64239999999995</v>
+        <v>357.25720000000001</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="2"/>
-        <v>334.53560000000004</v>
+        <v>332.3223999999999</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -11578,11 +11704,11 @@
       </c>
       <c r="G47" s="2">
         <f t="shared" si="1"/>
-        <v>363.70650000000001</v>
+        <v>376.23900000000003</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="2"/>
-        <v>354.24300000000005</v>
+        <v>352.20449999999994</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -11611,11 +11737,11 @@
       </c>
       <c r="G48" s="2">
         <f t="shared" si="1"/>
-        <v>383.27279999999996</v>
+        <v>395.70660000000004</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="2"/>
-        <v>374.46380000000011</v>
+        <v>372.60079999999999</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -11644,11 +11770,11 @@
       </c>
       <c r="G49" s="2">
         <f t="shared" si="1"/>
-        <v>403.34129999999999</v>
+        <v>415.66</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="2"/>
-        <v>395.19620000000009</v>
+        <v>393.50889999999987</v>
       </c>
       <c r="I49" s="2"/>
     </row>
@@ -11677,11 +11803,11 @@
       </c>
       <c r="G50" s="2">
         <f t="shared" si="1"/>
-        <v>423.91200000000003</v>
+        <v>436.09920000000005</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="2"/>
-        <v>416.43840000000012</v>
+        <v>414.9264</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -11710,11 +11836,11 @@
       </c>
       <c r="G51" s="2">
         <f t="shared" si="1"/>
-        <v>444.98489999999993</v>
+        <v>457.02420000000001</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="2"/>
-        <v>438.18860000000006</v>
+        <v>436.85089999999997</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -11743,11 +11869,11 @@
       </c>
       <c r="G52" s="2">
         <f t="shared" si="1"/>
-        <v>466.56</v>
+        <v>478.435</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" si="2"/>
-        <v>460.44499999999999</v>
+        <v>459.28</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -11776,11 +11902,11 @@
       </c>
       <c r="G53" s="2">
         <f t="shared" si="1"/>
-        <v>488.63729999999998</v>
+        <v>500.33160000000004</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" si="2"/>
-        <v>483.20580000000001</v>
+        <v>482.21130000000005</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -11809,11 +11935,11 @@
       </c>
       <c r="G54" s="2">
         <f t="shared" si="1"/>
-        <v>511.21679999999992</v>
+        <v>522.71400000000006</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" si="2"/>
-        <v>506.46920000000006</v>
+        <v>505.64239999999995</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -11842,11 +11968,11 @@
       </c>
       <c r="G55" s="2">
         <f t="shared" si="1"/>
-        <v>534.29849999999999</v>
+        <v>545.58220000000006</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" si="2"/>
-        <v>530.23340000000007</v>
+        <v>529.57090000000005</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -11875,11 +12001,11 @@
       </c>
       <c r="G56" s="2">
         <f t="shared" si="1"/>
-        <v>557.88239999999996</v>
+        <v>568.9362000000001</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="2"/>
-        <v>554.49660000000006</v>
+        <v>553.99440000000004</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -11908,11 +12034,11 @@
       </c>
       <c r="G57" s="2">
         <f t="shared" si="1"/>
-        <v>581.96849999999995</v>
+        <v>592.77600000000007</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" si="2"/>
-        <v>579.25700000000006</v>
+        <v>578.91049999999996</v>
       </c>
       <c r="I57" s="2"/>
     </row>
@@ -11941,11 +12067,11 @@
       </c>
       <c r="G58" s="2">
         <f t="shared" si="1"/>
-        <v>606.55679999999995</v>
+        <v>617.10160000000008</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="2"/>
-        <v>604.51280000000008</v>
+        <v>604.31680000000006</v>
       </c>
       <c r="I58" s="2"/>
     </row>
@@ -11974,11 +12100,11 @@
       </c>
       <c r="G59" s="2">
         <f t="shared" si="1"/>
-        <v>631.64729999999997</v>
+        <v>641.91300000000001</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" si="2"/>
-        <v>630.26220000000012</v>
+        <v>630.21090000000004</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -12007,11 +12133,11 @@
       </c>
       <c r="G60" s="2">
         <f t="shared" si="1"/>
-        <v>657.24</v>
+        <v>667.21019999999999</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" si="2"/>
-        <v>656.50340000000006</v>
+        <v>656.59039999999982</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -12040,11 +12166,11 @@
       </c>
       <c r="G61" s="2">
         <f t="shared" si="1"/>
-        <v>683.33489999999995</v>
+        <v>692.9932</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="2"/>
-        <v>683.2346</v>
+        <v>683.4529</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -12073,11 +12199,11 @@
       </c>
       <c r="G62" s="2">
         <f t="shared" si="1"/>
-        <v>709.9319999999999</v>
+        <v>719.26200000000006</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" si="2"/>
-        <v>710.45400000000018</v>
+        <v>710.79599999999994</v>
       </c>
       <c r="I62" s="2"/>
     </row>
@@ -12106,11 +12232,11 @@
       </c>
       <c r="G63" s="2">
         <f t="shared" si="1"/>
-        <v>737.03129999999999</v>
+        <v>746.01660000000004</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="2"/>
-        <v>738.15980000000013</v>
+        <v>738.6173</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -12139,11 +12265,11 @@
       </c>
       <c r="G64" s="2">
         <f t="shared" si="1"/>
-        <v>764.63279999999997</v>
+        <v>773.25700000000006</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" si="2"/>
-        <v>766.3502000000002</v>
+        <v>766.91439999999989</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -12172,11 +12298,11 @@
       </c>
       <c r="G65" s="2">
         <f t="shared" si="1"/>
-        <v>792.73649999999998</v>
+        <v>800.98320000000001</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" si="2"/>
-        <v>795.02339999999992</v>
+        <v>795.68489999999974</v>
       </c>
       <c r="I65" s="2"/>
     </row>
@@ -12205,11 +12331,11 @@
       </c>
       <c r="G66" s="2">
         <f t="shared" si="1"/>
-        <v>821.3424</v>
+        <v>829.1952</v>
       </c>
       <c r="H66" s="2">
         <f t="shared" si="2"/>
-        <v>824.1776000000001</v>
+        <v>824.92639999999983</v>
       </c>
       <c r="I66" s="2"/>
     </row>
@@ -12237,12 +12363,12 @@
         <v>11.696969696969697</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G130" si="6">0.2511*B67^2-3.2838*B67+3</f>
-        <v>850.45050000000003</v>
+        <f t="shared" ref="G67:G130" si="6">0.2429*B67^2-2.6363*B67+3</f>
+        <v>857.89300000000003</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" ref="H67:H130" si="7">-0.0003*B67^3+0.2972*B67^2-4.9611*B67+3</f>
-        <v>853.81100000000004</v>
+        <f t="shared" ref="H67:H130" si="7">-0.0004*B67^3+0.3111*B67^2-5.4294*B67+3</f>
+        <v>854.63650000000007</v>
       </c>
       <c r="I67" s="2"/>
     </row>
@@ -12258,7 +12384,7 @@
         <v>791</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D130" si="8">C68-C67</f>
+        <f t="shared" ref="D68:D131" si="8">C68-C67</f>
         <v>16</v>
       </c>
       <c r="E68" s="2">
@@ -12271,11 +12397,11 @@
       </c>
       <c r="G68" s="2">
         <f t="shared" si="6"/>
-        <v>880.06079999999997</v>
+        <v>887.07659999999998</v>
       </c>
       <c r="H68" s="2">
         <f t="shared" si="7"/>
-        <v>883.92179999999996</v>
+        <v>884.81279999999992</v>
       </c>
       <c r="I68" s="2"/>
     </row>
@@ -12304,11 +12430,11 @@
       </c>
       <c r="G69" s="2">
         <f t="shared" si="6"/>
-        <v>910.17329999999993</v>
+        <v>916.74600000000009</v>
       </c>
       <c r="H69" s="2">
         <f t="shared" si="7"/>
-        <v>914.50819999999999</v>
+        <v>915.4529</v>
       </c>
       <c r="I69" s="2"/>
     </row>
@@ -12337,11 +12463,11 @@
       </c>
       <c r="G70" s="2">
         <f t="shared" si="6"/>
-        <v>940.7879999999999</v>
+        <v>946.90120000000002</v>
       </c>
       <c r="H70" s="2">
         <f t="shared" si="7"/>
-        <v>945.56839999999988</v>
+        <v>946.55439999999999</v>
       </c>
       <c r="I70" s="2"/>
     </row>
@@ -12370,11 +12496,11 @@
       </c>
       <c r="G71" s="2">
         <f t="shared" si="6"/>
-        <v>971.9049</v>
+        <v>977.54219999999987</v>
       </c>
       <c r="H71" s="2">
         <f t="shared" si="7"/>
-        <v>977.10059999999999</v>
+        <v>978.11489999999981</v>
       </c>
       <c r="I71" s="2"/>
     </row>
@@ -12403,11 +12529,11 @@
       </c>
       <c r="G72" s="2">
         <f t="shared" si="6"/>
-        <v>1003.5239999999999</v>
+        <v>1008.6690000000001</v>
       </c>
       <c r="H72" s="2">
         <f t="shared" si="7"/>
-        <v>1009.1030000000001</v>
+        <v>1010.1319999999998</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -12436,11 +12562,11 @@
       </c>
       <c r="G73" s="2">
         <f t="shared" si="6"/>
-        <v>1035.6453000000001</v>
+        <v>1040.2816</v>
       </c>
       <c r="H73" s="2">
         <f t="shared" si="7"/>
-        <v>1041.5738000000001</v>
+        <v>1042.6032999999998</v>
       </c>
       <c r="I73" s="2"/>
     </row>
@@ -12469,11 +12595,11 @@
       </c>
       <c r="G74" s="2">
         <f t="shared" si="6"/>
-        <v>1068.2687999999998</v>
+        <v>1072.3800000000001</v>
       </c>
       <c r="H74" s="2">
         <f t="shared" si="7"/>
-        <v>1074.5111999999999</v>
+        <v>1075.5264</v>
       </c>
       <c r="I74" s="2"/>
     </row>
@@ -12502,11 +12628,11 @@
       </c>
       <c r="G75" s="2">
         <f t="shared" si="6"/>
-        <v>1101.3944999999999</v>
+        <v>1104.9641999999999</v>
       </c>
       <c r="H75" s="2">
         <f t="shared" si="7"/>
-        <v>1107.9134000000001</v>
+        <v>1108.8988999999999</v>
       </c>
       <c r="I75" s="2"/>
     </row>
@@ -12535,11 +12661,11 @@
       </c>
       <c r="G76" s="2">
         <f t="shared" si="6"/>
-        <v>1135.0224000000001</v>
+        <v>1138.0342000000001</v>
       </c>
       <c r="H76" s="2">
         <f t="shared" si="7"/>
-        <v>1141.7786000000001</v>
+        <v>1142.7184</v>
       </c>
       <c r="I76" s="2"/>
     </row>
@@ -12568,11 +12694,11 @@
       </c>
       <c r="G77" s="2">
         <f t="shared" si="6"/>
-        <v>1169.1524999999999</v>
+        <v>1171.5899999999999</v>
       </c>
       <c r="H77" s="2">
         <f t="shared" si="7"/>
-        <v>1176.105</v>
+        <v>1176.9825000000001</v>
       </c>
       <c r="I77" s="2"/>
     </row>
@@ -12601,11 +12727,11 @@
       </c>
       <c r="G78" s="2">
         <f t="shared" si="6"/>
-        <v>1203.7847999999999</v>
+        <v>1205.6316000000002</v>
       </c>
       <c r="H78" s="2">
         <f t="shared" si="7"/>
-        <v>1210.8908000000001</v>
+        <v>1211.6887999999999</v>
       </c>
       <c r="I78" s="2"/>
     </row>
@@ -12634,11 +12760,11 @@
       </c>
       <c r="G79" s="2">
         <f t="shared" si="6"/>
-        <v>1238.9193</v>
+        <v>1240.1590000000001</v>
       </c>
       <c r="H79" s="2">
         <f t="shared" si="7"/>
-        <v>1246.1342000000002</v>
+        <v>1246.8348999999998</v>
       </c>
       <c r="I79" s="2"/>
     </row>
@@ -12667,11 +12793,11 @@
       </c>
       <c r="G80" s="2">
         <f t="shared" si="6"/>
-        <v>1274.556</v>
+        <v>1275.1722</v>
       </c>
       <c r="H80" s="2">
         <f t="shared" si="7"/>
-        <v>1281.8334</v>
+        <v>1282.4184</v>
       </c>
       <c r="I80" s="2"/>
     </row>
@@ -12700,11 +12826,11 @@
       </c>
       <c r="G81" s="2">
         <f t="shared" si="6"/>
-        <v>1310.6949</v>
+        <v>1310.6712000000002</v>
       </c>
       <c r="H81" s="2">
         <f t="shared" si="7"/>
-        <v>1317.9866000000002</v>
+        <v>1318.4368999999999</v>
       </c>
       <c r="I81" s="2"/>
     </row>
@@ -12733,11 +12859,11 @@
       </c>
       <c r="G82" s="2">
         <f t="shared" si="6"/>
-        <v>1347.336</v>
+        <v>1346.6559999999999</v>
       </c>
       <c r="H82" s="2">
         <f t="shared" si="7"/>
-        <v>1354.5920000000001</v>
+        <v>1354.8879999999999</v>
       </c>
       <c r="I82" s="2"/>
     </row>
@@ -12766,11 +12892,11 @@
       </c>
       <c r="G83" s="2">
         <f t="shared" si="6"/>
-        <v>1384.4793</v>
+        <v>1383.1266000000001</v>
       </c>
       <c r="H83" s="2">
         <f t="shared" si="7"/>
-        <v>1391.6478000000002</v>
+        <v>1391.7692999999999</v>
       </c>
       <c r="I83" s="2"/>
     </row>
@@ -12799,11 +12925,11 @@
       </c>
       <c r="G84" s="2">
         <f t="shared" si="6"/>
-        <v>1422.1247999999998</v>
+        <v>1420.0830000000001</v>
       </c>
       <c r="H84" s="2">
         <f t="shared" si="7"/>
-        <v>1429.1522</v>
+        <v>1429.0784000000001</v>
       </c>
       <c r="I84" s="2"/>
     </row>
@@ -12832,11 +12958,11 @@
       </c>
       <c r="G85" s="2">
         <f t="shared" si="6"/>
-        <v>1460.2725</v>
+        <v>1457.5252</v>
       </c>
       <c r="H85" s="2">
         <f t="shared" si="7"/>
-        <v>1467.1034</v>
+        <v>1466.8128999999999</v>
       </c>
       <c r="I85" s="2"/>
     </row>
@@ -12865,11 +12991,11 @@
       </c>
       <c r="G86" s="2">
         <f t="shared" si="6"/>
-        <v>1498.9223999999999</v>
+        <v>1495.4531999999999</v>
       </c>
       <c r="H86" s="2">
         <f t="shared" si="7"/>
-        <v>1505.4996000000001</v>
+        <v>1504.9703999999999</v>
       </c>
       <c r="I86" s="2"/>
     </row>
@@ -12898,11 +13024,11 @@
       </c>
       <c r="G87" s="2">
         <f t="shared" si="6"/>
-        <v>1538.0744999999999</v>
+        <v>1533.8670000000002</v>
       </c>
       <c r="H87" s="2">
         <f t="shared" si="7"/>
-        <v>1544.3389999999999</v>
+        <v>1543.5484999999996</v>
       </c>
       <c r="I87" s="2"/>
     </row>
@@ -12931,11 +13057,11 @@
       </c>
       <c r="G88" s="2">
         <f t="shared" si="6"/>
-        <v>1577.7287999999999</v>
+        <v>1572.7665999999999</v>
       </c>
       <c r="H88" s="2">
         <f t="shared" si="7"/>
-        <v>1583.6198000000002</v>
+        <v>1582.5447999999999</v>
       </c>
       <c r="I88" s="2"/>
     </row>
@@ -12964,11 +13090,11 @@
       </c>
       <c r="G89" s="2">
         <f t="shared" si="6"/>
-        <v>1617.8852999999999</v>
+        <v>1612.152</v>
       </c>
       <c r="H89" s="2">
         <f t="shared" si="7"/>
-        <v>1623.3401999999999</v>
+        <v>1621.9568999999999</v>
       </c>
       <c r="I89" s="2"/>
     </row>
@@ -12997,11 +13123,11 @@
       </c>
       <c r="G90" s="2">
         <f t="shared" si="6"/>
-        <v>1658.5439999999999</v>
+        <v>1652.0232000000001</v>
       </c>
       <c r="H90" s="2">
         <f t="shared" si="7"/>
-        <v>1663.4984000000002</v>
+        <v>1661.7823999999998</v>
       </c>
       <c r="I90" s="2"/>
     </row>
@@ -13030,11 +13156,11 @@
       </c>
       <c r="G91" s="2">
         <f t="shared" si="6"/>
-        <v>1699.7049</v>
+        <v>1692.3802000000001</v>
       </c>
       <c r="H91" s="2">
         <f t="shared" si="7"/>
-        <v>1704.0926000000002</v>
+        <v>1702.0188999999998</v>
       </c>
       <c r="I91" s="2"/>
     </row>
@@ -13063,11 +13189,11 @@
       </c>
       <c r="G92" s="2">
         <f t="shared" si="6"/>
-        <v>1741.3679999999999</v>
+        <v>1733.223</v>
       </c>
       <c r="H92" s="2">
         <f t="shared" si="7"/>
-        <v>1745.1210000000003</v>
+        <v>1742.664</v>
       </c>
       <c r="I92" t="s">
         <v>7</v>
@@ -13098,11 +13224,11 @@
       </c>
       <c r="G93" s="2">
         <f t="shared" si="6"/>
-        <v>1783.5333000000001</v>
+        <v>1774.5516</v>
       </c>
       <c r="H93" s="2">
         <f t="shared" si="7"/>
-        <v>1786.5818000000002</v>
+        <v>1783.7152999999996</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
@@ -13130,11 +13256,11 @@
       </c>
       <c r="G94" s="2">
         <f t="shared" si="6"/>
-        <v>1826.2007999999998</v>
+        <v>1816.366</v>
       </c>
       <c r="H94" s="2">
         <f t="shared" si="7"/>
-        <v>1828.4732000000001</v>
+        <v>1825.1704</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
@@ -13162,11 +13288,11 @@
       </c>
       <c r="G95" s="2">
         <f t="shared" si="6"/>
-        <v>1869.3705</v>
+        <v>1858.6661999999999</v>
       </c>
       <c r="H95" s="2">
         <f t="shared" si="7"/>
-        <v>1870.7934000000002</v>
+        <v>1867.0268999999998</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
@@ -13194,11 +13320,11 @@
       </c>
       <c r="G96" s="2">
         <f t="shared" si="6"/>
-        <v>1913.0423999999998</v>
+        <v>1901.4521999999999</v>
       </c>
       <c r="H96" s="2">
         <f t="shared" si="7"/>
-        <v>1913.5406</v>
+        <v>1909.2823999999996</v>
       </c>
       <c r="I96" t="s">
         <v>6</v>
@@ -13229,11 +13355,11 @@
       </c>
       <c r="G97" s="2">
         <f t="shared" si="6"/>
-        <v>1957.2164999999998</v>
+        <v>1944.7240000000002</v>
       </c>
       <c r="H97" s="2">
         <f t="shared" si="7"/>
-        <v>1956.713</v>
+        <v>1951.9344999999998</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
@@ -13261,11 +13387,11 @@
       </c>
       <c r="G98" s="2">
         <f t="shared" si="6"/>
-        <v>2001.8928000000001</v>
+        <v>1988.4816000000001</v>
       </c>
       <c r="H98" s="2">
         <f t="shared" si="7"/>
-        <v>2000.3088000000005</v>
+        <v>1994.9807999999998</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
@@ -13293,11 +13419,11 @@
       </c>
       <c r="G99" s="2">
         <f t="shared" si="6"/>
-        <v>2047.0712999999996</v>
+        <v>2032.7250000000001</v>
       </c>
       <c r="H99" s="2">
         <f t="shared" si="7"/>
-        <v>2044.3262000000002</v>
+        <v>2038.4188999999997</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.4">
@@ -13325,11 +13451,11 @@
       </c>
       <c r="G100" s="2">
         <f t="shared" si="6"/>
-        <v>2092.752</v>
+        <v>2077.4542000000001</v>
       </c>
       <c r="H100" s="2">
         <f t="shared" si="7"/>
-        <v>2088.7634000000003</v>
+        <v>2082.2464</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.4">
@@ -13357,11 +13483,11 @@
       </c>
       <c r="G101" s="2">
         <f t="shared" si="6"/>
-        <v>2138.9348999999997</v>
+        <v>2122.6692000000003</v>
       </c>
       <c r="H101" s="2">
         <f t="shared" si="7"/>
-        <v>2133.6186000000002</v>
+        <v>2126.4609</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.4">
@@ -13389,11 +13515,11 @@
       </c>
       <c r="G102" s="2">
         <f t="shared" si="6"/>
-        <v>2185.62</v>
+        <v>2168.37</v>
       </c>
       <c r="H102" s="2">
         <f t="shared" si="7"/>
-        <v>2178.89</v>
+        <v>2171.06</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.4">
@@ -13421,11 +13547,11 @@
       </c>
       <c r="G103" s="2">
         <f t="shared" si="6"/>
-        <v>2232.8072999999999</v>
+        <v>2214.5565999999999</v>
       </c>
       <c r="H103" s="2">
         <f t="shared" si="7"/>
-        <v>2224.5758000000001</v>
+        <v>2216.0412999999994</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.4">
@@ -13453,11 +13579,11 @@
       </c>
       <c r="G104" s="2">
         <f t="shared" si="6"/>
-        <v>2280.4967999999999</v>
+        <v>2261.2290000000003</v>
       </c>
       <c r="H104" s="2">
         <f t="shared" si="7"/>
-        <v>2270.6741999999999</v>
+        <v>2261.4023999999999</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.4">
@@ -13485,11 +13611,11 @@
       </c>
       <c r="G105" s="2">
         <f t="shared" si="6"/>
-        <v>2328.6884999999997</v>
+        <v>2308.3872000000001</v>
       </c>
       <c r="H105" s="2">
         <f t="shared" si="7"/>
-        <v>2317.1834000000003</v>
+        <v>2307.1408999999999</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.4">
@@ -13517,11 +13643,11 @@
       </c>
       <c r="G106" s="2">
         <f t="shared" si="6"/>
-        <v>2377.3824</v>
+        <v>2356.0311999999999</v>
       </c>
       <c r="H106" s="2">
         <f t="shared" si="7"/>
-        <v>2364.1016000000004</v>
+        <v>2353.2543999999998</v>
       </c>
       <c r="I106" t="s">
         <v>9</v>
@@ -13552,11 +13678,11 @@
       </c>
       <c r="G107" s="2">
         <f t="shared" si="6"/>
-        <v>2426.5785000000001</v>
+        <v>2404.1610000000001</v>
       </c>
       <c r="H107" s="2">
         <f t="shared" si="7"/>
-        <v>2411.4270000000001</v>
+        <v>2399.7404999999999</v>
       </c>
       <c r="I107" t="s">
         <v>8</v>
@@ -13587,11 +13713,11 @@
       </c>
       <c r="G108" s="2">
         <f t="shared" si="6"/>
-        <v>2476.2767999999996</v>
+        <v>2452.7766000000001</v>
       </c>
       <c r="H108" s="2">
         <f t="shared" si="7"/>
-        <v>2459.1578000000004</v>
+        <v>2446.5968000000003</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.4">
@@ -13619,11 +13745,11 @@
       </c>
       <c r="G109" s="2">
         <f t="shared" si="6"/>
-        <v>2526.4773</v>
+        <v>2501.8780000000002</v>
       </c>
       <c r="H109" s="2">
         <f t="shared" si="7"/>
-        <v>2507.2921999999999</v>
+        <v>2493.8209000000002</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.4">
@@ -13651,11 +13777,11 @@
       </c>
       <c r="G110" s="2">
         <f t="shared" si="6"/>
-        <v>2577.1799999999998</v>
+        <v>2551.4652000000001</v>
       </c>
       <c r="H110" s="2">
         <f t="shared" si="7"/>
-        <v>2555.8284000000003</v>
+        <v>2541.4104000000002</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.4">
@@ -13683,11 +13809,11 @@
       </c>
       <c r="G111" s="2">
         <f t="shared" si="6"/>
-        <v>2628.3848999999996</v>
+        <v>2601.5382000000004</v>
       </c>
       <c r="H111" s="2">
         <f t="shared" si="7"/>
-        <v>2604.7646000000004</v>
+        <v>2589.3628999999996</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.4">
@@ -13715,11 +13841,11 @@
       </c>
       <c r="G112" s="2">
         <f t="shared" si="6"/>
-        <v>2680.0920000000001</v>
+        <v>2652.0970000000002</v>
       </c>
       <c r="H112" s="2">
         <f t="shared" si="7"/>
-        <v>2654.0990000000006</v>
+        <v>2637.6759999999999</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
@@ -13747,11 +13873,11 @@
       </c>
       <c r="G113" s="2">
         <f t="shared" si="6"/>
-        <v>2732.3013000000001</v>
+        <v>2703.1415999999999</v>
       </c>
       <c r="H113" s="2">
         <f t="shared" si="7"/>
-        <v>2703.8298000000004</v>
+        <v>2686.3472999999999</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
@@ -13779,11 +13905,11 @@
       </c>
       <c r="G114" s="2">
         <f t="shared" si="6"/>
-        <v>2785.0127999999995</v>
+        <v>2754.672</v>
       </c>
       <c r="H114" s="2">
         <f t="shared" si="7"/>
-        <v>2753.9552000000003</v>
+        <v>2735.3744000000002</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
@@ -13811,11 +13937,11 @@
       </c>
       <c r="G115" s="2">
         <f t="shared" si="6"/>
-        <v>2838.2265000000002</v>
+        <v>2806.6882000000001</v>
       </c>
       <c r="H115" s="2">
         <f t="shared" si="7"/>
-        <v>2804.4734000000003</v>
+        <v>2784.7548999999999</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
@@ -13843,11 +13969,11 @@
       </c>
       <c r="G116" s="2">
         <f t="shared" si="6"/>
-        <v>2891.9423999999999</v>
+        <v>2859.1902</v>
       </c>
       <c r="H116" s="2">
         <f t="shared" si="7"/>
-        <v>2855.3826000000004</v>
+        <v>2834.4863999999998</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
@@ -13875,11 +14001,11 @@
       </c>
       <c r="G117" s="2">
         <f t="shared" si="6"/>
-        <v>2946.1604999999995</v>
+        <v>2912.1779999999999</v>
       </c>
       <c r="H117" s="2">
         <f t="shared" si="7"/>
-        <v>2906.6810000000005</v>
+        <v>2884.5664999999999</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
@@ -13907,11 +14033,11 @@
       </c>
       <c r="G118" s="2">
         <f t="shared" si="6"/>
-        <v>3000.8807999999999</v>
+        <v>2965.6516000000001</v>
       </c>
       <c r="H118" s="2">
         <f t="shared" si="7"/>
-        <v>2958.3668000000007</v>
+        <v>2934.9927999999991</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
@@ -13939,11 +14065,11 @@
       </c>
       <c r="G119" s="2">
         <f t="shared" si="6"/>
-        <v>3056.1032999999998</v>
+        <v>3019.6110000000003</v>
       </c>
       <c r="H119" s="2">
         <f t="shared" si="7"/>
-        <v>3010.4382000000005</v>
+        <v>2985.7628999999997</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
@@ -13971,11 +14097,11 @@
       </c>
       <c r="G120" s="2">
         <f t="shared" si="6"/>
-        <v>3111.8279999999995</v>
+        <v>3074.0562</v>
       </c>
       <c r="H120" s="2">
         <f t="shared" si="7"/>
-        <v>3062.8934000000004</v>
+        <v>3036.8743999999997</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
@@ -14003,11 +14129,11 @@
       </c>
       <c r="G121" s="2">
         <f t="shared" si="6"/>
-        <v>3168.0549000000001</v>
+        <v>3128.9872</v>
       </c>
       <c r="H121" s="2">
         <f t="shared" si="7"/>
-        <v>3115.7305999999999</v>
+        <v>3088.3248999999996</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
@@ -14035,11 +14161,11 @@
       </c>
       <c r="G122" s="2">
         <f t="shared" si="6"/>
-        <v>3224.7839999999997</v>
+        <v>3184.4040000000005</v>
       </c>
       <c r="H122" s="2">
         <f t="shared" si="7"/>
-        <v>3168.9480000000003</v>
+        <v>3140.1120000000001</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
@@ -14067,11 +14193,11 @@
       </c>
       <c r="G123" s="2">
         <f t="shared" si="6"/>
-        <v>3282.0153</v>
+        <v>3240.3066000000003</v>
       </c>
       <c r="H123" s="2">
         <f t="shared" si="7"/>
-        <v>3222.5438000000008</v>
+        <v>3192.2332999999999</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
@@ -14099,11 +14225,11 @@
       </c>
       <c r="G124" s="2">
         <f t="shared" si="6"/>
-        <v>3339.7487999999998</v>
+        <v>3296.6950000000002</v>
       </c>
       <c r="H124" s="2">
         <f t="shared" si="7"/>
-        <v>3276.5162000000005</v>
+        <v>3244.6864000000005</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
@@ -14131,11 +14257,11 @@
       </c>
       <c r="G125" s="2">
         <f t="shared" si="6"/>
-        <v>3397.9844999999996</v>
+        <v>3353.5691999999999</v>
       </c>
       <c r="H125" s="2">
         <f t="shared" si="7"/>
-        <v>3330.8634000000006</v>
+        <v>3297.4688999999989</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
@@ -14163,11 +14289,11 @@
       </c>
       <c r="G126" s="2">
         <f t="shared" si="6"/>
-        <v>3456.7223999999997</v>
+        <v>3410.9292000000005</v>
       </c>
       <c r="H126" s="2">
         <f t="shared" si="7"/>
-        <v>3385.5836000000008</v>
+        <v>3350.5783999999999</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
@@ -14195,11 +14321,11 @@
       </c>
       <c r="G127" s="2">
         <f t="shared" si="6"/>
-        <v>3515.9625000000001</v>
+        <v>3468.7750000000001</v>
       </c>
       <c r="H127" s="2">
         <f t="shared" si="7"/>
-        <v>3440.6750000000002</v>
+        <v>3404.0124999999998</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
@@ -14211,27 +14337,27 @@
         <v>126</v>
       </c>
       <c r="C128" s="3">
-        <v>3561</v>
+        <v>3533</v>
       </c>
       <c r="D128" s="2">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E128" s="2">
         <f t="shared" si="9"/>
-        <v>53.142857142857146</v>
+        <v>49.142857142857146</v>
       </c>
       <c r="F128" s="2">
         <f>SUM($D$2:$D128)/COUNT($D$2:$D128)</f>
-        <v>28.015748031496063</v>
+        <v>27.795275590551181</v>
       </c>
       <c r="G128" s="2">
         <f t="shared" si="6"/>
-        <v>3575.7048</v>
+        <v>3527.1066000000001</v>
       </c>
       <c r="H128" s="2">
         <f t="shared" si="7"/>
-        <v>3496.1358</v>
+        <v>3457.7687999999998</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.4">
@@ -14243,27 +14369,27 @@
         <v>127</v>
       </c>
       <c r="C129" s="3">
-        <v>3609</v>
+        <v>3601</v>
       </c>
       <c r="D129" s="2">
         <f t="shared" si="8"/>
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E129" s="2">
         <f t="shared" si="9"/>
-        <v>55</v>
+        <v>53.857142857142854</v>
       </c>
       <c r="F129" s="2">
         <f>SUM($D$2:$D129)/COUNT($D$2:$D129)</f>
-        <v>28.171875</v>
+        <v>28.109375</v>
       </c>
       <c r="G129" s="2">
         <f t="shared" si="6"/>
-        <v>3635.9493000000002</v>
+        <v>3585.924</v>
       </c>
       <c r="H129" s="2">
         <f t="shared" si="7"/>
-        <v>3551.9642000000003</v>
+        <v>3511.8448999999991</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.4">
@@ -14275,27 +14401,27 @@
         <v>128</v>
       </c>
       <c r="C130" s="3">
-        <v>3632</v>
+        <v>3636</v>
       </c>
       <c r="D130" s="2">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E130" s="2">
         <f t="shared" si="9"/>
-        <v>51.571428571428569</v>
+        <v>52.142857142857146</v>
       </c>
       <c r="F130" s="2">
         <f>SUM($D$2:$D130)/COUNT($D$2:$D130)</f>
-        <v>28.131782945736433</v>
+        <v>28.162790697674417</v>
       </c>
       <c r="G130" s="2">
         <f t="shared" si="6"/>
-        <v>3696.6959999999999</v>
+        <v>3645.2272000000003</v>
       </c>
       <c r="H130" s="2">
         <f t="shared" si="7"/>
-        <v>3608.1584000000003</v>
+        <v>3566.2383999999993</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.4">
@@ -14306,14 +14432,28 @@
         <f t="shared" ref="B131:B176" si="10">B130+1</f>
         <v>129</v>
       </c>
-      <c r="E131" s="2"/>
+      <c r="C131" s="3">
+        <v>3705</v>
+      </c>
+      <c r="D131" s="2">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <f t="shared" si="9"/>
+        <v>49.571428571428569</v>
+      </c>
+      <c r="F131" s="2">
+        <f>SUM($D$2:$D131)/COUNT($D$2:$D131)</f>
+        <v>28.476923076923075</v>
+      </c>
       <c r="G131" s="2">
-        <f t="shared" ref="G131:G176" si="11">0.2511*B131^2-3.2838*B131+3</f>
-        <v>3757.9448999999995</v>
+        <f t="shared" ref="G131:G176" si="11">0.2429*B131^2-2.6363*B131+3</f>
+        <v>3705.0162</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" ref="H131:H176" si="12">-0.0003*B131^3+0.2972*B131^2-4.9611*B131+3</f>
-        <v>3664.7166000000007</v>
+        <f t="shared" ref="H131:H176" si="12">-0.0004*B131^3+0.3111*B131^2-5.4294*B131+3</f>
+        <v>3620.9468999999999</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.4">
@@ -14324,14 +14464,28 @@
         <f t="shared" si="10"/>
         <v>130</v>
       </c>
-      <c r="E132" s="2"/>
+      <c r="C132" s="3">
+        <v>3723</v>
+      </c>
+      <c r="D132" s="2">
+        <f t="shared" ref="D132:D138" si="13">C132-C131</f>
+        <v>18</v>
+      </c>
+      <c r="E132" s="2">
+        <f t="shared" si="9"/>
+        <v>51.571428571428569</v>
+      </c>
+      <c r="F132" s="2">
+        <f>SUM($D$2:$D132)/COUNT($D$2:$D132)</f>
+        <v>28.396946564885496</v>
+      </c>
       <c r="G132" s="2">
         <f t="shared" si="11"/>
-        <v>3819.6959999999999</v>
+        <v>3765.2910000000002</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" si="12"/>
-        <v>3721.6369999999997</v>
+        <v>3675.9679999999998</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.4">
@@ -14342,14 +14496,28 @@
         <f t="shared" si="10"/>
         <v>131</v>
       </c>
-      <c r="E133" s="2"/>
+      <c r="C133" s="3">
+        <v>3806</v>
+      </c>
+      <c r="D133" s="2">
+        <f t="shared" si="13"/>
+        <v>83</v>
+      </c>
+      <c r="E133" s="2">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="F133" s="2">
+        <f>SUM($D$2:$D133)/COUNT($D$2:$D133)</f>
+        <v>28.810606060606062</v>
+      </c>
       <c r="G133" s="2">
         <f t="shared" si="11"/>
-        <v>3881.9492999999998</v>
+        <v>3826.0515999999998</v>
       </c>
       <c r="H133" s="2">
         <f t="shared" si="12"/>
-        <v>3778.9178000000002</v>
+        <v>3731.2992999999997</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.4">
@@ -14360,14 +14528,28 @@
         <f t="shared" si="10"/>
         <v>132</v>
       </c>
-      <c r="E134" s="2"/>
+      <c r="C134" s="3">
+        <v>3822</v>
+      </c>
+      <c r="D134" s="2">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="E134" s="2">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="F134" s="2">
+        <f>SUM($D$2:$D134)/COUNT($D$2:$D134)</f>
+        <v>28.714285714285715</v>
+      </c>
       <c r="G134" s="2">
         <f t="shared" si="11"/>
-        <v>3944.7048</v>
+        <v>3887.2980000000002</v>
       </c>
       <c r="H134" s="2">
         <f t="shared" si="12"/>
-        <v>3836.5572000000002</v>
+        <v>3786.9383999999991</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.4">
@@ -14378,14 +14560,28 @@
         <f t="shared" si="10"/>
         <v>133</v>
       </c>
-      <c r="E135" s="2"/>
+      <c r="C135" s="3">
+        <v>3873</v>
+      </c>
+      <c r="D135" s="2">
+        <f t="shared" si="13"/>
+        <v>51</v>
+      </c>
+      <c r="E135" s="2">
+        <f t="shared" si="9"/>
+        <v>48.571428571428569</v>
+      </c>
+      <c r="F135" s="2">
+        <f>SUM($D$2:$D135)/COUNT($D$2:$D135)</f>
+        <v>28.880597014925375</v>
+      </c>
       <c r="G135" s="2">
         <f t="shared" si="11"/>
-        <v>4007.9624999999996</v>
+        <v>3949.0301999999997</v>
       </c>
       <c r="H135" s="2">
         <f t="shared" si="12"/>
-        <v>3894.5534000000011</v>
+        <v>3842.8828999999996</v>
       </c>
       <c r="I135" t="s">
         <v>10</v>
@@ -14399,14 +14595,28 @@
         <f t="shared" si="10"/>
         <v>134</v>
       </c>
-      <c r="E136" s="2"/>
+      <c r="C136" s="3">
+        <v>3908</v>
+      </c>
+      <c r="D136" s="2">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="E136" s="2">
+        <f t="shared" si="9"/>
+        <v>43.857142857142854</v>
+      </c>
+      <c r="F136" s="2">
+        <f>SUM($D$2:$D136)/COUNT($D$2:$D136)</f>
+        <v>28.925925925925927</v>
+      </c>
       <c r="G136" s="2">
         <f t="shared" si="11"/>
-        <v>4071.7223999999997</v>
+        <v>4011.2482000000005</v>
       </c>
       <c r="H136" s="2">
         <f t="shared" si="12"/>
-        <v>3952.9046000000008</v>
+        <v>3899.1304</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.4">
@@ -14417,14 +14627,28 @@
         <f t="shared" si="10"/>
         <v>135</v>
       </c>
-      <c r="E137" s="2"/>
+      <c r="C137" s="3">
+        <v>3961</v>
+      </c>
+      <c r="D137" s="2">
+        <f t="shared" si="13"/>
+        <v>53</v>
+      </c>
+      <c r="E137" s="2">
+        <f t="shared" si="9"/>
+        <v>46.428571428571431</v>
+      </c>
+      <c r="F137" s="2">
+        <f>SUM($D$2:$D137)/COUNT($D$2:$D137)</f>
+        <v>29.102941176470587</v>
+      </c>
       <c r="G137" s="2">
         <f t="shared" si="11"/>
-        <v>4135.9844999999996</v>
+        <v>4073.9520000000002</v>
       </c>
       <c r="H137" s="2">
         <f t="shared" si="12"/>
-        <v>4011.6089999999999</v>
+        <v>3955.6784999999991</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.4">
@@ -14435,14 +14659,28 @@
         <f t="shared" si="10"/>
         <v>136</v>
       </c>
-      <c r="E138" s="2"/>
+      <c r="C138" s="3">
+        <v>4023</v>
+      </c>
+      <c r="D138" s="2">
+        <f t="shared" si="13"/>
+        <v>62</v>
+      </c>
+      <c r="E138" s="2">
+        <f t="shared" ref="E138" si="14">(C138-C131)/7</f>
+        <v>45.428571428571431</v>
+      </c>
+      <c r="F138" s="2">
+        <f>SUM($D$2:$D138)/COUNT($D$2:$D138)</f>
+        <v>29.343065693430656</v>
+      </c>
       <c r="G138" s="2">
         <f t="shared" si="11"/>
-        <v>4200.7487999999994</v>
+        <v>4137.1415999999999</v>
       </c>
       <c r="H138" s="2">
         <f t="shared" si="12"/>
-        <v>4070.6647999999996</v>
+        <v>4012.5248000000001</v>
       </c>
       <c r="I138" t="s">
         <v>11</v>
@@ -14459,11 +14697,11 @@
       <c r="E139" s="2"/>
       <c r="G139" s="2">
         <f t="shared" si="11"/>
-        <v>4266.0152999999991</v>
+        <v>4200.817</v>
       </c>
       <c r="H139" s="2">
         <f t="shared" si="12"/>
-        <v>4130.070200000001</v>
+        <v>4069.6668999999993</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.4">
@@ -14477,11 +14715,11 @@
       <c r="E140" s="2"/>
       <c r="G140" s="2">
         <f t="shared" si="11"/>
-        <v>4331.7840000000006</v>
+        <v>4264.9781999999996</v>
       </c>
       <c r="H140" s="2">
         <f t="shared" si="12"/>
-        <v>4189.8234000000002</v>
+        <v>4127.1023999999998</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.4">
@@ -14495,11 +14733,11 @@
       <c r="E141" s="2"/>
       <c r="G141" s="2">
         <f t="shared" si="11"/>
-        <v>4398.0549000000001</v>
+        <v>4329.6251999999995</v>
       </c>
       <c r="H141" s="2">
         <f t="shared" si="12"/>
-        <v>4249.9226000000008</v>
+        <v>4184.8288999999995</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.4">
@@ -14513,11 +14751,11 @@
       <c r="E142" s="2"/>
       <c r="G142" s="2">
         <f t="shared" si="11"/>
-        <v>4464.8279999999995</v>
+        <v>4394.7579999999998</v>
       </c>
       <c r="H142" s="2">
         <f t="shared" si="12"/>
-        <v>4310.3660000000009</v>
+        <v>4242.8439999999991</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.4">
@@ -14531,11 +14769,11 @@
       <c r="E143" s="2"/>
       <c r="G143" s="2">
         <f t="shared" si="11"/>
-        <v>4532.1032999999998</v>
+        <v>4460.3765999999996</v>
       </c>
       <c r="H143" s="2">
         <f t="shared" si="12"/>
-        <v>4371.1518000000005</v>
+        <v>4301.1452999999992</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.4">
@@ -14549,14 +14787,14 @@
       <c r="E144" s="2"/>
       <c r="G144" s="2">
         <f t="shared" si="11"/>
-        <v>4599.8807999999999</v>
+        <v>4526.4810000000007</v>
       </c>
       <c r="H144" s="2">
         <f t="shared" si="12"/>
-        <v>4432.2782000000007</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4359.7303999999995</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>43768</v>
       </c>
@@ -14567,14 +14805,14 @@
       <c r="E145" s="2"/>
       <c r="G145" s="2">
         <f t="shared" si="11"/>
-        <v>4668.1605</v>
+        <v>4593.0712000000003</v>
       </c>
       <c r="H145" s="2">
         <f t="shared" si="12"/>
-        <v>4493.7434000000012</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4418.5968999999996</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>43769</v>
       </c>
@@ -14585,14 +14823,14 @@
       <c r="E146" s="2"/>
       <c r="G146" s="2">
         <f t="shared" si="11"/>
-        <v>4736.9423999999999</v>
+        <v>4660.1472000000003</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="12"/>
-        <v>4555.5456000000004</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4477.7423999999992</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>43770</v>
       </c>
@@ -14603,14 +14841,14 @@
       <c r="E147" s="2"/>
       <c r="G147" s="2">
         <f t="shared" si="11"/>
-        <v>4806.2264999999998</v>
+        <v>4727.7089999999998</v>
       </c>
       <c r="H147" s="2">
         <f t="shared" si="12"/>
-        <v>4617.6830000000009</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4537.1644999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>43771</v>
       </c>
@@ -14621,14 +14859,14 @@
       <c r="E148" s="2"/>
       <c r="G148" s="2">
         <f t="shared" si="11"/>
-        <v>4876.0127999999995</v>
+        <v>4795.7565999999997</v>
       </c>
       <c r="H148" s="2">
         <f t="shared" si="12"/>
-        <v>4680.1538</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4596.8607999999995</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>43772</v>
       </c>
@@ -14639,14 +14877,14 @@
       <c r="E149" s="2"/>
       <c r="G149" s="2">
         <f t="shared" si="11"/>
-        <v>4946.3013000000001</v>
+        <v>4864.29</v>
       </c>
       <c r="H149" s="2">
         <f t="shared" si="12"/>
-        <v>4742.9562000000005</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4656.8288999999995</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>43773</v>
       </c>
@@ -14657,14 +14895,14 @@
       <c r="E150" s="2"/>
       <c r="G150" s="2">
         <f t="shared" si="11"/>
-        <v>5017.0919999999996</v>
+        <v>4933.3091999999997</v>
       </c>
       <c r="H150" s="2">
         <f t="shared" si="12"/>
-        <v>4806.0884000000005</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4717.0663999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>43774</v>
       </c>
@@ -14675,14 +14913,17 @@
       <c r="E151" s="2"/>
       <c r="G151" s="2">
         <f t="shared" si="11"/>
-        <v>5088.3849</v>
+        <v>5002.8142000000007</v>
       </c>
       <c r="H151" s="2">
         <f t="shared" si="12"/>
-        <v>4869.5486000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4777.5708999999997</v>
+      </c>
+      <c r="I151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>43775</v>
       </c>
@@ -14693,14 +14934,14 @@
       <c r="E152" s="2"/>
       <c r="G152" s="2">
         <f t="shared" si="11"/>
-        <v>5160.18</v>
+        <v>5072.8050000000003</v>
       </c>
       <c r="H152" s="2">
         <f t="shared" si="12"/>
-        <v>4933.335</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4838.34</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>43776</v>
       </c>
@@ -14711,14 +14952,14 @@
       <c r="E153" s="2"/>
       <c r="G153" s="2">
         <f t="shared" si="11"/>
-        <v>5232.4772999999996</v>
+        <v>5143.2816000000003</v>
       </c>
       <c r="H153" s="2">
         <f t="shared" si="12"/>
-        <v>4997.4458000000004</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4899.3712999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>43777</v>
       </c>
@@ -14729,14 +14970,14 @@
       <c r="E154" s="2"/>
       <c r="G154" s="2">
         <f t="shared" si="11"/>
-        <v>5305.2767999999996</v>
+        <v>5214.2440000000006</v>
       </c>
       <c r="H154" s="2">
         <f t="shared" si="12"/>
-        <v>5061.8792000000012</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4960.6623999999993</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>43778</v>
       </c>
@@ -14747,14 +14988,17 @@
       <c r="E155" s="2"/>
       <c r="G155" s="2">
         <f t="shared" si="11"/>
-        <v>5378.5784999999996</v>
+        <v>5285.6922000000004</v>
       </c>
       <c r="H155" s="2">
         <f t="shared" si="12"/>
-        <v>5126.6333999999997</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+        <v>5022.2109</v>
+      </c>
+      <c r="I155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>43779</v>
       </c>
@@ -14765,14 +15009,14 @@
       <c r="E156" s="2"/>
       <c r="G156" s="2">
         <f t="shared" si="11"/>
-        <v>5452.3823999999995</v>
+        <v>5357.6261999999997</v>
       </c>
       <c r="H156" s="2">
         <f t="shared" si="12"/>
-        <v>5191.7066000000013</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+        <v>5084.0144</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>43780</v>
       </c>
@@ -14783,14 +15027,14 @@
       <c r="E157" s="2"/>
       <c r="G157" s="2">
         <f t="shared" si="11"/>
-        <v>5526.6885000000002</v>
+        <v>5430.0459999999994</v>
       </c>
       <c r="H157" s="2">
         <f t="shared" si="12"/>
-        <v>5257.0970000000007</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+        <v>5146.0704999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>43781</v>
       </c>
@@ -14801,14 +15045,14 @@
       <c r="E158" s="2"/>
       <c r="G158" s="2">
         <f t="shared" si="11"/>
-        <v>5601.4967999999999</v>
+        <v>5502.9516000000003</v>
       </c>
       <c r="H158" s="2">
         <f t="shared" si="12"/>
-        <v>5322.8028000000004</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+        <v>5208.3768</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>43782</v>
       </c>
@@ -14819,14 +15063,14 @@
       <c r="E159" s="2"/>
       <c r="G159" s="2">
         <f t="shared" si="11"/>
-        <v>5676.8072999999995</v>
+        <v>5576.3430000000008</v>
       </c>
       <c r="H159" s="2">
         <f t="shared" si="12"/>
-        <v>5388.8222000000005</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+        <v>5270.9309000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>43783</v>
       </c>
@@ -14837,11 +15081,11 @@
       <c r="E160" s="2"/>
       <c r="G160" s="2">
         <f t="shared" si="11"/>
-        <v>5752.62</v>
+        <v>5650.2202000000007</v>
       </c>
       <c r="H160" s="2">
         <f t="shared" si="12"/>
-        <v>5455.1534000000011</v>
+        <v>5333.7304000000004</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.4">
@@ -14855,11 +15099,11 @@
       <c r="E161" s="2"/>
       <c r="G161" s="2">
         <f t="shared" si="11"/>
-        <v>5828.9348999999993</v>
+        <v>5724.5832</v>
       </c>
       <c r="H161" s="2">
         <f t="shared" si="12"/>
-        <v>5521.7946000000002</v>
+        <v>5396.7728999999999</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.4">
@@ -14873,11 +15117,11 @@
       <c r="E162" s="2"/>
       <c r="G162" s="2">
         <f t="shared" si="11"/>
-        <v>5905.7519999999995</v>
+        <v>5799.4319999999998</v>
       </c>
       <c r="H162" s="2">
         <f t="shared" si="12"/>
-        <v>5588.7440000000006</v>
+        <v>5460.0560000000005</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.4">
@@ -14891,11 +15135,11 @@
       <c r="E163" s="2"/>
       <c r="G163" s="2">
         <f t="shared" si="11"/>
-        <v>5983.0713000000005</v>
+        <v>5874.7665999999999</v>
       </c>
       <c r="H163" s="2">
         <f t="shared" si="12"/>
-        <v>5655.9998000000005</v>
+        <v>5523.5772999999999</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.4">
@@ -14909,11 +15153,11 @@
       <c r="E164" s="2"/>
       <c r="G164" s="2">
         <f t="shared" si="11"/>
-        <v>6060.8927999999996</v>
+        <v>5950.5869999999995</v>
       </c>
       <c r="H164" s="2">
         <f t="shared" si="12"/>
-        <v>5723.5602000000008</v>
+        <v>5587.3343999999997</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.4">
@@ -14927,11 +15171,11 @@
       <c r="E165" s="2"/>
       <c r="G165" s="2">
         <f t="shared" si="11"/>
-        <v>6139.2164999999995</v>
+        <v>6026.8931999999995</v>
       </c>
       <c r="H165" s="2">
         <f t="shared" si="12"/>
-        <v>5791.4234000000006</v>
+        <v>5651.3248999999987</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.4">
@@ -14945,11 +15189,11 @@
       <c r="E166" s="2"/>
       <c r="G166" s="2">
         <f t="shared" si="11"/>
-        <v>6218.0423999999994</v>
+        <v>6103.6852000000008</v>
       </c>
       <c r="H166" s="2">
         <f t="shared" si="12"/>
-        <v>5859.5876000000007</v>
+        <v>5715.5464000000011</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.4">
@@ -14963,11 +15207,11 @@
       <c r="E167" s="2"/>
       <c r="G167" s="2">
         <f t="shared" si="11"/>
-        <v>6297.3704999999991</v>
+        <v>6180.9630000000006</v>
       </c>
       <c r="H167" s="2">
         <f t="shared" si="12"/>
-        <v>5928.0510000000004</v>
+        <v>5779.9965000000002</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.4">
@@ -14981,11 +15225,11 @@
       <c r="E168" s="2"/>
       <c r="G168" s="2">
         <f t="shared" si="11"/>
-        <v>6377.2008000000005</v>
+        <v>6258.7266</v>
       </c>
       <c r="H168" s="2">
         <f t="shared" si="12"/>
-        <v>5996.8118000000004</v>
+        <v>5844.6728000000003</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.4">
@@ -14999,11 +15243,11 @@
       <c r="E169" s="2"/>
       <c r="G169" s="2">
         <f t="shared" si="11"/>
-        <v>6457.5333000000001</v>
+        <v>6336.9760000000006</v>
       </c>
       <c r="H169" s="2">
         <f t="shared" si="12"/>
-        <v>6065.8681999999999</v>
+        <v>5909.5728999999992</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.4">
@@ -15017,11 +15261,11 @@
       <c r="E170" s="2"/>
       <c r="G170" s="2">
         <f t="shared" si="11"/>
-        <v>6538.3679999999995</v>
+        <v>6415.7111999999997</v>
       </c>
       <c r="H170" s="2">
         <f t="shared" si="12"/>
-        <v>6135.2184000000007</v>
+        <v>5974.6944000000003</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
@@ -15035,11 +15279,11 @@
       <c r="E171" s="2"/>
       <c r="G171" s="2">
         <f t="shared" si="11"/>
-        <v>6619.7048999999997</v>
+        <v>6494.9322000000002</v>
       </c>
       <c r="H171" s="2">
         <f t="shared" si="12"/>
-        <v>6204.8606</v>
+        <v>6040.0349000000006</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.4">
@@ -15053,11 +15297,11 @@
       <c r="E172" s="2"/>
       <c r="G172" s="2">
         <f t="shared" si="11"/>
-        <v>6701.5439999999999</v>
+        <v>6574.6390000000001</v>
       </c>
       <c r="H172" s="2">
         <f t="shared" si="12"/>
-        <v>6274.7930000000006</v>
+        <v>6105.5919999999987</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.4">
@@ -15071,11 +15315,11 @@
       <c r="E173" s="2"/>
       <c r="G173" s="2">
         <f t="shared" si="11"/>
-        <v>6783.885299999999</v>
+        <v>6654.8315999999995</v>
       </c>
       <c r="H173" s="2">
         <f t="shared" si="12"/>
-        <v>6345.0137999999997</v>
+        <v>6171.3632999999991</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.4">
@@ -15089,11 +15333,11 @@
       <c r="E174" s="2"/>
       <c r="G174" s="2">
         <f t="shared" si="11"/>
-        <v>6866.728799999999</v>
+        <v>6735.51</v>
       </c>
       <c r="H174" s="2">
         <f t="shared" si="12"/>
-        <v>6415.521200000002</v>
+        <v>6237.3463999999985</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.4">
@@ -15107,11 +15351,11 @@
       <c r="E175" s="2"/>
       <c r="G175" s="2">
         <f t="shared" si="11"/>
-        <v>6950.0744999999997</v>
+        <v>6816.6742000000004</v>
       </c>
       <c r="H175" s="2">
         <f t="shared" si="12"/>
-        <v>6486.3134000000009</v>
+        <v>6303.5388999999996</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.4">
@@ -15125,15 +15369,15 @@
       <c r="E176" s="2"/>
       <c r="G176" s="2">
         <f t="shared" si="11"/>
-        <v>7033.9223999999995</v>
+        <v>6898.3242</v>
       </c>
       <c r="H176" s="2">
         <f t="shared" si="12"/>
-        <v>6557.3886000000011</v>
+        <v>6369.9383999999991</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:H1048576 I1">
+  <conditionalFormatting sqref="I1 G1:H1048576">
     <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
       <formula>$C1*1.1</formula>
     </cfRule>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5252BFB7-F318-4847-8652-24C86ABCEE59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DB47A2-5891-4E68-A802-A7B76BD18906}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$146</c:f>
+              <c:f>Sheet1!$B$2:$B$176</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="145"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -779,16 +779,106 @@
                 </c:pt>
                 <c:pt idx="144">
                   <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$146</c:f>
+              <c:f>Sheet1!$C$2:$C$176</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="145"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1192,13 +1282,43 @@
                   <c:v>3873</c:v>
                 </c:pt>
                 <c:pt idx="134" formatCode="#,##0">
-                  <c:v>3908</c:v>
+                  <c:v>3922</c:v>
                 </c:pt>
                 <c:pt idx="135" formatCode="#,##0">
-                  <c:v>3961</c:v>
+                  <c:v>3972</c:v>
                 </c:pt>
                 <c:pt idx="136" formatCode="#,##0">
                   <c:v>4023</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="#,##0">
+                  <c:v>4072</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="#,##0">
+                  <c:v>4136</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="#,##0">
+                  <c:v>4214</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="#,##0">
+                  <c:v>4265</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="#,##0">
+                  <c:v>4299</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="#,##0">
+                  <c:v>4336</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="#,##0">
+                  <c:v>4376</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="#,##0">
+                  <c:v>4430</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="#,##0">
+                  <c:v>4468</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="#,##0">
+                  <c:v>4570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,10 +1791,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$146</c:f>
+              <c:f>Sheet1!$B$2:$B$176</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="145"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2109,16 +2229,106 @@
                 </c:pt>
                 <c:pt idx="144">
                   <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$146</c:f>
+              <c:f>Sheet1!$C$2:$C$176</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="145"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2522,13 +2732,43 @@
                   <c:v>3873</c:v>
                 </c:pt>
                 <c:pt idx="134" formatCode="#,##0">
-                  <c:v>3908</c:v>
+                  <c:v>3922</c:v>
                 </c:pt>
                 <c:pt idx="135" formatCode="#,##0">
-                  <c:v>3961</c:v>
+                  <c:v>3972</c:v>
                 </c:pt>
                 <c:pt idx="136" formatCode="#,##0">
                   <c:v>4023</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="#,##0">
+                  <c:v>4072</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="#,##0">
+                  <c:v>4136</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="#,##0">
+                  <c:v>4214</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="#,##0">
+                  <c:v>4265</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="#,##0">
+                  <c:v>4299</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="#,##0">
+                  <c:v>4336</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="#,##0">
+                  <c:v>4376</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="#,##0">
+                  <c:v>4430</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="#,##0">
+                  <c:v>4468</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="#,##0">
+                  <c:v>4570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3045,10 +3285,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$146</c:f>
+              <c:f>Sheet1!$B$2:$B$176</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="145"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3483,16 +3723,106 @@
                 </c:pt>
                 <c:pt idx="144">
                   <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$146</c:f>
+              <c:f>Sheet1!$E$2:$E$176</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="145"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3896,13 +4226,43 @@
                   <c:v>48.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>43.857142857142854</c:v>
+                  <c:v>45.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>46.428571428571431</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>45.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>49.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>47.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>53.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>50.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>51.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>47.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>50.857142857142854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4372,10 +4732,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$146</c:f>
+              <c:f>Sheet1!$B$2:$B$176</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="145"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4810,16 +5170,106 @@
                 </c:pt>
                 <c:pt idx="144">
                   <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$146</c:f>
+              <c:f>Sheet1!$D$2:$D$176</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="145"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5223,13 +5673,43 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>35</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>53</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>62</c:v>
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5752,10 +6232,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$146</c:f>
+              <c:f>Sheet1!$B$2:$B$176</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="145"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6190,16 +6670,106 @@
                 </c:pt>
                 <c:pt idx="144">
                   <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$146</c:f>
+              <c:f>Sheet1!$F$2:$F$176</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="145"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6603,13 +7173,43 @@
                   <c:v>28.880597014925375</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>28.925925925925927</c:v>
+                  <c:v>29.029629629629628</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>29.102941176470587</c:v>
+                  <c:v>29.183823529411764</c:v>
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>29.343065693430656</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>29.485507246376812</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>29.733812949640289</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>30.078571428571429</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>30.226950354609929</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>30.253521126760564</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>30.3006993006993</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>30.368055555555557</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>30.531034482758621</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>30.582191780821919</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>31.068027210884352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10149,11 +10749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J176"/>
+  <dimension ref="A1:J207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <selection pane="bottomLeft" activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -14429,7 +15029,7 @@
         <v>43754</v>
       </c>
       <c r="B131" s="2">
-        <f t="shared" ref="B131:B176" si="10">B130+1</f>
+        <f t="shared" ref="B131:B194" si="10">B130+1</f>
         <v>129</v>
       </c>
       <c r="C131" s="3">
@@ -14468,7 +15068,7 @@
         <v>3723</v>
       </c>
       <c r="D132" s="2">
-        <f t="shared" ref="D132:D138" si="13">C132-C131</f>
+        <f t="shared" ref="D132:D148" si="13">C132-C131</f>
         <v>18</v>
       </c>
       <c r="E132" s="2">
@@ -14596,19 +15196,19 @@
         <v>134</v>
       </c>
       <c r="C136" s="3">
-        <v>3908</v>
+        <v>3922</v>
       </c>
       <c r="D136" s="2">
         <f t="shared" si="13"/>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E136" s="2">
         <f t="shared" si="9"/>
-        <v>43.857142857142854</v>
+        <v>45.857142857142854</v>
       </c>
       <c r="F136" s="2">
         <f>SUM($D$2:$D136)/COUNT($D$2:$D136)</f>
-        <v>28.925925925925927</v>
+        <v>29.029629629629628</v>
       </c>
       <c r="G136" s="2">
         <f t="shared" si="11"/>
@@ -14628,19 +15228,19 @@
         <v>135</v>
       </c>
       <c r="C137" s="3">
-        <v>3961</v>
+        <v>3972</v>
       </c>
       <c r="D137" s="2">
         <f t="shared" si="13"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E137" s="2">
         <f t="shared" si="9"/>
-        <v>46.428571428571431</v>
+        <v>48</v>
       </c>
       <c r="F137" s="2">
         <f>SUM($D$2:$D137)/COUNT($D$2:$D137)</f>
-        <v>29.102941176470587</v>
+        <v>29.183823529411764</v>
       </c>
       <c r="G137" s="2">
         <f t="shared" si="11"/>
@@ -14664,10 +15264,10 @@
       </c>
       <c r="D138" s="2">
         <f t="shared" si="13"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E138" s="2">
-        <f t="shared" ref="E138" si="14">(C138-C131)/7</f>
+        <f t="shared" ref="E138:E148" si="14">(C138-C131)/7</f>
         <v>45.428571428571431</v>
       </c>
       <c r="F138" s="2">
@@ -14694,7 +15294,21 @@
         <f t="shared" si="10"/>
         <v>137</v>
       </c>
-      <c r="E139" s="2"/>
+      <c r="C139" s="3">
+        <v>4072</v>
+      </c>
+      <c r="D139" s="2">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="E139" s="2">
+        <f t="shared" si="14"/>
+        <v>49.857142857142854</v>
+      </c>
+      <c r="F139" s="2">
+        <f>SUM($D$2:$D139)/COUNT($D$2:$D139)</f>
+        <v>29.485507246376812</v>
+      </c>
       <c r="G139" s="2">
         <f t="shared" si="11"/>
         <v>4200.817</v>
@@ -14712,7 +15326,21 @@
         <f t="shared" si="10"/>
         <v>138</v>
       </c>
-      <c r="E140" s="2"/>
+      <c r="C140" s="3">
+        <v>4136</v>
+      </c>
+      <c r="D140" s="2">
+        <f t="shared" si="13"/>
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <f t="shared" si="14"/>
+        <v>47.142857142857146</v>
+      </c>
+      <c r="F140" s="2">
+        <f>SUM($D$2:$D140)/COUNT($D$2:$D140)</f>
+        <v>29.733812949640289</v>
+      </c>
       <c r="G140" s="2">
         <f t="shared" si="11"/>
         <v>4264.9781999999996</v>
@@ -14730,7 +15358,21 @@
         <f t="shared" si="10"/>
         <v>139</v>
       </c>
-      <c r="E141" s="2"/>
+      <c r="C141" s="3">
+        <v>4214</v>
+      </c>
+      <c r="D141" s="2">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
+      <c r="E141" s="2">
+        <f t="shared" si="14"/>
+        <v>56</v>
+      </c>
+      <c r="F141" s="2">
+        <f>SUM($D$2:$D141)/COUNT($D$2:$D141)</f>
+        <v>30.078571428571429</v>
+      </c>
       <c r="G141" s="2">
         <f t="shared" si="11"/>
         <v>4329.6251999999995</v>
@@ -14748,7 +15390,21 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="E142" s="2"/>
+      <c r="C142" s="3">
+        <v>4265</v>
+      </c>
+      <c r="D142" s="2">
+        <f t="shared" si="13"/>
+        <v>51</v>
+      </c>
+      <c r="E142" s="2">
+        <f t="shared" si="14"/>
+        <v>56</v>
+      </c>
+      <c r="F142" s="2">
+        <f>SUM($D$2:$D142)/COUNT($D$2:$D142)</f>
+        <v>30.226950354609929</v>
+      </c>
       <c r="G142" s="2">
         <f t="shared" si="11"/>
         <v>4394.7579999999998</v>
@@ -14766,7 +15422,21 @@
         <f t="shared" si="10"/>
         <v>141</v>
       </c>
-      <c r="E143" s="2"/>
+      <c r="C143" s="3">
+        <v>4299</v>
+      </c>
+      <c r="D143" s="2">
+        <f t="shared" si="13"/>
+        <v>34</v>
+      </c>
+      <c r="E143" s="2">
+        <f t="shared" si="14"/>
+        <v>53.857142857142854</v>
+      </c>
+      <c r="F143" s="2">
+        <f>SUM($D$2:$D143)/COUNT($D$2:$D143)</f>
+        <v>30.253521126760564</v>
+      </c>
       <c r="G143" s="2">
         <f t="shared" si="11"/>
         <v>4460.3765999999996</v>
@@ -14784,7 +15454,21 @@
         <f t="shared" si="10"/>
         <v>142</v>
       </c>
-      <c r="E144" s="2"/>
+      <c r="C144" s="3">
+        <v>4336</v>
+      </c>
+      <c r="D144" s="2">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="E144" s="2">
+        <f t="shared" si="14"/>
+        <v>52</v>
+      </c>
+      <c r="F144" s="2">
+        <f>SUM($D$2:$D144)/COUNT($D$2:$D144)</f>
+        <v>30.3006993006993</v>
+      </c>
       <c r="G144" s="2">
         <f t="shared" si="11"/>
         <v>4526.4810000000007</v>
@@ -14802,7 +15486,21 @@
         <f t="shared" si="10"/>
         <v>143</v>
       </c>
-      <c r="E145" s="2"/>
+      <c r="C145" s="3">
+        <v>4376</v>
+      </c>
+      <c r="D145" s="2">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="E145" s="2">
+        <f t="shared" si="14"/>
+        <v>50.428571428571431</v>
+      </c>
+      <c r="F145" s="2">
+        <f>SUM($D$2:$D145)/COUNT($D$2:$D145)</f>
+        <v>30.368055555555557</v>
+      </c>
       <c r="G145" s="2">
         <f t="shared" si="11"/>
         <v>4593.0712000000003</v>
@@ -14820,7 +15518,21 @@
         <f t="shared" si="10"/>
         <v>144</v>
       </c>
-      <c r="E146" s="2"/>
+      <c r="C146" s="3">
+        <v>4430</v>
+      </c>
+      <c r="D146" s="2">
+        <f t="shared" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="E146" s="2">
+        <f t="shared" si="14"/>
+        <v>51.142857142857146</v>
+      </c>
+      <c r="F146" s="2">
+        <f>SUM($D$2:$D146)/COUNT($D$2:$D146)</f>
+        <v>30.531034482758621</v>
+      </c>
       <c r="G146" s="2">
         <f t="shared" si="11"/>
         <v>4660.1472000000003</v>
@@ -14838,7 +15550,21 @@
         <f t="shared" si="10"/>
         <v>145</v>
       </c>
-      <c r="E147" s="2"/>
+      <c r="C147" s="3">
+        <v>4468</v>
+      </c>
+      <c r="D147" s="2">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="E147" s="2">
+        <f t="shared" si="14"/>
+        <v>47.428571428571431</v>
+      </c>
+      <c r="F147" s="2">
+        <f>SUM($D$2:$D147)/COUNT($D$2:$D147)</f>
+        <v>30.582191780821919</v>
+      </c>
       <c r="G147" s="2">
         <f t="shared" si="11"/>
         <v>4727.7089999999998</v>
@@ -14856,7 +15582,21 @@
         <f t="shared" si="10"/>
         <v>146</v>
       </c>
-      <c r="E148" s="2"/>
+      <c r="C148" s="3">
+        <v>4570</v>
+      </c>
+      <c r="D148" s="2">
+        <f t="shared" si="13"/>
+        <v>102</v>
+      </c>
+      <c r="E148" s="2">
+        <f t="shared" si="14"/>
+        <v>50.857142857142854</v>
+      </c>
+      <c r="F148" s="2">
+        <f>SUM($D$2:$D148)/COUNT($D$2:$D148)</f>
+        <v>31.068027210884352</v>
+      </c>
       <c r="G148" s="2">
         <f t="shared" si="11"/>
         <v>4795.7565999999997</v>
@@ -15374,6 +16114,285 @@
       <c r="H176" s="2">
         <f t="shared" si="12"/>
         <v>6369.9383999999991</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B177" s="2">
+        <f t="shared" si="10"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178" s="1">
+        <v>43801</v>
+      </c>
+      <c r="B178" s="2">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179" s="1">
+        <v>43802</v>
+      </c>
+      <c r="B179" s="2">
+        <f t="shared" si="10"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180" s="1">
+        <v>43803</v>
+      </c>
+      <c r="B180" s="2">
+        <f t="shared" si="10"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181" s="1">
+        <v>43804</v>
+      </c>
+      <c r="B181" s="2">
+        <f t="shared" si="10"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182" s="1">
+        <v>43805</v>
+      </c>
+      <c r="B182" s="2">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183" s="1">
+        <v>43806</v>
+      </c>
+      <c r="B183" s="2">
+        <f t="shared" si="10"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B184" s="2">
+        <f t="shared" si="10"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B185" s="2">
+        <f t="shared" si="10"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186" s="1">
+        <v>43809</v>
+      </c>
+      <c r="B186" s="2">
+        <f t="shared" si="10"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187" s="1">
+        <v>43810</v>
+      </c>
+      <c r="B187" s="2">
+        <f t="shared" si="10"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188" s="1">
+        <v>43811</v>
+      </c>
+      <c r="B188" s="2">
+        <f t="shared" si="10"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189" s="1">
+        <v>43812</v>
+      </c>
+      <c r="B189" s="2">
+        <f t="shared" si="10"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190" s="1">
+        <v>43813</v>
+      </c>
+      <c r="B190" s="2">
+        <f t="shared" si="10"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191" s="1">
+        <v>43814</v>
+      </c>
+      <c r="B191" s="2">
+        <f t="shared" si="10"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192" s="1">
+        <v>43815</v>
+      </c>
+      <c r="B192" s="2">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B193" s="2">
+        <f t="shared" si="10"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194" s="1">
+        <v>43817</v>
+      </c>
+      <c r="B194" s="2">
+        <f t="shared" si="10"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195" s="1">
+        <v>43818</v>
+      </c>
+      <c r="B195" s="2">
+        <f t="shared" ref="B195:B207" si="15">B194+1</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196" s="1">
+        <v>43819</v>
+      </c>
+      <c r="B196" s="2">
+        <f t="shared" si="15"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B197" s="2">
+        <f t="shared" si="15"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198" s="1">
+        <v>43821</v>
+      </c>
+      <c r="B198" s="2">
+        <f t="shared" si="15"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199" s="1">
+        <v>43822</v>
+      </c>
+      <c r="B199" s="2">
+        <f t="shared" si="15"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200" s="1">
+        <v>43823</v>
+      </c>
+      <c r="B200" s="2">
+        <f t="shared" si="15"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201" s="1">
+        <v>43824</v>
+      </c>
+      <c r="B201" s="2">
+        <f t="shared" si="15"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202" s="1">
+        <v>43825</v>
+      </c>
+      <c r="B202" s="2">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203" s="1">
+        <v>43826</v>
+      </c>
+      <c r="B203" s="2">
+        <f t="shared" si="15"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B204" s="2">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B205" s="2">
+        <f t="shared" si="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206" s="1">
+        <v>43829</v>
+      </c>
+      <c r="B206" s="2">
+        <f t="shared" si="15"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A207" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B207" s="2">
+        <f t="shared" si="15"/>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DB47A2-5891-4E68-A802-A7B76BD18906}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4E9FC9-AAE1-49A9-8E31-4D6F8A496C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1312,13 +1312,25 @@
                   <c:v>4376</c:v>
                 </c:pt>
                 <c:pt idx="144" formatCode="#,##0">
-                  <c:v>4430</c:v>
+                  <c:v>4451</c:v>
                 </c:pt>
                 <c:pt idx="145" formatCode="#,##0">
-                  <c:v>4468</c:v>
+                  <c:v>4457</c:v>
                 </c:pt>
                 <c:pt idx="146" formatCode="#,##0">
-                  <c:v>4570</c:v>
+                  <c:v>4539</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="#,##0">
+                  <c:v>4540</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="#,##0">
+                  <c:v>4630</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="#,##0">
+                  <c:v>4644</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="#,##0">
+                  <c:v>4708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,13 +2774,25 @@
                   <c:v>4376</c:v>
                 </c:pt>
                 <c:pt idx="144" formatCode="#,##0">
-                  <c:v>4430</c:v>
+                  <c:v>4451</c:v>
                 </c:pt>
                 <c:pt idx="145" formatCode="#,##0">
-                  <c:v>4468</c:v>
+                  <c:v>4457</c:v>
                 </c:pt>
                 <c:pt idx="146" formatCode="#,##0">
-                  <c:v>4570</c:v>
+                  <c:v>4539</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="#,##0">
+                  <c:v>4540</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="#,##0">
+                  <c:v>4630</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="#,##0">
+                  <c:v>4644</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="#,##0">
+                  <c:v>4708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4256,13 +4280,25 @@
                   <c:v>50.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>51.142857142857146</c:v>
+                  <c:v>54.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="145">
+                  <c:v>45.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>46.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>39.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>47.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="150">
                   <c:v>47.428571428571431</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>50.857142857142854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5703,13 +5739,25 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>54</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>38</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>102</c:v>
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7203,13 +7251,25 @@
                   <c:v>30.368055555555557</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>30.531034482758621</c:v>
+                  <c:v>30.675862068965518</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>30.582191780821919</c:v>
+                  <c:v>30.506849315068493</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>31.068027210884352</c:v>
+                  <c:v>30.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>30.655405405405407</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>31.053691275167786</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>30.94</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>31.158940397350992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10753,22 +10813,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X41" sqref="X41"/>
+      <selection pane="bottomLeft" activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -10794,7 +10854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43625</v>
       </c>
@@ -10827,7 +10887,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43626</v>
       </c>
@@ -10860,7 +10920,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43627</v>
       </c>
@@ -10893,7 +10953,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43628</v>
       </c>
@@ -10926,7 +10986,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43629</v>
       </c>
@@ -10959,7 +11019,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43630</v>
       </c>
@@ -10992,7 +11052,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43631</v>
       </c>
@@ -11025,7 +11085,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43632</v>
       </c>
@@ -11058,7 +11118,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43633</v>
       </c>
@@ -11091,7 +11151,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43634</v>
       </c>
@@ -11124,7 +11184,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43635</v>
       </c>
@@ -11157,7 +11217,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43636</v>
       </c>
@@ -11190,7 +11250,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43637</v>
       </c>
@@ -11223,7 +11283,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43638</v>
       </c>
@@ -11256,7 +11316,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43639</v>
       </c>
@@ -11289,7 +11349,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43640</v>
       </c>
@@ -11322,7 +11382,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43641</v>
       </c>
@@ -11355,7 +11415,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43642</v>
       </c>
@@ -11388,7 +11448,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43643</v>
       </c>
@@ -11421,7 +11481,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43644</v>
       </c>
@@ -11454,7 +11514,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43645</v>
       </c>
@@ -11487,7 +11547,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43646</v>
       </c>
@@ -11520,7 +11580,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43647</v>
       </c>
@@ -11553,7 +11613,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43648</v>
       </c>
@@ -11586,7 +11646,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43649</v>
       </c>
@@ -11619,7 +11679,7 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43650</v>
       </c>
@@ -11652,7 +11712,7 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43651</v>
       </c>
@@ -11685,7 +11745,7 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43652</v>
       </c>
@@ -11718,7 +11778,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43653</v>
       </c>
@@ -11751,7 +11811,7 @@
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43654</v>
       </c>
@@ -11784,7 +11844,7 @@
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43655</v>
       </c>
@@ -11817,7 +11877,7 @@
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43656</v>
       </c>
@@ -11850,7 +11910,7 @@
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43657</v>
       </c>
@@ -11883,7 +11943,7 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43658</v>
       </c>
@@ -11916,7 +11976,7 @@
       </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43659</v>
       </c>
@@ -11949,7 +12009,7 @@
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43660</v>
       </c>
@@ -11982,7 +12042,7 @@
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43661</v>
       </c>
@@ -12015,7 +12075,7 @@
       </c>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43662</v>
       </c>
@@ -12048,7 +12108,7 @@
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43663</v>
       </c>
@@ -12081,7 +12141,7 @@
       </c>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43664</v>
       </c>
@@ -12114,7 +12174,7 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43665</v>
       </c>
@@ -12147,7 +12207,7 @@
       </c>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43666</v>
       </c>
@@ -12180,7 +12240,7 @@
       </c>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43667</v>
       </c>
@@ -12213,7 +12273,7 @@
       </c>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43668</v>
       </c>
@@ -12246,7 +12306,7 @@
       </c>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43669</v>
       </c>
@@ -12279,7 +12339,7 @@
       </c>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43670</v>
       </c>
@@ -12312,7 +12372,7 @@
       </c>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43671</v>
       </c>
@@ -12345,7 +12405,7 @@
       </c>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43672</v>
       </c>
@@ -12378,7 +12438,7 @@
       </c>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43673</v>
       </c>
@@ -12411,7 +12471,7 @@
       </c>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43674</v>
       </c>
@@ -12444,7 +12504,7 @@
       </c>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43675</v>
       </c>
@@ -12477,7 +12537,7 @@
       </c>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43676</v>
       </c>
@@ -12510,7 +12570,7 @@
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43677</v>
       </c>
@@ -12543,7 +12603,7 @@
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43678</v>
       </c>
@@ -12576,7 +12636,7 @@
       </c>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43679</v>
       </c>
@@ -12609,7 +12669,7 @@
       </c>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43680</v>
       </c>
@@ -12642,7 +12702,7 @@
       </c>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43681</v>
       </c>
@@ -12675,7 +12735,7 @@
       </c>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43682</v>
       </c>
@@ -12708,7 +12768,7 @@
       </c>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43683</v>
       </c>
@@ -12741,7 +12801,7 @@
       </c>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43684</v>
       </c>
@@ -12774,7 +12834,7 @@
       </c>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43685</v>
       </c>
@@ -12807,7 +12867,7 @@
       </c>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43686</v>
       </c>
@@ -12840,7 +12900,7 @@
       </c>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43687</v>
       </c>
@@ -12873,7 +12933,7 @@
       </c>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43688</v>
       </c>
@@ -12906,7 +12966,7 @@
       </c>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43689</v>
       </c>
@@ -12939,7 +12999,7 @@
       </c>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43690</v>
       </c>
@@ -12972,7 +13032,7 @@
       </c>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43691</v>
       </c>
@@ -13005,7 +13065,7 @@
       </c>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43692</v>
       </c>
@@ -13038,7 +13098,7 @@
       </c>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43693</v>
       </c>
@@ -13071,7 +13131,7 @@
       </c>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43694</v>
       </c>
@@ -13104,7 +13164,7 @@
       </c>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43695</v>
       </c>
@@ -13137,7 +13197,7 @@
       </c>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43696</v>
       </c>
@@ -13170,7 +13230,7 @@
       </c>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43697</v>
       </c>
@@ -13203,7 +13263,7 @@
       </c>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43698</v>
       </c>
@@ -13236,7 +13296,7 @@
       </c>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43699</v>
       </c>
@@ -13269,7 +13329,7 @@
       </c>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43700</v>
       </c>
@@ -13302,7 +13362,7 @@
       </c>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43701</v>
       </c>
@@ -13335,7 +13395,7 @@
       </c>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43702</v>
       </c>
@@ -13368,7 +13428,7 @@
       </c>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43703</v>
       </c>
@@ -13401,7 +13461,7 @@
       </c>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43704</v>
       </c>
@@ -13434,7 +13494,7 @@
       </c>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43705</v>
       </c>
@@ -13467,7 +13527,7 @@
       </c>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43706</v>
       </c>
@@ -13500,7 +13560,7 @@
       </c>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43707</v>
       </c>
@@ -13533,7 +13593,7 @@
       </c>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43708</v>
       </c>
@@ -13566,7 +13626,7 @@
       </c>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43709</v>
       </c>
@@ -13599,7 +13659,7 @@
       </c>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43710</v>
       </c>
@@ -13632,7 +13692,7 @@
       </c>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43711</v>
       </c>
@@ -13665,7 +13725,7 @@
       </c>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43712</v>
       </c>
@@ -13698,7 +13758,7 @@
       </c>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43713</v>
       </c>
@@ -13731,7 +13791,7 @@
       </c>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43714</v>
       </c>
@@ -13764,7 +13824,7 @@
       </c>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43715</v>
       </c>
@@ -13799,7 +13859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43716</v>
       </c>
@@ -13831,7 +13891,7 @@
         <v>1783.7152999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43717</v>
       </c>
@@ -13863,7 +13923,7 @@
         <v>1825.1704</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43718</v>
       </c>
@@ -13895,7 +13955,7 @@
         <v>1867.0268999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43719</v>
       </c>
@@ -13930,7 +13990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43720</v>
       </c>
@@ -13962,7 +14022,7 @@
         <v>1951.9344999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43721</v>
       </c>
@@ -13994,7 +14054,7 @@
         <v>1994.9807999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43722</v>
       </c>
@@ -14026,7 +14086,7 @@
         <v>2038.4188999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43723</v>
       </c>
@@ -14058,7 +14118,7 @@
         <v>2082.2464</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43724</v>
       </c>
@@ -14090,7 +14150,7 @@
         <v>2126.4609</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43725</v>
       </c>
@@ -14122,7 +14182,7 @@
         <v>2171.06</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43726</v>
       </c>
@@ -14154,7 +14214,7 @@
         <v>2216.0412999999994</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43727</v>
       </c>
@@ -14186,7 +14246,7 @@
         <v>2261.4023999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43728</v>
       </c>
@@ -14218,7 +14278,7 @@
         <v>2307.1408999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43729</v>
       </c>
@@ -14253,7 +14313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43730</v>
       </c>
@@ -14288,7 +14348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43731</v>
       </c>
@@ -14320,7 +14380,7 @@
         <v>2446.5968000000003</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43732</v>
       </c>
@@ -14352,7 +14412,7 @@
         <v>2493.8209000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43733</v>
       </c>
@@ -14384,7 +14444,7 @@
         <v>2541.4104000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43734</v>
       </c>
@@ -14416,7 +14476,7 @@
         <v>2589.3628999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43735</v>
       </c>
@@ -14448,7 +14508,7 @@
         <v>2637.6759999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43736</v>
       </c>
@@ -14480,7 +14540,7 @@
         <v>2686.3472999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43737</v>
       </c>
@@ -14512,7 +14572,7 @@
         <v>2735.3744000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43738</v>
       </c>
@@ -14544,7 +14604,7 @@
         <v>2784.7548999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43739</v>
       </c>
@@ -14576,7 +14636,7 @@
         <v>2834.4863999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43740</v>
       </c>
@@ -14608,7 +14668,7 @@
         <v>2884.5664999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43741</v>
       </c>
@@ -14640,7 +14700,7 @@
         <v>2934.9927999999991</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43742</v>
       </c>
@@ -14672,7 +14732,7 @@
         <v>2985.7628999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43743</v>
       </c>
@@ -14704,7 +14764,7 @@
         <v>3036.8743999999997</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43744</v>
       </c>
@@ -14736,7 +14796,7 @@
         <v>3088.3248999999996</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43745</v>
       </c>
@@ -14768,7 +14828,7 @@
         <v>3140.1120000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43746</v>
       </c>
@@ -14800,7 +14860,7 @@
         <v>3192.2332999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43747</v>
       </c>
@@ -14832,7 +14892,7 @@
         <v>3244.6864000000005</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43748</v>
       </c>
@@ -14864,7 +14924,7 @@
         <v>3297.4688999999989</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43749</v>
       </c>
@@ -14896,7 +14956,7 @@
         <v>3350.5783999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43750</v>
       </c>
@@ -14928,7 +14988,7 @@
         <v>3404.0124999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43751</v>
       </c>
@@ -14960,7 +15020,7 @@
         <v>3457.7687999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43752</v>
       </c>
@@ -14992,7 +15052,7 @@
         <v>3511.8448999999991</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43753</v>
       </c>
@@ -15024,7 +15084,7 @@
         <v>3566.2383999999993</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43754</v>
       </c>
@@ -15056,7 +15116,7 @@
         <v>3620.9468999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43755</v>
       </c>
@@ -15068,7 +15128,7 @@
         <v>3723</v>
       </c>
       <c r="D132" s="2">
-        <f t="shared" ref="D132:D148" si="13">C132-C131</f>
+        <f t="shared" ref="D132:D152" si="13">C132-C131</f>
         <v>18</v>
       </c>
       <c r="E132" s="2">
@@ -15088,7 +15148,7 @@
         <v>3675.9679999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43756</v>
       </c>
@@ -15120,7 +15180,7 @@
         <v>3731.2992999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43757</v>
       </c>
@@ -15152,7 +15212,7 @@
         <v>3786.9383999999991</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43758</v>
       </c>
@@ -15187,7 +15247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43759</v>
       </c>
@@ -15219,7 +15279,7 @@
         <v>3899.1304</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43760</v>
       </c>
@@ -15251,7 +15311,7 @@
         <v>3955.6784999999991</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43761</v>
       </c>
@@ -15267,7 +15327,7 @@
         <v>51</v>
       </c>
       <c r="E138" s="2">
-        <f t="shared" ref="E138:E148" si="14">(C138-C131)/7</f>
+        <f t="shared" ref="E138:E152" si="14">(C138-C131)/7</f>
         <v>45.428571428571431</v>
       </c>
       <c r="F138" s="2">
@@ -15286,7 +15346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43762</v>
       </c>
@@ -15318,7 +15378,7 @@
         <v>4069.6668999999993</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43763</v>
       </c>
@@ -15350,7 +15410,7 @@
         <v>4127.1023999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43764</v>
       </c>
@@ -15382,7 +15442,7 @@
         <v>4184.8288999999995</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43765</v>
       </c>
@@ -15414,7 +15474,7 @@
         <v>4242.8439999999991</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43766</v>
       </c>
@@ -15446,7 +15506,7 @@
         <v>4301.1452999999992</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43767</v>
       </c>
@@ -15478,7 +15538,7 @@
         <v>4359.7303999999995</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43768</v>
       </c>
@@ -15510,7 +15570,7 @@
         <v>4418.5968999999996</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43769</v>
       </c>
@@ -15519,19 +15579,19 @@
         <v>144</v>
       </c>
       <c r="C146" s="3">
-        <v>4430</v>
+        <v>4451</v>
       </c>
       <c r="D146" s="2">
         <f t="shared" si="13"/>
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E146" s="2">
         <f t="shared" si="14"/>
-        <v>51.142857142857146</v>
+        <v>54.142857142857146</v>
       </c>
       <c r="F146" s="2">
         <f>SUM($D$2:$D146)/COUNT($D$2:$D146)</f>
-        <v>30.531034482758621</v>
+        <v>30.675862068965518</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" si="11"/>
@@ -15542,7 +15602,7 @@
         <v>4477.7423999999992</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43770</v>
       </c>
@@ -15551,19 +15611,19 @@
         <v>145</v>
       </c>
       <c r="C147" s="3">
-        <v>4468</v>
+        <v>4457</v>
       </c>
       <c r="D147" s="2">
         <f t="shared" si="13"/>
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E147" s="2">
         <f t="shared" si="14"/>
-        <v>47.428571428571431</v>
+        <v>45.857142857142854</v>
       </c>
       <c r="F147" s="2">
         <f>SUM($D$2:$D147)/COUNT($D$2:$D147)</f>
-        <v>30.582191780821919</v>
+        <v>30.506849315068493</v>
       </c>
       <c r="G147" s="2">
         <f t="shared" si="11"/>
@@ -15574,7 +15634,7 @@
         <v>4537.1644999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43771</v>
       </c>
@@ -15583,19 +15643,19 @@
         <v>146</v>
       </c>
       <c r="C148" s="3">
-        <v>4570</v>
+        <v>4539</v>
       </c>
       <c r="D148" s="2">
         <f t="shared" si="13"/>
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E148" s="2">
         <f t="shared" si="14"/>
-        <v>50.857142857142854</v>
+        <v>46.428571428571431</v>
       </c>
       <c r="F148" s="2">
         <f>SUM($D$2:$D148)/COUNT($D$2:$D148)</f>
-        <v>31.068027210884352</v>
+        <v>30.857142857142858</v>
       </c>
       <c r="G148" s="2">
         <f t="shared" si="11"/>
@@ -15606,7 +15666,7 @@
         <v>4596.8607999999995</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43772</v>
       </c>
@@ -15614,7 +15674,21 @@
         <f t="shared" si="10"/>
         <v>147</v>
       </c>
-      <c r="E149" s="2"/>
+      <c r="C149" s="3">
+        <v>4540</v>
+      </c>
+      <c r="D149" s="2">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E149" s="2">
+        <f t="shared" si="14"/>
+        <v>39.285714285714285</v>
+      </c>
+      <c r="F149" s="2">
+        <f>SUM($D$2:$D149)/COUNT($D$2:$D149)</f>
+        <v>30.655405405405407</v>
+      </c>
       <c r="G149" s="2">
         <f t="shared" si="11"/>
         <v>4864.29</v>
@@ -15624,7 +15698,7 @@
         <v>4656.8288999999995</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43773</v>
       </c>
@@ -15632,7 +15706,21 @@
         <f t="shared" si="10"/>
         <v>148</v>
       </c>
-      <c r="E150" s="2"/>
+      <c r="C150" s="3">
+        <v>4630</v>
+      </c>
+      <c r="D150" s="2">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="E150" s="2">
+        <f t="shared" si="14"/>
+        <v>47.285714285714285</v>
+      </c>
+      <c r="F150" s="2">
+        <f>SUM($D$2:$D150)/COUNT($D$2:$D150)</f>
+        <v>31.053691275167786</v>
+      </c>
       <c r="G150" s="2">
         <f t="shared" si="11"/>
         <v>4933.3091999999997</v>
@@ -15642,7 +15730,7 @@
         <v>4717.0663999999997</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43774</v>
       </c>
@@ -15650,7 +15738,21 @@
         <f t="shared" si="10"/>
         <v>149</v>
       </c>
-      <c r="E151" s="2"/>
+      <c r="C151" s="3">
+        <v>4644</v>
+      </c>
+      <c r="D151" s="2">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="E151" s="2">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="F151" s="2">
+        <f>SUM($D$2:$D151)/COUNT($D$2:$D151)</f>
+        <v>30.94</v>
+      </c>
       <c r="G151" s="2">
         <f t="shared" si="11"/>
         <v>5002.8142000000007</v>
@@ -15663,7 +15765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43775</v>
       </c>
@@ -15671,7 +15773,21 @@
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="E152" s="2"/>
+      <c r="C152" s="3">
+        <v>4708</v>
+      </c>
+      <c r="D152" s="2">
+        <f t="shared" si="13"/>
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <f t="shared" si="14"/>
+        <v>47.428571428571431</v>
+      </c>
+      <c r="F152" s="2">
+        <f>SUM($D$2:$D152)/COUNT($D$2:$D152)</f>
+        <v>31.158940397350992</v>
+      </c>
       <c r="G152" s="2">
         <f t="shared" si="11"/>
         <v>5072.8050000000003</v>
@@ -15681,7 +15797,7 @@
         <v>4838.34</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43776</v>
       </c>
@@ -15699,7 +15815,7 @@
         <v>4899.3712999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43777</v>
       </c>
@@ -15717,7 +15833,7 @@
         <v>4960.6623999999993</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43778</v>
       </c>
@@ -15738,7 +15854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43779</v>
       </c>
@@ -15756,7 +15872,7 @@
         <v>5084.0144</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43780</v>
       </c>
@@ -15774,7 +15890,7 @@
         <v>5146.0704999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43781</v>
       </c>
@@ -15792,7 +15908,7 @@
         <v>5208.3768</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43782</v>
       </c>
@@ -15810,7 +15926,7 @@
         <v>5270.9309000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43783</v>
       </c>
@@ -15828,7 +15944,7 @@
         <v>5333.7304000000004</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43784</v>
       </c>
@@ -15846,7 +15962,7 @@
         <v>5396.7728999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43785</v>
       </c>
@@ -15864,7 +15980,7 @@
         <v>5460.0560000000005</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43786</v>
       </c>
@@ -15882,7 +15998,7 @@
         <v>5523.5772999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43787</v>
       </c>
@@ -15900,7 +16016,7 @@
         <v>5587.3343999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43788</v>
       </c>
@@ -15918,7 +16034,7 @@
         <v>5651.3248999999987</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43789</v>
       </c>
@@ -15936,7 +16052,7 @@
         <v>5715.5464000000011</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43790</v>
       </c>
@@ -15954,7 +16070,7 @@
         <v>5779.9965000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43791</v>
       </c>
@@ -15972,7 +16088,7 @@
         <v>5844.6728000000003</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43792</v>
       </c>
@@ -15990,7 +16106,7 @@
         <v>5909.5728999999992</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43793</v>
       </c>
@@ -16008,7 +16124,7 @@
         <v>5974.6944000000003</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43794</v>
       </c>
@@ -16026,7 +16142,7 @@
         <v>6040.0349000000006</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43795</v>
       </c>
@@ -16044,7 +16160,7 @@
         <v>6105.5919999999987</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43796</v>
       </c>
@@ -16062,7 +16178,7 @@
         <v>6171.3632999999991</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43797</v>
       </c>
@@ -16080,7 +16196,7 @@
         <v>6237.3463999999985</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>43798</v>
       </c>
@@ -16098,7 +16214,7 @@
         <v>6303.5388999999996</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>43799</v>
       </c>
@@ -16116,7 +16232,7 @@
         <v>6369.9383999999991</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43800</v>
       </c>
@@ -16125,7 +16241,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43801</v>
       </c>
@@ -16134,7 +16250,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43802</v>
       </c>
@@ -16143,7 +16259,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43803</v>
       </c>
@@ -16152,7 +16268,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43804</v>
       </c>
@@ -16161,7 +16277,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43805</v>
       </c>
@@ -16170,7 +16286,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>43806</v>
       </c>
@@ -16179,7 +16295,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>43807</v>
       </c>
@@ -16188,7 +16304,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>43808</v>
       </c>
@@ -16197,7 +16313,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>43809</v>
       </c>
@@ -16206,7 +16322,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43810</v>
       </c>
@@ -16215,7 +16331,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43811</v>
       </c>
@@ -16224,7 +16340,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>43812</v>
       </c>
@@ -16233,7 +16349,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>43813</v>
       </c>
@@ -16242,7 +16358,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43814</v>
       </c>
@@ -16251,7 +16367,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43815</v>
       </c>
@@ -16260,7 +16376,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43816</v>
       </c>
@@ -16269,7 +16385,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>43817</v>
       </c>
@@ -16278,7 +16394,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>43818</v>
       </c>
@@ -16287,7 +16403,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>43819</v>
       </c>
@@ -16296,7 +16412,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>43820</v>
       </c>
@@ -16305,7 +16421,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>43821</v>
       </c>
@@ -16314,7 +16430,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>43822</v>
       </c>
@@ -16323,7 +16439,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>43823</v>
       </c>
@@ -16332,7 +16448,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>43824</v>
       </c>
@@ -16341,7 +16457,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>43825</v>
       </c>
@@ -16350,7 +16466,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>43826</v>
       </c>
@@ -16359,7 +16475,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>43827</v>
       </c>
@@ -16368,7 +16484,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>43828</v>
       </c>
@@ -16377,7 +16493,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>43829</v>
       </c>
@@ -16386,7 +16502,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>43830</v>
       </c>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4E9FC9-AAE1-49A9-8E31-4D6F8A496C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24AF740-A249-47E7-AA52-74E99B8F2A11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1324,13 +1324,46 @@
                   <c:v>4540</c:v>
                 </c:pt>
                 <c:pt idx="148" formatCode="#,##0">
-                  <c:v>4630</c:v>
+                  <c:v>4627</c:v>
                 </c:pt>
                 <c:pt idx="149" formatCode="#,##0">
-                  <c:v>4644</c:v>
+                  <c:v>4687</c:v>
                 </c:pt>
                 <c:pt idx="150" formatCode="#,##0">
-                  <c:v>4708</c:v>
+                  <c:v>4702</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="#,##0">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="#,##0">
+                  <c:v>4819</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="#,##0">
+                  <c:v>4898</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="#,##0">
+                  <c:v>4923</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="#,##0">
+                  <c:v>4987</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="#,##0">
+                  <c:v>5037</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="#,##0">
+                  <c:v>5031</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="#,##0">
+                  <c:v>5079</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="#,##0">
+                  <c:v>5115</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="#,##0">
+                  <c:v>5204</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="#,##0">
+                  <c:v>5249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,13 +2819,46 @@
                   <c:v>4540</c:v>
                 </c:pt>
                 <c:pt idx="148" formatCode="#,##0">
-                  <c:v>4630</c:v>
+                  <c:v>4627</c:v>
                 </c:pt>
                 <c:pt idx="149" formatCode="#,##0">
-                  <c:v>4644</c:v>
+                  <c:v>4687</c:v>
                 </c:pt>
                 <c:pt idx="150" formatCode="#,##0">
-                  <c:v>4708</c:v>
+                  <c:v>4702</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="#,##0">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="#,##0">
+                  <c:v>4819</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="#,##0">
+                  <c:v>4898</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="#,##0">
+                  <c:v>4923</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="#,##0">
+                  <c:v>4987</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="#,##0">
+                  <c:v>5037</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="#,##0">
+                  <c:v>5031</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="#,##0">
+                  <c:v>5079</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="#,##0">
+                  <c:v>5115</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="#,##0">
+                  <c:v>5204</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="#,##0">
+                  <c:v>5249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4292,13 +4358,46 @@
                   <c:v>39.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>47.285714285714285</c:v>
+                  <c:v>46.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>44</c:v>
+                  <c:v>50.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>47.428571428571431</c:v>
+                  <c:v>46.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>51.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>51.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>54.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>51.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>42.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>46.571428571428569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5751,13 +5850,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>90</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>14</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="155">
                   <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7263,13 +7395,46 @@
                   <c:v>30.655405405405407</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>31.053691275167786</c:v>
+                  <c:v>31.033557046979865</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>30.94</c:v>
+                  <c:v>31.226666666666667</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>31.158940397350992</c:v>
+                  <c:v>31.119205298013245</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>31.230263157894736</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>31.477124183006534</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>31.785714285714285</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>31.741935483870968</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>31.948717948717949</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>32.06369426751592</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>31.822784810126581</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>31.924528301886792</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>31.95</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>32.304347826086953</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>32.382716049382715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10812,23 +10977,23 @@
   <dimension ref="A1:J207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U38" sqref="U38"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T172" sqref="T172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -10854,7 +11019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43625</v>
       </c>
@@ -10877,17 +11042,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>0.2429*B2^2-2.6363*B2+3</f>
+        <f>0.2129*B2^2+0.0613*B2+3</f>
         <v>3</v>
       </c>
       <c r="H2" s="2">
-        <f>-0.0004*B2^3+0.3111*B2^2-5.4294*B2+3</f>
+        <f>-0.0008*B2^3+0.3777*B2^2-7.9187*B2+3</f>
         <v>3</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43626</v>
       </c>
@@ -10911,16 +11076,16 @@
         <v>0.5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="1">0.2429*B3^2-2.6363*B3+3</f>
-        <v>0.60660000000000025</v>
+        <f t="shared" ref="G3:G66" si="1">0.2129*B3^2+0.0613*B3+3</f>
+        <v>3.2742</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H66" si="2">-0.0004*B3^3+0.3111*B3^2-5.4294*B3+3</f>
-        <v>-2.1187000000000005</v>
+        <f t="shared" ref="H3:H66" si="2">-0.0008*B3^3+0.3777*B3^2-7.9187*B3+3</f>
+        <v>-4.5418000000000003</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43627</v>
       </c>
@@ -10945,15 +11110,15 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" si="1"/>
-        <v>-1.3010000000000002</v>
+        <v>3.9742000000000002</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="2"/>
-        <v>-6.6176000000000013</v>
+        <v>-11.333</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43628</v>
       </c>
@@ -10978,15 +11143,15 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>-2.7227999999999994</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>-10.4991</v>
+        <v>-17.378399999999999</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43629</v>
       </c>
@@ -11011,15 +11176,15 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>-3.6587999999999994</v>
+        <v>6.6516000000000002</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>-13.765599999999999</v>
+        <v>-22.6828</v>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43630</v>
       </c>
@@ -11044,15 +11209,15 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>-4.109</v>
+        <v>8.6289999999999996</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="2"/>
-        <v>-16.419500000000003</v>
+        <v>-27.250999999999998</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43631</v>
       </c>
@@ -11077,15 +11242,15 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>-4.0733999999999977</v>
+        <v>11.032200000000001</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>-18.463200000000001</v>
+        <v>-31.087800000000001</v>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43632</v>
       </c>
@@ -11110,15 +11275,15 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5519999999999996</v>
+        <v>13.8612</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>-19.899100000000001</v>
+        <v>-34.198</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43633</v>
       </c>
@@ -11143,15 +11308,15 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>-2.5447999999999986</v>
+        <v>17.116</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="2"/>
-        <v>-20.729600000000001</v>
+        <v>-36.586400000000005</v>
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43634</v>
       </c>
@@ -11176,15 +11341,15 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0517999999999965</v>
+        <v>20.796600000000002</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="2"/>
-        <v>-20.957100000000004</v>
+        <v>-38.257800000000003</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43635</v>
       </c>
@@ -11209,15 +11374,15 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>0.9269999999999996</v>
+        <v>24.902999999999999</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="2"/>
-        <v>-20.584000000000003</v>
+        <v>-39.216999999999999</v>
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43636</v>
       </c>
@@ -11242,15 +11407,15 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>3.3916000000000039</v>
+        <v>29.435199999999998</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
-        <v>-19.612700000000011</v>
+        <v>-39.468800000000002</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43637</v>
       </c>
@@ -11275,15 +11440,15 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>6.3420000000000059</v>
+        <v>34.393200000000007</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="2"/>
-        <v>-18.0456</v>
+        <v>-39.018000000000001</v>
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43638</v>
       </c>
@@ -11308,15 +11473,15 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>9.7782000000000053</v>
+        <v>39.777000000000001</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="2"/>
-        <v>-15.885100000000001</v>
+        <v>-37.869399999999999</v>
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43639</v>
       </c>
@@ -11341,15 +11506,15 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>13.700200000000002</v>
+        <v>45.586599999999997</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="2"/>
-        <v>-13.133600000000001</v>
+        <v>-36.027799999999999</v>
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43640</v>
       </c>
@@ -11374,15 +11539,15 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>18.108000000000004</v>
+        <v>51.822000000000003</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="2"/>
-        <v>-9.7934999999999945</v>
+        <v>-33.498000000000005</v>
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43641</v>
       </c>
@@ -11407,15 +11572,15 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>23.001600000000003</v>
+        <v>58.483200000000004</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="2"/>
-        <v>-5.8672000000000111</v>
+        <v>-30.284800000000004</v>
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43642</v>
       </c>
@@ -11440,15 +11605,15 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>28.381</v>
+        <v>65.5702</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3571000000000026</v>
+        <v>-26.393000000000001</v>
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43643</v>
       </c>
@@ -11473,15 +11638,15 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
-        <v>34.246200000000009</v>
+        <v>73.082999999999998</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>3.7343999999999795</v>
+        <v>-21.827399999999997</v>
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43644</v>
       </c>
@@ -11506,15 +11671,15 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>40.597200000000008</v>
+        <v>81.021599999999992</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="2"/>
-        <v>9.4048999999999836</v>
+        <v>-16.592800000000011</v>
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43645</v>
       </c>
@@ -11539,15 +11704,15 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" si="1"/>
-        <v>47.433999999999997</v>
+        <v>89.385999999999996</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="2"/>
-        <v>15.651999999999987</v>
+        <v>-10.694000000000017</v>
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43646</v>
       </c>
@@ -11572,15 +11737,15 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" si="1"/>
-        <v>54.756599999999999</v>
+        <v>98.176200000000009</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="2"/>
-        <v>22.473299999999995</v>
+        <v>-4.1358000000000175</v>
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43647</v>
       </c>
@@ -11605,15 +11770,15 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
-        <v>62.565000000000012</v>
+        <v>107.3922</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="2"/>
-        <v>29.866399999999985</v>
+        <v>3.0769999999999698</v>
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43648</v>
       </c>
@@ -11638,15 +11803,15 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" si="1"/>
-        <v>70.859200000000016</v>
+        <v>117.03399999999999</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="2"/>
-        <v>37.828899999999976</v>
+        <v>10.939599999999984</v>
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43649</v>
       </c>
@@ -11671,15 +11836,15 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" si="1"/>
-        <v>79.639200000000017</v>
+        <v>127.1016</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="2"/>
-        <v>46.358400000000017</v>
+        <v>19.447199999999981</v>
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43650</v>
       </c>
@@ -11704,15 +11869,15 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" si="1"/>
-        <v>88.905000000000001</v>
+        <v>137.595</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="2"/>
-        <v>55.452499999999986</v>
+        <v>28.594999999999999</v>
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43651</v>
       </c>
@@ -11737,15 +11902,15 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" si="1"/>
-        <v>98.656600000000012</v>
+        <v>148.51419999999999</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="2"/>
-        <v>65.108799999999974</v>
+        <v>38.378199999999993</v>
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43652</v>
       </c>
@@ -11770,15 +11935,15 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" si="1"/>
-        <v>108.89400000000002</v>
+        <v>159.85920000000002</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="2"/>
-        <v>75.324899999999985</v>
+        <v>48.792000000000002</v>
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43653</v>
       </c>
@@ -11803,15 +11968,15 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" si="1"/>
-        <v>119.61720000000001</v>
+        <v>171.63</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="2"/>
-        <v>86.098399999999998</v>
+        <v>59.831600000000009</v>
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43654</v>
       </c>
@@ -11836,15 +12001,15 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" si="1"/>
-        <v>130.8262</v>
+        <v>183.82660000000001</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="2"/>
-        <v>97.426899999999932</v>
+        <v>71.492199999999997</v>
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43655</v>
       </c>
@@ -11869,15 +12034,15 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" si="1"/>
-        <v>142.52100000000002</v>
+        <v>196.44900000000001</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="2"/>
-        <v>109.30799999999999</v>
+        <v>83.768999999999977</v>
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43656</v>
       </c>
@@ -11902,15 +12067,15 @@
       </c>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
-        <v>154.70160000000004</v>
+        <v>209.49719999999999</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="2"/>
-        <v>121.73929999999999</v>
+        <v>96.65719999999996</v>
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43657</v>
       </c>
@@ -11935,15 +12100,15 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
-        <v>167.36799999999999</v>
+        <v>222.97120000000001</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="2"/>
-        <v>134.7184</v>
+        <v>110.15199999999996</v>
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43658</v>
       </c>
@@ -11968,15 +12133,15 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
-        <v>180.52019999999999</v>
+        <v>236.87100000000001</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="2"/>
-        <v>148.24289999999999</v>
+        <v>124.24860000000001</v>
       </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43659</v>
       </c>
@@ -12001,15 +12166,15 @@
       </c>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
-        <v>194.15819999999999</v>
+        <v>251.19660000000002</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="2"/>
-        <v>162.31039999999996</v>
+        <v>138.94220000000001</v>
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43660</v>
       </c>
@@ -12034,15 +12199,15 @@
       </c>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
-        <v>208.28200000000001</v>
+        <v>265.94800000000004</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="2"/>
-        <v>176.91849999999999</v>
+        <v>154.22799999999995</v>
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43661</v>
       </c>
@@ -12067,15 +12232,15 @@
       </c>
       <c r="G38" s="2">
         <f t="shared" si="1"/>
-        <v>222.89160000000004</v>
+        <v>281.12520000000001</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="2"/>
-        <v>192.06479999999996</v>
+        <v>170.10120000000001</v>
       </c>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43662</v>
       </c>
@@ -12100,15 +12265,15 @@
       </c>
       <c r="G39" s="2">
         <f t="shared" si="1"/>
-        <v>237.98700000000002</v>
+        <v>296.72820000000002</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="2"/>
-        <v>207.74689999999995</v>
+        <v>186.55699999999996</v>
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43663</v>
       </c>
@@ -12133,15 +12298,15 @@
       </c>
       <c r="G40" s="2">
         <f t="shared" si="1"/>
-        <v>253.56820000000005</v>
+        <v>312.75700000000001</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="2"/>
-        <v>223.96239999999995</v>
+        <v>203.59059999999994</v>
       </c>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43664</v>
       </c>
@@ -12166,15 +12331,15 @@
       </c>
       <c r="G41" s="2">
         <f t="shared" si="1"/>
-        <v>269.6352</v>
+        <v>329.21159999999998</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" si="2"/>
-        <v>240.70889999999997</v>
+        <v>221.19719999999995</v>
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43665</v>
       </c>
@@ -12199,15 +12364,15 @@
       </c>
       <c r="G42" s="2">
         <f t="shared" si="1"/>
-        <v>286.18799999999999</v>
+        <v>346.09199999999998</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="2"/>
-        <v>257.98399999999992</v>
+        <v>239.3719999999999</v>
       </c>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43666</v>
       </c>
@@ -12232,15 +12397,15 @@
       </c>
       <c r="G43" s="2">
         <f t="shared" si="1"/>
-        <v>303.22660000000002</v>
+        <v>363.39820000000003</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="2"/>
-        <v>275.78530000000001</v>
+        <v>258.11019999999996</v>
       </c>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43667</v>
       </c>
@@ -12265,15 +12430,15 @@
       </c>
       <c r="G44" s="2">
         <f t="shared" si="1"/>
-        <v>320.75099999999998</v>
+        <v>381.1302</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="2"/>
-        <v>294.11039999999991</v>
+        <v>277.40699999999998</v>
       </c>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43668</v>
       </c>
@@ -12298,15 +12463,15 @@
       </c>
       <c r="G45" s="2">
         <f t="shared" si="1"/>
-        <v>338.76119999999997</v>
+        <v>399.28800000000001</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" si="2"/>
-        <v>312.95689999999991</v>
+        <v>297.25760000000002</v>
       </c>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43669</v>
       </c>
@@ -12331,15 +12496,15 @@
       </c>
       <c r="G46" s="2">
         <f t="shared" si="1"/>
-        <v>357.25720000000001</v>
+        <v>417.8716</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="2"/>
-        <v>332.3223999999999</v>
+        <v>317.65719999999993</v>
       </c>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43670</v>
       </c>
@@ -12364,15 +12529,15 @@
       </c>
       <c r="G47" s="2">
         <f t="shared" si="1"/>
-        <v>376.23900000000003</v>
+        <v>436.88100000000003</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="2"/>
-        <v>352.20449999999994</v>
+        <v>338.601</v>
       </c>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43671</v>
       </c>
@@ -12397,15 +12562,15 @@
       </c>
       <c r="G48" s="2">
         <f t="shared" si="1"/>
-        <v>395.70660000000004</v>
+        <v>456.31619999999998</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="2"/>
-        <v>372.60079999999999</v>
+        <v>360.08419999999995</v>
       </c>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43672</v>
       </c>
@@ -12430,15 +12595,15 @@
       </c>
       <c r="G49" s="2">
         <f t="shared" si="1"/>
-        <v>415.66</v>
+        <v>476.17720000000003</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="2"/>
-        <v>393.50889999999987</v>
+        <v>382.10199999999998</v>
       </c>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43673</v>
       </c>
@@ -12463,15 +12628,15 @@
       </c>
       <c r="G50" s="2">
         <f t="shared" si="1"/>
-        <v>436.09920000000005</v>
+        <v>496.46400000000006</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="2"/>
-        <v>414.9264</v>
+        <v>404.64959999999991</v>
       </c>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43674</v>
       </c>
@@ -12496,15 +12661,15 @@
       </c>
       <c r="G51" s="2">
         <f t="shared" si="1"/>
-        <v>457.02420000000001</v>
+        <v>517.17660000000001</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="2"/>
-        <v>436.85089999999997</v>
+        <v>427.72219999999993</v>
       </c>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43675</v>
       </c>
@@ -12529,15 +12694,15 @@
       </c>
       <c r="G52" s="2">
         <f t="shared" si="1"/>
-        <v>478.435</v>
+        <v>538.31500000000005</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" si="2"/>
-        <v>459.28</v>
+        <v>451.315</v>
       </c>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43676</v>
       </c>
@@ -12562,15 +12727,15 @@
       </c>
       <c r="G53" s="2">
         <f t="shared" si="1"/>
-        <v>500.33160000000004</v>
+        <v>559.87920000000008</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" si="2"/>
-        <v>482.21130000000005</v>
+        <v>475.42319999999995</v>
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43677</v>
       </c>
@@ -12595,15 +12760,15 @@
       </c>
       <c r="G54" s="2">
         <f t="shared" si="1"/>
-        <v>522.71400000000006</v>
+        <v>581.86919999999998</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" si="2"/>
-        <v>505.64239999999995</v>
+        <v>500.04199999999997</v>
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43678</v>
       </c>
@@ -12628,15 +12793,15 @@
       </c>
       <c r="G55" s="2">
         <f t="shared" si="1"/>
-        <v>545.58220000000006</v>
+        <v>604.28500000000008</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" si="2"/>
-        <v>529.57090000000005</v>
+        <v>525.16660000000002</v>
       </c>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43679</v>
       </c>
@@ -12661,15 +12826,15 @@
       </c>
       <c r="G56" s="2">
         <f t="shared" si="1"/>
-        <v>568.9362000000001</v>
+        <v>627.12660000000005</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="2"/>
-        <v>553.99440000000004</v>
+        <v>550.79220000000009</v>
       </c>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43680</v>
       </c>
@@ -12694,15 +12859,15 @@
       </c>
       <c r="G57" s="2">
         <f t="shared" si="1"/>
-        <v>592.77600000000007</v>
+        <v>650.39400000000001</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" si="2"/>
-        <v>578.91049999999996</v>
+        <v>576.91399999999999</v>
       </c>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43681</v>
       </c>
@@ -12727,15 +12892,15 @@
       </c>
       <c r="G58" s="2">
         <f t="shared" si="1"/>
-        <v>617.10160000000008</v>
+        <v>674.08720000000005</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="2"/>
-        <v>604.31680000000006</v>
+        <v>603.52719999999999</v>
       </c>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43682</v>
       </c>
@@ -12760,15 +12925,15 @@
       </c>
       <c r="G59" s="2">
         <f t="shared" si="1"/>
-        <v>641.91300000000001</v>
+        <v>698.20619999999997</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" si="2"/>
-        <v>630.21090000000004</v>
+        <v>630.62699999999973</v>
       </c>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43683</v>
       </c>
@@ -12793,15 +12958,15 @@
       </c>
       <c r="G60" s="2">
         <f t="shared" si="1"/>
-        <v>667.21019999999999</v>
+        <v>722.75099999999998</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" si="2"/>
-        <v>656.59039999999982</v>
+        <v>658.20859999999993</v>
       </c>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43684</v>
       </c>
@@ -12826,15 +12991,15 @@
       </c>
       <c r="G61" s="2">
         <f t="shared" si="1"/>
-        <v>692.9932</v>
+        <v>747.72160000000008</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="2"/>
-        <v>683.4529</v>
+        <v>686.26719999999989</v>
       </c>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43685</v>
       </c>
@@ -12859,15 +13024,15 @@
       </c>
       <c r="G62" s="2">
         <f t="shared" si="1"/>
-        <v>719.26200000000006</v>
+        <v>773.11800000000005</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" si="2"/>
-        <v>710.79599999999994</v>
+        <v>714.798</v>
       </c>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43686</v>
       </c>
@@ -12892,15 +13057,15 @@
       </c>
       <c r="G63" s="2">
         <f t="shared" si="1"/>
-        <v>746.01660000000004</v>
+        <v>798.9402</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="2"/>
-        <v>738.6173</v>
+        <v>743.79619999999977</v>
       </c>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43687</v>
       </c>
@@ -12925,15 +13090,15 @@
       </c>
       <c r="G64" s="2">
         <f t="shared" si="1"/>
-        <v>773.25700000000006</v>
+        <v>825.18820000000005</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" si="2"/>
-        <v>766.91439999999989</v>
+        <v>773.25700000000006</v>
       </c>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43688</v>
       </c>
@@ -12958,15 +13123,15 @@
       </c>
       <c r="G65" s="2">
         <f t="shared" si="1"/>
-        <v>800.98320000000001</v>
+        <v>851.86199999999997</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" si="2"/>
-        <v>795.68489999999974</v>
+        <v>803.17559999999992</v>
       </c>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43689</v>
       </c>
@@ -12991,15 +13156,15 @@
       </c>
       <c r="G66" s="2">
         <f t="shared" si="1"/>
-        <v>829.1952</v>
+        <v>878.96159999999998</v>
       </c>
       <c r="H66" s="2">
         <f t="shared" si="2"/>
-        <v>824.92639999999983</v>
+        <v>833.54719999999975</v>
       </c>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43690</v>
       </c>
@@ -13023,16 +13188,16 @@
         <v>11.696969696969697</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G130" si="6">0.2429*B67^2-2.6363*B67+3</f>
-        <v>857.89300000000003</v>
+        <f t="shared" ref="G67:G130" si="6">0.2129*B67^2+0.0613*B67+3</f>
+        <v>906.48700000000008</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" ref="H67:H130" si="7">-0.0004*B67^3+0.3111*B67^2-5.4294*B67+3</f>
-        <v>854.63650000000007</v>
+        <f t="shared" ref="H67:H130" si="7">-0.0008*B67^3+0.3777*B67^2-7.9187*B67+3</f>
+        <v>864.36699999999996</v>
       </c>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43691</v>
       </c>
@@ -13057,15 +13222,15 @@
       </c>
       <c r="G68" s="2">
         <f t="shared" si="6"/>
-        <v>887.07659999999998</v>
+        <v>934.43820000000005</v>
       </c>
       <c r="H68" s="2">
         <f t="shared" si="7"/>
-        <v>884.81279999999992</v>
+        <v>895.63020000000006</v>
       </c>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43692</v>
       </c>
@@ -13090,15 +13255,15 @@
       </c>
       <c r="G69" s="2">
         <f t="shared" si="6"/>
-        <v>916.74600000000009</v>
+        <v>962.8152</v>
       </c>
       <c r="H69" s="2">
         <f t="shared" si="7"/>
-        <v>915.4529</v>
+        <v>927.33199999999977</v>
       </c>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43693</v>
       </c>
@@ -13123,15 +13288,15 @@
       </c>
       <c r="G70" s="2">
         <f t="shared" si="6"/>
-        <v>946.90120000000002</v>
+        <v>991.61800000000005</v>
       </c>
       <c r="H70" s="2">
         <f t="shared" si="7"/>
-        <v>946.55439999999999</v>
+        <v>959.46760000000006</v>
       </c>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43694</v>
       </c>
@@ -13156,15 +13321,15 @@
       </c>
       <c r="G71" s="2">
         <f t="shared" si="6"/>
-        <v>977.54219999999987</v>
+        <v>1020.8466</v>
       </c>
       <c r="H71" s="2">
         <f t="shared" si="7"/>
-        <v>978.11489999999981</v>
+        <v>992.03219999999988</v>
       </c>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43695</v>
       </c>
@@ -13189,15 +13354,15 @@
       </c>
       <c r="G72" s="2">
         <f t="shared" si="6"/>
-        <v>1008.6690000000001</v>
+        <v>1050.501</v>
       </c>
       <c r="H72" s="2">
         <f t="shared" si="7"/>
-        <v>1010.1319999999998</v>
+        <v>1025.0209999999997</v>
       </c>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43696</v>
       </c>
@@ -13222,15 +13387,15 @@
       </c>
       <c r="G73" s="2">
         <f t="shared" si="6"/>
-        <v>1040.2816</v>
+        <v>1080.5812000000001</v>
       </c>
       <c r="H73" s="2">
         <f t="shared" si="7"/>
-        <v>1042.6032999999998</v>
+        <v>1058.4292</v>
       </c>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43697</v>
       </c>
@@ -13255,15 +13420,15 @@
       </c>
       <c r="G74" s="2">
         <f t="shared" si="6"/>
-        <v>1072.3800000000001</v>
+        <v>1111.0872000000002</v>
       </c>
       <c r="H74" s="2">
         <f t="shared" si="7"/>
-        <v>1075.5264</v>
+        <v>1092.252</v>
       </c>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43698</v>
       </c>
@@ -13288,15 +13453,15 @@
       </c>
       <c r="G75" s="2">
         <f t="shared" si="6"/>
-        <v>1104.9641999999999</v>
+        <v>1142.019</v>
       </c>
       <c r="H75" s="2">
         <f t="shared" si="7"/>
-        <v>1108.8988999999999</v>
+        <v>1126.4845999999998</v>
       </c>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43699</v>
       </c>
@@ -13321,15 +13486,15 @@
       </c>
       <c r="G76" s="2">
         <f t="shared" si="6"/>
-        <v>1138.0342000000001</v>
+        <v>1173.3766000000001</v>
       </c>
       <c r="H76" s="2">
         <f t="shared" si="7"/>
-        <v>1142.7184</v>
+        <v>1161.1221999999998</v>
       </c>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43700</v>
       </c>
@@ -13354,15 +13519,15 @@
       </c>
       <c r="G77" s="2">
         <f t="shared" si="6"/>
-        <v>1171.5899999999999</v>
+        <v>1205.1600000000001</v>
       </c>
       <c r="H77" s="2">
         <f t="shared" si="7"/>
-        <v>1176.9825000000001</v>
+        <v>1196.1599999999999</v>
       </c>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43701</v>
       </c>
@@ -13387,15 +13552,15 @@
       </c>
       <c r="G78" s="2">
         <f t="shared" si="6"/>
-        <v>1205.6316000000002</v>
+        <v>1237.3691999999999</v>
       </c>
       <c r="H78" s="2">
         <f t="shared" si="7"/>
-        <v>1211.6887999999999</v>
+        <v>1231.5931999999998</v>
       </c>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43702</v>
       </c>
@@ -13420,15 +13585,15 @@
       </c>
       <c r="G79" s="2">
         <f t="shared" si="6"/>
-        <v>1240.1590000000001</v>
+        <v>1270.0042000000001</v>
       </c>
       <c r="H79" s="2">
         <f t="shared" si="7"/>
-        <v>1246.8348999999998</v>
+        <v>1267.4169999999999</v>
       </c>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43703</v>
       </c>
@@ -13453,15 +13618,15 @@
       </c>
       <c r="G80" s="2">
         <f t="shared" si="6"/>
-        <v>1275.1722</v>
+        <v>1303.0650000000001</v>
       </c>
       <c r="H80" s="2">
         <f t="shared" si="7"/>
-        <v>1282.4184</v>
+        <v>1303.6265999999998</v>
       </c>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43704</v>
       </c>
@@ -13486,15 +13651,15 @@
       </c>
       <c r="G81" s="2">
         <f t="shared" si="6"/>
-        <v>1310.6712000000002</v>
+        <v>1336.5516</v>
       </c>
       <c r="H81" s="2">
         <f t="shared" si="7"/>
-        <v>1318.4368999999999</v>
+        <v>1340.2172</v>
       </c>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43705</v>
       </c>
@@ -13519,15 +13684,15 @@
       </c>
       <c r="G82" s="2">
         <f t="shared" si="6"/>
-        <v>1346.6559999999999</v>
+        <v>1370.4639999999999</v>
       </c>
       <c r="H82" s="2">
         <f t="shared" si="7"/>
-        <v>1354.8879999999999</v>
+        <v>1377.1839999999997</v>
       </c>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43706</v>
       </c>
@@ -13552,15 +13717,15 @@
       </c>
       <c r="G83" s="2">
         <f t="shared" si="6"/>
-        <v>1383.1266000000001</v>
+        <v>1404.8022000000001</v>
       </c>
       <c r="H83" s="2">
         <f t="shared" si="7"/>
-        <v>1391.7692999999999</v>
+        <v>1414.5222000000001</v>
       </c>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43707</v>
       </c>
@@ -13585,15 +13750,15 @@
       </c>
       <c r="G84" s="2">
         <f t="shared" si="6"/>
-        <v>1420.0830000000001</v>
+        <v>1439.5662</v>
       </c>
       <c r="H84" s="2">
         <f t="shared" si="7"/>
-        <v>1429.0784000000001</v>
+        <v>1452.2269999999999</v>
       </c>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43708</v>
       </c>
@@ -13618,15 +13783,15 @@
       </c>
       <c r="G85" s="2">
         <f t="shared" si="6"/>
-        <v>1457.5252</v>
+        <v>1474.7560000000001</v>
       </c>
       <c r="H85" s="2">
         <f t="shared" si="7"/>
-        <v>1466.8128999999999</v>
+        <v>1490.2936</v>
       </c>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43709</v>
       </c>
@@ -13651,15 +13816,15 @@
       </c>
       <c r="G86" s="2">
         <f t="shared" si="6"/>
-        <v>1495.4531999999999</v>
+        <v>1510.3716000000002</v>
       </c>
       <c r="H86" s="2">
         <f t="shared" si="7"/>
-        <v>1504.9703999999999</v>
+        <v>1528.7172</v>
       </c>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43710</v>
       </c>
@@ -13684,15 +13849,15 @@
       </c>
       <c r="G87" s="2">
         <f t="shared" si="6"/>
-        <v>1533.8670000000002</v>
+        <v>1546.413</v>
       </c>
       <c r="H87" s="2">
         <f t="shared" si="7"/>
-        <v>1543.5484999999996</v>
+        <v>1567.4929999999995</v>
       </c>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43711</v>
       </c>
@@ -13717,15 +13882,15 @@
       </c>
       <c r="G88" s="2">
         <f t="shared" si="6"/>
-        <v>1572.7665999999999</v>
+        <v>1582.8802000000001</v>
       </c>
       <c r="H88" s="2">
         <f t="shared" si="7"/>
-        <v>1582.5447999999999</v>
+        <v>1606.6162000000002</v>
       </c>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43712</v>
       </c>
@@ -13750,15 +13915,15 @@
       </c>
       <c r="G89" s="2">
         <f t="shared" si="6"/>
-        <v>1612.152</v>
+        <v>1619.7732000000001</v>
       </c>
       <c r="H89" s="2">
         <f t="shared" si="7"/>
-        <v>1621.9568999999999</v>
+        <v>1646.0819999999999</v>
       </c>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43713</v>
       </c>
@@ -13783,15 +13948,15 @@
       </c>
       <c r="G90" s="2">
         <f t="shared" si="6"/>
-        <v>1652.0232000000001</v>
+        <v>1657.0919999999999</v>
       </c>
       <c r="H90" s="2">
         <f t="shared" si="7"/>
-        <v>1661.7823999999998</v>
+        <v>1685.8855999999996</v>
       </c>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43714</v>
       </c>
@@ -13816,15 +13981,15 @@
       </c>
       <c r="G91" s="2">
         <f t="shared" si="6"/>
-        <v>1692.3802000000001</v>
+        <v>1694.8366000000001</v>
       </c>
       <c r="H91" s="2">
         <f t="shared" si="7"/>
-        <v>1702.0188999999998</v>
+        <v>1726.0222000000001</v>
       </c>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43715</v>
       </c>
@@ -13849,17 +14014,17 @@
       </c>
       <c r="G92" s="2">
         <f t="shared" si="6"/>
-        <v>1733.223</v>
+        <v>1733.0070000000001</v>
       </c>
       <c r="H92" s="2">
         <f t="shared" si="7"/>
-        <v>1742.664</v>
+        <v>1766.4870000000001</v>
       </c>
       <c r="I92" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43716</v>
       </c>
@@ -13884,14 +14049,14 @@
       </c>
       <c r="G93" s="2">
         <f t="shared" si="6"/>
-        <v>1774.5516</v>
+        <v>1771.6032</v>
       </c>
       <c r="H93" s="2">
         <f t="shared" si="7"/>
-        <v>1783.7152999999996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1807.2751999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43717</v>
       </c>
@@ -13916,14 +14081,14 @@
       </c>
       <c r="G94" s="2">
         <f t="shared" si="6"/>
-        <v>1816.366</v>
+        <v>1810.6251999999999</v>
       </c>
       <c r="H94" s="2">
         <f t="shared" si="7"/>
-        <v>1825.1704</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1848.3819999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43718</v>
       </c>
@@ -13948,14 +14113,14 @@
       </c>
       <c r="G95" s="2">
         <f t="shared" si="6"/>
-        <v>1858.6661999999999</v>
+        <v>1850.0730000000001</v>
       </c>
       <c r="H95" s="2">
         <f t="shared" si="7"/>
-        <v>1867.0268999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1889.8026</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>43719</v>
       </c>
@@ -13980,17 +14145,17 @@
       </c>
       <c r="G96" s="2">
         <f t="shared" si="6"/>
-        <v>1901.4521999999999</v>
+        <v>1889.9466</v>
       </c>
       <c r="H96" s="2">
         <f t="shared" si="7"/>
-        <v>1909.2823999999996</v>
+        <v>1931.5321999999999</v>
       </c>
       <c r="I96" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>43720</v>
       </c>
@@ -14015,14 +14180,14 @@
       </c>
       <c r="G97" s="2">
         <f t="shared" si="6"/>
-        <v>1944.7240000000002</v>
+        <v>1930.2460000000001</v>
       </c>
       <c r="H97" s="2">
         <f t="shared" si="7"/>
-        <v>1951.9344999999998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1973.5659999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>43721</v>
       </c>
@@ -14047,14 +14212,14 @@
       </c>
       <c r="G98" s="2">
         <f t="shared" si="6"/>
-        <v>1988.4816000000001</v>
+        <v>1970.9712000000002</v>
       </c>
       <c r="H98" s="2">
         <f t="shared" si="7"/>
-        <v>1994.9807999999998</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2015.8991999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>43722</v>
       </c>
@@ -14079,14 +14244,14 @@
       </c>
       <c r="G99" s="2">
         <f t="shared" si="6"/>
-        <v>2032.7250000000001</v>
+        <v>2012.1222</v>
       </c>
       <c r="H99" s="2">
         <f t="shared" si="7"/>
-        <v>2038.4188999999997</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2058.5269999999991</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>43723</v>
       </c>
@@ -14111,14 +14276,14 @@
       </c>
       <c r="G100" s="2">
         <f t="shared" si="6"/>
-        <v>2077.4542000000001</v>
+        <v>2053.6990000000001</v>
       </c>
       <c r="H100" s="2">
         <f t="shared" si="7"/>
-        <v>2082.2464</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2101.4445999999994</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>43724</v>
       </c>
@@ -14143,14 +14308,14 @@
       </c>
       <c r="G101" s="2">
         <f t="shared" si="6"/>
-        <v>2122.6692000000003</v>
+        <v>2095.7015999999999</v>
       </c>
       <c r="H101" s="2">
         <f t="shared" si="7"/>
-        <v>2126.4609</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2144.6471999999994</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>43725</v>
       </c>
@@ -14175,14 +14340,14 @@
       </c>
       <c r="G102" s="2">
         <f t="shared" si="6"/>
-        <v>2168.37</v>
+        <v>2138.13</v>
       </c>
       <c r="H102" s="2">
         <f t="shared" si="7"/>
-        <v>2171.06</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2188.13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>43726</v>
       </c>
@@ -14207,14 +14372,14 @@
       </c>
       <c r="G103" s="2">
         <f t="shared" si="6"/>
-        <v>2214.5565999999999</v>
+        <v>2180.9841999999999</v>
       </c>
       <c r="H103" s="2">
         <f t="shared" si="7"/>
-        <v>2216.0412999999994</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2231.8881999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>43727</v>
       </c>
@@ -14239,14 +14404,14 @@
       </c>
       <c r="G104" s="2">
         <f t="shared" si="6"/>
-        <v>2261.2290000000003</v>
+        <v>2224.2642000000001</v>
       </c>
       <c r="H104" s="2">
         <f t="shared" si="7"/>
-        <v>2261.4023999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2275.9169999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>43728</v>
       </c>
@@ -14271,14 +14436,14 @@
       </c>
       <c r="G105" s="2">
         <f t="shared" si="6"/>
-        <v>2308.3872000000001</v>
+        <v>2267.9700000000003</v>
       </c>
       <c r="H105" s="2">
         <f t="shared" si="7"/>
-        <v>2307.1408999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2320.2116000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>43729</v>
       </c>
@@ -14303,17 +14468,17 @@
       </c>
       <c r="G106" s="2">
         <f t="shared" si="6"/>
-        <v>2356.0311999999999</v>
+        <v>2312.1016</v>
       </c>
       <c r="H106" s="2">
         <f t="shared" si="7"/>
-        <v>2353.2543999999998</v>
+        <v>2364.7671999999998</v>
       </c>
       <c r="I106" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>43730</v>
       </c>
@@ -14338,17 +14503,17 @@
       </c>
       <c r="G107" s="2">
         <f t="shared" si="6"/>
-        <v>2404.1610000000001</v>
+        <v>2356.6589999999997</v>
       </c>
       <c r="H107" s="2">
         <f t="shared" si="7"/>
-        <v>2399.7404999999999</v>
+        <v>2409.5789999999997</v>
       </c>
       <c r="I107" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>43731</v>
       </c>
@@ -14373,14 +14538,14 @@
       </c>
       <c r="G108" s="2">
         <f t="shared" si="6"/>
-        <v>2452.7766000000001</v>
+        <v>2401.6422000000002</v>
       </c>
       <c r="H108" s="2">
         <f t="shared" si="7"/>
-        <v>2446.5968000000003</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2454.6421999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>43732</v>
       </c>
@@ -14405,14 +14570,14 @@
       </c>
       <c r="G109" s="2">
         <f t="shared" si="6"/>
-        <v>2501.8780000000002</v>
+        <v>2447.0511999999999</v>
       </c>
       <c r="H109" s="2">
         <f t="shared" si="7"/>
-        <v>2493.8209000000002</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2499.9519999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>43733</v>
       </c>
@@ -14437,14 +14602,14 @@
       </c>
       <c r="G110" s="2">
         <f t="shared" si="6"/>
-        <v>2551.4652000000001</v>
+        <v>2492.886</v>
       </c>
       <c r="H110" s="2">
         <f t="shared" si="7"/>
-        <v>2541.4104000000002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2545.5036</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>43734</v>
       </c>
@@ -14469,14 +14634,14 @@
       </c>
       <c r="G111" s="2">
         <f t="shared" si="6"/>
-        <v>2601.5382000000004</v>
+        <v>2539.1466</v>
       </c>
       <c r="H111" s="2">
         <f t="shared" si="7"/>
-        <v>2589.3628999999996</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2591.2921999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>43735</v>
       </c>
@@ -14501,14 +14666,14 @@
       </c>
       <c r="G112" s="2">
         <f t="shared" si="6"/>
-        <v>2652.0970000000002</v>
+        <v>2585.8330000000001</v>
       </c>
       <c r="H112" s="2">
         <f t="shared" si="7"/>
-        <v>2637.6759999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2637.3130000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>43736</v>
       </c>
@@ -14533,14 +14698,14 @@
       </c>
       <c r="G113" s="2">
         <f t="shared" si="6"/>
-        <v>2703.1415999999999</v>
+        <v>2632.9451999999997</v>
       </c>
       <c r="H113" s="2">
         <f t="shared" si="7"/>
-        <v>2686.3472999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2683.5612000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>43737</v>
       </c>
@@ -14565,14 +14730,14 @@
       </c>
       <c r="G114" s="2">
         <f t="shared" si="6"/>
-        <v>2754.672</v>
+        <v>2680.4832000000001</v>
       </c>
       <c r="H114" s="2">
         <f t="shared" si="7"/>
-        <v>2735.3744000000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2730.0320000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>43738</v>
       </c>
@@ -14597,14 +14762,14 @@
       </c>
       <c r="G115" s="2">
         <f t="shared" si="6"/>
-        <v>2806.6882000000001</v>
+        <v>2728.4470000000001</v>
       </c>
       <c r="H115" s="2">
         <f t="shared" si="7"/>
-        <v>2784.7548999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2776.7205999999987</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>43739</v>
       </c>
@@ -14629,14 +14794,14 @@
       </c>
       <c r="G116" s="2">
         <f t="shared" si="6"/>
-        <v>2859.1902</v>
+        <v>2776.8365999999996</v>
       </c>
       <c r="H116" s="2">
         <f t="shared" si="7"/>
-        <v>2834.4863999999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2823.6221999999993</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>43740</v>
       </c>
@@ -14661,14 +14826,14 @@
       </c>
       <c r="G117" s="2">
         <f t="shared" si="6"/>
-        <v>2912.1779999999999</v>
+        <v>2825.652</v>
       </c>
       <c r="H117" s="2">
         <f t="shared" si="7"/>
-        <v>2884.5664999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2870.7319999999995</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>43741</v>
       </c>
@@ -14693,14 +14858,14 @@
       </c>
       <c r="G118" s="2">
         <f t="shared" si="6"/>
-        <v>2965.6516000000001</v>
+        <v>2874.8932</v>
       </c>
       <c r="H118" s="2">
         <f t="shared" si="7"/>
-        <v>2934.9927999999991</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2918.0451999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>43742</v>
       </c>
@@ -14725,14 +14890,14 @@
       </c>
       <c r="G119" s="2">
         <f t="shared" si="6"/>
-        <v>3019.6110000000003</v>
+        <v>2924.5601999999999</v>
       </c>
       <c r="H119" s="2">
         <f t="shared" si="7"/>
-        <v>2985.7628999999997</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2965.5569999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>43743</v>
       </c>
@@ -14757,14 +14922,14 @@
       </c>
       <c r="G120" s="2">
         <f t="shared" si="6"/>
-        <v>3074.0562</v>
+        <v>2974.6530000000002</v>
       </c>
       <c r="H120" s="2">
         <f t="shared" si="7"/>
-        <v>3036.8743999999997</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3013.2626</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>43744</v>
       </c>
@@ -14789,14 +14954,14 @@
       </c>
       <c r="G121" s="2">
         <f t="shared" si="6"/>
-        <v>3128.9872</v>
+        <v>3025.1716000000001</v>
       </c>
       <c r="H121" s="2">
         <f t="shared" si="7"/>
-        <v>3088.3248999999996</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3061.1572000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>43745</v>
       </c>
@@ -14821,14 +14986,14 @@
       </c>
       <c r="G122" s="2">
         <f t="shared" si="6"/>
-        <v>3184.4040000000005</v>
+        <v>3076.1160000000004</v>
       </c>
       <c r="H122" s="2">
         <f t="shared" si="7"/>
-        <v>3140.1120000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3109.2359999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>43746</v>
       </c>
@@ -14853,14 +15018,14 @@
       </c>
       <c r="G123" s="2">
         <f t="shared" si="6"/>
-        <v>3240.3066000000003</v>
+        <v>3127.4862000000003</v>
       </c>
       <c r="H123" s="2">
         <f t="shared" si="7"/>
-        <v>3192.2332999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3157.4941999999992</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>43747</v>
       </c>
@@ -14885,14 +15050,14 @@
       </c>
       <c r="G124" s="2">
         <f t="shared" si="6"/>
-        <v>3296.6950000000002</v>
+        <v>3179.2822000000001</v>
       </c>
       <c r="H124" s="2">
         <f t="shared" si="7"/>
-        <v>3244.6864000000005</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3205.9269999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>43748</v>
       </c>
@@ -14917,14 +15082,14 @@
       </c>
       <c r="G125" s="2">
         <f t="shared" si="6"/>
-        <v>3353.5691999999999</v>
+        <v>3231.5040000000004</v>
       </c>
       <c r="H125" s="2">
         <f t="shared" si="7"/>
-        <v>3297.4688999999989</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3254.5295999999989</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>43749</v>
       </c>
@@ -14949,14 +15114,14 @@
       </c>
       <c r="G126" s="2">
         <f t="shared" si="6"/>
-        <v>3410.9292000000005</v>
+        <v>3284.1516000000001</v>
       </c>
       <c r="H126" s="2">
         <f t="shared" si="7"/>
-        <v>3350.5783999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3303.2971999999995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>43750</v>
       </c>
@@ -14981,14 +15146,14 @@
       </c>
       <c r="G127" s="2">
         <f t="shared" si="6"/>
-        <v>3468.7750000000001</v>
+        <v>3337.2249999999999</v>
       </c>
       <c r="H127" s="2">
         <f t="shared" si="7"/>
-        <v>3404.0124999999998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3352.2249999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>43751</v>
       </c>
@@ -15013,14 +15178,14 @@
       </c>
       <c r="G128" s="2">
         <f t="shared" si="6"/>
-        <v>3527.1066000000001</v>
+        <v>3390.7242000000001</v>
       </c>
       <c r="H128" s="2">
         <f t="shared" si="7"/>
-        <v>3457.7687999999998</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3401.3081999999995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>43752</v>
       </c>
@@ -15045,14 +15210,14 @@
       </c>
       <c r="G129" s="2">
         <f t="shared" si="6"/>
-        <v>3585.924</v>
+        <v>3444.6492000000003</v>
       </c>
       <c r="H129" s="2">
         <f t="shared" si="7"/>
-        <v>3511.8448999999991</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3450.5419999999995</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>43753</v>
       </c>
@@ -15077,14 +15242,14 @@
       </c>
       <c r="G130" s="2">
         <f t="shared" si="6"/>
-        <v>3645.2272000000003</v>
+        <v>3499</v>
       </c>
       <c r="H130" s="2">
         <f t="shared" si="7"/>
-        <v>3566.2383999999993</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3499.9215999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>43754</v>
       </c>
@@ -15108,15 +15273,15 @@
         <v>28.476923076923075</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" ref="G131:G176" si="11">0.2429*B131^2-2.6363*B131+3</f>
-        <v>3705.0162</v>
+        <f t="shared" ref="G131:G176" si="11">0.2129*B131^2+0.0613*B131+3</f>
+        <v>3553.7766000000001</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" ref="H131:H176" si="12">-0.0004*B131^3+0.3111*B131^2-5.4294*B131+3</f>
-        <v>3620.9468999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H131:H176" si="12">-0.0008*B131^3+0.3777*B131^2-7.9187*B131+3</f>
+        <v>3549.4422</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>43755</v>
       </c>
@@ -15128,7 +15293,7 @@
         <v>3723</v>
       </c>
       <c r="D132" s="2">
-        <f t="shared" ref="D132:D152" si="13">C132-C131</f>
+        <f t="shared" ref="D132:D163" si="13">C132-C131</f>
         <v>18</v>
       </c>
       <c r="E132" s="2">
@@ -15141,14 +15306,14 @@
       </c>
       <c r="G132" s="2">
         <f t="shared" si="11"/>
-        <v>3765.2910000000002</v>
+        <v>3608.9790000000003</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" si="12"/>
-        <v>3675.9679999999998</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3599.0989999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>43756</v>
       </c>
@@ -15173,14 +15338,14 @@
       </c>
       <c r="G133" s="2">
         <f t="shared" si="11"/>
-        <v>3826.0515999999998</v>
+        <v>3664.6071999999999</v>
       </c>
       <c r="H133" s="2">
         <f t="shared" si="12"/>
-        <v>3731.2992999999997</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3648.8872000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>43757</v>
       </c>
@@ -15205,14 +15370,14 @@
       </c>
       <c r="G134" s="2">
         <f t="shared" si="11"/>
-        <v>3887.2980000000002</v>
+        <v>3720.6612000000005</v>
       </c>
       <c r="H134" s="2">
         <f t="shared" si="12"/>
-        <v>3786.9383999999991</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3698.8019999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>43758</v>
       </c>
@@ -15237,17 +15402,17 @@
       </c>
       <c r="G135" s="2">
         <f t="shared" si="11"/>
-        <v>3949.0301999999997</v>
+        <v>3777.1410000000001</v>
       </c>
       <c r="H135" s="2">
         <f t="shared" si="12"/>
-        <v>3842.8828999999996</v>
+        <v>3748.8386</v>
       </c>
       <c r="I135" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>43759</v>
       </c>
@@ -15272,14 +15437,14 @@
       </c>
       <c r="G136" s="2">
         <f t="shared" si="11"/>
-        <v>4011.2482000000005</v>
+        <v>3834.0466000000001</v>
       </c>
       <c r="H136" s="2">
         <f t="shared" si="12"/>
-        <v>3899.1304</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3798.9921999999988</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>43760</v>
       </c>
@@ -15304,14 +15469,14 @@
       </c>
       <c r="G137" s="2">
         <f t="shared" si="11"/>
-        <v>4073.9520000000002</v>
+        <v>3891.3780000000002</v>
       </c>
       <c r="H137" s="2">
         <f t="shared" si="12"/>
-        <v>3955.6784999999991</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3849.2579999999994</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>43761</v>
       </c>
@@ -15327,7 +15492,7 @@
         <v>51</v>
       </c>
       <c r="E138" s="2">
-        <f t="shared" ref="E138:E152" si="14">(C138-C131)/7</f>
+        <f t="shared" ref="E138:E163" si="14">(C138-C131)/7</f>
         <v>45.428571428571431</v>
       </c>
       <c r="F138" s="2">
@@ -15336,17 +15501,17 @@
       </c>
       <c r="G138" s="2">
         <f t="shared" si="11"/>
-        <v>4137.1415999999999</v>
+        <v>3949.1352000000002</v>
       </c>
       <c r="H138" s="2">
         <f t="shared" si="12"/>
-        <v>4012.5248000000001</v>
+        <v>3899.6311999999998</v>
       </c>
       <c r="I138" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>43762</v>
       </c>
@@ -15371,14 +15536,14 @@
       </c>
       <c r="G139" s="2">
         <f t="shared" si="11"/>
-        <v>4200.817</v>
+        <v>4007.3182000000002</v>
       </c>
       <c r="H139" s="2">
         <f t="shared" si="12"/>
-        <v>4069.6668999999993</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3950.1069999999991</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>43763</v>
       </c>
@@ -15403,14 +15568,14 @@
       </c>
       <c r="G140" s="2">
         <f t="shared" si="11"/>
-        <v>4264.9781999999996</v>
+        <v>4065.9270000000001</v>
       </c>
       <c r="H140" s="2">
         <f t="shared" si="12"/>
-        <v>4127.1023999999998</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4000.6805999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>43764</v>
       </c>
@@ -15435,14 +15600,14 @@
       </c>
       <c r="G141" s="2">
         <f t="shared" si="11"/>
-        <v>4329.6251999999995</v>
+        <v>4124.9616000000005</v>
       </c>
       <c r="H141" s="2">
         <f t="shared" si="12"/>
-        <v>4184.8288999999995</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4051.3471999999992</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>43765</v>
       </c>
@@ -15467,14 +15632,14 @@
       </c>
       <c r="G142" s="2">
         <f t="shared" si="11"/>
-        <v>4394.7579999999998</v>
+        <v>4184.4220000000005</v>
       </c>
       <c r="H142" s="2">
         <f t="shared" si="12"/>
-        <v>4242.8439999999991</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4102.101999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>43766</v>
       </c>
@@ -15499,14 +15664,14 @@
       </c>
       <c r="G143" s="2">
         <f t="shared" si="11"/>
-        <v>4460.3765999999996</v>
+        <v>4244.3081999999995</v>
       </c>
       <c r="H143" s="2">
         <f t="shared" si="12"/>
-        <v>4301.1452999999992</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4152.9401999999991</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>43767</v>
       </c>
@@ -15531,14 +15696,14 @@
       </c>
       <c r="G144" s="2">
         <f t="shared" si="11"/>
-        <v>4526.4810000000007</v>
+        <v>4304.6202000000003</v>
       </c>
       <c r="H144" s="2">
         <f t="shared" si="12"/>
-        <v>4359.7303999999995</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4203.857</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>43768</v>
       </c>
@@ -15563,14 +15728,14 @@
       </c>
       <c r="G145" s="2">
         <f t="shared" si="11"/>
-        <v>4593.0712000000003</v>
+        <v>4365.3580000000002</v>
       </c>
       <c r="H145" s="2">
         <f t="shared" si="12"/>
-        <v>4418.5968999999996</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4254.8475999999991</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>43769</v>
       </c>
@@ -15595,14 +15760,14 @@
       </c>
       <c r="G146" s="2">
         <f t="shared" si="11"/>
-        <v>4660.1472000000003</v>
+        <v>4426.5216</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="12"/>
-        <v>4477.7423999999992</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4305.9071999999987</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>43770</v>
       </c>
@@ -15627,14 +15792,14 @@
       </c>
       <c r="G147" s="2">
         <f t="shared" si="11"/>
-        <v>4727.7089999999998</v>
+        <v>4488.1109999999999</v>
       </c>
       <c r="H147" s="2">
         <f t="shared" si="12"/>
-        <v>4537.1644999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4357.0309999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>43771</v>
       </c>
@@ -15659,14 +15824,14 @@
       </c>
       <c r="G148" s="2">
         <f t="shared" si="11"/>
-        <v>4795.7565999999997</v>
+        <v>4550.1262000000006</v>
       </c>
       <c r="H148" s="2">
         <f t="shared" si="12"/>
-        <v>4596.8607999999995</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4408.2141999999985</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>43772</v>
       </c>
@@ -15691,14 +15856,14 @@
       </c>
       <c r="G149" s="2">
         <f t="shared" si="11"/>
-        <v>4864.29</v>
+        <v>4612.5671999999995</v>
       </c>
       <c r="H149" s="2">
         <f t="shared" si="12"/>
-        <v>4656.8288999999995</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4459.4519999999993</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>43773</v>
       </c>
@@ -15707,30 +15872,30 @@
         <v>148</v>
       </c>
       <c r="C150" s="3">
-        <v>4630</v>
+        <v>4627</v>
       </c>
       <c r="D150" s="2">
         <f t="shared" si="13"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E150" s="2">
         <f t="shared" si="14"/>
-        <v>47.285714285714285</v>
+        <v>46.857142857142854</v>
       </c>
       <c r="F150" s="2">
         <f>SUM($D$2:$D150)/COUNT($D$2:$D150)</f>
-        <v>31.053691275167786</v>
+        <v>31.033557046979865</v>
       </c>
       <c r="G150" s="2">
         <f t="shared" si="11"/>
-        <v>4933.3091999999997</v>
+        <v>4675.4340000000002</v>
       </c>
       <c r="H150" s="2">
         <f t="shared" si="12"/>
-        <v>4717.0663999999997</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4510.739599999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>43774</v>
       </c>
@@ -15739,33 +15904,33 @@
         <v>149</v>
       </c>
       <c r="C151" s="3">
-        <v>4644</v>
+        <v>4687</v>
       </c>
       <c r="D151" s="2">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="E151" s="2">
         <f t="shared" si="14"/>
-        <v>44</v>
+        <v>50.142857142857146</v>
       </c>
       <c r="F151" s="2">
         <f>SUM($D$2:$D151)/COUNT($D$2:$D151)</f>
-        <v>30.94</v>
+        <v>31.226666666666667</v>
       </c>
       <c r="G151" s="2">
         <f t="shared" si="11"/>
-        <v>5002.8142000000007</v>
+        <v>4738.7266000000009</v>
       </c>
       <c r="H151" s="2">
         <f t="shared" si="12"/>
-        <v>4777.5708999999997</v>
+        <v>4562.0721999999987</v>
       </c>
       <c r="I151" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>43775</v>
       </c>
@@ -15774,30 +15939,30 @@
         <v>150</v>
       </c>
       <c r="C152" s="3">
-        <v>4708</v>
+        <v>4702</v>
       </c>
       <c r="D152" s="2">
         <f t="shared" si="13"/>
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E152" s="2">
         <f t="shared" si="14"/>
-        <v>47.428571428571431</v>
+        <v>46.571428571428569</v>
       </c>
       <c r="F152" s="2">
         <f>SUM($D$2:$D152)/COUNT($D$2:$D152)</f>
-        <v>31.158940397350992</v>
+        <v>31.119205298013245</v>
       </c>
       <c r="G152" s="2">
         <f t="shared" si="11"/>
-        <v>5072.8050000000003</v>
+        <v>4802.4449999999997</v>
       </c>
       <c r="H152" s="2">
         <f t="shared" si="12"/>
-        <v>4838.34</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4613.4449999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>43776</v>
       </c>
@@ -15805,17 +15970,31 @@
         <f t="shared" si="10"/>
         <v>151</v>
       </c>
-      <c r="E153" s="2"/>
+      <c r="C153" s="3">
+        <v>4750</v>
+      </c>
+      <c r="D153" s="2">
+        <f t="shared" si="13"/>
+        <v>48</v>
+      </c>
+      <c r="E153" s="2">
+        <f t="shared" si="14"/>
+        <v>42.714285714285715</v>
+      </c>
+      <c r="F153" s="2">
+        <f>SUM($D$2:$D153)/COUNT($D$2:$D153)</f>
+        <v>31.230263157894736</v>
+      </c>
       <c r="G153" s="2">
         <f t="shared" si="11"/>
-        <v>5143.2816000000003</v>
+        <v>4866.5892000000003</v>
       </c>
       <c r="H153" s="2">
         <f t="shared" si="12"/>
-        <v>4899.3712999999998</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4664.8531999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>43777</v>
       </c>
@@ -15823,17 +16002,31 @@
         <f t="shared" si="10"/>
         <v>152</v>
       </c>
-      <c r="E154" s="2"/>
+      <c r="C154" s="3">
+        <v>4819</v>
+      </c>
+      <c r="D154" s="2">
+        <f t="shared" si="13"/>
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <f t="shared" si="14"/>
+        <v>51.714285714285715</v>
+      </c>
+      <c r="F154" s="2">
+        <f>SUM($D$2:$D154)/COUNT($D$2:$D154)</f>
+        <v>31.477124183006534</v>
+      </c>
       <c r="G154" s="2">
         <f t="shared" si="11"/>
-        <v>5214.2440000000006</v>
+        <v>4931.1592000000001</v>
       </c>
       <c r="H154" s="2">
         <f t="shared" si="12"/>
-        <v>4960.6623999999993</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4716.2919999999986</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>43778</v>
       </c>
@@ -15841,20 +16034,34 @@
         <f t="shared" si="10"/>
         <v>153</v>
       </c>
-      <c r="E155" s="2"/>
+      <c r="C155" s="3">
+        <v>4898</v>
+      </c>
+      <c r="D155" s="2">
+        <f t="shared" si="13"/>
+        <v>79</v>
+      </c>
+      <c r="E155" s="2">
+        <f t="shared" si="14"/>
+        <v>51.285714285714285</v>
+      </c>
+      <c r="F155" s="2">
+        <f>SUM($D$2:$D155)/COUNT($D$2:$D155)</f>
+        <v>31.785714285714285</v>
+      </c>
       <c r="G155" s="2">
         <f t="shared" si="11"/>
-        <v>5285.6922000000004</v>
+        <v>4996.1549999999997</v>
       </c>
       <c r="H155" s="2">
         <f t="shared" si="12"/>
-        <v>5022.2109</v>
+        <v>4767.7565999999997</v>
       </c>
       <c r="I155" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>43779</v>
       </c>
@@ -15862,17 +16069,31 @@
         <f t="shared" si="10"/>
         <v>154</v>
       </c>
-      <c r="E156" s="2"/>
+      <c r="C156" s="3">
+        <v>4923</v>
+      </c>
+      <c r="D156" s="2">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="E156" s="2">
+        <f t="shared" si="14"/>
+        <v>54.714285714285715</v>
+      </c>
+      <c r="F156" s="2">
+        <f>SUM($D$2:$D156)/COUNT($D$2:$D156)</f>
+        <v>31.741935483870968</v>
+      </c>
       <c r="G156" s="2">
         <f t="shared" si="11"/>
-        <v>5357.6261999999997</v>
+        <v>5061.5766000000003</v>
       </c>
       <c r="H156" s="2">
         <f t="shared" si="12"/>
-        <v>5084.0144</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4819.2421999999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>43780</v>
       </c>
@@ -15880,17 +16101,31 @@
         <f t="shared" si="10"/>
         <v>155</v>
       </c>
-      <c r="E157" s="2"/>
+      <c r="C157" s="3">
+        <v>4987</v>
+      </c>
+      <c r="D157" s="2">
+        <f t="shared" si="13"/>
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <f t="shared" si="14"/>
+        <v>51.428571428571431</v>
+      </c>
+      <c r="F157" s="2">
+        <f>SUM($D$2:$D157)/COUNT($D$2:$D157)</f>
+        <v>31.948717948717949</v>
+      </c>
       <c r="G157" s="2">
         <f t="shared" si="11"/>
-        <v>5430.0459999999994</v>
+        <v>5127.4240000000009</v>
       </c>
       <c r="H157" s="2">
         <f t="shared" si="12"/>
-        <v>5146.0704999999998</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4870.7439999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>43781</v>
       </c>
@@ -15898,17 +16133,31 @@
         <f t="shared" si="10"/>
         <v>156</v>
       </c>
-      <c r="E158" s="2"/>
+      <c r="C158" s="3">
+        <v>5037</v>
+      </c>
+      <c r="D158" s="2">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="E158" s="2">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="F158" s="2">
+        <f>SUM($D$2:$D158)/COUNT($D$2:$D158)</f>
+        <v>32.06369426751592</v>
+      </c>
       <c r="G158" s="2">
         <f t="shared" si="11"/>
-        <v>5502.9516000000003</v>
+        <v>5193.6971999999996</v>
       </c>
       <c r="H158" s="2">
         <f t="shared" si="12"/>
-        <v>5208.3768</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4922.2571999999982</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>43782</v>
       </c>
@@ -15916,17 +16165,31 @@
         <f t="shared" si="10"/>
         <v>157</v>
       </c>
-      <c r="E159" s="2"/>
+      <c r="C159" s="3">
+        <v>5031</v>
+      </c>
+      <c r="D159" s="2">
+        <f t="shared" si="13"/>
+        <v>-6</v>
+      </c>
+      <c r="E159" s="2">
+        <f t="shared" si="14"/>
+        <v>47</v>
+      </c>
+      <c r="F159" s="2">
+        <f>SUM($D$2:$D159)/COUNT($D$2:$D159)</f>
+        <v>31.822784810126581</v>
+      </c>
       <c r="G159" s="2">
         <f t="shared" si="11"/>
-        <v>5576.3430000000008</v>
+        <v>5260.3962000000001</v>
       </c>
       <c r="H159" s="2">
         <f t="shared" si="12"/>
-        <v>5270.9309000000003</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4973.777</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>43783</v>
       </c>
@@ -15934,17 +16197,31 @@
         <f t="shared" si="10"/>
         <v>158</v>
       </c>
-      <c r="E160" s="2"/>
+      <c r="C160" s="3">
+        <v>5079</v>
+      </c>
+      <c r="D160" s="2">
+        <f t="shared" si="13"/>
+        <v>48</v>
+      </c>
+      <c r="E160" s="2">
+        <f t="shared" si="14"/>
+        <v>47</v>
+      </c>
+      <c r="F160" s="2">
+        <f>SUM($D$2:$D160)/COUNT($D$2:$D160)</f>
+        <v>31.924528301886792</v>
+      </c>
       <c r="G160" s="2">
         <f t="shared" si="11"/>
-        <v>5650.2202000000007</v>
+        <v>5327.5210000000006</v>
       </c>
       <c r="H160" s="2">
         <f t="shared" si="12"/>
-        <v>5333.7304000000004</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5025.2986000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>43784</v>
       </c>
@@ -15952,17 +16229,31 @@
         <f t="shared" si="10"/>
         <v>159</v>
       </c>
-      <c r="E161" s="2"/>
+      <c r="C161" s="3">
+        <v>5115</v>
+      </c>
+      <c r="D161" s="2">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="E161" s="2">
+        <f t="shared" si="14"/>
+        <v>42.285714285714285</v>
+      </c>
+      <c r="F161" s="2">
+        <f>SUM($D$2:$D161)/COUNT($D$2:$D161)</f>
+        <v>31.95</v>
+      </c>
       <c r="G161" s="2">
         <f t="shared" si="11"/>
-        <v>5724.5832</v>
+        <v>5395.0716000000002</v>
       </c>
       <c r="H161" s="2">
         <f t="shared" si="12"/>
-        <v>5396.7728999999999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5076.8171999999995</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>43785</v>
       </c>
@@ -15970,17 +16261,31 @@
         <f t="shared" si="10"/>
         <v>160</v>
       </c>
-      <c r="E162" s="2"/>
+      <c r="C162" s="3">
+        <v>5204</v>
+      </c>
+      <c r="D162" s="2">
+        <f t="shared" si="13"/>
+        <v>89</v>
+      </c>
+      <c r="E162" s="2">
+        <f t="shared" si="14"/>
+        <v>43.714285714285715</v>
+      </c>
+      <c r="F162" s="2">
+        <f>SUM($D$2:$D162)/COUNT($D$2:$D162)</f>
+        <v>32.304347826086953</v>
+      </c>
       <c r="G162" s="2">
         <f t="shared" si="11"/>
-        <v>5799.4319999999998</v>
+        <v>5463.0479999999998</v>
       </c>
       <c r="H162" s="2">
         <f t="shared" si="12"/>
-        <v>5460.0560000000005</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5128.3279999999986</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>43786</v>
       </c>
@@ -15988,17 +16293,31 @@
         <f t="shared" si="10"/>
         <v>161</v>
       </c>
-      <c r="E163" s="2"/>
+      <c r="C163" s="3">
+        <v>5249</v>
+      </c>
+      <c r="D163" s="2">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="E163" s="2">
+        <f t="shared" si="14"/>
+        <v>46.571428571428569</v>
+      </c>
+      <c r="F163" s="2">
+        <f>SUM($D$2:$D163)/COUNT($D$2:$D163)</f>
+        <v>32.382716049382715</v>
+      </c>
       <c r="G163" s="2">
         <f t="shared" si="11"/>
-        <v>5874.7665999999999</v>
+        <v>5531.4502000000002</v>
       </c>
       <c r="H163" s="2">
         <f t="shared" si="12"/>
-        <v>5523.5772999999999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5179.8261999999995</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>43787</v>
       </c>
@@ -16009,14 +16328,14 @@
       <c r="E164" s="2"/>
       <c r="G164" s="2">
         <f t="shared" si="11"/>
-        <v>5950.5869999999995</v>
+        <v>5600.2781999999997</v>
       </c>
       <c r="H164" s="2">
         <f t="shared" si="12"/>
-        <v>5587.3343999999997</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5231.3069999999989</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>43788</v>
       </c>
@@ -16027,14 +16346,14 @@
       <c r="E165" s="2"/>
       <c r="G165" s="2">
         <f t="shared" si="11"/>
-        <v>6026.8931999999995</v>
+        <v>5669.5320000000002</v>
       </c>
       <c r="H165" s="2">
         <f t="shared" si="12"/>
-        <v>5651.3248999999987</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5282.7655999999988</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>43789</v>
       </c>
@@ -16045,14 +16364,14 @@
       <c r="E166" s="2"/>
       <c r="G166" s="2">
         <f t="shared" si="11"/>
-        <v>6103.6852000000008</v>
+        <v>5739.2116000000005</v>
       </c>
       <c r="H166" s="2">
         <f t="shared" si="12"/>
-        <v>5715.5464000000011</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5334.1971999999996</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>43790</v>
       </c>
@@ -16063,14 +16382,14 @@
       <c r="E167" s="2"/>
       <c r="G167" s="2">
         <f t="shared" si="11"/>
-        <v>6180.9630000000006</v>
+        <v>5809.317</v>
       </c>
       <c r="H167" s="2">
         <f t="shared" si="12"/>
-        <v>5779.9965000000002</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5385.5969999999988</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>43791</v>
       </c>
@@ -16081,14 +16400,14 @@
       <c r="E168" s="2"/>
       <c r="G168" s="2">
         <f t="shared" si="11"/>
-        <v>6258.7266</v>
+        <v>5879.8482000000004</v>
       </c>
       <c r="H168" s="2">
         <f t="shared" si="12"/>
-        <v>5844.6728000000003</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5436.9602000000004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>43792</v>
       </c>
@@ -16099,14 +16418,14 @@
       <c r="E169" s="2"/>
       <c r="G169" s="2">
         <f t="shared" si="11"/>
-        <v>6336.9760000000006</v>
+        <v>5950.8052000000007</v>
       </c>
       <c r="H169" s="2">
         <f t="shared" si="12"/>
-        <v>5909.5728999999992</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5488.2819999999992</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>43793</v>
       </c>
@@ -16117,14 +16436,14 @@
       <c r="E170" s="2"/>
       <c r="G170" s="2">
         <f t="shared" si="11"/>
-        <v>6415.7111999999997</v>
+        <v>6022.1880000000001</v>
       </c>
       <c r="H170" s="2">
         <f t="shared" si="12"/>
-        <v>5974.6944000000003</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5539.5576000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>43794</v>
       </c>
@@ -16135,14 +16454,14 @@
       <c r="E171" s="2"/>
       <c r="G171" s="2">
         <f t="shared" si="11"/>
-        <v>6494.9322000000002</v>
+        <v>6093.9966000000004</v>
       </c>
       <c r="H171" s="2">
         <f t="shared" si="12"/>
-        <v>6040.0349000000006</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5590.7821999999996</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>43795</v>
       </c>
@@ -16153,14 +16472,14 @@
       <c r="E172" s="2"/>
       <c r="G172" s="2">
         <f t="shared" si="11"/>
-        <v>6574.6390000000001</v>
+        <v>6166.2310000000007</v>
       </c>
       <c r="H172" s="2">
         <f t="shared" si="12"/>
-        <v>6105.5919999999987</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5641.9509999999991</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>43796</v>
       </c>
@@ -16171,14 +16490,14 @@
       <c r="E173" s="2"/>
       <c r="G173" s="2">
         <f t="shared" si="11"/>
-        <v>6654.8315999999995</v>
+        <v>6238.8912</v>
       </c>
       <c r="H173" s="2">
         <f t="shared" si="12"/>
-        <v>6171.3632999999991</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5693.0591999999988</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>43797</v>
       </c>
@@ -16189,14 +16508,14 @@
       <c r="E174" s="2"/>
       <c r="G174" s="2">
         <f t="shared" si="11"/>
-        <v>6735.51</v>
+        <v>6311.9772000000003</v>
       </c>
       <c r="H174" s="2">
         <f t="shared" si="12"/>
-        <v>6237.3463999999985</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5744.101999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>43798</v>
       </c>
@@ -16207,14 +16526,14 @@
       <c r="E175" s="2"/>
       <c r="G175" s="2">
         <f t="shared" si="11"/>
-        <v>6816.6742000000004</v>
+        <v>6385.4890000000005</v>
       </c>
       <c r="H175" s="2">
         <f t="shared" si="12"/>
-        <v>6303.5388999999996</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5795.0745999999981</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>43799</v>
       </c>
@@ -16225,14 +16544,14 @@
       <c r="E176" s="2"/>
       <c r="G176" s="2">
         <f t="shared" si="11"/>
-        <v>6898.3242</v>
+        <v>6459.4265999999998</v>
       </c>
       <c r="H176" s="2">
         <f t="shared" si="12"/>
-        <v>6369.9383999999991</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5845.9721999999992</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>43800</v>
       </c>
@@ -16241,7 +16560,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>43801</v>
       </c>
@@ -16250,7 +16569,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>43802</v>
       </c>
@@ -16259,7 +16578,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>43803</v>
       </c>
@@ -16268,7 +16587,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>43804</v>
       </c>
@@ -16277,7 +16596,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>43805</v>
       </c>
@@ -16286,7 +16605,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>43806</v>
       </c>
@@ -16295,7 +16614,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>43807</v>
       </c>
@@ -16304,7 +16623,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>43808</v>
       </c>
@@ -16313,7 +16632,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>43809</v>
       </c>
@@ -16322,7 +16641,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>43810</v>
       </c>
@@ -16331,7 +16650,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>43811</v>
       </c>
@@ -16340,7 +16659,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>43812</v>
       </c>
@@ -16349,7 +16668,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>43813</v>
       </c>
@@ -16358,7 +16677,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>43814</v>
       </c>
@@ -16367,7 +16686,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>43815</v>
       </c>
@@ -16376,7 +16695,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>43816</v>
       </c>
@@ -16385,7 +16704,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>43817</v>
       </c>
@@ -16394,7 +16713,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>43818</v>
       </c>
@@ -16403,7 +16722,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>43819</v>
       </c>
@@ -16412,7 +16731,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>43820</v>
       </c>
@@ -16421,7 +16740,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>43821</v>
       </c>
@@ -16430,7 +16749,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>43822</v>
       </c>
@@ -16439,7 +16758,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>43823</v>
       </c>
@@ -16448,7 +16767,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>43824</v>
       </c>
@@ -16457,7 +16776,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>43825</v>
       </c>
@@ -16466,7 +16785,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>43826</v>
       </c>
@@ -16475,7 +16794,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>43827</v>
       </c>
@@ -16484,7 +16803,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>43828</v>
       </c>
@@ -16493,7 +16812,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>43829</v>
       </c>
@@ -16502,7 +16821,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>43830</v>
       </c>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24AF740-A249-47E7-AA52-74E99B8F2A11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9370D140-388C-4983-B177-12B2DEE39E9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$176</c:f>
+              <c:f>Sheet1!$B$2:$B$207</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="206"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -869,16 +869,109 @@
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$176</c:f>
+              <c:f>Sheet1!$C$2:$C$207</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="206"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1357,13 +1450,52 @@
                   <c:v>5079</c:v>
                 </c:pt>
                 <c:pt idx="159" formatCode="#,##0">
-                  <c:v>5115</c:v>
+                  <c:v>5134</c:v>
                 </c:pt>
                 <c:pt idx="160" formatCode="#,##0">
-                  <c:v>5204</c:v>
+                  <c:v>5187</c:v>
                 </c:pt>
                 <c:pt idx="161" formatCode="#,##0">
-                  <c:v>5249</c:v>
+                  <c:v>5195</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="#,##0">
+                  <c:v>5240</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="#,##0">
+                  <c:v>5279</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="#,##0">
+                  <c:v>5340</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="#,##0">
+                  <c:v>5354</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="#,##0">
+                  <c:v>5359</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="#,##0">
+                  <c:v>5381</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="#,##0">
+                  <c:v>5420</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="#,##0">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="#,##0">
+                  <c:v>5449</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="#,##0">
+                  <c:v>5458</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="#,##0">
+                  <c:v>5484</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="#,##0">
+                  <c:v>5553</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="#,##0">
+                  <c:v>5574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,10 +1968,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$176</c:f>
+              <c:f>Sheet1!$B$2:$B$207</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="206"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2364,16 +2496,109 @@
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$176</c:f>
+              <c:f>Sheet1!$C$2:$C$207</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="206"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2852,13 +3077,52 @@
                   <c:v>5079</c:v>
                 </c:pt>
                 <c:pt idx="159" formatCode="#,##0">
-                  <c:v>5115</c:v>
+                  <c:v>5134</c:v>
                 </c:pt>
                 <c:pt idx="160" formatCode="#,##0">
-                  <c:v>5204</c:v>
+                  <c:v>5187</c:v>
                 </c:pt>
                 <c:pt idx="161" formatCode="#,##0">
-                  <c:v>5249</c:v>
+                  <c:v>5195</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="#,##0">
+                  <c:v>5240</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="#,##0">
+                  <c:v>5279</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="#,##0">
+                  <c:v>5340</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="#,##0">
+                  <c:v>5354</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="#,##0">
+                  <c:v>5359</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="#,##0">
+                  <c:v>5381</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="#,##0">
+                  <c:v>5420</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="#,##0">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="#,##0">
+                  <c:v>5449</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="#,##0">
+                  <c:v>5458</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="#,##0">
+                  <c:v>5484</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="#,##0">
+                  <c:v>5553</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="#,##0">
+                  <c:v>5574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3375,10 +3639,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$176</c:f>
+              <c:f>Sheet1!$B$2:$B$207</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="206"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3903,16 +4167,109 @@
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$176</c:f>
+              <c:f>Sheet1!$E$2:$E$207</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="206"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4391,13 +4748,52 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>42.285714285714285</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>43.714285714285715</c:v>
+                  <c:v>41.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>46.571428571428569</c:v>
+                  <c:v>38.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>36.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>34.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>39.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>32.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>27.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>32.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>24.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>16.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>18.571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>27.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>27.571428571428573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4867,10 +5263,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$176</c:f>
+              <c:f>Sheet1!$B$2:$B$207</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="206"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5395,16 +5791,109 @@
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$176</c:f>
+              <c:f>Sheet1!$D$2:$D$207</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="206"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5883,13 +6372,52 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>36</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>89</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="161">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="162">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6412,10 +6940,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$176</c:f>
+              <c:f>Sheet1!$B$2:$B$207</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="206"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6940,16 +7468,109 @@
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$176</c:f>
+              <c:f>Sheet1!$F$2:$F$207</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="206"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7428,13 +8049,52 @@
                   <c:v>31.924528301886792</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>31.95</c:v>
+                  <c:v>32.068750000000001</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>32.304347826086953</c:v>
+                  <c:v>32.198757763975152</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>32.382716049382715</c:v>
+                  <c:v>32.049382716049379</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>32.128834355828218</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>32.170731707317074</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>32.345454545454544</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>32.234939759036145</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>32.071856287425149</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>32.011904761904759</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>32.053254437869825</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>32.041176470588233</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>31.847953216374268</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>31.715116279069768</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>31.682080924855491</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>31.896551724137932</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>31.834285714285713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10974,11 +11634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J207"/>
+  <dimension ref="A1:J238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T172" sqref="T172"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15293,7 +15953,7 @@
         <v>3723</v>
       </c>
       <c r="D132" s="2">
-        <f t="shared" ref="D132:D163" si="13">C132-C131</f>
+        <f t="shared" ref="D132:D176" si="13">C132-C131</f>
         <v>18</v>
       </c>
       <c r="E132" s="2">
@@ -15492,7 +16152,7 @@
         <v>51</v>
       </c>
       <c r="E138" s="2">
-        <f t="shared" ref="E138:E163" si="14">(C138-C131)/7</f>
+        <f t="shared" ref="E138:E176" si="14">(C138-C131)/7</f>
         <v>45.428571428571431</v>
       </c>
       <c r="F138" s="2">
@@ -16230,19 +16890,19 @@
         <v>159</v>
       </c>
       <c r="C161" s="3">
-        <v>5115</v>
+        <v>5134</v>
       </c>
       <c r="D161" s="2">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E161" s="2">
         <f t="shared" si="14"/>
-        <v>42.285714285714285</v>
+        <v>45</v>
       </c>
       <c r="F161" s="2">
         <f>SUM($D$2:$D161)/COUNT($D$2:$D161)</f>
-        <v>31.95</v>
+        <v>32.068750000000001</v>
       </c>
       <c r="G161" s="2">
         <f t="shared" si="11"/>
@@ -16262,19 +16922,19 @@
         <v>160</v>
       </c>
       <c r="C162" s="3">
-        <v>5204</v>
+        <v>5187</v>
       </c>
       <c r="D162" s="2">
         <f t="shared" si="13"/>
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="E162" s="2">
         <f t="shared" si="14"/>
-        <v>43.714285714285715</v>
+        <v>41.285714285714285</v>
       </c>
       <c r="F162" s="2">
         <f>SUM($D$2:$D162)/COUNT($D$2:$D162)</f>
-        <v>32.304347826086953</v>
+        <v>32.198757763975152</v>
       </c>
       <c r="G162" s="2">
         <f t="shared" si="11"/>
@@ -16294,19 +16954,19 @@
         <v>161</v>
       </c>
       <c r="C163" s="3">
-        <v>5249</v>
+        <v>5195</v>
       </c>
       <c r="D163" s="2">
         <f t="shared" si="13"/>
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E163" s="2">
         <f t="shared" si="14"/>
-        <v>46.571428571428569</v>
+        <v>38.857142857142854</v>
       </c>
       <c r="F163" s="2">
         <f>SUM($D$2:$D163)/COUNT($D$2:$D163)</f>
-        <v>32.382716049382715</v>
+        <v>32.049382716049379</v>
       </c>
       <c r="G163" s="2">
         <f t="shared" si="11"/>
@@ -16325,7 +16985,21 @@
         <f t="shared" si="10"/>
         <v>162</v>
       </c>
-      <c r="E164" s="2"/>
+      <c r="C164" s="3">
+        <v>5240</v>
+      </c>
+      <c r="D164" s="2">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="E164" s="2">
+        <f t="shared" si="14"/>
+        <v>36.142857142857146</v>
+      </c>
+      <c r="F164" s="2">
+        <f>SUM($D$2:$D164)/COUNT($D$2:$D164)</f>
+        <v>32.128834355828218</v>
+      </c>
       <c r="G164" s="2">
         <f t="shared" si="11"/>
         <v>5600.2781999999997</v>
@@ -16343,7 +17017,21 @@
         <f t="shared" si="10"/>
         <v>163</v>
       </c>
-      <c r="E165" s="2"/>
+      <c r="C165" s="3">
+        <v>5279</v>
+      </c>
+      <c r="D165" s="2">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="E165" s="2">
+        <f t="shared" si="14"/>
+        <v>34.571428571428569</v>
+      </c>
+      <c r="F165" s="2">
+        <f>SUM($D$2:$D165)/COUNT($D$2:$D165)</f>
+        <v>32.170731707317074</v>
+      </c>
       <c r="G165" s="2">
         <f t="shared" si="11"/>
         <v>5669.5320000000002</v>
@@ -16361,7 +17049,21 @@
         <f t="shared" si="10"/>
         <v>164</v>
       </c>
-      <c r="E166" s="2"/>
+      <c r="C166" s="3">
+        <v>5340</v>
+      </c>
+      <c r="D166" s="2">
+        <f t="shared" si="13"/>
+        <v>61</v>
+      </c>
+      <c r="E166" s="2">
+        <f t="shared" si="14"/>
+        <v>44.142857142857146</v>
+      </c>
+      <c r="F166" s="2">
+        <f>SUM($D$2:$D166)/COUNT($D$2:$D166)</f>
+        <v>32.345454545454544</v>
+      </c>
       <c r="G166" s="2">
         <f t="shared" si="11"/>
         <v>5739.2116000000005</v>
@@ -16379,7 +17081,21 @@
         <f t="shared" si="10"/>
         <v>165</v>
       </c>
-      <c r="E167" s="2"/>
+      <c r="C167" s="3">
+        <v>5354</v>
+      </c>
+      <c r="D167" s="2">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="E167" s="2">
+        <f t="shared" si="14"/>
+        <v>39.285714285714285</v>
+      </c>
+      <c r="F167" s="2">
+        <f>SUM($D$2:$D167)/COUNT($D$2:$D167)</f>
+        <v>32.234939759036145</v>
+      </c>
       <c r="G167" s="2">
         <f t="shared" si="11"/>
         <v>5809.317</v>
@@ -16397,7 +17113,21 @@
         <f t="shared" si="10"/>
         <v>166</v>
       </c>
-      <c r="E168" s="2"/>
+      <c r="C168" s="3">
+        <v>5359</v>
+      </c>
+      <c r="D168" s="2">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="E168" s="2">
+        <f t="shared" si="14"/>
+        <v>32.142857142857146</v>
+      </c>
+      <c r="F168" s="2">
+        <f>SUM($D$2:$D168)/COUNT($D$2:$D168)</f>
+        <v>32.071856287425149</v>
+      </c>
       <c r="G168" s="2">
         <f t="shared" si="11"/>
         <v>5879.8482000000004</v>
@@ -16415,7 +17145,21 @@
         <f t="shared" si="10"/>
         <v>167</v>
       </c>
-      <c r="E169" s="2"/>
+      <c r="C169" s="3">
+        <v>5381</v>
+      </c>
+      <c r="D169" s="2">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="E169" s="2">
+        <f t="shared" si="14"/>
+        <v>27.714285714285715</v>
+      </c>
+      <c r="F169" s="2">
+        <f>SUM($D$2:$D169)/COUNT($D$2:$D169)</f>
+        <v>32.011904761904759</v>
+      </c>
       <c r="G169" s="2">
         <f t="shared" si="11"/>
         <v>5950.8052000000007</v>
@@ -16433,7 +17177,21 @@
         <f t="shared" si="10"/>
         <v>168</v>
       </c>
-      <c r="E170" s="2"/>
+      <c r="C170" s="3">
+        <v>5420</v>
+      </c>
+      <c r="D170" s="2">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="E170" s="2">
+        <f t="shared" si="14"/>
+        <v>32.142857142857146</v>
+      </c>
+      <c r="F170" s="2">
+        <f>SUM($D$2:$D170)/COUNT($D$2:$D170)</f>
+        <v>32.053254437869825</v>
+      </c>
       <c r="G170" s="2">
         <f t="shared" si="11"/>
         <v>6022.1880000000001</v>
@@ -16451,7 +17209,21 @@
         <f t="shared" si="10"/>
         <v>169</v>
       </c>
-      <c r="E171" s="2"/>
+      <c r="C171" s="3">
+        <v>5450</v>
+      </c>
+      <c r="D171" s="2">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="E171" s="2">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="F171" s="2">
+        <f>SUM($D$2:$D171)/COUNT($D$2:$D171)</f>
+        <v>32.041176470588233</v>
+      </c>
       <c r="G171" s="2">
         <f t="shared" si="11"/>
         <v>6093.9966000000004</v>
@@ -16469,7 +17241,21 @@
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="E172" s="2"/>
+      <c r="C172" s="3">
+        <v>5449</v>
+      </c>
+      <c r="D172" s="2">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="E172" s="2">
+        <f t="shared" si="14"/>
+        <v>24.285714285714285</v>
+      </c>
+      <c r="F172" s="2">
+        <f>SUM($D$2:$D172)/COUNT($D$2:$D172)</f>
+        <v>31.847953216374268</v>
+      </c>
       <c r="G172" s="2">
         <f t="shared" si="11"/>
         <v>6166.2310000000007</v>
@@ -16487,7 +17273,21 @@
         <f t="shared" si="10"/>
         <v>171</v>
       </c>
-      <c r="E173" s="2"/>
+      <c r="C173" s="3">
+        <v>5458</v>
+      </c>
+      <c r="D173" s="2">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="E173" s="2">
+        <f t="shared" si="14"/>
+        <v>16.857142857142858</v>
+      </c>
+      <c r="F173" s="2">
+        <f>SUM($D$2:$D173)/COUNT($D$2:$D173)</f>
+        <v>31.715116279069768</v>
+      </c>
       <c r="G173" s="2">
         <f t="shared" si="11"/>
         <v>6238.8912</v>
@@ -16505,7 +17305,21 @@
         <f t="shared" si="10"/>
         <v>172</v>
       </c>
-      <c r="E174" s="2"/>
+      <c r="C174" s="3">
+        <v>5484</v>
+      </c>
+      <c r="D174" s="2">
+        <f t="shared" si="13"/>
+        <v>26</v>
+      </c>
+      <c r="E174" s="2">
+        <f t="shared" si="14"/>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="F174" s="2">
+        <f>SUM($D$2:$D174)/COUNT($D$2:$D174)</f>
+        <v>31.682080924855491</v>
+      </c>
       <c r="G174" s="2">
         <f t="shared" si="11"/>
         <v>6311.9772000000003</v>
@@ -16523,7 +17337,21 @@
         <f t="shared" si="10"/>
         <v>173</v>
       </c>
-      <c r="E175" s="2"/>
+      <c r="C175" s="3">
+        <v>5553</v>
+      </c>
+      <c r="D175" s="2">
+        <f t="shared" si="13"/>
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <f t="shared" si="14"/>
+        <v>27.714285714285715</v>
+      </c>
+      <c r="F175" s="2">
+        <f>SUM($D$2:$D175)/COUNT($D$2:$D175)</f>
+        <v>31.896551724137932</v>
+      </c>
       <c r="G175" s="2">
         <f t="shared" si="11"/>
         <v>6385.4890000000005</v>
@@ -16541,7 +17369,21 @@
         <f t="shared" si="10"/>
         <v>174</v>
       </c>
-      <c r="E176" s="2"/>
+      <c r="C176" s="3">
+        <v>5574</v>
+      </c>
+      <c r="D176" s="2">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="E176" s="2">
+        <f t="shared" si="14"/>
+        <v>27.571428571428573</v>
+      </c>
+      <c r="F176" s="2">
+        <f>SUM($D$2:$D176)/COUNT($D$2:$D176)</f>
+        <v>31.834285714285713</v>
+      </c>
       <c r="G176" s="2">
         <f t="shared" si="11"/>
         <v>6459.4265999999998</v>
@@ -16718,7 +17560,7 @@
         <v>43818</v>
       </c>
       <c r="B195" s="2">
-        <f t="shared" ref="B195:B207" si="15">B194+1</f>
+        <f t="shared" ref="B195:B238" si="15">B194+1</f>
         <v>193</v>
       </c>
     </row>
@@ -16828,6 +17670,285 @@
       <c r="B207" s="2">
         <f t="shared" si="15"/>
         <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B208" s="2">
+        <f t="shared" si="15"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B209" s="2">
+        <f t="shared" si="15"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>43833</v>
+      </c>
+      <c r="B210" s="2">
+        <f t="shared" si="15"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B211" s="2">
+        <f t="shared" si="15"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>43835</v>
+      </c>
+      <c r="B212" s="2">
+        <f t="shared" si="15"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>43836</v>
+      </c>
+      <c r="B213" s="2">
+        <f t="shared" si="15"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>43837</v>
+      </c>
+      <c r="B214" s="2">
+        <f t="shared" si="15"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B215" s="2">
+        <f t="shared" si="15"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>43839</v>
+      </c>
+      <c r="B216" s="2">
+        <f t="shared" si="15"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>43840</v>
+      </c>
+      <c r="B217" s="2">
+        <f t="shared" si="15"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>43841</v>
+      </c>
+      <c r="B218" s="2">
+        <f t="shared" si="15"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B219" s="2">
+        <f t="shared" si="15"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B220" s="2">
+        <f t="shared" si="15"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B221" s="2">
+        <f t="shared" si="15"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>43845</v>
+      </c>
+      <c r="B222" s="2">
+        <f t="shared" si="15"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B223" s="2">
+        <f t="shared" si="15"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>43847</v>
+      </c>
+      <c r="B224" s="2">
+        <f t="shared" si="15"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>43848</v>
+      </c>
+      <c r="B225" s="2">
+        <f t="shared" si="15"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>43849</v>
+      </c>
+      <c r="B226" s="2">
+        <f t="shared" si="15"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>43850</v>
+      </c>
+      <c r="B227" s="2">
+        <f t="shared" si="15"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B228" s="2">
+        <f t="shared" si="15"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B229" s="2">
+        <f t="shared" si="15"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B230" s="2">
+        <f t="shared" si="15"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B231" s="2">
+        <f t="shared" si="15"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B232" s="2">
+        <f t="shared" si="15"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B233" s="2">
+        <f t="shared" si="15"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B234" s="2">
+        <f t="shared" si="15"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B235" s="2">
+        <f t="shared" si="15"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B236" s="2">
+        <f t="shared" si="15"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B237" s="2">
+        <f t="shared" si="15"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B238" s="2">
+        <f t="shared" si="15"/>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9370D140-388C-4983-B177-12B2DEE39E9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118CCD93-AF02-4EBC-B514-625FBA59E069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1492,10 +1492,52 @@
                   <c:v>5484</c:v>
                 </c:pt>
                 <c:pt idx="173" formatCode="#,##0">
-                  <c:v>5553</c:v>
+                  <c:v>5534</c:v>
                 </c:pt>
                 <c:pt idx="174" formatCode="#,##0">
-                  <c:v>5574</c:v>
+                  <c:v>5561</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="#,##0">
+                  <c:v>5556</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="#,##0">
+                  <c:v>5590</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="#,##0">
+                  <c:v>5614</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="#,##0">
+                  <c:v>5612</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="#,##0">
+                  <c:v>5635</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="#,##0">
+                  <c:v>5660</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="#,##0">
+                  <c:v>5682</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="#,##0">
+                  <c:v>5746</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="#,##0">
+                  <c:v>5713</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="#,##0">
+                  <c:v>5706</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="#,##0">
+                  <c:v>5743</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="#,##0">
+                  <c:v>5770</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="#,##0">
+                  <c:v>5806</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="#,##0">
+                  <c:v>5858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,10 +3161,52 @@
                   <c:v>5484</c:v>
                 </c:pt>
                 <c:pt idx="173" formatCode="#,##0">
-                  <c:v>5553</c:v>
+                  <c:v>5534</c:v>
                 </c:pt>
                 <c:pt idx="174" formatCode="#,##0">
-                  <c:v>5574</c:v>
+                  <c:v>5561</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="#,##0">
+                  <c:v>5556</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="#,##0">
+                  <c:v>5590</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="#,##0">
+                  <c:v>5614</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="#,##0">
+                  <c:v>5612</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="#,##0">
+                  <c:v>5635</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="#,##0">
+                  <c:v>5660</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="#,##0">
+                  <c:v>5682</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="#,##0">
+                  <c:v>5746</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="#,##0">
+                  <c:v>5713</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="#,##0">
+                  <c:v>5706</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="#,##0">
+                  <c:v>5743</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="#,##0">
+                  <c:v>5770</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="#,##0">
+                  <c:v>5806</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="#,##0">
+                  <c:v>5858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4790,10 +4874,52 @@
                   <c:v>18.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>27.714285714285715</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>27.571428571428573</c:v>
+                  <c:v>25.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>19.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>23.571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>21.571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>17.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>27.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>17.571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>13.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>19.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>20.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>25.142857142857142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6414,10 +6540,52 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>69</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>21</c:v>
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8091,10 +8259,52 @@
                   <c:v>31.682080924855491</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>31.896551724137932</c:v>
+                  <c:v>31.787356321839081</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>31.834285714285713</c:v>
+                  <c:v>31.76</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>31.551136363636363</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>31.564971751412429</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>31.522471910112358</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>31.335195530726256</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>31.288888888888888</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>31.254143646408838</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>31.203296703296704</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>31.382513661202186</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>31.032608695652176</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>30.827027027027029</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>30.86021505376344</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>30.839572192513369</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>30.867021276595743</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>30.978835978835978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11638,7 +11848,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z14" sqref="Z14"/>
+      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15933,11 +16143,11 @@
         <v>28.476923076923075</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" ref="G131:G176" si="11">0.2129*B131^2+0.0613*B131+3</f>
+        <f t="shared" ref="G131:G194" si="11">0.2129*B131^2+0.0613*B131+3</f>
         <v>3553.7766000000001</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" ref="H131:H176" si="12">-0.0008*B131^3+0.3777*B131^2-7.9187*B131+3</f>
+        <f t="shared" ref="H131:H194" si="12">-0.0008*B131^3+0.3777*B131^2-7.9187*B131+3</f>
         <v>3549.4422</v>
       </c>
     </row>
@@ -15953,7 +16163,7 @@
         <v>3723</v>
       </c>
       <c r="D132" s="2">
-        <f t="shared" ref="D132:D176" si="13">C132-C131</f>
+        <f t="shared" ref="D132:D190" si="13">C132-C131</f>
         <v>18</v>
       </c>
       <c r="E132" s="2">
@@ -16152,7 +16362,7 @@
         <v>51</v>
       </c>
       <c r="E138" s="2">
-        <f t="shared" ref="E138:E176" si="14">(C138-C131)/7</f>
+        <f t="shared" ref="E138:E190" si="14">(C138-C131)/7</f>
         <v>45.428571428571431</v>
       </c>
       <c r="F138" s="2">
@@ -17338,19 +17548,19 @@
         <v>173</v>
       </c>
       <c r="C175" s="3">
-        <v>5553</v>
+        <v>5534</v>
       </c>
       <c r="D175" s="2">
         <f t="shared" si="13"/>
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E175" s="2">
         <f t="shared" si="14"/>
-        <v>27.714285714285715</v>
+        <v>25</v>
       </c>
       <c r="F175" s="2">
         <f>SUM($D$2:$D175)/COUNT($D$2:$D175)</f>
-        <v>31.896551724137932</v>
+        <v>31.787356321839081</v>
       </c>
       <c r="G175" s="2">
         <f t="shared" si="11"/>
@@ -17370,19 +17580,19 @@
         <v>174</v>
       </c>
       <c r="C176" s="3">
-        <v>5574</v>
+        <v>5561</v>
       </c>
       <c r="D176" s="2">
         <f t="shared" si="13"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E176" s="2">
         <f t="shared" si="14"/>
-        <v>27.571428571428573</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="F176" s="2">
         <f>SUM($D$2:$D176)/COUNT($D$2:$D176)</f>
-        <v>31.834285714285713</v>
+        <v>31.76</v>
       </c>
       <c r="G176" s="2">
         <f t="shared" si="11"/>
@@ -17393,7 +17603,7 @@
         <v>5845.9721999999992</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>43800</v>
       </c>
@@ -17401,8 +17611,31 @@
         <f t="shared" si="10"/>
         <v>175</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C177" s="3">
+        <v>5556</v>
+      </c>
+      <c r="D177" s="2">
+        <f t="shared" si="13"/>
+        <v>-5</v>
+      </c>
+      <c r="E177" s="2">
+        <f t="shared" si="14"/>
+        <v>19.428571428571427</v>
+      </c>
+      <c r="F177" s="2">
+        <f>SUM($D$2:$D177)/COUNT($D$2:$D177)</f>
+        <v>31.551136363636363</v>
+      </c>
+      <c r="G177" s="2">
+        <f t="shared" si="11"/>
+        <v>6533.79</v>
+      </c>
+      <c r="H177" s="2">
+        <f t="shared" si="12"/>
+        <v>5896.79</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>43801</v>
       </c>
@@ -17410,8 +17643,31 @@
         <f t="shared" si="10"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C178" s="3">
+        <v>5590</v>
+      </c>
+      <c r="D178" s="2">
+        <f t="shared" si="13"/>
+        <v>34</v>
+      </c>
+      <c r="E178" s="2">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="F178" s="2">
+        <f>SUM($D$2:$D178)/COUNT($D$2:$D178)</f>
+        <v>31.564971751412429</v>
+      </c>
+      <c r="G178" s="2">
+        <f t="shared" si="11"/>
+        <v>6608.5792000000001</v>
+      </c>
+      <c r="H178" s="2">
+        <f t="shared" si="12"/>
+        <v>5947.5231999999987</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>43802</v>
       </c>
@@ -17419,8 +17675,31 @@
         <f t="shared" si="10"/>
         <v>177</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C179" s="3">
+        <v>5614</v>
+      </c>
+      <c r="D179" s="2">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="E179" s="2">
+        <f t="shared" si="14"/>
+        <v>23.571428571428573</v>
+      </c>
+      <c r="F179" s="2">
+        <f>SUM($D$2:$D179)/COUNT($D$2:$D179)</f>
+        <v>31.522471910112358</v>
+      </c>
+      <c r="G179" s="2">
+        <f t="shared" si="11"/>
+        <v>6683.7942000000003</v>
+      </c>
+      <c r="H179" s="2">
+        <f t="shared" si="12"/>
+        <v>5998.1669999999986</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>43803</v>
       </c>
@@ -17428,8 +17707,31 @@
         <f t="shared" si="10"/>
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C180" s="3">
+        <v>5612</v>
+      </c>
+      <c r="D180" s="2">
+        <f t="shared" si="13"/>
+        <v>-2</v>
+      </c>
+      <c r="E180" s="2">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="F180" s="2">
+        <f>SUM($D$2:$D180)/COUNT($D$2:$D180)</f>
+        <v>31.335195530726256</v>
+      </c>
+      <c r="G180" s="2">
+        <f t="shared" si="11"/>
+        <v>6759.4350000000004</v>
+      </c>
+      <c r="H180" s="2">
+        <f t="shared" si="12"/>
+        <v>6048.7165999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>43804</v>
       </c>
@@ -17437,8 +17739,31 @@
         <f t="shared" si="10"/>
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C181" s="3">
+        <v>5635</v>
+      </c>
+      <c r="D181" s="2">
+        <f t="shared" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="E181" s="2">
+        <f t="shared" si="14"/>
+        <v>21.571428571428573</v>
+      </c>
+      <c r="F181" s="2">
+        <f>SUM($D$2:$D181)/COUNT($D$2:$D181)</f>
+        <v>31.288888888888888</v>
+      </c>
+      <c r="G181" s="2">
+        <f t="shared" si="11"/>
+        <v>6835.5016000000005</v>
+      </c>
+      <c r="H181" s="2">
+        <f t="shared" si="12"/>
+        <v>6099.167199999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>43805</v>
       </c>
@@ -17446,8 +17771,31 @@
         <f t="shared" si="10"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C182" s="3">
+        <v>5660</v>
+      </c>
+      <c r="D182" s="2">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="E182" s="2">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="F182" s="2">
+        <f>SUM($D$2:$D182)/COUNT($D$2:$D182)</f>
+        <v>31.254143646408838</v>
+      </c>
+      <c r="G182" s="2">
+        <f t="shared" si="11"/>
+        <v>6911.9939999999997</v>
+      </c>
+      <c r="H182" s="2">
+        <f t="shared" si="12"/>
+        <v>6149.5139999999992</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>43806</v>
       </c>
@@ -17455,8 +17803,31 @@
         <f t="shared" si="10"/>
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C183" s="3">
+        <v>5682</v>
+      </c>
+      <c r="D183" s="2">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="E183" s="2">
+        <f t="shared" si="14"/>
+        <v>17.285714285714285</v>
+      </c>
+      <c r="F183" s="2">
+        <f>SUM($D$2:$D183)/COUNT($D$2:$D183)</f>
+        <v>31.203296703296704</v>
+      </c>
+      <c r="G183" s="2">
+        <f t="shared" si="11"/>
+        <v>6988.9121999999998</v>
+      </c>
+      <c r="H183" s="2">
+        <f t="shared" si="12"/>
+        <v>6199.7521999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>43807</v>
       </c>
@@ -17464,8 +17835,31 @@
         <f t="shared" si="10"/>
         <v>182</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C184" s="3">
+        <v>5746</v>
+      </c>
+      <c r="D184" s="2">
+        <f t="shared" si="13"/>
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <f t="shared" si="14"/>
+        <v>27.142857142857142</v>
+      </c>
+      <c r="F184" s="2">
+        <f>SUM($D$2:$D184)/COUNT($D$2:$D184)</f>
+        <v>31.382513661202186</v>
+      </c>
+      <c r="G184" s="2">
+        <f t="shared" si="11"/>
+        <v>7066.2562000000007</v>
+      </c>
+      <c r="H184" s="2">
+        <f t="shared" si="12"/>
+        <v>6249.8769999999986</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>43808</v>
       </c>
@@ -17473,8 +17867,31 @@
         <f t="shared" si="10"/>
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C185" s="3">
+        <v>5713</v>
+      </c>
+      <c r="D185" s="2">
+        <f t="shared" si="13"/>
+        <v>-33</v>
+      </c>
+      <c r="E185" s="2">
+        <f t="shared" si="14"/>
+        <v>17.571428571428573</v>
+      </c>
+      <c r="F185" s="2">
+        <f>SUM($D$2:$D185)/COUNT($D$2:$D185)</f>
+        <v>31.032608695652176</v>
+      </c>
+      <c r="G185" s="2">
+        <f t="shared" si="11"/>
+        <v>7144.0259999999998</v>
+      </c>
+      <c r="H185" s="2">
+        <f t="shared" si="12"/>
+        <v>6299.8835999999992</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>43809</v>
       </c>
@@ -17482,8 +17899,31 @@
         <f t="shared" si="10"/>
         <v>184</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C186" s="3">
+        <v>5706</v>
+      </c>
+      <c r="D186" s="2">
+        <f t="shared" si="13"/>
+        <v>-7</v>
+      </c>
+      <c r="E186" s="2">
+        <f t="shared" si="14"/>
+        <v>13.142857142857142</v>
+      </c>
+      <c r="F186" s="2">
+        <f>SUM($D$2:$D186)/COUNT($D$2:$D186)</f>
+        <v>30.827027027027029</v>
+      </c>
+      <c r="G186" s="2">
+        <f t="shared" si="11"/>
+        <v>7222.2215999999999</v>
+      </c>
+      <c r="H186" s="2">
+        <f t="shared" si="12"/>
+        <v>6349.7671999999984</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>43810</v>
       </c>
@@ -17491,8 +17931,31 @@
         <f t="shared" si="10"/>
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C187" s="3">
+        <v>5743</v>
+      </c>
+      <c r="D187" s="2">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="E187" s="2">
+        <f t="shared" si="14"/>
+        <v>18.714285714285715</v>
+      </c>
+      <c r="F187" s="2">
+        <f>SUM($D$2:$D187)/COUNT($D$2:$D187)</f>
+        <v>30.86021505376344</v>
+      </c>
+      <c r="G187" s="2">
+        <f t="shared" si="11"/>
+        <v>7300.8430000000008</v>
+      </c>
+      <c r="H187" s="2">
+        <f t="shared" si="12"/>
+        <v>6399.5229999999992</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>43811</v>
       </c>
@@ -17500,8 +17963,31 @@
         <f t="shared" si="10"/>
         <v>186</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C188" s="3">
+        <v>5770</v>
+      </c>
+      <c r="D188" s="2">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="E188" s="2">
+        <f t="shared" si="14"/>
+        <v>19.285714285714285</v>
+      </c>
+      <c r="F188" s="2">
+        <f>SUM($D$2:$D188)/COUNT($D$2:$D188)</f>
+        <v>30.839572192513369</v>
+      </c>
+      <c r="G188" s="2">
+        <f t="shared" si="11"/>
+        <v>7379.8901999999998</v>
+      </c>
+      <c r="H188" s="2">
+        <f t="shared" si="12"/>
+        <v>6449.1462000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>43812</v>
       </c>
@@ -17509,8 +17995,31 @@
         <f t="shared" si="10"/>
         <v>187</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C189" s="3">
+        <v>5806</v>
+      </c>
+      <c r="D189" s="2">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="E189" s="2">
+        <f t="shared" si="14"/>
+        <v>20.857142857142858</v>
+      </c>
+      <c r="F189" s="2">
+        <f>SUM($D$2:$D189)/COUNT($D$2:$D189)</f>
+        <v>30.867021276595743</v>
+      </c>
+      <c r="G189" s="2">
+        <f t="shared" si="11"/>
+        <v>7459.3631999999998</v>
+      </c>
+      <c r="H189" s="2">
+        <f t="shared" si="12"/>
+        <v>6498.6319999999987</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>43813</v>
       </c>
@@ -17518,8 +18027,31 @@
         <f t="shared" si="10"/>
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C190" s="3">
+        <v>5858</v>
+      </c>
+      <c r="D190" s="2">
+        <f t="shared" si="13"/>
+        <v>52</v>
+      </c>
+      <c r="E190" s="2">
+        <f t="shared" si="14"/>
+        <v>25.142857142857142</v>
+      </c>
+      <c r="F190" s="2">
+        <f>SUM($D$2:$D190)/COUNT($D$2:$D190)</f>
+        <v>30.978835978835978</v>
+      </c>
+      <c r="G190" s="2">
+        <f t="shared" si="11"/>
+        <v>7539.2620000000006</v>
+      </c>
+      <c r="H190" s="2">
+        <f t="shared" si="12"/>
+        <v>6547.9755999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>43814</v>
       </c>
@@ -17527,8 +18059,16 @@
         <f t="shared" si="10"/>
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G191" s="2">
+        <f t="shared" si="11"/>
+        <v>7619.5865999999996</v>
+      </c>
+      <c r="H191" s="2">
+        <f t="shared" si="12"/>
+        <v>6597.1721999999991</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>43815</v>
       </c>
@@ -17536,8 +18076,16 @@
         <f t="shared" si="10"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G192" s="2">
+        <f t="shared" si="11"/>
+        <v>7700.3370000000004</v>
+      </c>
+      <c r="H192" s="2">
+        <f t="shared" si="12"/>
+        <v>6646.2169999999996</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>43816</v>
       </c>
@@ -17545,8 +18093,16 @@
         <f t="shared" si="10"/>
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G193" s="2">
+        <f t="shared" si="11"/>
+        <v>7781.5132000000003</v>
+      </c>
+      <c r="H193" s="2">
+        <f t="shared" si="12"/>
+        <v>6695.1052</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>43817</v>
       </c>
@@ -17554,8 +18110,16 @@
         <f t="shared" si="10"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G194" s="2">
+        <f t="shared" si="11"/>
+        <v>7863.1152000000002</v>
+      </c>
+      <c r="H194" s="2">
+        <f t="shared" si="12"/>
+        <v>6743.8319999999985</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>43818</v>
       </c>
@@ -17563,8 +18127,16 @@
         <f t="shared" ref="B195:B238" si="15">B194+1</f>
         <v>193</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G195" s="2">
+        <f t="shared" ref="G195:G238" si="16">0.2129*B195^2+0.0613*B195+3</f>
+        <v>7945.143</v>
+      </c>
+      <c r="H195" s="2">
+        <f t="shared" ref="H195:H238" si="17">-0.0008*B195^3+0.3777*B195^2-7.9187*B195+3</f>
+        <v>6792.3925999999992</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>43819</v>
       </c>
@@ -17572,8 +18144,16 @@
         <f t="shared" si="15"/>
         <v>194</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G196" s="2">
+        <f t="shared" si="16"/>
+        <v>8027.5966000000008</v>
+      </c>
+      <c r="H196" s="2">
+        <f t="shared" si="17"/>
+        <v>6840.7821999999978</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>43820</v>
       </c>
@@ -17581,8 +18161,16 @@
         <f t="shared" si="15"/>
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G197" s="2">
+        <f t="shared" si="16"/>
+        <v>8110.4759999999997</v>
+      </c>
+      <c r="H197" s="2">
+        <f t="shared" si="17"/>
+        <v>6888.9959999999983</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>43821</v>
       </c>
@@ -17590,8 +18178,16 @@
         <f t="shared" si="15"/>
         <v>196</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G198" s="2">
+        <f t="shared" si="16"/>
+        <v>8193.7812000000013</v>
+      </c>
+      <c r="H198" s="2">
+        <f t="shared" si="17"/>
+        <v>6937.0291999999981</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>43822</v>
       </c>
@@ -17599,8 +18195,16 @@
         <f t="shared" si="15"/>
         <v>197</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G199" s="2">
+        <f t="shared" si="16"/>
+        <v>8277.512200000001</v>
+      </c>
+      <c r="H199" s="2">
+        <f t="shared" si="17"/>
+        <v>6984.8769999999995</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>43823</v>
       </c>
@@ -17608,8 +18212,16 @@
         <f t="shared" si="15"/>
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G200" s="2">
+        <f t="shared" si="16"/>
+        <v>8361.6689999999999</v>
+      </c>
+      <c r="H200" s="2">
+        <f t="shared" si="17"/>
+        <v>7032.5345999999981</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>43824</v>
       </c>
@@ -17617,8 +18229,16 @@
         <f t="shared" si="15"/>
         <v>199</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G201" s="2">
+        <f t="shared" si="16"/>
+        <v>8446.2516000000014</v>
+      </c>
+      <c r="H201" s="2">
+        <f t="shared" si="17"/>
+        <v>7079.997199999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>43825</v>
       </c>
@@ -17626,8 +18246,16 @@
         <f t="shared" si="15"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G202" s="2">
+        <f t="shared" si="16"/>
+        <v>8531.26</v>
+      </c>
+      <c r="H202" s="2">
+        <f t="shared" si="17"/>
+        <v>7127.26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>43826</v>
       </c>
@@ -17635,8 +18263,16 @@
         <f t="shared" si="15"/>
         <v>201</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G203" s="2">
+        <f t="shared" si="16"/>
+        <v>8616.6941999999999</v>
+      </c>
+      <c r="H203" s="2">
+        <f t="shared" si="17"/>
+        <v>7174.3181999999979</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>43827</v>
       </c>
@@ -17644,8 +18280,16 @@
         <f t="shared" si="15"/>
         <v>202</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G204" s="2">
+        <f t="shared" si="16"/>
+        <v>8702.5542000000005</v>
+      </c>
+      <c r="H204" s="2">
+        <f t="shared" si="17"/>
+        <v>7221.1669999999995</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>43828</v>
       </c>
@@ -17653,8 +18297,16 @@
         <f t="shared" si="15"/>
         <v>203</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G205" s="2">
+        <f t="shared" si="16"/>
+        <v>8788.84</v>
+      </c>
+      <c r="H205" s="2">
+        <f t="shared" si="17"/>
+        <v>7267.8015999999989</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>43829</v>
       </c>
@@ -17662,8 +18314,16 @@
         <f t="shared" si="15"/>
         <v>204</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G206" s="2">
+        <f t="shared" si="16"/>
+        <v>8875.5516000000007</v>
+      </c>
+      <c r="H206" s="2">
+        <f t="shared" si="17"/>
+        <v>7314.2171999999991</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>43830</v>
       </c>
@@ -17671,8 +18331,16 @@
         <f t="shared" si="15"/>
         <v>205</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G207" s="2">
+        <f t="shared" si="16"/>
+        <v>8962.6890000000003</v>
+      </c>
+      <c r="H207" s="2">
+        <f t="shared" si="17"/>
+        <v>7360.4089999999987</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>43831</v>
       </c>
@@ -17680,8 +18348,16 @@
         <f t="shared" si="15"/>
         <v>206</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G208" s="2">
+        <f t="shared" si="16"/>
+        <v>9050.2522000000008</v>
+      </c>
+      <c r="H208" s="2">
+        <f t="shared" si="17"/>
+        <v>7406.3722000000007</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>43832</v>
       </c>
@@ -17689,8 +18365,16 @@
         <f t="shared" si="15"/>
         <v>207</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G209" s="2">
+        <f t="shared" si="16"/>
+        <v>9138.2412000000004</v>
+      </c>
+      <c r="H209" s="2">
+        <f t="shared" si="17"/>
+        <v>7452.101999999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>43833</v>
       </c>
@@ -17698,8 +18382,16 @@
         <f t="shared" si="15"/>
         <v>208</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G210" s="2">
+        <f t="shared" si="16"/>
+        <v>9226.6560000000009</v>
+      </c>
+      <c r="H210" s="2">
+        <f t="shared" si="17"/>
+        <v>7497.5935999999992</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>43834</v>
       </c>
@@ -17707,8 +18399,16 @@
         <f t="shared" si="15"/>
         <v>209</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G211" s="2">
+        <f t="shared" si="16"/>
+        <v>9315.4966000000004</v>
+      </c>
+      <c r="H211" s="2">
+        <f t="shared" si="17"/>
+        <v>7542.8421999999991</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>43835</v>
       </c>
@@ -17716,8 +18416,16 @@
         <f t="shared" si="15"/>
         <v>210</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G212" s="2">
+        <f t="shared" si="16"/>
+        <v>9404.762999999999</v>
+      </c>
+      <c r="H212" s="2">
+        <f t="shared" si="17"/>
+        <v>7587.8430000000008</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>43836</v>
       </c>
@@ -17725,8 +18433,16 @@
         <f t="shared" si="15"/>
         <v>211</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G213" s="2">
+        <f t="shared" si="16"/>
+        <v>9494.4552000000003</v>
+      </c>
+      <c r="H213" s="2">
+        <f t="shared" si="17"/>
+        <v>7632.5911999999989</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>43837</v>
       </c>
@@ -17734,8 +18450,16 @@
         <f t="shared" si="15"/>
         <v>212</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G214" s="2">
+        <f t="shared" si="16"/>
+        <v>9584.5732000000007</v>
+      </c>
+      <c r="H214" s="2">
+        <f t="shared" si="17"/>
+        <v>7677.0819999999985</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>43838</v>
       </c>
@@ -17743,8 +18467,16 @@
         <f t="shared" si="15"/>
         <v>213</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G215" s="2">
+        <f t="shared" si="16"/>
+        <v>9675.1170000000002</v>
+      </c>
+      <c r="H215" s="2">
+        <f t="shared" si="17"/>
+        <v>7721.3105999999989</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>43839</v>
       </c>
@@ -17752,8 +18484,16 @@
         <f t="shared" si="15"/>
         <v>214</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G216" s="2">
+        <f t="shared" si="16"/>
+        <v>9766.0866000000005</v>
+      </c>
+      <c r="H216" s="2">
+        <f t="shared" si="17"/>
+        <v>7765.2721999999994</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>43840</v>
       </c>
@@ -17761,8 +18501,16 @@
         <f t="shared" si="15"/>
         <v>215</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G217" s="2">
+        <f t="shared" si="16"/>
+        <v>9857.482</v>
+      </c>
+      <c r="H217" s="2">
+        <f t="shared" si="17"/>
+        <v>7808.9619999999977</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>43841</v>
       </c>
@@ -17770,8 +18518,16 @@
         <f t="shared" si="15"/>
         <v>216</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G218" s="2">
+        <f t="shared" si="16"/>
+        <v>9949.3032000000003</v>
+      </c>
+      <c r="H218" s="2">
+        <f t="shared" si="17"/>
+        <v>7852.3751999999995</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>43842</v>
       </c>
@@ -17779,8 +18535,16 @@
         <f t="shared" si="15"/>
         <v>217</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G219" s="2">
+        <f t="shared" si="16"/>
+        <v>10041.550200000001</v>
+      </c>
+      <c r="H219" s="2">
+        <f t="shared" si="17"/>
+        <v>7895.5069999999987</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>43843</v>
       </c>
@@ -17788,8 +18552,16 @@
         <f t="shared" si="15"/>
         <v>218</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G220" s="2">
+        <f t="shared" si="16"/>
+        <v>10134.223</v>
+      </c>
+      <c r="H220" s="2">
+        <f t="shared" si="17"/>
+        <v>7938.3525999999993</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>43844</v>
       </c>
@@ -17797,8 +18569,16 @@
         <f t="shared" si="15"/>
         <v>219</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G221" s="2">
+        <f t="shared" si="16"/>
+        <v>10227.321599999999</v>
+      </c>
+      <c r="H221" s="2">
+        <f t="shared" si="17"/>
+        <v>7980.9071999999987</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>43845</v>
       </c>
@@ -17806,8 +18586,16 @@
         <f t="shared" si="15"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G222" s="2">
+        <f t="shared" si="16"/>
+        <v>10320.846000000001</v>
+      </c>
+      <c r="H222" s="2">
+        <f t="shared" si="17"/>
+        <v>8023.1660000000011</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>43846</v>
       </c>
@@ -17815,8 +18603,16 @@
         <f t="shared" si="15"/>
         <v>221</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G223" s="2">
+        <f t="shared" si="16"/>
+        <v>10414.796200000001</v>
+      </c>
+      <c r="H223" s="2">
+        <f t="shared" si="17"/>
+        <v>8065.1242000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>43847</v>
       </c>
@@ -17824,8 +18620,16 @@
         <f t="shared" si="15"/>
         <v>222</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G224" s="2">
+        <f t="shared" si="16"/>
+        <v>10509.172199999999</v>
+      </c>
+      <c r="H224" s="2">
+        <f t="shared" si="17"/>
+        <v>8106.777</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>43848</v>
       </c>
@@ -17833,8 +18637,16 @@
         <f t="shared" si="15"/>
         <v>223</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G225" s="2">
+        <f t="shared" si="16"/>
+        <v>10603.974000000002</v>
+      </c>
+      <c r="H225" s="2">
+        <f t="shared" si="17"/>
+        <v>8148.1196</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>43849</v>
       </c>
@@ -17842,8 +18654,16 @@
         <f t="shared" si="15"/>
         <v>224</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G226" s="2">
+        <f t="shared" si="16"/>
+        <v>10699.2016</v>
+      </c>
+      <c r="H226" s="2">
+        <f t="shared" si="17"/>
+        <v>8189.1471999999994</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>43850</v>
       </c>
@@ -17851,8 +18671,16 @@
         <f t="shared" si="15"/>
         <v>225</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G227" s="2">
+        <f t="shared" si="16"/>
+        <v>10794.855</v>
+      </c>
+      <c r="H227" s="2">
+        <f t="shared" si="17"/>
+        <v>8229.8549999999996</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>43851</v>
       </c>
@@ -17860,8 +18688,16 @@
         <f t="shared" si="15"/>
         <v>226</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G228" s="2">
+        <f t="shared" si="16"/>
+        <v>10890.934200000002</v>
+      </c>
+      <c r="H228" s="2">
+        <f t="shared" si="17"/>
+        <v>8270.2381999999961</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>43852</v>
       </c>
@@ -17869,8 +18705,16 @@
         <f t="shared" si="15"/>
         <v>227</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G229" s="2">
+        <f t="shared" si="16"/>
+        <v>10987.439200000001</v>
+      </c>
+      <c r="H229" s="2">
+        <f t="shared" si="17"/>
+        <v>8310.2919999999995</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>43853</v>
       </c>
@@ -17878,8 +18722,16 @@
         <f t="shared" si="15"/>
         <v>228</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G230" s="2">
+        <f t="shared" si="16"/>
+        <v>11084.369999999999</v>
+      </c>
+      <c r="H230" s="2">
+        <f t="shared" si="17"/>
+        <v>8350.011599999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>43854</v>
       </c>
@@ -17887,8 +18739,16 @@
         <f t="shared" si="15"/>
         <v>229</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G231" s="2">
+        <f t="shared" si="16"/>
+        <v>11181.726600000002</v>
+      </c>
+      <c r="H231" s="2">
+        <f t="shared" si="17"/>
+        <v>8389.3922000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>43855</v>
       </c>
@@ -17896,8 +18756,16 @@
         <f t="shared" si="15"/>
         <v>230</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G232" s="2">
+        <f t="shared" si="16"/>
+        <v>11279.509</v>
+      </c>
+      <c r="H232" s="2">
+        <f t="shared" si="17"/>
+        <v>8428.4289999999983</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>43856</v>
       </c>
@@ -17905,8 +18773,16 @@
         <f t="shared" si="15"/>
         <v>231</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G233" s="2">
+        <f t="shared" si="16"/>
+        <v>11377.717199999999</v>
+      </c>
+      <c r="H233" s="2">
+        <f t="shared" si="17"/>
+        <v>8467.117199999997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>43857</v>
       </c>
@@ -17914,8 +18790,16 @@
         <f t="shared" si="15"/>
         <v>232</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G234" s="2">
+        <f t="shared" si="16"/>
+        <v>11476.351200000001</v>
+      </c>
+      <c r="H234" s="2">
+        <f t="shared" si="17"/>
+        <v>8505.4519999999975</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>43858</v>
       </c>
@@ -17923,8 +18807,16 @@
         <f t="shared" si="15"/>
         <v>233</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G235" s="2">
+        <f t="shared" si="16"/>
+        <v>11575.411</v>
+      </c>
+      <c r="H235" s="2">
+        <f t="shared" si="17"/>
+        <v>8543.4285999999975</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>43859</v>
       </c>
@@ -17932,8 +18824,16 @@
         <f t="shared" si="15"/>
         <v>234</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G236" s="2">
+        <f t="shared" si="16"/>
+        <v>11674.8966</v>
+      </c>
+      <c r="H236" s="2">
+        <f t="shared" si="17"/>
+        <v>8581.042199999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>43860</v>
       </c>
@@ -17941,14 +18841,30 @@
         <f t="shared" si="15"/>
         <v>235</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G237" s="2">
+        <f t="shared" si="16"/>
+        <v>11774.808000000001</v>
+      </c>
+      <c r="H237" s="2">
+        <f t="shared" si="17"/>
+        <v>8618.2879999999968</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>43861</v>
       </c>
       <c r="B238" s="2">
         <f t="shared" si="15"/>
         <v>236</v>
+      </c>
+      <c r="G238" s="2">
+        <f t="shared" si="16"/>
+        <v>11875.145200000001</v>
+      </c>
+      <c r="H238" s="2">
+        <f t="shared" si="17"/>
+        <v>8655.1611999999986</v>
       </c>
     </row>
   </sheetData>

--- a/InstallTracker.xlsx
+++ b/InstallTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118CCD93-AF02-4EBC-B514-625FBA59E069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A91EE2-9FE3-4325-B544-E8913B64E59D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$207</c:f>
+              <c:f>Sheet1!$B$2:$B$238</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="206"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -962,16 +962,109 @@
                 </c:pt>
                 <c:pt idx="205">
                   <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$207</c:f>
+              <c:f>Sheet1!$C$2:$C$238</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="206"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1531,13 +1624,64 @@
                   <c:v>5743</c:v>
                 </c:pt>
                 <c:pt idx="186" formatCode="#,##0">
-                  <c:v>5770</c:v>
+                  <c:v>5787</c:v>
                 </c:pt>
                 <c:pt idx="187" formatCode="#,##0">
-                  <c:v>5806</c:v>
+                  <c:v>5794</c:v>
                 </c:pt>
                 <c:pt idx="188" formatCode="#,##0">
-                  <c:v>5858</c:v>
+                  <c:v>5842</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="#,##0">
+                  <c:v>5839</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="#,##0">
+                  <c:v>5875</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="#,##0">
+                  <c:v>5908</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="#,##0">
+                  <c:v>5910</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="#,##0">
+                  <c:v>5915</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="#,##0">
+                  <c:v>5964</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="#,##0">
+                  <c:v>6002</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="#,##0">
+                  <c:v>5994</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="#,##0">
+                  <c:v>6030</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="#,##0">
+                  <c:v>6061</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="#,##0">
+                  <c:v>6088</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="#,##0">
+                  <c:v>6086</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="#,##0">
+                  <c:v>6115</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="#,##0">
+                  <c:v>6152</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="#,##0">
+                  <c:v>6195</c:v>
+                </c:pt>
+                <c:pt idx="204" formatCode="#,##0">
+                  <c:v>6226</c:v>
+                </c:pt>
+                <c:pt idx="205" formatCode="#,##0">
+                  <c:v>6254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,10 +2154,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$207</c:f>
+              <c:f>Sheet1!$B$2:$B$238</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="206"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2631,16 +2775,109 @@
                 </c:pt>
                 <c:pt idx="205">
                   <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$207</c:f>
+              <c:f>Sheet1!$C$2:$C$238</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="206"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3200,13 +3437,64 @@
                   <c:v>5743</c:v>
                 </c:pt>
                 <c:pt idx="186" formatCode="#,##0">
-                  <c:v>5770</c:v>
+                  <c:v>5787</c:v>
                 </c:pt>
                 <c:pt idx="187" formatCode="#,##0">
-                  <c:v>5806</c:v>
+                  <c:v>5794</c:v>
                 </c:pt>
                 <c:pt idx="188" formatCode="#,##0">
-                  <c:v>5858</c:v>
+                  <c:v>5842</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="#,##0">
+                  <c:v>5839</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="#,##0">
+                  <c:v>5875</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="#,##0">
+                  <c:v>5908</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="#,##0">
+                  <c:v>5910</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="#,##0">
+                  <c:v>5915</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="#,##0">
+                  <c:v>5964</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="#,##0">
+                  <c:v>6002</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="#,##0">
+                  <c:v>5994</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="#,##0">
+                  <c:v>6030</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="#,##0">
+                  <c:v>6061</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="#,##0">
+                  <c:v>6088</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="#,##0">
+                  <c:v>6086</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="#,##0">
+                  <c:v>6115</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="#,##0">
+                  <c:v>6152</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="#,##0">
+                  <c:v>6195</c:v>
+                </c:pt>
+                <c:pt idx="204" formatCode="#,##0">
+                  <c:v>6226</c:v>
+                </c:pt>
+                <c:pt idx="205" formatCode="#,##0">
+                  <c:v>6254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3723,10 +4011,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$207</c:f>
+              <c:f>Sheet1!$B$2:$B$238</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="206"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4344,16 +4632,109 @@
                 </c:pt>
                 <c:pt idx="205">
                   <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$207</c:f>
+              <c:f>Sheet1!$E$2:$E$238</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="206"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4913,13 +5294,64 @@
                   <c:v>18.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>19.285714285714285</c:v>
+                  <c:v>21.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>20.857142857142858</c:v>
+                  <c:v>19.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>25.142857142857142</c:v>
+                  <c:v>22.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>13.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>23.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>28.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>23.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>18.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>24.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>22.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>22.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>22.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>21.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>25.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>24.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>21.571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>21.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>28.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>27.571428571428573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5389,10 +5821,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$207</c:f>
+              <c:f>Sheet1!$B$2:$B$238</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="206"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6010,16 +6442,109 @@
                 </c:pt>
                 <c:pt idx="205">
                   <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$207</c:f>
+              <c:f>Sheet1!$D$2:$D$238</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="206"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6579,13 +7104,64 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="186">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="199">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="187">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>52</c:v>
+                <c:pt idx="200">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7108,10 +7684,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$207</c:f>
+              <c:f>Sheet1!$B$2:$B$238</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="206"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7729,16 +8305,109 @@
                 </c:pt>
                 <c:pt idx="205">
                   <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$207</c:f>
+              <c:f>Sheet1!$F$2:$F$238</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="206"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8298,13 +8967,64 @@
                   <c:v>30.86021505376344</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>30.839572192513369</c:v>
+                  <c:v>30.930481283422459</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>30.867021276595743</c:v>
+                  <c:v>30.803191489361701</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>30.978835978835978</c:v>
+                  <c:v>30.894179894179896</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>30.715789473684211</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>30.7434554973822</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>30.755208333333332</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>30.606217616580309</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>30.47422680412371</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>30.569230769230771</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>30.607142857142858</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>30.411167512690355</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>30.439393939393938</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>30.442211055276381</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>30.425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>30.263681592039802</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>30.257425742574256</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>30.290640394088669</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>30.352941176470587</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>30.356097560975609</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>30.344660194174757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11844,11 +12564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J238"/>
+  <dimension ref="A1:J267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
+      <selection pane="bottomLeft" activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11912,11 +12632,11 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>0.2129*B2^2+0.0613*B2+3</f>
+        <f>0.1155*B2^2+10.812*B2+3</f>
         <v>3</v>
       </c>
       <c r="H2" s="2">
-        <f>-0.0008*B2^3+0.3777*B2^2-7.9187*B2+3</f>
+        <f>-0.0015*B2^3+0.5277*B2^2-14.6*B2+3</f>
         <v>3</v>
       </c>
       <c r="I2" s="2"/>
@@ -11946,12 +12666,12 @@
         <v>0.5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="1">0.2129*B3^2+0.0613*B3+3</f>
-        <v>3.2742</v>
+        <f t="shared" ref="G3:G66" si="1">0.1155*B3^2+10.812*B3+3</f>
+        <v>13.9275</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H66" si="2">-0.0008*B3^3+0.3777*B3^2-7.9187*B3+3</f>
-        <v>-4.5418000000000003</v>
+        <f t="shared" ref="H3:H66" si="2">-0.0015*B3^3+0.5277*B3^2-14.6*B3+3</f>
+        <v>-11.0738</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -11980,11 +12700,11 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" si="1"/>
-        <v>3.9742000000000002</v>
+        <v>25.085999999999999</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="2"/>
-        <v>-11.333</v>
+        <v>-24.101199999999999</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -12013,11 +12733,11 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>5.0999999999999996</v>
+        <v>36.475499999999997</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>-17.378399999999999</v>
+        <v>-36.091200000000001</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -12046,11 +12766,11 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>6.6516000000000002</v>
+        <v>48.095999999999997</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>-22.6828</v>
+        <v>-47.052799999999998</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -12079,11 +12799,11 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>8.6289999999999996</v>
+        <v>59.947499999999998</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="2"/>
-        <v>-27.250999999999998</v>
+        <v>-56.995000000000005</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -12112,11 +12832,11 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>11.032200000000001</v>
+        <v>72.03</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>-31.087800000000001</v>
+        <v>-65.9268</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -12145,11 +12865,11 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>13.8612</v>
+        <v>84.343499999999992</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>-34.198</v>
+        <v>-73.857200000000006</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -12178,11 +12898,11 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>17.116</v>
+        <v>96.887999999999991</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="2"/>
-        <v>-36.586400000000005</v>
+        <v>-80.795199999999994</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -12211,11 +12931,11 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>20.796600000000002</v>
+        <v>109.6635</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="2"/>
-        <v>-38.257800000000003</v>
+        <v>-86.749800000000008</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -12244,11 +12964,11 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>24.902999999999999</v>
+        <v>122.66999999999999</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="2"/>
-        <v>-39.216999999999999</v>
+        <v>-91.73</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -12277,11 +12997,11 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>29.435199999999998</v>
+        <v>135.9075</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
-        <v>-39.468800000000002</v>
+        <v>-95.744799999999998</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -12310,11 +13030,11 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>34.393200000000007</v>
+        <v>149.376</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="2"/>
-        <v>-39.018000000000001</v>
+        <v>-98.80319999999999</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -12343,11 +13063,11 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>39.777000000000001</v>
+        <v>163.07549999999998</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="2"/>
-        <v>-37.869399999999999</v>
+        <v>-100.91419999999999</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -12376,11 +13096,11 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>45.586599999999997</v>
+        <v>177.006</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="2"/>
-        <v>-36.027799999999999</v>
+        <v>-102.08680000000001</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -12409,11 +13129,11 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>51.822000000000003</v>
+        <v>191.16749999999999</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="2"/>
-        <v>-33.498000000000005</v>
+        <v>-102.33000000000001</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -12442,11 +13162,11 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>58.483200000000004</v>
+        <v>205.56</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="2"/>
-        <v>-30.284800000000004</v>
+        <v>-101.65280000000001</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -12475,11 +13195,11 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>65.5702</v>
+        <v>220.18350000000001</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="2"/>
-        <v>-26.393000000000001</v>
+        <v>-100.0642</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -12508,11 +13228,11 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
-        <v>73.082999999999998</v>
+        <v>235.03799999999998</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>-21.827399999999997</v>
+        <v>-97.573200000000014</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -12541,11 +13261,11 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>81.021599999999992</v>
+        <v>250.12350000000001</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="2"/>
-        <v>-16.592800000000011</v>
+        <v>-94.188799999999986</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -12574,11 +13294,11 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" si="1"/>
-        <v>89.385999999999996</v>
+        <v>265.44</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="2"/>
-        <v>-10.694000000000017</v>
+        <v>-89.920000000000016</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -12607,11 +13327,11 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" si="1"/>
-        <v>98.176200000000009</v>
+        <v>280.98750000000001</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="2"/>
-        <v>-4.1358000000000175</v>
+        <v>-84.775800000000004</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -12640,11 +13360,11 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
-        <v>107.3922</v>
+        <v>296.76599999999996</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="2"/>
-        <v>3.0769999999999698</v>
+        <v>-78.765200000000021</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -12673,11 +13393,11 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" si="1"/>
-        <v>117.03399999999999</v>
+        <v>312.77549999999997</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="2"/>
-        <v>10.939599999999984</v>
+        <v>-71.897200000000055</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -12706,11 +13426,11 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" si="1"/>
-        <v>127.1016</v>
+        <v>329.01600000000002</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="2"/>
-        <v>19.447199999999981</v>
+        <v>-64.180799999999977</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -12739,11 +13459,11 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" si="1"/>
-        <v>137.595</v>
+        <v>345.48750000000001</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="2"/>
-        <v>28.594999999999999</v>
+        <v>-55.625000000000057</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -12772,11 +13492,11 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" si="1"/>
-        <v>148.51419999999999</v>
+        <v>362.18999999999994</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="2"/>
-        <v>38.378199999999993</v>
+        <v>-46.238799999999969</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -12805,11 +13525,11 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" si="1"/>
-        <v>159.85920000000002</v>
+        <v>379.12349999999998</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="2"/>
-        <v>48.792000000000002</v>
+        <v>-36.031200000000013</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -12838,11 +13558,11 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" si="1"/>
-        <v>171.63</v>
+        <v>396.28800000000001</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="2"/>
-        <v>59.831600000000009</v>
+        <v>-25.011200000000031</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -12871,11 +13591,11 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" si="1"/>
-        <v>183.82660000000001</v>
+        <v>413.68349999999998</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="2"/>
-        <v>71.492199999999997</v>
+        <v>-13.187800000000038</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -12904,11 +13624,11 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" si="1"/>
-        <v>196.44900000000001</v>
+        <v>431.30999999999995</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="2"/>
-        <v>83.768999999999977</v>
+        <v>-0.57000000000005002</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -12937,11 +13657,11 @@
       </c>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
-        <v>209.49719999999999</v>
+        <v>449.16749999999996</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="2"/>
-        <v>96.65719999999996</v>
+        <v>12.833199999999977</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -12970,11 +13690,11 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
-        <v>222.97120000000001</v>
+        <v>467.25599999999997</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="2"/>
-        <v>110.15199999999996</v>
+        <v>27.01279999999997</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -13003,11 +13723,11 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
-        <v>236.87100000000001</v>
+        <v>485.57550000000003</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="2"/>
-        <v>124.24860000000001</v>
+        <v>41.959799999999916</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -13036,11 +13756,11 @@
       </c>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
-        <v>251.19660000000002</v>
+        <v>504.12599999999998</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="2"/>
-        <v>138.94220000000001</v>
+        <v>57.665199999999913</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -13069,11 +13789,11 @@
       </c>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
-        <v>265.94800000000004</v>
+        <v>522.90750000000003</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="2"/>
-        <v>154.22799999999995</v>
+        <v>74.119999999999891</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -13102,11 +13822,11 @@
       </c>
       <c r="G38" s="2">
         <f t="shared" si="1"/>
-        <v>281.12520000000001</v>
+        <v>541.91999999999996</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="2"/>
-        <v>170.10120000000001</v>
+        <v>91.315199999999891</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -13135,11 +13855,11 @@
       </c>
       <c r="G39" s="2">
         <f t="shared" si="1"/>
-        <v>296.72820000000002</v>
+        <v>561.1635</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="2"/>
-        <v>186.55699999999996</v>
+        <v>109.24180000000001</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -13168,11 +13888,11 @@
       </c>
       <c r="G40" s="2">
         <f t="shared" si="1"/>
-        <v>312.75700000000001</v>
+        <v>580.63800000000003</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="2"/>
-        <v>203.59059999999994</v>
+        <v>127.89080000000001</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -13201,11 +13921,11 @@
       </c>
       <c r="G41" s="2">
         <f t="shared" si="1"/>
-        <v>329.21159999999998</v>
+        <v>600.34349999999995</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" si="2"/>
-        <v>221.19719999999995</v>
+        <v>147.25319999999999</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -13234,11 +13954,11 @@
       </c>
       <c r="G42" s="2">
         <f t="shared" si="1"/>
-        <v>346.09199999999998</v>
+        <v>620.28</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="2"/>
-        <v>239.3719999999999</v>
+        <v>167.31999999999994</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -13267,11 +13987,11 @@
       </c>
       <c r="G43" s="2">
         <f t="shared" si="1"/>
-        <v>363.39820000000003</v>
+        <v>640.44749999999999</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="2"/>
-        <v>258.11019999999996</v>
+        <v>188.08219999999994</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -13300,11 +14020,11 @@
       </c>
       <c r="G44" s="2">
         <f t="shared" si="1"/>
-        <v>381.1302</v>
+        <v>660.846</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="2"/>
-        <v>277.40699999999998</v>
+        <v>209.53079999999989</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -13333,11 +14053,11 @@
       </c>
       <c r="G45" s="2">
         <f t="shared" si="1"/>
-        <v>399.28800000000001</v>
+        <v>681.47550000000001</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" si="2"/>
-        <v>297.25760000000002</v>
+        <v>231.65679999999998</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -13366,11 +14086,11 @@
       </c>
       <c r="G46" s="2">
         <f t="shared" si="1"/>
-        <v>417.8716</v>
+        <v>702.33600000000001</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="2"/>
-        <v>317.65719999999993</v>
+        <v>254.45119999999997</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -13399,11 +14119,11 @@
       </c>
       <c r="G47" s="2">
         <f t="shared" si="1"/>
-        <v>436.88100000000003</v>
+        <v>723.42750000000001</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="2"/>
-        <v>338.601</v>
+        <v>277.90499999999997</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -13432,11 +14152,11 @@
       </c>
       <c r="G48" s="2">
         <f t="shared" si="1"/>
-        <v>456.31619999999998</v>
+        <v>744.75</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="2"/>
-        <v>360.08419999999995</v>
+        <v>302.00919999999974</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -13465,11 +14185,11 @@
       </c>
       <c r="G49" s="2">
         <f t="shared" si="1"/>
-        <v>476.17720000000003</v>
+        <v>766.30349999999999</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="2"/>
-        <v>382.10199999999998</v>
+        <v>326.75479999999982</v>
       </c>
       <c r="I49" s="2"/>
     </row>
@@ -13498,11 +14218,11 @@
       </c>
       <c r="G50" s="2">
         <f t="shared" si="1"/>
-        <v>496.46400000000006</v>
+        <v>788.08799999999997</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="2"/>
-        <v>404.64959999999991</v>
+        <v>352.13280000000009</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -13531,11 +14251,11 @@
       </c>
       <c r="G51" s="2">
         <f t="shared" si="1"/>
-        <v>517.17660000000001</v>
+        <v>810.10349999999994</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="2"/>
-        <v>427.72219999999993</v>
+        <v>378.13419999999985</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -13564,11 +14284,11 @@
       </c>
       <c r="G52" s="2">
         <f t="shared" si="1"/>
-        <v>538.31500000000005</v>
+        <v>832.35</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" si="2"/>
-        <v>451.315</v>
+        <v>404.74999999999977</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -13597,11 +14317,11 @@
       </c>
       <c r="G53" s="2">
         <f t="shared" si="1"/>
-        <v>559.87920000000008</v>
+        <v>854.82749999999987</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" si="2"/>
-        <v>475.42319999999995</v>
+        <v>431.97119999999984</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -13630,11 +14350,11 @@
       </c>
       <c r="G54" s="2">
         <f t="shared" si="1"/>
-        <v>581.86919999999998</v>
+        <v>877.53599999999994</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" si="2"/>
-        <v>500.04199999999997</v>
+        <v>459.78879999999992</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -13663,11 +14383,11 @@
       </c>
       <c r="G55" s="2">
         <f t="shared" si="1"/>
-        <v>604.28500000000008</v>
+        <v>900.47550000000001</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" si="2"/>
-        <v>525.16660000000002</v>
+        <v>488.19380000000001</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -13696,11 +14416,11 @@
       </c>
       <c r="G56" s="2">
         <f t="shared" si="1"/>
-        <v>627.12660000000005</v>
+        <v>923.64599999999996</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="2"/>
-        <v>550.79220000000009</v>
+        <v>517.17719999999997</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -13729,11 +14449,11 @@
       </c>
       <c r="G57" s="2">
         <f t="shared" si="1"/>
-        <v>650.39400000000001</v>
+        <v>947.0474999999999</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" si="2"/>
-        <v>576.91399999999999</v>
+        <v>546.72999999999979</v>
       </c>
       <c r="I57" s="2"/>
     </row>
@@ -13762,11 +14482,11 @@
       </c>
       <c r="G58" s="2">
         <f t="shared" si="1"/>
-        <v>674.08720000000005</v>
+        <v>970.68000000000006</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="2"/>
-        <v>603.52719999999999</v>
+        <v>576.84319999999991</v>
       </c>
       <c r="I58" s="2"/>
     </row>
@@ -13795,11 +14515,11 @@
       </c>
       <c r="G59" s="2">
         <f t="shared" si="1"/>
-        <v>698.20619999999997</v>
+        <v>994.54349999999999</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" si="2"/>
-        <v>630.62699999999973</v>
+        <v>607.50779999999975</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -13828,11 +14548,11 @@
       </c>
       <c r="G60" s="2">
         <f t="shared" si="1"/>
-        <v>722.75099999999998</v>
+        <v>1018.638</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" si="2"/>
-        <v>658.20859999999993</v>
+        <v>638.71479999999997</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -13861,11 +14581,11 @@
       </c>
       <c r="G61" s="2">
         <f t="shared" si="1"/>
-        <v>747.72160000000008</v>
+        <v>1042.9635000000001</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="2"/>
-        <v>686.26719999999989</v>
+        <v>670.45519999999976</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -13894,11 +14614,11 @@
       </c>
       <c r="G62" s="2">
         <f t="shared" si="1"/>
-        <v>773.11800000000005</v>
+        <v>1067.52</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" si="2"/>
-        <v>714.798</v>
+        <v>702.7199999999998</v>
       </c>
       <c r="I62" s="2"/>
     </row>
@@ -13927,11 +14647,11 @@
       </c>
       <c r="G63" s="2">
         <f t="shared" si="1"/>
-        <v>798.9402</v>
+        <v>1092.3074999999999</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="2"/>
-        <v>743.79619999999977</v>
+        <v>735.50019999999984</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -13960,11 +14680,11 @@
       </c>
       <c r="G64" s="2">
         <f t="shared" si="1"/>
-        <v>825.18820000000005</v>
+        <v>1117.326</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" si="2"/>
-        <v>773.25700000000006</v>
+        <v>768.78679999999997</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -13993,11 +14713,11 @@
       </c>
       <c r="G65" s="2">
         <f t="shared" si="1"/>
-        <v>851.86199999999997</v>
+        <v>1142.5754999999999</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" si="2"/>
-        <v>803.17559999999992</v>
+        <v>802.57079999999996</v>
       </c>
       <c r="I65" s="2"/>
     </row>
@@ -14026,11 +14746,11 @@
       </c>
       <c r="G66" s="2">
         <f t="shared" si="1"/>
-        <v>878.96159999999998</v>
+        <v>1168.056</v>
       </c>
       <c r="H66" s="2">
         <f t="shared" si="2"/>
-        <v>833.54719999999975</v>
+        <v>836.84319999999991</v>
       </c>
       <c r="I66" s="2"/>
     </row>
@@ -14058,12 +14778,12 @@
         <v>11.696969696969697</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G130" si="6">0.2129*B67^2+0.0613*B67+3</f>
-        <v>906.48700000000008</v>
+        <f t="shared" ref="G67:G130" si="6">0.1155*B67^2+10.812*B67+3</f>
+        <v>1193.7674999999999</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" ref="H67:H130" si="7">-0.0008*B67^3+0.3777*B67^2-7.9187*B67+3</f>
-        <v>864.36699999999996</v>
+        <f t="shared" ref="H67:H130" si="7">-0.0015*B67^3+0.5277*B67^2-14.6*B67+3</f>
+        <v>871.5949999999998</v>
       </c>
       <c r="I67" s="2"/>
     </row>
@@ -14092,11 +14812,11 @@
       </c>
       <c r="G68" s="2">
         <f t="shared" si="6"/>
-        <v>934.43820000000005</v>
+        <v>1219.71</v>
       </c>
       <c r="H68" s="2">
         <f t="shared" si="7"/>
-        <v>895.63020000000006</v>
+        <v>906.81719999999939</v>
       </c>
       <c r="I68" s="2"/>
     </row>
@@ -14125,11 +14845,11 @@
       </c>
       <c r="G69" s="2">
         <f t="shared" si="6"/>
-        <v>962.8152</v>
+        <v>1245.8834999999999</v>
       </c>
       <c r="H69" s="2">
         <f t="shared" si="7"/>
-        <v>927.33199999999977</v>
+        <v>942.50080000000014</v>
       </c>
       <c r="I69" s="2"/>
     </row>
@@ -14158,11 +14878,11 @@
       </c>
       <c r="G70" s="2">
         <f t="shared" si="6"/>
-        <v>991.61800000000005</v>
+        <v>1272.288</v>
       </c>
       <c r="H70" s="2">
         <f t="shared" si="7"/>
-        <v>959.46760000000006</v>
+        <v>978.63679999999954</v>
       </c>
       <c r="I70" s="2"/>
     </row>
@@ -14191,11 +14911,11 @@
       </c>
       <c r="G71" s="2">
         <f t="shared" si="6"/>
-        <v>1020.8466</v>
+        <v>1298.9234999999999</v>
       </c>
       <c r="H71" s="2">
         <f t="shared" si="7"/>
-        <v>992.03219999999988</v>
+        <v>1015.2162</v>
       </c>
       <c r="I71" s="2"/>
     </row>
@@ -14224,11 +14944,11 @@
       </c>
       <c r="G72" s="2">
         <f t="shared" si="6"/>
-        <v>1050.501</v>
+        <v>1325.79</v>
       </c>
       <c r="H72" s="2">
         <f t="shared" si="7"/>
-        <v>1025.0209999999997</v>
+        <v>1052.2299999999996</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -14257,11 +14977,11 @@
       </c>
       <c r="G73" s="2">
         <f t="shared" si="6"/>
-        <v>1080.5812000000001</v>
+        <v>1352.8874999999998</v>
       </c>
       <c r="H73" s="2">
         <f t="shared" si="7"/>
-        <v>1058.4292</v>
+        <v>1089.6691999999998</v>
       </c>
       <c r="I73" s="2"/>
     </row>
@@ -14290,11 +15010,11 @@
       </c>
       <c r="G74" s="2">
         <f t="shared" si="6"/>
-        <v>1111.0872000000002</v>
+        <v>1380.2159999999999</v>
       </c>
       <c r="H74" s="2">
         <f t="shared" si="7"/>
-        <v>1092.252</v>
+        <v>1127.5247999999999</v>
       </c>
       <c r="I74" s="2"/>
     </row>
@@ -14323,11 +15043,11 @@
       </c>
       <c r="G75" s="2">
         <f t="shared" si="6"/>
-        <v>1142.019</v>
+        <v>1407.7755</v>
       </c>
       <c r="H75" s="2">
         <f t="shared" si="7"/>
-        <v>1126.4845999999998</v>
+        <v>1165.7877999999994</v>
       </c>
       <c r="I75" s="2"/>
     </row>
@@ -14356,11 +15076,11 @@
       </c>
       <c r="G76" s="2">
         <f t="shared" si="6"/>
-        <v>1173.3766000000001</v>
+        <v>1435.566</v>
       </c>
       <c r="H76" s="2">
         <f t="shared" si="7"/>
-        <v>1161.1221999999998</v>
+        <v>1204.4491999999998</v>
       </c>
       <c r="I76" s="2"/>
     </row>
@@ -14389,11 +15109,11 @@
       </c>
       <c r="G77" s="2">
         <f t="shared" si="6"/>
-        <v>1205.1600000000001</v>
+        <v>1463.5875000000001</v>
       </c>
       <c r="H77" s="2">
         <f t="shared" si="7"/>
-        <v>1196.1599999999999</v>
+        <v>1243.4999999999995</v>
       </c>
       <c r="I77" s="2"/>
     </row>
@@ -14422,11 +15142,11 @@
       </c>
       <c r="G78" s="2">
         <f t="shared" si="6"/>
-        <v>1237.3691999999999</v>
+        <v>1491.8400000000001</v>
       </c>
       <c r="H78" s="2">
         <f t="shared" si="7"/>
-        <v>1231.5931999999998</v>
+        <v>1282.9312</v>
       </c>
       <c r="I78" s="2"/>
     </row>
@@ -14455,11 +15175,11 @@
       </c>
       <c r="G79" s="2">
         <f t="shared" si="6"/>
-        <v>1270.0042000000001</v>
+        <v>1520.3235</v>
       </c>
       <c r="H79" s="2">
         <f t="shared" si="7"/>
-        <v>1267.4169999999999</v>
+        <v>1322.7337999999997</v>
       </c>
       <c r="I79" s="2"/>
     </row>
@@ -14488,11 +15208,11 @@
       </c>
       <c r="G80" s="2">
         <f t="shared" si="6"/>
-        <v>1303.0650000000001</v>
+        <v>1549.038</v>
       </c>
       <c r="H80" s="2">
         <f t="shared" si="7"/>
-        <v>1303.6265999999998</v>
+        <v>1362.8987999999997</v>
       </c>
       <c r="I80" s="2"/>
     </row>
@@ -14521,11 +15241,11 @@
       </c>
       <c r="G81" s="2">
         <f t="shared" si="6"/>
-        <v>1336.5516</v>
+        <v>1577.9834999999998</v>
       </c>
       <c r="H81" s="2">
         <f t="shared" si="7"/>
-        <v>1340.2172</v>
+        <v>1403.4171999999996</v>
       </c>
       <c r="I81" s="2"/>
     </row>
@@ -14554,11 +15274,11 @@
       </c>
       <c r="G82" s="2">
         <f t="shared" si="6"/>
-        <v>1370.4639999999999</v>
+        <v>1607.1599999999999</v>
       </c>
       <c r="H82" s="2">
         <f t="shared" si="7"/>
-        <v>1377.1839999999997</v>
+        <v>1444.2799999999997</v>
       </c>
       <c r="I82" s="2"/>
     </row>
@@ -14587,11 +15307,11 @@
       </c>
       <c r="G83" s="2">
         <f t="shared" si="6"/>
-        <v>1404.8022000000001</v>
+        <v>1636.5675000000001</v>
       </c>
       <c r="H83" s="2">
         <f t="shared" si="7"/>
-        <v>1414.5222000000001</v>
+        <v>1485.4781999999996</v>
       </c>
       <c r="I83" s="2"/>
     </row>
@@ -14620,11 +15340,11 @@
       </c>
       <c r="G84" s="2">
         <f t="shared" si="6"/>
-        <v>1439.5662</v>
+        <v>1666.2060000000001</v>
       </c>
       <c r="H84" s="2">
         <f t="shared" si="7"/>
-        <v>1452.2269999999999</v>
+        <v>1527.0027999999995</v>
       </c>
       <c r="I84" s="2"/>
     </row>
@@ -14653,11 +15373,11 @@
       </c>
       <c r="G85" s="2">
         <f t="shared" si="6"/>
-        <v>1474.7560000000001</v>
+        <v>1696.0754999999999</v>
       </c>
       <c r="H85" s="2">
         <f t="shared" si="7"/>
-        <v>1490.2936</v>
+        <v>1568.8447999999996</v>
       </c>
       <c r="I85" s="2"/>
     </row>
@@ -14686,11 +15406,11 @@
       </c>
       <c r="G86" s="2">
         <f t="shared" si="6"/>
-        <v>1510.3716000000002</v>
+        <v>1726.1759999999999</v>
       </c>
       <c r="H86" s="2">
         <f t="shared" si="7"/>
-        <v>1528.7172</v>
+        <v>1610.9951999999996</v>
       </c>
       <c r="I86" s="2"/>
     </row>
@@ -14719,11 +15439,11 @@
       </c>
       <c r="G87" s="2">
         <f t="shared" si="6"/>
-        <v>1546.413</v>
+        <v>1756.5075000000002</v>
       </c>
       <c r="H87" s="2">
         <f t="shared" si="7"/>
-        <v>1567.4929999999995</v>
+        <v>1653.4449999999997</v>
       </c>
       <c r="I87" s="2"/>
     </row>
@@ -14752,11 +15472,11 @@
       </c>
       <c r="G88" s="2">
         <f t="shared" si="6"/>
-        <v>1582.8802000000001</v>
+        <v>1787.0700000000002</v>
       </c>
       <c r="H88" s="2">
         <f t="shared" si="7"/>
-        <v>1606.6162000000002</v>
+        <v>1696.1851999999994</v>
       </c>
       <c r="I88" s="2"/>
     </row>
@@ -14785,11 +15505,11 @@
       </c>
       <c r="G89" s="2">
         <f t="shared" si="6"/>
-        <v>1619.7732000000001</v>
+        <v>1817.8634999999999</v>
       </c>
       <c r="H89" s="2">
         <f t="shared" si="7"/>
-        <v>1646.0819999999999</v>
+        <v>1739.2067999999997</v>
       </c>
       <c r="I89" s="2"/>
     </row>
@@ -14818,11 +15538,11 @@
       </c>
       <c r="G90" s="2">
         <f t="shared" si="6"/>
-        <v>1657.0919999999999</v>
+        <v>1848.8879999999999</v>
       </c>
       <c r="H90" s="2">
         <f t="shared" si="7"/>
-        <v>1685.8855999999996</v>
+        <v>1782.5007999999996</v>
       </c>
       <c r="I90" s="2"/>
     </row>
@@ -14851,11 +15571,11 @@
       </c>
       <c r="G91" s="2">
         <f t="shared" si="6"/>
-        <v>1694.8366000000001</v>
+        <v>1880.1434999999999</v>
       </c>
       <c r="H91" s="2">
         <f t="shared" si="7"/>
-        <v>1726.0222000000001</v>
+        <v>1826.0581999999997</v>
       </c>
       <c r="I91" s="2"/>
     </row>
@@ -14884,11 +15604,11 @@
       </c>
       <c r="G92" s="2">
         <f t="shared" si="6"/>
-        <v>1733.0070000000001</v>
+        <v>1911.63</v>
       </c>
       <c r="H92" s="2">
         <f t="shared" si="7"/>
-        <v>1766.4870000000001</v>
+        <v>1869.87</v>
       </c>
       <c r="I92" t="s">
         <v>7</v>
@@ -14919,11 +15639,11 @@
       </c>
       <c r="G93" s="2">
         <f t="shared" si="6"/>
-        <v>1771.6032</v>
+        <v>1943.3474999999999</v>
       </c>
       <c r="H93" s="2">
         <f t="shared" si="7"/>
-        <v>1807.2751999999996</v>
+        <v>1913.9271999999996</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -14951,11 +15671,11 @@
       </c>
       <c r="G94" s="2">
         <f t="shared" si="6"/>
-        <v>1810.6251999999999</v>
+        <v>1975.296</v>
       </c>
       <c r="H94" s="2">
         <f t="shared" si="7"/>
-        <v>1848.3819999999996</v>
+        <v>1958.2207999999989</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -14983,11 +15703,11 @@
       </c>
       <c r="G95" s="2">
         <f t="shared" si="6"/>
-        <v>1850.0730000000001</v>
+        <v>2007.4755</v>
       </c>
       <c r="H95" s="2">
         <f t="shared" si="7"/>
-        <v>1889.8026</v>
+        <v>2002.7418</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -15015,11 +15735,11 @@
       </c>
       <c r="G96" s="2">
         <f t="shared" si="6"/>
-        <v>1889.9466</v>
+        <v>2039.886</v>
       </c>
       <c r="H96" s="2">
         <f t="shared" si="7"/>
-        <v>1931.5321999999999</v>
+        <v>2047.481199999999</v>
       </c>
       <c r="I96" t="s">
         <v>6</v>
@@ -15050,11 +15770,11 @@
       </c>
       <c r="G97" s="2">
         <f t="shared" si="6"/>
-        <v>1930.2460000000001</v>
+        <v>2072.5275000000001</v>
       </c>
       <c r="H97" s="2">
         <f t="shared" si="7"/>
-        <v>1973.5659999999998</v>
+        <v>2092.4299999999994</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -15082,11 +15802,11 @@
       </c>
       <c r="G98" s="2">
         <f t="shared" si="6"/>
-        <v>1970.9712000000002</v>
+        <v>2105.4</v>
       </c>
       <c r="H98" s="2">
         <f t="shared" si="7"/>
-        <v>2015.8991999999998</v>
+        <v>2137.5791999999997</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -15114,11 +15834,11 @@
       </c>
       <c r="G99" s="2">
         <f t="shared" si="6"/>
-        <v>2012.1222</v>
+        <v>2138.5034999999998</v>
       </c>
       <c r="H99" s="2">
         <f t="shared" si="7"/>
-        <v>2058.5269999999991</v>
+        <v>2182.9197999999997</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -15146,11 +15866,11 @@
       </c>
       <c r="G100" s="2">
         <f t="shared" si="6"/>
-        <v>2053.6990000000001</v>
+        <v>2171.8379999999997</v>
       </c>
       <c r="H100" s="2">
         <f t="shared" si="7"/>
-        <v>2101.4445999999994</v>
+        <v>2228.4427999999998</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -15178,11 +15898,11 @@
       </c>
       <c r="G101" s="2">
         <f t="shared" si="6"/>
-        <v>2095.7015999999999</v>
+        <v>2205.4034999999999</v>
       </c>
       <c r="H101" s="2">
         <f t="shared" si="7"/>
-        <v>2144.6471999999994</v>
+        <v>2274.1391999999996</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -15210,11 +15930,11 @@
       </c>
       <c r="G102" s="2">
         <f t="shared" si="6"/>
-        <v>2138.13</v>
+        <v>2239.1999999999998</v>
       </c>
       <c r="H102" s="2">
         <f t="shared" si="7"/>
-        <v>2188.13</v>
+        <v>2319.9999999999991</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -15242,11 +15962,11 @@
       </c>
       <c r="G103" s="2">
         <f t="shared" si="6"/>
-        <v>2180.9841999999999</v>
+        <v>2273.2275</v>
       </c>
       <c r="H103" s="2">
         <f t="shared" si="7"/>
-        <v>2231.8881999999999</v>
+        <v>2366.0161999999996</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -15274,11 +15994,11 @@
       </c>
       <c r="G104" s="2">
         <f t="shared" si="6"/>
-        <v>2224.2642000000001</v>
+        <v>2307.4859999999999</v>
       </c>
       <c r="H104" s="2">
         <f t="shared" si="7"/>
-        <v>2275.9169999999995</v>
+        <v>2412.1787999999997</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
@@ -15306,11 +16026,11 @@
       </c>
       <c r="G105" s="2">
         <f t="shared" si="6"/>
-        <v>2267.9700000000003</v>
+        <v>2341.9755</v>
       </c>
       <c r="H105" s="2">
         <f t="shared" si="7"/>
-        <v>2320.2116000000001</v>
+        <v>2458.478799999999</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -15338,11 +16058,11 @@
       </c>
       <c r="G106" s="2">
         <f t="shared" si="6"/>
-        <v>2312.1016</v>
+        <v>2376.6959999999999</v>
       </c>
       <c r="H106" s="2">
         <f t="shared" si="7"/>
-        <v>2364.7671999999998</v>
+        <v>2504.9071999999996</v>
       </c>
       <c r="I106" t="s">
         <v>9</v>
@@ -15373,11 +16093,11 @@
       </c>
       <c r="G107" s="2">
         <f t="shared" si="6"/>
-        <v>2356.6589999999997</v>
+        <v>2411.6475</v>
       </c>
       <c r="H107" s="2">
         <f t="shared" si="7"/>
-        <v>2409.5789999999997</v>
+        <v>2551.454999999999</v>
       </c>
       <c r="I107" t="s">
         <v>8</v>
@@ -15408,11 +16128,11 @@
       </c>
       <c r="G108" s="2">
         <f t="shared" si="6"/>
-        <v>2401.6422000000002</v>
+        <v>2446.83</v>
       </c>
       <c r="H108" s="2">
         <f t="shared" si="7"/>
-        <v>2454.6421999999998</v>
+        <v>2598.1131999999993</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -15440,11 +16160,11 @@
       </c>
       <c r="G109" s="2">
         <f t="shared" si="6"/>
-        <v>2447.0511999999999</v>
+        <v>2482.2435</v>
       </c>
       <c r="H109" s="2">
         <f t="shared" si="7"/>
-        <v>2499.9519999999998</v>
+        <v>2644.8728000000001</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -15472,11 +16192,11 @@
       </c>
       <c r="G110" s="2">
         <f t="shared" si="6"/>
-        <v>2492.886</v>
+        <v>2517.8879999999999</v>
       </c>
       <c r="H110" s="2">
         <f t="shared" si="7"/>
-        <v>2545.5036</v>
+        <v>2691.724799999999</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -15504,11 +16224,11 @@
       </c>
       <c r="G111" s="2">
         <f t="shared" si="6"/>
-        <v>2539.1466</v>
+        <v>2553.7635</v>
       </c>
       <c r="H111" s="2">
         <f t="shared" si="7"/>
-        <v>2591.2921999999999</v>
+        <v>2738.6602000000003</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -15536,11 +16256,11 @@
       </c>
       <c r="G112" s="2">
         <f t="shared" si="6"/>
-        <v>2585.8330000000001</v>
+        <v>2589.87</v>
       </c>
       <c r="H112" s="2">
         <f t="shared" si="7"/>
-        <v>2637.3130000000001</v>
+        <v>2785.6699999999992</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
@@ -15568,11 +16288,11 @@
       </c>
       <c r="G113" s="2">
         <f t="shared" si="6"/>
-        <v>2632.9451999999997</v>
+        <v>2626.2075</v>
       </c>
       <c r="H113" s="2">
         <f t="shared" si="7"/>
-        <v>2683.5612000000001</v>
+        <v>2832.7451999999998</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
@@ -15600,11 +16320,11 @@
       </c>
       <c r="G114" s="2">
         <f t="shared" si="6"/>
-        <v>2680.4832000000001</v>
+        <v>2662.7759999999998</v>
       </c>
       <c r="H114" s="2">
         <f t="shared" si="7"/>
-        <v>2730.0320000000002</v>
+        <v>2879.8768</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
@@ -15632,11 +16352,11 @@
       </c>
       <c r="G115" s="2">
         <f t="shared" si="6"/>
-        <v>2728.4470000000001</v>
+        <v>2699.5754999999999</v>
       </c>
       <c r="H115" s="2">
         <f t="shared" si="7"/>
-        <v>2776.7205999999987</v>
+        <v>2927.0557999999992</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
@@ -15664,11 +16384,11 @@
       </c>
       <c r="G116" s="2">
         <f t="shared" si="6"/>
-        <v>2776.8365999999996</v>
+        <v>2736.6059999999998</v>
       </c>
       <c r="H116" s="2">
         <f t="shared" si="7"/>
-        <v>2823.6221999999993</v>
+        <v>2974.2731999999996</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
@@ -15696,11 +16416,11 @@
       </c>
       <c r="G117" s="2">
         <f t="shared" si="6"/>
-        <v>2825.652</v>
+        <v>2773.8675000000003</v>
       </c>
       <c r="H117" s="2">
         <f t="shared" si="7"/>
-        <v>2870.7319999999995</v>
+        <v>3021.5199999999995</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
@@ -15728,11 +16448,11 @@
       </c>
       <c r="G118" s="2">
         <f t="shared" si="6"/>
-        <v>2874.8932</v>
+        <v>2811.36</v>
       </c>
       <c r="H118" s="2">
         <f t="shared" si="7"/>
-        <v>2918.0451999999996</v>
+        <v>3068.7871999999993</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
@@ -15760,11 +16480,11 @@
       </c>
       <c r="G119" s="2">
         <f t="shared" si="6"/>
-        <v>2924.5601999999999</v>
+        <v>2849.0834999999997</v>
       </c>
       <c r="H119" s="2">
         <f t="shared" si="7"/>
-        <v>2965.5569999999998</v>
+        <v>3116.0657999999994</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
@@ -15792,11 +16512,11 @@
       </c>
       <c r="G120" s="2">
         <f t="shared" si="6"/>
-        <v>2974.6530000000002</v>
+        <v>2887.038</v>
       </c>
       <c r="H120" s="2">
         <f t="shared" si="7"/>
-        <v>3013.2626</v>
+        <v>3163.3467999999984</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
@@ -15824,11 +16544,11 @@
       </c>
       <c r="G121" s="2">
         <f t="shared" si="6"/>
-        <v>3025.1716000000001</v>
+        <v>2925.2235000000001</v>
       </c>
       <c r="H121" s="2">
         <f t="shared" si="7"/>
-        <v>3061.1572000000001</v>
+        <v>3210.6211999999996</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
@@ -15856,11 +16576,11 @@
       </c>
       <c r="G122" s="2">
         <f t="shared" si="6"/>
-        <v>3076.1160000000004</v>
+        <v>2963.64</v>
       </c>
       <c r="H122" s="2">
         <f t="shared" si="7"/>
-        <v>3109.2359999999999</v>
+        <v>3257.8799999999992</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
@@ -15888,11 +16608,11 @@
       </c>
       <c r="G123" s="2">
         <f t="shared" si="6"/>
-        <v>3127.4862000000003</v>
+        <v>3002.2875000000004</v>
       </c>
       <c r="H123" s="2">
         <f t="shared" si="7"/>
-        <v>3157.4941999999992</v>
+        <v>3305.1141999999986</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
@@ -15920,11 +16640,11 @@
       </c>
       <c r="G124" s="2">
         <f t="shared" si="6"/>
-        <v>3179.2822000000001</v>
+        <v>3041.1660000000002</v>
       </c>
       <c r="H124" s="2">
         <f t="shared" si="7"/>
-        <v>3205.9269999999997</v>
+        <v>3352.3147999999992</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
@@ -15952,11 +16672,11 @@
       </c>
       <c r="G125" s="2">
         <f t="shared" si="6"/>
-        <v>3231.5040000000004</v>
+        <v>3080.2754999999997</v>
       </c>
       <c r="H125" s="2">
         <f t="shared" si="7"/>
-        <v>3254.5295999999989</v>
+        <v>3399.4727999999986</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
@@ -15984,11 +16704,11 @@
       </c>
       <c r="G126" s="2">
         <f t="shared" si="6"/>
-        <v>3284.1516000000001</v>
+        <v>3119.616</v>
       </c>
       <c r="H126" s="2">
         <f t="shared" si="7"/>
-        <v>3303.2971999999995</v>
+        <v>3446.5792000000001</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
@@ -16016,11 +16736,11 @@
       </c>
       <c r="G127" s="2">
         <f t="shared" si="6"/>
-        <v>3337.2249999999999</v>
+        <v>3159.1875</v>
       </c>
       <c r="H127" s="2">
         <f t="shared" si="7"/>
-        <v>3352.2249999999999</v>
+        <v>3493.625</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
@@ -16048,11 +16768,11 @@
       </c>
       <c r="G128" s="2">
         <f t="shared" si="6"/>
-        <v>3390.7242000000001</v>
+        <v>3198.99</v>
       </c>
       <c r="H128" s="2">
         <f t="shared" si="7"/>
-        <v>3401.3081999999995</v>
+        <v>3540.6011999999996</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
@@ -16080,11 +16800,11 @@
       </c>
       <c r="G129" s="2">
         <f t="shared" si="6"/>
-        <v>3444.6492000000003</v>
+        <v>3239.0235000000002</v>
       </c>
       <c r="H129" s="2">
         <f t="shared" si="7"/>
-        <v>3450.5419999999995</v>
+        <v>3587.4987999999985</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
@@ -16112,11 +16832,11 @@
       </c>
       <c r="G130" s="2">
         <f t="shared" si="6"/>
-        <v>3499</v>
+        <v>3279.288</v>
       </c>
       <c r="H130" s="2">
         <f t="shared" si="7"/>
-        <v>3499.9215999999997</v>
+        <v>3634.3087999999989</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
@@ -16143,12 +16863,12 @@
         <v>28.476923076923075</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" ref="G131:G194" si="11">0.2129*B131^2+0.0613*B131+3</f>
-        <v>3553.7766000000001</v>
+        <f t="shared" ref="G131:G194" si="11">0.1155*B131^2+10.812*B131+3</f>
+        <v>3319.7835</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" ref="H131:H194" si="12">-0.0008*B131^3+0.3777*B131^2-7.9187*B131+3</f>
-        <v>3549.4422</v>
+        <f t="shared" ref="H131:H194" si="12">-0.0015*B131^3+0.5277*B131^2-14.6*B131+3</f>
+        <v>3681.0221999999994</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
@@ -16163,7 +16883,7 @@
         <v>3723</v>
       </c>
       <c r="D132" s="2">
-        <f t="shared" ref="D132:D190" si="13">C132-C131</f>
+        <f t="shared" ref="D132:D195" si="13">C132-C131</f>
         <v>18</v>
       </c>
       <c r="E132" s="2">
@@ -16176,11 +16896,11 @@
       </c>
       <c r="G132" s="2">
         <f t="shared" si="11"/>
-        <v>3608.9790000000003</v>
+        <v>3360.51</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" si="12"/>
-        <v>3599.0989999999997</v>
+        <v>3727.6299999999992</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
@@ -16208,11 +16928,11 @@
       </c>
       <c r="G133" s="2">
         <f t="shared" si="11"/>
-        <v>3664.6071999999999</v>
+        <v>3401.4674999999997</v>
       </c>
       <c r="H133" s="2">
         <f t="shared" si="12"/>
-        <v>3648.8872000000001</v>
+        <v>3774.1231999999986</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
@@ -16240,11 +16960,11 @@
       </c>
       <c r="G134" s="2">
         <f t="shared" si="11"/>
-        <v>3720.6612000000005</v>
+        <v>3442.6559999999999</v>
       </c>
       <c r="H134" s="2">
         <f t="shared" si="12"/>
-        <v>3698.8019999999997</v>
+        <v>3820.4927999999982</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
@@ -16272,11 +16992,11 @@
       </c>
       <c r="G135" s="2">
         <f t="shared" si="11"/>
-        <v>3777.1410000000001</v>
+        <v>3484.0754999999999</v>
       </c>
       <c r="H135" s="2">
         <f t="shared" si="12"/>
-        <v>3748.8386</v>
+        <v>3866.7297999999982</v>
       </c>
       <c r="I135" t="s">
         <v>10</v>
@@ -16307,11 +17027,11 @@
       </c>
       <c r="G136" s="2">
         <f t="shared" si="11"/>
-        <v>3834.0466000000001</v>
+        <v>3525.7260000000001</v>
       </c>
       <c r="H136" s="2">
         <f t="shared" si="12"/>
-        <v>3798.9921999999988</v>
+        <v>3912.8252000000002</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
@@ -16339,11 +17059,11 @@
       </c>
       <c r="G137" s="2">
         <f t="shared" si="11"/>
-        <v>3891.3780000000002</v>
+        <v>3567.6075000000001</v>
       </c>
       <c r="H137" s="2">
         <f t="shared" si="12"/>
-        <v>3849.2579999999994</v>
+        <v>3958.7699999999986</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
@@ -16362,7 +17082,7 @@
         <v>51</v>
       </c>
       <c r="E138" s="2">
-        <f t="shared" ref="E138:E190" si="14">(C138-C131)/7</f>
+        <f t="shared" ref="E138:E201" si="14">(C138-C131)/7</f>
         <v>45.428571428571431</v>
       </c>
       <c r="F138" s="2">
@@ -16371,11 +17091,11 @@
       </c>
       <c r="G138" s="2">
         <f t="shared" si="11"/>
-        <v>3949.1352000000002</v>
+        <v>3609.7200000000003</v>
       </c>
       <c r="H138" s="2">
         <f t="shared" si="12"/>
-        <v>3899.6311999999998</v>
+        <v>4004.5551999999984</v>
       </c>
       <c r="I138" t="s">
         <v>11</v>
@@ -16406,11 +17126,11 @@
       </c>
       <c r="G139" s="2">
         <f t="shared" si="11"/>
-        <v>4007.3182000000002</v>
+        <v>3652.0635000000002</v>
       </c>
       <c r="H139" s="2">
         <f t="shared" si="12"/>
-        <v>3950.1069999999991</v>
+        <v>4050.1717999999992</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
@@ -16438,11 +17158,11 @@
       </c>
       <c r="G140" s="2">
         <f t="shared" si="11"/>
-        <v>4065.9270000000001</v>
+        <v>3694.6379999999999</v>
       </c>
       <c r="H140" s="2">
         <f t="shared" si="12"/>
-        <v>4000.6805999999997</v>
+        <v>4095.6107999999995</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
@@ -16470,11 +17190,11 @@
       </c>
       <c r="G141" s="2">
         <f t="shared" si="11"/>
-        <v>4124.9616000000005</v>
+        <v>3737.4434999999999</v>
       </c>
       <c r="H141" s="2">
         <f t="shared" si="12"/>
-        <v>4051.3471999999992</v>
+        <v>4140.8631999999998</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
@@ -16502,11 +17222,11 @@
       </c>
       <c r="G142" s="2">
         <f t="shared" si="11"/>
-        <v>4184.4220000000005</v>
+        <v>3780.48</v>
       </c>
       <c r="H142" s="2">
         <f t="shared" si="12"/>
-        <v>4102.101999999999</v>
+        <v>4185.9199999999983</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
@@ -16534,11 +17254,11 @@
       </c>
       <c r="G143" s="2">
         <f t="shared" si="11"/>
-        <v>4244.3081999999995</v>
+        <v>3823.7475000000004</v>
       </c>
       <c r="H143" s="2">
         <f t="shared" si="12"/>
-        <v>4152.9401999999991</v>
+        <v>4230.7721999999976</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
@@ -16566,11 +17286,11 @@
       </c>
       <c r="G144" s="2">
         <f t="shared" si="11"/>
-        <v>4304.6202000000003</v>
+        <v>3867.2460000000001</v>
       </c>
       <c r="H144" s="2">
         <f t="shared" si="12"/>
-        <v>4203.857</v>
+        <v>4275.4107999999997</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
@@ -16598,11 +17318,11 @@
       </c>
       <c r="G145" s="2">
         <f t="shared" si="11"/>
-        <v>4365.3580000000002</v>
+        <v>3910.9755</v>
       </c>
       <c r="H145" s="2">
         <f t="shared" si="12"/>
-        <v>4254.8475999999991</v>
+        <v>4319.8267999999989</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
@@ -16630,11 +17350,11 @@
       </c>
       <c r="G146" s="2">
         <f t="shared" si="11"/>
-        <v>4426.5216</v>
+        <v>3954.9360000000001</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="12"/>
-        <v>4305.9071999999987</v>
+        <v>4364.011199999999</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
@@ -16662,11 +17382,11 @@
       </c>
       <c r="G147" s="2">
         <f t="shared" si="11"/>
-        <v>4488.1109999999999</v>
+        <v>3999.1275000000005</v>
       </c>
       <c r="H147" s="2">
         <f t="shared" si="12"/>
-        <v>4357.0309999999999</v>
+        <v>4407.9549999999981</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
@@ -16694,11 +17414,11 @@
       </c>
       <c r="G148" s="2">
         <f t="shared" si="11"/>
-        <v>4550.1262000000006</v>
+        <v>4043.55</v>
       </c>
       <c r="H148" s="2">
         <f t="shared" si="12"/>
-        <v>4408.2141999999985</v>
+        <v>4451.649199999998</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
@@ -16726,11 +17446,11 @@
       </c>
       <c r="G149" s="2">
         <f t="shared" si="11"/>
-        <v>4612.5671999999995</v>
+        <v>4088.2034999999996</v>
       </c>
       <c r="H149" s="2">
         <f t="shared" si="12"/>
-        <v>4459.4519999999993</v>
+        <v>4495.0847999999996</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
@@ -16758,11 +17478,11 @@
       </c>
       <c r="G150" s="2">
         <f t="shared" si="11"/>
-        <v>4675.4340000000002</v>
+        <v>4133.0879999999997</v>
       </c>
       <c r="H150" s="2">
         <f t="shared" si="12"/>
-        <v>4510.739599999999</v>
+        <v>4538.2528000000002</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
@@ -16790,11 +17510,11 @@
       </c>
       <c r="G151" s="2">
         <f t="shared" si="11"/>
-        <v>4738.7266000000009</v>
+        <v>4178.2034999999996</v>
       </c>
       <c r="H151" s="2">
         <f t="shared" si="12"/>
-        <v>4562.0721999999987</v>
+        <v>4581.1441999999988</v>
       </c>
       <c r="I151" t="s">
         <v>14</v>
@@ -16825,11 +17545,11 @@
       </c>
       <c r="G152" s="2">
         <f t="shared" si="11"/>
-        <v>4802.4449999999997</v>
+        <v>4223.55</v>
       </c>
       <c r="H152" s="2">
         <f t="shared" si="12"/>
-        <v>4613.4449999999997</v>
+        <v>4623.7499999999982</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
@@ -16857,11 +17577,11 @@
       </c>
       <c r="G153" s="2">
         <f t="shared" si="11"/>
-        <v>4866.5892000000003</v>
+        <v>4269.1274999999996</v>
       </c>
       <c r="H153" s="2">
         <f t="shared" si="12"/>
-        <v>4664.8531999999996</v>
+        <v>4666.0611999999983</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
@@ -16889,11 +17609,11 @@
       </c>
       <c r="G154" s="2">
         <f t="shared" si="11"/>
-        <v>4931.1592000000001</v>
+        <v>4314.9359999999997</v>
       </c>
       <c r="H154" s="2">
         <f t="shared" si="12"/>
-        <v>4716.2919999999986</v>
+        <v>4708.0687999999991</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
@@ -16921,11 +17641,11 @@
       </c>
       <c r="G155" s="2">
         <f t="shared" si="11"/>
-        <v>4996.1549999999997</v>
+        <v>4360.9755000000005</v>
       </c>
       <c r="H155" s="2">
         <f t="shared" si="12"/>
-        <v>4767.7565999999997</v>
+        <v>4749.7637999999988</v>
       </c>
       <c r="I155" t="s">
         <v>15</v>
@@ -16956,11 +17676,11 @@
       </c>
       <c r="G156" s="2">
         <f t="shared" si="11"/>
-        <v>5061.5766000000003</v>
+        <v>4407.2460000000001</v>
       </c>
       <c r="H156" s="2">
         <f t="shared" si="12"/>
-        <v>4819.2421999999997</v>
+        <v>4791.1371999999992</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
@@ -16988,11 +17708,11 @@
       </c>
       <c r="G157" s="2">
         <f t="shared" si="11"/>
-        <v>5127.4240000000009</v>
+        <v>4453.7475000000004</v>
       </c>
       <c r="H157" s="2">
         <f t="shared" si="12"/>
-        <v>4870.7439999999997</v>
+        <v>4832.1799999999985</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
@@ -17020,11 +17740,11 @@
       </c>
       <c r="G158" s="2">
         <f t="shared" si="11"/>
-        <v>5193.6971999999996</v>
+        <v>4500.4799999999996</v>
       </c>
       <c r="H158" s="2">
         <f t="shared" si="12"/>
-        <v>4922.2571999999982</v>
+        <v>4872.8831999999984</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
@@ -17052,11 +17772,11 @@
       </c>
       <c r="G159" s="2">
         <f t="shared" si="11"/>
-        <v>5260.3962000000001</v>
+        <v>4547.4434999999994</v>
       </c>
       <c r="H159" s="2">
         <f t="shared" si="12"/>
-        <v>4973.777</v>
+        <v>4913.2377999999981</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
@@ -17084,11 +17804,11 @@
       </c>
       <c r="G160" s="2">
         <f t="shared" si="11"/>
-        <v>5327.5210000000006</v>
+        <v>4594.6379999999999</v>
       </c>
       <c r="H160" s="2">
         <f t="shared" si="12"/>
-        <v>5025.2986000000001</v>
+        <v>4953.2347999999984</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
@@ -17116,11 +17836,11 @@
       </c>
       <c r="G161" s="2">
         <f t="shared" si="11"/>
-        <v>5395.0716000000002</v>
+        <v>4642.0635000000002</v>
       </c>
       <c r="H161" s="2">
         <f t="shared" si="12"/>
-        <v>5076.8171999999995</v>
+        <v>4992.8651999999984</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
@@ -17148,11 +17868,11 @@
       </c>
       <c r="G162" s="2">
         <f t="shared" si="11"/>
-        <v>5463.0479999999998</v>
+        <v>4689.72</v>
       </c>
       <c r="H162" s="2">
         <f t="shared" si="12"/>
-        <v>5128.3279999999986</v>
+        <v>5032.119999999999</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
@@ -17180,11 +17900,11 @@
       </c>
       <c r="G163" s="2">
         <f t="shared" si="11"/>
-        <v>5531.4502000000002</v>
+        <v>4737.6075000000001</v>
       </c>
       <c r="H163" s="2">
         <f t="shared" si="12"/>
-        <v>5179.8261999999995</v>
+        <v>5070.9901999999984</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
@@ -17212,11 +17932,11 @@
       </c>
       <c r="G164" s="2">
         <f t="shared" si="11"/>
-        <v>5600.2781999999997</v>
+        <v>4785.7260000000006</v>
       </c>
       <c r="H164" s="2">
         <f t="shared" si="12"/>
-        <v>5231.3069999999989</v>
+        <v>5109.4667999999983</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
@@ -17244,11 +17964,11 @@
       </c>
       <c r="G165" s="2">
         <f t="shared" si="11"/>
-        <v>5669.5320000000002</v>
+        <v>4834.0754999999999</v>
       </c>
       <c r="H165" s="2">
         <f t="shared" si="12"/>
-        <v>5282.7655999999988</v>
+        <v>5147.5407999999989</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
@@ -17276,11 +17996,11 @@
       </c>
       <c r="G166" s="2">
         <f t="shared" si="11"/>
-        <v>5739.2116000000005</v>
+        <v>4882.6559999999999</v>
       </c>
       <c r="H166" s="2">
         <f t="shared" si="12"/>
-        <v>5334.1971999999996</v>
+        <v>5185.2031999999981</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
@@ -17308,11 +18028,11 @@
       </c>
       <c r="G167" s="2">
         <f t="shared" si="11"/>
-        <v>5809.317</v>
+        <v>4931.4674999999997</v>
       </c>
       <c r="H167" s="2">
         <f t="shared" si="12"/>
-        <v>5385.5969999999988</v>
+        <v>5222.4449999999979</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
@@ -17340,11 +18060,11 @@
       </c>
       <c r="G168" s="2">
         <f t="shared" si="11"/>
-        <v>5879.8482000000004</v>
+        <v>4980.51</v>
       </c>
       <c r="H168" s="2">
         <f t="shared" si="12"/>
-        <v>5436.9602000000004</v>
+        <v>5259.2571999999982</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
@@ -17372,11 +18092,11 @@
       </c>
       <c r="G169" s="2">
         <f t="shared" si="11"/>
-        <v>5950.8052000000007</v>
+        <v>5029.7834999999995</v>
       </c>
       <c r="H169" s="2">
         <f t="shared" si="12"/>
-        <v>5488.2819999999992</v>
+        <v>5295.630799999999</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
@@ -17404,11 +18124,11 @@
       </c>
       <c r="G170" s="2">
         <f t="shared" si="11"/>
-        <v>6022.1880000000001</v>
+        <v>5079.2880000000005</v>
       </c>
       <c r="H170" s="2">
         <f t="shared" si="12"/>
-        <v>5539.5576000000001</v>
+        <v>5331.5567999999985</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
@@ -17436,11 +18156,11 @@
       </c>
       <c r="G171" s="2">
         <f t="shared" si="11"/>
-        <v>6093.9966000000004</v>
+        <v>5129.0235000000002</v>
       </c>
       <c r="H171" s="2">
         <f t="shared" si="12"/>
-        <v>5590.7821999999996</v>
+        <v>5367.0261999999984</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
@@ -17468,11 +18188,11 @@
       </c>
       <c r="G172" s="2">
         <f t="shared" si="11"/>
-        <v>6166.2310000000007</v>
+        <v>5178.99</v>
       </c>
       <c r="H172" s="2">
         <f t="shared" si="12"/>
-        <v>5641.9509999999991</v>
+        <v>5402.0299999999988</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
@@ -17500,11 +18220,11 @@
       </c>
       <c r="G173" s="2">
         <f t="shared" si="11"/>
-        <v>6238.8912</v>
+        <v>5229.1875</v>
       </c>
       <c r="H173" s="2">
         <f t="shared" si="12"/>
-        <v>5693.0591999999988</v>
+        <v>5436.5591999999997</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
@@ -17532,11 +18252,11 @@
       </c>
       <c r="G174" s="2">
         <f t="shared" si="11"/>
-        <v>6311.9772000000003</v>
+        <v>5279.616</v>
       </c>
       <c r="H174" s="2">
         <f t="shared" si="12"/>
-        <v>5744.101999999999</v>
+        <v>5470.6047999999982</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
@@ -17564,11 +18284,11 @@
       </c>
       <c r="G175" s="2">
         <f t="shared" si="11"/>
-        <v>6385.4890000000005</v>
+        <v>5330.2754999999997</v>
       </c>
       <c r="H175" s="2">
         <f t="shared" si="12"/>
-        <v>5795.0745999999981</v>
+        <v>5504.157799999999</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
@@ -17596,11 +18316,11 @@
       </c>
       <c r="G176" s="2">
         <f t="shared" si="11"/>
-        <v>6459.4265999999998</v>
+        <v>5381.1660000000002</v>
       </c>
       <c r="H176" s="2">
         <f t="shared" si="12"/>
-        <v>5845.9721999999992</v>
+        <v>5537.2091999999993</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
@@ -17628,11 +18348,11 @@
       </c>
       <c r="G177" s="2">
         <f t="shared" si="11"/>
-        <v>6533.79</v>
+        <v>5432.2875000000004</v>
       </c>
       <c r="H177" s="2">
         <f t="shared" si="12"/>
-        <v>5896.79</v>
+        <v>5569.7499999999982</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
@@ -17660,11 +18380,11 @@
       </c>
       <c r="G178" s="2">
         <f t="shared" si="11"/>
-        <v>6608.5792000000001</v>
+        <v>5483.6399999999994</v>
       </c>
       <c r="H178" s="2">
         <f t="shared" si="12"/>
-        <v>5947.5231999999987</v>
+        <v>5601.7711999999992</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
@@ -17692,11 +18412,11 @@
       </c>
       <c r="G179" s="2">
         <f t="shared" si="11"/>
-        <v>6683.7942000000003</v>
+        <v>5535.2235000000001</v>
       </c>
       <c r="H179" s="2">
         <f t="shared" si="12"/>
-        <v>5998.1669999999986</v>
+        <v>5633.2637999999979</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
@@ -17724,11 +18444,11 @@
       </c>
       <c r="G180" s="2">
         <f t="shared" si="11"/>
-        <v>6759.4350000000004</v>
+        <v>5587.0379999999996</v>
       </c>
       <c r="H180" s="2">
         <f t="shared" si="12"/>
-        <v>6048.7165999999997</v>
+        <v>5664.2187999999987</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
@@ -17756,11 +18476,11 @@
       </c>
       <c r="G181" s="2">
         <f t="shared" si="11"/>
-        <v>6835.5016000000005</v>
+        <v>5639.0835000000006</v>
       </c>
       <c r="H181" s="2">
         <f t="shared" si="12"/>
-        <v>6099.167199999999</v>
+        <v>5694.6271999999972</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
@@ -17788,11 +18508,11 @@
       </c>
       <c r="G182" s="2">
         <f t="shared" si="11"/>
-        <v>6911.9939999999997</v>
+        <v>5691.3600000000006</v>
       </c>
       <c r="H182" s="2">
         <f t="shared" si="12"/>
-        <v>6149.5139999999992</v>
+        <v>5724.48</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
@@ -17820,11 +18540,11 @@
       </c>
       <c r="G183" s="2">
         <f t="shared" si="11"/>
-        <v>6988.9121999999998</v>
+        <v>5743.8675000000003</v>
       </c>
       <c r="H183" s="2">
         <f t="shared" si="12"/>
-        <v>6199.7521999999999</v>
+        <v>5753.7681999999986</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
@@ -17852,11 +18572,11 @@
       </c>
       <c r="G184" s="2">
         <f t="shared" si="11"/>
-        <v>7066.2562000000007</v>
+        <v>5796.6059999999998</v>
       </c>
       <c r="H184" s="2">
         <f t="shared" si="12"/>
-        <v>6249.8769999999986</v>
+        <v>5782.482799999997</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
@@ -17884,11 +18604,11 @@
       </c>
       <c r="G185" s="2">
         <f t="shared" si="11"/>
-        <v>7144.0259999999998</v>
+        <v>5849.5754999999999</v>
       </c>
       <c r="H185" s="2">
         <f t="shared" si="12"/>
-        <v>6299.8835999999992</v>
+        <v>5810.6147999999976</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
@@ -17916,11 +18636,11 @@
       </c>
       <c r="G186" s="2">
         <f t="shared" si="11"/>
-        <v>7222.2215999999999</v>
+        <v>5902.7759999999998</v>
       </c>
       <c r="H186" s="2">
         <f t="shared" si="12"/>
-        <v>6349.7671999999984</v>
+        <v>5838.1551999999974</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
@@ -17948,11 +18668,11 @@
       </c>
       <c r="G187" s="2">
         <f t="shared" si="11"/>
-        <v>7300.8430000000008</v>
+        <v>5956.2075000000004</v>
       </c>
       <c r="H187" s="2">
         <f t="shared" si="12"/>
-        <v>6399.5229999999992</v>
+        <v>5865.0949999999975</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
@@ -17964,27 +18684,27 @@
         <v>186</v>
       </c>
       <c r="C188" s="3">
-        <v>5770</v>
+        <v>5787</v>
       </c>
       <c r="D188" s="2">
         <f t="shared" si="13"/>
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E188" s="2">
         <f t="shared" si="14"/>
-        <v>19.285714285714285</v>
+        <v>21.714285714285715</v>
       </c>
       <c r="F188" s="2">
         <f>SUM($D$2:$D188)/COUNT($D$2:$D188)</f>
-        <v>30.839572192513369</v>
+        <v>30.930481283422459</v>
       </c>
       <c r="G188" s="2">
         <f t="shared" si="11"/>
-        <v>7379.8901999999998</v>
+        <v>6009.87</v>
       </c>
       <c r="H188" s="2">
         <f t="shared" si="12"/>
-        <v>6449.1462000000001</v>
+        <v>5891.4251999999997</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
@@ -17996,27 +18716,27 @@
         <v>187</v>
       </c>
       <c r="C189" s="3">
-        <v>5806</v>
+        <v>5794</v>
       </c>
       <c r="D189" s="2">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E189" s="2">
         <f t="shared" si="14"/>
-        <v>20.857142857142858</v>
+        <v>19.142857142857142</v>
       </c>
       <c r="F189" s="2">
         <f>SUM($D$2:$D189)/COUNT($D$2:$D189)</f>
-        <v>30.867021276595743</v>
+        <v>30.803191489361701</v>
       </c>
       <c r="G189" s="2">
         <f t="shared" si="11"/>
-        <v>7459.3631999999998</v>
+        <v>6063.7635</v>
       </c>
       <c r="H189" s="2">
         <f t="shared" si="12"/>
-        <v>6498.6319999999987</v>
+        <v>5917.1367999999993</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
@@ -18028,27 +18748,27 @@
         <v>188</v>
       </c>
       <c r="C190" s="3">
-        <v>5858</v>
+        <v>5842</v>
       </c>
       <c r="D190" s="2">
         <f t="shared" si="13"/>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E190" s="2">
         <f t="shared" si="14"/>
-        <v>25.142857142857142</v>
+        <v>22.857142857142858</v>
       </c>
       <c r="F190" s="2">
         <f>SUM($D$2:$D190)/COUNT($D$2:$D190)</f>
-        <v>30.978835978835978</v>
+        <v>30.894179894179896</v>
       </c>
       <c r="G190" s="2">
         <f t="shared" si="11"/>
-        <v>7539.2620000000006</v>
+        <v>6117.8879999999999</v>
       </c>
       <c r="H190" s="2">
         <f t="shared" si="12"/>
-        <v>6547.9755999999998</v>
+        <v>5942.2207999999973</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
@@ -18059,13 +18779,28 @@
         <f t="shared" si="10"/>
         <v>189</v>
       </c>
+      <c r="C191" s="3">
+        <v>5839</v>
+      </c>
+      <c r="D191" s="2">
+        <f t="shared" si="13"/>
+        <v>-3</v>
+      </c>
+      <c r="E191" s="2">
+        <f t="shared" si="14"/>
+        <v>13.285714285714286</v>
+      </c>
+      <c r="F191" s="2">
+        <f>SUM($D$2:$D191)/COUNT($D$2:$D191)</f>
+        <v>30.715789473684211</v>
+      </c>
       <c r="G191" s="2">
         <f t="shared" si="11"/>
-        <v>7619.5865999999996</v>
+        <v>6172.2435000000005</v>
       </c>
       <c r="H191" s="2">
         <f t="shared" si="12"/>
-        <v>6597.1721999999991</v>
+        <v>5966.6681999999983</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
@@ -18076,13 +18811,28 @@
         <f t="shared" si="10"/>
         <v>190</v>
       </c>
+      <c r="C192" s="3">
+        <v>5875</v>
+      </c>
+      <c r="D192" s="2">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="E192" s="2">
+        <f t="shared" si="14"/>
+        <v>23.142857142857142</v>
+      </c>
+      <c r="F192" s="2">
+        <f>SUM($D$2:$D192)/COUNT($D$2:$D192)</f>
+        <v>30.7434554973822</v>
+      </c>
       <c r="G192" s="2">
         <f t="shared" si="11"/>
-        <v>7700.3370000000004</v>
+        <v>6226.83</v>
       </c>
       <c r="H192" s="2">
         <f t="shared" si="12"/>
-        <v>6646.2169999999996</v>
+        <v>5990.4699999999975</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
@@ -18093,13 +18843,28 @@
         <f t="shared" si="10"/>
         <v>191</v>
       </c>
+      <c r="C193" s="3">
+        <v>5908</v>
+      </c>
+      <c r="D193" s="2">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="E193" s="2">
+        <f t="shared" si="14"/>
+        <v>28.857142857142858</v>
+      </c>
+      <c r="F193" s="2">
+        <f>SUM($D$2:$D193)/COUNT($D$2:$D193)</f>
+        <v>30.755208333333332</v>
+      </c>
       <c r="G193" s="2">
         <f t="shared" si="11"/>
-        <v>7781.5132000000003</v>
+        <v>6281.6475000000009</v>
       </c>
       <c r="H193" s="2">
         <f t="shared" si="12"/>
-        <v>6695.1052</v>
+        <v>6013.617199999997</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
@@ -18110,13 +18875,28 @@
         <f t="shared" si="10"/>
         <v>192</v>
       </c>
+      <c r="C194" s="3">
+        <v>5910</v>
+      </c>
+      <c r="D194" s="2">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E194" s="2">
+        <f t="shared" si="14"/>
+        <v>23.857142857142858</v>
+      </c>
+      <c r="F194" s="2">
+        <f>SUM($D$2:$D194)/COUNT($D$2:$D194)</f>
+        <v>30.606217616580309</v>
+      </c>
       <c r="G194" s="2">
         <f t="shared" si="11"/>
-        <v>7863.1152000000002</v>
+        <v>6336.6959999999999</v>
       </c>
       <c r="H194" s="2">
         <f t="shared" si="12"/>
-        <v>6743.8319999999985</v>
+        <v>6036.1007999999993</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
@@ -18124,16 +18904,31 @@
         <v>43818</v>
       </c>
       <c r="B195" s="2">
-        <f t="shared" ref="B195:B238" si="15">B194+1</f>
+        <f t="shared" ref="B195:B258" si="15">B194+1</f>
         <v>193</v>
       </c>
+      <c r="C195" s="3">
+        <v>5915</v>
+      </c>
+      <c r="D195" s="2">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="E195" s="2">
+        <f t="shared" si="14"/>
+        <v>18.285714285714285</v>
+      </c>
+      <c r="F195" s="2">
+        <f>SUM($D$2:$D195)/COUNT($D$2:$D195)</f>
+        <v>30.47422680412371</v>
+      </c>
       <c r="G195" s="2">
-        <f t="shared" ref="G195:G238" si="16">0.2129*B195^2+0.0613*B195+3</f>
-        <v>7945.143</v>
+        <f t="shared" ref="G195:G258" si="16">0.1155*B195^2+10.812*B195+3</f>
+        <v>6391.9755000000005</v>
       </c>
       <c r="H195" s="2">
-        <f t="shared" ref="H195:H238" si="17">-0.0008*B195^3+0.3777*B195^2-7.9187*B195+3</f>
-        <v>6792.3925999999992</v>
+        <f t="shared" ref="H195:H258" si="17">-0.0015*B195^3+0.5277*B195^2-14.6*B195+3</f>
+        <v>6057.911799999998</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
@@ -18144,13 +18939,28 @@
         <f t="shared" si="15"/>
         <v>194</v>
       </c>
+      <c r="C196" s="3">
+        <v>5964</v>
+      </c>
+      <c r="D196" s="2">
+        <f t="shared" ref="D196:D207" si="18">C196-C195</f>
+        <v>49</v>
+      </c>
+      <c r="E196" s="2">
+        <f t="shared" si="14"/>
+        <v>24.285714285714285</v>
+      </c>
+      <c r="F196" s="2">
+        <f>SUM($D$2:$D196)/COUNT($D$2:$D196)</f>
+        <v>30.569230769230771</v>
+      </c>
       <c r="G196" s="2">
         <f t="shared" si="16"/>
-        <v>8027.5966000000008</v>
+        <v>6447.4860000000008</v>
       </c>
       <c r="H196" s="2">
         <f t="shared" si="17"/>
-        <v>6840.7821999999978</v>
+        <v>6079.0411999999978</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
@@ -18161,13 +18971,28 @@
         <f t="shared" si="15"/>
         <v>195</v>
       </c>
+      <c r="C197" s="3">
+        <v>6002</v>
+      </c>
+      <c r="D197" s="2">
+        <f t="shared" si="18"/>
+        <v>38</v>
+      </c>
+      <c r="E197" s="2">
+        <f t="shared" si="14"/>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="F197" s="2">
+        <f>SUM($D$2:$D197)/COUNT($D$2:$D197)</f>
+        <v>30.607142857142858</v>
+      </c>
       <c r="G197" s="2">
         <f t="shared" si="16"/>
-        <v>8110.4759999999997</v>
+        <v>6503.2274999999991</v>
       </c>
       <c r="H197" s="2">
         <f t="shared" si="17"/>
-        <v>6888.9959999999983</v>
+        <v>6099.48</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
@@ -18178,13 +19003,28 @@
         <f t="shared" si="15"/>
         <v>196</v>
       </c>
+      <c r="C198" s="3">
+        <v>5994</v>
+      </c>
+      <c r="D198" s="2">
+        <f t="shared" si="18"/>
+        <v>-8</v>
+      </c>
+      <c r="E198" s="2">
+        <f t="shared" si="14"/>
+        <v>22.142857142857142</v>
+      </c>
+      <c r="F198" s="2">
+        <f>SUM($D$2:$D198)/COUNT($D$2:$D198)</f>
+        <v>30.411167512690355</v>
+      </c>
       <c r="G198" s="2">
         <f t="shared" si="16"/>
-        <v>8193.7812000000013</v>
+        <v>6559.2</v>
       </c>
       <c r="H198" s="2">
         <f t="shared" si="17"/>
-        <v>6937.0291999999981</v>
+        <v>6119.2191999999977</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
@@ -18195,13 +19035,28 @@
         <f t="shared" si="15"/>
         <v>197</v>
       </c>
+      <c r="C199" s="3">
+        <v>6030</v>
+      </c>
+      <c r="D199" s="2">
+        <f t="shared" si="18"/>
+        <v>36</v>
+      </c>
+      <c r="E199" s="2">
+        <f t="shared" si="14"/>
+        <v>22.142857142857142</v>
+      </c>
+      <c r="F199" s="2">
+        <f>SUM($D$2:$D199)/COUNT($D$2:$D199)</f>
+        <v>30.439393939393938</v>
+      </c>
       <c r="G199" s="2">
         <f t="shared" si="16"/>
-        <v>8277.512200000001</v>
+        <v>6615.4035000000003</v>
       </c>
       <c r="H199" s="2">
         <f t="shared" si="17"/>
-        <v>6984.8769999999995</v>
+        <v>6138.2497999999987</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
@@ -18212,13 +19067,28 @@
         <f t="shared" si="15"/>
         <v>198</v>
       </c>
+      <c r="C200" s="3">
+        <v>6061</v>
+      </c>
+      <c r="D200" s="2">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="E200" s="2">
+        <f t="shared" si="14"/>
+        <v>21.857142857142858</v>
+      </c>
+      <c r="F200" s="2">
+        <f>SUM($D$2:$D200)/COUNT($D$2:$D200)</f>
+        <v>30.442211055276381</v>
+      </c>
       <c r="G200" s="2">
         <f t="shared" si="16"/>
-        <v>8361.6689999999999</v>
+        <v>6671.8379999999997</v>
       </c>
       <c r="H200" s="2">
         <f t="shared" si="17"/>
-        <v>7032.5345999999981</v>
+        <v>6156.5627999999997</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
@@ -18229,13 +19099,28 @@
         <f t="shared" si="15"/>
         <v>199</v>
       </c>
+      <c r="C201" s="3">
+        <v>6088</v>
+      </c>
+      <c r="D201" s="2">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="E201" s="2">
+        <f t="shared" si="14"/>
+        <v>25.428571428571427</v>
+      </c>
+      <c r="F201" s="2">
+        <f>SUM($D$2:$D201)/COUNT($D$2:$D201)</f>
+        <v>30.425000000000001</v>
+      </c>
       <c r="G201" s="2">
         <f t="shared" si="16"/>
-        <v>8446.2516000000014</v>
+        <v>6728.5034999999998</v>
       </c>
       <c r="H201" s="2">
         <f t="shared" si="17"/>
-        <v>7079.997199999998</v>
+        <v>6174.1491999999962</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
@@ -18246,13 +19131,28 @@
         <f t="shared" si="15"/>
         <v>200</v>
       </c>
+      <c r="C202" s="3">
+        <v>6086</v>
+      </c>
+      <c r="D202" s="2">
+        <f t="shared" si="18"/>
+        <v>-2</v>
+      </c>
+      <c r="E202" s="2">
+        <f t="shared" ref="E202:E207" si="19">(C202-C195)/7</f>
+        <v>24.428571428571427</v>
+      </c>
+      <c r="F202" s="2">
+        <f>SUM($D$2:$D202)/COUNT($D$2:$D202)</f>
+        <v>30.263681592039802</v>
+      </c>
       <c r="G202" s="2">
         <f t="shared" si="16"/>
-        <v>8531.26</v>
+        <v>6785.4</v>
       </c>
       <c r="H202" s="2">
         <f t="shared" si="17"/>
-        <v>7127.26</v>
+        <v>6190.9999999999964</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
@@ -18263,13 +19163,28 @@
         <f t="shared" si="15"/>
         <v>201</v>
       </c>
+      <c r="C203" s="3">
+        <v>6115</v>
+      </c>
+      <c r="D203" s="2">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="E203" s="2">
+        <f t="shared" si="19"/>
+        <v>21.571428571428573</v>
+      </c>
+      <c r="F203" s="2">
+        <f>SUM($D$2:$D203)/COUNT($D$2:$D203)</f>
+        <v>30.257425742574256</v>
+      </c>
       <c r="G203" s="2">
         <f t="shared" si="16"/>
-        <v>8616.6941999999999</v>
+        <v>6842.5275000000001</v>
       </c>
       <c r="H203" s="2">
         <f t="shared" si="17"/>
-        <v>7174.3181999999979</v>
+        <v>6207.1061999999965</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
@@ -18280,13 +19195,28 @@
         <f t="shared" si="15"/>
         <v>202</v>
       </c>
+      <c r="C204" s="3">
+        <v>6152</v>
+      </c>
+      <c r="D204" s="2">
+        <f t="shared" si="18"/>
+        <v>37</v>
+      </c>
+      <c r="E204" s="2">
+        <f t="shared" si="19"/>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="F204" s="2">
+        <f>SUM($D$2:$D204)/COUNT($D$2:$D204)</f>
+        <v>30.290640394088669</v>
+      </c>
       <c r="G204" s="2">
         <f t="shared" si="16"/>
-        <v>8702.5542000000005</v>
+        <v>6899.8860000000004</v>
       </c>
       <c r="H204" s="2">
         <f t="shared" si="17"/>
-        <v>7221.1669999999995</v>
+        <v>6222.4587999999976</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
@@ -18297,13 +19227,28 @@
         <f t="shared" si="15"/>
         <v>203</v>
       </c>
+      <c r="C205" s="3">
+        <v>6195</v>
+      </c>
+      <c r="D205" s="2">
+        <f t="shared" si="18"/>
+        <v>43</v>
+      </c>
+      <c r="E205" s="2">
+        <f t="shared" si="19"/>
+        <v>28.714285714285715</v>
+      </c>
+      <c r="F205" s="2">
+        <f>SUM($D$2:$D205)/COUNT($D$2:$D205)</f>
+        <v>30.352941176470587</v>
+      </c>
       <c r="G205" s="2">
         <f t="shared" si="16"/>
-        <v>8788.84</v>
+        <v>6957.4755000000005</v>
       </c>
       <c r="H205" s="2">
         <f t="shared" si="17"/>
-        <v>7267.8015999999989</v>
+        <v>6237.0487999999987</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
@@ -18314,13 +19259,28 @@
         <f t="shared" si="15"/>
         <v>204</v>
       </c>
+      <c r="C206" s="3">
+        <v>6226</v>
+      </c>
+      <c r="D206" s="2">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="E206" s="2">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="F206" s="2">
+        <f>SUM($D$2:$D206)/COUNT($D$2:$D206)</f>
+        <v>30.356097560975609</v>
+      </c>
       <c r="G206" s="2">
         <f t="shared" si="16"/>
-        <v>8875.5516000000007</v>
+        <v>7015.2960000000003</v>
       </c>
       <c r="H206" s="2">
         <f t="shared" si="17"/>
-        <v>7314.2171999999991</v>
+        <v>6250.867199999997</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
@@ -18331,13 +19291,28 @@
         <f t="shared" si="15"/>
         <v>205</v>
       </c>
+      <c r="C207" s="3">
+        <v>6254</v>
+      </c>
+      <c r="D207" s="2">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <f t="shared" si="19"/>
+        <v>27.571428571428573</v>
+      </c>
+      <c r="F207" s="2">
+        <f>SUM($D$2:$D207)/COUNT($D$2:$D207)</f>
+        <v>30.344660194174757</v>
+      </c>
       <c r="G207" s="2">
         <f t="shared" si="16"/>
-        <v>8962.6890000000003</v>
+        <v>7073.3474999999999</v>
       </c>
       <c r="H207" s="2">
         <f t="shared" si="17"/>
-        <v>7360.4089999999987</v>
+        <v>6263.9049999999988</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
@@ -18350,11 +19325,11 @@
       </c>
       <c r="G208" s="2">
         <f t="shared" si="16"/>
-        <v>9050.2522000000008</v>
+        <v>7131.63</v>
       </c>
       <c r="H208" s="2">
         <f t="shared" si="17"/>
-        <v>7406.3722000000007</v>
+        <v>6276.153199999997</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
@@ -18367,11 +19342,11 @@
       </c>
       <c r="G209" s="2">
         <f t="shared" si="16"/>
-        <v>9138.2412000000004</v>
+        <v>7190.1435000000001</v>
       </c>
       <c r="H209" s="2">
         <f t="shared" si="17"/>
-        <v>7452.101999999998</v>
+        <v>6287.6027999999978</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
@@ -18384,11 +19359,11 @@
       </c>
       <c r="G210" s="2">
         <f t="shared" si="16"/>
-        <v>9226.6560000000009</v>
+        <v>7248.8879999999999</v>
       </c>
       <c r="H210" s="2">
         <f t="shared" si="17"/>
-        <v>7497.5935999999992</v>
+        <v>6298.2447999999986</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
@@ -18401,11 +19376,11 @@
       </c>
       <c r="G211" s="2">
         <f t="shared" si="16"/>
-        <v>9315.4966000000004</v>
+        <v>7307.8634999999995</v>
       </c>
       <c r="H211" s="2">
         <f t="shared" si="17"/>
-        <v>7542.8421999999991</v>
+        <v>6308.0701999999965</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
@@ -18418,11 +19393,11 @@
       </c>
       <c r="G212" s="2">
         <f t="shared" si="16"/>
-        <v>9404.762999999999</v>
+        <v>7367.07</v>
       </c>
       <c r="H212" s="2">
         <f t="shared" si="17"/>
-        <v>7587.8430000000008</v>
+        <v>6317.0699999999961</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
@@ -18435,11 +19410,11 @@
       </c>
       <c r="G213" s="2">
         <f t="shared" si="16"/>
-        <v>9494.4552000000003</v>
+        <v>7426.5074999999997</v>
       </c>
       <c r="H213" s="2">
         <f t="shared" si="17"/>
-        <v>7632.5911999999989</v>
+        <v>6325.2351999999955</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
@@ -18452,11 +19427,11 @@
       </c>
       <c r="G214" s="2">
         <f t="shared" si="16"/>
-        <v>9584.5732000000007</v>
+        <v>7486.1759999999995</v>
       </c>
       <c r="H214" s="2">
         <f t="shared" si="17"/>
-        <v>7677.0819999999985</v>
+        <v>6332.5567999999976</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
@@ -18469,11 +19444,11 @@
       </c>
       <c r="G215" s="2">
         <f t="shared" si="16"/>
-        <v>9675.1170000000002</v>
+        <v>7546.0755000000008</v>
       </c>
       <c r="H215" s="2">
         <f t="shared" si="17"/>
-        <v>7721.3105999999989</v>
+        <v>6339.0257999999976</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
@@ -18486,11 +19461,11 @@
       </c>
       <c r="G216" s="2">
         <f t="shared" si="16"/>
-        <v>9766.0866000000005</v>
+        <v>7606.2060000000001</v>
       </c>
       <c r="H216" s="2">
         <f t="shared" si="17"/>
-        <v>7765.2721999999994</v>
+        <v>6344.6331999999984</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
@@ -18503,11 +19478,11 @@
       </c>
       <c r="G217" s="2">
         <f t="shared" si="16"/>
-        <v>9857.482</v>
+        <v>7666.5675000000001</v>
       </c>
       <c r="H217" s="2">
         <f t="shared" si="17"/>
-        <v>7808.9619999999977</v>
+        <v>6349.369999999999</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
@@ -18520,11 +19495,11 @@
       </c>
       <c r="G218" s="2">
         <f t="shared" si="16"/>
-        <v>9949.3032000000003</v>
+        <v>7727.16</v>
       </c>
       <c r="H218" s="2">
         <f t="shared" si="17"/>
-        <v>7852.3751999999995</v>
+        <v>6353.2271999999975</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
@@ -18537,11 +19512,11 @@
       </c>
       <c r="G219" s="2">
         <f t="shared" si="16"/>
-        <v>10041.550200000001</v>
+        <v>7787.9835000000003</v>
       </c>
       <c r="H219" s="2">
         <f t="shared" si="17"/>
-        <v>7895.5069999999987</v>
+        <v>6356.1957999999968</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
@@ -18554,11 +19529,11 @@
       </c>
       <c r="G220" s="2">
         <f t="shared" si="16"/>
-        <v>10134.223</v>
+        <v>7849.0380000000005</v>
       </c>
       <c r="H220" s="2">
         <f t="shared" si="17"/>
-        <v>7938.3525999999993</v>
+        <v>6358.2667999999994</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
@@ -18571,11 +19546,11 @@
       </c>
       <c r="G221" s="2">
         <f t="shared" si="16"/>
-        <v>10227.321599999999</v>
+        <v>7910.3235000000004</v>
       </c>
       <c r="H221" s="2">
         <f t="shared" si="17"/>
-        <v>7980.9071999999987</v>
+        <v>6359.4311999999973</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.35">
@@ -18588,11 +19563,11 @@
       </c>
       <c r="G222" s="2">
         <f t="shared" si="16"/>
-        <v>10320.846000000001</v>
+        <v>7971.84</v>
       </c>
       <c r="H222" s="2">
         <f t="shared" si="17"/>
-        <v>8023.1660000000011</v>
+        <v>6359.6799999999967</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.35">
@@ -18605,11 +19580,11 @@
       </c>
       <c r="G223" s="2">
         <f t="shared" si="16"/>
-        <v>10414.796200000001</v>
+        <v>8033.5874999999996</v>
       </c>
       <c r="H223" s="2">
         <f t="shared" si="17"/>
-        <v>8065.1242000000002</v>
+        <v>6359.0041999999958</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
@@ -18622,11 +19597,11 @@
       </c>
       <c r="G224" s="2">
         <f t="shared" si="16"/>
-        <v>10509.172199999999</v>
+        <v>8095.5660000000007</v>
       </c>
       <c r="H224" s="2">
         <f t="shared" si="17"/>
-        <v>8106.777</v>
+        <v>6357.3947999999991</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
@@ -18639,11 +19614,11 @@
       </c>
       <c r="G225" s="2">
         <f t="shared" si="16"/>
-        <v>10603.974000000002</v>
+        <v>8157.7755000000006</v>
       </c>
       <c r="H225" s="2">
         <f t="shared" si="17"/>
-        <v>8148.1196</v>
+        <v>6354.8427999999985</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.35">
@@ -18656,11 +19631,11 @@
       </c>
       <c r="G226" s="2">
         <f t="shared" si="16"/>
-        <v>10699.2016</v>
+        <v>8220.2160000000003</v>
       </c>
       <c r="H226" s="2">
         <f t="shared" si="17"/>
-        <v>8189.1471999999994</v>
+        <v>6351.3392000000003</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.35">
@@ -18673,11 +19648,11 @@
       </c>
       <c r="G227" s="2">
         <f t="shared" si="16"/>
-        <v>10794.855</v>
+        <v>8282.8875000000007</v>
       </c>
       <c r="H227" s="2">
         <f t="shared" si="17"/>
-        <v>8229.8549999999996</v>
+        <v>6346.8749999999964</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.35">
@@ -18690,11 +19665,11 @@
       </c>
       <c r="G228" s="2">
         <f t="shared" si="16"/>
-        <v>10890.934200000002</v>
+        <v>8345.7900000000009</v>
       </c>
       <c r="H228" s="2">
         <f t="shared" si="17"/>
-        <v>8270.2381999999961</v>
+        <v>6341.4411999999993</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.35">
@@ -18707,11 +19682,11 @@
       </c>
       <c r="G229" s="2">
         <f t="shared" si="16"/>
-        <v>10987.439200000001</v>
+        <v>8408.9235000000008</v>
       </c>
       <c r="H229" s="2">
         <f t="shared" si="17"/>
-        <v>8310.2919999999995</v>
+        <v>6335.0287999999973</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
@@ -18724,11 +19699,11 @@
       </c>
       <c r="G230" s="2">
         <f t="shared" si="16"/>
-        <v>11084.369999999999</v>
+        <v>8472.2880000000005</v>
       </c>
       <c r="H230" s="2">
         <f t="shared" si="17"/>
-        <v>8350.011599999998</v>
+        <v>6327.628799999995</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.35">
@@ -18741,11 +19716,11 @@
       </c>
       <c r="G231" s="2">
         <f t="shared" si="16"/>
-        <v>11181.726600000002</v>
+        <v>8535.8834999999999</v>
       </c>
       <c r="H231" s="2">
         <f t="shared" si="17"/>
-        <v>8389.3922000000002</v>
+        <v>6319.2321999999967</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.35">
@@ -18758,11 +19733,11 @@
       </c>
       <c r="G232" s="2">
         <f t="shared" si="16"/>
-        <v>11279.509</v>
+        <v>8599.7100000000009</v>
       </c>
       <c r="H232" s="2">
         <f t="shared" si="17"/>
-        <v>8428.4289999999983</v>
+        <v>6309.8299999999981</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.35">
@@ -18775,11 +19750,11 @@
       </c>
       <c r="G233" s="2">
         <f t="shared" si="16"/>
-        <v>11377.717199999999</v>
+        <v>8663.7674999999999</v>
       </c>
       <c r="H233" s="2">
         <f t="shared" si="17"/>
-        <v>8467.117199999997</v>
+        <v>6299.4131999999972</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.35">
@@ -18792,11 +19767,11 @@
       </c>
       <c r="G234" s="2">
         <f t="shared" si="16"/>
-        <v>11476.351200000001</v>
+        <v>8728.0560000000005</v>
       </c>
       <c r="H234" s="2">
         <f t="shared" si="17"/>
-        <v>8505.4519999999975</v>
+        <v>6287.9727999999968</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
@@ -18809,11 +19784,11 @@
       </c>
       <c r="G235" s="2">
         <f t="shared" si="16"/>
-        <v>11575.411</v>
+        <v>8792.575499999999</v>
       </c>
       <c r="H235" s="2">
         <f t="shared" si="17"/>
-        <v>8543.4285999999975</v>
+        <v>6275.4997999999978</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
@@ -18826,11 +19801,11 @@
       </c>
       <c r="G236" s="2">
         <f t="shared" si="16"/>
-        <v>11674.8966</v>
+        <v>8857.3260000000009</v>
       </c>
       <c r="H236" s="2">
         <f t="shared" si="17"/>
-        <v>8581.042199999998</v>
+        <v>6261.9851999999973</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.35">
@@ -18843,11 +19818,11 @@
       </c>
       <c r="G237" s="2">
         <f t="shared" si="16"/>
-        <v>11774.808000000001</v>
+        <v>8922.307499999999</v>
       </c>
       <c r="H237" s="2">
         <f t="shared" si="17"/>
-        <v>8618.2879999999968</v>
+        <v>6247.4199999999983</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.35">
@@ -18860,11 +19835,504 @@
       </c>
       <c r="G238" s="2">
         <f t="shared" si="16"/>
-        <v>11875.145200000001</v>
+        <v>8987.52</v>
       </c>
       <c r="H238" s="2">
         <f t="shared" si="17"/>
-        <v>8655.1611999999986</v>
+        <v>6231.795199999995</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B239" s="2">
+        <f t="shared" si="15"/>
+        <v>237</v>
+      </c>
+      <c r="G239" s="2">
+        <f t="shared" si="16"/>
+        <v>9052.9634999999998</v>
+      </c>
+      <c r="H239" s="2">
+        <f t="shared" si="17"/>
+        <v>6215.1017999999976</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B240" s="2">
+        <f t="shared" si="15"/>
+        <v>238</v>
+      </c>
+      <c r="G240" s="2">
+        <f t="shared" si="16"/>
+        <v>9118.6380000000008</v>
+      </c>
+      <c r="H240" s="2">
+        <f t="shared" si="17"/>
+        <v>6197.3307999999997</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B241" s="2">
+        <f t="shared" si="15"/>
+        <v>239</v>
+      </c>
+      <c r="G241" s="2">
+        <f t="shared" si="16"/>
+        <v>9184.5434999999998</v>
+      </c>
+      <c r="H241" s="2">
+        <f t="shared" si="17"/>
+        <v>6178.4731999999985</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B242" s="2">
+        <f t="shared" si="15"/>
+        <v>240</v>
+      </c>
+      <c r="G242" s="2">
+        <f t="shared" si="16"/>
+        <v>9250.68</v>
+      </c>
+      <c r="H242" s="2">
+        <f t="shared" si="17"/>
+        <v>6158.5199999999968</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B243" s="2">
+        <f t="shared" si="15"/>
+        <v>241</v>
+      </c>
+      <c r="G243" s="2">
+        <f t="shared" si="16"/>
+        <v>9317.0475000000006</v>
+      </c>
+      <c r="H243" s="2">
+        <f t="shared" si="17"/>
+        <v>6137.4621999999963</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B244" s="2">
+        <f t="shared" si="15"/>
+        <v>242</v>
+      </c>
+      <c r="G244" s="2">
+        <f t="shared" si="16"/>
+        <v>9383.6460000000006</v>
+      </c>
+      <c r="H244" s="2">
+        <f t="shared" si="17"/>
+        <v>6115.2907999999961</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B245" s="2">
+        <f t="shared" si="15"/>
+        <v>243</v>
+      </c>
+      <c r="G245" s="2">
+        <f t="shared" si="16"/>
+        <v>9450.4755000000005</v>
+      </c>
+      <c r="H245" s="2">
+        <f t="shared" si="17"/>
+        <v>6091.9967999999972</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B246" s="2">
+        <f t="shared" si="15"/>
+        <v>244</v>
+      </c>
+      <c r="G246" s="2">
+        <f t="shared" si="16"/>
+        <v>9517.5360000000001</v>
+      </c>
+      <c r="H246" s="2">
+        <f t="shared" si="17"/>
+        <v>6067.5711999999967</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B247" s="2">
+        <f t="shared" si="15"/>
+        <v>245</v>
+      </c>
+      <c r="G247" s="2">
+        <f t="shared" si="16"/>
+        <v>9584.8275000000012</v>
+      </c>
+      <c r="H247" s="2">
+        <f t="shared" si="17"/>
+        <v>6042.0049999999974</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B248" s="2">
+        <f t="shared" si="15"/>
+        <v>246</v>
+      </c>
+      <c r="G248" s="2">
+        <f t="shared" si="16"/>
+        <v>9652.35</v>
+      </c>
+      <c r="H248" s="2">
+        <f t="shared" si="17"/>
+        <v>6015.2891999999938</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B249" s="2">
+        <f t="shared" si="15"/>
+        <v>247</v>
+      </c>
+      <c r="G249" s="2">
+        <f t="shared" si="16"/>
+        <v>9720.1035000000011</v>
+      </c>
+      <c r="H249" s="2">
+        <f t="shared" si="17"/>
+        <v>5987.4147999999959</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B250" s="2">
+        <f t="shared" si="15"/>
+        <v>248</v>
+      </c>
+      <c r="G250" s="2">
+        <f t="shared" si="16"/>
+        <v>9788.0879999999997</v>
+      </c>
+      <c r="H250" s="2">
+        <f t="shared" si="17"/>
+        <v>5958.3727999999974</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B251" s="2">
+        <f t="shared" si="15"/>
+        <v>249</v>
+      </c>
+      <c r="G251" s="2">
+        <f t="shared" si="16"/>
+        <v>9856.3035</v>
+      </c>
+      <c r="H251" s="2">
+        <f t="shared" si="17"/>
+        <v>5928.1541999999954</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B252" s="2">
+        <f t="shared" si="15"/>
+        <v>250</v>
+      </c>
+      <c r="G252" s="2">
+        <f t="shared" si="16"/>
+        <v>9924.75</v>
+      </c>
+      <c r="H252" s="2">
+        <f t="shared" si="17"/>
+        <v>5896.75</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A253" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B253" s="2">
+        <f t="shared" si="15"/>
+        <v>251</v>
+      </c>
+      <c r="G253" s="2">
+        <f t="shared" si="16"/>
+        <v>9993.4275000000016</v>
+      </c>
+      <c r="H253" s="2">
+        <f t="shared" si="17"/>
+        <v>5864.1511999999948</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B254" s="2">
+        <f t="shared" si="15"/>
+        <v>252</v>
+      </c>
+      <c r="G254" s="2">
+        <f t="shared" si="16"/>
+        <v>10062.335999999999</v>
+      </c>
+      <c r="H254" s="2">
+        <f t="shared" si="17"/>
+        <v>5830.3488000000007</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B255" s="2">
+        <f t="shared" si="15"/>
+        <v>253</v>
+      </c>
+      <c r="G255" s="2">
+        <f t="shared" si="16"/>
+        <v>10131.4755</v>
+      </c>
+      <c r="H255" s="2">
+        <f t="shared" si="17"/>
+        <v>5795.3338000000003</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B256" s="2">
+        <f t="shared" si="15"/>
+        <v>254</v>
+      </c>
+      <c r="G256" s="2">
+        <f t="shared" si="16"/>
+        <v>10200.846</v>
+      </c>
+      <c r="H256" s="2">
+        <f t="shared" si="17"/>
+        <v>5759.0971999999947</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B257" s="2">
+        <f t="shared" si="15"/>
+        <v>255</v>
+      </c>
+      <c r="G257" s="2">
+        <f t="shared" si="16"/>
+        <v>10270.4475</v>
+      </c>
+      <c r="H257" s="2">
+        <f t="shared" si="17"/>
+        <v>5721.6299999999974</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B258" s="2">
+        <f t="shared" si="15"/>
+        <v>256</v>
+      </c>
+      <c r="G258" s="2">
+        <f t="shared" si="16"/>
+        <v>10340.280000000001</v>
+      </c>
+      <c r="H258" s="2">
+        <f t="shared" si="17"/>
+        <v>5682.9231999999956</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B259" s="2">
+        <f t="shared" ref="B259:B267" si="20">B258+1</f>
+        <v>257</v>
+      </c>
+      <c r="G259" s="2">
+        <f t="shared" ref="G259:G267" si="21">0.1155*B259^2+10.812*B259+3</f>
+        <v>10410.343500000001</v>
+      </c>
+      <c r="H259" s="2">
+        <f t="shared" ref="H259:H267" si="22">-0.0015*B259^3+0.5277*B259^2-14.6*B259+3</f>
+        <v>5642.9677999999922</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B260" s="2">
+        <f t="shared" si="20"/>
+        <v>258</v>
+      </c>
+      <c r="G260" s="2">
+        <f t="shared" si="21"/>
+        <v>10480.638000000001</v>
+      </c>
+      <c r="H260" s="2">
+        <f t="shared" si="22"/>
+        <v>5601.7547999999952</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A261" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B261" s="2">
+        <f t="shared" si="20"/>
+        <v>259</v>
+      </c>
+      <c r="G261" s="2">
+        <f t="shared" si="21"/>
+        <v>10551.163500000001</v>
+      </c>
+      <c r="H261" s="2">
+        <f t="shared" si="22"/>
+        <v>5559.2751999999946</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B262" s="2">
+        <f t="shared" si="20"/>
+        <v>260</v>
+      </c>
+      <c r="G262" s="2">
+        <f t="shared" si="21"/>
+        <v>10621.92</v>
+      </c>
+      <c r="H262" s="2">
+        <f t="shared" si="22"/>
+        <v>5515.5199999999968</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B263" s="2">
+        <f t="shared" si="20"/>
+        <v>261</v>
+      </c>
+      <c r="G263" s="2">
+        <f t="shared" si="21"/>
+        <v>10692.907500000001</v>
+      </c>
+      <c r="H263" s="2">
+        <f t="shared" si="22"/>
+        <v>5470.4801999999963</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B264" s="2">
+        <f t="shared" si="20"/>
+        <v>262</v>
+      </c>
+      <c r="G264" s="2">
+        <f t="shared" si="21"/>
+        <v>10764.126</v>
+      </c>
+      <c r="H264" s="2">
+        <f t="shared" si="22"/>
+        <v>5424.1467999999959</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B265" s="2">
+        <f t="shared" si="20"/>
+        <v>263</v>
+      </c>
+      <c r="G265" s="2">
+        <f t="shared" si="21"/>
+        <v>10835.575500000001</v>
+      </c>
+      <c r="H265" s="2">
+        <f t="shared" si="22"/>
+        <v>5376.5108</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B266" s="2">
+        <f t="shared" si="20"/>
+        <v>264</v>
+      </c>
+      <c r="G266" s="2">
+        <f t="shared" si="21"/>
+        <v>10907.256000000001</v>
+      </c>
+      <c r="H266" s="2">
+        <f t="shared" si="22"/>
+        <v>5327.5631999999914</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B267" s="2">
+        <f t="shared" si="20"/>
+        <v>265</v>
+      </c>
+      <c r="G267" s="2">
+        <f t="shared" si="21"/>
+        <v>10979.1675</v>
+      </c>
+      <c r="H267" s="2">
+        <f t="shared" si="22"/>
+        <v>5277.2949999999983</v>
       </c>
     </row>
   </sheetData>
